--- a/01_基本設計書/20200220リリース/SC-K21A_工程別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21A_工程別集計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201909\その他払出\集計画面\成果物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201910\実績参照\20191017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55C79AE-5CDA-4EEA-BB6C-73EFA0F8ACE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334C48F9-C6F9-4560-AEC3-B04D9C74F64C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -120,7 +120,7 @@
     <definedName name="振分けポリシー">#REF!</definedName>
     <definedName name="非営業日">[1]休日!$B$16:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1939,6 +1939,9 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1948,47 +1951,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2019,29 +1981,46 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2054,6 +2033,30 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -2073,17 +2076,14 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -3016,23 +3016,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>40481</xdr:rowOff>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>103632</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>189826</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 10">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{104629D9-51FC-48B1-9998-C1267116128D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88134872-6440-43E6-B463-CD72A83DD709}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3041,49 +3041,19 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="1107281"/>
-          <a:ext cx="3095625" cy="4695825"/>
+          <a:off x="371475" y="1095375"/>
+          <a:ext cx="9142857" cy="5390476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3775,108 +3745,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="101" t="s">
+      <c r="A32" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="101"/>
-      <c r="P32" s="101"/>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="101"/>
-      <c r="S32" s="101"/>
-      <c r="T32" s="101"/>
-      <c r="U32" s="101"/>
-      <c r="V32" s="101"/>
-      <c r="W32" s="101"/>
-      <c r="X32" s="101"/>
-      <c r="Y32" s="101"/>
-      <c r="Z32" s="101"/>
-      <c r="AA32" s="101"/>
-      <c r="AB32" s="101"/>
-      <c r="AC32" s="101"/>
-      <c r="AD32" s="101"/>
-      <c r="AE32" s="101"/>
-      <c r="AF32" s="101"/>
-      <c r="AG32" s="101"/>
-      <c r="AH32" s="101"/>
-      <c r="AI32" s="101"/>
-      <c r="AJ32" s="101"/>
-      <c r="AK32" s="101"/>
-      <c r="AL32" s="101"/>
-      <c r="AM32" s="101"/>
-      <c r="AN32" s="101"/>
-      <c r="AO32" s="101"/>
-      <c r="AP32" s="101"/>
-      <c r="AQ32" s="101"/>
-      <c r="AR32" s="101"/>
-      <c r="AS32" s="101"/>
-      <c r="AT32" s="101"/>
-      <c r="AU32" s="101"/>
-      <c r="AV32" s="101"/>
-      <c r="AW32" s="101"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="102"/>
+      <c r="O32" s="102"/>
+      <c r="P32" s="102"/>
+      <c r="Q32" s="102"/>
+      <c r="R32" s="102"/>
+      <c r="S32" s="102"/>
+      <c r="T32" s="102"/>
+      <c r="U32" s="102"/>
+      <c r="V32" s="102"/>
+      <c r="W32" s="102"/>
+      <c r="X32" s="102"/>
+      <c r="Y32" s="102"/>
+      <c r="Z32" s="102"/>
+      <c r="AA32" s="102"/>
+      <c r="AB32" s="102"/>
+      <c r="AC32" s="102"/>
+      <c r="AD32" s="102"/>
+      <c r="AE32" s="102"/>
+      <c r="AF32" s="102"/>
+      <c r="AG32" s="102"/>
+      <c r="AH32" s="102"/>
+      <c r="AI32" s="102"/>
+      <c r="AJ32" s="102"/>
+      <c r="AK32" s="102"/>
+      <c r="AL32" s="102"/>
+      <c r="AM32" s="102"/>
+      <c r="AN32" s="102"/>
+      <c r="AO32" s="102"/>
+      <c r="AP32" s="102"/>
+      <c r="AQ32" s="102"/>
+      <c r="AR32" s="102"/>
+      <c r="AS32" s="102"/>
+      <c r="AT32" s="102"/>
+      <c r="AU32" s="102"/>
+      <c r="AV32" s="102"/>
+      <c r="AW32" s="102"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="102"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="102"/>
-      <c r="L33" s="102"/>
-      <c r="M33" s="102"/>
-      <c r="N33" s="102"/>
-      <c r="O33" s="102"/>
-      <c r="P33" s="102"/>
-      <c r="Q33" s="102"/>
-      <c r="R33" s="102"/>
-      <c r="S33" s="102"/>
-      <c r="T33" s="102"/>
-      <c r="U33" s="102"/>
-      <c r="V33" s="102"/>
-      <c r="W33" s="102"/>
-      <c r="X33" s="102"/>
-      <c r="Y33" s="102"/>
-      <c r="Z33" s="102"/>
-      <c r="AA33" s="102"/>
-      <c r="AB33" s="102"/>
-      <c r="AC33" s="102"/>
-      <c r="AD33" s="102"/>
-      <c r="AE33" s="102"/>
-      <c r="AF33" s="102"/>
-      <c r="AG33" s="102"/>
-      <c r="AH33" s="102"/>
-      <c r="AI33" s="102"/>
-      <c r="AJ33" s="102"/>
-      <c r="AK33" s="102"/>
-      <c r="AL33" s="102"/>
-      <c r="AM33" s="102"/>
-      <c r="AN33" s="102"/>
-      <c r="AO33" s="102"/>
-      <c r="AP33" s="102"/>
-      <c r="AQ33" s="102"/>
-      <c r="AR33" s="102"/>
-      <c r="AS33" s="102"/>
-      <c r="AT33" s="102"/>
-      <c r="AU33" s="102"/>
-      <c r="AV33" s="102"/>
-      <c r="AW33" s="102"/>
+      <c r="A33" s="103"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="103"/>
+      <c r="S33" s="103"/>
+      <c r="T33" s="103"/>
+      <c r="U33" s="103"/>
+      <c r="V33" s="103"/>
+      <c r="W33" s="103"/>
+      <c r="X33" s="103"/>
+      <c r="Y33" s="103"/>
+      <c r="Z33" s="103"/>
+      <c r="AA33" s="103"/>
+      <c r="AB33" s="103"/>
+      <c r="AC33" s="103"/>
+      <c r="AD33" s="103"/>
+      <c r="AE33" s="103"/>
+      <c r="AF33" s="103"/>
+      <c r="AG33" s="103"/>
+      <c r="AH33" s="103"/>
+      <c r="AI33" s="103"/>
+      <c r="AJ33" s="103"/>
+      <c r="AK33" s="103"/>
+      <c r="AL33" s="103"/>
+      <c r="AM33" s="103"/>
+      <c r="AN33" s="103"/>
+      <c r="AO33" s="103"/>
+      <c r="AP33" s="103"/>
+      <c r="AQ33" s="103"/>
+      <c r="AR33" s="103"/>
+      <c r="AS33" s="103"/>
+      <c r="AT33" s="103"/>
+      <c r="AU33" s="103"/>
+      <c r="AV33" s="103"/>
+      <c r="AW33" s="103"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -3914,55 +3884,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="103"/>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="103"/>
-      <c r="L35" s="103"/>
-      <c r="M35" s="103"/>
-      <c r="N35" s="103"/>
-      <c r="O35" s="103"/>
-      <c r="P35" s="103"/>
-      <c r="Q35" s="103"/>
-      <c r="R35" s="103"/>
-      <c r="S35" s="103"/>
-      <c r="T35" s="103"/>
-      <c r="U35" s="103"/>
-      <c r="V35" s="103"/>
-      <c r="W35" s="103"/>
-      <c r="X35" s="103"/>
-      <c r="Y35" s="103"/>
-      <c r="Z35" s="103"/>
-      <c r="AA35" s="103"/>
-      <c r="AB35" s="103"/>
-      <c r="AC35" s="103"/>
-      <c r="AD35" s="103"/>
-      <c r="AE35" s="103"/>
-      <c r="AF35" s="103"/>
-      <c r="AG35" s="103"/>
-      <c r="AH35" s="103"/>
-      <c r="AI35" s="103"/>
-      <c r="AJ35" s="103"/>
-      <c r="AK35" s="103"/>
-      <c r="AL35" s="103"/>
-      <c r="AM35" s="103"/>
-      <c r="AN35" s="103"/>
-      <c r="AO35" s="103"/>
-      <c r="AP35" s="103"/>
-      <c r="AQ35" s="103"/>
-      <c r="AR35" s="103"/>
-      <c r="AS35" s="103"/>
-      <c r="AT35" s="103"/>
-      <c r="AU35" s="103"/>
-      <c r="AV35" s="103"/>
-      <c r="AW35" s="103"/>
+      <c r="A35" s="104"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="104"/>
+      <c r="N35" s="104"/>
+      <c r="O35" s="104"/>
+      <c r="P35" s="104"/>
+      <c r="Q35" s="104"/>
+      <c r="R35" s="104"/>
+      <c r="S35" s="104"/>
+      <c r="T35" s="104"/>
+      <c r="U35" s="104"/>
+      <c r="V35" s="104"/>
+      <c r="W35" s="104"/>
+      <c r="X35" s="104"/>
+      <c r="Y35" s="104"/>
+      <c r="Z35" s="104"/>
+      <c r="AA35" s="104"/>
+      <c r="AB35" s="104"/>
+      <c r="AC35" s="104"/>
+      <c r="AD35" s="104"/>
+      <c r="AE35" s="104"/>
+      <c r="AF35" s="104"/>
+      <c r="AG35" s="104"/>
+      <c r="AH35" s="104"/>
+      <c r="AI35" s="104"/>
+      <c r="AJ35" s="104"/>
+      <c r="AK35" s="104"/>
+      <c r="AL35" s="104"/>
+      <c r="AM35" s="104"/>
+      <c r="AN35" s="104"/>
+      <c r="AO35" s="104"/>
+      <c r="AP35" s="104"/>
+      <c r="AQ35" s="104"/>
+      <c r="AR35" s="104"/>
+      <c r="AS35" s="104"/>
+      <c r="AT35" s="104"/>
+      <c r="AU35" s="104"/>
+      <c r="AV35" s="104"/>
+      <c r="AW35" s="104"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -3997,1779 +3967,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="119"/>
-      <c r="AH1" s="119"/>
-      <c r="AI1" s="119"/>
-      <c r="AJ1" s="119"/>
-      <c r="AK1" s="119"/>
-      <c r="AL1" s="119"/>
-      <c r="AM1" s="119"/>
-      <c r="AN1" s="119"/>
-      <c r="AO1" s="119"/>
-      <c r="AP1" s="119"/>
-      <c r="AQ1" s="119"/>
-      <c r="AR1" s="119"/>
-      <c r="AS1" s="119"/>
-      <c r="AT1" s="119"/>
-      <c r="AU1" s="119"/>
-      <c r="AV1" s="119"/>
-      <c r="AW1" s="119"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="105"/>
+      <c r="AF1" s="105"/>
+      <c r="AG1" s="105"/>
+      <c r="AH1" s="105"/>
+      <c r="AI1" s="105"/>
+      <c r="AJ1" s="105"/>
+      <c r="AK1" s="105"/>
+      <c r="AL1" s="105"/>
+      <c r="AM1" s="105"/>
+      <c r="AN1" s="105"/>
+      <c r="AO1" s="105"/>
+      <c r="AP1" s="105"/>
+      <c r="AQ1" s="105"/>
+      <c r="AR1" s="105"/>
+      <c r="AS1" s="105"/>
+      <c r="AT1" s="105"/>
+      <c r="AU1" s="105"/>
+      <c r="AV1" s="105"/>
+      <c r="AW1" s="105"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="120"/>
-      <c r="AA2" s="120"/>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="120"/>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="120"/>
-      <c r="AG2" s="120"/>
-      <c r="AH2" s="120"/>
-      <c r="AI2" s="120"/>
-      <c r="AJ2" s="120"/>
-      <c r="AK2" s="120"/>
-      <c r="AL2" s="120"/>
-      <c r="AM2" s="120"/>
-      <c r="AN2" s="120"/>
-      <c r="AO2" s="120"/>
-      <c r="AP2" s="120"/>
-      <c r="AQ2" s="120"/>
-      <c r="AR2" s="120"/>
-      <c r="AS2" s="120"/>
-      <c r="AT2" s="120"/>
-      <c r="AU2" s="120"/>
-      <c r="AV2" s="120"/>
-      <c r="AW2" s="120"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="106"/>
+      <c r="AA2" s="106"/>
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="106"/>
+      <c r="AD2" s="106"/>
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="106"/>
+      <c r="AH2" s="106"/>
+      <c r="AI2" s="106"/>
+      <c r="AJ2" s="106"/>
+      <c r="AK2" s="106"/>
+      <c r="AL2" s="106"/>
+      <c r="AM2" s="106"/>
+      <c r="AN2" s="106"/>
+      <c r="AO2" s="106"/>
+      <c r="AP2" s="106"/>
+      <c r="AQ2" s="106"/>
+      <c r="AR2" s="106"/>
+      <c r="AS2" s="106"/>
+      <c r="AT2" s="106"/>
+      <c r="AU2" s="106"/>
+      <c r="AV2" s="106"/>
+      <c r="AW2" s="106"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121" t="s">
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="123" t="s">
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="124"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="123" t="s">
+      <c r="K3" s="110"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="121" t="s">
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121" t="s">
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="121"/>
-      <c r="AD3" s="121"/>
-      <c r="AE3" s="121"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="121"/>
-      <c r="AH3" s="121"/>
-      <c r="AI3" s="121"/>
-      <c r="AJ3" s="121"/>
-      <c r="AK3" s="121"/>
-      <c r="AL3" s="121"/>
-      <c r="AM3" s="121"/>
-      <c r="AN3" s="121" t="s">
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="107"/>
+      <c r="AG3" s="107"/>
+      <c r="AH3" s="107"/>
+      <c r="AI3" s="107"/>
+      <c r="AJ3" s="107"/>
+      <c r="AK3" s="107"/>
+      <c r="AL3" s="107"/>
+      <c r="AM3" s="107"/>
+      <c r="AN3" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="121"/>
-      <c r="AP3" s="121"/>
-      <c r="AQ3" s="121"/>
-      <c r="AR3" s="121"/>
-      <c r="AS3" s="121" t="s">
+      <c r="AO3" s="107"/>
+      <c r="AP3" s="107"/>
+      <c r="AQ3" s="107"/>
+      <c r="AR3" s="107"/>
+      <c r="AS3" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="121"/>
-      <c r="AU3" s="121"/>
-      <c r="AV3" s="121"/>
-      <c r="AW3" s="121"/>
+      <c r="AT3" s="107"/>
+      <c r="AU3" s="107"/>
+      <c r="AV3" s="107"/>
+      <c r="AW3" s="107"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122"/>
-      <c r="Z4" s="122"/>
-      <c r="AA4" s="122"/>
-      <c r="AB4" s="122"/>
-      <c r="AC4" s="122"/>
-      <c r="AD4" s="122"/>
-      <c r="AE4" s="122"/>
-      <c r="AF4" s="122"/>
-      <c r="AG4" s="122"/>
-      <c r="AH4" s="122"/>
-      <c r="AI4" s="122"/>
-      <c r="AJ4" s="122"/>
-      <c r="AK4" s="122"/>
-      <c r="AL4" s="122"/>
-      <c r="AM4" s="122"/>
-      <c r="AN4" s="122"/>
-      <c r="AO4" s="122"/>
-      <c r="AP4" s="122"/>
-      <c r="AQ4" s="122"/>
-      <c r="AR4" s="122"/>
-      <c r="AS4" s="122"/>
-      <c r="AT4" s="122"/>
-      <c r="AU4" s="122"/>
-      <c r="AV4" s="122"/>
-      <c r="AW4" s="122"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="113"/>
+      <c r="Q4" s="113"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="108"/>
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="108"/>
+      <c r="AE4" s="108"/>
+      <c r="AF4" s="108"/>
+      <c r="AG4" s="108"/>
+      <c r="AH4" s="108"/>
+      <c r="AI4" s="108"/>
+      <c r="AJ4" s="108"/>
+      <c r="AK4" s="108"/>
+      <c r="AL4" s="108"/>
+      <c r="AM4" s="108"/>
+      <c r="AN4" s="108"/>
+      <c r="AO4" s="108"/>
+      <c r="AP4" s="108"/>
+      <c r="AQ4" s="108"/>
+      <c r="AR4" s="108"/>
+      <c r="AS4" s="108"/>
+      <c r="AT4" s="108"/>
+      <c r="AU4" s="108"/>
+      <c r="AV4" s="108"/>
+      <c r="AW4" s="108"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="105">
+      <c r="B5" s="116">
         <v>1</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="106">
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117">
         <v>43721</v>
       </c>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="107" t="s">
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107" t="s">
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="104" t="s">
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="116" t="s">
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="116"/>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="116"/>
-      <c r="Z5" s="116"/>
-      <c r="AA5" s="116"/>
-      <c r="AB5" s="116"/>
-      <c r="AC5" s="116"/>
-      <c r="AD5" s="116"/>
-      <c r="AE5" s="116"/>
-      <c r="AF5" s="116"/>
-      <c r="AG5" s="116"/>
-      <c r="AH5" s="116"/>
-      <c r="AI5" s="116"/>
-      <c r="AJ5" s="116"/>
-      <c r="AK5" s="116"/>
-      <c r="AL5" s="116"/>
-      <c r="AM5" s="116"/>
-      <c r="AN5" s="104" t="s">
+      <c r="W5" s="120"/>
+      <c r="X5" s="120"/>
+      <c r="Y5" s="120"/>
+      <c r="Z5" s="120"/>
+      <c r="AA5" s="120"/>
+      <c r="AB5" s="120"/>
+      <c r="AC5" s="120"/>
+      <c r="AD5" s="120"/>
+      <c r="AE5" s="120"/>
+      <c r="AF5" s="120"/>
+      <c r="AG5" s="120"/>
+      <c r="AH5" s="120"/>
+      <c r="AI5" s="120"/>
+      <c r="AJ5" s="120"/>
+      <c r="AK5" s="120"/>
+      <c r="AL5" s="120"/>
+      <c r="AM5" s="120"/>
+      <c r="AN5" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="AO5" s="104"/>
-      <c r="AP5" s="104"/>
-      <c r="AQ5" s="104"/>
-      <c r="AR5" s="104"/>
-      <c r="AS5" s="104"/>
-      <c r="AT5" s="104"/>
-      <c r="AU5" s="104"/>
-      <c r="AV5" s="104"/>
-      <c r="AW5" s="104"/>
+      <c r="AO5" s="115"/>
+      <c r="AP5" s="115"/>
+      <c r="AQ5" s="115"/>
+      <c r="AR5" s="115"/>
+      <c r="AS5" s="115"/>
+      <c r="AT5" s="115"/>
+      <c r="AU5" s="115"/>
+      <c r="AV5" s="115"/>
+      <c r="AW5" s="115"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="116"/>
-      <c r="W6" s="116"/>
-      <c r="X6" s="116"/>
-      <c r="Y6" s="116"/>
-      <c r="Z6" s="116"/>
-      <c r="AA6" s="116"/>
-      <c r="AB6" s="116"/>
-      <c r="AC6" s="116"/>
-      <c r="AD6" s="116"/>
-      <c r="AE6" s="116"/>
-      <c r="AF6" s="116"/>
-      <c r="AG6" s="116"/>
-      <c r="AH6" s="116"/>
-      <c r="AI6" s="116"/>
-      <c r="AJ6" s="116"/>
-      <c r="AK6" s="116"/>
-      <c r="AL6" s="116"/>
-      <c r="AM6" s="116"/>
-      <c r="AN6" s="104"/>
-      <c r="AO6" s="104"/>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="104"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104"/>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115"/>
+      <c r="U6" s="115"/>
+      <c r="V6" s="120"/>
+      <c r="W6" s="120"/>
+      <c r="X6" s="120"/>
+      <c r="Y6" s="120"/>
+      <c r="Z6" s="120"/>
+      <c r="AA6" s="120"/>
+      <c r="AB6" s="120"/>
+      <c r="AC6" s="120"/>
+      <c r="AD6" s="120"/>
+      <c r="AE6" s="120"/>
+      <c r="AF6" s="120"/>
+      <c r="AG6" s="120"/>
+      <c r="AH6" s="120"/>
+      <c r="AI6" s="120"/>
+      <c r="AJ6" s="120"/>
+      <c r="AK6" s="120"/>
+      <c r="AL6" s="120"/>
+      <c r="AM6" s="120"/>
+      <c r="AN6" s="115"/>
+      <c r="AO6" s="115"/>
+      <c r="AP6" s="115"/>
+      <c r="AQ6" s="115"/>
+      <c r="AR6" s="115"/>
+      <c r="AS6" s="115"/>
+      <c r="AT6" s="115"/>
+      <c r="AU6" s="115"/>
+      <c r="AV6" s="115"/>
+      <c r="AW6" s="115"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="116"/>
-      <c r="W7" s="116"/>
-      <c r="X7" s="116"/>
-      <c r="Y7" s="116"/>
-      <c r="Z7" s="116"/>
-      <c r="AA7" s="116"/>
-      <c r="AB7" s="116"/>
-      <c r="AC7" s="116"/>
-      <c r="AD7" s="116"/>
-      <c r="AE7" s="116"/>
-      <c r="AF7" s="116"/>
-      <c r="AG7" s="116"/>
-      <c r="AH7" s="116"/>
-      <c r="AI7" s="116"/>
-      <c r="AJ7" s="116"/>
-      <c r="AK7" s="116"/>
-      <c r="AL7" s="116"/>
-      <c r="AM7" s="116"/>
-      <c r="AN7" s="104"/>
-      <c r="AO7" s="104"/>
-      <c r="AP7" s="104"/>
-      <c r="AQ7" s="104"/>
-      <c r="AR7" s="104"/>
-      <c r="AS7" s="104"/>
-      <c r="AT7" s="104"/>
-      <c r="AU7" s="104"/>
-      <c r="AV7" s="104"/>
-      <c r="AW7" s="104"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="120"/>
+      <c r="W7" s="120"/>
+      <c r="X7" s="120"/>
+      <c r="Y7" s="120"/>
+      <c r="Z7" s="120"/>
+      <c r="AA7" s="120"/>
+      <c r="AB7" s="120"/>
+      <c r="AC7" s="120"/>
+      <c r="AD7" s="120"/>
+      <c r="AE7" s="120"/>
+      <c r="AF7" s="120"/>
+      <c r="AG7" s="120"/>
+      <c r="AH7" s="120"/>
+      <c r="AI7" s="120"/>
+      <c r="AJ7" s="120"/>
+      <c r="AK7" s="120"/>
+      <c r="AL7" s="120"/>
+      <c r="AM7" s="120"/>
+      <c r="AN7" s="115"/>
+      <c r="AO7" s="115"/>
+      <c r="AP7" s="115"/>
+      <c r="AQ7" s="115"/>
+      <c r="AR7" s="115"/>
+      <c r="AS7" s="115"/>
+      <c r="AT7" s="115"/>
+      <c r="AU7" s="115"/>
+      <c r="AV7" s="115"/>
+      <c r="AW7" s="115"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="116"/>
-      <c r="Z8" s="116"/>
-      <c r="AA8" s="116"/>
-      <c r="AB8" s="116"/>
-      <c r="AC8" s="116"/>
-      <c r="AD8" s="116"/>
-      <c r="AE8" s="116"/>
-      <c r="AF8" s="116"/>
-      <c r="AG8" s="116"/>
-      <c r="AH8" s="116"/>
-      <c r="AI8" s="116"/>
-      <c r="AJ8" s="116"/>
-      <c r="AK8" s="116"/>
-      <c r="AL8" s="116"/>
-      <c r="AM8" s="116"/>
-      <c r="AN8" s="104"/>
-      <c r="AO8" s="104"/>
-      <c r="AP8" s="104"/>
-      <c r="AQ8" s="104"/>
-      <c r="AR8" s="104"/>
-      <c r="AS8" s="104"/>
-      <c r="AT8" s="104"/>
-      <c r="AU8" s="104"/>
-      <c r="AV8" s="104"/>
-      <c r="AW8" s="104"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="120"/>
+      <c r="W8" s="120"/>
+      <c r="X8" s="120"/>
+      <c r="Y8" s="120"/>
+      <c r="Z8" s="120"/>
+      <c r="AA8" s="120"/>
+      <c r="AB8" s="120"/>
+      <c r="AC8" s="120"/>
+      <c r="AD8" s="120"/>
+      <c r="AE8" s="120"/>
+      <c r="AF8" s="120"/>
+      <c r="AG8" s="120"/>
+      <c r="AH8" s="120"/>
+      <c r="AI8" s="120"/>
+      <c r="AJ8" s="120"/>
+      <c r="AK8" s="120"/>
+      <c r="AL8" s="120"/>
+      <c r="AM8" s="120"/>
+      <c r="AN8" s="115"/>
+      <c r="AO8" s="115"/>
+      <c r="AP8" s="115"/>
+      <c r="AQ8" s="115"/>
+      <c r="AR8" s="115"/>
+      <c r="AS8" s="115"/>
+      <c r="AT8" s="115"/>
+      <c r="AU8" s="115"/>
+      <c r="AV8" s="115"/>
+      <c r="AW8" s="115"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="118"/>
-      <c r="R9" s="118"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="104"/>
-      <c r="V9" s="116"/>
-      <c r="W9" s="116"/>
-      <c r="X9" s="116"/>
-      <c r="Y9" s="116"/>
-      <c r="Z9" s="116"/>
-      <c r="AA9" s="116"/>
-      <c r="AB9" s="116"/>
-      <c r="AC9" s="116"/>
-      <c r="AD9" s="116"/>
-      <c r="AE9" s="116"/>
-      <c r="AF9" s="116"/>
-      <c r="AG9" s="116"/>
-      <c r="AH9" s="116"/>
-      <c r="AI9" s="116"/>
-      <c r="AJ9" s="116"/>
-      <c r="AK9" s="116"/>
-      <c r="AL9" s="116"/>
-      <c r="AM9" s="116"/>
-      <c r="AN9" s="104"/>
-      <c r="AO9" s="104"/>
-      <c r="AP9" s="104"/>
-      <c r="AQ9" s="104"/>
-      <c r="AR9" s="104"/>
-      <c r="AS9" s="104"/>
-      <c r="AT9" s="104"/>
-      <c r="AU9" s="104"/>
-      <c r="AV9" s="104"/>
-      <c r="AW9" s="104"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="115"/>
+      <c r="T9" s="115"/>
+      <c r="U9" s="115"/>
+      <c r="V9" s="120"/>
+      <c r="W9" s="120"/>
+      <c r="X9" s="120"/>
+      <c r="Y9" s="120"/>
+      <c r="Z9" s="120"/>
+      <c r="AA9" s="120"/>
+      <c r="AB9" s="120"/>
+      <c r="AC9" s="120"/>
+      <c r="AD9" s="120"/>
+      <c r="AE9" s="120"/>
+      <c r="AF9" s="120"/>
+      <c r="AG9" s="120"/>
+      <c r="AH9" s="120"/>
+      <c r="AI9" s="120"/>
+      <c r="AJ9" s="120"/>
+      <c r="AK9" s="120"/>
+      <c r="AL9" s="120"/>
+      <c r="AM9" s="120"/>
+      <c r="AN9" s="115"/>
+      <c r="AO9" s="115"/>
+      <c r="AP9" s="115"/>
+      <c r="AQ9" s="115"/>
+      <c r="AR9" s="115"/>
+      <c r="AS9" s="115"/>
+      <c r="AT9" s="115"/>
+      <c r="AU9" s="115"/>
+      <c r="AV9" s="115"/>
+      <c r="AW9" s="115"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="116"/>
-      <c r="W10" s="116"/>
-      <c r="X10" s="116"/>
-      <c r="Y10" s="116"/>
-      <c r="Z10" s="116"/>
-      <c r="AA10" s="116"/>
-      <c r="AB10" s="116"/>
-      <c r="AC10" s="116"/>
-      <c r="AD10" s="116"/>
-      <c r="AE10" s="116"/>
-      <c r="AF10" s="116"/>
-      <c r="AG10" s="116"/>
-      <c r="AH10" s="116"/>
-      <c r="AI10" s="116"/>
-      <c r="AJ10" s="116"/>
-      <c r="AK10" s="116"/>
-      <c r="AL10" s="116"/>
-      <c r="AM10" s="116"/>
-      <c r="AN10" s="104"/>
-      <c r="AO10" s="104"/>
-      <c r="AP10" s="104"/>
-      <c r="AQ10" s="104"/>
-      <c r="AR10" s="104"/>
-      <c r="AS10" s="104"/>
-      <c r="AT10" s="104"/>
-      <c r="AU10" s="104"/>
-      <c r="AV10" s="104"/>
-      <c r="AW10" s="104"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="115"/>
+      <c r="V10" s="120"/>
+      <c r="W10" s="120"/>
+      <c r="X10" s="120"/>
+      <c r="Y10" s="120"/>
+      <c r="Z10" s="120"/>
+      <c r="AA10" s="120"/>
+      <c r="AB10" s="120"/>
+      <c r="AC10" s="120"/>
+      <c r="AD10" s="120"/>
+      <c r="AE10" s="120"/>
+      <c r="AF10" s="120"/>
+      <c r="AG10" s="120"/>
+      <c r="AH10" s="120"/>
+      <c r="AI10" s="120"/>
+      <c r="AJ10" s="120"/>
+      <c r="AK10" s="120"/>
+      <c r="AL10" s="120"/>
+      <c r="AM10" s="120"/>
+      <c r="AN10" s="115"/>
+      <c r="AO10" s="115"/>
+      <c r="AP10" s="115"/>
+      <c r="AQ10" s="115"/>
+      <c r="AR10" s="115"/>
+      <c r="AS10" s="115"/>
+      <c r="AT10" s="115"/>
+      <c r="AU10" s="115"/>
+      <c r="AV10" s="115"/>
+      <c r="AW10" s="115"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
-      <c r="R11" s="112"/>
-      <c r="S11" s="104"/>
-      <c r="T11" s="104"/>
-      <c r="U11" s="104"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="117"/>
-      <c r="X11" s="117"/>
-      <c r="Y11" s="117"/>
-      <c r="Z11" s="117"/>
-      <c r="AA11" s="117"/>
-      <c r="AB11" s="117"/>
-      <c r="AC11" s="117"/>
-      <c r="AD11" s="117"/>
-      <c r="AE11" s="117"/>
-      <c r="AF11" s="117"/>
-      <c r="AG11" s="117"/>
-      <c r="AH11" s="117"/>
-      <c r="AI11" s="117"/>
-      <c r="AJ11" s="117"/>
-      <c r="AK11" s="117"/>
-      <c r="AL11" s="117"/>
-      <c r="AM11" s="117"/>
-      <c r="AN11" s="104"/>
-      <c r="AO11" s="104"/>
-      <c r="AP11" s="104"/>
-      <c r="AQ11" s="104"/>
-      <c r="AR11" s="104"/>
-      <c r="AS11" s="104"/>
-      <c r="AT11" s="104"/>
-      <c r="AU11" s="104"/>
-      <c r="AV11" s="104"/>
-      <c r="AW11" s="104"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="121"/>
+      <c r="P11" s="121"/>
+      <c r="Q11" s="121"/>
+      <c r="R11" s="121"/>
+      <c r="S11" s="115"/>
+      <c r="T11" s="115"/>
+      <c r="U11" s="115"/>
+      <c r="V11" s="122"/>
+      <c r="W11" s="123"/>
+      <c r="X11" s="123"/>
+      <c r="Y11" s="123"/>
+      <c r="Z11" s="123"/>
+      <c r="AA11" s="123"/>
+      <c r="AB11" s="123"/>
+      <c r="AC11" s="123"/>
+      <c r="AD11" s="123"/>
+      <c r="AE11" s="123"/>
+      <c r="AF11" s="123"/>
+      <c r="AG11" s="123"/>
+      <c r="AH11" s="123"/>
+      <c r="AI11" s="123"/>
+      <c r="AJ11" s="123"/>
+      <c r="AK11" s="123"/>
+      <c r="AL11" s="123"/>
+      <c r="AM11" s="123"/>
+      <c r="AN11" s="115"/>
+      <c r="AO11" s="115"/>
+      <c r="AP11" s="115"/>
+      <c r="AQ11" s="115"/>
+      <c r="AR11" s="115"/>
+      <c r="AS11" s="115"/>
+      <c r="AT11" s="115"/>
+      <c r="AU11" s="115"/>
+      <c r="AV11" s="115"/>
+      <c r="AW11" s="115"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
-      <c r="R12" s="112"/>
-      <c r="S12" s="104"/>
-      <c r="T12" s="104"/>
-      <c r="U12" s="104"/>
-      <c r="V12" s="110"/>
-      <c r="W12" s="110"/>
-      <c r="X12" s="110"/>
-      <c r="Y12" s="110"/>
-      <c r="Z12" s="110"/>
-      <c r="AA12" s="110"/>
-      <c r="AB12" s="110"/>
-      <c r="AC12" s="110"/>
-      <c r="AD12" s="110"/>
-      <c r="AE12" s="110"/>
-      <c r="AF12" s="110"/>
-      <c r="AG12" s="110"/>
-      <c r="AH12" s="110"/>
-      <c r="AI12" s="110"/>
-      <c r="AJ12" s="110"/>
-      <c r="AK12" s="110"/>
-      <c r="AL12" s="110"/>
-      <c r="AM12" s="110"/>
-      <c r="AN12" s="104"/>
-      <c r="AO12" s="104"/>
-      <c r="AP12" s="104"/>
-      <c r="AQ12" s="104"/>
-      <c r="AR12" s="104"/>
-      <c r="AS12" s="104"/>
-      <c r="AT12" s="104"/>
-      <c r="AU12" s="104"/>
-      <c r="AV12" s="104"/>
-      <c r="AW12" s="104"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="121"/>
+      <c r="Q12" s="121"/>
+      <c r="R12" s="121"/>
+      <c r="S12" s="115"/>
+      <c r="T12" s="115"/>
+      <c r="U12" s="115"/>
+      <c r="V12" s="122"/>
+      <c r="W12" s="122"/>
+      <c r="X12" s="122"/>
+      <c r="Y12" s="122"/>
+      <c r="Z12" s="122"/>
+      <c r="AA12" s="122"/>
+      <c r="AB12" s="122"/>
+      <c r="AC12" s="122"/>
+      <c r="AD12" s="122"/>
+      <c r="AE12" s="122"/>
+      <c r="AF12" s="122"/>
+      <c r="AG12" s="122"/>
+      <c r="AH12" s="122"/>
+      <c r="AI12" s="122"/>
+      <c r="AJ12" s="122"/>
+      <c r="AK12" s="122"/>
+      <c r="AL12" s="122"/>
+      <c r="AM12" s="122"/>
+      <c r="AN12" s="115"/>
+      <c r="AO12" s="115"/>
+      <c r="AP12" s="115"/>
+      <c r="AQ12" s="115"/>
+      <c r="AR12" s="115"/>
+      <c r="AS12" s="115"/>
+      <c r="AT12" s="115"/>
+      <c r="AU12" s="115"/>
+      <c r="AV12" s="115"/>
+      <c r="AW12" s="115"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="112"/>
-      <c r="S13" s="104"/>
-      <c r="T13" s="104"/>
-      <c r="U13" s="104"/>
-      <c r="V13" s="110"/>
-      <c r="W13" s="110"/>
-      <c r="X13" s="110"/>
-      <c r="Y13" s="110"/>
-      <c r="Z13" s="110"/>
-      <c r="AA13" s="110"/>
-      <c r="AB13" s="110"/>
-      <c r="AC13" s="110"/>
-      <c r="AD13" s="110"/>
-      <c r="AE13" s="110"/>
-      <c r="AF13" s="110"/>
-      <c r="AG13" s="110"/>
-      <c r="AH13" s="110"/>
-      <c r="AI13" s="110"/>
-      <c r="AJ13" s="110"/>
-      <c r="AK13" s="110"/>
-      <c r="AL13" s="110"/>
-      <c r="AM13" s="110"/>
-      <c r="AN13" s="104"/>
-      <c r="AO13" s="104"/>
-      <c r="AP13" s="104"/>
-      <c r="AQ13" s="104"/>
-      <c r="AR13" s="104"/>
-      <c r="AS13" s="104"/>
-      <c r="AT13" s="104"/>
-      <c r="AU13" s="104"/>
-      <c r="AV13" s="104"/>
-      <c r="AW13" s="104"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="121"/>
+      <c r="Q13" s="121"/>
+      <c r="R13" s="121"/>
+      <c r="S13" s="115"/>
+      <c r="T13" s="115"/>
+      <c r="U13" s="115"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="122"/>
+      <c r="X13" s="122"/>
+      <c r="Y13" s="122"/>
+      <c r="Z13" s="122"/>
+      <c r="AA13" s="122"/>
+      <c r="AB13" s="122"/>
+      <c r="AC13" s="122"/>
+      <c r="AD13" s="122"/>
+      <c r="AE13" s="122"/>
+      <c r="AF13" s="122"/>
+      <c r="AG13" s="122"/>
+      <c r="AH13" s="122"/>
+      <c r="AI13" s="122"/>
+      <c r="AJ13" s="122"/>
+      <c r="AK13" s="122"/>
+      <c r="AL13" s="122"/>
+      <c r="AM13" s="122"/>
+      <c r="AN13" s="115"/>
+      <c r="AO13" s="115"/>
+      <c r="AP13" s="115"/>
+      <c r="AQ13" s="115"/>
+      <c r="AR13" s="115"/>
+      <c r="AS13" s="115"/>
+      <c r="AT13" s="115"/>
+      <c r="AU13" s="115"/>
+      <c r="AV13" s="115"/>
+      <c r="AW13" s="115"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="112"/>
-      <c r="S14" s="104"/>
-      <c r="T14" s="104"/>
-      <c r="U14" s="104"/>
-      <c r="V14" s="115"/>
-      <c r="W14" s="116"/>
-      <c r="X14" s="116"/>
-      <c r="Y14" s="116"/>
-      <c r="Z14" s="116"/>
-      <c r="AA14" s="116"/>
-      <c r="AB14" s="116"/>
-      <c r="AC14" s="116"/>
-      <c r="AD14" s="116"/>
-      <c r="AE14" s="116"/>
-      <c r="AF14" s="116"/>
-      <c r="AG14" s="116"/>
-      <c r="AH14" s="116"/>
-      <c r="AI14" s="116"/>
-      <c r="AJ14" s="116"/>
-      <c r="AK14" s="116"/>
-      <c r="AL14" s="116"/>
-      <c r="AM14" s="116"/>
-      <c r="AN14" s="104"/>
-      <c r="AO14" s="104"/>
-      <c r="AP14" s="104"/>
-      <c r="AQ14" s="104"/>
-      <c r="AR14" s="104"/>
-      <c r="AS14" s="104"/>
-      <c r="AT14" s="104"/>
-      <c r="AU14" s="104"/>
-      <c r="AV14" s="104"/>
-      <c r="AW14" s="104"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="121"/>
+      <c r="P14" s="121"/>
+      <c r="Q14" s="121"/>
+      <c r="R14" s="121"/>
+      <c r="S14" s="115"/>
+      <c r="T14" s="115"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="125"/>
+      <c r="W14" s="120"/>
+      <c r="X14" s="120"/>
+      <c r="Y14" s="120"/>
+      <c r="Z14" s="120"/>
+      <c r="AA14" s="120"/>
+      <c r="AB14" s="120"/>
+      <c r="AC14" s="120"/>
+      <c r="AD14" s="120"/>
+      <c r="AE14" s="120"/>
+      <c r="AF14" s="120"/>
+      <c r="AG14" s="120"/>
+      <c r="AH14" s="120"/>
+      <c r="AI14" s="120"/>
+      <c r="AJ14" s="120"/>
+      <c r="AK14" s="120"/>
+      <c r="AL14" s="120"/>
+      <c r="AM14" s="120"/>
+      <c r="AN14" s="115"/>
+      <c r="AO14" s="115"/>
+      <c r="AP14" s="115"/>
+      <c r="AQ14" s="115"/>
+      <c r="AR14" s="115"/>
+      <c r="AS14" s="115"/>
+      <c r="AT14" s="115"/>
+      <c r="AU14" s="115"/>
+      <c r="AV14" s="115"/>
+      <c r="AW14" s="115"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="112"/>
-      <c r="N15" s="112"/>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="112"/>
-      <c r="R15" s="112"/>
-      <c r="S15" s="104"/>
-      <c r="T15" s="104"/>
-      <c r="U15" s="104"/>
-      <c r="V15" s="110"/>
-      <c r="W15" s="110"/>
-      <c r="X15" s="110"/>
-      <c r="Y15" s="110"/>
-      <c r="Z15" s="110"/>
-      <c r="AA15" s="110"/>
-      <c r="AB15" s="110"/>
-      <c r="AC15" s="110"/>
-      <c r="AD15" s="110"/>
-      <c r="AE15" s="110"/>
-      <c r="AF15" s="110"/>
-      <c r="AG15" s="110"/>
-      <c r="AH15" s="110"/>
-      <c r="AI15" s="110"/>
-      <c r="AJ15" s="110"/>
-      <c r="AK15" s="110"/>
-      <c r="AL15" s="110"/>
-      <c r="AM15" s="110"/>
-      <c r="AN15" s="104"/>
-      <c r="AO15" s="104"/>
-      <c r="AP15" s="104"/>
-      <c r="AQ15" s="104"/>
-      <c r="AR15" s="104"/>
-      <c r="AS15" s="104"/>
-      <c r="AT15" s="104"/>
-      <c r="AU15" s="104"/>
-      <c r="AV15" s="104"/>
-      <c r="AW15" s="104"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="121"/>
+      <c r="P15" s="121"/>
+      <c r="Q15" s="121"/>
+      <c r="R15" s="121"/>
+      <c r="S15" s="115"/>
+      <c r="T15" s="115"/>
+      <c r="U15" s="115"/>
+      <c r="V15" s="122"/>
+      <c r="W15" s="122"/>
+      <c r="X15" s="122"/>
+      <c r="Y15" s="122"/>
+      <c r="Z15" s="122"/>
+      <c r="AA15" s="122"/>
+      <c r="AB15" s="122"/>
+      <c r="AC15" s="122"/>
+      <c r="AD15" s="122"/>
+      <c r="AE15" s="122"/>
+      <c r="AF15" s="122"/>
+      <c r="AG15" s="122"/>
+      <c r="AH15" s="122"/>
+      <c r="AI15" s="122"/>
+      <c r="AJ15" s="122"/>
+      <c r="AK15" s="122"/>
+      <c r="AL15" s="122"/>
+      <c r="AM15" s="122"/>
+      <c r="AN15" s="115"/>
+      <c r="AO15" s="115"/>
+      <c r="AP15" s="115"/>
+      <c r="AQ15" s="115"/>
+      <c r="AR15" s="115"/>
+      <c r="AS15" s="115"/>
+      <c r="AT15" s="115"/>
+      <c r="AU15" s="115"/>
+      <c r="AV15" s="115"/>
+      <c r="AW15" s="115"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="112"/>
-      <c r="N16" s="112"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="112"/>
-      <c r="R16" s="112"/>
-      <c r="S16" s="104"/>
-      <c r="T16" s="104"/>
-      <c r="U16" s="104"/>
-      <c r="V16" s="110"/>
-      <c r="W16" s="110"/>
-      <c r="X16" s="110"/>
-      <c r="Y16" s="110"/>
-      <c r="Z16" s="110"/>
-      <c r="AA16" s="110"/>
-      <c r="AB16" s="110"/>
-      <c r="AC16" s="110"/>
-      <c r="AD16" s="110"/>
-      <c r="AE16" s="110"/>
-      <c r="AF16" s="110"/>
-      <c r="AG16" s="110"/>
-      <c r="AH16" s="110"/>
-      <c r="AI16" s="110"/>
-      <c r="AJ16" s="110"/>
-      <c r="AK16" s="110"/>
-      <c r="AL16" s="110"/>
-      <c r="AM16" s="110"/>
-      <c r="AN16" s="104"/>
-      <c r="AO16" s="104"/>
-      <c r="AP16" s="104"/>
-      <c r="AQ16" s="104"/>
-      <c r="AR16" s="104"/>
-      <c r="AS16" s="104"/>
-      <c r="AT16" s="104"/>
-      <c r="AU16" s="104"/>
-      <c r="AV16" s="104"/>
-      <c r="AW16" s="104"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="121"/>
+      <c r="P16" s="121"/>
+      <c r="Q16" s="121"/>
+      <c r="R16" s="121"/>
+      <c r="S16" s="115"/>
+      <c r="T16" s="115"/>
+      <c r="U16" s="115"/>
+      <c r="V16" s="122"/>
+      <c r="W16" s="122"/>
+      <c r="X16" s="122"/>
+      <c r="Y16" s="122"/>
+      <c r="Z16" s="122"/>
+      <c r="AA16" s="122"/>
+      <c r="AB16" s="122"/>
+      <c r="AC16" s="122"/>
+      <c r="AD16" s="122"/>
+      <c r="AE16" s="122"/>
+      <c r="AF16" s="122"/>
+      <c r="AG16" s="122"/>
+      <c r="AH16" s="122"/>
+      <c r="AI16" s="122"/>
+      <c r="AJ16" s="122"/>
+      <c r="AK16" s="122"/>
+      <c r="AL16" s="122"/>
+      <c r="AM16" s="122"/>
+      <c r="AN16" s="115"/>
+      <c r="AO16" s="115"/>
+      <c r="AP16" s="115"/>
+      <c r="AQ16" s="115"/>
+      <c r="AR16" s="115"/>
+      <c r="AS16" s="115"/>
+      <c r="AT16" s="115"/>
+      <c r="AU16" s="115"/>
+      <c r="AV16" s="115"/>
+      <c r="AW16" s="115"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="112"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="112"/>
-      <c r="R17" s="113"/>
-      <c r="S17" s="114"/>
-      <c r="T17" s="114"/>
-      <c r="U17" s="114"/>
-      <c r="V17" s="110"/>
-      <c r="W17" s="110"/>
-      <c r="X17" s="110"/>
-      <c r="Y17" s="110"/>
-      <c r="Z17" s="110"/>
-      <c r="AA17" s="110"/>
-      <c r="AB17" s="110"/>
-      <c r="AC17" s="110"/>
-      <c r="AD17" s="110"/>
-      <c r="AE17" s="110"/>
-      <c r="AF17" s="110"/>
-      <c r="AG17" s="110"/>
-      <c r="AH17" s="110"/>
-      <c r="AI17" s="110"/>
-      <c r="AJ17" s="110"/>
-      <c r="AK17" s="110"/>
-      <c r="AL17" s="110"/>
-      <c r="AM17" s="110"/>
-      <c r="AN17" s="104"/>
-      <c r="AO17" s="104"/>
-      <c r="AP17" s="104"/>
-      <c r="AQ17" s="104"/>
-      <c r="AR17" s="104"/>
-      <c r="AS17" s="104"/>
-      <c r="AT17" s="104"/>
-      <c r="AU17" s="104"/>
-      <c r="AV17" s="104"/>
-      <c r="AW17" s="104"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="121"/>
+      <c r="P17" s="121"/>
+      <c r="Q17" s="121"/>
+      <c r="R17" s="126"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="127"/>
+      <c r="U17" s="127"/>
+      <c r="V17" s="122"/>
+      <c r="W17" s="122"/>
+      <c r="X17" s="122"/>
+      <c r="Y17" s="122"/>
+      <c r="Z17" s="122"/>
+      <c r="AA17" s="122"/>
+      <c r="AB17" s="122"/>
+      <c r="AC17" s="122"/>
+      <c r="AD17" s="122"/>
+      <c r="AE17" s="122"/>
+      <c r="AF17" s="122"/>
+      <c r="AG17" s="122"/>
+      <c r="AH17" s="122"/>
+      <c r="AI17" s="122"/>
+      <c r="AJ17" s="122"/>
+      <c r="AK17" s="122"/>
+      <c r="AL17" s="122"/>
+      <c r="AM17" s="122"/>
+      <c r="AN17" s="115"/>
+      <c r="AO17" s="115"/>
+      <c r="AP17" s="115"/>
+      <c r="AQ17" s="115"/>
+      <c r="AR17" s="115"/>
+      <c r="AS17" s="115"/>
+      <c r="AT17" s="115"/>
+      <c r="AU17" s="115"/>
+      <c r="AV17" s="115"/>
+      <c r="AW17" s="115"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="112"/>
-      <c r="Q18" s="112"/>
-      <c r="R18" s="112"/>
-      <c r="S18" s="104"/>
-      <c r="T18" s="104"/>
-      <c r="U18" s="104"/>
-      <c r="V18" s="110"/>
-      <c r="W18" s="110"/>
-      <c r="X18" s="110"/>
-      <c r="Y18" s="110"/>
-      <c r="Z18" s="110"/>
-      <c r="AA18" s="110"/>
-      <c r="AB18" s="110"/>
-      <c r="AC18" s="110"/>
-      <c r="AD18" s="110"/>
-      <c r="AE18" s="110"/>
-      <c r="AF18" s="110"/>
-      <c r="AG18" s="110"/>
-      <c r="AH18" s="110"/>
-      <c r="AI18" s="110"/>
-      <c r="AJ18" s="110"/>
-      <c r="AK18" s="110"/>
-      <c r="AL18" s="110"/>
-      <c r="AM18" s="110"/>
-      <c r="AN18" s="104"/>
-      <c r="AO18" s="104"/>
-      <c r="AP18" s="104"/>
-      <c r="AQ18" s="104"/>
-      <c r="AR18" s="104"/>
-      <c r="AS18" s="104"/>
-      <c r="AT18" s="104"/>
-      <c r="AU18" s="104"/>
-      <c r="AV18" s="104"/>
-      <c r="AW18" s="104"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="124"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="121"/>
+      <c r="Q18" s="121"/>
+      <c r="R18" s="121"/>
+      <c r="S18" s="115"/>
+      <c r="T18" s="115"/>
+      <c r="U18" s="115"/>
+      <c r="V18" s="122"/>
+      <c r="W18" s="122"/>
+      <c r="X18" s="122"/>
+      <c r="Y18" s="122"/>
+      <c r="Z18" s="122"/>
+      <c r="AA18" s="122"/>
+      <c r="AB18" s="122"/>
+      <c r="AC18" s="122"/>
+      <c r="AD18" s="122"/>
+      <c r="AE18" s="122"/>
+      <c r="AF18" s="122"/>
+      <c r="AG18" s="122"/>
+      <c r="AH18" s="122"/>
+      <c r="AI18" s="122"/>
+      <c r="AJ18" s="122"/>
+      <c r="AK18" s="122"/>
+      <c r="AL18" s="122"/>
+      <c r="AM18" s="122"/>
+      <c r="AN18" s="115"/>
+      <c r="AO18" s="115"/>
+      <c r="AP18" s="115"/>
+      <c r="AQ18" s="115"/>
+      <c r="AR18" s="115"/>
+      <c r="AS18" s="115"/>
+      <c r="AT18" s="115"/>
+      <c r="AU18" s="115"/>
+      <c r="AV18" s="115"/>
+      <c r="AW18" s="115"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="112"/>
-      <c r="R19" s="112"/>
-      <c r="S19" s="104"/>
-      <c r="T19" s="104"/>
-      <c r="U19" s="104"/>
-      <c r="V19" s="110"/>
-      <c r="W19" s="110"/>
-      <c r="X19" s="110"/>
-      <c r="Y19" s="110"/>
-      <c r="Z19" s="110"/>
-      <c r="AA19" s="110"/>
-      <c r="AB19" s="110"/>
-      <c r="AC19" s="110"/>
-      <c r="AD19" s="110"/>
-      <c r="AE19" s="110"/>
-      <c r="AF19" s="110"/>
-      <c r="AG19" s="110"/>
-      <c r="AH19" s="110"/>
-      <c r="AI19" s="110"/>
-      <c r="AJ19" s="110"/>
-      <c r="AK19" s="110"/>
-      <c r="AL19" s="110"/>
-      <c r="AM19" s="110"/>
-      <c r="AN19" s="104"/>
-      <c r="AO19" s="104"/>
-      <c r="AP19" s="104"/>
-      <c r="AQ19" s="104"/>
-      <c r="AR19" s="104"/>
-      <c r="AS19" s="104"/>
-      <c r="AT19" s="104"/>
-      <c r="AU19" s="104"/>
-      <c r="AV19" s="104"/>
-      <c r="AW19" s="104"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="121"/>
+      <c r="O19" s="121"/>
+      <c r="P19" s="121"/>
+      <c r="Q19" s="121"/>
+      <c r="R19" s="121"/>
+      <c r="S19" s="115"/>
+      <c r="T19" s="115"/>
+      <c r="U19" s="115"/>
+      <c r="V19" s="122"/>
+      <c r="W19" s="122"/>
+      <c r="X19" s="122"/>
+      <c r="Y19" s="122"/>
+      <c r="Z19" s="122"/>
+      <c r="AA19" s="122"/>
+      <c r="AB19" s="122"/>
+      <c r="AC19" s="122"/>
+      <c r="AD19" s="122"/>
+      <c r="AE19" s="122"/>
+      <c r="AF19" s="122"/>
+      <c r="AG19" s="122"/>
+      <c r="AH19" s="122"/>
+      <c r="AI19" s="122"/>
+      <c r="AJ19" s="122"/>
+      <c r="AK19" s="122"/>
+      <c r="AL19" s="122"/>
+      <c r="AM19" s="122"/>
+      <c r="AN19" s="115"/>
+      <c r="AO19" s="115"/>
+      <c r="AP19" s="115"/>
+      <c r="AQ19" s="115"/>
+      <c r="AR19" s="115"/>
+      <c r="AS19" s="115"/>
+      <c r="AT19" s="115"/>
+      <c r="AU19" s="115"/>
+      <c r="AV19" s="115"/>
+      <c r="AW19" s="115"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="112"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="112"/>
-      <c r="Q20" s="112"/>
-      <c r="R20" s="112"/>
-      <c r="S20" s="104"/>
-      <c r="T20" s="104"/>
-      <c r="U20" s="104"/>
-      <c r="V20" s="110"/>
-      <c r="W20" s="110"/>
-      <c r="X20" s="110"/>
-      <c r="Y20" s="110"/>
-      <c r="Z20" s="110"/>
-      <c r="AA20" s="110"/>
-      <c r="AB20" s="110"/>
-      <c r="AC20" s="110"/>
-      <c r="AD20" s="110"/>
-      <c r="AE20" s="110"/>
-      <c r="AF20" s="110"/>
-      <c r="AG20" s="110"/>
-      <c r="AH20" s="110"/>
-      <c r="AI20" s="110"/>
-      <c r="AJ20" s="110"/>
-      <c r="AK20" s="110"/>
-      <c r="AL20" s="110"/>
-      <c r="AM20" s="110"/>
-      <c r="AN20" s="104"/>
-      <c r="AO20" s="104"/>
-      <c r="AP20" s="104"/>
-      <c r="AQ20" s="104"/>
-      <c r="AR20" s="104"/>
-      <c r="AS20" s="104"/>
-      <c r="AT20" s="104"/>
-      <c r="AU20" s="104"/>
-      <c r="AV20" s="104"/>
-      <c r="AW20" s="104"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="121"/>
+      <c r="P20" s="121"/>
+      <c r="Q20" s="121"/>
+      <c r="R20" s="121"/>
+      <c r="S20" s="115"/>
+      <c r="T20" s="115"/>
+      <c r="U20" s="115"/>
+      <c r="V20" s="122"/>
+      <c r="W20" s="122"/>
+      <c r="X20" s="122"/>
+      <c r="Y20" s="122"/>
+      <c r="Z20" s="122"/>
+      <c r="AA20" s="122"/>
+      <c r="AB20" s="122"/>
+      <c r="AC20" s="122"/>
+      <c r="AD20" s="122"/>
+      <c r="AE20" s="122"/>
+      <c r="AF20" s="122"/>
+      <c r="AG20" s="122"/>
+      <c r="AH20" s="122"/>
+      <c r="AI20" s="122"/>
+      <c r="AJ20" s="122"/>
+      <c r="AK20" s="122"/>
+      <c r="AL20" s="122"/>
+      <c r="AM20" s="122"/>
+      <c r="AN20" s="115"/>
+      <c r="AO20" s="115"/>
+      <c r="AP20" s="115"/>
+      <c r="AQ20" s="115"/>
+      <c r="AR20" s="115"/>
+      <c r="AS20" s="115"/>
+      <c r="AT20" s="115"/>
+      <c r="AU20" s="115"/>
+      <c r="AV20" s="115"/>
+      <c r="AW20" s="115"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="112"/>
-      <c r="O21" s="112"/>
-      <c r="P21" s="112"/>
-      <c r="Q21" s="112"/>
-      <c r="R21" s="112"/>
-      <c r="S21" s="104"/>
-      <c r="T21" s="104"/>
-      <c r="U21" s="104"/>
-      <c r="V21" s="110"/>
-      <c r="W21" s="110"/>
-      <c r="X21" s="110"/>
-      <c r="Y21" s="110"/>
-      <c r="Z21" s="110"/>
-      <c r="AA21" s="110"/>
-      <c r="AB21" s="110"/>
-      <c r="AC21" s="110"/>
-      <c r="AD21" s="110"/>
-      <c r="AE21" s="110"/>
-      <c r="AF21" s="110"/>
-      <c r="AG21" s="110"/>
-      <c r="AH21" s="110"/>
-      <c r="AI21" s="110"/>
-      <c r="AJ21" s="110"/>
-      <c r="AK21" s="110"/>
-      <c r="AL21" s="110"/>
-      <c r="AM21" s="110"/>
-      <c r="AN21" s="104"/>
-      <c r="AO21" s="104"/>
-      <c r="AP21" s="104"/>
-      <c r="AQ21" s="104"/>
-      <c r="AR21" s="104"/>
-      <c r="AS21" s="104"/>
-      <c r="AT21" s="104"/>
-      <c r="AU21" s="104"/>
-      <c r="AV21" s="104"/>
-      <c r="AW21" s="104"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="121"/>
+      <c r="N21" s="121"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="121"/>
+      <c r="Q21" s="121"/>
+      <c r="R21" s="121"/>
+      <c r="S21" s="115"/>
+      <c r="T21" s="115"/>
+      <c r="U21" s="115"/>
+      <c r="V21" s="122"/>
+      <c r="W21" s="122"/>
+      <c r="X21" s="122"/>
+      <c r="Y21" s="122"/>
+      <c r="Z21" s="122"/>
+      <c r="AA21" s="122"/>
+      <c r="AB21" s="122"/>
+      <c r="AC21" s="122"/>
+      <c r="AD21" s="122"/>
+      <c r="AE21" s="122"/>
+      <c r="AF21" s="122"/>
+      <c r="AG21" s="122"/>
+      <c r="AH21" s="122"/>
+      <c r="AI21" s="122"/>
+      <c r="AJ21" s="122"/>
+      <c r="AK21" s="122"/>
+      <c r="AL21" s="122"/>
+      <c r="AM21" s="122"/>
+      <c r="AN21" s="115"/>
+      <c r="AO21" s="115"/>
+      <c r="AP21" s="115"/>
+      <c r="AQ21" s="115"/>
+      <c r="AR21" s="115"/>
+      <c r="AS21" s="115"/>
+      <c r="AT21" s="115"/>
+      <c r="AU21" s="115"/>
+      <c r="AV21" s="115"/>
+      <c r="AW21" s="115"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="112"/>
-      <c r="Q22" s="112"/>
-      <c r="R22" s="112"/>
-      <c r="S22" s="104"/>
-      <c r="T22" s="104"/>
-      <c r="U22" s="104"/>
-      <c r="V22" s="110"/>
-      <c r="W22" s="110"/>
-      <c r="X22" s="110"/>
-      <c r="Y22" s="110"/>
-      <c r="Z22" s="110"/>
-      <c r="AA22" s="110"/>
-      <c r="AB22" s="110"/>
-      <c r="AC22" s="110"/>
-      <c r="AD22" s="110"/>
-      <c r="AE22" s="110"/>
-      <c r="AF22" s="110"/>
-      <c r="AG22" s="110"/>
-      <c r="AH22" s="110"/>
-      <c r="AI22" s="110"/>
-      <c r="AJ22" s="110"/>
-      <c r="AK22" s="110"/>
-      <c r="AL22" s="110"/>
-      <c r="AM22" s="110"/>
-      <c r="AN22" s="104"/>
-      <c r="AO22" s="104"/>
-      <c r="AP22" s="104"/>
-      <c r="AQ22" s="104"/>
-      <c r="AR22" s="104"/>
-      <c r="AS22" s="104"/>
-      <c r="AT22" s="104"/>
-      <c r="AU22" s="104"/>
-      <c r="AV22" s="104"/>
-      <c r="AW22" s="104"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="121"/>
+      <c r="P22" s="121"/>
+      <c r="Q22" s="121"/>
+      <c r="R22" s="121"/>
+      <c r="S22" s="115"/>
+      <c r="T22" s="115"/>
+      <c r="U22" s="115"/>
+      <c r="V22" s="122"/>
+      <c r="W22" s="122"/>
+      <c r="X22" s="122"/>
+      <c r="Y22" s="122"/>
+      <c r="Z22" s="122"/>
+      <c r="AA22" s="122"/>
+      <c r="AB22" s="122"/>
+      <c r="AC22" s="122"/>
+      <c r="AD22" s="122"/>
+      <c r="AE22" s="122"/>
+      <c r="AF22" s="122"/>
+      <c r="AG22" s="122"/>
+      <c r="AH22" s="122"/>
+      <c r="AI22" s="122"/>
+      <c r="AJ22" s="122"/>
+      <c r="AK22" s="122"/>
+      <c r="AL22" s="122"/>
+      <c r="AM22" s="122"/>
+      <c r="AN22" s="115"/>
+      <c r="AO22" s="115"/>
+      <c r="AP22" s="115"/>
+      <c r="AQ22" s="115"/>
+      <c r="AR22" s="115"/>
+      <c r="AS22" s="115"/>
+      <c r="AT22" s="115"/>
+      <c r="AU22" s="115"/>
+      <c r="AV22" s="115"/>
+      <c r="AW22" s="115"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="112"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="112"/>
-      <c r="S23" s="104"/>
-      <c r="T23" s="104"/>
-      <c r="U23" s="104"/>
-      <c r="V23" s="110"/>
-      <c r="W23" s="110"/>
-      <c r="X23" s="110"/>
-      <c r="Y23" s="110"/>
-      <c r="Z23" s="110"/>
-      <c r="AA23" s="110"/>
-      <c r="AB23" s="110"/>
-      <c r="AC23" s="110"/>
-      <c r="AD23" s="110"/>
-      <c r="AE23" s="110"/>
-      <c r="AF23" s="110"/>
-      <c r="AG23" s="110"/>
-      <c r="AH23" s="110"/>
-      <c r="AI23" s="110"/>
-      <c r="AJ23" s="110"/>
-      <c r="AK23" s="110"/>
-      <c r="AL23" s="110"/>
-      <c r="AM23" s="110"/>
-      <c r="AN23" s="104"/>
-      <c r="AO23" s="104"/>
-      <c r="AP23" s="104"/>
-      <c r="AQ23" s="104"/>
-      <c r="AR23" s="104"/>
-      <c r="AS23" s="104"/>
-      <c r="AT23" s="104"/>
-      <c r="AU23" s="104"/>
-      <c r="AV23" s="104"/>
-      <c r="AW23" s="104"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="121"/>
+      <c r="P23" s="121"/>
+      <c r="Q23" s="121"/>
+      <c r="R23" s="121"/>
+      <c r="S23" s="115"/>
+      <c r="T23" s="115"/>
+      <c r="U23" s="115"/>
+      <c r="V23" s="122"/>
+      <c r="W23" s="122"/>
+      <c r="X23" s="122"/>
+      <c r="Y23" s="122"/>
+      <c r="Z23" s="122"/>
+      <c r="AA23" s="122"/>
+      <c r="AB23" s="122"/>
+      <c r="AC23" s="122"/>
+      <c r="AD23" s="122"/>
+      <c r="AE23" s="122"/>
+      <c r="AF23" s="122"/>
+      <c r="AG23" s="122"/>
+      <c r="AH23" s="122"/>
+      <c r="AI23" s="122"/>
+      <c r="AJ23" s="122"/>
+      <c r="AK23" s="122"/>
+      <c r="AL23" s="122"/>
+      <c r="AM23" s="122"/>
+      <c r="AN23" s="115"/>
+      <c r="AO23" s="115"/>
+      <c r="AP23" s="115"/>
+      <c r="AQ23" s="115"/>
+      <c r="AR23" s="115"/>
+      <c r="AS23" s="115"/>
+      <c r="AT23" s="115"/>
+      <c r="AU23" s="115"/>
+      <c r="AV23" s="115"/>
+      <c r="AW23" s="115"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="112"/>
-      <c r="N24" s="112"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="112"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="112"/>
-      <c r="S24" s="104"/>
-      <c r="T24" s="104"/>
-      <c r="U24" s="104"/>
-      <c r="V24" s="110"/>
-      <c r="W24" s="110"/>
-      <c r="X24" s="110"/>
-      <c r="Y24" s="110"/>
-      <c r="Z24" s="110"/>
-      <c r="AA24" s="110"/>
-      <c r="AB24" s="110"/>
-      <c r="AC24" s="110"/>
-      <c r="AD24" s="110"/>
-      <c r="AE24" s="110"/>
-      <c r="AF24" s="110"/>
-      <c r="AG24" s="110"/>
-      <c r="AH24" s="110"/>
-      <c r="AI24" s="110"/>
-      <c r="AJ24" s="110"/>
-      <c r="AK24" s="110"/>
-      <c r="AL24" s="110"/>
-      <c r="AM24" s="110"/>
-      <c r="AN24" s="104"/>
-      <c r="AO24" s="104"/>
-      <c r="AP24" s="104"/>
-      <c r="AQ24" s="104"/>
-      <c r="AR24" s="104"/>
-      <c r="AS24" s="104"/>
-      <c r="AT24" s="104"/>
-      <c r="AU24" s="104"/>
-      <c r="AV24" s="104"/>
-      <c r="AW24" s="104"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="121"/>
+      <c r="P24" s="121"/>
+      <c r="Q24" s="121"/>
+      <c r="R24" s="121"/>
+      <c r="S24" s="115"/>
+      <c r="T24" s="115"/>
+      <c r="U24" s="115"/>
+      <c r="V24" s="122"/>
+      <c r="W24" s="122"/>
+      <c r="X24" s="122"/>
+      <c r="Y24" s="122"/>
+      <c r="Z24" s="122"/>
+      <c r="AA24" s="122"/>
+      <c r="AB24" s="122"/>
+      <c r="AC24" s="122"/>
+      <c r="AD24" s="122"/>
+      <c r="AE24" s="122"/>
+      <c r="AF24" s="122"/>
+      <c r="AG24" s="122"/>
+      <c r="AH24" s="122"/>
+      <c r="AI24" s="122"/>
+      <c r="AJ24" s="122"/>
+      <c r="AK24" s="122"/>
+      <c r="AL24" s="122"/>
+      <c r="AM24" s="122"/>
+      <c r="AN24" s="115"/>
+      <c r="AO24" s="115"/>
+      <c r="AP24" s="115"/>
+      <c r="AQ24" s="115"/>
+      <c r="AR24" s="115"/>
+      <c r="AS24" s="115"/>
+      <c r="AT24" s="115"/>
+      <c r="AU24" s="115"/>
+      <c r="AV24" s="115"/>
+      <c r="AW24" s="115"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="111"/>
-      <c r="N25" s="112"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="112"/>
-      <c r="R25" s="112"/>
-      <c r="S25" s="104"/>
-      <c r="T25" s="104"/>
-      <c r="U25" s="104"/>
-      <c r="V25" s="110"/>
-      <c r="W25" s="110"/>
-      <c r="X25" s="110"/>
-      <c r="Y25" s="110"/>
-      <c r="Z25" s="110"/>
-      <c r="AA25" s="110"/>
-      <c r="AB25" s="110"/>
-      <c r="AC25" s="110"/>
-      <c r="AD25" s="110"/>
-      <c r="AE25" s="110"/>
-      <c r="AF25" s="110"/>
-      <c r="AG25" s="110"/>
-      <c r="AH25" s="110"/>
-      <c r="AI25" s="110"/>
-      <c r="AJ25" s="110"/>
-      <c r="AK25" s="110"/>
-      <c r="AL25" s="110"/>
-      <c r="AM25" s="110"/>
-      <c r="AN25" s="104"/>
-      <c r="AO25" s="104"/>
-      <c r="AP25" s="104"/>
-      <c r="AQ25" s="104"/>
-      <c r="AR25" s="104"/>
-      <c r="AS25" s="104"/>
-      <c r="AT25" s="104"/>
-      <c r="AU25" s="104"/>
-      <c r="AV25" s="104"/>
-      <c r="AW25" s="104"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="124"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="121"/>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="121"/>
+      <c r="R25" s="121"/>
+      <c r="S25" s="115"/>
+      <c r="T25" s="115"/>
+      <c r="U25" s="115"/>
+      <c r="V25" s="122"/>
+      <c r="W25" s="122"/>
+      <c r="X25" s="122"/>
+      <c r="Y25" s="122"/>
+      <c r="Z25" s="122"/>
+      <c r="AA25" s="122"/>
+      <c r="AB25" s="122"/>
+      <c r="AC25" s="122"/>
+      <c r="AD25" s="122"/>
+      <c r="AE25" s="122"/>
+      <c r="AF25" s="122"/>
+      <c r="AG25" s="122"/>
+      <c r="AH25" s="122"/>
+      <c r="AI25" s="122"/>
+      <c r="AJ25" s="122"/>
+      <c r="AK25" s="122"/>
+      <c r="AL25" s="122"/>
+      <c r="AM25" s="122"/>
+      <c r="AN25" s="115"/>
+      <c r="AO25" s="115"/>
+      <c r="AP25" s="115"/>
+      <c r="AQ25" s="115"/>
+      <c r="AR25" s="115"/>
+      <c r="AS25" s="115"/>
+      <c r="AT25" s="115"/>
+      <c r="AU25" s="115"/>
+      <c r="AV25" s="115"/>
+      <c r="AW25" s="115"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="111"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="112"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="104"/>
-      <c r="T26" s="104"/>
-      <c r="U26" s="104"/>
-      <c r="V26" s="110"/>
-      <c r="W26" s="110"/>
-      <c r="X26" s="110"/>
-      <c r="Y26" s="110"/>
-      <c r="Z26" s="110"/>
-      <c r="AA26" s="110"/>
-      <c r="AB26" s="110"/>
-      <c r="AC26" s="110"/>
-      <c r="AD26" s="110"/>
-      <c r="AE26" s="110"/>
-      <c r="AF26" s="110"/>
-      <c r="AG26" s="110"/>
-      <c r="AH26" s="110"/>
-      <c r="AI26" s="110"/>
-      <c r="AJ26" s="110"/>
-      <c r="AK26" s="110"/>
-      <c r="AL26" s="110"/>
-      <c r="AM26" s="110"/>
-      <c r="AN26" s="104"/>
-      <c r="AO26" s="104"/>
-      <c r="AP26" s="104"/>
-      <c r="AQ26" s="104"/>
-      <c r="AR26" s="104"/>
-      <c r="AS26" s="104"/>
-      <c r="AT26" s="104"/>
-      <c r="AU26" s="104"/>
-      <c r="AV26" s="104"/>
-      <c r="AW26" s="104"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="124"/>
+      <c r="N26" s="121"/>
+      <c r="O26" s="121"/>
+      <c r="P26" s="121"/>
+      <c r="Q26" s="121"/>
+      <c r="R26" s="121"/>
+      <c r="S26" s="115"/>
+      <c r="T26" s="115"/>
+      <c r="U26" s="115"/>
+      <c r="V26" s="122"/>
+      <c r="W26" s="122"/>
+      <c r="X26" s="122"/>
+      <c r="Y26" s="122"/>
+      <c r="Z26" s="122"/>
+      <c r="AA26" s="122"/>
+      <c r="AB26" s="122"/>
+      <c r="AC26" s="122"/>
+      <c r="AD26" s="122"/>
+      <c r="AE26" s="122"/>
+      <c r="AF26" s="122"/>
+      <c r="AG26" s="122"/>
+      <c r="AH26" s="122"/>
+      <c r="AI26" s="122"/>
+      <c r="AJ26" s="122"/>
+      <c r="AK26" s="122"/>
+      <c r="AL26" s="122"/>
+      <c r="AM26" s="122"/>
+      <c r="AN26" s="115"/>
+      <c r="AO26" s="115"/>
+      <c r="AP26" s="115"/>
+      <c r="AQ26" s="115"/>
+      <c r="AR26" s="115"/>
+      <c r="AS26" s="115"/>
+      <c r="AT26" s="115"/>
+      <c r="AU26" s="115"/>
+      <c r="AV26" s="115"/>
+      <c r="AW26" s="115"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="107"/>
-      <c r="M27" s="111"/>
-      <c r="N27" s="112"/>
-      <c r="O27" s="112"/>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="112"/>
-      <c r="S27" s="104"/>
-      <c r="T27" s="104"/>
-      <c r="U27" s="104"/>
-      <c r="V27" s="110"/>
-      <c r="W27" s="110"/>
-      <c r="X27" s="110"/>
-      <c r="Y27" s="110"/>
-      <c r="Z27" s="110"/>
-      <c r="AA27" s="110"/>
-      <c r="AB27" s="110"/>
-      <c r="AC27" s="110"/>
-      <c r="AD27" s="110"/>
-      <c r="AE27" s="110"/>
-      <c r="AF27" s="110"/>
-      <c r="AG27" s="110"/>
-      <c r="AH27" s="110"/>
-      <c r="AI27" s="110"/>
-      <c r="AJ27" s="110"/>
-      <c r="AK27" s="110"/>
-      <c r="AL27" s="110"/>
-      <c r="AM27" s="110"/>
-      <c r="AN27" s="104"/>
-      <c r="AO27" s="104"/>
-      <c r="AP27" s="104"/>
-      <c r="AQ27" s="104"/>
-      <c r="AR27" s="104"/>
-      <c r="AS27" s="104"/>
-      <c r="AT27" s="104"/>
-      <c r="AU27" s="104"/>
-      <c r="AV27" s="104"/>
-      <c r="AW27" s="104"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="124"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="121"/>
+      <c r="P27" s="121"/>
+      <c r="Q27" s="121"/>
+      <c r="R27" s="121"/>
+      <c r="S27" s="115"/>
+      <c r="T27" s="115"/>
+      <c r="U27" s="115"/>
+      <c r="V27" s="122"/>
+      <c r="W27" s="122"/>
+      <c r="X27" s="122"/>
+      <c r="Y27" s="122"/>
+      <c r="Z27" s="122"/>
+      <c r="AA27" s="122"/>
+      <c r="AB27" s="122"/>
+      <c r="AC27" s="122"/>
+      <c r="AD27" s="122"/>
+      <c r="AE27" s="122"/>
+      <c r="AF27" s="122"/>
+      <c r="AG27" s="122"/>
+      <c r="AH27" s="122"/>
+      <c r="AI27" s="122"/>
+      <c r="AJ27" s="122"/>
+      <c r="AK27" s="122"/>
+      <c r="AL27" s="122"/>
+      <c r="AM27" s="122"/>
+      <c r="AN27" s="115"/>
+      <c r="AO27" s="115"/>
+      <c r="AP27" s="115"/>
+      <c r="AQ27" s="115"/>
+      <c r="AR27" s="115"/>
+      <c r="AS27" s="115"/>
+      <c r="AT27" s="115"/>
+      <c r="AU27" s="115"/>
+      <c r="AV27" s="115"/>
+      <c r="AW27" s="115"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="107"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="112"/>
-      <c r="S28" s="104"/>
-      <c r="T28" s="104"/>
-      <c r="U28" s="104"/>
-      <c r="V28" s="110"/>
-      <c r="W28" s="110"/>
-      <c r="X28" s="110"/>
-      <c r="Y28" s="110"/>
-      <c r="Z28" s="110"/>
-      <c r="AA28" s="110"/>
-      <c r="AB28" s="110"/>
-      <c r="AC28" s="110"/>
-      <c r="AD28" s="110"/>
-      <c r="AE28" s="110"/>
-      <c r="AF28" s="110"/>
-      <c r="AG28" s="110"/>
-      <c r="AH28" s="110"/>
-      <c r="AI28" s="110"/>
-      <c r="AJ28" s="110"/>
-      <c r="AK28" s="110"/>
-      <c r="AL28" s="110"/>
-      <c r="AM28" s="110"/>
-      <c r="AN28" s="104"/>
-      <c r="AO28" s="104"/>
-      <c r="AP28" s="104"/>
-      <c r="AQ28" s="104"/>
-      <c r="AR28" s="104"/>
-      <c r="AS28" s="104"/>
-      <c r="AT28" s="104"/>
-      <c r="AU28" s="104"/>
-      <c r="AV28" s="104"/>
-      <c r="AW28" s="104"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="121"/>
+      <c r="R28" s="121"/>
+      <c r="S28" s="115"/>
+      <c r="T28" s="115"/>
+      <c r="U28" s="115"/>
+      <c r="V28" s="122"/>
+      <c r="W28" s="122"/>
+      <c r="X28" s="122"/>
+      <c r="Y28" s="122"/>
+      <c r="Z28" s="122"/>
+      <c r="AA28" s="122"/>
+      <c r="AB28" s="122"/>
+      <c r="AC28" s="122"/>
+      <c r="AD28" s="122"/>
+      <c r="AE28" s="122"/>
+      <c r="AF28" s="122"/>
+      <c r="AG28" s="122"/>
+      <c r="AH28" s="122"/>
+      <c r="AI28" s="122"/>
+      <c r="AJ28" s="122"/>
+      <c r="AK28" s="122"/>
+      <c r="AL28" s="122"/>
+      <c r="AM28" s="122"/>
+      <c r="AN28" s="115"/>
+      <c r="AO28" s="115"/>
+      <c r="AP28" s="115"/>
+      <c r="AQ28" s="115"/>
+      <c r="AR28" s="115"/>
+      <c r="AS28" s="115"/>
+      <c r="AT28" s="115"/>
+      <c r="AU28" s="115"/>
+      <c r="AV28" s="115"/>
+      <c r="AW28" s="115"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="112"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="104"/>
-      <c r="T29" s="104"/>
-      <c r="U29" s="104"/>
-      <c r="V29" s="110"/>
-      <c r="W29" s="110"/>
-      <c r="X29" s="110"/>
-      <c r="Y29" s="110"/>
-      <c r="Z29" s="110"/>
-      <c r="AA29" s="110"/>
-      <c r="AB29" s="110"/>
-      <c r="AC29" s="110"/>
-      <c r="AD29" s="110"/>
-      <c r="AE29" s="110"/>
-      <c r="AF29" s="110"/>
-      <c r="AG29" s="110"/>
-      <c r="AH29" s="110"/>
-      <c r="AI29" s="110"/>
-      <c r="AJ29" s="110"/>
-      <c r="AK29" s="110"/>
-      <c r="AL29" s="110"/>
-      <c r="AM29" s="110"/>
-      <c r="AN29" s="104"/>
-      <c r="AO29" s="104"/>
-      <c r="AP29" s="104"/>
-      <c r="AQ29" s="104"/>
-      <c r="AR29" s="104"/>
-      <c r="AS29" s="104"/>
-      <c r="AT29" s="104"/>
-      <c r="AU29" s="104"/>
-      <c r="AV29" s="104"/>
-      <c r="AW29" s="104"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="121"/>
+      <c r="R29" s="121"/>
+      <c r="S29" s="115"/>
+      <c r="T29" s="115"/>
+      <c r="U29" s="115"/>
+      <c r="V29" s="122"/>
+      <c r="W29" s="122"/>
+      <c r="X29" s="122"/>
+      <c r="Y29" s="122"/>
+      <c r="Z29" s="122"/>
+      <c r="AA29" s="122"/>
+      <c r="AB29" s="122"/>
+      <c r="AC29" s="122"/>
+      <c r="AD29" s="122"/>
+      <c r="AE29" s="122"/>
+      <c r="AF29" s="122"/>
+      <c r="AG29" s="122"/>
+      <c r="AH29" s="122"/>
+      <c r="AI29" s="122"/>
+      <c r="AJ29" s="122"/>
+      <c r="AK29" s="122"/>
+      <c r="AL29" s="122"/>
+      <c r="AM29" s="122"/>
+      <c r="AN29" s="115"/>
+      <c r="AO29" s="115"/>
+      <c r="AP29" s="115"/>
+      <c r="AQ29" s="115"/>
+      <c r="AR29" s="115"/>
+      <c r="AS29" s="115"/>
+      <c r="AT29" s="115"/>
+      <c r="AU29" s="115"/>
+      <c r="AV29" s="115"/>
+      <c r="AW29" s="115"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="107"/>
-      <c r="L30" s="107"/>
-      <c r="M30" s="111"/>
-      <c r="N30" s="112"/>
-      <c r="O30" s="112"/>
-      <c r="P30" s="112"/>
-      <c r="Q30" s="112"/>
-      <c r="R30" s="112"/>
-      <c r="S30" s="104"/>
-      <c r="T30" s="104"/>
-      <c r="U30" s="104"/>
-      <c r="V30" s="110"/>
-      <c r="W30" s="110"/>
-      <c r="X30" s="110"/>
-      <c r="Y30" s="110"/>
-      <c r="Z30" s="110"/>
-      <c r="AA30" s="110"/>
-      <c r="AB30" s="110"/>
-      <c r="AC30" s="110"/>
-      <c r="AD30" s="110"/>
-      <c r="AE30" s="110"/>
-      <c r="AF30" s="110"/>
-      <c r="AG30" s="110"/>
-      <c r="AH30" s="110"/>
-      <c r="AI30" s="110"/>
-      <c r="AJ30" s="110"/>
-      <c r="AK30" s="110"/>
-      <c r="AL30" s="110"/>
-      <c r="AM30" s="110"/>
-      <c r="AN30" s="104"/>
-      <c r="AO30" s="104"/>
-      <c r="AP30" s="104"/>
-      <c r="AQ30" s="104"/>
-      <c r="AR30" s="104"/>
-      <c r="AS30" s="104"/>
-      <c r="AT30" s="104"/>
-      <c r="AU30" s="104"/>
-      <c r="AV30" s="104"/>
-      <c r="AW30" s="104"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="118"/>
+      <c r="M30" s="124"/>
+      <c r="N30" s="121"/>
+      <c r="O30" s="121"/>
+      <c r="P30" s="121"/>
+      <c r="Q30" s="121"/>
+      <c r="R30" s="121"/>
+      <c r="S30" s="115"/>
+      <c r="T30" s="115"/>
+      <c r="U30" s="115"/>
+      <c r="V30" s="122"/>
+      <c r="W30" s="122"/>
+      <c r="X30" s="122"/>
+      <c r="Y30" s="122"/>
+      <c r="Z30" s="122"/>
+      <c r="AA30" s="122"/>
+      <c r="AB30" s="122"/>
+      <c r="AC30" s="122"/>
+      <c r="AD30" s="122"/>
+      <c r="AE30" s="122"/>
+      <c r="AF30" s="122"/>
+      <c r="AG30" s="122"/>
+      <c r="AH30" s="122"/>
+      <c r="AI30" s="122"/>
+      <c r="AJ30" s="122"/>
+      <c r="AK30" s="122"/>
+      <c r="AL30" s="122"/>
+      <c r="AM30" s="122"/>
+      <c r="AN30" s="115"/>
+      <c r="AO30" s="115"/>
+      <c r="AP30" s="115"/>
+      <c r="AQ30" s="115"/>
+      <c r="AR30" s="115"/>
+      <c r="AS30" s="115"/>
+      <c r="AT30" s="115"/>
+      <c r="AU30" s="115"/>
+      <c r="AV30" s="115"/>
+      <c r="AW30" s="115"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
-      <c r="L31" s="107"/>
-      <c r="M31" s="111"/>
-      <c r="N31" s="112"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="112"/>
-      <c r="S31" s="104"/>
-      <c r="T31" s="104"/>
-      <c r="U31" s="104"/>
-      <c r="V31" s="110"/>
-      <c r="W31" s="110"/>
-      <c r="X31" s="110"/>
-      <c r="Y31" s="110"/>
-      <c r="Z31" s="110"/>
-      <c r="AA31" s="110"/>
-      <c r="AB31" s="110"/>
-      <c r="AC31" s="110"/>
-      <c r="AD31" s="110"/>
-      <c r="AE31" s="110"/>
-      <c r="AF31" s="110"/>
-      <c r="AG31" s="110"/>
-      <c r="AH31" s="110"/>
-      <c r="AI31" s="110"/>
-      <c r="AJ31" s="110"/>
-      <c r="AK31" s="110"/>
-      <c r="AL31" s="110"/>
-      <c r="AM31" s="110"/>
-      <c r="AN31" s="104"/>
-      <c r="AO31" s="104"/>
-      <c r="AP31" s="104"/>
-      <c r="AQ31" s="104"/>
-      <c r="AR31" s="104"/>
-      <c r="AS31" s="104"/>
-      <c r="AT31" s="104"/>
-      <c r="AU31" s="104"/>
-      <c r="AV31" s="104"/>
-      <c r="AW31" s="104"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="124"/>
+      <c r="N31" s="121"/>
+      <c r="O31" s="121"/>
+      <c r="P31" s="121"/>
+      <c r="Q31" s="121"/>
+      <c r="R31" s="121"/>
+      <c r="S31" s="115"/>
+      <c r="T31" s="115"/>
+      <c r="U31" s="115"/>
+      <c r="V31" s="122"/>
+      <c r="W31" s="122"/>
+      <c r="X31" s="122"/>
+      <c r="Y31" s="122"/>
+      <c r="Z31" s="122"/>
+      <c r="AA31" s="122"/>
+      <c r="AB31" s="122"/>
+      <c r="AC31" s="122"/>
+      <c r="AD31" s="122"/>
+      <c r="AE31" s="122"/>
+      <c r="AF31" s="122"/>
+      <c r="AG31" s="122"/>
+      <c r="AH31" s="122"/>
+      <c r="AI31" s="122"/>
+      <c r="AJ31" s="122"/>
+      <c r="AK31" s="122"/>
+      <c r="AL31" s="122"/>
+      <c r="AM31" s="122"/>
+      <c r="AN31" s="115"/>
+      <c r="AO31" s="115"/>
+      <c r="AP31" s="115"/>
+      <c r="AQ31" s="115"/>
+      <c r="AR31" s="115"/>
+      <c r="AS31" s="115"/>
+      <c r="AT31" s="115"/>
+      <c r="AU31" s="115"/>
+      <c r="AV31" s="115"/>
+      <c r="AW31" s="115"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
-      <c r="L32" s="107"/>
-      <c r="M32" s="111"/>
-      <c r="N32" s="112"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="112"/>
-      <c r="Q32" s="112"/>
-      <c r="R32" s="112"/>
-      <c r="S32" s="104"/>
-      <c r="T32" s="104"/>
-      <c r="U32" s="104"/>
-      <c r="V32" s="110"/>
-      <c r="W32" s="110"/>
-      <c r="X32" s="110"/>
-      <c r="Y32" s="110"/>
-      <c r="Z32" s="110"/>
-      <c r="AA32" s="110"/>
-      <c r="AB32" s="110"/>
-      <c r="AC32" s="110"/>
-      <c r="AD32" s="110"/>
-      <c r="AE32" s="110"/>
-      <c r="AF32" s="110"/>
-      <c r="AG32" s="110"/>
-      <c r="AH32" s="110"/>
-      <c r="AI32" s="110"/>
-      <c r="AJ32" s="110"/>
-      <c r="AK32" s="110"/>
-      <c r="AL32" s="110"/>
-      <c r="AM32" s="110"/>
-      <c r="AN32" s="104"/>
-      <c r="AO32" s="104"/>
-      <c r="AP32" s="104"/>
-      <c r="AQ32" s="104"/>
-      <c r="AR32" s="104"/>
-      <c r="AS32" s="104"/>
-      <c r="AT32" s="104"/>
-      <c r="AU32" s="104"/>
-      <c r="AV32" s="104"/>
-      <c r="AW32" s="104"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="118"/>
+      <c r="M32" s="124"/>
+      <c r="N32" s="121"/>
+      <c r="O32" s="121"/>
+      <c r="P32" s="121"/>
+      <c r="Q32" s="121"/>
+      <c r="R32" s="121"/>
+      <c r="S32" s="115"/>
+      <c r="T32" s="115"/>
+      <c r="U32" s="115"/>
+      <c r="V32" s="122"/>
+      <c r="W32" s="122"/>
+      <c r="X32" s="122"/>
+      <c r="Y32" s="122"/>
+      <c r="Z32" s="122"/>
+      <c r="AA32" s="122"/>
+      <c r="AB32" s="122"/>
+      <c r="AC32" s="122"/>
+      <c r="AD32" s="122"/>
+      <c r="AE32" s="122"/>
+      <c r="AF32" s="122"/>
+      <c r="AG32" s="122"/>
+      <c r="AH32" s="122"/>
+      <c r="AI32" s="122"/>
+      <c r="AJ32" s="122"/>
+      <c r="AK32" s="122"/>
+      <c r="AL32" s="122"/>
+      <c r="AM32" s="122"/>
+      <c r="AN32" s="115"/>
+      <c r="AO32" s="115"/>
+      <c r="AP32" s="115"/>
+      <c r="AQ32" s="115"/>
+      <c r="AR32" s="115"/>
+      <c r="AS32" s="115"/>
+      <c r="AT32" s="115"/>
+      <c r="AU32" s="115"/>
+      <c r="AV32" s="115"/>
+      <c r="AW32" s="115"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="107"/>
-      <c r="L33" s="107"/>
-      <c r="M33" s="111"/>
-      <c r="N33" s="112"/>
-      <c r="O33" s="112"/>
-      <c r="P33" s="112"/>
-      <c r="Q33" s="112"/>
-      <c r="R33" s="112"/>
-      <c r="S33" s="104"/>
-      <c r="T33" s="104"/>
-      <c r="U33" s="104"/>
-      <c r="V33" s="110"/>
-      <c r="W33" s="110"/>
-      <c r="X33" s="110"/>
-      <c r="Y33" s="110"/>
-      <c r="Z33" s="110"/>
-      <c r="AA33" s="110"/>
-      <c r="AB33" s="110"/>
-      <c r="AC33" s="110"/>
-      <c r="AD33" s="110"/>
-      <c r="AE33" s="110"/>
-      <c r="AF33" s="110"/>
-      <c r="AG33" s="110"/>
-      <c r="AH33" s="110"/>
-      <c r="AI33" s="110"/>
-      <c r="AJ33" s="110"/>
-      <c r="AK33" s="110"/>
-      <c r="AL33" s="110"/>
-      <c r="AM33" s="110"/>
-      <c r="AN33" s="104"/>
-      <c r="AO33" s="104"/>
-      <c r="AP33" s="104"/>
-      <c r="AQ33" s="104"/>
-      <c r="AR33" s="104"/>
-      <c r="AS33" s="104"/>
-      <c r="AT33" s="104"/>
-      <c r="AU33" s="104"/>
-      <c r="AV33" s="104"/>
-      <c r="AW33" s="104"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="124"/>
+      <c r="N33" s="121"/>
+      <c r="O33" s="121"/>
+      <c r="P33" s="121"/>
+      <c r="Q33" s="121"/>
+      <c r="R33" s="121"/>
+      <c r="S33" s="115"/>
+      <c r="T33" s="115"/>
+      <c r="U33" s="115"/>
+      <c r="V33" s="122"/>
+      <c r="W33" s="122"/>
+      <c r="X33" s="122"/>
+      <c r="Y33" s="122"/>
+      <c r="Z33" s="122"/>
+      <c r="AA33" s="122"/>
+      <c r="AB33" s="122"/>
+      <c r="AC33" s="122"/>
+      <c r="AD33" s="122"/>
+      <c r="AE33" s="122"/>
+      <c r="AF33" s="122"/>
+      <c r="AG33" s="122"/>
+      <c r="AH33" s="122"/>
+      <c r="AI33" s="122"/>
+      <c r="AJ33" s="122"/>
+      <c r="AK33" s="122"/>
+      <c r="AL33" s="122"/>
+      <c r="AM33" s="122"/>
+      <c r="AN33" s="115"/>
+      <c r="AO33" s="115"/>
+      <c r="AP33" s="115"/>
+      <c r="AQ33" s="115"/>
+      <c r="AR33" s="115"/>
+      <c r="AS33" s="115"/>
+      <c r="AT33" s="115"/>
+      <c r="AU33" s="115"/>
+      <c r="AV33" s="115"/>
+      <c r="AW33" s="115"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
-      <c r="L34" s="107"/>
-      <c r="M34" s="108"/>
-      <c r="N34" s="109"/>
-      <c r="O34" s="109"/>
-      <c r="P34" s="109"/>
-      <c r="Q34" s="109"/>
-      <c r="R34" s="109"/>
-      <c r="S34" s="104"/>
-      <c r="T34" s="104"/>
-      <c r="U34" s="104"/>
-      <c r="V34" s="110"/>
-      <c r="W34" s="110"/>
-      <c r="X34" s="110"/>
-      <c r="Y34" s="110"/>
-      <c r="Z34" s="110"/>
-      <c r="AA34" s="110"/>
-      <c r="AB34" s="110"/>
-      <c r="AC34" s="110"/>
-      <c r="AD34" s="110"/>
-      <c r="AE34" s="110"/>
-      <c r="AF34" s="110"/>
-      <c r="AG34" s="110"/>
-      <c r="AH34" s="110"/>
-      <c r="AI34" s="110"/>
-      <c r="AJ34" s="110"/>
-      <c r="AK34" s="110"/>
-      <c r="AL34" s="110"/>
-      <c r="AM34" s="110"/>
-      <c r="AN34" s="104"/>
-      <c r="AO34" s="104"/>
-      <c r="AP34" s="104"/>
-      <c r="AQ34" s="104"/>
-      <c r="AR34" s="104"/>
-      <c r="AS34" s="104"/>
-      <c r="AT34" s="104"/>
-      <c r="AU34" s="104"/>
-      <c r="AV34" s="104"/>
-      <c r="AW34" s="104"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="118"/>
+      <c r="M34" s="128"/>
+      <c r="N34" s="129"/>
+      <c r="O34" s="129"/>
+      <c r="P34" s="129"/>
+      <c r="Q34" s="129"/>
+      <c r="R34" s="129"/>
+      <c r="S34" s="115"/>
+      <c r="T34" s="115"/>
+      <c r="U34" s="115"/>
+      <c r="V34" s="122"/>
+      <c r="W34" s="122"/>
+      <c r="X34" s="122"/>
+      <c r="Y34" s="122"/>
+      <c r="Z34" s="122"/>
+      <c r="AA34" s="122"/>
+      <c r="AB34" s="122"/>
+      <c r="AC34" s="122"/>
+      <c r="AD34" s="122"/>
+      <c r="AE34" s="122"/>
+      <c r="AF34" s="122"/>
+      <c r="AG34" s="122"/>
+      <c r="AH34" s="122"/>
+      <c r="AI34" s="122"/>
+      <c r="AJ34" s="122"/>
+      <c r="AK34" s="122"/>
+      <c r="AL34" s="122"/>
+      <c r="AM34" s="122"/>
+      <c r="AN34" s="115"/>
+      <c r="AO34" s="115"/>
+      <c r="AP34" s="115"/>
+      <c r="AQ34" s="115"/>
+      <c r="AR34" s="115"/>
+      <c r="AS34" s="115"/>
+      <c r="AT34" s="115"/>
+      <c r="AU34" s="115"/>
+      <c r="AV34" s="115"/>
+      <c r="AW34" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -5786,230 +5971,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6090,14 +6060,14 @@
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
-      <c r="AO1" s="134">
+      <c r="AO1" s="139">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
-      <c r="AP1" s="135"/>
-      <c r="AQ1" s="135"/>
-      <c r="AR1" s="135"/>
-      <c r="AS1" s="136"/>
+      <c r="AP1" s="140"/>
+      <c r="AQ1" s="140"/>
+      <c r="AR1" s="140"/>
+      <c r="AS1" s="141"/>
       <c r="AT1" s="33" t="s">
         <v>24</v>
       </c>
@@ -6106,17 +6076,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="129" t="str">
+      <c r="AZ1" s="136" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="BA1" s="130"/>
-      <c r="BB1" s="130"/>
-      <c r="BC1" s="130"/>
-      <c r="BD1" s="130"/>
-      <c r="BE1" s="130"/>
-      <c r="BF1" s="130"/>
-      <c r="BG1" s="131"/>
+      <c r="BA1" s="137"/>
+      <c r="BB1" s="137"/>
+      <c r="BC1" s="137"/>
+      <c r="BD1" s="137"/>
+      <c r="BE1" s="137"/>
+      <c r="BF1" s="137"/>
+      <c r="BG1" s="138"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -6169,11 +6139,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="134"/>
-      <c r="AP2" s="135"/>
-      <c r="AQ2" s="135"/>
-      <c r="AR2" s="135"/>
-      <c r="AS2" s="136"/>
+      <c r="AO2" s="139"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="140"/>
+      <c r="AR2" s="140"/>
+      <c r="AS2" s="141"/>
       <c r="AT2" s="33" t="s">
         <v>25</v>
       </c>
@@ -6182,14 +6152,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="129"/>
-      <c r="BA2" s="130"/>
-      <c r="BB2" s="130"/>
-      <c r="BC2" s="130"/>
-      <c r="BD2" s="130"/>
-      <c r="BE2" s="130"/>
-      <c r="BF2" s="130"/>
-      <c r="BG2" s="131"/>
+      <c r="AZ2" s="136"/>
+      <c r="BA2" s="137"/>
+      <c r="BB2" s="137"/>
+      <c r="BC2" s="137"/>
+      <c r="BD2" s="137"/>
+      <c r="BE2" s="137"/>
+      <c r="BF2" s="137"/>
+      <c r="BG2" s="138"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -7408,10 +7378,10 @@
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A41" s="28"/>
-      <c r="B41" s="137" t="s">
+      <c r="B41" s="130" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="138"/>
+      <c r="C41" s="131"/>
       <c r="D41" s="88" t="s">
         <v>79</v>
       </c>
@@ -7494,10 +7464,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
-      <c r="B42" s="139">
+      <c r="B42" s="132">
         <v>1</v>
       </c>
-      <c r="C42" s="140"/>
+      <c r="C42" s="133"/>
       <c r="D42" s="93" t="s">
         <v>94</v>
       </c>
@@ -7529,16 +7499,16 @@
       <c r="AB42" s="86"/>
       <c r="AC42" s="86"/>
       <c r="AD42" s="87"/>
-      <c r="AE42" s="132" t="s">
+      <c r="AE42" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="AF42" s="133"/>
-      <c r="AG42" s="132"/>
-      <c r="AH42" s="133"/>
-      <c r="AI42" s="132"/>
-      <c r="AJ42" s="133"/>
-      <c r="AK42" s="132"/>
-      <c r="AL42" s="133"/>
+      <c r="AF42" s="135"/>
+      <c r="AG42" s="134"/>
+      <c r="AH42" s="135"/>
+      <c r="AI42" s="134"/>
+      <c r="AJ42" s="135"/>
+      <c r="AK42" s="134"/>
+      <c r="AL42" s="135"/>
       <c r="AM42" s="83" t="s">
         <v>114</v>
       </c>
@@ -7572,10 +7542,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="139">
+      <c r="B43" s="132">
         <v>2</v>
       </c>
-      <c r="C43" s="140"/>
+      <c r="C43" s="133"/>
       <c r="D43" s="82" t="s">
         <v>112</v>
       </c>
@@ -7607,16 +7577,16 @@
       <c r="AB43" s="86"/>
       <c r="AC43" s="86"/>
       <c r="AD43" s="87"/>
-      <c r="AE43" s="132" t="s">
+      <c r="AE43" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="AF43" s="133"/>
-      <c r="AG43" s="132"/>
-      <c r="AH43" s="133"/>
-      <c r="AI43" s="132"/>
-      <c r="AJ43" s="133"/>
-      <c r="AK43" s="132"/>
-      <c r="AL43" s="133"/>
+      <c r="AF43" s="135"/>
+      <c r="AG43" s="134"/>
+      <c r="AH43" s="135"/>
+      <c r="AI43" s="134"/>
+      <c r="AJ43" s="135"/>
+      <c r="AK43" s="134"/>
+      <c r="AL43" s="135"/>
       <c r="AM43" s="83" t="s">
         <v>113</v>
       </c>
@@ -7655,11 +7625,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AE43:AF43"/>
     <mergeCell ref="AZ1:BG1"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK43:AL43"/>
@@ -7670,6 +7635,11 @@
     <mergeCell ref="AI43:AJ43"/>
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AE43:AF43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7690,7 +7660,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:DI5"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A1:XFD4"/>
       <selection pane="bottomLeft"/>
@@ -7793,20 +7763,20 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="134">
+      <c r="CD1" s="139">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
-      <c r="CE1" s="143"/>
-      <c r="CF1" s="143"/>
-      <c r="CG1" s="143"/>
-      <c r="CH1" s="143"/>
-      <c r="CI1" s="143"/>
-      <c r="CJ1" s="143"/>
-      <c r="CK1" s="143"/>
-      <c r="CL1" s="143"/>
-      <c r="CM1" s="143"/>
-      <c r="CN1" s="144"/>
+      <c r="CE1" s="144"/>
+      <c r="CF1" s="144"/>
+      <c r="CG1" s="144"/>
+      <c r="CH1" s="144"/>
+      <c r="CI1" s="144"/>
+      <c r="CJ1" s="144"/>
+      <c r="CK1" s="144"/>
+      <c r="CL1" s="144"/>
+      <c r="CM1" s="144"/>
+      <c r="CN1" s="145"/>
       <c r="CO1" s="33" t="s">
         <v>24</v>
       </c>
@@ -7815,23 +7785,23 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="129" t="str">
+      <c r="CU1" s="136" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="CV1" s="141"/>
-      <c r="CW1" s="141"/>
-      <c r="CX1" s="141"/>
-      <c r="CY1" s="141"/>
-      <c r="CZ1" s="141"/>
-      <c r="DA1" s="141"/>
-      <c r="DB1" s="141"/>
-      <c r="DC1" s="141"/>
-      <c r="DD1" s="141"/>
-      <c r="DE1" s="141"/>
-      <c r="DF1" s="141"/>
-      <c r="DG1" s="141"/>
-      <c r="DH1" s="142"/>
+      <c r="CV1" s="142"/>
+      <c r="CW1" s="142"/>
+      <c r="CX1" s="142"/>
+      <c r="CY1" s="142"/>
+      <c r="CZ1" s="142"/>
+      <c r="DA1" s="142"/>
+      <c r="DB1" s="142"/>
+      <c r="DC1" s="142"/>
+      <c r="DD1" s="142"/>
+      <c r="DE1" s="142"/>
+      <c r="DF1" s="142"/>
+      <c r="DG1" s="142"/>
+      <c r="DH1" s="143"/>
     </row>
     <row r="2" spans="1:113" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -7886,39 +7856,39 @@
       <c r="AQ2" s="37"/>
       <c r="AR2" s="37"/>
       <c r="AS2" s="38"/>
-      <c r="AT2" s="146" t="str">
+      <c r="AT2" s="147" t="str">
         <f>'１．機能概要'!W2</f>
         <v>工程別集計</v>
       </c>
-      <c r="AU2" s="143"/>
-      <c r="AV2" s="143"/>
-      <c r="AW2" s="143"/>
-      <c r="AX2" s="143"/>
-      <c r="AY2" s="143"/>
-      <c r="AZ2" s="143"/>
-      <c r="BA2" s="143"/>
-      <c r="BB2" s="143"/>
-      <c r="BC2" s="143"/>
-      <c r="BD2" s="143"/>
-      <c r="BE2" s="143"/>
-      <c r="BF2" s="143"/>
-      <c r="BG2" s="143"/>
-      <c r="BH2" s="143"/>
-      <c r="BI2" s="143"/>
-      <c r="BJ2" s="143"/>
-      <c r="BK2" s="143"/>
-      <c r="BL2" s="143"/>
-      <c r="BM2" s="143"/>
-      <c r="BN2" s="143"/>
-      <c r="BO2" s="143"/>
-      <c r="BP2" s="143"/>
-      <c r="BQ2" s="143"/>
-      <c r="BR2" s="143"/>
-      <c r="BS2" s="143"/>
-      <c r="BT2" s="143"/>
-      <c r="BU2" s="143"/>
-      <c r="BV2" s="143"/>
-      <c r="BW2" s="144"/>
+      <c r="AU2" s="144"/>
+      <c r="AV2" s="144"/>
+      <c r="AW2" s="144"/>
+      <c r="AX2" s="144"/>
+      <c r="AY2" s="144"/>
+      <c r="AZ2" s="144"/>
+      <c r="BA2" s="144"/>
+      <c r="BB2" s="144"/>
+      <c r="BC2" s="144"/>
+      <c r="BD2" s="144"/>
+      <c r="BE2" s="144"/>
+      <c r="BF2" s="144"/>
+      <c r="BG2" s="144"/>
+      <c r="BH2" s="144"/>
+      <c r="BI2" s="144"/>
+      <c r="BJ2" s="144"/>
+      <c r="BK2" s="144"/>
+      <c r="BL2" s="144"/>
+      <c r="BM2" s="144"/>
+      <c r="BN2" s="144"/>
+      <c r="BO2" s="144"/>
+      <c r="BP2" s="144"/>
+      <c r="BQ2" s="144"/>
+      <c r="BR2" s="144"/>
+      <c r="BS2" s="144"/>
+      <c r="BT2" s="144"/>
+      <c r="BU2" s="144"/>
+      <c r="BV2" s="144"/>
+      <c r="BW2" s="145"/>
       <c r="BX2" s="33" t="s">
         <v>23</v>
       </c>
@@ -7927,17 +7897,17 @@
       <c r="CA2" s="34"/>
       <c r="CB2" s="34"/>
       <c r="CC2" s="35"/>
-      <c r="CD2" s="145"/>
-      <c r="CE2" s="141"/>
-      <c r="CF2" s="141"/>
-      <c r="CG2" s="141"/>
-      <c r="CH2" s="141"/>
-      <c r="CI2" s="141"/>
-      <c r="CJ2" s="141"/>
-      <c r="CK2" s="141"/>
-      <c r="CL2" s="141"/>
-      <c r="CM2" s="141"/>
-      <c r="CN2" s="142"/>
+      <c r="CD2" s="146"/>
+      <c r="CE2" s="142"/>
+      <c r="CF2" s="142"/>
+      <c r="CG2" s="142"/>
+      <c r="CH2" s="142"/>
+      <c r="CI2" s="142"/>
+      <c r="CJ2" s="142"/>
+      <c r="CK2" s="142"/>
+      <c r="CL2" s="142"/>
+      <c r="CM2" s="142"/>
+      <c r="CN2" s="143"/>
       <c r="CO2" s="33" t="s">
         <v>25</v>
       </c>
@@ -7946,20 +7916,20 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="129"/>
-      <c r="CV2" s="141"/>
-      <c r="CW2" s="141"/>
-      <c r="CX2" s="141"/>
-      <c r="CY2" s="141"/>
-      <c r="CZ2" s="141"/>
-      <c r="DA2" s="141"/>
-      <c r="DB2" s="141"/>
-      <c r="DC2" s="141"/>
-      <c r="DD2" s="141"/>
-      <c r="DE2" s="141"/>
-      <c r="DF2" s="141"/>
-      <c r="DG2" s="141"/>
-      <c r="DH2" s="142"/>
+      <c r="CU2" s="136"/>
+      <c r="CV2" s="142"/>
+      <c r="CW2" s="142"/>
+      <c r="CX2" s="142"/>
+      <c r="CY2" s="142"/>
+      <c r="CZ2" s="142"/>
+      <c r="DA2" s="142"/>
+      <c r="DB2" s="142"/>
+      <c r="DC2" s="142"/>
+      <c r="DD2" s="142"/>
+      <c r="DE2" s="142"/>
+      <c r="DF2" s="142"/>
+      <c r="DG2" s="142"/>
+      <c r="DH2" s="143"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="54"/>
@@ -8162,37 +8132,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="121" t="s">
+      <c r="D6" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="121" t="s">
+      <c r="E6" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="121" t="s">
+      <c r="F6" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="121" t="s">
+      <c r="G6" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="121" t="s">
+      <c r="H6" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="149" t="s">
+      <c r="I6" s="148" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="149" t="s">
+      <c r="J6" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="121" t="s">
+      <c r="K6" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="121" t="s">
+      <c r="L6" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="121" t="s">
+      <c r="M6" s="107" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -8200,24 +8170,24 @@
       </c>
       <c r="O6" s="68"/>
       <c r="P6" s="68"/>
-      <c r="Q6" s="149" t="s">
+      <c r="Q6" s="148" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="149"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -8227,7 +8197,7 @@
       <c r="P7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="149"/>
+      <c r="Q7" s="148"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -8289,37 +8259,37 @@
     <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="121" t="s">
+      <c r="C11" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="121" t="s">
+      <c r="E11" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="121" t="s">
+      <c r="F11" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="121" t="s">
+      <c r="G11" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="121" t="s">
+      <c r="H11" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="147" t="s">
+      <c r="I11" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="149" t="s">
+      <c r="J11" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="121" t="s">
+      <c r="K11" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="121" t="s">
+      <c r="L11" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="121" t="s">
+      <c r="M11" s="107" t="s">
         <v>32</v>
       </c>
       <c r="N11" s="68" t="s">
@@ -8327,24 +8297,24 @@
       </c>
       <c r="O11" s="68"/>
       <c r="P11" s="68"/>
-      <c r="Q11" s="147" t="s">
+      <c r="Q11" s="149" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="148"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
       <c r="N12" s="42" t="s">
         <v>64</v>
       </c>
@@ -8354,7 +8324,7 @@
       <c r="P12" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="148"/>
+      <c r="Q12" s="150"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
@@ -8478,37 +8448,37 @@
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="60"/>
-      <c r="C19" s="121" t="s">
+      <c r="C19" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="121" t="s">
+      <c r="E19" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="121" t="s">
+      <c r="F19" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="121" t="s">
+      <c r="G19" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="121" t="s">
+      <c r="H19" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="149" t="s">
+      <c r="I19" s="148" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="149" t="s">
+      <c r="J19" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="121" t="s">
+      <c r="K19" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="121" t="s">
+      <c r="L19" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="121" t="s">
+      <c r="M19" s="107" t="s">
         <v>32</v>
       </c>
       <c r="N19" s="68" t="s">
@@ -8516,24 +8486,24 @@
       </c>
       <c r="O19" s="68"/>
       <c r="P19" s="68"/>
-      <c r="Q19" s="149" t="s">
+      <c r="Q19" s="148" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="60"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="149"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="121"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="148"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
       <c r="N20" s="42" t="s">
         <v>64</v>
       </c>
@@ -8543,7 +8513,7 @@
       <c r="P20" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q20" s="149"/>
+      <c r="Q20" s="148"/>
     </row>
     <row r="21" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="55"/>
@@ -8789,26 +8759,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="I19:I20"/>
@@ -8825,6 +8775,26 @@
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="M19:M20"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -8901,14 +8871,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="134">
+      <c r="AI1" s="139">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
-      <c r="AJ1" s="143"/>
-      <c r="AK1" s="143"/>
-      <c r="AL1" s="143"/>
-      <c r="AM1" s="144"/>
+      <c r="AJ1" s="144"/>
+      <c r="AK1" s="144"/>
+      <c r="AL1" s="144"/>
+      <c r="AM1" s="145"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -8917,16 +8887,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="129" t="str">
+      <c r="AT1" s="136" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="141"/>
-      <c r="AV1" s="141"/>
-      <c r="AW1" s="141"/>
-      <c r="AX1" s="141"/>
-      <c r="AY1" s="141"/>
-      <c r="AZ1" s="142"/>
+      <c r="AU1" s="142"/>
+      <c r="AV1" s="142"/>
+      <c r="AW1" s="142"/>
+      <c r="AX1" s="142"/>
+      <c r="AY1" s="142"/>
+      <c r="AZ1" s="143"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -8954,32 +8924,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="146" t="str">
+      <c r="S2" s="147" t="str">
         <f>'１．機能概要'!W2</f>
         <v>工程別集計</v>
       </c>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="143"/>
-      <c r="AA2" s="143"/>
-      <c r="AB2" s="143"/>
-      <c r="AC2" s="143"/>
-      <c r="AD2" s="144"/>
+      <c r="T2" s="144"/>
+      <c r="U2" s="144"/>
+      <c r="V2" s="144"/>
+      <c r="W2" s="144"/>
+      <c r="X2" s="144"/>
+      <c r="Y2" s="144"/>
+      <c r="Z2" s="144"/>
+      <c r="AA2" s="144"/>
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="144"/>
+      <c r="AD2" s="145"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="145"/>
-      <c r="AJ2" s="141"/>
-      <c r="AK2" s="141"/>
-      <c r="AL2" s="141"/>
-      <c r="AM2" s="142"/>
+      <c r="AI2" s="146"/>
+      <c r="AJ2" s="142"/>
+      <c r="AK2" s="142"/>
+      <c r="AL2" s="142"/>
+      <c r="AM2" s="143"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -8988,13 +8958,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="129"/>
-      <c r="AU2" s="141"/>
-      <c r="AV2" s="141"/>
-      <c r="AW2" s="141"/>
-      <c r="AX2" s="141"/>
-      <c r="AY2" s="141"/>
-      <c r="AZ2" s="142"/>
+      <c r="AT2" s="136"/>
+      <c r="AU2" s="142"/>
+      <c r="AV2" s="142"/>
+      <c r="AW2" s="142"/>
+      <c r="AX2" s="142"/>
+      <c r="AY2" s="142"/>
+      <c r="AZ2" s="143"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -9333,7 +9303,7 @@
       <c r="F11" s="72"/>
       <c r="G11" s="71"/>
       <c r="K11" s="72"/>
-      <c r="M11" s="150" t="s">
+      <c r="M11" s="101" t="s">
         <v>150</v>
       </c>
       <c r="N11" s="94"/>
@@ -17548,14 +17518,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="134">
+      <c r="AI1" s="139">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
-      <c r="AJ1" s="143"/>
-      <c r="AK1" s="143"/>
-      <c r="AL1" s="143"/>
-      <c r="AM1" s="144"/>
+      <c r="AJ1" s="144"/>
+      <c r="AK1" s="144"/>
+      <c r="AL1" s="144"/>
+      <c r="AM1" s="145"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -17564,16 +17534,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="129" t="str">
+      <c r="AT1" s="136" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="141"/>
-      <c r="AV1" s="141"/>
-      <c r="AW1" s="141"/>
-      <c r="AX1" s="141"/>
-      <c r="AY1" s="141"/>
-      <c r="AZ1" s="142"/>
+      <c r="AU1" s="142"/>
+      <c r="AV1" s="142"/>
+      <c r="AW1" s="142"/>
+      <c r="AX1" s="142"/>
+      <c r="AY1" s="142"/>
+      <c r="AZ1" s="143"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -17601,32 +17571,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="146" t="str">
+      <c r="S2" s="147" t="str">
         <f>'１．機能概要'!W2</f>
         <v>工程別集計</v>
       </c>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="143"/>
-      <c r="AA2" s="143"/>
-      <c r="AB2" s="143"/>
-      <c r="AC2" s="143"/>
-      <c r="AD2" s="144"/>
+      <c r="T2" s="144"/>
+      <c r="U2" s="144"/>
+      <c r="V2" s="144"/>
+      <c r="W2" s="144"/>
+      <c r="X2" s="144"/>
+      <c r="Y2" s="144"/>
+      <c r="Z2" s="144"/>
+      <c r="AA2" s="144"/>
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="144"/>
+      <c r="AD2" s="145"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="145"/>
-      <c r="AJ2" s="141"/>
-      <c r="AK2" s="141"/>
-      <c r="AL2" s="141"/>
-      <c r="AM2" s="142"/>
+      <c r="AI2" s="146"/>
+      <c r="AJ2" s="142"/>
+      <c r="AK2" s="142"/>
+      <c r="AL2" s="142"/>
+      <c r="AM2" s="143"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -17635,13 +17605,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="129"/>
-      <c r="AU2" s="141"/>
-      <c r="AV2" s="141"/>
-      <c r="AW2" s="141"/>
-      <c r="AX2" s="141"/>
-      <c r="AY2" s="141"/>
-      <c r="AZ2" s="142"/>
+      <c r="AT2" s="136"/>
+      <c r="AU2" s="142"/>
+      <c r="AV2" s="142"/>
+      <c r="AW2" s="142"/>
+      <c r="AX2" s="142"/>
+      <c r="AY2" s="142"/>
+      <c r="AZ2" s="143"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -22159,14 +22129,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="134">
+      <c r="AI1" s="139">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
-      <c r="AJ1" s="143"/>
-      <c r="AK1" s="143"/>
-      <c r="AL1" s="143"/>
-      <c r="AM1" s="144"/>
+      <c r="AJ1" s="144"/>
+      <c r="AK1" s="144"/>
+      <c r="AL1" s="144"/>
+      <c r="AM1" s="145"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -22175,16 +22145,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="129" t="str">
+      <c r="AT1" s="136" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="141"/>
-      <c r="AV1" s="141"/>
-      <c r="AW1" s="141"/>
-      <c r="AX1" s="141"/>
-      <c r="AY1" s="141"/>
-      <c r="AZ1" s="142"/>
+      <c r="AU1" s="142"/>
+      <c r="AV1" s="142"/>
+      <c r="AW1" s="142"/>
+      <c r="AX1" s="142"/>
+      <c r="AY1" s="142"/>
+      <c r="AZ1" s="143"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -22212,32 +22182,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="146" t="str">
+      <c r="S2" s="147" t="str">
         <f>'１．機能概要'!W2</f>
         <v>工程別集計</v>
       </c>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="143"/>
-      <c r="AA2" s="143"/>
-      <c r="AB2" s="143"/>
-      <c r="AC2" s="143"/>
-      <c r="AD2" s="144"/>
+      <c r="T2" s="144"/>
+      <c r="U2" s="144"/>
+      <c r="V2" s="144"/>
+      <c r="W2" s="144"/>
+      <c r="X2" s="144"/>
+      <c r="Y2" s="144"/>
+      <c r="Z2" s="144"/>
+      <c r="AA2" s="144"/>
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="144"/>
+      <c r="AD2" s="145"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="145"/>
-      <c r="AJ2" s="141"/>
-      <c r="AK2" s="141"/>
-      <c r="AL2" s="141"/>
-      <c r="AM2" s="142"/>
+      <c r="AI2" s="146"/>
+      <c r="AJ2" s="142"/>
+      <c r="AK2" s="142"/>
+      <c r="AL2" s="142"/>
+      <c r="AM2" s="143"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -22246,13 +22216,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="129"/>
-      <c r="AU2" s="141"/>
-      <c r="AV2" s="141"/>
-      <c r="AW2" s="141"/>
-      <c r="AX2" s="141"/>
-      <c r="AY2" s="141"/>
-      <c r="AZ2" s="142"/>
+      <c r="AT2" s="136"/>
+      <c r="AU2" s="142"/>
+      <c r="AV2" s="142"/>
+      <c r="AW2" s="142"/>
+      <c r="AX2" s="142"/>
+      <c r="AY2" s="142"/>
+      <c r="AZ2" s="143"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -33372,15 +33342,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -33538,6 +33499,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
@@ -33548,14 +33518,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33571,4 +33533,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K21A_工程別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21A_工程別集計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201910\実績参照\20191017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334C48F9-C6F9-4560-AEC3-B04D9C74F64C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69C50DC-50FF-4776-9D8D-67320A32FB3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1951,6 +1951,47 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1981,46 +2022,29 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2033,30 +2057,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -2076,13 +2076,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3023,16 +3023,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>76</xdr:col>
-      <xdr:colOff>103632</xdr:colOff>
+      <xdr:colOff>113156</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>189826</xdr:rowOff>
+      <xdr:rowOff>199350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88134872-6440-43E6-B463-CD72A83DD709}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F142D60-268C-4B38-A359-F3FD25281B9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3049,7 +3049,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="371475" y="1095375"/>
-          <a:ext cx="9142857" cy="5390476"/>
+          <a:ext cx="9152381" cy="5400000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3967,1770 +3967,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="105"/>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="105"/>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="105"/>
-      <c r="AD1" s="105"/>
-      <c r="AE1" s="105"/>
-      <c r="AF1" s="105"/>
-      <c r="AG1" s="105"/>
-      <c r="AH1" s="105"/>
-      <c r="AI1" s="105"/>
-      <c r="AJ1" s="105"/>
-      <c r="AK1" s="105"/>
-      <c r="AL1" s="105"/>
-      <c r="AM1" s="105"/>
-      <c r="AN1" s="105"/>
-      <c r="AO1" s="105"/>
-      <c r="AP1" s="105"/>
-      <c r="AQ1" s="105"/>
-      <c r="AR1" s="105"/>
-      <c r="AS1" s="105"/>
-      <c r="AT1" s="105"/>
-      <c r="AU1" s="105"/>
-      <c r="AV1" s="105"/>
-      <c r="AW1" s="105"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="120"/>
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="120"/>
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="120"/>
+      <c r="AG1" s="120"/>
+      <c r="AH1" s="120"/>
+      <c r="AI1" s="120"/>
+      <c r="AJ1" s="120"/>
+      <c r="AK1" s="120"/>
+      <c r="AL1" s="120"/>
+      <c r="AM1" s="120"/>
+      <c r="AN1" s="120"/>
+      <c r="AO1" s="120"/>
+      <c r="AP1" s="120"/>
+      <c r="AQ1" s="120"/>
+      <c r="AR1" s="120"/>
+      <c r="AS1" s="120"/>
+      <c r="AT1" s="120"/>
+      <c r="AU1" s="120"/>
+      <c r="AV1" s="120"/>
+      <c r="AW1" s="120"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="106"/>
-      <c r="AG2" s="106"/>
-      <c r="AH2" s="106"/>
-      <c r="AI2" s="106"/>
-      <c r="AJ2" s="106"/>
-      <c r="AK2" s="106"/>
-      <c r="AL2" s="106"/>
-      <c r="AM2" s="106"/>
-      <c r="AN2" s="106"/>
-      <c r="AO2" s="106"/>
-      <c r="AP2" s="106"/>
-      <c r="AQ2" s="106"/>
-      <c r="AR2" s="106"/>
-      <c r="AS2" s="106"/>
-      <c r="AT2" s="106"/>
-      <c r="AU2" s="106"/>
-      <c r="AV2" s="106"/>
-      <c r="AW2" s="106"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="121"/>
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="121"/>
+      <c r="AD2" s="121"/>
+      <c r="AE2" s="121"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="121"/>
+      <c r="AH2" s="121"/>
+      <c r="AI2" s="121"/>
+      <c r="AJ2" s="121"/>
+      <c r="AK2" s="121"/>
+      <c r="AL2" s="121"/>
+      <c r="AM2" s="121"/>
+      <c r="AN2" s="121"/>
+      <c r="AO2" s="121"/>
+      <c r="AP2" s="121"/>
+      <c r="AQ2" s="121"/>
+      <c r="AR2" s="121"/>
+      <c r="AS2" s="121"/>
+      <c r="AT2" s="121"/>
+      <c r="AU2" s="121"/>
+      <c r="AV2" s="121"/>
+      <c r="AW2" s="121"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107" t="s">
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="109" t="s">
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="110"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="109" t="s">
+      <c r="K3" s="125"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="107" t="s">
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107" t="s">
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="107"/>
-      <c r="AH3" s="107"/>
-      <c r="AI3" s="107"/>
-      <c r="AJ3" s="107"/>
-      <c r="AK3" s="107"/>
-      <c r="AL3" s="107"/>
-      <c r="AM3" s="107"/>
-      <c r="AN3" s="107" t="s">
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="122"/>
+      <c r="AJ3" s="122"/>
+      <c r="AK3" s="122"/>
+      <c r="AL3" s="122"/>
+      <c r="AM3" s="122"/>
+      <c r="AN3" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="107"/>
-      <c r="AP3" s="107"/>
-      <c r="AQ3" s="107"/>
-      <c r="AR3" s="107"/>
-      <c r="AS3" s="107" t="s">
+      <c r="AO3" s="122"/>
+      <c r="AP3" s="122"/>
+      <c r="AQ3" s="122"/>
+      <c r="AR3" s="122"/>
+      <c r="AS3" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="107"/>
-      <c r="AU3" s="107"/>
-      <c r="AV3" s="107"/>
-      <c r="AW3" s="107"/>
+      <c r="AT3" s="122"/>
+      <c r="AU3" s="122"/>
+      <c r="AV3" s="122"/>
+      <c r="AW3" s="122"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="113"/>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="113"/>
-      <c r="R4" s="114"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
-      <c r="X4" s="108"/>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="108"/>
-      <c r="AA4" s="108"/>
-      <c r="AB4" s="108"/>
-      <c r="AC4" s="108"/>
-      <c r="AD4" s="108"/>
-      <c r="AE4" s="108"/>
-      <c r="AF4" s="108"/>
-      <c r="AG4" s="108"/>
-      <c r="AH4" s="108"/>
-      <c r="AI4" s="108"/>
-      <c r="AJ4" s="108"/>
-      <c r="AK4" s="108"/>
-      <c r="AL4" s="108"/>
-      <c r="AM4" s="108"/>
-      <c r="AN4" s="108"/>
-      <c r="AO4" s="108"/>
-      <c r="AP4" s="108"/>
-      <c r="AQ4" s="108"/>
-      <c r="AR4" s="108"/>
-      <c r="AS4" s="108"/>
-      <c r="AT4" s="108"/>
-      <c r="AU4" s="108"/>
-      <c r="AV4" s="108"/>
-      <c r="AW4" s="108"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="123"/>
+      <c r="V4" s="123"/>
+      <c r="W4" s="123"/>
+      <c r="X4" s="123"/>
+      <c r="Y4" s="123"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="123"/>
+      <c r="AB4" s="123"/>
+      <c r="AC4" s="123"/>
+      <c r="AD4" s="123"/>
+      <c r="AE4" s="123"/>
+      <c r="AF4" s="123"/>
+      <c r="AG4" s="123"/>
+      <c r="AH4" s="123"/>
+      <c r="AI4" s="123"/>
+      <c r="AJ4" s="123"/>
+      <c r="AK4" s="123"/>
+      <c r="AL4" s="123"/>
+      <c r="AM4" s="123"/>
+      <c r="AN4" s="123"/>
+      <c r="AO4" s="123"/>
+      <c r="AP4" s="123"/>
+      <c r="AQ4" s="123"/>
+      <c r="AR4" s="123"/>
+      <c r="AS4" s="123"/>
+      <c r="AT4" s="123"/>
+      <c r="AU4" s="123"/>
+      <c r="AV4" s="123"/>
+      <c r="AW4" s="123"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="116">
+      <c r="B5" s="106">
         <v>1</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="117">
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="107">
         <v>43721</v>
       </c>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="118" t="s">
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118" t="s">
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="115" t="s">
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="120" t="s">
+      <c r="T5" s="105"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="120"/>
-      <c r="X5" s="120"/>
-      <c r="Y5" s="120"/>
-      <c r="Z5" s="120"/>
-      <c r="AA5" s="120"/>
-      <c r="AB5" s="120"/>
-      <c r="AC5" s="120"/>
-      <c r="AD5" s="120"/>
-      <c r="AE5" s="120"/>
-      <c r="AF5" s="120"/>
-      <c r="AG5" s="120"/>
-      <c r="AH5" s="120"/>
-      <c r="AI5" s="120"/>
-      <c r="AJ5" s="120"/>
-      <c r="AK5" s="120"/>
-      <c r="AL5" s="120"/>
-      <c r="AM5" s="120"/>
-      <c r="AN5" s="115" t="s">
+      <c r="W5" s="117"/>
+      <c r="X5" s="117"/>
+      <c r="Y5" s="117"/>
+      <c r="Z5" s="117"/>
+      <c r="AA5" s="117"/>
+      <c r="AB5" s="117"/>
+      <c r="AC5" s="117"/>
+      <c r="AD5" s="117"/>
+      <c r="AE5" s="117"/>
+      <c r="AF5" s="117"/>
+      <c r="AG5" s="117"/>
+      <c r="AH5" s="117"/>
+      <c r="AI5" s="117"/>
+      <c r="AJ5" s="117"/>
+      <c r="AK5" s="117"/>
+      <c r="AL5" s="117"/>
+      <c r="AM5" s="117"/>
+      <c r="AN5" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="AO5" s="115"/>
-      <c r="AP5" s="115"/>
-      <c r="AQ5" s="115"/>
-      <c r="AR5" s="115"/>
-      <c r="AS5" s="115"/>
-      <c r="AT5" s="115"/>
-      <c r="AU5" s="115"/>
-      <c r="AV5" s="115"/>
-      <c r="AW5" s="115"/>
+      <c r="AO5" s="105"/>
+      <c r="AP5" s="105"/>
+      <c r="AQ5" s="105"/>
+      <c r="AR5" s="105"/>
+      <c r="AS5" s="105"/>
+      <c r="AT5" s="105"/>
+      <c r="AU5" s="105"/>
+      <c r="AV5" s="105"/>
+      <c r="AW5" s="105"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
       <c r="M6" s="119"/>
       <c r="N6" s="119"/>
       <c r="O6" s="119"/>
       <c r="P6" s="119"/>
       <c r="Q6" s="119"/>
       <c r="R6" s="119"/>
-      <c r="S6" s="115"/>
-      <c r="T6" s="115"/>
-      <c r="U6" s="115"/>
-      <c r="V6" s="120"/>
-      <c r="W6" s="120"/>
-      <c r="X6" s="120"/>
-      <c r="Y6" s="120"/>
-      <c r="Z6" s="120"/>
-      <c r="AA6" s="120"/>
-      <c r="AB6" s="120"/>
-      <c r="AC6" s="120"/>
-      <c r="AD6" s="120"/>
-      <c r="AE6" s="120"/>
-      <c r="AF6" s="120"/>
-      <c r="AG6" s="120"/>
-      <c r="AH6" s="120"/>
-      <c r="AI6" s="120"/>
-      <c r="AJ6" s="120"/>
-      <c r="AK6" s="120"/>
-      <c r="AL6" s="120"/>
-      <c r="AM6" s="120"/>
-      <c r="AN6" s="115"/>
-      <c r="AO6" s="115"/>
-      <c r="AP6" s="115"/>
-      <c r="AQ6" s="115"/>
-      <c r="AR6" s="115"/>
-      <c r="AS6" s="115"/>
-      <c r="AT6" s="115"/>
-      <c r="AU6" s="115"/>
-      <c r="AV6" s="115"/>
-      <c r="AW6" s="115"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
+      <c r="V6" s="117"/>
+      <c r="W6" s="117"/>
+      <c r="X6" s="117"/>
+      <c r="Y6" s="117"/>
+      <c r="Z6" s="117"/>
+      <c r="AA6" s="117"/>
+      <c r="AB6" s="117"/>
+      <c r="AC6" s="117"/>
+      <c r="AD6" s="117"/>
+      <c r="AE6" s="117"/>
+      <c r="AF6" s="117"/>
+      <c r="AG6" s="117"/>
+      <c r="AH6" s="117"/>
+      <c r="AI6" s="117"/>
+      <c r="AJ6" s="117"/>
+      <c r="AK6" s="117"/>
+      <c r="AL6" s="117"/>
+      <c r="AM6" s="117"/>
+      <c r="AN6" s="105"/>
+      <c r="AO6" s="105"/>
+      <c r="AP6" s="105"/>
+      <c r="AQ6" s="105"/>
+      <c r="AR6" s="105"/>
+      <c r="AS6" s="105"/>
+      <c r="AT6" s="105"/>
+      <c r="AU6" s="105"/>
+      <c r="AV6" s="105"/>
+      <c r="AW6" s="105"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
       <c r="M7" s="119"/>
       <c r="N7" s="119"/>
       <c r="O7" s="119"/>
       <c r="P7" s="119"/>
       <c r="Q7" s="119"/>
       <c r="R7" s="119"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="120"/>
-      <c r="W7" s="120"/>
-      <c r="X7" s="120"/>
-      <c r="Y7" s="120"/>
-      <c r="Z7" s="120"/>
-      <c r="AA7" s="120"/>
-      <c r="AB7" s="120"/>
-      <c r="AC7" s="120"/>
-      <c r="AD7" s="120"/>
-      <c r="AE7" s="120"/>
-      <c r="AF7" s="120"/>
-      <c r="AG7" s="120"/>
-      <c r="AH7" s="120"/>
-      <c r="AI7" s="120"/>
-      <c r="AJ7" s="120"/>
-      <c r="AK7" s="120"/>
-      <c r="AL7" s="120"/>
-      <c r="AM7" s="120"/>
-      <c r="AN7" s="115"/>
-      <c r="AO7" s="115"/>
-      <c r="AP7" s="115"/>
-      <c r="AQ7" s="115"/>
-      <c r="AR7" s="115"/>
-      <c r="AS7" s="115"/>
-      <c r="AT7" s="115"/>
-      <c r="AU7" s="115"/>
-      <c r="AV7" s="115"/>
-      <c r="AW7" s="115"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
+      <c r="X7" s="117"/>
+      <c r="Y7" s="117"/>
+      <c r="Z7" s="117"/>
+      <c r="AA7" s="117"/>
+      <c r="AB7" s="117"/>
+      <c r="AC7" s="117"/>
+      <c r="AD7" s="117"/>
+      <c r="AE7" s="117"/>
+      <c r="AF7" s="117"/>
+      <c r="AG7" s="117"/>
+      <c r="AH7" s="117"/>
+      <c r="AI7" s="117"/>
+      <c r="AJ7" s="117"/>
+      <c r="AK7" s="117"/>
+      <c r="AL7" s="117"/>
+      <c r="AM7" s="117"/>
+      <c r="AN7" s="105"/>
+      <c r="AO7" s="105"/>
+      <c r="AP7" s="105"/>
+      <c r="AQ7" s="105"/>
+      <c r="AR7" s="105"/>
+      <c r="AS7" s="105"/>
+      <c r="AT7" s="105"/>
+      <c r="AU7" s="105"/>
+      <c r="AV7" s="105"/>
+      <c r="AW7" s="105"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
       <c r="M8" s="119"/>
       <c r="N8" s="119"/>
       <c r="O8" s="119"/>
       <c r="P8" s="119"/>
       <c r="Q8" s="119"/>
       <c r="R8" s="119"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="120"/>
-      <c r="W8" s="120"/>
-      <c r="X8" s="120"/>
-      <c r="Y8" s="120"/>
-      <c r="Z8" s="120"/>
-      <c r="AA8" s="120"/>
-      <c r="AB8" s="120"/>
-      <c r="AC8" s="120"/>
-      <c r="AD8" s="120"/>
-      <c r="AE8" s="120"/>
-      <c r="AF8" s="120"/>
-      <c r="AG8" s="120"/>
-      <c r="AH8" s="120"/>
-      <c r="AI8" s="120"/>
-      <c r="AJ8" s="120"/>
-      <c r="AK8" s="120"/>
-      <c r="AL8" s="120"/>
-      <c r="AM8" s="120"/>
-      <c r="AN8" s="115"/>
-      <c r="AO8" s="115"/>
-      <c r="AP8" s="115"/>
-      <c r="AQ8" s="115"/>
-      <c r="AR8" s="115"/>
-      <c r="AS8" s="115"/>
-      <c r="AT8" s="115"/>
-      <c r="AU8" s="115"/>
-      <c r="AV8" s="115"/>
-      <c r="AW8" s="115"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="117"/>
+      <c r="Y8" s="117"/>
+      <c r="Z8" s="117"/>
+      <c r="AA8" s="117"/>
+      <c r="AB8" s="117"/>
+      <c r="AC8" s="117"/>
+      <c r="AD8" s="117"/>
+      <c r="AE8" s="117"/>
+      <c r="AF8" s="117"/>
+      <c r="AG8" s="117"/>
+      <c r="AH8" s="117"/>
+      <c r="AI8" s="117"/>
+      <c r="AJ8" s="117"/>
+      <c r="AK8" s="117"/>
+      <c r="AL8" s="117"/>
+      <c r="AM8" s="117"/>
+      <c r="AN8" s="105"/>
+      <c r="AO8" s="105"/>
+      <c r="AP8" s="105"/>
+      <c r="AQ8" s="105"/>
+      <c r="AR8" s="105"/>
+      <c r="AS8" s="105"/>
+      <c r="AT8" s="105"/>
+      <c r="AU8" s="105"/>
+      <c r="AV8" s="105"/>
+      <c r="AW8" s="105"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
       <c r="M9" s="119"/>
       <c r="N9" s="119"/>
       <c r="O9" s="119"/>
       <c r="P9" s="119"/>
       <c r="Q9" s="119"/>
       <c r="R9" s="119"/>
-      <c r="S9" s="115"/>
-      <c r="T9" s="115"/>
-      <c r="U9" s="115"/>
-      <c r="V9" s="120"/>
-      <c r="W9" s="120"/>
-      <c r="X9" s="120"/>
-      <c r="Y9" s="120"/>
-      <c r="Z9" s="120"/>
-      <c r="AA9" s="120"/>
-      <c r="AB9" s="120"/>
-      <c r="AC9" s="120"/>
-      <c r="AD9" s="120"/>
-      <c r="AE9" s="120"/>
-      <c r="AF9" s="120"/>
-      <c r="AG9" s="120"/>
-      <c r="AH9" s="120"/>
-      <c r="AI9" s="120"/>
-      <c r="AJ9" s="120"/>
-      <c r="AK9" s="120"/>
-      <c r="AL9" s="120"/>
-      <c r="AM9" s="120"/>
-      <c r="AN9" s="115"/>
-      <c r="AO9" s="115"/>
-      <c r="AP9" s="115"/>
-      <c r="AQ9" s="115"/>
-      <c r="AR9" s="115"/>
-      <c r="AS9" s="115"/>
-      <c r="AT9" s="115"/>
-      <c r="AU9" s="115"/>
-      <c r="AV9" s="115"/>
-      <c r="AW9" s="115"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="105"/>
+      <c r="V9" s="117"/>
+      <c r="W9" s="117"/>
+      <c r="X9" s="117"/>
+      <c r="Y9" s="117"/>
+      <c r="Z9" s="117"/>
+      <c r="AA9" s="117"/>
+      <c r="AB9" s="117"/>
+      <c r="AC9" s="117"/>
+      <c r="AD9" s="117"/>
+      <c r="AE9" s="117"/>
+      <c r="AF9" s="117"/>
+      <c r="AG9" s="117"/>
+      <c r="AH9" s="117"/>
+      <c r="AI9" s="117"/>
+      <c r="AJ9" s="117"/>
+      <c r="AK9" s="117"/>
+      <c r="AL9" s="117"/>
+      <c r="AM9" s="117"/>
+      <c r="AN9" s="105"/>
+      <c r="AO9" s="105"/>
+      <c r="AP9" s="105"/>
+      <c r="AQ9" s="105"/>
+      <c r="AR9" s="105"/>
+      <c r="AS9" s="105"/>
+      <c r="AT9" s="105"/>
+      <c r="AU9" s="105"/>
+      <c r="AV9" s="105"/>
+      <c r="AW9" s="105"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
       <c r="M10" s="119"/>
       <c r="N10" s="119"/>
       <c r="O10" s="119"/>
       <c r="P10" s="119"/>
       <c r="Q10" s="119"/>
       <c r="R10" s="119"/>
-      <c r="S10" s="115"/>
-      <c r="T10" s="115"/>
-      <c r="U10" s="115"/>
-      <c r="V10" s="120"/>
-      <c r="W10" s="120"/>
-      <c r="X10" s="120"/>
-      <c r="Y10" s="120"/>
-      <c r="Z10" s="120"/>
-      <c r="AA10" s="120"/>
-      <c r="AB10" s="120"/>
-      <c r="AC10" s="120"/>
-      <c r="AD10" s="120"/>
-      <c r="AE10" s="120"/>
-      <c r="AF10" s="120"/>
-      <c r="AG10" s="120"/>
-      <c r="AH10" s="120"/>
-      <c r="AI10" s="120"/>
-      <c r="AJ10" s="120"/>
-      <c r="AK10" s="120"/>
-      <c r="AL10" s="120"/>
-      <c r="AM10" s="120"/>
-      <c r="AN10" s="115"/>
-      <c r="AO10" s="115"/>
-      <c r="AP10" s="115"/>
-      <c r="AQ10" s="115"/>
-      <c r="AR10" s="115"/>
-      <c r="AS10" s="115"/>
-      <c r="AT10" s="115"/>
-      <c r="AU10" s="115"/>
-      <c r="AV10" s="115"/>
-      <c r="AW10" s="115"/>
+      <c r="S10" s="105"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="105"/>
+      <c r="V10" s="117"/>
+      <c r="W10" s="117"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="117"/>
+      <c r="AA10" s="117"/>
+      <c r="AB10" s="117"/>
+      <c r="AC10" s="117"/>
+      <c r="AD10" s="117"/>
+      <c r="AE10" s="117"/>
+      <c r="AF10" s="117"/>
+      <c r="AG10" s="117"/>
+      <c r="AH10" s="117"/>
+      <c r="AI10" s="117"/>
+      <c r="AJ10" s="117"/>
+      <c r="AK10" s="117"/>
+      <c r="AL10" s="117"/>
+      <c r="AM10" s="117"/>
+      <c r="AN10" s="105"/>
+      <c r="AO10" s="105"/>
+      <c r="AP10" s="105"/>
+      <c r="AQ10" s="105"/>
+      <c r="AR10" s="105"/>
+      <c r="AS10" s="105"/>
+      <c r="AT10" s="105"/>
+      <c r="AU10" s="105"/>
+      <c r="AV10" s="105"/>
+      <c r="AW10" s="105"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="121"/>
-      <c r="P11" s="121"/>
-      <c r="Q11" s="121"/>
-      <c r="R11" s="121"/>
-      <c r="S11" s="115"/>
-      <c r="T11" s="115"/>
-      <c r="U11" s="115"/>
-      <c r="V11" s="122"/>
-      <c r="W11" s="123"/>
-      <c r="X11" s="123"/>
-      <c r="Y11" s="123"/>
-      <c r="Z11" s="123"/>
-      <c r="AA11" s="123"/>
-      <c r="AB11" s="123"/>
-      <c r="AC11" s="123"/>
-      <c r="AD11" s="123"/>
-      <c r="AE11" s="123"/>
-      <c r="AF11" s="123"/>
-      <c r="AG11" s="123"/>
-      <c r="AH11" s="123"/>
-      <c r="AI11" s="123"/>
-      <c r="AJ11" s="123"/>
-      <c r="AK11" s="123"/>
-      <c r="AL11" s="123"/>
-      <c r="AM11" s="123"/>
-      <c r="AN11" s="115"/>
-      <c r="AO11" s="115"/>
-      <c r="AP11" s="115"/>
-      <c r="AQ11" s="115"/>
-      <c r="AR11" s="115"/>
-      <c r="AS11" s="115"/>
-      <c r="AT11" s="115"/>
-      <c r="AU11" s="115"/>
-      <c r="AV11" s="115"/>
-      <c r="AW11" s="115"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="113"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="113"/>
+      <c r="R11" s="113"/>
+      <c r="S11" s="105"/>
+      <c r="T11" s="105"/>
+      <c r="U11" s="105"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="118"/>
+      <c r="X11" s="118"/>
+      <c r="Y11" s="118"/>
+      <c r="Z11" s="118"/>
+      <c r="AA11" s="118"/>
+      <c r="AB11" s="118"/>
+      <c r="AC11" s="118"/>
+      <c r="AD11" s="118"/>
+      <c r="AE11" s="118"/>
+      <c r="AF11" s="118"/>
+      <c r="AG11" s="118"/>
+      <c r="AH11" s="118"/>
+      <c r="AI11" s="118"/>
+      <c r="AJ11" s="118"/>
+      <c r="AK11" s="118"/>
+      <c r="AL11" s="118"/>
+      <c r="AM11" s="118"/>
+      <c r="AN11" s="105"/>
+      <c r="AO11" s="105"/>
+      <c r="AP11" s="105"/>
+      <c r="AQ11" s="105"/>
+      <c r="AR11" s="105"/>
+      <c r="AS11" s="105"/>
+      <c r="AT11" s="105"/>
+      <c r="AU11" s="105"/>
+      <c r="AV11" s="105"/>
+      <c r="AW11" s="105"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="121"/>
-      <c r="Q12" s="121"/>
-      <c r="R12" s="121"/>
-      <c r="S12" s="115"/>
-      <c r="T12" s="115"/>
-      <c r="U12" s="115"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="122"/>
-      <c r="X12" s="122"/>
-      <c r="Y12" s="122"/>
-      <c r="Z12" s="122"/>
-      <c r="AA12" s="122"/>
-      <c r="AB12" s="122"/>
-      <c r="AC12" s="122"/>
-      <c r="AD12" s="122"/>
-      <c r="AE12" s="122"/>
-      <c r="AF12" s="122"/>
-      <c r="AG12" s="122"/>
-      <c r="AH12" s="122"/>
-      <c r="AI12" s="122"/>
-      <c r="AJ12" s="122"/>
-      <c r="AK12" s="122"/>
-      <c r="AL12" s="122"/>
-      <c r="AM12" s="122"/>
-      <c r="AN12" s="115"/>
-      <c r="AO12" s="115"/>
-      <c r="AP12" s="115"/>
-      <c r="AQ12" s="115"/>
-      <c r="AR12" s="115"/>
-      <c r="AS12" s="115"/>
-      <c r="AT12" s="115"/>
-      <c r="AU12" s="115"/>
-      <c r="AV12" s="115"/>
-      <c r="AW12" s="115"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="113"/>
+      <c r="S12" s="105"/>
+      <c r="T12" s="105"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="111"/>
+      <c r="X12" s="111"/>
+      <c r="Y12" s="111"/>
+      <c r="Z12" s="111"/>
+      <c r="AA12" s="111"/>
+      <c r="AB12" s="111"/>
+      <c r="AC12" s="111"/>
+      <c r="AD12" s="111"/>
+      <c r="AE12" s="111"/>
+      <c r="AF12" s="111"/>
+      <c r="AG12" s="111"/>
+      <c r="AH12" s="111"/>
+      <c r="AI12" s="111"/>
+      <c r="AJ12" s="111"/>
+      <c r="AK12" s="111"/>
+      <c r="AL12" s="111"/>
+      <c r="AM12" s="111"/>
+      <c r="AN12" s="105"/>
+      <c r="AO12" s="105"/>
+      <c r="AP12" s="105"/>
+      <c r="AQ12" s="105"/>
+      <c r="AR12" s="105"/>
+      <c r="AS12" s="105"/>
+      <c r="AT12" s="105"/>
+      <c r="AU12" s="105"/>
+      <c r="AV12" s="105"/>
+      <c r="AW12" s="105"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="124"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="121"/>
-      <c r="P13" s="121"/>
-      <c r="Q13" s="121"/>
-      <c r="R13" s="121"/>
-      <c r="S13" s="115"/>
-      <c r="T13" s="115"/>
-      <c r="U13" s="115"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="122"/>
-      <c r="Y13" s="122"/>
-      <c r="Z13" s="122"/>
-      <c r="AA13" s="122"/>
-      <c r="AB13" s="122"/>
-      <c r="AC13" s="122"/>
-      <c r="AD13" s="122"/>
-      <c r="AE13" s="122"/>
-      <c r="AF13" s="122"/>
-      <c r="AG13" s="122"/>
-      <c r="AH13" s="122"/>
-      <c r="AI13" s="122"/>
-      <c r="AJ13" s="122"/>
-      <c r="AK13" s="122"/>
-      <c r="AL13" s="122"/>
-      <c r="AM13" s="122"/>
-      <c r="AN13" s="115"/>
-      <c r="AO13" s="115"/>
-      <c r="AP13" s="115"/>
-      <c r="AQ13" s="115"/>
-      <c r="AR13" s="115"/>
-      <c r="AS13" s="115"/>
-      <c r="AT13" s="115"/>
-      <c r="AU13" s="115"/>
-      <c r="AV13" s="115"/>
-      <c r="AW13" s="115"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="113"/>
+      <c r="R13" s="113"/>
+      <c r="S13" s="105"/>
+      <c r="T13" s="105"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="111"/>
+      <c r="X13" s="111"/>
+      <c r="Y13" s="111"/>
+      <c r="Z13" s="111"/>
+      <c r="AA13" s="111"/>
+      <c r="AB13" s="111"/>
+      <c r="AC13" s="111"/>
+      <c r="AD13" s="111"/>
+      <c r="AE13" s="111"/>
+      <c r="AF13" s="111"/>
+      <c r="AG13" s="111"/>
+      <c r="AH13" s="111"/>
+      <c r="AI13" s="111"/>
+      <c r="AJ13" s="111"/>
+      <c r="AK13" s="111"/>
+      <c r="AL13" s="111"/>
+      <c r="AM13" s="111"/>
+      <c r="AN13" s="105"/>
+      <c r="AO13" s="105"/>
+      <c r="AP13" s="105"/>
+      <c r="AQ13" s="105"/>
+      <c r="AR13" s="105"/>
+      <c r="AS13" s="105"/>
+      <c r="AT13" s="105"/>
+      <c r="AU13" s="105"/>
+      <c r="AV13" s="105"/>
+      <c r="AW13" s="105"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="121"/>
-      <c r="P14" s="121"/>
-      <c r="Q14" s="121"/>
-      <c r="R14" s="121"/>
-      <c r="S14" s="115"/>
-      <c r="T14" s="115"/>
-      <c r="U14" s="115"/>
-      <c r="V14" s="125"/>
-      <c r="W14" s="120"/>
-      <c r="X14" s="120"/>
-      <c r="Y14" s="120"/>
-      <c r="Z14" s="120"/>
-      <c r="AA14" s="120"/>
-      <c r="AB14" s="120"/>
-      <c r="AC14" s="120"/>
-      <c r="AD14" s="120"/>
-      <c r="AE14" s="120"/>
-      <c r="AF14" s="120"/>
-      <c r="AG14" s="120"/>
-      <c r="AH14" s="120"/>
-      <c r="AI14" s="120"/>
-      <c r="AJ14" s="120"/>
-      <c r="AK14" s="120"/>
-      <c r="AL14" s="120"/>
-      <c r="AM14" s="120"/>
-      <c r="AN14" s="115"/>
-      <c r="AO14" s="115"/>
-      <c r="AP14" s="115"/>
-      <c r="AQ14" s="115"/>
-      <c r="AR14" s="115"/>
-      <c r="AS14" s="115"/>
-      <c r="AT14" s="115"/>
-      <c r="AU14" s="115"/>
-      <c r="AV14" s="115"/>
-      <c r="AW14" s="115"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="113"/>
+      <c r="R14" s="113"/>
+      <c r="S14" s="105"/>
+      <c r="T14" s="105"/>
+      <c r="U14" s="105"/>
+      <c r="V14" s="116"/>
+      <c r="W14" s="117"/>
+      <c r="X14" s="117"/>
+      <c r="Y14" s="117"/>
+      <c r="Z14" s="117"/>
+      <c r="AA14" s="117"/>
+      <c r="AB14" s="117"/>
+      <c r="AC14" s="117"/>
+      <c r="AD14" s="117"/>
+      <c r="AE14" s="117"/>
+      <c r="AF14" s="117"/>
+      <c r="AG14" s="117"/>
+      <c r="AH14" s="117"/>
+      <c r="AI14" s="117"/>
+      <c r="AJ14" s="117"/>
+      <c r="AK14" s="117"/>
+      <c r="AL14" s="117"/>
+      <c r="AM14" s="117"/>
+      <c r="AN14" s="105"/>
+      <c r="AO14" s="105"/>
+      <c r="AP14" s="105"/>
+      <c r="AQ14" s="105"/>
+      <c r="AR14" s="105"/>
+      <c r="AS14" s="105"/>
+      <c r="AT14" s="105"/>
+      <c r="AU14" s="105"/>
+      <c r="AV14" s="105"/>
+      <c r="AW14" s="105"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="121"/>
-      <c r="O15" s="121"/>
-      <c r="P15" s="121"/>
-      <c r="Q15" s="121"/>
-      <c r="R15" s="121"/>
-      <c r="S15" s="115"/>
-      <c r="T15" s="115"/>
-      <c r="U15" s="115"/>
-      <c r="V15" s="122"/>
-      <c r="W15" s="122"/>
-      <c r="X15" s="122"/>
-      <c r="Y15" s="122"/>
-      <c r="Z15" s="122"/>
-      <c r="AA15" s="122"/>
-      <c r="AB15" s="122"/>
-      <c r="AC15" s="122"/>
-      <c r="AD15" s="122"/>
-      <c r="AE15" s="122"/>
-      <c r="AF15" s="122"/>
-      <c r="AG15" s="122"/>
-      <c r="AH15" s="122"/>
-      <c r="AI15" s="122"/>
-      <c r="AJ15" s="122"/>
-      <c r="AK15" s="122"/>
-      <c r="AL15" s="122"/>
-      <c r="AM15" s="122"/>
-      <c r="AN15" s="115"/>
-      <c r="AO15" s="115"/>
-      <c r="AP15" s="115"/>
-      <c r="AQ15" s="115"/>
-      <c r="AR15" s="115"/>
-      <c r="AS15" s="115"/>
-      <c r="AT15" s="115"/>
-      <c r="AU15" s="115"/>
-      <c r="AV15" s="115"/>
-      <c r="AW15" s="115"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="113"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="113"/>
+      <c r="Q15" s="113"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="105"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="111"/>
+      <c r="W15" s="111"/>
+      <c r="X15" s="111"/>
+      <c r="Y15" s="111"/>
+      <c r="Z15" s="111"/>
+      <c r="AA15" s="111"/>
+      <c r="AB15" s="111"/>
+      <c r="AC15" s="111"/>
+      <c r="AD15" s="111"/>
+      <c r="AE15" s="111"/>
+      <c r="AF15" s="111"/>
+      <c r="AG15" s="111"/>
+      <c r="AH15" s="111"/>
+      <c r="AI15" s="111"/>
+      <c r="AJ15" s="111"/>
+      <c r="AK15" s="111"/>
+      <c r="AL15" s="111"/>
+      <c r="AM15" s="111"/>
+      <c r="AN15" s="105"/>
+      <c r="AO15" s="105"/>
+      <c r="AP15" s="105"/>
+      <c r="AQ15" s="105"/>
+      <c r="AR15" s="105"/>
+      <c r="AS15" s="105"/>
+      <c r="AT15" s="105"/>
+      <c r="AU15" s="105"/>
+      <c r="AV15" s="105"/>
+      <c r="AW15" s="105"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="121"/>
-      <c r="P16" s="121"/>
-      <c r="Q16" s="121"/>
-      <c r="R16" s="121"/>
-      <c r="S16" s="115"/>
-      <c r="T16" s="115"/>
-      <c r="U16" s="115"/>
-      <c r="V16" s="122"/>
-      <c r="W16" s="122"/>
-      <c r="X16" s="122"/>
-      <c r="Y16" s="122"/>
-      <c r="Z16" s="122"/>
-      <c r="AA16" s="122"/>
-      <c r="AB16" s="122"/>
-      <c r="AC16" s="122"/>
-      <c r="AD16" s="122"/>
-      <c r="AE16" s="122"/>
-      <c r="AF16" s="122"/>
-      <c r="AG16" s="122"/>
-      <c r="AH16" s="122"/>
-      <c r="AI16" s="122"/>
-      <c r="AJ16" s="122"/>
-      <c r="AK16" s="122"/>
-      <c r="AL16" s="122"/>
-      <c r="AM16" s="122"/>
-      <c r="AN16" s="115"/>
-      <c r="AO16" s="115"/>
-      <c r="AP16" s="115"/>
-      <c r="AQ16" s="115"/>
-      <c r="AR16" s="115"/>
-      <c r="AS16" s="115"/>
-      <c r="AT16" s="115"/>
-      <c r="AU16" s="115"/>
-      <c r="AV16" s="115"/>
-      <c r="AW16" s="115"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="113"/>
+      <c r="R16" s="113"/>
+      <c r="S16" s="105"/>
+      <c r="T16" s="105"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="111"/>
+      <c r="W16" s="111"/>
+      <c r="X16" s="111"/>
+      <c r="Y16" s="111"/>
+      <c r="Z16" s="111"/>
+      <c r="AA16" s="111"/>
+      <c r="AB16" s="111"/>
+      <c r="AC16" s="111"/>
+      <c r="AD16" s="111"/>
+      <c r="AE16" s="111"/>
+      <c r="AF16" s="111"/>
+      <c r="AG16" s="111"/>
+      <c r="AH16" s="111"/>
+      <c r="AI16" s="111"/>
+      <c r="AJ16" s="111"/>
+      <c r="AK16" s="111"/>
+      <c r="AL16" s="111"/>
+      <c r="AM16" s="111"/>
+      <c r="AN16" s="105"/>
+      <c r="AO16" s="105"/>
+      <c r="AP16" s="105"/>
+      <c r="AQ16" s="105"/>
+      <c r="AR16" s="105"/>
+      <c r="AS16" s="105"/>
+      <c r="AT16" s="105"/>
+      <c r="AU16" s="105"/>
+      <c r="AV16" s="105"/>
+      <c r="AW16" s="105"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="121"/>
-      <c r="N17" s="121"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="121"/>
-      <c r="Q17" s="121"/>
-      <c r="R17" s="126"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="127"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="122"/>
-      <c r="W17" s="122"/>
-      <c r="X17" s="122"/>
-      <c r="Y17" s="122"/>
-      <c r="Z17" s="122"/>
-      <c r="AA17" s="122"/>
-      <c r="AB17" s="122"/>
-      <c r="AC17" s="122"/>
-      <c r="AD17" s="122"/>
-      <c r="AE17" s="122"/>
-      <c r="AF17" s="122"/>
-      <c r="AG17" s="122"/>
-      <c r="AH17" s="122"/>
-      <c r="AI17" s="122"/>
-      <c r="AJ17" s="122"/>
-      <c r="AK17" s="122"/>
-      <c r="AL17" s="122"/>
-      <c r="AM17" s="122"/>
-      <c r="AN17" s="115"/>
-      <c r="AO17" s="115"/>
-      <c r="AP17" s="115"/>
-      <c r="AQ17" s="115"/>
-      <c r="AR17" s="115"/>
-      <c r="AS17" s="115"/>
-      <c r="AT17" s="115"/>
-      <c r="AU17" s="115"/>
-      <c r="AV17" s="115"/>
-      <c r="AW17" s="115"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="113"/>
+      <c r="R17" s="114"/>
+      <c r="S17" s="115"/>
+      <c r="T17" s="115"/>
+      <c r="U17" s="115"/>
+      <c r="V17" s="111"/>
+      <c r="W17" s="111"/>
+      <c r="X17" s="111"/>
+      <c r="Y17" s="111"/>
+      <c r="Z17" s="111"/>
+      <c r="AA17" s="111"/>
+      <c r="AB17" s="111"/>
+      <c r="AC17" s="111"/>
+      <c r="AD17" s="111"/>
+      <c r="AE17" s="111"/>
+      <c r="AF17" s="111"/>
+      <c r="AG17" s="111"/>
+      <c r="AH17" s="111"/>
+      <c r="AI17" s="111"/>
+      <c r="AJ17" s="111"/>
+      <c r="AK17" s="111"/>
+      <c r="AL17" s="111"/>
+      <c r="AM17" s="111"/>
+      <c r="AN17" s="105"/>
+      <c r="AO17" s="105"/>
+      <c r="AP17" s="105"/>
+      <c r="AQ17" s="105"/>
+      <c r="AR17" s="105"/>
+      <c r="AS17" s="105"/>
+      <c r="AT17" s="105"/>
+      <c r="AU17" s="105"/>
+      <c r="AV17" s="105"/>
+      <c r="AW17" s="105"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="124"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="121"/>
-      <c r="Q18" s="121"/>
-      <c r="R18" s="121"/>
-      <c r="S18" s="115"/>
-      <c r="T18" s="115"/>
-      <c r="U18" s="115"/>
-      <c r="V18" s="122"/>
-      <c r="W18" s="122"/>
-      <c r="X18" s="122"/>
-      <c r="Y18" s="122"/>
-      <c r="Z18" s="122"/>
-      <c r="AA18" s="122"/>
-      <c r="AB18" s="122"/>
-      <c r="AC18" s="122"/>
-      <c r="AD18" s="122"/>
-      <c r="AE18" s="122"/>
-      <c r="AF18" s="122"/>
-      <c r="AG18" s="122"/>
-      <c r="AH18" s="122"/>
-      <c r="AI18" s="122"/>
-      <c r="AJ18" s="122"/>
-      <c r="AK18" s="122"/>
-      <c r="AL18" s="122"/>
-      <c r="AM18" s="122"/>
-      <c r="AN18" s="115"/>
-      <c r="AO18" s="115"/>
-      <c r="AP18" s="115"/>
-      <c r="AQ18" s="115"/>
-      <c r="AR18" s="115"/>
-      <c r="AS18" s="115"/>
-      <c r="AT18" s="115"/>
-      <c r="AU18" s="115"/>
-      <c r="AV18" s="115"/>
-      <c r="AW18" s="115"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="113"/>
+      <c r="P18" s="113"/>
+      <c r="Q18" s="113"/>
+      <c r="R18" s="113"/>
+      <c r="S18" s="105"/>
+      <c r="T18" s="105"/>
+      <c r="U18" s="105"/>
+      <c r="V18" s="111"/>
+      <c r="W18" s="111"/>
+      <c r="X18" s="111"/>
+      <c r="Y18" s="111"/>
+      <c r="Z18" s="111"/>
+      <c r="AA18" s="111"/>
+      <c r="AB18" s="111"/>
+      <c r="AC18" s="111"/>
+      <c r="AD18" s="111"/>
+      <c r="AE18" s="111"/>
+      <c r="AF18" s="111"/>
+      <c r="AG18" s="111"/>
+      <c r="AH18" s="111"/>
+      <c r="AI18" s="111"/>
+      <c r="AJ18" s="111"/>
+      <c r="AK18" s="111"/>
+      <c r="AL18" s="111"/>
+      <c r="AM18" s="111"/>
+      <c r="AN18" s="105"/>
+      <c r="AO18" s="105"/>
+      <c r="AP18" s="105"/>
+      <c r="AQ18" s="105"/>
+      <c r="AR18" s="105"/>
+      <c r="AS18" s="105"/>
+      <c r="AT18" s="105"/>
+      <c r="AU18" s="105"/>
+      <c r="AV18" s="105"/>
+      <c r="AW18" s="105"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="121"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="121"/>
-      <c r="Q19" s="121"/>
-      <c r="R19" s="121"/>
-      <c r="S19" s="115"/>
-      <c r="T19" s="115"/>
-      <c r="U19" s="115"/>
-      <c r="V19" s="122"/>
-      <c r="W19" s="122"/>
-      <c r="X19" s="122"/>
-      <c r="Y19" s="122"/>
-      <c r="Z19" s="122"/>
-      <c r="AA19" s="122"/>
-      <c r="AB19" s="122"/>
-      <c r="AC19" s="122"/>
-      <c r="AD19" s="122"/>
-      <c r="AE19" s="122"/>
-      <c r="AF19" s="122"/>
-      <c r="AG19" s="122"/>
-      <c r="AH19" s="122"/>
-      <c r="AI19" s="122"/>
-      <c r="AJ19" s="122"/>
-      <c r="AK19" s="122"/>
-      <c r="AL19" s="122"/>
-      <c r="AM19" s="122"/>
-      <c r="AN19" s="115"/>
-      <c r="AO19" s="115"/>
-      <c r="AP19" s="115"/>
-      <c r="AQ19" s="115"/>
-      <c r="AR19" s="115"/>
-      <c r="AS19" s="115"/>
-      <c r="AT19" s="115"/>
-      <c r="AU19" s="115"/>
-      <c r="AV19" s="115"/>
-      <c r="AW19" s="115"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="113"/>
+      <c r="P19" s="113"/>
+      <c r="Q19" s="113"/>
+      <c r="R19" s="113"/>
+      <c r="S19" s="105"/>
+      <c r="T19" s="105"/>
+      <c r="U19" s="105"/>
+      <c r="V19" s="111"/>
+      <c r="W19" s="111"/>
+      <c r="X19" s="111"/>
+      <c r="Y19" s="111"/>
+      <c r="Z19" s="111"/>
+      <c r="AA19" s="111"/>
+      <c r="AB19" s="111"/>
+      <c r="AC19" s="111"/>
+      <c r="AD19" s="111"/>
+      <c r="AE19" s="111"/>
+      <c r="AF19" s="111"/>
+      <c r="AG19" s="111"/>
+      <c r="AH19" s="111"/>
+      <c r="AI19" s="111"/>
+      <c r="AJ19" s="111"/>
+      <c r="AK19" s="111"/>
+      <c r="AL19" s="111"/>
+      <c r="AM19" s="111"/>
+      <c r="AN19" s="105"/>
+      <c r="AO19" s="105"/>
+      <c r="AP19" s="105"/>
+      <c r="AQ19" s="105"/>
+      <c r="AR19" s="105"/>
+      <c r="AS19" s="105"/>
+      <c r="AT19" s="105"/>
+      <c r="AU19" s="105"/>
+      <c r="AV19" s="105"/>
+      <c r="AW19" s="105"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="121"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="121"/>
-      <c r="P20" s="121"/>
-      <c r="Q20" s="121"/>
-      <c r="R20" s="121"/>
-      <c r="S20" s="115"/>
-      <c r="T20" s="115"/>
-      <c r="U20" s="115"/>
-      <c r="V20" s="122"/>
-      <c r="W20" s="122"/>
-      <c r="X20" s="122"/>
-      <c r="Y20" s="122"/>
-      <c r="Z20" s="122"/>
-      <c r="AA20" s="122"/>
-      <c r="AB20" s="122"/>
-      <c r="AC20" s="122"/>
-      <c r="AD20" s="122"/>
-      <c r="AE20" s="122"/>
-      <c r="AF20" s="122"/>
-      <c r="AG20" s="122"/>
-      <c r="AH20" s="122"/>
-      <c r="AI20" s="122"/>
-      <c r="AJ20" s="122"/>
-      <c r="AK20" s="122"/>
-      <c r="AL20" s="122"/>
-      <c r="AM20" s="122"/>
-      <c r="AN20" s="115"/>
-      <c r="AO20" s="115"/>
-      <c r="AP20" s="115"/>
-      <c r="AQ20" s="115"/>
-      <c r="AR20" s="115"/>
-      <c r="AS20" s="115"/>
-      <c r="AT20" s="115"/>
-      <c r="AU20" s="115"/>
-      <c r="AV20" s="115"/>
-      <c r="AW20" s="115"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="113"/>
+      <c r="R20" s="113"/>
+      <c r="S20" s="105"/>
+      <c r="T20" s="105"/>
+      <c r="U20" s="105"/>
+      <c r="V20" s="111"/>
+      <c r="W20" s="111"/>
+      <c r="X20" s="111"/>
+      <c r="Y20" s="111"/>
+      <c r="Z20" s="111"/>
+      <c r="AA20" s="111"/>
+      <c r="AB20" s="111"/>
+      <c r="AC20" s="111"/>
+      <c r="AD20" s="111"/>
+      <c r="AE20" s="111"/>
+      <c r="AF20" s="111"/>
+      <c r="AG20" s="111"/>
+      <c r="AH20" s="111"/>
+      <c r="AI20" s="111"/>
+      <c r="AJ20" s="111"/>
+      <c r="AK20" s="111"/>
+      <c r="AL20" s="111"/>
+      <c r="AM20" s="111"/>
+      <c r="AN20" s="105"/>
+      <c r="AO20" s="105"/>
+      <c r="AP20" s="105"/>
+      <c r="AQ20" s="105"/>
+      <c r="AR20" s="105"/>
+      <c r="AS20" s="105"/>
+      <c r="AT20" s="105"/>
+      <c r="AU20" s="105"/>
+      <c r="AV20" s="105"/>
+      <c r="AW20" s="105"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="121"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="121"/>
-      <c r="R21" s="121"/>
-      <c r="S21" s="115"/>
-      <c r="T21" s="115"/>
-      <c r="U21" s="115"/>
-      <c r="V21" s="122"/>
-      <c r="W21" s="122"/>
-      <c r="X21" s="122"/>
-      <c r="Y21" s="122"/>
-      <c r="Z21" s="122"/>
-      <c r="AA21" s="122"/>
-      <c r="AB21" s="122"/>
-      <c r="AC21" s="122"/>
-      <c r="AD21" s="122"/>
-      <c r="AE21" s="122"/>
-      <c r="AF21" s="122"/>
-      <c r="AG21" s="122"/>
-      <c r="AH21" s="122"/>
-      <c r="AI21" s="122"/>
-      <c r="AJ21" s="122"/>
-      <c r="AK21" s="122"/>
-      <c r="AL21" s="122"/>
-      <c r="AM21" s="122"/>
-      <c r="AN21" s="115"/>
-      <c r="AO21" s="115"/>
-      <c r="AP21" s="115"/>
-      <c r="AQ21" s="115"/>
-      <c r="AR21" s="115"/>
-      <c r="AS21" s="115"/>
-      <c r="AT21" s="115"/>
-      <c r="AU21" s="115"/>
-      <c r="AV21" s="115"/>
-      <c r="AW21" s="115"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="113"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="105"/>
+      <c r="T21" s="105"/>
+      <c r="U21" s="105"/>
+      <c r="V21" s="111"/>
+      <c r="W21" s="111"/>
+      <c r="X21" s="111"/>
+      <c r="Y21" s="111"/>
+      <c r="Z21" s="111"/>
+      <c r="AA21" s="111"/>
+      <c r="AB21" s="111"/>
+      <c r="AC21" s="111"/>
+      <c r="AD21" s="111"/>
+      <c r="AE21" s="111"/>
+      <c r="AF21" s="111"/>
+      <c r="AG21" s="111"/>
+      <c r="AH21" s="111"/>
+      <c r="AI21" s="111"/>
+      <c r="AJ21" s="111"/>
+      <c r="AK21" s="111"/>
+      <c r="AL21" s="111"/>
+      <c r="AM21" s="111"/>
+      <c r="AN21" s="105"/>
+      <c r="AO21" s="105"/>
+      <c r="AP21" s="105"/>
+      <c r="AQ21" s="105"/>
+      <c r="AR21" s="105"/>
+      <c r="AS21" s="105"/>
+      <c r="AT21" s="105"/>
+      <c r="AU21" s="105"/>
+      <c r="AV21" s="105"/>
+      <c r="AW21" s="105"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="121"/>
-      <c r="P22" s="121"/>
-      <c r="Q22" s="121"/>
-      <c r="R22" s="121"/>
-      <c r="S22" s="115"/>
-      <c r="T22" s="115"/>
-      <c r="U22" s="115"/>
-      <c r="V22" s="122"/>
-      <c r="W22" s="122"/>
-      <c r="X22" s="122"/>
-      <c r="Y22" s="122"/>
-      <c r="Z22" s="122"/>
-      <c r="AA22" s="122"/>
-      <c r="AB22" s="122"/>
-      <c r="AC22" s="122"/>
-      <c r="AD22" s="122"/>
-      <c r="AE22" s="122"/>
-      <c r="AF22" s="122"/>
-      <c r="AG22" s="122"/>
-      <c r="AH22" s="122"/>
-      <c r="AI22" s="122"/>
-      <c r="AJ22" s="122"/>
-      <c r="AK22" s="122"/>
-      <c r="AL22" s="122"/>
-      <c r="AM22" s="122"/>
-      <c r="AN22" s="115"/>
-      <c r="AO22" s="115"/>
-      <c r="AP22" s="115"/>
-      <c r="AQ22" s="115"/>
-      <c r="AR22" s="115"/>
-      <c r="AS22" s="115"/>
-      <c r="AT22" s="115"/>
-      <c r="AU22" s="115"/>
-      <c r="AV22" s="115"/>
-      <c r="AW22" s="115"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="113"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="113"/>
+      <c r="S22" s="105"/>
+      <c r="T22" s="105"/>
+      <c r="U22" s="105"/>
+      <c r="V22" s="111"/>
+      <c r="W22" s="111"/>
+      <c r="X22" s="111"/>
+      <c r="Y22" s="111"/>
+      <c r="Z22" s="111"/>
+      <c r="AA22" s="111"/>
+      <c r="AB22" s="111"/>
+      <c r="AC22" s="111"/>
+      <c r="AD22" s="111"/>
+      <c r="AE22" s="111"/>
+      <c r="AF22" s="111"/>
+      <c r="AG22" s="111"/>
+      <c r="AH22" s="111"/>
+      <c r="AI22" s="111"/>
+      <c r="AJ22" s="111"/>
+      <c r="AK22" s="111"/>
+      <c r="AL22" s="111"/>
+      <c r="AM22" s="111"/>
+      <c r="AN22" s="105"/>
+      <c r="AO22" s="105"/>
+      <c r="AP22" s="105"/>
+      <c r="AQ22" s="105"/>
+      <c r="AR22" s="105"/>
+      <c r="AS22" s="105"/>
+      <c r="AT22" s="105"/>
+      <c r="AU22" s="105"/>
+      <c r="AV22" s="105"/>
+      <c r="AW22" s="105"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="121"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="121"/>
-      <c r="P23" s="121"/>
-      <c r="Q23" s="121"/>
-      <c r="R23" s="121"/>
-      <c r="S23" s="115"/>
-      <c r="T23" s="115"/>
-      <c r="U23" s="115"/>
-      <c r="V23" s="122"/>
-      <c r="W23" s="122"/>
-      <c r="X23" s="122"/>
-      <c r="Y23" s="122"/>
-      <c r="Z23" s="122"/>
-      <c r="AA23" s="122"/>
-      <c r="AB23" s="122"/>
-      <c r="AC23" s="122"/>
-      <c r="AD23" s="122"/>
-      <c r="AE23" s="122"/>
-      <c r="AF23" s="122"/>
-      <c r="AG23" s="122"/>
-      <c r="AH23" s="122"/>
-      <c r="AI23" s="122"/>
-      <c r="AJ23" s="122"/>
-      <c r="AK23" s="122"/>
-      <c r="AL23" s="122"/>
-      <c r="AM23" s="122"/>
-      <c r="AN23" s="115"/>
-      <c r="AO23" s="115"/>
-      <c r="AP23" s="115"/>
-      <c r="AQ23" s="115"/>
-      <c r="AR23" s="115"/>
-      <c r="AS23" s="115"/>
-      <c r="AT23" s="115"/>
-      <c r="AU23" s="115"/>
-      <c r="AV23" s="115"/>
-      <c r="AW23" s="115"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="113"/>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="113"/>
+      <c r="S23" s="105"/>
+      <c r="T23" s="105"/>
+      <c r="U23" s="105"/>
+      <c r="V23" s="111"/>
+      <c r="W23" s="111"/>
+      <c r="X23" s="111"/>
+      <c r="Y23" s="111"/>
+      <c r="Z23" s="111"/>
+      <c r="AA23" s="111"/>
+      <c r="AB23" s="111"/>
+      <c r="AC23" s="111"/>
+      <c r="AD23" s="111"/>
+      <c r="AE23" s="111"/>
+      <c r="AF23" s="111"/>
+      <c r="AG23" s="111"/>
+      <c r="AH23" s="111"/>
+      <c r="AI23" s="111"/>
+      <c r="AJ23" s="111"/>
+      <c r="AK23" s="111"/>
+      <c r="AL23" s="111"/>
+      <c r="AM23" s="111"/>
+      <c r="AN23" s="105"/>
+      <c r="AO23" s="105"/>
+      <c r="AP23" s="105"/>
+      <c r="AQ23" s="105"/>
+      <c r="AR23" s="105"/>
+      <c r="AS23" s="105"/>
+      <c r="AT23" s="105"/>
+      <c r="AU23" s="105"/>
+      <c r="AV23" s="105"/>
+      <c r="AW23" s="105"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="121"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="121"/>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="121"/>
-      <c r="R24" s="121"/>
-      <c r="S24" s="115"/>
-      <c r="T24" s="115"/>
-      <c r="U24" s="115"/>
-      <c r="V24" s="122"/>
-      <c r="W24" s="122"/>
-      <c r="X24" s="122"/>
-      <c r="Y24" s="122"/>
-      <c r="Z24" s="122"/>
-      <c r="AA24" s="122"/>
-      <c r="AB24" s="122"/>
-      <c r="AC24" s="122"/>
-      <c r="AD24" s="122"/>
-      <c r="AE24" s="122"/>
-      <c r="AF24" s="122"/>
-      <c r="AG24" s="122"/>
-      <c r="AH24" s="122"/>
-      <c r="AI24" s="122"/>
-      <c r="AJ24" s="122"/>
-      <c r="AK24" s="122"/>
-      <c r="AL24" s="122"/>
-      <c r="AM24" s="122"/>
-      <c r="AN24" s="115"/>
-      <c r="AO24" s="115"/>
-      <c r="AP24" s="115"/>
-      <c r="AQ24" s="115"/>
-      <c r="AR24" s="115"/>
-      <c r="AS24" s="115"/>
-      <c r="AT24" s="115"/>
-      <c r="AU24" s="115"/>
-      <c r="AV24" s="115"/>
-      <c r="AW24" s="115"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="113"/>
+      <c r="Q24" s="113"/>
+      <c r="R24" s="113"/>
+      <c r="S24" s="105"/>
+      <c r="T24" s="105"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="111"/>
+      <c r="W24" s="111"/>
+      <c r="X24" s="111"/>
+      <c r="Y24" s="111"/>
+      <c r="Z24" s="111"/>
+      <c r="AA24" s="111"/>
+      <c r="AB24" s="111"/>
+      <c r="AC24" s="111"/>
+      <c r="AD24" s="111"/>
+      <c r="AE24" s="111"/>
+      <c r="AF24" s="111"/>
+      <c r="AG24" s="111"/>
+      <c r="AH24" s="111"/>
+      <c r="AI24" s="111"/>
+      <c r="AJ24" s="111"/>
+      <c r="AK24" s="111"/>
+      <c r="AL24" s="111"/>
+      <c r="AM24" s="111"/>
+      <c r="AN24" s="105"/>
+      <c r="AO24" s="105"/>
+      <c r="AP24" s="105"/>
+      <c r="AQ24" s="105"/>
+      <c r="AR24" s="105"/>
+      <c r="AS24" s="105"/>
+      <c r="AT24" s="105"/>
+      <c r="AU24" s="105"/>
+      <c r="AV24" s="105"/>
+      <c r="AW24" s="105"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="124"/>
-      <c r="N25" s="121"/>
-      <c r="O25" s="121"/>
-      <c r="P25" s="121"/>
-      <c r="Q25" s="121"/>
-      <c r="R25" s="121"/>
-      <c r="S25" s="115"/>
-      <c r="T25" s="115"/>
-      <c r="U25" s="115"/>
-      <c r="V25" s="122"/>
-      <c r="W25" s="122"/>
-      <c r="X25" s="122"/>
-      <c r="Y25" s="122"/>
-      <c r="Z25" s="122"/>
-      <c r="AA25" s="122"/>
-      <c r="AB25" s="122"/>
-      <c r="AC25" s="122"/>
-      <c r="AD25" s="122"/>
-      <c r="AE25" s="122"/>
-      <c r="AF25" s="122"/>
-      <c r="AG25" s="122"/>
-      <c r="AH25" s="122"/>
-      <c r="AI25" s="122"/>
-      <c r="AJ25" s="122"/>
-      <c r="AK25" s="122"/>
-      <c r="AL25" s="122"/>
-      <c r="AM25" s="122"/>
-      <c r="AN25" s="115"/>
-      <c r="AO25" s="115"/>
-      <c r="AP25" s="115"/>
-      <c r="AQ25" s="115"/>
-      <c r="AR25" s="115"/>
-      <c r="AS25" s="115"/>
-      <c r="AT25" s="115"/>
-      <c r="AU25" s="115"/>
-      <c r="AV25" s="115"/>
-      <c r="AW25" s="115"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="112"/>
+      <c r="N25" s="113"/>
+      <c r="O25" s="113"/>
+      <c r="P25" s="113"/>
+      <c r="Q25" s="113"/>
+      <c r="R25" s="113"/>
+      <c r="S25" s="105"/>
+      <c r="T25" s="105"/>
+      <c r="U25" s="105"/>
+      <c r="V25" s="111"/>
+      <c r="W25" s="111"/>
+      <c r="X25" s="111"/>
+      <c r="Y25" s="111"/>
+      <c r="Z25" s="111"/>
+      <c r="AA25" s="111"/>
+      <c r="AB25" s="111"/>
+      <c r="AC25" s="111"/>
+      <c r="AD25" s="111"/>
+      <c r="AE25" s="111"/>
+      <c r="AF25" s="111"/>
+      <c r="AG25" s="111"/>
+      <c r="AH25" s="111"/>
+      <c r="AI25" s="111"/>
+      <c r="AJ25" s="111"/>
+      <c r="AK25" s="111"/>
+      <c r="AL25" s="111"/>
+      <c r="AM25" s="111"/>
+      <c r="AN25" s="105"/>
+      <c r="AO25" s="105"/>
+      <c r="AP25" s="105"/>
+      <c r="AQ25" s="105"/>
+      <c r="AR25" s="105"/>
+      <c r="AS25" s="105"/>
+      <c r="AT25" s="105"/>
+      <c r="AU25" s="105"/>
+      <c r="AV25" s="105"/>
+      <c r="AW25" s="105"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="118"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="124"/>
-      <c r="N26" s="121"/>
-      <c r="O26" s="121"/>
-      <c r="P26" s="121"/>
-      <c r="Q26" s="121"/>
-      <c r="R26" s="121"/>
-      <c r="S26" s="115"/>
-      <c r="T26" s="115"/>
-      <c r="U26" s="115"/>
-      <c r="V26" s="122"/>
-      <c r="W26" s="122"/>
-      <c r="X26" s="122"/>
-      <c r="Y26" s="122"/>
-      <c r="Z26" s="122"/>
-      <c r="AA26" s="122"/>
-      <c r="AB26" s="122"/>
-      <c r="AC26" s="122"/>
-      <c r="AD26" s="122"/>
-      <c r="AE26" s="122"/>
-      <c r="AF26" s="122"/>
-      <c r="AG26" s="122"/>
-      <c r="AH26" s="122"/>
-      <c r="AI26" s="122"/>
-      <c r="AJ26" s="122"/>
-      <c r="AK26" s="122"/>
-      <c r="AL26" s="122"/>
-      <c r="AM26" s="122"/>
-      <c r="AN26" s="115"/>
-      <c r="AO26" s="115"/>
-      <c r="AP26" s="115"/>
-      <c r="AQ26" s="115"/>
-      <c r="AR26" s="115"/>
-      <c r="AS26" s="115"/>
-      <c r="AT26" s="115"/>
-      <c r="AU26" s="115"/>
-      <c r="AV26" s="115"/>
-      <c r="AW26" s="115"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="108"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="113"/>
+      <c r="Q26" s="113"/>
+      <c r="R26" s="113"/>
+      <c r="S26" s="105"/>
+      <c r="T26" s="105"/>
+      <c r="U26" s="105"/>
+      <c r="V26" s="111"/>
+      <c r="W26" s="111"/>
+      <c r="X26" s="111"/>
+      <c r="Y26" s="111"/>
+      <c r="Z26" s="111"/>
+      <c r="AA26" s="111"/>
+      <c r="AB26" s="111"/>
+      <c r="AC26" s="111"/>
+      <c r="AD26" s="111"/>
+      <c r="AE26" s="111"/>
+      <c r="AF26" s="111"/>
+      <c r="AG26" s="111"/>
+      <c r="AH26" s="111"/>
+      <c r="AI26" s="111"/>
+      <c r="AJ26" s="111"/>
+      <c r="AK26" s="111"/>
+      <c r="AL26" s="111"/>
+      <c r="AM26" s="111"/>
+      <c r="AN26" s="105"/>
+      <c r="AO26" s="105"/>
+      <c r="AP26" s="105"/>
+      <c r="AQ26" s="105"/>
+      <c r="AR26" s="105"/>
+      <c r="AS26" s="105"/>
+      <c r="AT26" s="105"/>
+      <c r="AU26" s="105"/>
+      <c r="AV26" s="105"/>
+      <c r="AW26" s="105"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="117"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="118"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="124"/>
-      <c r="N27" s="121"/>
-      <c r="O27" s="121"/>
-      <c r="P27" s="121"/>
-      <c r="Q27" s="121"/>
-      <c r="R27" s="121"/>
-      <c r="S27" s="115"/>
-      <c r="T27" s="115"/>
-      <c r="U27" s="115"/>
-      <c r="V27" s="122"/>
-      <c r="W27" s="122"/>
-      <c r="X27" s="122"/>
-      <c r="Y27" s="122"/>
-      <c r="Z27" s="122"/>
-      <c r="AA27" s="122"/>
-      <c r="AB27" s="122"/>
-      <c r="AC27" s="122"/>
-      <c r="AD27" s="122"/>
-      <c r="AE27" s="122"/>
-      <c r="AF27" s="122"/>
-      <c r="AG27" s="122"/>
-      <c r="AH27" s="122"/>
-      <c r="AI27" s="122"/>
-      <c r="AJ27" s="122"/>
-      <c r="AK27" s="122"/>
-      <c r="AL27" s="122"/>
-      <c r="AM27" s="122"/>
-      <c r="AN27" s="115"/>
-      <c r="AO27" s="115"/>
-      <c r="AP27" s="115"/>
-      <c r="AQ27" s="115"/>
-      <c r="AR27" s="115"/>
-      <c r="AS27" s="115"/>
-      <c r="AT27" s="115"/>
-      <c r="AU27" s="115"/>
-      <c r="AV27" s="115"/>
-      <c r="AW27" s="115"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="113"/>
+      <c r="Q27" s="113"/>
+      <c r="R27" s="113"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="105"/>
+      <c r="U27" s="105"/>
+      <c r="V27" s="111"/>
+      <c r="W27" s="111"/>
+      <c r="X27" s="111"/>
+      <c r="Y27" s="111"/>
+      <c r="Z27" s="111"/>
+      <c r="AA27" s="111"/>
+      <c r="AB27" s="111"/>
+      <c r="AC27" s="111"/>
+      <c r="AD27" s="111"/>
+      <c r="AE27" s="111"/>
+      <c r="AF27" s="111"/>
+      <c r="AG27" s="111"/>
+      <c r="AH27" s="111"/>
+      <c r="AI27" s="111"/>
+      <c r="AJ27" s="111"/>
+      <c r="AK27" s="111"/>
+      <c r="AL27" s="111"/>
+      <c r="AM27" s="111"/>
+      <c r="AN27" s="105"/>
+      <c r="AO27" s="105"/>
+      <c r="AP27" s="105"/>
+      <c r="AQ27" s="105"/>
+      <c r="AR27" s="105"/>
+      <c r="AS27" s="105"/>
+      <c r="AT27" s="105"/>
+      <c r="AU27" s="105"/>
+      <c r="AV27" s="105"/>
+      <c r="AW27" s="105"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="117"/>
-      <c r="I28" s="117"/>
-      <c r="J28" s="118"/>
-      <c r="K28" s="118"/>
-      <c r="L28" s="118"/>
-      <c r="M28" s="121"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="121"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="121"/>
-      <c r="R28" s="121"/>
-      <c r="S28" s="115"/>
-      <c r="T28" s="115"/>
-      <c r="U28" s="115"/>
-      <c r="V28" s="122"/>
-      <c r="W28" s="122"/>
-      <c r="X28" s="122"/>
-      <c r="Y28" s="122"/>
-      <c r="Z28" s="122"/>
-      <c r="AA28" s="122"/>
-      <c r="AB28" s="122"/>
-      <c r="AC28" s="122"/>
-      <c r="AD28" s="122"/>
-      <c r="AE28" s="122"/>
-      <c r="AF28" s="122"/>
-      <c r="AG28" s="122"/>
-      <c r="AH28" s="122"/>
-      <c r="AI28" s="122"/>
-      <c r="AJ28" s="122"/>
-      <c r="AK28" s="122"/>
-      <c r="AL28" s="122"/>
-      <c r="AM28" s="122"/>
-      <c r="AN28" s="115"/>
-      <c r="AO28" s="115"/>
-      <c r="AP28" s="115"/>
-      <c r="AQ28" s="115"/>
-      <c r="AR28" s="115"/>
-      <c r="AS28" s="115"/>
-      <c r="AT28" s="115"/>
-      <c r="AU28" s="115"/>
-      <c r="AV28" s="115"/>
-      <c r="AW28" s="115"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="108"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="113"/>
+      <c r="Q28" s="113"/>
+      <c r="R28" s="113"/>
+      <c r="S28" s="105"/>
+      <c r="T28" s="105"/>
+      <c r="U28" s="105"/>
+      <c r="V28" s="111"/>
+      <c r="W28" s="111"/>
+      <c r="X28" s="111"/>
+      <c r="Y28" s="111"/>
+      <c r="Z28" s="111"/>
+      <c r="AA28" s="111"/>
+      <c r="AB28" s="111"/>
+      <c r="AC28" s="111"/>
+      <c r="AD28" s="111"/>
+      <c r="AE28" s="111"/>
+      <c r="AF28" s="111"/>
+      <c r="AG28" s="111"/>
+      <c r="AH28" s="111"/>
+      <c r="AI28" s="111"/>
+      <c r="AJ28" s="111"/>
+      <c r="AK28" s="111"/>
+      <c r="AL28" s="111"/>
+      <c r="AM28" s="111"/>
+      <c r="AN28" s="105"/>
+      <c r="AO28" s="105"/>
+      <c r="AP28" s="105"/>
+      <c r="AQ28" s="105"/>
+      <c r="AR28" s="105"/>
+      <c r="AS28" s="105"/>
+      <c r="AT28" s="105"/>
+      <c r="AU28" s="105"/>
+      <c r="AV28" s="105"/>
+      <c r="AW28" s="105"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="116"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="117"/>
-      <c r="I29" s="117"/>
-      <c r="J29" s="118"/>
-      <c r="K29" s="118"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="121"/>
-      <c r="N29" s="121"/>
-      <c r="O29" s="121"/>
-      <c r="P29" s="121"/>
-      <c r="Q29" s="121"/>
-      <c r="R29" s="121"/>
-      <c r="S29" s="115"/>
-      <c r="T29" s="115"/>
-      <c r="U29" s="115"/>
-      <c r="V29" s="122"/>
-      <c r="W29" s="122"/>
-      <c r="X29" s="122"/>
-      <c r="Y29" s="122"/>
-      <c r="Z29" s="122"/>
-      <c r="AA29" s="122"/>
-      <c r="AB29" s="122"/>
-      <c r="AC29" s="122"/>
-      <c r="AD29" s="122"/>
-      <c r="AE29" s="122"/>
-      <c r="AF29" s="122"/>
-      <c r="AG29" s="122"/>
-      <c r="AH29" s="122"/>
-      <c r="AI29" s="122"/>
-      <c r="AJ29" s="122"/>
-      <c r="AK29" s="122"/>
-      <c r="AL29" s="122"/>
-      <c r="AM29" s="122"/>
-      <c r="AN29" s="115"/>
-      <c r="AO29" s="115"/>
-      <c r="AP29" s="115"/>
-      <c r="AQ29" s="115"/>
-      <c r="AR29" s="115"/>
-      <c r="AS29" s="115"/>
-      <c r="AT29" s="115"/>
-      <c r="AU29" s="115"/>
-      <c r="AV29" s="115"/>
-      <c r="AW29" s="115"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="113"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="105"/>
+      <c r="U29" s="105"/>
+      <c r="V29" s="111"/>
+      <c r="W29" s="111"/>
+      <c r="X29" s="111"/>
+      <c r="Y29" s="111"/>
+      <c r="Z29" s="111"/>
+      <c r="AA29" s="111"/>
+      <c r="AB29" s="111"/>
+      <c r="AC29" s="111"/>
+      <c r="AD29" s="111"/>
+      <c r="AE29" s="111"/>
+      <c r="AF29" s="111"/>
+      <c r="AG29" s="111"/>
+      <c r="AH29" s="111"/>
+      <c r="AI29" s="111"/>
+      <c r="AJ29" s="111"/>
+      <c r="AK29" s="111"/>
+      <c r="AL29" s="111"/>
+      <c r="AM29" s="111"/>
+      <c r="AN29" s="105"/>
+      <c r="AO29" s="105"/>
+      <c r="AP29" s="105"/>
+      <c r="AQ29" s="105"/>
+      <c r="AR29" s="105"/>
+      <c r="AS29" s="105"/>
+      <c r="AT29" s="105"/>
+      <c r="AU29" s="105"/>
+      <c r="AV29" s="105"/>
+      <c r="AW29" s="105"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="118"/>
-      <c r="K30" s="118"/>
-      <c r="L30" s="118"/>
-      <c r="M30" s="124"/>
-      <c r="N30" s="121"/>
-      <c r="O30" s="121"/>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="121"/>
-      <c r="R30" s="121"/>
-      <c r="S30" s="115"/>
-      <c r="T30" s="115"/>
-      <c r="U30" s="115"/>
-      <c r="V30" s="122"/>
-      <c r="W30" s="122"/>
-      <c r="X30" s="122"/>
-      <c r="Y30" s="122"/>
-      <c r="Z30" s="122"/>
-      <c r="AA30" s="122"/>
-      <c r="AB30" s="122"/>
-      <c r="AC30" s="122"/>
-      <c r="AD30" s="122"/>
-      <c r="AE30" s="122"/>
-      <c r="AF30" s="122"/>
-      <c r="AG30" s="122"/>
-      <c r="AH30" s="122"/>
-      <c r="AI30" s="122"/>
-      <c r="AJ30" s="122"/>
-      <c r="AK30" s="122"/>
-      <c r="AL30" s="122"/>
-      <c r="AM30" s="122"/>
-      <c r="AN30" s="115"/>
-      <c r="AO30" s="115"/>
-      <c r="AP30" s="115"/>
-      <c r="AQ30" s="115"/>
-      <c r="AR30" s="115"/>
-      <c r="AS30" s="115"/>
-      <c r="AT30" s="115"/>
-      <c r="AU30" s="115"/>
-      <c r="AV30" s="115"/>
-      <c r="AW30" s="115"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="108"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="112"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="113"/>
+      <c r="Q30" s="113"/>
+      <c r="R30" s="113"/>
+      <c r="S30" s="105"/>
+      <c r="T30" s="105"/>
+      <c r="U30" s="105"/>
+      <c r="V30" s="111"/>
+      <c r="W30" s="111"/>
+      <c r="X30" s="111"/>
+      <c r="Y30" s="111"/>
+      <c r="Z30" s="111"/>
+      <c r="AA30" s="111"/>
+      <c r="AB30" s="111"/>
+      <c r="AC30" s="111"/>
+      <c r="AD30" s="111"/>
+      <c r="AE30" s="111"/>
+      <c r="AF30" s="111"/>
+      <c r="AG30" s="111"/>
+      <c r="AH30" s="111"/>
+      <c r="AI30" s="111"/>
+      <c r="AJ30" s="111"/>
+      <c r="AK30" s="111"/>
+      <c r="AL30" s="111"/>
+      <c r="AM30" s="111"/>
+      <c r="AN30" s="105"/>
+      <c r="AO30" s="105"/>
+      <c r="AP30" s="105"/>
+      <c r="AQ30" s="105"/>
+      <c r="AR30" s="105"/>
+      <c r="AS30" s="105"/>
+      <c r="AT30" s="105"/>
+      <c r="AU30" s="105"/>
+      <c r="AV30" s="105"/>
+      <c r="AW30" s="105"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="118"/>
-      <c r="K31" s="118"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="124"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="121"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="121"/>
-      <c r="R31" s="121"/>
-      <c r="S31" s="115"/>
-      <c r="T31" s="115"/>
-      <c r="U31" s="115"/>
-      <c r="V31" s="122"/>
-      <c r="W31" s="122"/>
-      <c r="X31" s="122"/>
-      <c r="Y31" s="122"/>
-      <c r="Z31" s="122"/>
-      <c r="AA31" s="122"/>
-      <c r="AB31" s="122"/>
-      <c r="AC31" s="122"/>
-      <c r="AD31" s="122"/>
-      <c r="AE31" s="122"/>
-      <c r="AF31" s="122"/>
-      <c r="AG31" s="122"/>
-      <c r="AH31" s="122"/>
-      <c r="AI31" s="122"/>
-      <c r="AJ31" s="122"/>
-      <c r="AK31" s="122"/>
-      <c r="AL31" s="122"/>
-      <c r="AM31" s="122"/>
-      <c r="AN31" s="115"/>
-      <c r="AO31" s="115"/>
-      <c r="AP31" s="115"/>
-      <c r="AQ31" s="115"/>
-      <c r="AR31" s="115"/>
-      <c r="AS31" s="115"/>
-      <c r="AT31" s="115"/>
-      <c r="AU31" s="115"/>
-      <c r="AV31" s="115"/>
-      <c r="AW31" s="115"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="108"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="113"/>
+      <c r="P31" s="113"/>
+      <c r="Q31" s="113"/>
+      <c r="R31" s="113"/>
+      <c r="S31" s="105"/>
+      <c r="T31" s="105"/>
+      <c r="U31" s="105"/>
+      <c r="V31" s="111"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="111"/>
+      <c r="Y31" s="111"/>
+      <c r="Z31" s="111"/>
+      <c r="AA31" s="111"/>
+      <c r="AB31" s="111"/>
+      <c r="AC31" s="111"/>
+      <c r="AD31" s="111"/>
+      <c r="AE31" s="111"/>
+      <c r="AF31" s="111"/>
+      <c r="AG31" s="111"/>
+      <c r="AH31" s="111"/>
+      <c r="AI31" s="111"/>
+      <c r="AJ31" s="111"/>
+      <c r="AK31" s="111"/>
+      <c r="AL31" s="111"/>
+      <c r="AM31" s="111"/>
+      <c r="AN31" s="105"/>
+      <c r="AO31" s="105"/>
+      <c r="AP31" s="105"/>
+      <c r="AQ31" s="105"/>
+      <c r="AR31" s="105"/>
+      <c r="AS31" s="105"/>
+      <c r="AT31" s="105"/>
+      <c r="AU31" s="105"/>
+      <c r="AV31" s="105"/>
+      <c r="AW31" s="105"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="117"/>
-      <c r="I32" s="117"/>
-      <c r="J32" s="118"/>
-      <c r="K32" s="118"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="124"/>
-      <c r="N32" s="121"/>
-      <c r="O32" s="121"/>
-      <c r="P32" s="121"/>
-      <c r="Q32" s="121"/>
-      <c r="R32" s="121"/>
-      <c r="S32" s="115"/>
-      <c r="T32" s="115"/>
-      <c r="U32" s="115"/>
-      <c r="V32" s="122"/>
-      <c r="W32" s="122"/>
-      <c r="X32" s="122"/>
-      <c r="Y32" s="122"/>
-      <c r="Z32" s="122"/>
-      <c r="AA32" s="122"/>
-      <c r="AB32" s="122"/>
-      <c r="AC32" s="122"/>
-      <c r="AD32" s="122"/>
-      <c r="AE32" s="122"/>
-      <c r="AF32" s="122"/>
-      <c r="AG32" s="122"/>
-      <c r="AH32" s="122"/>
-      <c r="AI32" s="122"/>
-      <c r="AJ32" s="122"/>
-      <c r="AK32" s="122"/>
-      <c r="AL32" s="122"/>
-      <c r="AM32" s="122"/>
-      <c r="AN32" s="115"/>
-      <c r="AO32" s="115"/>
-      <c r="AP32" s="115"/>
-      <c r="AQ32" s="115"/>
-      <c r="AR32" s="115"/>
-      <c r="AS32" s="115"/>
-      <c r="AT32" s="115"/>
-      <c r="AU32" s="115"/>
-      <c r="AV32" s="115"/>
-      <c r="AW32" s="115"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="108"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="112"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="113"/>
+      <c r="P32" s="113"/>
+      <c r="Q32" s="113"/>
+      <c r="R32" s="113"/>
+      <c r="S32" s="105"/>
+      <c r="T32" s="105"/>
+      <c r="U32" s="105"/>
+      <c r="V32" s="111"/>
+      <c r="W32" s="111"/>
+      <c r="X32" s="111"/>
+      <c r="Y32" s="111"/>
+      <c r="Z32" s="111"/>
+      <c r="AA32" s="111"/>
+      <c r="AB32" s="111"/>
+      <c r="AC32" s="111"/>
+      <c r="AD32" s="111"/>
+      <c r="AE32" s="111"/>
+      <c r="AF32" s="111"/>
+      <c r="AG32" s="111"/>
+      <c r="AH32" s="111"/>
+      <c r="AI32" s="111"/>
+      <c r="AJ32" s="111"/>
+      <c r="AK32" s="111"/>
+      <c r="AL32" s="111"/>
+      <c r="AM32" s="111"/>
+      <c r="AN32" s="105"/>
+      <c r="AO32" s="105"/>
+      <c r="AP32" s="105"/>
+      <c r="AQ32" s="105"/>
+      <c r="AR32" s="105"/>
+      <c r="AS32" s="105"/>
+      <c r="AT32" s="105"/>
+      <c r="AU32" s="105"/>
+      <c r="AV32" s="105"/>
+      <c r="AW32" s="105"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="116"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="117"/>
-      <c r="J33" s="118"/>
-      <c r="K33" s="118"/>
-      <c r="L33" s="118"/>
-      <c r="M33" s="124"/>
-      <c r="N33" s="121"/>
-      <c r="O33" s="121"/>
-      <c r="P33" s="121"/>
-      <c r="Q33" s="121"/>
-      <c r="R33" s="121"/>
-      <c r="S33" s="115"/>
-      <c r="T33" s="115"/>
-      <c r="U33" s="115"/>
-      <c r="V33" s="122"/>
-      <c r="W33" s="122"/>
-      <c r="X33" s="122"/>
-      <c r="Y33" s="122"/>
-      <c r="Z33" s="122"/>
-      <c r="AA33" s="122"/>
-      <c r="AB33" s="122"/>
-      <c r="AC33" s="122"/>
-      <c r="AD33" s="122"/>
-      <c r="AE33" s="122"/>
-      <c r="AF33" s="122"/>
-      <c r="AG33" s="122"/>
-      <c r="AH33" s="122"/>
-      <c r="AI33" s="122"/>
-      <c r="AJ33" s="122"/>
-      <c r="AK33" s="122"/>
-      <c r="AL33" s="122"/>
-      <c r="AM33" s="122"/>
-      <c r="AN33" s="115"/>
-      <c r="AO33" s="115"/>
-      <c r="AP33" s="115"/>
-      <c r="AQ33" s="115"/>
-      <c r="AR33" s="115"/>
-      <c r="AS33" s="115"/>
-      <c r="AT33" s="115"/>
-      <c r="AU33" s="115"/>
-      <c r="AV33" s="115"/>
-      <c r="AW33" s="115"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="108"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="112"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="113"/>
+      <c r="P33" s="113"/>
+      <c r="Q33" s="113"/>
+      <c r="R33" s="113"/>
+      <c r="S33" s="105"/>
+      <c r="T33" s="105"/>
+      <c r="U33" s="105"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="111"/>
+      <c r="X33" s="111"/>
+      <c r="Y33" s="111"/>
+      <c r="Z33" s="111"/>
+      <c r="AA33" s="111"/>
+      <c r="AB33" s="111"/>
+      <c r="AC33" s="111"/>
+      <c r="AD33" s="111"/>
+      <c r="AE33" s="111"/>
+      <c r="AF33" s="111"/>
+      <c r="AG33" s="111"/>
+      <c r="AH33" s="111"/>
+      <c r="AI33" s="111"/>
+      <c r="AJ33" s="111"/>
+      <c r="AK33" s="111"/>
+      <c r="AL33" s="111"/>
+      <c r="AM33" s="111"/>
+      <c r="AN33" s="105"/>
+      <c r="AO33" s="105"/>
+      <c r="AP33" s="105"/>
+      <c r="AQ33" s="105"/>
+      <c r="AR33" s="105"/>
+      <c r="AS33" s="105"/>
+      <c r="AT33" s="105"/>
+      <c r="AU33" s="105"/>
+      <c r="AV33" s="105"/>
+      <c r="AW33" s="105"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="118"/>
-      <c r="K34" s="118"/>
-      <c r="L34" s="118"/>
-      <c r="M34" s="128"/>
-      <c r="N34" s="129"/>
-      <c r="O34" s="129"/>
-      <c r="P34" s="129"/>
-      <c r="Q34" s="129"/>
-      <c r="R34" s="129"/>
-      <c r="S34" s="115"/>
-      <c r="T34" s="115"/>
-      <c r="U34" s="115"/>
-      <c r="V34" s="122"/>
-      <c r="W34" s="122"/>
-      <c r="X34" s="122"/>
-      <c r="Y34" s="122"/>
-      <c r="Z34" s="122"/>
-      <c r="AA34" s="122"/>
-      <c r="AB34" s="122"/>
-      <c r="AC34" s="122"/>
-      <c r="AD34" s="122"/>
-      <c r="AE34" s="122"/>
-      <c r="AF34" s="122"/>
-      <c r="AG34" s="122"/>
-      <c r="AH34" s="122"/>
-      <c r="AI34" s="122"/>
-      <c r="AJ34" s="122"/>
-      <c r="AK34" s="122"/>
-      <c r="AL34" s="122"/>
-      <c r="AM34" s="122"/>
-      <c r="AN34" s="115"/>
-      <c r="AO34" s="115"/>
-      <c r="AP34" s="115"/>
-      <c r="AQ34" s="115"/>
-      <c r="AR34" s="115"/>
-      <c r="AS34" s="115"/>
-      <c r="AT34" s="115"/>
-      <c r="AU34" s="115"/>
-      <c r="AV34" s="115"/>
-      <c r="AW34" s="115"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="108"/>
+      <c r="M34" s="109"/>
+      <c r="N34" s="110"/>
+      <c r="O34" s="110"/>
+      <c r="P34" s="110"/>
+      <c r="Q34" s="110"/>
+      <c r="R34" s="110"/>
+      <c r="S34" s="105"/>
+      <c r="T34" s="105"/>
+      <c r="U34" s="105"/>
+      <c r="V34" s="111"/>
+      <c r="W34" s="111"/>
+      <c r="X34" s="111"/>
+      <c r="Y34" s="111"/>
+      <c r="Z34" s="111"/>
+      <c r="AA34" s="111"/>
+      <c r="AB34" s="111"/>
+      <c r="AC34" s="111"/>
+      <c r="AD34" s="111"/>
+      <c r="AE34" s="111"/>
+      <c r="AF34" s="111"/>
+      <c r="AG34" s="111"/>
+      <c r="AH34" s="111"/>
+      <c r="AI34" s="111"/>
+      <c r="AJ34" s="111"/>
+      <c r="AK34" s="111"/>
+      <c r="AL34" s="111"/>
+      <c r="AM34" s="111"/>
+      <c r="AN34" s="105"/>
+      <c r="AO34" s="105"/>
+      <c r="AP34" s="105"/>
+      <c r="AQ34" s="105"/>
+      <c r="AR34" s="105"/>
+      <c r="AS34" s="105"/>
+      <c r="AT34" s="105"/>
+      <c r="AU34" s="105"/>
+      <c r="AV34" s="105"/>
+      <c r="AW34" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -5747,239 +5980,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6060,14 +6060,14 @@
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
-      <c r="AO1" s="139">
+      <c r="AO1" s="135">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
-      <c r="AP1" s="140"/>
-      <c r="AQ1" s="140"/>
-      <c r="AR1" s="140"/>
-      <c r="AS1" s="141"/>
+      <c r="AP1" s="136"/>
+      <c r="AQ1" s="136"/>
+      <c r="AR1" s="136"/>
+      <c r="AS1" s="137"/>
       <c r="AT1" s="33" t="s">
         <v>24</v>
       </c>
@@ -6076,17 +6076,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="136" t="str">
+      <c r="AZ1" s="130" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="BA1" s="137"/>
-      <c r="BB1" s="137"/>
-      <c r="BC1" s="137"/>
-      <c r="BD1" s="137"/>
-      <c r="BE1" s="137"/>
-      <c r="BF1" s="137"/>
-      <c r="BG1" s="138"/>
+      <c r="BA1" s="131"/>
+      <c r="BB1" s="131"/>
+      <c r="BC1" s="131"/>
+      <c r="BD1" s="131"/>
+      <c r="BE1" s="131"/>
+      <c r="BF1" s="131"/>
+      <c r="BG1" s="132"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -6139,11 +6139,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="139"/>
-      <c r="AP2" s="140"/>
-      <c r="AQ2" s="140"/>
-      <c r="AR2" s="140"/>
-      <c r="AS2" s="141"/>
+      <c r="AO2" s="135"/>
+      <c r="AP2" s="136"/>
+      <c r="AQ2" s="136"/>
+      <c r="AR2" s="136"/>
+      <c r="AS2" s="137"/>
       <c r="AT2" s="33" t="s">
         <v>25</v>
       </c>
@@ -6152,14 +6152,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="136"/>
-      <c r="BA2" s="137"/>
-      <c r="BB2" s="137"/>
-      <c r="BC2" s="137"/>
-      <c r="BD2" s="137"/>
-      <c r="BE2" s="137"/>
-      <c r="BF2" s="137"/>
-      <c r="BG2" s="138"/>
+      <c r="AZ2" s="130"/>
+      <c r="BA2" s="131"/>
+      <c r="BB2" s="131"/>
+      <c r="BC2" s="131"/>
+      <c r="BD2" s="131"/>
+      <c r="BE2" s="131"/>
+      <c r="BF2" s="131"/>
+      <c r="BG2" s="132"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -7378,10 +7378,10 @@
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A41" s="28"/>
-      <c r="B41" s="130" t="s">
+      <c r="B41" s="138" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="131"/>
+      <c r="C41" s="139"/>
       <c r="D41" s="88" t="s">
         <v>79</v>
       </c>
@@ -7464,10 +7464,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
-      <c r="B42" s="132">
+      <c r="B42" s="140">
         <v>1</v>
       </c>
-      <c r="C42" s="133"/>
+      <c r="C42" s="141"/>
       <c r="D42" s="93" t="s">
         <v>94</v>
       </c>
@@ -7499,16 +7499,16 @@
       <c r="AB42" s="86"/>
       <c r="AC42" s="86"/>
       <c r="AD42" s="87"/>
-      <c r="AE42" s="134" t="s">
+      <c r="AE42" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="AF42" s="135"/>
-      <c r="AG42" s="134"/>
-      <c r="AH42" s="135"/>
-      <c r="AI42" s="134"/>
-      <c r="AJ42" s="135"/>
-      <c r="AK42" s="134"/>
-      <c r="AL42" s="135"/>
+      <c r="AF42" s="134"/>
+      <c r="AG42" s="133"/>
+      <c r="AH42" s="134"/>
+      <c r="AI42" s="133"/>
+      <c r="AJ42" s="134"/>
+      <c r="AK42" s="133"/>
+      <c r="AL42" s="134"/>
       <c r="AM42" s="83" t="s">
         <v>114</v>
       </c>
@@ -7542,10 +7542,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="132">
+      <c r="B43" s="140">
         <v>2</v>
       </c>
-      <c r="C43" s="133"/>
+      <c r="C43" s="141"/>
       <c r="D43" s="82" t="s">
         <v>112</v>
       </c>
@@ -7577,16 +7577,16 @@
       <c r="AB43" s="86"/>
       <c r="AC43" s="86"/>
       <c r="AD43" s="87"/>
-      <c r="AE43" s="134" t="s">
+      <c r="AE43" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="AF43" s="135"/>
-      <c r="AG43" s="134"/>
-      <c r="AH43" s="135"/>
-      <c r="AI43" s="134"/>
-      <c r="AJ43" s="135"/>
-      <c r="AK43" s="134"/>
-      <c r="AL43" s="135"/>
+      <c r="AF43" s="134"/>
+      <c r="AG43" s="133"/>
+      <c r="AH43" s="134"/>
+      <c r="AI43" s="133"/>
+      <c r="AJ43" s="134"/>
+      <c r="AK43" s="133"/>
+      <c r="AL43" s="134"/>
       <c r="AM43" s="83" t="s">
         <v>113</v>
       </c>
@@ -7625,6 +7625,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AE43:AF43"/>
     <mergeCell ref="AZ1:BG1"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK43:AL43"/>
@@ -7635,11 +7640,6 @@
     <mergeCell ref="AI43:AJ43"/>
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AE43:AF43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7763,7 +7763,7 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="139">
+      <c r="CD1" s="135">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
@@ -7785,7 +7785,7 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="136" t="str">
+      <c r="CU1" s="130" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -7916,7 +7916,7 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="136"/>
+      <c r="CU2" s="130"/>
       <c r="CV2" s="142"/>
       <c r="CW2" s="142"/>
       <c r="CX2" s="142"/>
@@ -8012,7 +8012,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A1:XFD4"/>
       <selection pane="topRight" activeCell="A4" sqref="A1:XFD4"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A1:XFD4"/>
@@ -8132,37 +8132,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="E6" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="107" t="s">
+      <c r="F6" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="107" t="s">
+      <c r="G6" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="107" t="s">
+      <c r="H6" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="148" t="s">
+      <c r="I6" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="148" t="s">
+      <c r="J6" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="107" t="s">
+      <c r="K6" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="107" t="s">
+      <c r="L6" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="107" t="s">
+      <c r="M6" s="122" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -8170,24 +8170,24 @@
       </c>
       <c r="O6" s="68"/>
       <c r="P6" s="68"/>
-      <c r="Q6" s="148" t="s">
+      <c r="Q6" s="150" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="148"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -8197,7 +8197,7 @@
       <c r="P7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="148"/>
+      <c r="Q7" s="150"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -8259,37 +8259,37 @@
     <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="107" t="s">
+      <c r="D11" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="107" t="s">
+      <c r="E11" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="107" t="s">
+      <c r="F11" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="107" t="s">
+      <c r="G11" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="107" t="s">
+      <c r="H11" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="149" t="s">
+      <c r="I11" s="148" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="148" t="s">
+      <c r="J11" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="107" t="s">
+      <c r="K11" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="107" t="s">
+      <c r="L11" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="107" t="s">
+      <c r="M11" s="122" t="s">
         <v>32</v>
       </c>
       <c r="N11" s="68" t="s">
@@ -8297,24 +8297,24 @@
       </c>
       <c r="O11" s="68"/>
       <c r="P11" s="68"/>
-      <c r="Q11" s="149" t="s">
+      <c r="Q11" s="148" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="122"/>
       <c r="N12" s="42" t="s">
         <v>64</v>
       </c>
@@ -8324,7 +8324,7 @@
       <c r="P12" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="150"/>
+      <c r="Q12" s="149"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
@@ -8448,37 +8448,37 @@
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="60"/>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="107" t="s">
+      <c r="D19" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="107" t="s">
+      <c r="E19" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="107" t="s">
+      <c r="F19" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="107" t="s">
+      <c r="G19" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="107" t="s">
+      <c r="H19" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="148" t="s">
+      <c r="I19" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="148" t="s">
+      <c r="J19" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="107" t="s">
+      <c r="K19" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="107" t="s">
+      <c r="L19" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="107" t="s">
+      <c r="M19" s="122" t="s">
         <v>32</v>
       </c>
       <c r="N19" s="68" t="s">
@@ -8486,24 +8486,24 @@
       </c>
       <c r="O19" s="68"/>
       <c r="P19" s="68"/>
-      <c r="Q19" s="148" t="s">
+      <c r="Q19" s="150" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="60"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="148"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="150"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="122"/>
       <c r="N20" s="42" t="s">
         <v>64</v>
       </c>
@@ -8513,7 +8513,7 @@
       <c r="P20" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q20" s="148"/>
+      <c r="Q20" s="150"/>
     </row>
     <row r="21" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="55"/>
@@ -8759,6 +8759,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="I19:I20"/>
@@ -8775,26 +8795,6 @@
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="M19:M20"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -8871,7 +8871,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="139">
+      <c r="AI1" s="135">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
@@ -8887,7 +8887,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="136" t="str">
+      <c r="AT1" s="130" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -8958,7 +8958,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="136"/>
+      <c r="AT2" s="130"/>
       <c r="AU2" s="142"/>
       <c r="AV2" s="142"/>
       <c r="AW2" s="142"/>
@@ -17518,7 +17518,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="139">
+      <c r="AI1" s="135">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
@@ -17534,7 +17534,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="136" t="str">
+      <c r="AT1" s="130" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -17605,7 +17605,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="136"/>
+      <c r="AT2" s="130"/>
       <c r="AU2" s="142"/>
       <c r="AV2" s="142"/>
       <c r="AW2" s="142"/>
@@ -22129,7 +22129,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="139">
+      <c r="AI1" s="135">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
@@ -22145,7 +22145,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="136" t="str">
+      <c r="AT1" s="130" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -22216,7 +22216,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="136"/>
+      <c r="AT2" s="130"/>
       <c r="AU2" s="142"/>
       <c r="AV2" s="142"/>
       <c r="AW2" s="142"/>
@@ -33336,9 +33336,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33500,19 +33503,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -33536,9 +33535,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K21A_工程別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21A_工程別集計.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201910\実績参照\20191017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backdoor_cloud\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164F5D37-8858-434E-9C40-FCCEFB529887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E87700-9050-4289-96CE-6ADD326C8E2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -1196,7 +1196,7 @@
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1954,6 +1954,47 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1984,46 +2025,29 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2036,30 +2060,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -2079,20 +2079,19 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="40% - アクセント 1" xfId="6" builtinId="31"/>
     <cellStyle name="60% - アクセント 1" xfId="1" builtinId="32"/>
-    <cellStyle name="通貨 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="標準 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
@@ -2105,6 +2104,7 @@
     <cellStyle name="標準 7" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="標準_07_1_出荷指示の考え方" xfId="8" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="標準_連絡111KU" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="通貨 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -3061,6 +3061,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>182</xdr:col>
+      <xdr:colOff>20443</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>149214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97120B78-73A3-4350-943D-725066B4E298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12915900" y="1097280"/>
+          <a:ext cx="7907143" cy="6435714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3554,163 +3598,163 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="49" width="2.625" style="2" customWidth="1"/>
+    <col min="1" max="49" width="2.6640625" style="2" customWidth="1"/>
     <col min="50" max="256" width="9" style="2"/>
-    <col min="257" max="305" width="2.625" style="2" customWidth="1"/>
+    <col min="257" max="305" width="2.6640625" style="2" customWidth="1"/>
     <col min="306" max="512" width="9" style="2"/>
-    <col min="513" max="561" width="2.625" style="2" customWidth="1"/>
+    <col min="513" max="561" width="2.6640625" style="2" customWidth="1"/>
     <col min="562" max="768" width="9" style="2"/>
-    <col min="769" max="817" width="2.625" style="2" customWidth="1"/>
+    <col min="769" max="817" width="2.6640625" style="2" customWidth="1"/>
     <col min="818" max="1024" width="9" style="2"/>
-    <col min="1025" max="1073" width="2.625" style="2" customWidth="1"/>
+    <col min="1025" max="1073" width="2.6640625" style="2" customWidth="1"/>
     <col min="1074" max="1280" width="9" style="2"/>
-    <col min="1281" max="1329" width="2.625" style="2" customWidth="1"/>
+    <col min="1281" max="1329" width="2.6640625" style="2" customWidth="1"/>
     <col min="1330" max="1536" width="9" style="2"/>
-    <col min="1537" max="1585" width="2.625" style="2" customWidth="1"/>
+    <col min="1537" max="1585" width="2.6640625" style="2" customWidth="1"/>
     <col min="1586" max="1792" width="9" style="2"/>
-    <col min="1793" max="1841" width="2.625" style="2" customWidth="1"/>
+    <col min="1793" max="1841" width="2.6640625" style="2" customWidth="1"/>
     <col min="1842" max="2048" width="9" style="2"/>
-    <col min="2049" max="2097" width="2.625" style="2" customWidth="1"/>
+    <col min="2049" max="2097" width="2.6640625" style="2" customWidth="1"/>
     <col min="2098" max="2304" width="9" style="2"/>
-    <col min="2305" max="2353" width="2.625" style="2" customWidth="1"/>
+    <col min="2305" max="2353" width="2.6640625" style="2" customWidth="1"/>
     <col min="2354" max="2560" width="9" style="2"/>
-    <col min="2561" max="2609" width="2.625" style="2" customWidth="1"/>
+    <col min="2561" max="2609" width="2.6640625" style="2" customWidth="1"/>
     <col min="2610" max="2816" width="9" style="2"/>
-    <col min="2817" max="2865" width="2.625" style="2" customWidth="1"/>
+    <col min="2817" max="2865" width="2.6640625" style="2" customWidth="1"/>
     <col min="2866" max="3072" width="9" style="2"/>
-    <col min="3073" max="3121" width="2.625" style="2" customWidth="1"/>
+    <col min="3073" max="3121" width="2.6640625" style="2" customWidth="1"/>
     <col min="3122" max="3328" width="9" style="2"/>
-    <col min="3329" max="3377" width="2.625" style="2" customWidth="1"/>
+    <col min="3329" max="3377" width="2.6640625" style="2" customWidth="1"/>
     <col min="3378" max="3584" width="9" style="2"/>
-    <col min="3585" max="3633" width="2.625" style="2" customWidth="1"/>
+    <col min="3585" max="3633" width="2.6640625" style="2" customWidth="1"/>
     <col min="3634" max="3840" width="9" style="2"/>
-    <col min="3841" max="3889" width="2.625" style="2" customWidth="1"/>
+    <col min="3841" max="3889" width="2.6640625" style="2" customWidth="1"/>
     <col min="3890" max="4096" width="9" style="2"/>
-    <col min="4097" max="4145" width="2.625" style="2" customWidth="1"/>
+    <col min="4097" max="4145" width="2.6640625" style="2" customWidth="1"/>
     <col min="4146" max="4352" width="9" style="2"/>
-    <col min="4353" max="4401" width="2.625" style="2" customWidth="1"/>
+    <col min="4353" max="4401" width="2.6640625" style="2" customWidth="1"/>
     <col min="4402" max="4608" width="9" style="2"/>
-    <col min="4609" max="4657" width="2.625" style="2" customWidth="1"/>
+    <col min="4609" max="4657" width="2.6640625" style="2" customWidth="1"/>
     <col min="4658" max="4864" width="9" style="2"/>
-    <col min="4865" max="4913" width="2.625" style="2" customWidth="1"/>
+    <col min="4865" max="4913" width="2.6640625" style="2" customWidth="1"/>
     <col min="4914" max="5120" width="9" style="2"/>
-    <col min="5121" max="5169" width="2.625" style="2" customWidth="1"/>
+    <col min="5121" max="5169" width="2.6640625" style="2" customWidth="1"/>
     <col min="5170" max="5376" width="9" style="2"/>
-    <col min="5377" max="5425" width="2.625" style="2" customWidth="1"/>
+    <col min="5377" max="5425" width="2.6640625" style="2" customWidth="1"/>
     <col min="5426" max="5632" width="9" style="2"/>
-    <col min="5633" max="5681" width="2.625" style="2" customWidth="1"/>
+    <col min="5633" max="5681" width="2.6640625" style="2" customWidth="1"/>
     <col min="5682" max="5888" width="9" style="2"/>
-    <col min="5889" max="5937" width="2.625" style="2" customWidth="1"/>
+    <col min="5889" max="5937" width="2.6640625" style="2" customWidth="1"/>
     <col min="5938" max="6144" width="9" style="2"/>
-    <col min="6145" max="6193" width="2.625" style="2" customWidth="1"/>
+    <col min="6145" max="6193" width="2.6640625" style="2" customWidth="1"/>
     <col min="6194" max="6400" width="9" style="2"/>
-    <col min="6401" max="6449" width="2.625" style="2" customWidth="1"/>
+    <col min="6401" max="6449" width="2.6640625" style="2" customWidth="1"/>
     <col min="6450" max="6656" width="9" style="2"/>
-    <col min="6657" max="6705" width="2.625" style="2" customWidth="1"/>
+    <col min="6657" max="6705" width="2.6640625" style="2" customWidth="1"/>
     <col min="6706" max="6912" width="9" style="2"/>
-    <col min="6913" max="6961" width="2.625" style="2" customWidth="1"/>
+    <col min="6913" max="6961" width="2.6640625" style="2" customWidth="1"/>
     <col min="6962" max="7168" width="9" style="2"/>
-    <col min="7169" max="7217" width="2.625" style="2" customWidth="1"/>
+    <col min="7169" max="7217" width="2.6640625" style="2" customWidth="1"/>
     <col min="7218" max="7424" width="9" style="2"/>
-    <col min="7425" max="7473" width="2.625" style="2" customWidth="1"/>
+    <col min="7425" max="7473" width="2.6640625" style="2" customWidth="1"/>
     <col min="7474" max="7680" width="9" style="2"/>
-    <col min="7681" max="7729" width="2.625" style="2" customWidth="1"/>
+    <col min="7681" max="7729" width="2.6640625" style="2" customWidth="1"/>
     <col min="7730" max="7936" width="9" style="2"/>
-    <col min="7937" max="7985" width="2.625" style="2" customWidth="1"/>
+    <col min="7937" max="7985" width="2.6640625" style="2" customWidth="1"/>
     <col min="7986" max="8192" width="9" style="2"/>
-    <col min="8193" max="8241" width="2.625" style="2" customWidth="1"/>
+    <col min="8193" max="8241" width="2.6640625" style="2" customWidth="1"/>
     <col min="8242" max="8448" width="9" style="2"/>
-    <col min="8449" max="8497" width="2.625" style="2" customWidth="1"/>
+    <col min="8449" max="8497" width="2.6640625" style="2" customWidth="1"/>
     <col min="8498" max="8704" width="9" style="2"/>
-    <col min="8705" max="8753" width="2.625" style="2" customWidth="1"/>
+    <col min="8705" max="8753" width="2.6640625" style="2" customWidth="1"/>
     <col min="8754" max="8960" width="9" style="2"/>
-    <col min="8961" max="9009" width="2.625" style="2" customWidth="1"/>
+    <col min="8961" max="9009" width="2.6640625" style="2" customWidth="1"/>
     <col min="9010" max="9216" width="9" style="2"/>
-    <col min="9217" max="9265" width="2.625" style="2" customWidth="1"/>
+    <col min="9217" max="9265" width="2.6640625" style="2" customWidth="1"/>
     <col min="9266" max="9472" width="9" style="2"/>
-    <col min="9473" max="9521" width="2.625" style="2" customWidth="1"/>
+    <col min="9473" max="9521" width="2.6640625" style="2" customWidth="1"/>
     <col min="9522" max="9728" width="9" style="2"/>
-    <col min="9729" max="9777" width="2.625" style="2" customWidth="1"/>
+    <col min="9729" max="9777" width="2.6640625" style="2" customWidth="1"/>
     <col min="9778" max="9984" width="9" style="2"/>
-    <col min="9985" max="10033" width="2.625" style="2" customWidth="1"/>
+    <col min="9985" max="10033" width="2.6640625" style="2" customWidth="1"/>
     <col min="10034" max="10240" width="9" style="2"/>
-    <col min="10241" max="10289" width="2.625" style="2" customWidth="1"/>
+    <col min="10241" max="10289" width="2.6640625" style="2" customWidth="1"/>
     <col min="10290" max="10496" width="9" style="2"/>
-    <col min="10497" max="10545" width="2.625" style="2" customWidth="1"/>
+    <col min="10497" max="10545" width="2.6640625" style="2" customWidth="1"/>
     <col min="10546" max="10752" width="9" style="2"/>
-    <col min="10753" max="10801" width="2.625" style="2" customWidth="1"/>
+    <col min="10753" max="10801" width="2.6640625" style="2" customWidth="1"/>
     <col min="10802" max="11008" width="9" style="2"/>
-    <col min="11009" max="11057" width="2.625" style="2" customWidth="1"/>
+    <col min="11009" max="11057" width="2.6640625" style="2" customWidth="1"/>
     <col min="11058" max="11264" width="9" style="2"/>
-    <col min="11265" max="11313" width="2.625" style="2" customWidth="1"/>
+    <col min="11265" max="11313" width="2.6640625" style="2" customWidth="1"/>
     <col min="11314" max="11520" width="9" style="2"/>
-    <col min="11521" max="11569" width="2.625" style="2" customWidth="1"/>
+    <col min="11521" max="11569" width="2.6640625" style="2" customWidth="1"/>
     <col min="11570" max="11776" width="9" style="2"/>
-    <col min="11777" max="11825" width="2.625" style="2" customWidth="1"/>
+    <col min="11777" max="11825" width="2.6640625" style="2" customWidth="1"/>
     <col min="11826" max="12032" width="9" style="2"/>
-    <col min="12033" max="12081" width="2.625" style="2" customWidth="1"/>
+    <col min="12033" max="12081" width="2.6640625" style="2" customWidth="1"/>
     <col min="12082" max="12288" width="9" style="2"/>
-    <col min="12289" max="12337" width="2.625" style="2" customWidth="1"/>
+    <col min="12289" max="12337" width="2.6640625" style="2" customWidth="1"/>
     <col min="12338" max="12544" width="9" style="2"/>
-    <col min="12545" max="12593" width="2.625" style="2" customWidth="1"/>
+    <col min="12545" max="12593" width="2.6640625" style="2" customWidth="1"/>
     <col min="12594" max="12800" width="9" style="2"/>
-    <col min="12801" max="12849" width="2.625" style="2" customWidth="1"/>
+    <col min="12801" max="12849" width="2.6640625" style="2" customWidth="1"/>
     <col min="12850" max="13056" width="9" style="2"/>
-    <col min="13057" max="13105" width="2.625" style="2" customWidth="1"/>
+    <col min="13057" max="13105" width="2.6640625" style="2" customWidth="1"/>
     <col min="13106" max="13312" width="9" style="2"/>
-    <col min="13313" max="13361" width="2.625" style="2" customWidth="1"/>
+    <col min="13313" max="13361" width="2.6640625" style="2" customWidth="1"/>
     <col min="13362" max="13568" width="9" style="2"/>
-    <col min="13569" max="13617" width="2.625" style="2" customWidth="1"/>
+    <col min="13569" max="13617" width="2.6640625" style="2" customWidth="1"/>
     <col min="13618" max="13824" width="9" style="2"/>
-    <col min="13825" max="13873" width="2.625" style="2" customWidth="1"/>
+    <col min="13825" max="13873" width="2.6640625" style="2" customWidth="1"/>
     <col min="13874" max="14080" width="9" style="2"/>
-    <col min="14081" max="14129" width="2.625" style="2" customWidth="1"/>
+    <col min="14081" max="14129" width="2.6640625" style="2" customWidth="1"/>
     <col min="14130" max="14336" width="9" style="2"/>
-    <col min="14337" max="14385" width="2.625" style="2" customWidth="1"/>
+    <col min="14337" max="14385" width="2.6640625" style="2" customWidth="1"/>
     <col min="14386" max="14592" width="9" style="2"/>
-    <col min="14593" max="14641" width="2.625" style="2" customWidth="1"/>
+    <col min="14593" max="14641" width="2.6640625" style="2" customWidth="1"/>
     <col min="14642" max="14848" width="9" style="2"/>
-    <col min="14849" max="14897" width="2.625" style="2" customWidth="1"/>
+    <col min="14849" max="14897" width="2.6640625" style="2" customWidth="1"/>
     <col min="14898" max="15104" width="9" style="2"/>
-    <col min="15105" max="15153" width="2.625" style="2" customWidth="1"/>
+    <col min="15105" max="15153" width="2.6640625" style="2" customWidth="1"/>
     <col min="15154" max="15360" width="9" style="2"/>
-    <col min="15361" max="15409" width="2.625" style="2" customWidth="1"/>
+    <col min="15361" max="15409" width="2.6640625" style="2" customWidth="1"/>
     <col min="15410" max="15616" width="9" style="2"/>
-    <col min="15617" max="15665" width="2.625" style="2" customWidth="1"/>
+    <col min="15617" max="15665" width="2.6640625" style="2" customWidth="1"/>
     <col min="15666" max="15872" width="9" style="2"/>
-    <col min="15873" max="15921" width="2.625" style="2" customWidth="1"/>
+    <col min="15873" max="15921" width="2.6640625" style="2" customWidth="1"/>
     <col min="15922" max="16128" width="9" style="2"/>
-    <col min="16129" max="16177" width="2.625" style="2" customWidth="1"/>
+    <col min="16129" max="16177" width="2.6640625" style="2" customWidth="1"/>
     <col min="16178" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="21">
       <c r="A1" s="1"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:33">
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:33">
       <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:33">
       <c r="AG6" s="3"/>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:49">
       <c r="U25" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:49">
       <c r="AH26" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:49">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3747,7 +3791,7 @@
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
     </row>
-    <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:49" ht="19.2">
       <c r="A32" s="101" t="s">
         <v>102</v>
       </c>
@@ -3800,7 +3844,7 @@
       <c r="AV32" s="101"/>
       <c r="AW32" s="101"/>
     </row>
-    <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:49" ht="14.4">
       <c r="A33" s="102"/>
       <c r="B33" s="102"/>
       <c r="C33" s="102"/>
@@ -3851,7 +3895,7 @@
       <c r="AV33" s="102"/>
       <c r="AW33" s="102"/>
     </row>
-    <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:49" ht="9" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3886,7 +3930,7 @@
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
     </row>
-    <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:49" ht="19.2">
       <c r="A35" s="103"/>
       <c r="B35" s="103"/>
       <c r="C35" s="103"/>
@@ -3937,7 +3981,7 @@
       <c r="AV35" s="103"/>
       <c r="AW35" s="103"/>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:49">
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3963,1777 +4007,2010 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="57"/>
+    <col min="1" max="16384" width="2.6640625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" ht="15">
       <c r="A1" s="56"/>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="104"/>
-      <c r="AH1" s="104"/>
-      <c r="AI1" s="104"/>
-      <c r="AJ1" s="104"/>
-      <c r="AK1" s="104"/>
-      <c r="AL1" s="104"/>
-      <c r="AM1" s="104"/>
-      <c r="AN1" s="104"/>
-      <c r="AO1" s="104"/>
-      <c r="AP1" s="104"/>
-      <c r="AQ1" s="104"/>
-      <c r="AR1" s="104"/>
-      <c r="AS1" s="104"/>
-      <c r="AT1" s="104"/>
-      <c r="AU1" s="104"/>
-      <c r="AV1" s="104"/>
-      <c r="AW1" s="104"/>
-    </row>
-    <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="119"/>
+      <c r="AA1" s="119"/>
+      <c r="AB1" s="119"/>
+      <c r="AC1" s="119"/>
+      <c r="AD1" s="119"/>
+      <c r="AE1" s="119"/>
+      <c r="AF1" s="119"/>
+      <c r="AG1" s="119"/>
+      <c r="AH1" s="119"/>
+      <c r="AI1" s="119"/>
+      <c r="AJ1" s="119"/>
+      <c r="AK1" s="119"/>
+      <c r="AL1" s="119"/>
+      <c r="AM1" s="119"/>
+      <c r="AN1" s="119"/>
+      <c r="AO1" s="119"/>
+      <c r="AP1" s="119"/>
+      <c r="AQ1" s="119"/>
+      <c r="AR1" s="119"/>
+      <c r="AS1" s="119"/>
+      <c r="AT1" s="119"/>
+      <c r="AU1" s="119"/>
+      <c r="AV1" s="119"/>
+      <c r="AW1" s="119"/>
+    </row>
+    <row r="2" spans="1:49" ht="15">
       <c r="A2" s="56"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="105"/>
-      <c r="AJ2" s="105"/>
-      <c r="AK2" s="105"/>
-      <c r="AL2" s="105"/>
-      <c r="AM2" s="105"/>
-      <c r="AN2" s="105"/>
-      <c r="AO2" s="105"/>
-      <c r="AP2" s="105"/>
-      <c r="AQ2" s="105"/>
-      <c r="AR2" s="105"/>
-      <c r="AS2" s="105"/>
-      <c r="AT2" s="105"/>
-      <c r="AU2" s="105"/>
-      <c r="AV2" s="105"/>
-      <c r="AW2" s="105"/>
-    </row>
-    <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="120"/>
+      <c r="AA2" s="120"/>
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="120"/>
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="120"/>
+      <c r="AG2" s="120"/>
+      <c r="AH2" s="120"/>
+      <c r="AI2" s="120"/>
+      <c r="AJ2" s="120"/>
+      <c r="AK2" s="120"/>
+      <c r="AL2" s="120"/>
+      <c r="AM2" s="120"/>
+      <c r="AN2" s="120"/>
+      <c r="AO2" s="120"/>
+      <c r="AP2" s="120"/>
+      <c r="AQ2" s="120"/>
+      <c r="AR2" s="120"/>
+      <c r="AS2" s="120"/>
+      <c r="AT2" s="120"/>
+      <c r="AU2" s="120"/>
+      <c r="AV2" s="120"/>
+      <c r="AW2" s="120"/>
+    </row>
+    <row r="3" spans="1:49" ht="15">
       <c r="A3" s="56"/>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106" t="s">
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="108" t="s">
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="109"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="108" t="s">
+      <c r="K3" s="124"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="106" t="s">
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106" t="s">
+      <c r="T3" s="121"/>
+      <c r="U3" s="121"/>
+      <c r="V3" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
-      <c r="Z3" s="106"/>
-      <c r="AA3" s="106"/>
-      <c r="AB3" s="106"/>
-      <c r="AC3" s="106"/>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="106"/>
-      <c r="AG3" s="106"/>
-      <c r="AH3" s="106"/>
-      <c r="AI3" s="106"/>
-      <c r="AJ3" s="106"/>
-      <c r="AK3" s="106"/>
-      <c r="AL3" s="106"/>
-      <c r="AM3" s="106"/>
-      <c r="AN3" s="106" t="s">
+      <c r="W3" s="121"/>
+      <c r="X3" s="121"/>
+      <c r="Y3" s="121"/>
+      <c r="Z3" s="121"/>
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="121"/>
+      <c r="AC3" s="121"/>
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="121"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="121"/>
+      <c r="AH3" s="121"/>
+      <c r="AI3" s="121"/>
+      <c r="AJ3" s="121"/>
+      <c r="AK3" s="121"/>
+      <c r="AL3" s="121"/>
+      <c r="AM3" s="121"/>
+      <c r="AN3" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="106"/>
-      <c r="AP3" s="106"/>
-      <c r="AQ3" s="106"/>
-      <c r="AR3" s="106"/>
-      <c r="AS3" s="106" t="s">
+      <c r="AO3" s="121"/>
+      <c r="AP3" s="121"/>
+      <c r="AQ3" s="121"/>
+      <c r="AR3" s="121"/>
+      <c r="AS3" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="106"/>
-      <c r="AU3" s="106"/>
-      <c r="AV3" s="106"/>
-      <c r="AW3" s="106"/>
-    </row>
-    <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AT3" s="121"/>
+      <c r="AU3" s="121"/>
+      <c r="AV3" s="121"/>
+      <c r="AW3" s="121"/>
+    </row>
+    <row r="4" spans="1:49" ht="15">
       <c r="A4" s="56"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="113"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="107"/>
-      <c r="AF4" s="107"/>
-      <c r="AG4" s="107"/>
-      <c r="AH4" s="107"/>
-      <c r="AI4" s="107"/>
-      <c r="AJ4" s="107"/>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="107"/>
-      <c r="AM4" s="107"/>
-      <c r="AN4" s="107"/>
-      <c r="AO4" s="107"/>
-      <c r="AP4" s="107"/>
-      <c r="AQ4" s="107"/>
-      <c r="AR4" s="107"/>
-      <c r="AS4" s="107"/>
-      <c r="AT4" s="107"/>
-      <c r="AU4" s="107"/>
-      <c r="AV4" s="107"/>
-      <c r="AW4" s="107"/>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="122"/>
+      <c r="V4" s="122"/>
+      <c r="W4" s="122"/>
+      <c r="X4" s="122"/>
+      <c r="Y4" s="122"/>
+      <c r="Z4" s="122"/>
+      <c r="AA4" s="122"/>
+      <c r="AB4" s="122"/>
+      <c r="AC4" s="122"/>
+      <c r="AD4" s="122"/>
+      <c r="AE4" s="122"/>
+      <c r="AF4" s="122"/>
+      <c r="AG4" s="122"/>
+      <c r="AH4" s="122"/>
+      <c r="AI4" s="122"/>
+      <c r="AJ4" s="122"/>
+      <c r="AK4" s="122"/>
+      <c r="AL4" s="122"/>
+      <c r="AM4" s="122"/>
+      <c r="AN4" s="122"/>
+      <c r="AO4" s="122"/>
+      <c r="AP4" s="122"/>
+      <c r="AQ4" s="122"/>
+      <c r="AR4" s="122"/>
+      <c r="AS4" s="122"/>
+      <c r="AT4" s="122"/>
+      <c r="AU4" s="122"/>
+      <c r="AV4" s="122"/>
+      <c r="AW4" s="122"/>
+    </row>
+    <row r="5" spans="1:49">
       <c r="A5" s="58"/>
-      <c r="B5" s="115">
+      <c r="B5" s="105">
         <v>1</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="116">
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="106">
         <v>43721</v>
       </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117" t="s">
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117" t="s">
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="114" t="s">
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="119" t="s">
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="119"/>
-      <c r="X5" s="119"/>
-      <c r="Y5" s="119"/>
-      <c r="Z5" s="119"/>
-      <c r="AA5" s="119"/>
-      <c r="AB5" s="119"/>
-      <c r="AC5" s="119"/>
-      <c r="AD5" s="119"/>
-      <c r="AE5" s="119"/>
-      <c r="AF5" s="119"/>
-      <c r="AG5" s="119"/>
-      <c r="AH5" s="119"/>
-      <c r="AI5" s="119"/>
-      <c r="AJ5" s="119"/>
-      <c r="AK5" s="119"/>
-      <c r="AL5" s="119"/>
-      <c r="AM5" s="119"/>
-      <c r="AN5" s="114" t="s">
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116"/>
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
+      <c r="AF5" s="116"/>
+      <c r="AG5" s="116"/>
+      <c r="AH5" s="116"/>
+      <c r="AI5" s="116"/>
+      <c r="AJ5" s="116"/>
+      <c r="AK5" s="116"/>
+      <c r="AL5" s="116"/>
+      <c r="AM5" s="116"/>
+      <c r="AN5" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="AO5" s="114"/>
-      <c r="AP5" s="114"/>
-      <c r="AQ5" s="114"/>
-      <c r="AR5" s="114"/>
-      <c r="AS5" s="114"/>
-      <c r="AT5" s="114"/>
-      <c r="AU5" s="114"/>
-      <c r="AV5" s="114"/>
-      <c r="AW5" s="114"/>
-    </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AO5" s="104"/>
+      <c r="AP5" s="104"/>
+      <c r="AQ5" s="104"/>
+      <c r="AR5" s="104"/>
+      <c r="AS5" s="104"/>
+      <c r="AT5" s="104"/>
+      <c r="AU5" s="104"/>
+      <c r="AV5" s="104"/>
+      <c r="AW5" s="104"/>
+    </row>
+    <row r="6" spans="1:49">
       <c r="A6" s="58"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
       <c r="M6" s="118"/>
       <c r="N6" s="118"/>
       <c r="O6" s="118"/>
       <c r="P6" s="118"/>
       <c r="Q6" s="118"/>
       <c r="R6" s="118"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
-      <c r="Y6" s="119"/>
-      <c r="Z6" s="119"/>
-      <c r="AA6" s="119"/>
-      <c r="AB6" s="119"/>
-      <c r="AC6" s="119"/>
-      <c r="AD6" s="119"/>
-      <c r="AE6" s="119"/>
-      <c r="AF6" s="119"/>
-      <c r="AG6" s="119"/>
-      <c r="AH6" s="119"/>
-      <c r="AI6" s="119"/>
-      <c r="AJ6" s="119"/>
-      <c r="AK6" s="119"/>
-      <c r="AL6" s="119"/>
-      <c r="AM6" s="119"/>
-      <c r="AN6" s="114"/>
-      <c r="AO6" s="114"/>
-      <c r="AP6" s="114"/>
-      <c r="AQ6" s="114"/>
-      <c r="AR6" s="114"/>
-      <c r="AS6" s="114"/>
-      <c r="AT6" s="114"/>
-      <c r="AU6" s="114"/>
-      <c r="AV6" s="114"/>
-      <c r="AW6" s="114"/>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="116"/>
+      <c r="Z6" s="116"/>
+      <c r="AA6" s="116"/>
+      <c r="AB6" s="116"/>
+      <c r="AC6" s="116"/>
+      <c r="AD6" s="116"/>
+      <c r="AE6" s="116"/>
+      <c r="AF6" s="116"/>
+      <c r="AG6" s="116"/>
+      <c r="AH6" s="116"/>
+      <c r="AI6" s="116"/>
+      <c r="AJ6" s="116"/>
+      <c r="AK6" s="116"/>
+      <c r="AL6" s="116"/>
+      <c r="AM6" s="116"/>
+      <c r="AN6" s="104"/>
+      <c r="AO6" s="104"/>
+      <c r="AP6" s="104"/>
+      <c r="AQ6" s="104"/>
+      <c r="AR6" s="104"/>
+      <c r="AS6" s="104"/>
+      <c r="AT6" s="104"/>
+      <c r="AU6" s="104"/>
+      <c r="AV6" s="104"/>
+      <c r="AW6" s="104"/>
+    </row>
+    <row r="7" spans="1:49">
       <c r="A7" s="58"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
       <c r="M7" s="118"/>
       <c r="N7" s="118"/>
       <c r="O7" s="118"/>
       <c r="P7" s="118"/>
       <c r="Q7" s="118"/>
       <c r="R7" s="118"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="119"/>
-      <c r="W7" s="119"/>
-      <c r="X7" s="119"/>
-      <c r="Y7" s="119"/>
-      <c r="Z7" s="119"/>
-      <c r="AA7" s="119"/>
-      <c r="AB7" s="119"/>
-      <c r="AC7" s="119"/>
-      <c r="AD7" s="119"/>
-      <c r="AE7" s="119"/>
-      <c r="AF7" s="119"/>
-      <c r="AG7" s="119"/>
-      <c r="AH7" s="119"/>
-      <c r="AI7" s="119"/>
-      <c r="AJ7" s="119"/>
-      <c r="AK7" s="119"/>
-      <c r="AL7" s="119"/>
-      <c r="AM7" s="119"/>
-      <c r="AN7" s="114"/>
-      <c r="AO7" s="114"/>
-      <c r="AP7" s="114"/>
-      <c r="AQ7" s="114"/>
-      <c r="AR7" s="114"/>
-      <c r="AS7" s="114"/>
-      <c r="AT7" s="114"/>
-      <c r="AU7" s="114"/>
-      <c r="AV7" s="114"/>
-      <c r="AW7" s="114"/>
-    </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="S7" s="104"/>
+      <c r="T7" s="104"/>
+      <c r="U7" s="104"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="116"/>
+      <c r="Z7" s="116"/>
+      <c r="AA7" s="116"/>
+      <c r="AB7" s="116"/>
+      <c r="AC7" s="116"/>
+      <c r="AD7" s="116"/>
+      <c r="AE7" s="116"/>
+      <c r="AF7" s="116"/>
+      <c r="AG7" s="116"/>
+      <c r="AH7" s="116"/>
+      <c r="AI7" s="116"/>
+      <c r="AJ7" s="116"/>
+      <c r="AK7" s="116"/>
+      <c r="AL7" s="116"/>
+      <c r="AM7" s="116"/>
+      <c r="AN7" s="104"/>
+      <c r="AO7" s="104"/>
+      <c r="AP7" s="104"/>
+      <c r="AQ7" s="104"/>
+      <c r="AR7" s="104"/>
+      <c r="AS7" s="104"/>
+      <c r="AT7" s="104"/>
+      <c r="AU7" s="104"/>
+      <c r="AV7" s="104"/>
+      <c r="AW7" s="104"/>
+    </row>
+    <row r="8" spans="1:49">
       <c r="A8" s="58"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
       <c r="M8" s="118"/>
       <c r="N8" s="118"/>
       <c r="O8" s="118"/>
       <c r="P8" s="118"/>
       <c r="Q8" s="118"/>
       <c r="R8" s="118"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="119"/>
-      <c r="W8" s="119"/>
-      <c r="X8" s="119"/>
-      <c r="Y8" s="119"/>
-      <c r="Z8" s="119"/>
-      <c r="AA8" s="119"/>
-      <c r="AB8" s="119"/>
-      <c r="AC8" s="119"/>
-      <c r="AD8" s="119"/>
-      <c r="AE8" s="119"/>
-      <c r="AF8" s="119"/>
-      <c r="AG8" s="119"/>
-      <c r="AH8" s="119"/>
-      <c r="AI8" s="119"/>
-      <c r="AJ8" s="119"/>
-      <c r="AK8" s="119"/>
-      <c r="AL8" s="119"/>
-      <c r="AM8" s="119"/>
-      <c r="AN8" s="114"/>
-      <c r="AO8" s="114"/>
-      <c r="AP8" s="114"/>
-      <c r="AQ8" s="114"/>
-      <c r="AR8" s="114"/>
-      <c r="AS8" s="114"/>
-      <c r="AT8" s="114"/>
-      <c r="AU8" s="114"/>
-      <c r="AV8" s="114"/>
-      <c r="AW8" s="114"/>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="116"/>
+      <c r="Z8" s="116"/>
+      <c r="AA8" s="116"/>
+      <c r="AB8" s="116"/>
+      <c r="AC8" s="116"/>
+      <c r="AD8" s="116"/>
+      <c r="AE8" s="116"/>
+      <c r="AF8" s="116"/>
+      <c r="AG8" s="116"/>
+      <c r="AH8" s="116"/>
+      <c r="AI8" s="116"/>
+      <c r="AJ8" s="116"/>
+      <c r="AK8" s="116"/>
+      <c r="AL8" s="116"/>
+      <c r="AM8" s="116"/>
+      <c r="AN8" s="104"/>
+      <c r="AO8" s="104"/>
+      <c r="AP8" s="104"/>
+      <c r="AQ8" s="104"/>
+      <c r="AR8" s="104"/>
+      <c r="AS8" s="104"/>
+      <c r="AT8" s="104"/>
+      <c r="AU8" s="104"/>
+      <c r="AV8" s="104"/>
+      <c r="AW8" s="104"/>
+    </row>
+    <row r="9" spans="1:49">
       <c r="A9" s="58"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
       <c r="M9" s="118"/>
       <c r="N9" s="118"/>
       <c r="O9" s="118"/>
       <c r="P9" s="118"/>
       <c r="Q9" s="118"/>
       <c r="R9" s="118"/>
-      <c r="S9" s="114"/>
-      <c r="T9" s="114"/>
-      <c r="U9" s="114"/>
-      <c r="V9" s="119"/>
-      <c r="W9" s="119"/>
-      <c r="X9" s="119"/>
-      <c r="Y9" s="119"/>
-      <c r="Z9" s="119"/>
-      <c r="AA9" s="119"/>
-      <c r="AB9" s="119"/>
-      <c r="AC9" s="119"/>
-      <c r="AD9" s="119"/>
-      <c r="AE9" s="119"/>
-      <c r="AF9" s="119"/>
-      <c r="AG9" s="119"/>
-      <c r="AH9" s="119"/>
-      <c r="AI9" s="119"/>
-      <c r="AJ9" s="119"/>
-      <c r="AK9" s="119"/>
-      <c r="AL9" s="119"/>
-      <c r="AM9" s="119"/>
-      <c r="AN9" s="114"/>
-      <c r="AO9" s="114"/>
-      <c r="AP9" s="114"/>
-      <c r="AQ9" s="114"/>
-      <c r="AR9" s="114"/>
-      <c r="AS9" s="114"/>
-      <c r="AT9" s="114"/>
-      <c r="AU9" s="114"/>
-      <c r="AV9" s="114"/>
-      <c r="AW9" s="114"/>
-    </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="104"/>
+      <c r="V9" s="116"/>
+      <c r="W9" s="116"/>
+      <c r="X9" s="116"/>
+      <c r="Y9" s="116"/>
+      <c r="Z9" s="116"/>
+      <c r="AA9" s="116"/>
+      <c r="AB9" s="116"/>
+      <c r="AC9" s="116"/>
+      <c r="AD9" s="116"/>
+      <c r="AE9" s="116"/>
+      <c r="AF9" s="116"/>
+      <c r="AG9" s="116"/>
+      <c r="AH9" s="116"/>
+      <c r="AI9" s="116"/>
+      <c r="AJ9" s="116"/>
+      <c r="AK9" s="116"/>
+      <c r="AL9" s="116"/>
+      <c r="AM9" s="116"/>
+      <c r="AN9" s="104"/>
+      <c r="AO9" s="104"/>
+      <c r="AP9" s="104"/>
+      <c r="AQ9" s="104"/>
+      <c r="AR9" s="104"/>
+      <c r="AS9" s="104"/>
+      <c r="AT9" s="104"/>
+      <c r="AU9" s="104"/>
+      <c r="AV9" s="104"/>
+      <c r="AW9" s="104"/>
+    </row>
+    <row r="10" spans="1:49">
       <c r="A10" s="58"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
       <c r="M10" s="118"/>
       <c r="N10" s="118"/>
       <c r="O10" s="118"/>
       <c r="P10" s="118"/>
       <c r="Q10" s="118"/>
       <c r="R10" s="118"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="119"/>
-      <c r="W10" s="119"/>
-      <c r="X10" s="119"/>
-      <c r="Y10" s="119"/>
-      <c r="Z10" s="119"/>
-      <c r="AA10" s="119"/>
-      <c r="AB10" s="119"/>
-      <c r="AC10" s="119"/>
-      <c r="AD10" s="119"/>
-      <c r="AE10" s="119"/>
-      <c r="AF10" s="119"/>
-      <c r="AG10" s="119"/>
-      <c r="AH10" s="119"/>
-      <c r="AI10" s="119"/>
-      <c r="AJ10" s="119"/>
-      <c r="AK10" s="119"/>
-      <c r="AL10" s="119"/>
-      <c r="AM10" s="119"/>
-      <c r="AN10" s="114"/>
-      <c r="AO10" s="114"/>
-      <c r="AP10" s="114"/>
-      <c r="AQ10" s="114"/>
-      <c r="AR10" s="114"/>
-      <c r="AS10" s="114"/>
-      <c r="AT10" s="114"/>
-      <c r="AU10" s="114"/>
-      <c r="AV10" s="114"/>
-      <c r="AW10" s="114"/>
-    </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="116"/>
+      <c r="AA10" s="116"/>
+      <c r="AB10" s="116"/>
+      <c r="AC10" s="116"/>
+      <c r="AD10" s="116"/>
+      <c r="AE10" s="116"/>
+      <c r="AF10" s="116"/>
+      <c r="AG10" s="116"/>
+      <c r="AH10" s="116"/>
+      <c r="AI10" s="116"/>
+      <c r="AJ10" s="116"/>
+      <c r="AK10" s="116"/>
+      <c r="AL10" s="116"/>
+      <c r="AM10" s="116"/>
+      <c r="AN10" s="104"/>
+      <c r="AO10" s="104"/>
+      <c r="AP10" s="104"/>
+      <c r="AQ10" s="104"/>
+      <c r="AR10" s="104"/>
+      <c r="AS10" s="104"/>
+      <c r="AT10" s="104"/>
+      <c r="AU10" s="104"/>
+      <c r="AV10" s="104"/>
+      <c r="AW10" s="104"/>
+    </row>
+    <row r="11" spans="1:49">
       <c r="A11" s="58"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="120"/>
-      <c r="Q11" s="120"/>
-      <c r="R11" s="120"/>
-      <c r="S11" s="114"/>
-      <c r="T11" s="114"/>
-      <c r="U11" s="114"/>
-      <c r="V11" s="121"/>
-      <c r="W11" s="122"/>
-      <c r="X11" s="122"/>
-      <c r="Y11" s="122"/>
-      <c r="Z11" s="122"/>
-      <c r="AA11" s="122"/>
-      <c r="AB11" s="122"/>
-      <c r="AC11" s="122"/>
-      <c r="AD11" s="122"/>
-      <c r="AE11" s="122"/>
-      <c r="AF11" s="122"/>
-      <c r="AG11" s="122"/>
-      <c r="AH11" s="122"/>
-      <c r="AI11" s="122"/>
-      <c r="AJ11" s="122"/>
-      <c r="AK11" s="122"/>
-      <c r="AL11" s="122"/>
-      <c r="AM11" s="122"/>
-      <c r="AN11" s="114"/>
-      <c r="AO11" s="114"/>
-      <c r="AP11" s="114"/>
-      <c r="AQ11" s="114"/>
-      <c r="AR11" s="114"/>
-      <c r="AS11" s="114"/>
-      <c r="AT11" s="114"/>
-      <c r="AU11" s="114"/>
-      <c r="AV11" s="114"/>
-      <c r="AW11" s="114"/>
-    </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="112"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="104"/>
+      <c r="T11" s="104"/>
+      <c r="U11" s="104"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="117"/>
+      <c r="X11" s="117"/>
+      <c r="Y11" s="117"/>
+      <c r="Z11" s="117"/>
+      <c r="AA11" s="117"/>
+      <c r="AB11" s="117"/>
+      <c r="AC11" s="117"/>
+      <c r="AD11" s="117"/>
+      <c r="AE11" s="117"/>
+      <c r="AF11" s="117"/>
+      <c r="AG11" s="117"/>
+      <c r="AH11" s="117"/>
+      <c r="AI11" s="117"/>
+      <c r="AJ11" s="117"/>
+      <c r="AK11" s="117"/>
+      <c r="AL11" s="117"/>
+      <c r="AM11" s="117"/>
+      <c r="AN11" s="104"/>
+      <c r="AO11" s="104"/>
+      <c r="AP11" s="104"/>
+      <c r="AQ11" s="104"/>
+      <c r="AR11" s="104"/>
+      <c r="AS11" s="104"/>
+      <c r="AT11" s="104"/>
+      <c r="AU11" s="104"/>
+      <c r="AV11" s="104"/>
+      <c r="AW11" s="104"/>
+    </row>
+    <row r="12" spans="1:49">
       <c r="A12" s="58"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="120"/>
-      <c r="Q12" s="120"/>
-      <c r="R12" s="120"/>
-      <c r="S12" s="114"/>
-      <c r="T12" s="114"/>
-      <c r="U12" s="114"/>
-      <c r="V12" s="121"/>
-      <c r="W12" s="121"/>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="121"/>
-      <c r="Z12" s="121"/>
-      <c r="AA12" s="121"/>
-      <c r="AB12" s="121"/>
-      <c r="AC12" s="121"/>
-      <c r="AD12" s="121"/>
-      <c r="AE12" s="121"/>
-      <c r="AF12" s="121"/>
-      <c r="AG12" s="121"/>
-      <c r="AH12" s="121"/>
-      <c r="AI12" s="121"/>
-      <c r="AJ12" s="121"/>
-      <c r="AK12" s="121"/>
-      <c r="AL12" s="121"/>
-      <c r="AM12" s="121"/>
-      <c r="AN12" s="114"/>
-      <c r="AO12" s="114"/>
-      <c r="AP12" s="114"/>
-      <c r="AQ12" s="114"/>
-      <c r="AR12" s="114"/>
-      <c r="AS12" s="114"/>
-      <c r="AT12" s="114"/>
-      <c r="AU12" s="114"/>
-      <c r="AV12" s="114"/>
-      <c r="AW12" s="114"/>
-    </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="112"/>
+      <c r="R12" s="112"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="104"/>
+      <c r="U12" s="104"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="110"/>
+      <c r="X12" s="110"/>
+      <c r="Y12" s="110"/>
+      <c r="Z12" s="110"/>
+      <c r="AA12" s="110"/>
+      <c r="AB12" s="110"/>
+      <c r="AC12" s="110"/>
+      <c r="AD12" s="110"/>
+      <c r="AE12" s="110"/>
+      <c r="AF12" s="110"/>
+      <c r="AG12" s="110"/>
+      <c r="AH12" s="110"/>
+      <c r="AI12" s="110"/>
+      <c r="AJ12" s="110"/>
+      <c r="AK12" s="110"/>
+      <c r="AL12" s="110"/>
+      <c r="AM12" s="110"/>
+      <c r="AN12" s="104"/>
+      <c r="AO12" s="104"/>
+      <c r="AP12" s="104"/>
+      <c r="AQ12" s="104"/>
+      <c r="AR12" s="104"/>
+      <c r="AS12" s="104"/>
+      <c r="AT12" s="104"/>
+      <c r="AU12" s="104"/>
+      <c r="AV12" s="104"/>
+      <c r="AW12" s="104"/>
+    </row>
+    <row r="13" spans="1:49">
       <c r="A13" s="58"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="120"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="120"/>
-      <c r="Q13" s="120"/>
-      <c r="R13" s="120"/>
-      <c r="S13" s="114"/>
-      <c r="T13" s="114"/>
-      <c r="U13" s="114"/>
-      <c r="V13" s="121"/>
-      <c r="W13" s="121"/>
-      <c r="X13" s="121"/>
-      <c r="Y13" s="121"/>
-      <c r="Z13" s="121"/>
-      <c r="AA13" s="121"/>
-      <c r="AB13" s="121"/>
-      <c r="AC13" s="121"/>
-      <c r="AD13" s="121"/>
-      <c r="AE13" s="121"/>
-      <c r="AF13" s="121"/>
-      <c r="AG13" s="121"/>
-      <c r="AH13" s="121"/>
-      <c r="AI13" s="121"/>
-      <c r="AJ13" s="121"/>
-      <c r="AK13" s="121"/>
-      <c r="AL13" s="121"/>
-      <c r="AM13" s="121"/>
-      <c r="AN13" s="114"/>
-      <c r="AO13" s="114"/>
-      <c r="AP13" s="114"/>
-      <c r="AQ13" s="114"/>
-      <c r="AR13" s="114"/>
-      <c r="AS13" s="114"/>
-      <c r="AT13" s="114"/>
-      <c r="AU13" s="114"/>
-      <c r="AV13" s="114"/>
-      <c r="AW13" s="114"/>
-    </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="110"/>
+      <c r="X13" s="110"/>
+      <c r="Y13" s="110"/>
+      <c r="Z13" s="110"/>
+      <c r="AA13" s="110"/>
+      <c r="AB13" s="110"/>
+      <c r="AC13" s="110"/>
+      <c r="AD13" s="110"/>
+      <c r="AE13" s="110"/>
+      <c r="AF13" s="110"/>
+      <c r="AG13" s="110"/>
+      <c r="AH13" s="110"/>
+      <c r="AI13" s="110"/>
+      <c r="AJ13" s="110"/>
+      <c r="AK13" s="110"/>
+      <c r="AL13" s="110"/>
+      <c r="AM13" s="110"/>
+      <c r="AN13" s="104"/>
+      <c r="AO13" s="104"/>
+      <c r="AP13" s="104"/>
+      <c r="AQ13" s="104"/>
+      <c r="AR13" s="104"/>
+      <c r="AS13" s="104"/>
+      <c r="AT13" s="104"/>
+      <c r="AU13" s="104"/>
+      <c r="AV13" s="104"/>
+      <c r="AW13" s="104"/>
+    </row>
+    <row r="14" spans="1:49">
       <c r="A14" s="58"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="123"/>
-      <c r="N14" s="120"/>
-      <c r="O14" s="120"/>
-      <c r="P14" s="120"/>
-      <c r="Q14" s="120"/>
-      <c r="R14" s="120"/>
-      <c r="S14" s="114"/>
-      <c r="T14" s="114"/>
-      <c r="U14" s="114"/>
-      <c r="V14" s="124"/>
-      <c r="W14" s="119"/>
-      <c r="X14" s="119"/>
-      <c r="Y14" s="119"/>
-      <c r="Z14" s="119"/>
-      <c r="AA14" s="119"/>
-      <c r="AB14" s="119"/>
-      <c r="AC14" s="119"/>
-      <c r="AD14" s="119"/>
-      <c r="AE14" s="119"/>
-      <c r="AF14" s="119"/>
-      <c r="AG14" s="119"/>
-      <c r="AH14" s="119"/>
-      <c r="AI14" s="119"/>
-      <c r="AJ14" s="119"/>
-      <c r="AK14" s="119"/>
-      <c r="AL14" s="119"/>
-      <c r="AM14" s="119"/>
-      <c r="AN14" s="114"/>
-      <c r="AO14" s="114"/>
-      <c r="AP14" s="114"/>
-      <c r="AQ14" s="114"/>
-      <c r="AR14" s="114"/>
-      <c r="AS14" s="114"/>
-      <c r="AT14" s="114"/>
-      <c r="AU14" s="114"/>
-      <c r="AV14" s="114"/>
-      <c r="AW14" s="114"/>
-    </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="112"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="112"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="104"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="115"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="116"/>
+      <c r="Y14" s="116"/>
+      <c r="Z14" s="116"/>
+      <c r="AA14" s="116"/>
+      <c r="AB14" s="116"/>
+      <c r="AC14" s="116"/>
+      <c r="AD14" s="116"/>
+      <c r="AE14" s="116"/>
+      <c r="AF14" s="116"/>
+      <c r="AG14" s="116"/>
+      <c r="AH14" s="116"/>
+      <c r="AI14" s="116"/>
+      <c r="AJ14" s="116"/>
+      <c r="AK14" s="116"/>
+      <c r="AL14" s="116"/>
+      <c r="AM14" s="116"/>
+      <c r="AN14" s="104"/>
+      <c r="AO14" s="104"/>
+      <c r="AP14" s="104"/>
+      <c r="AQ14" s="104"/>
+      <c r="AR14" s="104"/>
+      <c r="AS14" s="104"/>
+      <c r="AT14" s="104"/>
+      <c r="AU14" s="104"/>
+      <c r="AV14" s="104"/>
+      <c r="AW14" s="104"/>
+    </row>
+    <row r="15" spans="1:49">
       <c r="A15" s="58"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="114"/>
-      <c r="T15" s="114"/>
-      <c r="U15" s="114"/>
-      <c r="V15" s="121"/>
-      <c r="W15" s="121"/>
-      <c r="X15" s="121"/>
-      <c r="Y15" s="121"/>
-      <c r="Z15" s="121"/>
-      <c r="AA15" s="121"/>
-      <c r="AB15" s="121"/>
-      <c r="AC15" s="121"/>
-      <c r="AD15" s="121"/>
-      <c r="AE15" s="121"/>
-      <c r="AF15" s="121"/>
-      <c r="AG15" s="121"/>
-      <c r="AH15" s="121"/>
-      <c r="AI15" s="121"/>
-      <c r="AJ15" s="121"/>
-      <c r="AK15" s="121"/>
-      <c r="AL15" s="121"/>
-      <c r="AM15" s="121"/>
-      <c r="AN15" s="114"/>
-      <c r="AO15" s="114"/>
-      <c r="AP15" s="114"/>
-      <c r="AQ15" s="114"/>
-      <c r="AR15" s="114"/>
-      <c r="AS15" s="114"/>
-      <c r="AT15" s="114"/>
-      <c r="AU15" s="114"/>
-      <c r="AV15" s="114"/>
-      <c r="AW15" s="114"/>
-    </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="112"/>
+      <c r="O15" s="112"/>
+      <c r="P15" s="112"/>
+      <c r="Q15" s="112"/>
+      <c r="R15" s="112"/>
+      <c r="S15" s="104"/>
+      <c r="T15" s="104"/>
+      <c r="U15" s="104"/>
+      <c r="V15" s="110"/>
+      <c r="W15" s="110"/>
+      <c r="X15" s="110"/>
+      <c r="Y15" s="110"/>
+      <c r="Z15" s="110"/>
+      <c r="AA15" s="110"/>
+      <c r="AB15" s="110"/>
+      <c r="AC15" s="110"/>
+      <c r="AD15" s="110"/>
+      <c r="AE15" s="110"/>
+      <c r="AF15" s="110"/>
+      <c r="AG15" s="110"/>
+      <c r="AH15" s="110"/>
+      <c r="AI15" s="110"/>
+      <c r="AJ15" s="110"/>
+      <c r="AK15" s="110"/>
+      <c r="AL15" s="110"/>
+      <c r="AM15" s="110"/>
+      <c r="AN15" s="104"/>
+      <c r="AO15" s="104"/>
+      <c r="AP15" s="104"/>
+      <c r="AQ15" s="104"/>
+      <c r="AR15" s="104"/>
+      <c r="AS15" s="104"/>
+      <c r="AT15" s="104"/>
+      <c r="AU15" s="104"/>
+      <c r="AV15" s="104"/>
+      <c r="AW15" s="104"/>
+    </row>
+    <row r="16" spans="1:49">
       <c r="A16" s="58"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="120"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="120"/>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="120"/>
-      <c r="S16" s="114"/>
-      <c r="T16" s="114"/>
-      <c r="U16" s="114"/>
-      <c r="V16" s="121"/>
-      <c r="W16" s="121"/>
-      <c r="X16" s="121"/>
-      <c r="Y16" s="121"/>
-      <c r="Z16" s="121"/>
-      <c r="AA16" s="121"/>
-      <c r="AB16" s="121"/>
-      <c r="AC16" s="121"/>
-      <c r="AD16" s="121"/>
-      <c r="AE16" s="121"/>
-      <c r="AF16" s="121"/>
-      <c r="AG16" s="121"/>
-      <c r="AH16" s="121"/>
-      <c r="AI16" s="121"/>
-      <c r="AJ16" s="121"/>
-      <c r="AK16" s="121"/>
-      <c r="AL16" s="121"/>
-      <c r="AM16" s="121"/>
-      <c r="AN16" s="114"/>
-      <c r="AO16" s="114"/>
-      <c r="AP16" s="114"/>
-      <c r="AQ16" s="114"/>
-      <c r="AR16" s="114"/>
-      <c r="AS16" s="114"/>
-      <c r="AT16" s="114"/>
-      <c r="AU16" s="114"/>
-      <c r="AV16" s="114"/>
-      <c r="AW16" s="114"/>
-    </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="112"/>
+      <c r="R16" s="112"/>
+      <c r="S16" s="104"/>
+      <c r="T16" s="104"/>
+      <c r="U16" s="104"/>
+      <c r="V16" s="110"/>
+      <c r="W16" s="110"/>
+      <c r="X16" s="110"/>
+      <c r="Y16" s="110"/>
+      <c r="Z16" s="110"/>
+      <c r="AA16" s="110"/>
+      <c r="AB16" s="110"/>
+      <c r="AC16" s="110"/>
+      <c r="AD16" s="110"/>
+      <c r="AE16" s="110"/>
+      <c r="AF16" s="110"/>
+      <c r="AG16" s="110"/>
+      <c r="AH16" s="110"/>
+      <c r="AI16" s="110"/>
+      <c r="AJ16" s="110"/>
+      <c r="AK16" s="110"/>
+      <c r="AL16" s="110"/>
+      <c r="AM16" s="110"/>
+      <c r="AN16" s="104"/>
+      <c r="AO16" s="104"/>
+      <c r="AP16" s="104"/>
+      <c r="AQ16" s="104"/>
+      <c r="AR16" s="104"/>
+      <c r="AS16" s="104"/>
+      <c r="AT16" s="104"/>
+      <c r="AU16" s="104"/>
+      <c r="AV16" s="104"/>
+      <c r="AW16" s="104"/>
+    </row>
+    <row r="17" spans="1:49">
       <c r="A17" s="58"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="120"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="120"/>
-      <c r="Q17" s="120"/>
-      <c r="R17" s="125"/>
-      <c r="S17" s="126"/>
-      <c r="T17" s="126"/>
-      <c r="U17" s="126"/>
-      <c r="V17" s="121"/>
-      <c r="W17" s="121"/>
-      <c r="X17" s="121"/>
-      <c r="Y17" s="121"/>
-      <c r="Z17" s="121"/>
-      <c r="AA17" s="121"/>
-      <c r="AB17" s="121"/>
-      <c r="AC17" s="121"/>
-      <c r="AD17" s="121"/>
-      <c r="AE17" s="121"/>
-      <c r="AF17" s="121"/>
-      <c r="AG17" s="121"/>
-      <c r="AH17" s="121"/>
-      <c r="AI17" s="121"/>
-      <c r="AJ17" s="121"/>
-      <c r="AK17" s="121"/>
-      <c r="AL17" s="121"/>
-      <c r="AM17" s="121"/>
-      <c r="AN17" s="114"/>
-      <c r="AO17" s="114"/>
-      <c r="AP17" s="114"/>
-      <c r="AQ17" s="114"/>
-      <c r="AR17" s="114"/>
-      <c r="AS17" s="114"/>
-      <c r="AT17" s="114"/>
-      <c r="AU17" s="114"/>
-      <c r="AV17" s="114"/>
-      <c r="AW17" s="114"/>
-    </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="113"/>
+      <c r="S17" s="114"/>
+      <c r="T17" s="114"/>
+      <c r="U17" s="114"/>
+      <c r="V17" s="110"/>
+      <c r="W17" s="110"/>
+      <c r="X17" s="110"/>
+      <c r="Y17" s="110"/>
+      <c r="Z17" s="110"/>
+      <c r="AA17" s="110"/>
+      <c r="AB17" s="110"/>
+      <c r="AC17" s="110"/>
+      <c r="AD17" s="110"/>
+      <c r="AE17" s="110"/>
+      <c r="AF17" s="110"/>
+      <c r="AG17" s="110"/>
+      <c r="AH17" s="110"/>
+      <c r="AI17" s="110"/>
+      <c r="AJ17" s="110"/>
+      <c r="AK17" s="110"/>
+      <c r="AL17" s="110"/>
+      <c r="AM17" s="110"/>
+      <c r="AN17" s="104"/>
+      <c r="AO17" s="104"/>
+      <c r="AP17" s="104"/>
+      <c r="AQ17" s="104"/>
+      <c r="AR17" s="104"/>
+      <c r="AS17" s="104"/>
+      <c r="AT17" s="104"/>
+      <c r="AU17" s="104"/>
+      <c r="AV17" s="104"/>
+      <c r="AW17" s="104"/>
+    </row>
+    <row r="18" spans="1:49">
       <c r="A18" s="58"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="123"/>
-      <c r="N18" s="120"/>
-      <c r="O18" s="120"/>
-      <c r="P18" s="120"/>
-      <c r="Q18" s="120"/>
-      <c r="R18" s="120"/>
-      <c r="S18" s="114"/>
-      <c r="T18" s="114"/>
-      <c r="U18" s="114"/>
-      <c r="V18" s="121"/>
-      <c r="W18" s="121"/>
-      <c r="X18" s="121"/>
-      <c r="Y18" s="121"/>
-      <c r="Z18" s="121"/>
-      <c r="AA18" s="121"/>
-      <c r="AB18" s="121"/>
-      <c r="AC18" s="121"/>
-      <c r="AD18" s="121"/>
-      <c r="AE18" s="121"/>
-      <c r="AF18" s="121"/>
-      <c r="AG18" s="121"/>
-      <c r="AH18" s="121"/>
-      <c r="AI18" s="121"/>
-      <c r="AJ18" s="121"/>
-      <c r="AK18" s="121"/>
-      <c r="AL18" s="121"/>
-      <c r="AM18" s="121"/>
-      <c r="AN18" s="114"/>
-      <c r="AO18" s="114"/>
-      <c r="AP18" s="114"/>
-      <c r="AQ18" s="114"/>
-      <c r="AR18" s="114"/>
-      <c r="AS18" s="114"/>
-      <c r="AT18" s="114"/>
-      <c r="AU18" s="114"/>
-      <c r="AV18" s="114"/>
-      <c r="AW18" s="114"/>
-    </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="112"/>
+      <c r="R18" s="112"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="110"/>
+      <c r="W18" s="110"/>
+      <c r="X18" s="110"/>
+      <c r="Y18" s="110"/>
+      <c r="Z18" s="110"/>
+      <c r="AA18" s="110"/>
+      <c r="AB18" s="110"/>
+      <c r="AC18" s="110"/>
+      <c r="AD18" s="110"/>
+      <c r="AE18" s="110"/>
+      <c r="AF18" s="110"/>
+      <c r="AG18" s="110"/>
+      <c r="AH18" s="110"/>
+      <c r="AI18" s="110"/>
+      <c r="AJ18" s="110"/>
+      <c r="AK18" s="110"/>
+      <c r="AL18" s="110"/>
+      <c r="AM18" s="110"/>
+      <c r="AN18" s="104"/>
+      <c r="AO18" s="104"/>
+      <c r="AP18" s="104"/>
+      <c r="AQ18" s="104"/>
+      <c r="AR18" s="104"/>
+      <c r="AS18" s="104"/>
+      <c r="AT18" s="104"/>
+      <c r="AU18" s="104"/>
+      <c r="AV18" s="104"/>
+      <c r="AW18" s="104"/>
+    </row>
+    <row r="19" spans="1:49">
       <c r="A19" s="58"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="120"/>
-      <c r="O19" s="120"/>
-      <c r="P19" s="120"/>
-      <c r="Q19" s="120"/>
-      <c r="R19" s="120"/>
-      <c r="S19" s="114"/>
-      <c r="T19" s="114"/>
-      <c r="U19" s="114"/>
-      <c r="V19" s="121"/>
-      <c r="W19" s="121"/>
-      <c r="X19" s="121"/>
-      <c r="Y19" s="121"/>
-      <c r="Z19" s="121"/>
-      <c r="AA19" s="121"/>
-      <c r="AB19" s="121"/>
-      <c r="AC19" s="121"/>
-      <c r="AD19" s="121"/>
-      <c r="AE19" s="121"/>
-      <c r="AF19" s="121"/>
-      <c r="AG19" s="121"/>
-      <c r="AH19" s="121"/>
-      <c r="AI19" s="121"/>
-      <c r="AJ19" s="121"/>
-      <c r="AK19" s="121"/>
-      <c r="AL19" s="121"/>
-      <c r="AM19" s="121"/>
-      <c r="AN19" s="114"/>
-      <c r="AO19" s="114"/>
-      <c r="AP19" s="114"/>
-      <c r="AQ19" s="114"/>
-      <c r="AR19" s="114"/>
-      <c r="AS19" s="114"/>
-      <c r="AT19" s="114"/>
-      <c r="AU19" s="114"/>
-      <c r="AV19" s="114"/>
-      <c r="AW19" s="114"/>
-    </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="112"/>
+      <c r="S19" s="104"/>
+      <c r="T19" s="104"/>
+      <c r="U19" s="104"/>
+      <c r="V19" s="110"/>
+      <c r="W19" s="110"/>
+      <c r="X19" s="110"/>
+      <c r="Y19" s="110"/>
+      <c r="Z19" s="110"/>
+      <c r="AA19" s="110"/>
+      <c r="AB19" s="110"/>
+      <c r="AC19" s="110"/>
+      <c r="AD19" s="110"/>
+      <c r="AE19" s="110"/>
+      <c r="AF19" s="110"/>
+      <c r="AG19" s="110"/>
+      <c r="AH19" s="110"/>
+      <c r="AI19" s="110"/>
+      <c r="AJ19" s="110"/>
+      <c r="AK19" s="110"/>
+      <c r="AL19" s="110"/>
+      <c r="AM19" s="110"/>
+      <c r="AN19" s="104"/>
+      <c r="AO19" s="104"/>
+      <c r="AP19" s="104"/>
+      <c r="AQ19" s="104"/>
+      <c r="AR19" s="104"/>
+      <c r="AS19" s="104"/>
+      <c r="AT19" s="104"/>
+      <c r="AU19" s="104"/>
+      <c r="AV19" s="104"/>
+      <c r="AW19" s="104"/>
+    </row>
+    <row r="20" spans="1:49">
       <c r="A20" s="58"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="120"/>
-      <c r="O20" s="120"/>
-      <c r="P20" s="120"/>
-      <c r="Q20" s="120"/>
-      <c r="R20" s="120"/>
-      <c r="S20" s="114"/>
-      <c r="T20" s="114"/>
-      <c r="U20" s="114"/>
-      <c r="V20" s="121"/>
-      <c r="W20" s="121"/>
-      <c r="X20" s="121"/>
-      <c r="Y20" s="121"/>
-      <c r="Z20" s="121"/>
-      <c r="AA20" s="121"/>
-      <c r="AB20" s="121"/>
-      <c r="AC20" s="121"/>
-      <c r="AD20" s="121"/>
-      <c r="AE20" s="121"/>
-      <c r="AF20" s="121"/>
-      <c r="AG20" s="121"/>
-      <c r="AH20" s="121"/>
-      <c r="AI20" s="121"/>
-      <c r="AJ20" s="121"/>
-      <c r="AK20" s="121"/>
-      <c r="AL20" s="121"/>
-      <c r="AM20" s="121"/>
-      <c r="AN20" s="114"/>
-      <c r="AO20" s="114"/>
-      <c r="AP20" s="114"/>
-      <c r="AQ20" s="114"/>
-      <c r="AR20" s="114"/>
-      <c r="AS20" s="114"/>
-      <c r="AT20" s="114"/>
-      <c r="AU20" s="114"/>
-      <c r="AV20" s="114"/>
-      <c r="AW20" s="114"/>
-    </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="112"/>
+      <c r="N20" s="112"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="112"/>
+      <c r="Q20" s="112"/>
+      <c r="R20" s="112"/>
+      <c r="S20" s="104"/>
+      <c r="T20" s="104"/>
+      <c r="U20" s="104"/>
+      <c r="V20" s="110"/>
+      <c r="W20" s="110"/>
+      <c r="X20" s="110"/>
+      <c r="Y20" s="110"/>
+      <c r="Z20" s="110"/>
+      <c r="AA20" s="110"/>
+      <c r="AB20" s="110"/>
+      <c r="AC20" s="110"/>
+      <c r="AD20" s="110"/>
+      <c r="AE20" s="110"/>
+      <c r="AF20" s="110"/>
+      <c r="AG20" s="110"/>
+      <c r="AH20" s="110"/>
+      <c r="AI20" s="110"/>
+      <c r="AJ20" s="110"/>
+      <c r="AK20" s="110"/>
+      <c r="AL20" s="110"/>
+      <c r="AM20" s="110"/>
+      <c r="AN20" s="104"/>
+      <c r="AO20" s="104"/>
+      <c r="AP20" s="104"/>
+      <c r="AQ20" s="104"/>
+      <c r="AR20" s="104"/>
+      <c r="AS20" s="104"/>
+      <c r="AT20" s="104"/>
+      <c r="AU20" s="104"/>
+      <c r="AV20" s="104"/>
+      <c r="AW20" s="104"/>
+    </row>
+    <row r="21" spans="1:49">
       <c r="A21" s="58"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="120"/>
-      <c r="P21" s="120"/>
-      <c r="Q21" s="120"/>
-      <c r="R21" s="120"/>
-      <c r="S21" s="114"/>
-      <c r="T21" s="114"/>
-      <c r="U21" s="114"/>
-      <c r="V21" s="121"/>
-      <c r="W21" s="121"/>
-      <c r="X21" s="121"/>
-      <c r="Y21" s="121"/>
-      <c r="Z21" s="121"/>
-      <c r="AA21" s="121"/>
-      <c r="AB21" s="121"/>
-      <c r="AC21" s="121"/>
-      <c r="AD21" s="121"/>
-      <c r="AE21" s="121"/>
-      <c r="AF21" s="121"/>
-      <c r="AG21" s="121"/>
-      <c r="AH21" s="121"/>
-      <c r="AI21" s="121"/>
-      <c r="AJ21" s="121"/>
-      <c r="AK21" s="121"/>
-      <c r="AL21" s="121"/>
-      <c r="AM21" s="121"/>
-      <c r="AN21" s="114"/>
-      <c r="AO21" s="114"/>
-      <c r="AP21" s="114"/>
-      <c r="AQ21" s="114"/>
-      <c r="AR21" s="114"/>
-      <c r="AS21" s="114"/>
-      <c r="AT21" s="114"/>
-      <c r="AU21" s="114"/>
-      <c r="AV21" s="114"/>
-      <c r="AW21" s="114"/>
-    </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="112"/>
+      <c r="R21" s="112"/>
+      <c r="S21" s="104"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="104"/>
+      <c r="V21" s="110"/>
+      <c r="W21" s="110"/>
+      <c r="X21" s="110"/>
+      <c r="Y21" s="110"/>
+      <c r="Z21" s="110"/>
+      <c r="AA21" s="110"/>
+      <c r="AB21" s="110"/>
+      <c r="AC21" s="110"/>
+      <c r="AD21" s="110"/>
+      <c r="AE21" s="110"/>
+      <c r="AF21" s="110"/>
+      <c r="AG21" s="110"/>
+      <c r="AH21" s="110"/>
+      <c r="AI21" s="110"/>
+      <c r="AJ21" s="110"/>
+      <c r="AK21" s="110"/>
+      <c r="AL21" s="110"/>
+      <c r="AM21" s="110"/>
+      <c r="AN21" s="104"/>
+      <c r="AO21" s="104"/>
+      <c r="AP21" s="104"/>
+      <c r="AQ21" s="104"/>
+      <c r="AR21" s="104"/>
+      <c r="AS21" s="104"/>
+      <c r="AT21" s="104"/>
+      <c r="AU21" s="104"/>
+      <c r="AV21" s="104"/>
+      <c r="AW21" s="104"/>
+    </row>
+    <row r="22" spans="1:49">
       <c r="A22" s="58"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="120"/>
-      <c r="N22" s="120"/>
-      <c r="O22" s="120"/>
-      <c r="P22" s="120"/>
-      <c r="Q22" s="120"/>
-      <c r="R22" s="120"/>
-      <c r="S22" s="114"/>
-      <c r="T22" s="114"/>
-      <c r="U22" s="114"/>
-      <c r="V22" s="121"/>
-      <c r="W22" s="121"/>
-      <c r="X22" s="121"/>
-      <c r="Y22" s="121"/>
-      <c r="Z22" s="121"/>
-      <c r="AA22" s="121"/>
-      <c r="AB22" s="121"/>
-      <c r="AC22" s="121"/>
-      <c r="AD22" s="121"/>
-      <c r="AE22" s="121"/>
-      <c r="AF22" s="121"/>
-      <c r="AG22" s="121"/>
-      <c r="AH22" s="121"/>
-      <c r="AI22" s="121"/>
-      <c r="AJ22" s="121"/>
-      <c r="AK22" s="121"/>
-      <c r="AL22" s="121"/>
-      <c r="AM22" s="121"/>
-      <c r="AN22" s="114"/>
-      <c r="AO22" s="114"/>
-      <c r="AP22" s="114"/>
-      <c r="AQ22" s="114"/>
-      <c r="AR22" s="114"/>
-      <c r="AS22" s="114"/>
-      <c r="AT22" s="114"/>
-      <c r="AU22" s="114"/>
-      <c r="AV22" s="114"/>
-      <c r="AW22" s="114"/>
-    </row>
-    <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="112"/>
+      <c r="S22" s="104"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="110"/>
+      <c r="W22" s="110"/>
+      <c r="X22" s="110"/>
+      <c r="Y22" s="110"/>
+      <c r="Z22" s="110"/>
+      <c r="AA22" s="110"/>
+      <c r="AB22" s="110"/>
+      <c r="AC22" s="110"/>
+      <c r="AD22" s="110"/>
+      <c r="AE22" s="110"/>
+      <c r="AF22" s="110"/>
+      <c r="AG22" s="110"/>
+      <c r="AH22" s="110"/>
+      <c r="AI22" s="110"/>
+      <c r="AJ22" s="110"/>
+      <c r="AK22" s="110"/>
+      <c r="AL22" s="110"/>
+      <c r="AM22" s="110"/>
+      <c r="AN22" s="104"/>
+      <c r="AO22" s="104"/>
+      <c r="AP22" s="104"/>
+      <c r="AQ22" s="104"/>
+      <c r="AR22" s="104"/>
+      <c r="AS22" s="104"/>
+      <c r="AT22" s="104"/>
+      <c r="AU22" s="104"/>
+      <c r="AV22" s="104"/>
+      <c r="AW22" s="104"/>
+    </row>
+    <row r="23" spans="1:49" ht="15">
       <c r="A23" s="56"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="120"/>
-      <c r="N23" s="120"/>
-      <c r="O23" s="120"/>
-      <c r="P23" s="120"/>
-      <c r="Q23" s="120"/>
-      <c r="R23" s="120"/>
-      <c r="S23" s="114"/>
-      <c r="T23" s="114"/>
-      <c r="U23" s="114"/>
-      <c r="V23" s="121"/>
-      <c r="W23" s="121"/>
-      <c r="X23" s="121"/>
-      <c r="Y23" s="121"/>
-      <c r="Z23" s="121"/>
-      <c r="AA23" s="121"/>
-      <c r="AB23" s="121"/>
-      <c r="AC23" s="121"/>
-      <c r="AD23" s="121"/>
-      <c r="AE23" s="121"/>
-      <c r="AF23" s="121"/>
-      <c r="AG23" s="121"/>
-      <c r="AH23" s="121"/>
-      <c r="AI23" s="121"/>
-      <c r="AJ23" s="121"/>
-      <c r="AK23" s="121"/>
-      <c r="AL23" s="121"/>
-      <c r="AM23" s="121"/>
-      <c r="AN23" s="114"/>
-      <c r="AO23" s="114"/>
-      <c r="AP23" s="114"/>
-      <c r="AQ23" s="114"/>
-      <c r="AR23" s="114"/>
-      <c r="AS23" s="114"/>
-      <c r="AT23" s="114"/>
-      <c r="AU23" s="114"/>
-      <c r="AV23" s="114"/>
-      <c r="AW23" s="114"/>
-    </row>
-    <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="112"/>
+      <c r="S23" s="104"/>
+      <c r="T23" s="104"/>
+      <c r="U23" s="104"/>
+      <c r="V23" s="110"/>
+      <c r="W23" s="110"/>
+      <c r="X23" s="110"/>
+      <c r="Y23" s="110"/>
+      <c r="Z23" s="110"/>
+      <c r="AA23" s="110"/>
+      <c r="AB23" s="110"/>
+      <c r="AC23" s="110"/>
+      <c r="AD23" s="110"/>
+      <c r="AE23" s="110"/>
+      <c r="AF23" s="110"/>
+      <c r="AG23" s="110"/>
+      <c r="AH23" s="110"/>
+      <c r="AI23" s="110"/>
+      <c r="AJ23" s="110"/>
+      <c r="AK23" s="110"/>
+      <c r="AL23" s="110"/>
+      <c r="AM23" s="110"/>
+      <c r="AN23" s="104"/>
+      <c r="AO23" s="104"/>
+      <c r="AP23" s="104"/>
+      <c r="AQ23" s="104"/>
+      <c r="AR23" s="104"/>
+      <c r="AS23" s="104"/>
+      <c r="AT23" s="104"/>
+      <c r="AU23" s="104"/>
+      <c r="AV23" s="104"/>
+      <c r="AW23" s="104"/>
+    </row>
+    <row r="24" spans="1:49" ht="15">
       <c r="A24" s="56"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="120"/>
-      <c r="N24" s="120"/>
-      <c r="O24" s="120"/>
-      <c r="P24" s="120"/>
-      <c r="Q24" s="120"/>
-      <c r="R24" s="120"/>
-      <c r="S24" s="114"/>
-      <c r="T24" s="114"/>
-      <c r="U24" s="114"/>
-      <c r="V24" s="121"/>
-      <c r="W24" s="121"/>
-      <c r="X24" s="121"/>
-      <c r="Y24" s="121"/>
-      <c r="Z24" s="121"/>
-      <c r="AA24" s="121"/>
-      <c r="AB24" s="121"/>
-      <c r="AC24" s="121"/>
-      <c r="AD24" s="121"/>
-      <c r="AE24" s="121"/>
-      <c r="AF24" s="121"/>
-      <c r="AG24" s="121"/>
-      <c r="AH24" s="121"/>
-      <c r="AI24" s="121"/>
-      <c r="AJ24" s="121"/>
-      <c r="AK24" s="121"/>
-      <c r="AL24" s="121"/>
-      <c r="AM24" s="121"/>
-      <c r="AN24" s="114"/>
-      <c r="AO24" s="114"/>
-      <c r="AP24" s="114"/>
-      <c r="AQ24" s="114"/>
-      <c r="AR24" s="114"/>
-      <c r="AS24" s="114"/>
-      <c r="AT24" s="114"/>
-      <c r="AU24" s="114"/>
-      <c r="AV24" s="114"/>
-      <c r="AW24" s="114"/>
-    </row>
-    <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="112"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="112"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="112"/>
+      <c r="S24" s="104"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="104"/>
+      <c r="V24" s="110"/>
+      <c r="W24" s="110"/>
+      <c r="X24" s="110"/>
+      <c r="Y24" s="110"/>
+      <c r="Z24" s="110"/>
+      <c r="AA24" s="110"/>
+      <c r="AB24" s="110"/>
+      <c r="AC24" s="110"/>
+      <c r="AD24" s="110"/>
+      <c r="AE24" s="110"/>
+      <c r="AF24" s="110"/>
+      <c r="AG24" s="110"/>
+      <c r="AH24" s="110"/>
+      <c r="AI24" s="110"/>
+      <c r="AJ24" s="110"/>
+      <c r="AK24" s="110"/>
+      <c r="AL24" s="110"/>
+      <c r="AM24" s="110"/>
+      <c r="AN24" s="104"/>
+      <c r="AO24" s="104"/>
+      <c r="AP24" s="104"/>
+      <c r="AQ24" s="104"/>
+      <c r="AR24" s="104"/>
+      <c r="AS24" s="104"/>
+      <c r="AT24" s="104"/>
+      <c r="AU24" s="104"/>
+      <c r="AV24" s="104"/>
+      <c r="AW24" s="104"/>
+    </row>
+    <row r="25" spans="1:49" ht="15">
       <c r="A25" s="56"/>
-      <c r="B25" s="115"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="123"/>
-      <c r="N25" s="120"/>
-      <c r="O25" s="120"/>
-      <c r="P25" s="120"/>
-      <c r="Q25" s="120"/>
-      <c r="R25" s="120"/>
-      <c r="S25" s="114"/>
-      <c r="T25" s="114"/>
-      <c r="U25" s="114"/>
-      <c r="V25" s="121"/>
-      <c r="W25" s="121"/>
-      <c r="X25" s="121"/>
-      <c r="Y25" s="121"/>
-      <c r="Z25" s="121"/>
-      <c r="AA25" s="121"/>
-      <c r="AB25" s="121"/>
-      <c r="AC25" s="121"/>
-      <c r="AD25" s="121"/>
-      <c r="AE25" s="121"/>
-      <c r="AF25" s="121"/>
-      <c r="AG25" s="121"/>
-      <c r="AH25" s="121"/>
-      <c r="AI25" s="121"/>
-      <c r="AJ25" s="121"/>
-      <c r="AK25" s="121"/>
-      <c r="AL25" s="121"/>
-      <c r="AM25" s="121"/>
-      <c r="AN25" s="114"/>
-      <c r="AO25" s="114"/>
-      <c r="AP25" s="114"/>
-      <c r="AQ25" s="114"/>
-      <c r="AR25" s="114"/>
-      <c r="AS25" s="114"/>
-      <c r="AT25" s="114"/>
-      <c r="AU25" s="114"/>
-      <c r="AV25" s="114"/>
-      <c r="AW25" s="114"/>
-    </row>
-    <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="112"/>
+      <c r="S25" s="104"/>
+      <c r="T25" s="104"/>
+      <c r="U25" s="104"/>
+      <c r="V25" s="110"/>
+      <c r="W25" s="110"/>
+      <c r="X25" s="110"/>
+      <c r="Y25" s="110"/>
+      <c r="Z25" s="110"/>
+      <c r="AA25" s="110"/>
+      <c r="AB25" s="110"/>
+      <c r="AC25" s="110"/>
+      <c r="AD25" s="110"/>
+      <c r="AE25" s="110"/>
+      <c r="AF25" s="110"/>
+      <c r="AG25" s="110"/>
+      <c r="AH25" s="110"/>
+      <c r="AI25" s="110"/>
+      <c r="AJ25" s="110"/>
+      <c r="AK25" s="110"/>
+      <c r="AL25" s="110"/>
+      <c r="AM25" s="110"/>
+      <c r="AN25" s="104"/>
+      <c r="AO25" s="104"/>
+      <c r="AP25" s="104"/>
+      <c r="AQ25" s="104"/>
+      <c r="AR25" s="104"/>
+      <c r="AS25" s="104"/>
+      <c r="AT25" s="104"/>
+      <c r="AU25" s="104"/>
+      <c r="AV25" s="104"/>
+      <c r="AW25" s="104"/>
+    </row>
+    <row r="26" spans="1:49" ht="15">
       <c r="A26" s="56"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="117"/>
-      <c r="L26" s="117"/>
-      <c r="M26" s="123"/>
-      <c r="N26" s="120"/>
-      <c r="O26" s="120"/>
-      <c r="P26" s="120"/>
-      <c r="Q26" s="120"/>
-      <c r="R26" s="120"/>
-      <c r="S26" s="114"/>
-      <c r="T26" s="114"/>
-      <c r="U26" s="114"/>
-      <c r="V26" s="121"/>
-      <c r="W26" s="121"/>
-      <c r="X26" s="121"/>
-      <c r="Y26" s="121"/>
-      <c r="Z26" s="121"/>
-      <c r="AA26" s="121"/>
-      <c r="AB26" s="121"/>
-      <c r="AC26" s="121"/>
-      <c r="AD26" s="121"/>
-      <c r="AE26" s="121"/>
-      <c r="AF26" s="121"/>
-      <c r="AG26" s="121"/>
-      <c r="AH26" s="121"/>
-      <c r="AI26" s="121"/>
-      <c r="AJ26" s="121"/>
-      <c r="AK26" s="121"/>
-      <c r="AL26" s="121"/>
-      <c r="AM26" s="121"/>
-      <c r="AN26" s="114"/>
-      <c r="AO26" s="114"/>
-      <c r="AP26" s="114"/>
-      <c r="AQ26" s="114"/>
-      <c r="AR26" s="114"/>
-      <c r="AS26" s="114"/>
-      <c r="AT26" s="114"/>
-      <c r="AU26" s="114"/>
-      <c r="AV26" s="114"/>
-      <c r="AW26" s="114"/>
-    </row>
-    <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="104"/>
+      <c r="T26" s="104"/>
+      <c r="U26" s="104"/>
+      <c r="V26" s="110"/>
+      <c r="W26" s="110"/>
+      <c r="X26" s="110"/>
+      <c r="Y26" s="110"/>
+      <c r="Z26" s="110"/>
+      <c r="AA26" s="110"/>
+      <c r="AB26" s="110"/>
+      <c r="AC26" s="110"/>
+      <c r="AD26" s="110"/>
+      <c r="AE26" s="110"/>
+      <c r="AF26" s="110"/>
+      <c r="AG26" s="110"/>
+      <c r="AH26" s="110"/>
+      <c r="AI26" s="110"/>
+      <c r="AJ26" s="110"/>
+      <c r="AK26" s="110"/>
+      <c r="AL26" s="110"/>
+      <c r="AM26" s="110"/>
+      <c r="AN26" s="104"/>
+      <c r="AO26" s="104"/>
+      <c r="AP26" s="104"/>
+      <c r="AQ26" s="104"/>
+      <c r="AR26" s="104"/>
+      <c r="AS26" s="104"/>
+      <c r="AT26" s="104"/>
+      <c r="AU26" s="104"/>
+      <c r="AV26" s="104"/>
+      <c r="AW26" s="104"/>
+    </row>
+    <row r="27" spans="1:49" ht="15">
       <c r="A27" s="56"/>
-      <c r="B27" s="115"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="117"/>
-      <c r="L27" s="117"/>
-      <c r="M27" s="123"/>
-      <c r="N27" s="120"/>
-      <c r="O27" s="120"/>
-      <c r="P27" s="120"/>
-      <c r="Q27" s="120"/>
-      <c r="R27" s="120"/>
-      <c r="S27" s="114"/>
-      <c r="T27" s="114"/>
-      <c r="U27" s="114"/>
-      <c r="V27" s="121"/>
-      <c r="W27" s="121"/>
-      <c r="X27" s="121"/>
-      <c r="Y27" s="121"/>
-      <c r="Z27" s="121"/>
-      <c r="AA27" s="121"/>
-      <c r="AB27" s="121"/>
-      <c r="AC27" s="121"/>
-      <c r="AD27" s="121"/>
-      <c r="AE27" s="121"/>
-      <c r="AF27" s="121"/>
-      <c r="AG27" s="121"/>
-      <c r="AH27" s="121"/>
-      <c r="AI27" s="121"/>
-      <c r="AJ27" s="121"/>
-      <c r="AK27" s="121"/>
-      <c r="AL27" s="121"/>
-      <c r="AM27" s="121"/>
-      <c r="AN27" s="114"/>
-      <c r="AO27" s="114"/>
-      <c r="AP27" s="114"/>
-      <c r="AQ27" s="114"/>
-      <c r="AR27" s="114"/>
-      <c r="AS27" s="114"/>
-      <c r="AT27" s="114"/>
-      <c r="AU27" s="114"/>
-      <c r="AV27" s="114"/>
-      <c r="AW27" s="114"/>
-    </row>
-    <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="105"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="112"/>
+      <c r="Q27" s="112"/>
+      <c r="R27" s="112"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="110"/>
+      <c r="W27" s="110"/>
+      <c r="X27" s="110"/>
+      <c r="Y27" s="110"/>
+      <c r="Z27" s="110"/>
+      <c r="AA27" s="110"/>
+      <c r="AB27" s="110"/>
+      <c r="AC27" s="110"/>
+      <c r="AD27" s="110"/>
+      <c r="AE27" s="110"/>
+      <c r="AF27" s="110"/>
+      <c r="AG27" s="110"/>
+      <c r="AH27" s="110"/>
+      <c r="AI27" s="110"/>
+      <c r="AJ27" s="110"/>
+      <c r="AK27" s="110"/>
+      <c r="AL27" s="110"/>
+      <c r="AM27" s="110"/>
+      <c r="AN27" s="104"/>
+      <c r="AO27" s="104"/>
+      <c r="AP27" s="104"/>
+      <c r="AQ27" s="104"/>
+      <c r="AR27" s="104"/>
+      <c r="AS27" s="104"/>
+      <c r="AT27" s="104"/>
+      <c r="AU27" s="104"/>
+      <c r="AV27" s="104"/>
+      <c r="AW27" s="104"/>
+    </row>
+    <row r="28" spans="1:49" ht="15">
       <c r="A28" s="56"/>
-      <c r="B28" s="115"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="117"/>
-      <c r="L28" s="117"/>
-      <c r="M28" s="120"/>
-      <c r="N28" s="120"/>
-      <c r="O28" s="120"/>
-      <c r="P28" s="120"/>
-      <c r="Q28" s="120"/>
-      <c r="R28" s="120"/>
-      <c r="S28" s="114"/>
-      <c r="T28" s="114"/>
-      <c r="U28" s="114"/>
-      <c r="V28" s="121"/>
-      <c r="W28" s="121"/>
-      <c r="X28" s="121"/>
-      <c r="Y28" s="121"/>
-      <c r="Z28" s="121"/>
-      <c r="AA28" s="121"/>
-      <c r="AB28" s="121"/>
-      <c r="AC28" s="121"/>
-      <c r="AD28" s="121"/>
-      <c r="AE28" s="121"/>
-      <c r="AF28" s="121"/>
-      <c r="AG28" s="121"/>
-      <c r="AH28" s="121"/>
-      <c r="AI28" s="121"/>
-      <c r="AJ28" s="121"/>
-      <c r="AK28" s="121"/>
-      <c r="AL28" s="121"/>
-      <c r="AM28" s="121"/>
-      <c r="AN28" s="114"/>
-      <c r="AO28" s="114"/>
-      <c r="AP28" s="114"/>
-      <c r="AQ28" s="114"/>
-      <c r="AR28" s="114"/>
-      <c r="AS28" s="114"/>
-      <c r="AT28" s="114"/>
-      <c r="AU28" s="114"/>
-      <c r="AV28" s="114"/>
-      <c r="AW28" s="114"/>
-    </row>
-    <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="105"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="107"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="112"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="112"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="112"/>
+      <c r="S28" s="104"/>
+      <c r="T28" s="104"/>
+      <c r="U28" s="104"/>
+      <c r="V28" s="110"/>
+      <c r="W28" s="110"/>
+      <c r="X28" s="110"/>
+      <c r="Y28" s="110"/>
+      <c r="Z28" s="110"/>
+      <c r="AA28" s="110"/>
+      <c r="AB28" s="110"/>
+      <c r="AC28" s="110"/>
+      <c r="AD28" s="110"/>
+      <c r="AE28" s="110"/>
+      <c r="AF28" s="110"/>
+      <c r="AG28" s="110"/>
+      <c r="AH28" s="110"/>
+      <c r="AI28" s="110"/>
+      <c r="AJ28" s="110"/>
+      <c r="AK28" s="110"/>
+      <c r="AL28" s="110"/>
+      <c r="AM28" s="110"/>
+      <c r="AN28" s="104"/>
+      <c r="AO28" s="104"/>
+      <c r="AP28" s="104"/>
+      <c r="AQ28" s="104"/>
+      <c r="AR28" s="104"/>
+      <c r="AS28" s="104"/>
+      <c r="AT28" s="104"/>
+      <c r="AU28" s="104"/>
+      <c r="AV28" s="104"/>
+      <c r="AW28" s="104"/>
+    </row>
+    <row r="29" spans="1:49" ht="15">
       <c r="A29" s="56"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="117"/>
-      <c r="L29" s="117"/>
-      <c r="M29" s="120"/>
-      <c r="N29" s="120"/>
-      <c r="O29" s="120"/>
-      <c r="P29" s="120"/>
-      <c r="Q29" s="120"/>
-      <c r="R29" s="120"/>
-      <c r="S29" s="114"/>
-      <c r="T29" s="114"/>
-      <c r="U29" s="114"/>
-      <c r="V29" s="121"/>
-      <c r="W29" s="121"/>
-      <c r="X29" s="121"/>
-      <c r="Y29" s="121"/>
-      <c r="Z29" s="121"/>
-      <c r="AA29" s="121"/>
-      <c r="AB29" s="121"/>
-      <c r="AC29" s="121"/>
-      <c r="AD29" s="121"/>
-      <c r="AE29" s="121"/>
-      <c r="AF29" s="121"/>
-      <c r="AG29" s="121"/>
-      <c r="AH29" s="121"/>
-      <c r="AI29" s="121"/>
-      <c r="AJ29" s="121"/>
-      <c r="AK29" s="121"/>
-      <c r="AL29" s="121"/>
-      <c r="AM29" s="121"/>
-      <c r="AN29" s="114"/>
-      <c r="AO29" s="114"/>
-      <c r="AP29" s="114"/>
-      <c r="AQ29" s="114"/>
-      <c r="AR29" s="114"/>
-      <c r="AS29" s="114"/>
-      <c r="AT29" s="114"/>
-      <c r="AU29" s="114"/>
-      <c r="AV29" s="114"/>
-      <c r="AW29" s="114"/>
-    </row>
-    <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="112"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="112"/>
+      <c r="R29" s="112"/>
+      <c r="S29" s="104"/>
+      <c r="T29" s="104"/>
+      <c r="U29" s="104"/>
+      <c r="V29" s="110"/>
+      <c r="W29" s="110"/>
+      <c r="X29" s="110"/>
+      <c r="Y29" s="110"/>
+      <c r="Z29" s="110"/>
+      <c r="AA29" s="110"/>
+      <c r="AB29" s="110"/>
+      <c r="AC29" s="110"/>
+      <c r="AD29" s="110"/>
+      <c r="AE29" s="110"/>
+      <c r="AF29" s="110"/>
+      <c r="AG29" s="110"/>
+      <c r="AH29" s="110"/>
+      <c r="AI29" s="110"/>
+      <c r="AJ29" s="110"/>
+      <c r="AK29" s="110"/>
+      <c r="AL29" s="110"/>
+      <c r="AM29" s="110"/>
+      <c r="AN29" s="104"/>
+      <c r="AO29" s="104"/>
+      <c r="AP29" s="104"/>
+      <c r="AQ29" s="104"/>
+      <c r="AR29" s="104"/>
+      <c r="AS29" s="104"/>
+      <c r="AT29" s="104"/>
+      <c r="AU29" s="104"/>
+      <c r="AV29" s="104"/>
+      <c r="AW29" s="104"/>
+    </row>
+    <row r="30" spans="1:49" ht="15">
       <c r="A30" s="56"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="117"/>
-      <c r="L30" s="117"/>
-      <c r="M30" s="123"/>
-      <c r="N30" s="120"/>
-      <c r="O30" s="120"/>
-      <c r="P30" s="120"/>
-      <c r="Q30" s="120"/>
-      <c r="R30" s="120"/>
-      <c r="S30" s="114"/>
-      <c r="T30" s="114"/>
-      <c r="U30" s="114"/>
-      <c r="V30" s="121"/>
-      <c r="W30" s="121"/>
-      <c r="X30" s="121"/>
-      <c r="Y30" s="121"/>
-      <c r="Z30" s="121"/>
-      <c r="AA30" s="121"/>
-      <c r="AB30" s="121"/>
-      <c r="AC30" s="121"/>
-      <c r="AD30" s="121"/>
-      <c r="AE30" s="121"/>
-      <c r="AF30" s="121"/>
-      <c r="AG30" s="121"/>
-      <c r="AH30" s="121"/>
-      <c r="AI30" s="121"/>
-      <c r="AJ30" s="121"/>
-      <c r="AK30" s="121"/>
-      <c r="AL30" s="121"/>
-      <c r="AM30" s="121"/>
-      <c r="AN30" s="114"/>
-      <c r="AO30" s="114"/>
-      <c r="AP30" s="114"/>
-      <c r="AQ30" s="114"/>
-      <c r="AR30" s="114"/>
-      <c r="AS30" s="114"/>
-      <c r="AT30" s="114"/>
-      <c r="AU30" s="114"/>
-      <c r="AV30" s="114"/>
-      <c r="AW30" s="114"/>
-    </row>
-    <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="105"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="112"/>
+      <c r="O30" s="112"/>
+      <c r="P30" s="112"/>
+      <c r="Q30" s="112"/>
+      <c r="R30" s="112"/>
+      <c r="S30" s="104"/>
+      <c r="T30" s="104"/>
+      <c r="U30" s="104"/>
+      <c r="V30" s="110"/>
+      <c r="W30" s="110"/>
+      <c r="X30" s="110"/>
+      <c r="Y30" s="110"/>
+      <c r="Z30" s="110"/>
+      <c r="AA30" s="110"/>
+      <c r="AB30" s="110"/>
+      <c r="AC30" s="110"/>
+      <c r="AD30" s="110"/>
+      <c r="AE30" s="110"/>
+      <c r="AF30" s="110"/>
+      <c r="AG30" s="110"/>
+      <c r="AH30" s="110"/>
+      <c r="AI30" s="110"/>
+      <c r="AJ30" s="110"/>
+      <c r="AK30" s="110"/>
+      <c r="AL30" s="110"/>
+      <c r="AM30" s="110"/>
+      <c r="AN30" s="104"/>
+      <c r="AO30" s="104"/>
+      <c r="AP30" s="104"/>
+      <c r="AQ30" s="104"/>
+      <c r="AR30" s="104"/>
+      <c r="AS30" s="104"/>
+      <c r="AT30" s="104"/>
+      <c r="AU30" s="104"/>
+      <c r="AV30" s="104"/>
+      <c r="AW30" s="104"/>
+    </row>
+    <row r="31" spans="1:49" ht="15">
       <c r="A31" s="56"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="117"/>
-      <c r="L31" s="117"/>
-      <c r="M31" s="123"/>
-      <c r="N31" s="120"/>
-      <c r="O31" s="120"/>
-      <c r="P31" s="120"/>
-      <c r="Q31" s="120"/>
-      <c r="R31" s="120"/>
-      <c r="S31" s="114"/>
-      <c r="T31" s="114"/>
-      <c r="U31" s="114"/>
-      <c r="V31" s="121"/>
-      <c r="W31" s="121"/>
-      <c r="X31" s="121"/>
-      <c r="Y31" s="121"/>
-      <c r="Z31" s="121"/>
-      <c r="AA31" s="121"/>
-      <c r="AB31" s="121"/>
-      <c r="AC31" s="121"/>
-      <c r="AD31" s="121"/>
-      <c r="AE31" s="121"/>
-      <c r="AF31" s="121"/>
-      <c r="AG31" s="121"/>
-      <c r="AH31" s="121"/>
-      <c r="AI31" s="121"/>
-      <c r="AJ31" s="121"/>
-      <c r="AK31" s="121"/>
-      <c r="AL31" s="121"/>
-      <c r="AM31" s="121"/>
-      <c r="AN31" s="114"/>
-      <c r="AO31" s="114"/>
-      <c r="AP31" s="114"/>
-      <c r="AQ31" s="114"/>
-      <c r="AR31" s="114"/>
-      <c r="AS31" s="114"/>
-      <c r="AT31" s="114"/>
-      <c r="AU31" s="114"/>
-      <c r="AV31" s="114"/>
-      <c r="AW31" s="114"/>
-    </row>
-    <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="105"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="107"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="112"/>
+      <c r="Q31" s="112"/>
+      <c r="R31" s="112"/>
+      <c r="S31" s="104"/>
+      <c r="T31" s="104"/>
+      <c r="U31" s="104"/>
+      <c r="V31" s="110"/>
+      <c r="W31" s="110"/>
+      <c r="X31" s="110"/>
+      <c r="Y31" s="110"/>
+      <c r="Z31" s="110"/>
+      <c r="AA31" s="110"/>
+      <c r="AB31" s="110"/>
+      <c r="AC31" s="110"/>
+      <c r="AD31" s="110"/>
+      <c r="AE31" s="110"/>
+      <c r="AF31" s="110"/>
+      <c r="AG31" s="110"/>
+      <c r="AH31" s="110"/>
+      <c r="AI31" s="110"/>
+      <c r="AJ31" s="110"/>
+      <c r="AK31" s="110"/>
+      <c r="AL31" s="110"/>
+      <c r="AM31" s="110"/>
+      <c r="AN31" s="104"/>
+      <c r="AO31" s="104"/>
+      <c r="AP31" s="104"/>
+      <c r="AQ31" s="104"/>
+      <c r="AR31" s="104"/>
+      <c r="AS31" s="104"/>
+      <c r="AT31" s="104"/>
+      <c r="AU31" s="104"/>
+      <c r="AV31" s="104"/>
+      <c r="AW31" s="104"/>
+    </row>
+    <row r="32" spans="1:49" ht="15">
       <c r="A32" s="56"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="117"/>
-      <c r="L32" s="117"/>
-      <c r="M32" s="123"/>
-      <c r="N32" s="120"/>
-      <c r="O32" s="120"/>
-      <c r="P32" s="120"/>
-      <c r="Q32" s="120"/>
-      <c r="R32" s="120"/>
-      <c r="S32" s="114"/>
-      <c r="T32" s="114"/>
-      <c r="U32" s="114"/>
-      <c r="V32" s="121"/>
-      <c r="W32" s="121"/>
-      <c r="X32" s="121"/>
-      <c r="Y32" s="121"/>
-      <c r="Z32" s="121"/>
-      <c r="AA32" s="121"/>
-      <c r="AB32" s="121"/>
-      <c r="AC32" s="121"/>
-      <c r="AD32" s="121"/>
-      <c r="AE32" s="121"/>
-      <c r="AF32" s="121"/>
-      <c r="AG32" s="121"/>
-      <c r="AH32" s="121"/>
-      <c r="AI32" s="121"/>
-      <c r="AJ32" s="121"/>
-      <c r="AK32" s="121"/>
-      <c r="AL32" s="121"/>
-      <c r="AM32" s="121"/>
-      <c r="AN32" s="114"/>
-      <c r="AO32" s="114"/>
-      <c r="AP32" s="114"/>
-      <c r="AQ32" s="114"/>
-      <c r="AR32" s="114"/>
-      <c r="AS32" s="114"/>
-      <c r="AT32" s="114"/>
-      <c r="AU32" s="114"/>
-      <c r="AV32" s="114"/>
-      <c r="AW32" s="114"/>
-    </row>
-    <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="117"/>
-      <c r="L33" s="117"/>
-      <c r="M33" s="123"/>
-      <c r="N33" s="120"/>
-      <c r="O33" s="120"/>
-      <c r="P33" s="120"/>
-      <c r="Q33" s="120"/>
-      <c r="R33" s="120"/>
-      <c r="S33" s="114"/>
-      <c r="T33" s="114"/>
-      <c r="U33" s="114"/>
-      <c r="V33" s="121"/>
-      <c r="W33" s="121"/>
-      <c r="X33" s="121"/>
-      <c r="Y33" s="121"/>
-      <c r="Z33" s="121"/>
-      <c r="AA33" s="121"/>
-      <c r="AB33" s="121"/>
-      <c r="AC33" s="121"/>
-      <c r="AD33" s="121"/>
-      <c r="AE33" s="121"/>
-      <c r="AF33" s="121"/>
-      <c r="AG33" s="121"/>
-      <c r="AH33" s="121"/>
-      <c r="AI33" s="121"/>
-      <c r="AJ33" s="121"/>
-      <c r="AK33" s="121"/>
-      <c r="AL33" s="121"/>
-      <c r="AM33" s="121"/>
-      <c r="AN33" s="114"/>
-      <c r="AO33" s="114"/>
-      <c r="AP33" s="114"/>
-      <c r="AQ33" s="114"/>
-      <c r="AR33" s="114"/>
-      <c r="AS33" s="114"/>
-      <c r="AT33" s="114"/>
-      <c r="AU33" s="114"/>
-      <c r="AV33" s="114"/>
-      <c r="AW33" s="114"/>
-    </row>
-    <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="117"/>
-      <c r="M34" s="127"/>
-      <c r="N34" s="128"/>
-      <c r="O34" s="128"/>
-      <c r="P34" s="128"/>
-      <c r="Q34" s="128"/>
-      <c r="R34" s="128"/>
-      <c r="S34" s="114"/>
-      <c r="T34" s="114"/>
-      <c r="U34" s="114"/>
-      <c r="V34" s="121"/>
-      <c r="W34" s="121"/>
-      <c r="X34" s="121"/>
-      <c r="Y34" s="121"/>
-      <c r="Z34" s="121"/>
-      <c r="AA34" s="121"/>
-      <c r="AB34" s="121"/>
-      <c r="AC34" s="121"/>
-      <c r="AD34" s="121"/>
-      <c r="AE34" s="121"/>
-      <c r="AF34" s="121"/>
-      <c r="AG34" s="121"/>
-      <c r="AH34" s="121"/>
-      <c r="AI34" s="121"/>
-      <c r="AJ34" s="121"/>
-      <c r="AK34" s="121"/>
-      <c r="AL34" s="121"/>
-      <c r="AM34" s="121"/>
-      <c r="AN34" s="114"/>
-      <c r="AO34" s="114"/>
-      <c r="AP34" s="114"/>
-      <c r="AQ34" s="114"/>
-      <c r="AR34" s="114"/>
-      <c r="AS34" s="114"/>
-      <c r="AT34" s="114"/>
-      <c r="AU34" s="114"/>
-      <c r="AV34" s="114"/>
-      <c r="AW34" s="114"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="112"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="112"/>
+      <c r="Q32" s="112"/>
+      <c r="R32" s="112"/>
+      <c r="S32" s="104"/>
+      <c r="T32" s="104"/>
+      <c r="U32" s="104"/>
+      <c r="V32" s="110"/>
+      <c r="W32" s="110"/>
+      <c r="X32" s="110"/>
+      <c r="Y32" s="110"/>
+      <c r="Z32" s="110"/>
+      <c r="AA32" s="110"/>
+      <c r="AB32" s="110"/>
+      <c r="AC32" s="110"/>
+      <c r="AD32" s="110"/>
+      <c r="AE32" s="110"/>
+      <c r="AF32" s="110"/>
+      <c r="AG32" s="110"/>
+      <c r="AH32" s="110"/>
+      <c r="AI32" s="110"/>
+      <c r="AJ32" s="110"/>
+      <c r="AK32" s="110"/>
+      <c r="AL32" s="110"/>
+      <c r="AM32" s="110"/>
+      <c r="AN32" s="104"/>
+      <c r="AO32" s="104"/>
+      <c r="AP32" s="104"/>
+      <c r="AQ32" s="104"/>
+      <c r="AR32" s="104"/>
+      <c r="AS32" s="104"/>
+      <c r="AT32" s="104"/>
+      <c r="AU32" s="104"/>
+      <c r="AV32" s="104"/>
+      <c r="AW32" s="104"/>
+    </row>
+    <row r="33" spans="2:49">
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="107"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="112"/>
+      <c r="O33" s="112"/>
+      <c r="P33" s="112"/>
+      <c r="Q33" s="112"/>
+      <c r="R33" s="112"/>
+      <c r="S33" s="104"/>
+      <c r="T33" s="104"/>
+      <c r="U33" s="104"/>
+      <c r="V33" s="110"/>
+      <c r="W33" s="110"/>
+      <c r="X33" s="110"/>
+      <c r="Y33" s="110"/>
+      <c r="Z33" s="110"/>
+      <c r="AA33" s="110"/>
+      <c r="AB33" s="110"/>
+      <c r="AC33" s="110"/>
+      <c r="AD33" s="110"/>
+      <c r="AE33" s="110"/>
+      <c r="AF33" s="110"/>
+      <c r="AG33" s="110"/>
+      <c r="AH33" s="110"/>
+      <c r="AI33" s="110"/>
+      <c r="AJ33" s="110"/>
+      <c r="AK33" s="110"/>
+      <c r="AL33" s="110"/>
+      <c r="AM33" s="110"/>
+      <c r="AN33" s="104"/>
+      <c r="AO33" s="104"/>
+      <c r="AP33" s="104"/>
+      <c r="AQ33" s="104"/>
+      <c r="AR33" s="104"/>
+      <c r="AS33" s="104"/>
+      <c r="AT33" s="104"/>
+      <c r="AU33" s="104"/>
+      <c r="AV33" s="104"/>
+      <c r="AW33" s="104"/>
+    </row>
+    <row r="34" spans="2:49">
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="107"/>
+      <c r="L34" s="107"/>
+      <c r="M34" s="108"/>
+      <c r="N34" s="109"/>
+      <c r="O34" s="109"/>
+      <c r="P34" s="109"/>
+      <c r="Q34" s="109"/>
+      <c r="R34" s="109"/>
+      <c r="S34" s="104"/>
+      <c r="T34" s="104"/>
+      <c r="U34" s="104"/>
+      <c r="V34" s="110"/>
+      <c r="W34" s="110"/>
+      <c r="X34" s="110"/>
+      <c r="Y34" s="110"/>
+      <c r="Z34" s="110"/>
+      <c r="AA34" s="110"/>
+      <c r="AB34" s="110"/>
+      <c r="AC34" s="110"/>
+      <c r="AD34" s="110"/>
+      <c r="AE34" s="110"/>
+      <c r="AF34" s="110"/>
+      <c r="AG34" s="110"/>
+      <c r="AH34" s="110"/>
+      <c r="AI34" s="110"/>
+      <c r="AJ34" s="110"/>
+      <c r="AK34" s="110"/>
+      <c r="AL34" s="110"/>
+      <c r="AM34" s="110"/>
+      <c r="AN34" s="104"/>
+      <c r="AO34" s="104"/>
+      <c r="AP34" s="104"/>
+      <c r="AQ34" s="104"/>
+      <c r="AR34" s="104"/>
+      <c r="AS34" s="104"/>
+      <c r="AT34" s="104"/>
+      <c r="AU34" s="104"/>
+      <c r="AV34" s="104"/>
+      <c r="AW34" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -5750,239 +6027,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6003,16 +6047,16 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="3.125" style="30"/>
-    <col min="3" max="3" width="3.125" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="53" width="3.125" style="30"/>
+    <col min="1" max="2" width="3.109375" style="30"/>
+    <col min="3" max="3" width="3.109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="53" width="3.109375" style="30"/>
     <col min="54" max="54" width="2" style="30" customWidth="1"/>
-    <col min="55" max="16384" width="3.125" style="30"/>
+    <col min="55" max="16384" width="3.109375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:59" ht="16.2">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -6063,14 +6107,14 @@
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
-      <c r="AO1" s="138">
+      <c r="AO1" s="134">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
-      <c r="AP1" s="139"/>
-      <c r="AQ1" s="139"/>
-      <c r="AR1" s="139"/>
-      <c r="AS1" s="140"/>
+      <c r="AP1" s="135"/>
+      <c r="AQ1" s="135"/>
+      <c r="AR1" s="135"/>
+      <c r="AS1" s="136"/>
       <c r="AT1" s="33" t="s">
         <v>24</v>
       </c>
@@ -6079,19 +6123,19 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="135" t="str">
+      <c r="AZ1" s="129" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="BA1" s="136"/>
-      <c r="BB1" s="136"/>
-      <c r="BC1" s="136"/>
-      <c r="BD1" s="136"/>
-      <c r="BE1" s="136"/>
-      <c r="BF1" s="136"/>
-      <c r="BG1" s="137"/>
-    </row>
-    <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="BA1" s="130"/>
+      <c r="BB1" s="130"/>
+      <c r="BC1" s="130"/>
+      <c r="BD1" s="130"/>
+      <c r="BE1" s="130"/>
+      <c r="BF1" s="130"/>
+      <c r="BG1" s="131"/>
+    </row>
+    <row r="2" spans="1:59" ht="16.2">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -6142,11 +6186,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="138"/>
-      <c r="AP2" s="139"/>
-      <c r="AQ2" s="139"/>
-      <c r="AR2" s="139"/>
-      <c r="AS2" s="140"/>
+      <c r="AO2" s="134"/>
+      <c r="AP2" s="135"/>
+      <c r="AQ2" s="135"/>
+      <c r="AR2" s="135"/>
+      <c r="AS2" s="136"/>
       <c r="AT2" s="33" t="s">
         <v>25</v>
       </c>
@@ -6155,16 +6199,16 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="135"/>
-      <c r="BA2" s="136"/>
-      <c r="BB2" s="136"/>
-      <c r="BC2" s="136"/>
-      <c r="BD2" s="136"/>
-      <c r="BE2" s="136"/>
-      <c r="BF2" s="136"/>
-      <c r="BG2" s="137"/>
-    </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.15">
+      <c r="AZ2" s="129"/>
+      <c r="BA2" s="130"/>
+      <c r="BB2" s="130"/>
+      <c r="BC2" s="130"/>
+      <c r="BD2" s="130"/>
+      <c r="BE2" s="130"/>
+      <c r="BF2" s="130"/>
+      <c r="BG2" s="131"/>
+    </row>
+    <row r="3" spans="1:59">
       <c r="A3" s="32"/>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -6225,23 +6269,23 @@
       <c r="BF3" s="32"/>
       <c r="BG3" s="32"/>
     </row>
-    <row r="4" spans="1:59" s="32" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:59" s="32" customFormat="1" ht="18.600000000000001">
       <c r="A4" s="29" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:59" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:59" s="32" customFormat="1" ht="16.2">
       <c r="B5" s="41"/>
     </row>
-    <row r="6" spans="1:59" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:59" s="28" customFormat="1" ht="16.2">
       <c r="A6" s="31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:59" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:59" s="32" customFormat="1" ht="16.2">
       <c r="B7" s="41"/>
     </row>
-    <row r="8" spans="1:59" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:59" s="32" customFormat="1" ht="16.2">
       <c r="B8" s="79" t="s">
         <v>113</v>
       </c>
@@ -6289,7 +6333,7 @@
       <c r="AR8" s="80"/>
       <c r="AS8" s="80"/>
     </row>
-    <row r="9" spans="1:59" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:59" s="32" customFormat="1" ht="16.2">
       <c r="B9" s="79"/>
       <c r="C9" s="79"/>
       <c r="D9" s="80"/>
@@ -6335,13 +6379,13 @@
       <c r="AR9" s="80"/>
       <c r="AS9" s="80"/>
     </row>
-    <row r="10" spans="1:59" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:59" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:59" s="32" customFormat="1"/>
+    <row r="11" spans="1:59" s="32" customFormat="1" ht="16.2">
       <c r="A11" s="31" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:59" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:59" s="10" customFormat="1" ht="12">
       <c r="G12" s="9"/>
       <c r="H12" s="11"/>
       <c r="I12" s="9"/>
@@ -6384,7 +6428,7 @@
       <c r="BA12" s="9"/>
       <c r="BB12" s="9"/>
     </row>
-    <row r="13" spans="1:59" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:59" s="10" customFormat="1" ht="12">
       <c r="G13" s="9"/>
       <c r="H13" s="11"/>
       <c r="I13" s="9"/>
@@ -6428,7 +6472,7 @@
       <c r="BA13" s="9"/>
       <c r="BB13" s="9"/>
     </row>
-    <row r="14" spans="1:59" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:59" s="10" customFormat="1" ht="12">
       <c r="G14" s="9"/>
       <c r="H14" s="11"/>
       <c r="I14" s="9"/>
@@ -6472,7 +6516,7 @@
       <c r="BA14" s="9"/>
       <c r="BB14" s="9"/>
     </row>
-    <row r="15" spans="1:59" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:59" s="10" customFormat="1" ht="12">
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
@@ -6510,7 +6554,7 @@
       <c r="BA15" s="9"/>
       <c r="BB15" s="9"/>
     </row>
-    <row r="16" spans="1:59" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:59" s="10" customFormat="1" ht="12">
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
@@ -6548,7 +6592,7 @@
       <c r="BA16" s="9"/>
       <c r="BB16" s="9"/>
     </row>
-    <row r="17" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="17" spans="7:54" s="10" customFormat="1" ht="12">
       <c r="M17" s="9"/>
       <c r="N17" s="12"/>
       <c r="O17" s="9"/>
@@ -6592,7 +6636,7 @@
       <c r="BA17" s="9"/>
       <c r="BB17" s="9"/>
     </row>
-    <row r="18" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="18" spans="7:54" s="10" customFormat="1" ht="12">
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="13"/>
@@ -6615,7 +6659,7 @@
       <c r="BA18" s="9"/>
       <c r="BB18" s="9"/>
     </row>
-    <row r="19" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="19" spans="7:54" s="10" customFormat="1" ht="12">
       <c r="I19" s="9"/>
       <c r="M19" s="9"/>
       <c r="O19" s="11"/>
@@ -6659,7 +6703,7 @@
       <c r="BA19" s="9"/>
       <c r="BB19" s="9"/>
     </row>
-    <row r="20" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="20" spans="7:54" s="10" customFormat="1" ht="12">
       <c r="L20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -6680,7 +6724,7 @@
       <c r="BA20" s="9"/>
       <c r="BB20" s="9"/>
     </row>
-    <row r="21" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="21" spans="7:54" s="10" customFormat="1" ht="12">
       <c r="J21" s="91"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
@@ -6704,7 +6748,7 @@
       <c r="BA21" s="9"/>
       <c r="BB21" s="9"/>
     </row>
-    <row r="22" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="22" spans="7:54" s="10" customFormat="1" ht="12">
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="N22" s="9"/>
@@ -6726,7 +6770,7 @@
       <c r="BA22" s="9"/>
       <c r="BB22" s="9"/>
     </row>
-    <row r="23" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="23" spans="7:54" s="10" customFormat="1" ht="12">
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -6763,7 +6807,7 @@
       <c r="BA23" s="9"/>
       <c r="BB23" s="9"/>
     </row>
-    <row r="24" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="24" spans="7:54" s="10" customFormat="1" ht="12">
       <c r="M24" s="11"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
@@ -6801,7 +6845,7 @@
       <c r="BA24" s="9"/>
       <c r="BB24" s="9"/>
     </row>
-    <row r="25" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="25" spans="7:54" s="10" customFormat="1" ht="12">
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
@@ -6839,7 +6883,7 @@
       <c r="BA25" s="9"/>
       <c r="BB25" s="9"/>
     </row>
-    <row r="26" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="26" spans="7:54" s="10" customFormat="1" ht="12">
       <c r="G26" s="9"/>
       <c r="I26" s="9"/>
       <c r="K26" s="9"/>
@@ -6880,7 +6924,7 @@
       <c r="BA26" s="9"/>
       <c r="BB26" s="9"/>
     </row>
-    <row r="27" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="27" spans="7:54" s="10" customFormat="1" ht="12">
       <c r="G27" s="9"/>
       <c r="I27" s="9"/>
       <c r="K27" s="9"/>
@@ -6922,7 +6966,7 @@
       <c r="BA27" s="9"/>
       <c r="BB27" s="9"/>
     </row>
-    <row r="28" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="28" spans="7:54" s="10" customFormat="1" ht="12">
       <c r="G28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -6965,7 +7009,7 @@
       <c r="BA28" s="9"/>
       <c r="BB28" s="9"/>
     </row>
-    <row r="29" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="29" spans="7:54" s="10" customFormat="1" ht="12">
       <c r="G29" s="9"/>
       <c r="M29" s="9"/>
       <c r="O29" s="9"/>
@@ -7003,7 +7047,7 @@
       <c r="BA29" s="9"/>
       <c r="BB29" s="9"/>
     </row>
-    <row r="30" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="30" spans="7:54" s="10" customFormat="1" ht="12">
       <c r="G30" s="9"/>
       <c r="J30" s="9"/>
       <c r="M30" s="9"/>
@@ -7046,7 +7090,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="31" spans="7:54" s="10" customFormat="1" ht="12">
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="J31" s="9"/>
@@ -7088,7 +7132,7 @@
       <c r="BA31" s="9"/>
       <c r="BB31" s="9"/>
     </row>
-    <row r="32" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="32" spans="7:54" s="10" customFormat="1" ht="12">
       <c r="L32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
@@ -7114,7 +7158,7 @@
       <c r="BA32" s="9"/>
       <c r="BB32" s="9"/>
     </row>
-    <row r="33" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:66" s="10" customFormat="1" ht="12">
       <c r="L33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
@@ -7135,7 +7179,7 @@
       <c r="BA33" s="9"/>
       <c r="BB33" s="9"/>
     </row>
-    <row r="34" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:66" s="10" customFormat="1" ht="12">
       <c r="L34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
@@ -7156,7 +7200,7 @@
       <c r="BA34" s="9"/>
       <c r="BB34" s="9"/>
     </row>
-    <row r="35" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:66" s="10" customFormat="1" ht="12">
       <c r="L35" s="9"/>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
@@ -7177,7 +7221,7 @@
       <c r="BA35" s="9"/>
       <c r="BB35" s="9"/>
     </row>
-    <row r="36" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:66" s="10" customFormat="1" ht="12">
       <c r="L36" s="9" t="s">
         <v>110</v>
       </c>
@@ -7203,7 +7247,7 @@
       <c r="BA36" s="9"/>
       <c r="BB36" s="9"/>
     </row>
-    <row r="37" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:66" s="10" customFormat="1" ht="12">
       <c r="L37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
@@ -7224,7 +7268,7 @@
       <c r="BA37" s="9"/>
       <c r="BB37" s="9"/>
     </row>
-    <row r="38" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:66" s="10" customFormat="1" ht="12">
       <c r="L38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
@@ -7245,7 +7289,7 @@
       <c r="BA38" s="9"/>
       <c r="BB38" s="9"/>
     </row>
-    <row r="39" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:66" ht="15" customHeight="1">
       <c r="A39" s="31" t="s">
         <v>89</v>
       </c>
@@ -7313,7 +7357,7 @@
       <c r="BK39" s="32"/>
       <c r="BL39" s="32"/>
     </row>
-    <row r="40" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:66">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -7379,12 +7423,12 @@
       <c r="BK40" s="32"/>
       <c r="BL40" s="32"/>
     </row>
-    <row r="41" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:66">
       <c r="A41" s="28"/>
-      <c r="B41" s="129" t="s">
+      <c r="B41" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="130"/>
+      <c r="C41" s="138"/>
       <c r="D41" s="88" t="s">
         <v>79</v>
       </c>
@@ -7465,12 +7509,12 @@
       <c r="BM41" s="32"/>
       <c r="BN41" s="32"/>
     </row>
-    <row r="42" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:66">
       <c r="A42" s="28"/>
-      <c r="B42" s="131">
+      <c r="B42" s="139">
         <v>1</v>
       </c>
-      <c r="C42" s="132"/>
+      <c r="C42" s="140"/>
       <c r="D42" s="93" t="s">
         <v>94</v>
       </c>
@@ -7502,16 +7546,16 @@
       <c r="AB42" s="86"/>
       <c r="AC42" s="86"/>
       <c r="AD42" s="87"/>
-      <c r="AE42" s="133" t="s">
+      <c r="AE42" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="AF42" s="134"/>
-      <c r="AG42" s="133"/>
-      <c r="AH42" s="134"/>
-      <c r="AI42" s="133"/>
-      <c r="AJ42" s="134"/>
-      <c r="AK42" s="133"/>
-      <c r="AL42" s="134"/>
+      <c r="AF42" s="133"/>
+      <c r="AG42" s="132"/>
+      <c r="AH42" s="133"/>
+      <c r="AI42" s="132"/>
+      <c r="AJ42" s="133"/>
+      <c r="AK42" s="132"/>
+      <c r="AL42" s="133"/>
       <c r="AM42" s="83" t="s">
         <v>109</v>
       </c>
@@ -7543,12 +7587,12 @@
       <c r="BM42" s="32"/>
       <c r="BN42" s="32"/>
     </row>
-    <row r="43" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:66">
       <c r="A43" s="28"/>
-      <c r="B43" s="131">
+      <c r="B43" s="139">
         <v>2</v>
       </c>
-      <c r="C43" s="132"/>
+      <c r="C43" s="140"/>
       <c r="D43" s="82" t="s">
         <v>107</v>
       </c>
@@ -7580,16 +7624,16 @@
       <c r="AB43" s="86"/>
       <c r="AC43" s="86"/>
       <c r="AD43" s="87"/>
-      <c r="AE43" s="133" t="s">
+      <c r="AE43" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="AF43" s="134"/>
-      <c r="AG43" s="133"/>
-      <c r="AH43" s="134"/>
-      <c r="AI43" s="133"/>
-      <c r="AJ43" s="134"/>
-      <c r="AK43" s="133"/>
-      <c r="AL43" s="134"/>
+      <c r="AF43" s="133"/>
+      <c r="AG43" s="132"/>
+      <c r="AH43" s="133"/>
+      <c r="AI43" s="132"/>
+      <c r="AJ43" s="133"/>
+      <c r="AK43" s="132"/>
+      <c r="AL43" s="133"/>
       <c r="AM43" s="83" t="s">
         <v>108</v>
       </c>
@@ -7621,13 +7665,18 @@
       <c r="BM43" s="32"/>
       <c r="BN43" s="32"/>
     </row>
-    <row r="44" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:66">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AE43:AF43"/>
     <mergeCell ref="AZ1:BG1"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK43:AL43"/>
@@ -7638,16 +7687,11 @@
     <mergeCell ref="AI43:AJ43"/>
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AE43:AF43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
@@ -7666,15 +7710,15 @@
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A1:XFD4"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="1.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="1.625" style="53"/>
+    <col min="1" max="16384" width="1.6640625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:113" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -7766,7 +7810,7 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="138">
+      <c r="CD1" s="134">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
@@ -7788,7 +7832,7 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="135" t="str">
+      <c r="CU1" s="129" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -7806,7 +7850,7 @@
       <c r="DG1" s="141"/>
       <c r="DH1" s="142"/>
     </row>
-    <row r="2" spans="1:113" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:113" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -7919,7 +7963,7 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="135"/>
+      <c r="CU2" s="129"/>
       <c r="CV2" s="141"/>
       <c r="CW2" s="141"/>
       <c r="CX2" s="141"/>
@@ -7934,7 +7978,7 @@
       <c r="DG2" s="141"/>
       <c r="DH2" s="142"/>
     </row>
-    <row r="3" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:113">
       <c r="AU3" s="54"/>
       <c r="AV3" s="54"/>
       <c r="AW3" s="54"/>
@@ -7980,13 +8024,13 @@
       <c r="DH3" s="54"/>
       <c r="DI3" s="54"/>
     </row>
-    <row r="4" spans="1:113" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:113" s="32" customFormat="1" ht="22.8">
       <c r="A4" s="29" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="27"/>
     </row>
-    <row r="5" spans="1:113" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:113" ht="16.2">
       <c r="B5" s="31"/>
     </row>
   </sheetData>
@@ -8022,28 +8066,28 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="2.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="3.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="34.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="4.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="18.875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="18.125" style="6" customWidth="1"/>
+    <col min="1" max="2" width="2.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="4.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.88671875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" style="6" customWidth="1"/>
     <col min="14" max="14" width="24" style="5" customWidth="1"/>
-    <col min="15" max="15" width="29.5" style="5" customWidth="1"/>
-    <col min="16" max="16" width="38.5" style="5" customWidth="1"/>
-    <col min="17" max="17" width="40.875" style="6" customWidth="1"/>
-    <col min="18" max="18" width="2.25" style="5" customWidth="1"/>
+    <col min="15" max="15" width="29.44140625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="38.44140625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="40.88671875" style="6" customWidth="1"/>
+    <col min="18" max="18" width="2.21875" style="5" customWidth="1"/>
     <col min="19" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="23.25" customHeight="1">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -8081,7 +8125,7 @@
       <c r="Q1" s="23"/>
       <c r="R1" s="23"/>
     </row>
-    <row r="2" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="23.25" customHeight="1">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -8115,57 +8159,57 @@
       <c r="Q2" s="23"/>
       <c r="R2" s="23"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:18" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" s="32" customFormat="1" ht="22.8">
       <c r="A4" s="29" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
     </row>
-    <row r="5" spans="1:18" ht="19.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" ht="18.600000000000001">
       <c r="A5" s="29"/>
       <c r="B5" s="31" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="18.75" customHeight="1">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="106" t="s">
+      <c r="D6" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="106" t="s">
+      <c r="E6" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="106" t="s">
+      <c r="F6" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="106" t="s">
+      <c r="G6" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="106" t="s">
+      <c r="H6" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="147" t="s">
+      <c r="I6" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="147" t="s">
+      <c r="J6" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="106" t="s">
+      <c r="K6" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="106" t="s">
+      <c r="L6" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="106" t="s">
+      <c r="M6" s="121" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -8173,24 +8217,24 @@
       </c>
       <c r="O6" s="68"/>
       <c r="P6" s="68"/>
-      <c r="Q6" s="147" t="s">
+      <c r="Q6" s="149" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" ht="15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -8200,9 +8244,9 @@
       <c r="P7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="147"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="Q7" s="149"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="7">
@@ -8249,50 +8293,50 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
     </row>
-    <row r="10" spans="1:18" ht="19.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="18.600000000000001">
       <c r="A10" s="29"/>
       <c r="B10" s="31" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" ht="18.75" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="106" t="s">
+      <c r="D11" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="106" t="s">
+      <c r="E11" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="106" t="s">
+      <c r="F11" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="106" t="s">
+      <c r="G11" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="106" t="s">
+      <c r="H11" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="148" t="s">
+      <c r="I11" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="147" t="s">
+      <c r="J11" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="106" t="s">
+      <c r="K11" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="106" t="s">
+      <c r="L11" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="106" t="s">
+      <c r="M11" s="121" t="s">
         <v>32</v>
       </c>
       <c r="N11" s="68" t="s">
@@ -8300,24 +8344,24 @@
       </c>
       <c r="O11" s="68"/>
       <c r="P11" s="68"/>
-      <c r="Q11" s="148" t="s">
+      <c r="Q11" s="147" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" ht="15">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="149"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
       <c r="N12" s="42" t="s">
         <v>64</v>
       </c>
@@ -8327,9 +8371,9 @@
       <c r="P12" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="149"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="Q12" s="148"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="7">
@@ -8378,7 +8422,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="7">
@@ -8427,61 +8471,61 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18">
       <c r="C15" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
     </row>
-    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="16.2">
       <c r="A17" s="14"/>
       <c r="B17" s="31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" ht="16.2">
       <c r="A18" s="14"/>
       <c r="B18" s="31" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="18.75" customHeight="1">
       <c r="A19" s="14"/>
       <c r="B19" s="60"/>
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="106" t="s">
+      <c r="D19" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="106" t="s">
+      <c r="E19" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="106" t="s">
+      <c r="F19" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="106" t="s">
+      <c r="G19" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="106" t="s">
+      <c r="H19" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="147" t="s">
+      <c r="I19" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="147" t="s">
+      <c r="J19" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="106" t="s">
+      <c r="K19" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="106" t="s">
+      <c r="L19" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="106" t="s">
+      <c r="M19" s="121" t="s">
         <v>32</v>
       </c>
       <c r="N19" s="68" t="s">
@@ -8489,24 +8533,24 @@
       </c>
       <c r="O19" s="68"/>
       <c r="P19" s="68"/>
-      <c r="Q19" s="147" t="s">
+      <c r="Q19" s="149" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="16.2">
       <c r="A20" s="14"/>
       <c r="B20" s="60"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="149"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="121"/>
       <c r="N20" s="42" t="s">
         <v>64</v>
       </c>
@@ -8516,9 +8560,9 @@
       <c r="P20" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q20" s="147"/>
-    </row>
-    <row r="21" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="Q20" s="149"/>
+    </row>
+    <row r="21" spans="1:17" s="49" customFormat="1" ht="16.2">
       <c r="A21" s="55"/>
       <c r="B21" s="61"/>
       <c r="C21" s="44" t="s">
@@ -8539,7 +8583,7 @@
       <c r="P21" s="46"/>
       <c r="Q21" s="48"/>
     </row>
-    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="16.2">
       <c r="A22" s="14"/>
       <c r="B22" s="60"/>
       <c r="C22" s="7">
@@ -8588,7 +8632,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="16.2">
       <c r="A23" s="14"/>
       <c r="B23" s="60"/>
       <c r="C23" s="7">
@@ -8637,7 +8681,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="16.2">
       <c r="A24" s="14"/>
       <c r="B24" s="60"/>
       <c r="C24" s="7">
@@ -8686,7 +8730,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="16.2">
       <c r="A25" s="14"/>
       <c r="B25" s="60"/>
       <c r="C25" s="7">
@@ -8735,11 +8779,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" ht="16.2">
       <c r="A26" s="14"/>
       <c r="B26" s="60"/>
     </row>
-    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" ht="16.2">
       <c r="A27" s="14"/>
       <c r="B27" s="60"/>
       <c r="C27" s="81"/>
@@ -8747,11 +8791,11 @@
       <c r="E27" s="81"/>
       <c r="F27" s="81"/>
     </row>
-    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" ht="16.2">
       <c r="A28" s="14"/>
       <c r="B28" s="60"/>
     </row>
-    <row r="29" spans="1:17" s="50" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" s="50" customFormat="1" ht="16.2">
       <c r="B29" s="62"/>
       <c r="C29" s="81"/>
       <c r="D29" s="81"/>
@@ -8762,6 +8806,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="I19:I20"/>
@@ -8778,26 +8842,6 @@
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="M19:M20"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -8824,12 +8868,12 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="4.125" style="49"/>
+    <col min="1" max="16384" width="4.109375" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -8874,7 +8918,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="138">
+      <c r="AI1" s="134">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
@@ -8890,7 +8934,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="135" t="str">
+      <c r="AT1" s="129" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -8901,7 +8945,7 @@
       <c r="AY1" s="141"/>
       <c r="AZ1" s="142"/>
     </row>
-    <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -8961,7 +9005,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="135"/>
+      <c r="AT2" s="129"/>
       <c r="AU2" s="141"/>
       <c r="AV2" s="141"/>
       <c r="AW2" s="141"/>
@@ -8969,7 +9013,7 @@
       <c r="AY2" s="141"/>
       <c r="AZ2" s="142"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:52">
       <c r="A3" s="59"/>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -9023,7 +9067,7 @@
       <c r="AY3" s="59"/>
       <c r="AZ3" s="59"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52">
       <c r="A4" s="55"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -9077,16 +9121,16 @@
       <c r="AY4" s="55"/>
       <c r="AZ4" s="55"/>
     </row>
-    <row r="5" spans="1:52" s="16" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52" s="16" customFormat="1" ht="18.600000000000001">
       <c r="A5" s="29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:52" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:52" s="16" customFormat="1" ht="16.2">
       <c r="A6" s="63"/>
       <c r="B6" s="31"/>
     </row>
-    <row r="7" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:52" s="16" customFormat="1" ht="15">
       <c r="B7" s="17" t="s">
         <v>61</v>
       </c>
@@ -9143,7 +9187,7 @@
       <c r="AU7" s="18"/>
       <c r="AV7" s="19"/>
     </row>
-    <row r="8" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:52" s="16" customFormat="1" ht="15">
       <c r="B8" s="20">
         <v>1</v>
       </c>
@@ -9200,7 +9244,7 @@
       <c r="AU8" s="21"/>
       <c r="AV8" s="22"/>
     </row>
-    <row r="9" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:52" s="16" customFormat="1" ht="15">
       <c r="B9" s="71"/>
       <c r="C9" s="71"/>
       <c r="D9" s="23"/>
@@ -9251,7 +9295,7 @@
       <c r="AU9" s="23"/>
       <c r="AV9" s="72"/>
     </row>
-    <row r="10" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" s="16" customFormat="1" ht="15">
       <c r="B10" s="71"/>
       <c r="C10" s="71"/>
       <c r="D10" s="23"/>
@@ -9300,7 +9344,7 @@
       <c r="AU10" s="23"/>
       <c r="AV10" s="72"/>
     </row>
-    <row r="11" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52" s="16" customFormat="1" ht="15">
       <c r="B11" s="71"/>
       <c r="C11" s="71"/>
       <c r="F11" s="72"/>
@@ -9321,7 +9365,7 @@
       <c r="W11" s="94"/>
       <c r="AV11" s="72"/>
     </row>
-    <row r="12" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52" s="16" customFormat="1" ht="15">
       <c r="B12" s="71"/>
       <c r="C12" s="71"/>
       <c r="F12" s="72"/>
@@ -9341,7 +9385,7 @@
       <c r="W12" s="94"/>
       <c r="AV12" s="72"/>
     </row>
-    <row r="13" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52" s="16" customFormat="1" ht="15">
       <c r="B13" s="71"/>
       <c r="C13" s="71"/>
       <c r="F13" s="72"/>
@@ -9361,7 +9405,7 @@
       <c r="W13" s="94"/>
       <c r="AV13" s="72"/>
     </row>
-    <row r="14" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52" s="16" customFormat="1" ht="15">
       <c r="B14" s="71"/>
       <c r="C14" s="71"/>
       <c r="F14" s="72"/>
@@ -9381,7 +9425,7 @@
       <c r="W14" s="94"/>
       <c r="AV14" s="72"/>
     </row>
-    <row r="15" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52" s="16" customFormat="1" ht="15">
       <c r="B15" s="71"/>
       <c r="C15" s="71"/>
       <c r="F15" s="72"/>
@@ -9399,7 +9443,7 @@
       <c r="W15" s="94"/>
       <c r="AV15" s="72"/>
     </row>
-    <row r="16" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52" s="16" customFormat="1" ht="15">
       <c r="B16" s="71"/>
       <c r="C16" s="71"/>
       <c r="F16" s="72"/>
@@ -9420,7 +9464,7 @@
       <c r="W16" s="94"/>
       <c r="AV16" s="72"/>
     </row>
-    <row r="17" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:48" s="16" customFormat="1" ht="15">
       <c r="B17" s="71"/>
       <c r="C17" s="71"/>
       <c r="F17" s="72"/>
@@ -9440,7 +9484,7 @@
       <c r="W17" s="94"/>
       <c r="AV17" s="72"/>
     </row>
-    <row r="18" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:48" s="16" customFormat="1" ht="15">
       <c r="B18" s="71"/>
       <c r="C18" s="71"/>
       <c r="F18" s="72"/>
@@ -9460,7 +9504,7 @@
       <c r="W18" s="94"/>
       <c r="AV18" s="72"/>
     </row>
-    <row r="19" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:48" s="16" customFormat="1" ht="15">
       <c r="B19" s="71"/>
       <c r="C19" s="71"/>
       <c r="F19" s="72"/>
@@ -9480,7 +9524,7 @@
       <c r="W19" s="94"/>
       <c r="AV19" s="72"/>
     </row>
-    <row r="20" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:48" s="16" customFormat="1" ht="15">
       <c r="B20" s="71"/>
       <c r="C20" s="71"/>
       <c r="D20" s="23"/>
@@ -9512,7 +9556,7 @@
       <c r="AU20" s="23"/>
       <c r="AV20" s="72"/>
     </row>
-    <row r="21" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:48" s="16" customFormat="1" ht="15">
       <c r="B21" s="71"/>
       <c r="C21" s="71"/>
       <c r="D21" s="23"/>
@@ -9563,7 +9607,7 @@
       <c r="AU21" s="23"/>
       <c r="AV21" s="72"/>
     </row>
-    <row r="22" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:48" s="16" customFormat="1" ht="15">
       <c r="B22" s="71"/>
       <c r="C22" s="71"/>
       <c r="F22" s="72"/>
@@ -9591,7 +9635,7 @@
       <c r="AB22" s="94"/>
       <c r="AV22" s="72"/>
     </row>
-    <row r="23" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:48" s="16" customFormat="1" ht="15">
       <c r="B23" s="71"/>
       <c r="C23" s="71"/>
       <c r="D23" s="23"/>
@@ -9643,7 +9687,7 @@
       <c r="AU23" s="23"/>
       <c r="AV23" s="72"/>
     </row>
-    <row r="24" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:48" s="16" customFormat="1" ht="15">
       <c r="B24" s="71"/>
       <c r="C24" s="71"/>
       <c r="D24" s="23"/>
@@ -9695,7 +9739,7 @@
       <c r="AU24" s="23"/>
       <c r="AV24" s="72"/>
     </row>
-    <row r="25" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:48" s="16" customFormat="1" ht="15">
       <c r="B25" s="71"/>
       <c r="C25" s="71"/>
       <c r="D25" s="23"/>
@@ -9728,7 +9772,7 @@
       <c r="AU25" s="23"/>
       <c r="AV25" s="72"/>
     </row>
-    <row r="26" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:48" s="16" customFormat="1" ht="15">
       <c r="B26" s="71"/>
       <c r="C26" s="71"/>
       <c r="F26" s="72"/>
@@ -9743,7 +9787,7 @@
       <c r="AP26" s="94"/>
       <c r="AV26" s="72"/>
     </row>
-    <row r="27" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:48" s="16" customFormat="1" ht="15">
       <c r="B27" s="71"/>
       <c r="C27" s="71"/>
       <c r="F27" s="72"/>
@@ -9758,7 +9802,7 @@
       <c r="AP27" s="94"/>
       <c r="AV27" s="72"/>
     </row>
-    <row r="28" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:48" s="16" customFormat="1" ht="15">
       <c r="B28" s="71"/>
       <c r="C28" s="71"/>
       <c r="F28" s="72"/>
@@ -9773,7 +9817,7 @@
       <c r="AP28" s="94"/>
       <c r="AV28" s="72"/>
     </row>
-    <row r="29" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:48" s="16" customFormat="1" ht="15">
       <c r="B29" s="71"/>
       <c r="C29" s="71"/>
       <c r="D29" s="23"/>
@@ -9806,7 +9850,7 @@
       <c r="AU29" s="23"/>
       <c r="AV29" s="72"/>
     </row>
-    <row r="30" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:48" s="16" customFormat="1" ht="15">
       <c r="B30" s="71"/>
       <c r="C30" s="71"/>
       <c r="D30" s="23"/>
@@ -9841,7 +9885,7 @@
       <c r="AU30" s="23"/>
       <c r="AV30" s="72"/>
     </row>
-    <row r="31" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:48" s="16" customFormat="1" ht="15">
       <c r="B31" s="71"/>
       <c r="C31" s="71"/>
       <c r="D31" s="23"/>
@@ -9876,7 +9920,7 @@
       <c r="AU31" s="23"/>
       <c r="AV31" s="72"/>
     </row>
-    <row r="32" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:48" s="16" customFormat="1" ht="15">
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
       <c r="D32" s="25"/>
@@ -9925,7 +9969,7 @@
       <c r="AU32" s="25"/>
       <c r="AV32" s="26"/>
     </row>
-    <row r="33" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:52" s="16" customFormat="1" ht="15">
       <c r="B33" s="20">
         <v>2</v>
       </c>
@@ -9982,7 +10026,7 @@
       <c r="AU33" s="21"/>
       <c r="AV33" s="22"/>
     </row>
-    <row r="34" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:52" s="16" customFormat="1" ht="15">
       <c r="B34" s="71"/>
       <c r="C34" s="71"/>
       <c r="D34" s="23"/>
@@ -10033,7 +10077,7 @@
       <c r="AU34" s="23"/>
       <c r="AV34" s="72"/>
     </row>
-    <row r="35" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:52" s="16" customFormat="1" ht="15">
       <c r="B35" s="71"/>
       <c r="C35" s="71"/>
       <c r="D35" s="23"/>
@@ -10082,10 +10126,10 @@
       <c r="AU35" s="25"/>
       <c r="AV35" s="26"/>
     </row>
-    <row r="36" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:52" s="16" customFormat="1" ht="15"/>
+    <row r="37" spans="1:52" s="16" customFormat="1" ht="15"/>
+    <row r="38" spans="1:52" s="16" customFormat="1" ht="15"/>
+    <row r="39" spans="1:52">
       <c r="A39" s="55"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
@@ -10139,7 +10183,7 @@
       <c r="AY39" s="55"/>
       <c r="AZ39" s="55"/>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:52">
       <c r="A40" s="55"/>
       <c r="B40" s="55"/>
       <c r="C40" s="55"/>
@@ -10193,7 +10237,7 @@
       <c r="AY40" s="55"/>
       <c r="AZ40" s="55"/>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:52">
       <c r="A41" s="55"/>
       <c r="B41" s="55"/>
       <c r="C41" s="55"/>
@@ -10247,7 +10291,7 @@
       <c r="AY41" s="55"/>
       <c r="AZ41" s="55"/>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:52">
       <c r="A42" s="55"/>
       <c r="B42" s="55"/>
       <c r="C42" s="55"/>
@@ -10301,7 +10345,7 @@
       <c r="AY42" s="55"/>
       <c r="AZ42" s="55"/>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:52">
       <c r="A43" s="55"/>
       <c r="B43" s="55"/>
       <c r="C43" s="55"/>
@@ -10355,7 +10399,7 @@
       <c r="AY43" s="55"/>
       <c r="AZ43" s="55"/>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:52">
       <c r="A44" s="55"/>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
@@ -10409,7 +10453,7 @@
       <c r="AY44" s="55"/>
       <c r="AZ44" s="55"/>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:52">
       <c r="A45" s="55"/>
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
@@ -10463,7 +10507,7 @@
       <c r="AY45" s="55"/>
       <c r="AZ45" s="55"/>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:52">
       <c r="A46" s="55"/>
       <c r="B46" s="55"/>
       <c r="C46" s="55"/>
@@ -10517,7 +10561,7 @@
       <c r="AY46" s="55"/>
       <c r="AZ46" s="55"/>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:52">
       <c r="A47" s="55"/>
       <c r="B47" s="55"/>
       <c r="C47" s="55"/>
@@ -10571,7 +10615,7 @@
       <c r="AY47" s="55"/>
       <c r="AZ47" s="55"/>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:52">
       <c r="A48" s="55"/>
       <c r="B48" s="55"/>
       <c r="C48" s="55"/>
@@ -10625,7 +10669,7 @@
       <c r="AY48" s="55"/>
       <c r="AZ48" s="55"/>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:52">
       <c r="A49" s="55"/>
       <c r="B49" s="55"/>
       <c r="C49" s="55"/>
@@ -10679,7 +10723,7 @@
       <c r="AY49" s="55"/>
       <c r="AZ49" s="55"/>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:52">
       <c r="A50" s="55"/>
       <c r="B50" s="55"/>
       <c r="C50" s="55"/>
@@ -10733,7 +10777,7 @@
       <c r="AY50" s="55"/>
       <c r="AZ50" s="55"/>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:52">
       <c r="A51" s="55"/>
       <c r="B51" s="55"/>
       <c r="C51" s="55"/>
@@ -10787,7 +10831,7 @@
       <c r="AY51" s="55"/>
       <c r="AZ51" s="55"/>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:52">
       <c r="A52" s="55"/>
       <c r="B52" s="55"/>
       <c r="C52" s="55"/>
@@ -10841,7 +10885,7 @@
       <c r="AY52" s="55"/>
       <c r="AZ52" s="55"/>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:52">
       <c r="A53" s="55"/>
       <c r="B53" s="55"/>
       <c r="C53" s="55"/>
@@ -10895,7 +10939,7 @@
       <c r="AY53" s="55"/>
       <c r="AZ53" s="55"/>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:52">
       <c r="A54" s="55"/>
       <c r="B54" s="55"/>
       <c r="C54" s="55"/>
@@ -10949,7 +10993,7 @@
       <c r="AY54" s="55"/>
       <c r="AZ54" s="55"/>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:52">
       <c r="A55" s="55"/>
       <c r="B55" s="55"/>
       <c r="C55" s="55"/>
@@ -11003,7 +11047,7 @@
       <c r="AY55" s="55"/>
       <c r="AZ55" s="55"/>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:52">
       <c r="A56" s="55"/>
       <c r="B56" s="55"/>
       <c r="C56" s="55"/>
@@ -11057,7 +11101,7 @@
       <c r="AY56" s="55"/>
       <c r="AZ56" s="55"/>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:52">
       <c r="A57" s="55"/>
       <c r="B57" s="55"/>
       <c r="C57" s="55"/>
@@ -11111,7 +11155,7 @@
       <c r="AY57" s="55"/>
       <c r="AZ57" s="55"/>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:52">
       <c r="A58" s="55"/>
       <c r="B58" s="55"/>
       <c r="C58" s="55"/>
@@ -11165,7 +11209,7 @@
       <c r="AY58" s="55"/>
       <c r="AZ58" s="55"/>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:52">
       <c r="A59" s="55"/>
       <c r="B59" s="55"/>
       <c r="C59" s="55"/>
@@ -11219,7 +11263,7 @@
       <c r="AY59" s="55"/>
       <c r="AZ59" s="55"/>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:52">
       <c r="A60" s="55"/>
       <c r="B60" s="55"/>
       <c r="C60" s="55"/>
@@ -11273,7 +11317,7 @@
       <c r="AY60" s="55"/>
       <c r="AZ60" s="55"/>
     </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:52">
       <c r="A61" s="55"/>
       <c r="B61" s="55"/>
       <c r="C61" s="55"/>
@@ -11327,7 +11371,7 @@
       <c r="AY61" s="55"/>
       <c r="AZ61" s="55"/>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:52">
       <c r="A62" s="55"/>
       <c r="B62" s="55"/>
       <c r="C62" s="55"/>
@@ -11381,7 +11425,7 @@
       <c r="AY62" s="55"/>
       <c r="AZ62" s="55"/>
     </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:52">
       <c r="A63" s="55"/>
       <c r="B63" s="55"/>
       <c r="C63" s="55"/>
@@ -11435,7 +11479,7 @@
       <c r="AY63" s="55"/>
       <c r="AZ63" s="55"/>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:52">
       <c r="A64" s="55"/>
       <c r="B64" s="55"/>
       <c r="C64" s="55"/>
@@ -11489,7 +11533,7 @@
       <c r="AY64" s="55"/>
       <c r="AZ64" s="55"/>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:52">
       <c r="A65" s="55"/>
       <c r="B65" s="55"/>
       <c r="C65" s="55"/>
@@ -11543,7 +11587,7 @@
       <c r="AY65" s="55"/>
       <c r="AZ65" s="55"/>
     </row>
-    <row r="66" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:52">
       <c r="A66" s="55"/>
       <c r="B66" s="55"/>
       <c r="C66" s="55"/>
@@ -11597,7 +11641,7 @@
       <c r="AY66" s="55"/>
       <c r="AZ66" s="55"/>
     </row>
-    <row r="67" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:52">
       <c r="A67" s="55"/>
       <c r="B67" s="55"/>
       <c r="C67" s="55"/>
@@ -11651,7 +11695,7 @@
       <c r="AY67" s="55"/>
       <c r="AZ67" s="55"/>
     </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:52">
       <c r="A68" s="55"/>
       <c r="B68" s="55"/>
       <c r="C68" s="55"/>
@@ -11705,7 +11749,7 @@
       <c r="AY68" s="55"/>
       <c r="AZ68" s="55"/>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:52">
       <c r="A69" s="55"/>
       <c r="B69" s="55"/>
       <c r="C69" s="55"/>
@@ -11759,7 +11803,7 @@
       <c r="AY69" s="55"/>
       <c r="AZ69" s="55"/>
     </row>
-    <row r="70" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:52">
       <c r="A70" s="55"/>
       <c r="B70" s="55"/>
       <c r="C70" s="55"/>
@@ -11813,7 +11857,7 @@
       <c r="AY70" s="55"/>
       <c r="AZ70" s="55"/>
     </row>
-    <row r="71" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:52">
       <c r="A71" s="55"/>
       <c r="B71" s="55"/>
       <c r="C71" s="55"/>
@@ -11867,7 +11911,7 @@
       <c r="AY71" s="55"/>
       <c r="AZ71" s="55"/>
     </row>
-    <row r="72" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:52">
       <c r="A72" s="55"/>
       <c r="B72" s="55"/>
       <c r="C72" s="55"/>
@@ -11921,7 +11965,7 @@
       <c r="AY72" s="55"/>
       <c r="AZ72" s="55"/>
     </row>
-    <row r="73" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:52">
       <c r="A73" s="55"/>
       <c r="B73" s="55"/>
       <c r="C73" s="55"/>
@@ -11975,7 +12019,7 @@
       <c r="AY73" s="55"/>
       <c r="AZ73" s="55"/>
     </row>
-    <row r="74" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:52">
       <c r="A74" s="55"/>
       <c r="B74" s="55"/>
       <c r="C74" s="55"/>
@@ -12029,7 +12073,7 @@
       <c r="AY74" s="55"/>
       <c r="AZ74" s="55"/>
     </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:52">
       <c r="A75" s="55"/>
       <c r="B75" s="55"/>
       <c r="C75" s="55"/>
@@ -12083,7 +12127,7 @@
       <c r="AY75" s="55"/>
       <c r="AZ75" s="55"/>
     </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:52">
       <c r="A76" s="55"/>
       <c r="B76" s="55"/>
       <c r="C76" s="55"/>
@@ -12137,7 +12181,7 @@
       <c r="AY76" s="55"/>
       <c r="AZ76" s="55"/>
     </row>
-    <row r="77" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:52">
       <c r="A77" s="55"/>
       <c r="B77" s="55"/>
       <c r="C77" s="55"/>
@@ -12191,7 +12235,7 @@
       <c r="AY77" s="55"/>
       <c r="AZ77" s="55"/>
     </row>
-    <row r="78" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:52">
       <c r="A78" s="55"/>
       <c r="B78" s="55"/>
       <c r="C78" s="55"/>
@@ -12245,7 +12289,7 @@
       <c r="AY78" s="55"/>
       <c r="AZ78" s="55"/>
     </row>
-    <row r="79" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:52">
       <c r="A79" s="55"/>
       <c r="B79" s="55"/>
       <c r="C79" s="55"/>
@@ -12299,7 +12343,7 @@
       <c r="AY79" s="55"/>
       <c r="AZ79" s="55"/>
     </row>
-    <row r="80" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:52">
       <c r="A80" s="55"/>
       <c r="B80" s="55"/>
       <c r="C80" s="55"/>
@@ -12353,7 +12397,7 @@
       <c r="AY80" s="55"/>
       <c r="AZ80" s="55"/>
     </row>
-    <row r="81" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:52">
       <c r="A81" s="55"/>
       <c r="B81" s="55"/>
       <c r="C81" s="55"/>
@@ -12407,7 +12451,7 @@
       <c r="AY81" s="55"/>
       <c r="AZ81" s="55"/>
     </row>
-    <row r="82" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:52">
       <c r="A82" s="55"/>
       <c r="B82" s="55"/>
       <c r="C82" s="55"/>
@@ -12461,7 +12505,7 @@
       <c r="AY82" s="55"/>
       <c r="AZ82" s="55"/>
     </row>
-    <row r="83" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:52">
       <c r="A83" s="55"/>
       <c r="B83" s="55"/>
       <c r="C83" s="55"/>
@@ -12515,7 +12559,7 @@
       <c r="AY83" s="55"/>
       <c r="AZ83" s="55"/>
     </row>
-    <row r="84" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:52">
       <c r="A84" s="55"/>
       <c r="B84" s="55"/>
       <c r="C84" s="55"/>
@@ -12569,7 +12613,7 @@
       <c r="AY84" s="55"/>
       <c r="AZ84" s="55"/>
     </row>
-    <row r="85" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:52">
       <c r="A85" s="55"/>
       <c r="B85" s="55"/>
       <c r="C85" s="55"/>
@@ -12623,7 +12667,7 @@
       <c r="AY85" s="55"/>
       <c r="AZ85" s="55"/>
     </row>
-    <row r="86" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:52">
       <c r="A86" s="55"/>
       <c r="B86" s="55"/>
       <c r="C86" s="55"/>
@@ -12677,7 +12721,7 @@
       <c r="AY86" s="55"/>
       <c r="AZ86" s="55"/>
     </row>
-    <row r="87" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:52">
       <c r="A87" s="55"/>
       <c r="B87" s="55"/>
       <c r="C87" s="55"/>
@@ -12731,7 +12775,7 @@
       <c r="AY87" s="55"/>
       <c r="AZ87" s="55"/>
     </row>
-    <row r="88" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:52">
       <c r="A88" s="55"/>
       <c r="B88" s="55"/>
       <c r="C88" s="55"/>
@@ -12785,7 +12829,7 @@
       <c r="AY88" s="55"/>
       <c r="AZ88" s="55"/>
     </row>
-    <row r="89" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:52">
       <c r="A89" s="55"/>
       <c r="B89" s="55"/>
       <c r="C89" s="55"/>
@@ -12839,7 +12883,7 @@
       <c r="AY89" s="55"/>
       <c r="AZ89" s="55"/>
     </row>
-    <row r="90" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:52">
       <c r="A90" s="55"/>
       <c r="B90" s="55"/>
       <c r="C90" s="55"/>
@@ -12893,7 +12937,7 @@
       <c r="AY90" s="55"/>
       <c r="AZ90" s="55"/>
     </row>
-    <row r="91" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:52">
       <c r="A91" s="55"/>
       <c r="B91" s="55"/>
       <c r="C91" s="55"/>
@@ -12947,7 +12991,7 @@
       <c r="AY91" s="55"/>
       <c r="AZ91" s="55"/>
     </row>
-    <row r="92" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:52">
       <c r="A92" s="55"/>
       <c r="B92" s="55"/>
       <c r="C92" s="55"/>
@@ -13001,7 +13045,7 @@
       <c r="AY92" s="55"/>
       <c r="AZ92" s="55"/>
     </row>
-    <row r="93" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:52">
       <c r="A93" s="55"/>
       <c r="B93" s="55"/>
       <c r="C93" s="55"/>
@@ -13055,7 +13099,7 @@
       <c r="AY93" s="55"/>
       <c r="AZ93" s="55"/>
     </row>
-    <row r="94" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:52">
       <c r="A94" s="55"/>
       <c r="B94" s="55"/>
       <c r="C94" s="55"/>
@@ -13109,7 +13153,7 @@
       <c r="AY94" s="55"/>
       <c r="AZ94" s="55"/>
     </row>
-    <row r="95" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:52">
       <c r="A95" s="55"/>
       <c r="B95" s="55"/>
       <c r="C95" s="55"/>
@@ -13163,7 +13207,7 @@
       <c r="AY95" s="55"/>
       <c r="AZ95" s="55"/>
     </row>
-    <row r="96" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:52">
       <c r="A96" s="55"/>
       <c r="B96" s="55"/>
       <c r="C96" s="55"/>
@@ -13217,7 +13261,7 @@
       <c r="AY96" s="55"/>
       <c r="AZ96" s="55"/>
     </row>
-    <row r="97" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:52">
       <c r="A97" s="55"/>
       <c r="B97" s="55"/>
       <c r="C97" s="55"/>
@@ -13271,7 +13315,7 @@
       <c r="AY97" s="55"/>
       <c r="AZ97" s="55"/>
     </row>
-    <row r="98" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:52">
       <c r="A98" s="55"/>
       <c r="B98" s="55"/>
       <c r="C98" s="55"/>
@@ -13325,7 +13369,7 @@
       <c r="AY98" s="55"/>
       <c r="AZ98" s="55"/>
     </row>
-    <row r="99" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:52">
       <c r="A99" s="55"/>
       <c r="B99" s="55"/>
       <c r="C99" s="55"/>
@@ -13379,7 +13423,7 @@
       <c r="AY99" s="55"/>
       <c r="AZ99" s="55"/>
     </row>
-    <row r="100" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:52">
       <c r="A100" s="55"/>
       <c r="B100" s="55"/>
       <c r="C100" s="55"/>
@@ -13433,7 +13477,7 @@
       <c r="AY100" s="55"/>
       <c r="AZ100" s="55"/>
     </row>
-    <row r="101" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:52">
       <c r="A101" s="55"/>
       <c r="B101" s="55"/>
       <c r="C101" s="55"/>
@@ -13487,7 +13531,7 @@
       <c r="AY101" s="55"/>
       <c r="AZ101" s="55"/>
     </row>
-    <row r="102" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:52">
       <c r="A102" s="55"/>
       <c r="B102" s="55"/>
       <c r="C102" s="55"/>
@@ -13541,7 +13585,7 @@
       <c r="AY102" s="55"/>
       <c r="AZ102" s="55"/>
     </row>
-    <row r="103" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:52">
       <c r="A103" s="55"/>
       <c r="B103" s="55"/>
       <c r="C103" s="55"/>
@@ -13595,7 +13639,7 @@
       <c r="AY103" s="55"/>
       <c r="AZ103" s="55"/>
     </row>
-    <row r="104" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:52">
       <c r="A104" s="55"/>
       <c r="B104" s="55"/>
       <c r="C104" s="55"/>
@@ -13649,7 +13693,7 @@
       <c r="AY104" s="55"/>
       <c r="AZ104" s="55"/>
     </row>
-    <row r="105" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:52">
       <c r="A105" s="55"/>
       <c r="B105" s="55"/>
       <c r="C105" s="55"/>
@@ -13703,7 +13747,7 @@
       <c r="AY105" s="55"/>
       <c r="AZ105" s="55"/>
     </row>
-    <row r="106" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:52">
       <c r="A106" s="55"/>
       <c r="B106" s="55"/>
       <c r="C106" s="55"/>
@@ -13757,7 +13801,7 @@
       <c r="AY106" s="55"/>
       <c r="AZ106" s="55"/>
     </row>
-    <row r="107" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:52">
       <c r="A107" s="55"/>
       <c r="B107" s="55"/>
       <c r="C107" s="55"/>
@@ -13811,7 +13855,7 @@
       <c r="AY107" s="55"/>
       <c r="AZ107" s="55"/>
     </row>
-    <row r="108" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:52">
       <c r="A108" s="55"/>
       <c r="B108" s="55"/>
       <c r="C108" s="55"/>
@@ -13865,7 +13909,7 @@
       <c r="AY108" s="55"/>
       <c r="AZ108" s="55"/>
     </row>
-    <row r="109" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:52">
       <c r="A109" s="55"/>
       <c r="B109" s="55"/>
       <c r="C109" s="55"/>
@@ -13919,7 +13963,7 @@
       <c r="AY109" s="55"/>
       <c r="AZ109" s="55"/>
     </row>
-    <row r="110" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:52">
       <c r="A110" s="55"/>
       <c r="B110" s="55"/>
       <c r="C110" s="55"/>
@@ -13973,7 +14017,7 @@
       <c r="AY110" s="55"/>
       <c r="AZ110" s="55"/>
     </row>
-    <row r="111" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:52">
       <c r="A111" s="55"/>
       <c r="B111" s="55"/>
       <c r="C111" s="55"/>
@@ -14027,7 +14071,7 @@
       <c r="AY111" s="55"/>
       <c r="AZ111" s="55"/>
     </row>
-    <row r="112" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:52">
       <c r="A112" s="55"/>
       <c r="B112" s="55"/>
       <c r="C112" s="55"/>
@@ -14081,7 +14125,7 @@
       <c r="AY112" s="55"/>
       <c r="AZ112" s="55"/>
     </row>
-    <row r="113" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:52">
       <c r="A113" s="55"/>
       <c r="B113" s="55"/>
       <c r="C113" s="55"/>
@@ -14135,7 +14179,7 @@
       <c r="AY113" s="55"/>
       <c r="AZ113" s="55"/>
     </row>
-    <row r="114" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:52">
       <c r="A114" s="55"/>
       <c r="B114" s="55"/>
       <c r="C114" s="55"/>
@@ -14189,7 +14233,7 @@
       <c r="AY114" s="55"/>
       <c r="AZ114" s="55"/>
     </row>
-    <row r="115" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:52">
       <c r="A115" s="55"/>
       <c r="B115" s="55"/>
       <c r="C115" s="55"/>
@@ -14243,7 +14287,7 @@
       <c r="AY115" s="55"/>
       <c r="AZ115" s="55"/>
     </row>
-    <row r="116" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:52">
       <c r="A116" s="55"/>
       <c r="B116" s="55"/>
       <c r="C116" s="55"/>
@@ -14297,7 +14341,7 @@
       <c r="AY116" s="55"/>
       <c r="AZ116" s="55"/>
     </row>
-    <row r="117" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:52">
       <c r="A117" s="55"/>
       <c r="B117" s="55"/>
       <c r="C117" s="55"/>
@@ -14351,7 +14395,7 @@
       <c r="AY117" s="55"/>
       <c r="AZ117" s="55"/>
     </row>
-    <row r="118" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:52">
       <c r="A118" s="55"/>
       <c r="B118" s="55"/>
       <c r="C118" s="55"/>
@@ -14405,7 +14449,7 @@
       <c r="AY118" s="55"/>
       <c r="AZ118" s="55"/>
     </row>
-    <row r="119" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:52">
       <c r="A119" s="55"/>
       <c r="B119" s="55"/>
       <c r="C119" s="55"/>
@@ -14459,7 +14503,7 @@
       <c r="AY119" s="55"/>
       <c r="AZ119" s="55"/>
     </row>
-    <row r="120" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:52">
       <c r="A120" s="55"/>
       <c r="B120" s="55"/>
       <c r="C120" s="55"/>
@@ -14513,7 +14557,7 @@
       <c r="AY120" s="55"/>
       <c r="AZ120" s="55"/>
     </row>
-    <row r="121" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:52">
       <c r="A121" s="55"/>
       <c r="B121" s="55"/>
       <c r="C121" s="55"/>
@@ -14567,7 +14611,7 @@
       <c r="AY121" s="55"/>
       <c r="AZ121" s="55"/>
     </row>
-    <row r="122" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:52">
       <c r="A122" s="55"/>
       <c r="B122" s="55"/>
       <c r="C122" s="55"/>
@@ -14621,7 +14665,7 @@
       <c r="AY122" s="55"/>
       <c r="AZ122" s="55"/>
     </row>
-    <row r="123" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:52">
       <c r="A123" s="55"/>
       <c r="B123" s="55"/>
       <c r="C123" s="55"/>
@@ -14675,7 +14719,7 @@
       <c r="AY123" s="55"/>
       <c r="AZ123" s="55"/>
     </row>
-    <row r="124" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:52">
       <c r="A124" s="55"/>
       <c r="B124" s="55"/>
       <c r="C124" s="55"/>
@@ -14729,7 +14773,7 @@
       <c r="AY124" s="55"/>
       <c r="AZ124" s="55"/>
     </row>
-    <row r="125" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:52">
       <c r="A125" s="55"/>
       <c r="B125" s="55"/>
       <c r="C125" s="55"/>
@@ -14783,7 +14827,7 @@
       <c r="AY125" s="55"/>
       <c r="AZ125" s="55"/>
     </row>
-    <row r="126" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:52">
       <c r="A126" s="55"/>
       <c r="B126" s="55"/>
       <c r="C126" s="55"/>
@@ -14837,7 +14881,7 @@
       <c r="AY126" s="55"/>
       <c r="AZ126" s="55"/>
     </row>
-    <row r="127" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:52">
       <c r="A127" s="55"/>
       <c r="B127" s="55"/>
       <c r="C127" s="55"/>
@@ -14891,7 +14935,7 @@
       <c r="AY127" s="55"/>
       <c r="AZ127" s="55"/>
     </row>
-    <row r="128" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:52">
       <c r="A128" s="55"/>
       <c r="B128" s="55"/>
       <c r="C128" s="55"/>
@@ -14945,7 +14989,7 @@
       <c r="AY128" s="55"/>
       <c r="AZ128" s="55"/>
     </row>
-    <row r="129" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:52">
       <c r="A129" s="55"/>
       <c r="B129" s="55"/>
       <c r="C129" s="55"/>
@@ -14999,7 +15043,7 @@
       <c r="AY129" s="55"/>
       <c r="AZ129" s="55"/>
     </row>
-    <row r="130" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:52">
       <c r="A130" s="55"/>
       <c r="B130" s="55"/>
       <c r="C130" s="55"/>
@@ -15053,7 +15097,7 @@
       <c r="AY130" s="55"/>
       <c r="AZ130" s="55"/>
     </row>
-    <row r="131" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:52">
       <c r="A131" s="55"/>
       <c r="B131" s="55"/>
       <c r="C131" s="55"/>
@@ -15107,7 +15151,7 @@
       <c r="AY131" s="55"/>
       <c r="AZ131" s="55"/>
     </row>
-    <row r="132" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:52">
       <c r="A132" s="55"/>
       <c r="B132" s="55"/>
       <c r="C132" s="55"/>
@@ -15161,7 +15205,7 @@
       <c r="AY132" s="55"/>
       <c r="AZ132" s="55"/>
     </row>
-    <row r="133" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:52">
       <c r="A133" s="55"/>
       <c r="B133" s="55"/>
       <c r="C133" s="55"/>
@@ -15215,7 +15259,7 @@
       <c r="AY133" s="55"/>
       <c r="AZ133" s="55"/>
     </row>
-    <row r="134" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:52">
       <c r="A134" s="55"/>
       <c r="B134" s="55"/>
       <c r="C134" s="55"/>
@@ -15269,7 +15313,7 @@
       <c r="AY134" s="55"/>
       <c r="AZ134" s="55"/>
     </row>
-    <row r="135" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:52">
       <c r="A135" s="55"/>
       <c r="B135" s="55"/>
       <c r="C135" s="55"/>
@@ -15323,7 +15367,7 @@
       <c r="AY135" s="55"/>
       <c r="AZ135" s="55"/>
     </row>
-    <row r="136" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:52">
       <c r="A136" s="55"/>
       <c r="B136" s="55"/>
       <c r="C136" s="55"/>
@@ -15377,7 +15421,7 @@
       <c r="AY136" s="55"/>
       <c r="AZ136" s="55"/>
     </row>
-    <row r="137" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:52">
       <c r="A137" s="55"/>
       <c r="B137" s="55"/>
       <c r="C137" s="55"/>
@@ -15431,7 +15475,7 @@
       <c r="AY137" s="55"/>
       <c r="AZ137" s="55"/>
     </row>
-    <row r="138" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:52">
       <c r="A138" s="55"/>
       <c r="B138" s="55"/>
       <c r="C138" s="55"/>
@@ -15485,7 +15529,7 @@
       <c r="AY138" s="55"/>
       <c r="AZ138" s="55"/>
     </row>
-    <row r="139" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:52">
       <c r="A139" s="55"/>
       <c r="B139" s="55"/>
       <c r="C139" s="55"/>
@@ -15539,7 +15583,7 @@
       <c r="AY139" s="55"/>
       <c r="AZ139" s="55"/>
     </row>
-    <row r="140" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:52">
       <c r="A140" s="55"/>
       <c r="B140" s="55"/>
       <c r="C140" s="55"/>
@@ -15593,7 +15637,7 @@
       <c r="AY140" s="55"/>
       <c r="AZ140" s="55"/>
     </row>
-    <row r="141" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:52">
       <c r="A141" s="55"/>
       <c r="B141" s="55"/>
       <c r="C141" s="55"/>
@@ -15647,7 +15691,7 @@
       <c r="AY141" s="55"/>
       <c r="AZ141" s="55"/>
     </row>
-    <row r="142" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:52">
       <c r="A142" s="55"/>
       <c r="B142" s="55"/>
       <c r="C142" s="55"/>
@@ -15701,7 +15745,7 @@
       <c r="AY142" s="55"/>
       <c r="AZ142" s="55"/>
     </row>
-    <row r="143" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:52">
       <c r="A143" s="55"/>
       <c r="B143" s="55"/>
       <c r="C143" s="55"/>
@@ -15755,7 +15799,7 @@
       <c r="AY143" s="55"/>
       <c r="AZ143" s="55"/>
     </row>
-    <row r="144" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:52">
       <c r="A144" s="55"/>
       <c r="B144" s="55"/>
       <c r="C144" s="55"/>
@@ -15809,7 +15853,7 @@
       <c r="AY144" s="55"/>
       <c r="AZ144" s="55"/>
     </row>
-    <row r="145" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:52">
       <c r="A145" s="55"/>
       <c r="B145" s="55"/>
       <c r="C145" s="55"/>
@@ -15863,7 +15907,7 @@
       <c r="AY145" s="55"/>
       <c r="AZ145" s="55"/>
     </row>
-    <row r="146" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:52">
       <c r="A146" s="55"/>
       <c r="B146" s="55"/>
       <c r="C146" s="55"/>
@@ -15917,7 +15961,7 @@
       <c r="AY146" s="55"/>
       <c r="AZ146" s="55"/>
     </row>
-    <row r="147" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:52">
       <c r="A147" s="55"/>
       <c r="B147" s="55"/>
       <c r="C147" s="55"/>
@@ -15971,7 +16015,7 @@
       <c r="AY147" s="55"/>
       <c r="AZ147" s="55"/>
     </row>
-    <row r="148" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:52">
       <c r="A148" s="55"/>
       <c r="B148" s="55"/>
       <c r="C148" s="55"/>
@@ -16025,7 +16069,7 @@
       <c r="AY148" s="55"/>
       <c r="AZ148" s="55"/>
     </row>
-    <row r="149" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:52">
       <c r="A149" s="55"/>
       <c r="B149" s="55"/>
       <c r="C149" s="55"/>
@@ -16079,7 +16123,7 @@
       <c r="AY149" s="55"/>
       <c r="AZ149" s="55"/>
     </row>
-    <row r="150" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:52">
       <c r="A150" s="55"/>
       <c r="B150" s="55"/>
       <c r="C150" s="55"/>
@@ -16133,7 +16177,7 @@
       <c r="AY150" s="55"/>
       <c r="AZ150" s="55"/>
     </row>
-    <row r="151" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:52">
       <c r="A151" s="55"/>
       <c r="B151" s="55"/>
       <c r="C151" s="55"/>
@@ -16187,7 +16231,7 @@
       <c r="AY151" s="55"/>
       <c r="AZ151" s="55"/>
     </row>
-    <row r="152" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:52">
       <c r="A152" s="55"/>
       <c r="B152" s="55"/>
       <c r="C152" s="55"/>
@@ -16241,7 +16285,7 @@
       <c r="AY152" s="55"/>
       <c r="AZ152" s="55"/>
     </row>
-    <row r="153" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:52">
       <c r="A153" s="55"/>
       <c r="B153" s="55"/>
       <c r="C153" s="55"/>
@@ -16295,7 +16339,7 @@
       <c r="AY153" s="55"/>
       <c r="AZ153" s="55"/>
     </row>
-    <row r="154" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:52">
       <c r="A154" s="55"/>
       <c r="B154" s="55"/>
       <c r="C154" s="55"/>
@@ -16349,7 +16393,7 @@
       <c r="AY154" s="55"/>
       <c r="AZ154" s="55"/>
     </row>
-    <row r="155" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:52">
       <c r="A155" s="55"/>
       <c r="B155" s="55"/>
       <c r="C155" s="55"/>
@@ -16403,7 +16447,7 @@
       <c r="AY155" s="55"/>
       <c r="AZ155" s="55"/>
     </row>
-    <row r="156" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:52">
       <c r="A156" s="55"/>
       <c r="B156" s="55"/>
       <c r="C156" s="55"/>
@@ -16457,7 +16501,7 @@
       <c r="AY156" s="55"/>
       <c r="AZ156" s="55"/>
     </row>
-    <row r="157" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:52">
       <c r="A157" s="55"/>
       <c r="B157" s="55"/>
       <c r="C157" s="55"/>
@@ -16511,7 +16555,7 @@
       <c r="AY157" s="55"/>
       <c r="AZ157" s="55"/>
     </row>
-    <row r="158" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:52">
       <c r="A158" s="55"/>
       <c r="B158" s="55"/>
       <c r="C158" s="55"/>
@@ -16565,7 +16609,7 @@
       <c r="AY158" s="55"/>
       <c r="AZ158" s="55"/>
     </row>
-    <row r="159" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:52">
       <c r="A159" s="55"/>
       <c r="B159" s="55"/>
       <c r="C159" s="55"/>
@@ -16619,7 +16663,7 @@
       <c r="AY159" s="55"/>
       <c r="AZ159" s="55"/>
     </row>
-    <row r="160" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:52">
       <c r="A160" s="55"/>
       <c r="B160" s="55"/>
       <c r="C160" s="55"/>
@@ -16673,7 +16717,7 @@
       <c r="AY160" s="55"/>
       <c r="AZ160" s="55"/>
     </row>
-    <row r="161" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:52">
       <c r="A161" s="55"/>
       <c r="B161" s="55"/>
       <c r="C161" s="55"/>
@@ -16727,7 +16771,7 @@
       <c r="AY161" s="55"/>
       <c r="AZ161" s="55"/>
     </row>
-    <row r="162" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:52">
       <c r="A162" s="55"/>
       <c r="B162" s="55"/>
       <c r="C162" s="55"/>
@@ -16781,7 +16825,7 @@
       <c r="AY162" s="55"/>
       <c r="AZ162" s="55"/>
     </row>
-    <row r="163" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:52">
       <c r="A163" s="55"/>
       <c r="B163" s="55"/>
       <c r="C163" s="55"/>
@@ -16835,7 +16879,7 @@
       <c r="AY163" s="55"/>
       <c r="AZ163" s="55"/>
     </row>
-    <row r="164" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:52">
       <c r="A164" s="55"/>
       <c r="B164" s="55"/>
       <c r="C164" s="55"/>
@@ -16889,7 +16933,7 @@
       <c r="AY164" s="55"/>
       <c r="AZ164" s="55"/>
     </row>
-    <row r="165" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:52">
       <c r="A165" s="55"/>
       <c r="B165" s="55"/>
       <c r="C165" s="55"/>
@@ -16943,7 +16987,7 @@
       <c r="AY165" s="55"/>
       <c r="AZ165" s="55"/>
     </row>
-    <row r="166" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:52">
       <c r="A166" s="55"/>
       <c r="B166" s="55"/>
       <c r="C166" s="55"/>
@@ -16997,7 +17041,7 @@
       <c r="AY166" s="55"/>
       <c r="AZ166" s="55"/>
     </row>
-    <row r="167" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:52">
       <c r="A167" s="55"/>
       <c r="B167" s="55"/>
       <c r="C167" s="55"/>
@@ -17051,7 +17095,7 @@
       <c r="AY167" s="55"/>
       <c r="AZ167" s="55"/>
     </row>
-    <row r="168" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:52">
       <c r="A168" s="55"/>
       <c r="B168" s="55"/>
       <c r="C168" s="55"/>
@@ -17105,7 +17149,7 @@
       <c r="AY168" s="55"/>
       <c r="AZ168" s="55"/>
     </row>
-    <row r="169" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:52">
       <c r="A169" s="55"/>
       <c r="B169" s="55"/>
       <c r="C169" s="55"/>
@@ -17159,7 +17203,7 @@
       <c r="AY169" s="55"/>
       <c r="AZ169" s="55"/>
     </row>
-    <row r="170" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:52">
       <c r="A170" s="55"/>
       <c r="B170" s="55"/>
       <c r="C170" s="55"/>
@@ -17213,7 +17257,7 @@
       <c r="AY170" s="55"/>
       <c r="AZ170" s="55"/>
     </row>
-    <row r="171" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:52">
       <c r="A171" s="55"/>
       <c r="B171" s="55"/>
       <c r="C171" s="55"/>
@@ -17297,12 +17341,12 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="4.125" style="49"/>
+    <col min="1" max="16384" width="4.109375" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -17347,7 +17391,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="138">
+      <c r="AI1" s="134">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
@@ -17363,7 +17407,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="135" t="str">
+      <c r="AT1" s="129" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -17374,7 +17418,7 @@
       <c r="AY1" s="141"/>
       <c r="AZ1" s="142"/>
     </row>
-    <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -17434,7 +17478,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="135"/>
+      <c r="AT2" s="129"/>
       <c r="AU2" s="141"/>
       <c r="AV2" s="141"/>
       <c r="AW2" s="141"/>
@@ -17442,7 +17486,7 @@
       <c r="AY2" s="141"/>
       <c r="AZ2" s="142"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:52">
       <c r="A3" s="59"/>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -17496,7 +17540,7 @@
       <c r="AY3" s="59"/>
       <c r="AZ3" s="59"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52">
       <c r="A4" s="55"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -17550,7 +17594,7 @@
       <c r="AY4" s="55"/>
       <c r="AZ4" s="55"/>
     </row>
-    <row r="5" spans="1:52" ht="21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52" ht="22.8">
       <c r="A5" s="27" t="s">
         <v>78</v>
       </c>
@@ -17606,7 +17650,7 @@
       <c r="AY5" s="55"/>
       <c r="AZ5" s="55"/>
     </row>
-    <row r="6" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:52" s="16" customFormat="1" ht="15">
       <c r="B6" s="17" t="s">
         <v>61</v>
       </c>
@@ -17668,7 +17712,7 @@
       <c r="AV6" s="18"/>
       <c r="AW6" s="19"/>
     </row>
-    <row r="7" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:52" s="16" customFormat="1" ht="15">
       <c r="B7" s="20">
         <v>1</v>
       </c>
@@ -17728,7 +17772,7 @@
       <c r="AV7" s="21"/>
       <c r="AW7" s="22"/>
     </row>
-    <row r="8" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:52" s="16" customFormat="1" ht="15">
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -17778,7 +17822,7 @@
       <c r="AV8" s="25"/>
       <c r="AW8" s="26"/>
     </row>
-    <row r="9" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:52" s="16" customFormat="1" ht="15">
       <c r="B9" s="20">
         <v>2</v>
       </c>
@@ -17832,7 +17876,7 @@
       <c r="AV9" s="74"/>
       <c r="AW9" s="75"/>
     </row>
-    <row r="10" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" s="16" customFormat="1" ht="15">
       <c r="B10" s="24"/>
       <c r="C10" s="76"/>
       <c r="D10" s="77"/>
@@ -17882,7 +17926,7 @@
       <c r="AV10" s="77"/>
       <c r="AW10" s="78"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52">
       <c r="A11" s="55"/>
       <c r="B11" s="55"/>
       <c r="C11" s="55"/>
@@ -17936,7 +17980,7 @@
       <c r="AY11" s="55"/>
       <c r="AZ11" s="55"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52">
       <c r="A12" s="55"/>
       <c r="B12" s="55"/>
       <c r="C12" s="55"/>
@@ -17990,7 +18034,7 @@
       <c r="AY12" s="55"/>
       <c r="AZ12" s="55"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52">
       <c r="A13" s="55"/>
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
@@ -18044,7 +18088,7 @@
       <c r="AY13" s="55"/>
       <c r="AZ13" s="55"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52">
       <c r="A14" s="55"/>
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
@@ -18098,7 +18142,7 @@
       <c r="AY14" s="55"/>
       <c r="AZ14" s="55"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52">
       <c r="A15" s="55"/>
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
@@ -18152,7 +18196,7 @@
       <c r="AY15" s="55"/>
       <c r="AZ15" s="55"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52">
       <c r="A16" s="55"/>
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
@@ -18206,7 +18250,7 @@
       <c r="AY16" s="55"/>
       <c r="AZ16" s="55"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
       <c r="C17" s="55"/>
@@ -18260,7 +18304,7 @@
       <c r="AY17" s="55"/>
       <c r="AZ17" s="55"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52">
       <c r="A18" s="55"/>
       <c r="B18" s="55"/>
       <c r="C18" s="55"/>
@@ -18314,7 +18358,7 @@
       <c r="AY18" s="55"/>
       <c r="AZ18" s="55"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52">
       <c r="A19" s="55"/>
       <c r="B19" s="55"/>
       <c r="C19" s="55"/>
@@ -18368,7 +18412,7 @@
       <c r="AY19" s="55"/>
       <c r="AZ19" s="55"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52">
       <c r="A20" s="55"/>
       <c r="B20" s="55"/>
       <c r="C20" s="55"/>
@@ -18422,7 +18466,7 @@
       <c r="AY20" s="55"/>
       <c r="AZ20" s="55"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52">
       <c r="A21" s="55"/>
       <c r="B21" s="55"/>
       <c r="C21" s="55"/>
@@ -18476,7 +18520,7 @@
       <c r="AY21" s="55"/>
       <c r="AZ21" s="55"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52">
       <c r="A22" s="55"/>
       <c r="B22" s="55"/>
       <c r="C22" s="55"/>
@@ -18530,7 +18574,7 @@
       <c r="AY22" s="55"/>
       <c r="AZ22" s="55"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52">
       <c r="A23" s="55"/>
       <c r="B23" s="55"/>
       <c r="C23" s="55"/>
@@ -18584,7 +18628,7 @@
       <c r="AY23" s="55"/>
       <c r="AZ23" s="55"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52">
       <c r="A24" s="55"/>
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
@@ -18638,7 +18682,7 @@
       <c r="AY24" s="55"/>
       <c r="AZ24" s="55"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52">
       <c r="A25" s="55"/>
       <c r="B25" s="55"/>
       <c r="C25" s="55"/>
@@ -18692,7 +18736,7 @@
       <c r="AY25" s="55"/>
       <c r="AZ25" s="55"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52">
       <c r="A26" s="55"/>
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
@@ -18746,7 +18790,7 @@
       <c r="AY26" s="55"/>
       <c r="AZ26" s="55"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52">
       <c r="A27" s="55"/>
       <c r="B27" s="55"/>
       <c r="C27" s="55"/>
@@ -18800,7 +18844,7 @@
       <c r="AY27" s="55"/>
       <c r="AZ27" s="55"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52">
       <c r="A28" s="55"/>
       <c r="B28" s="55"/>
       <c r="C28" s="55"/>
@@ -18854,7 +18898,7 @@
       <c r="AY28" s="55"/>
       <c r="AZ28" s="55"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52">
       <c r="A29" s="55"/>
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
@@ -18908,7 +18952,7 @@
       <c r="AY29" s="55"/>
       <c r="AZ29" s="55"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52">
       <c r="A30" s="55"/>
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
@@ -18962,7 +19006,7 @@
       <c r="AY30" s="55"/>
       <c r="AZ30" s="55"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:52">
       <c r="A31" s="55"/>
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
@@ -19016,7 +19060,7 @@
       <c r="AY31" s="55"/>
       <c r="AZ31" s="55"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52">
       <c r="A32" s="55"/>
       <c r="B32" s="55"/>
       <c r="C32" s="55"/>
@@ -19070,7 +19114,7 @@
       <c r="AY32" s="55"/>
       <c r="AZ32" s="55"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:52">
       <c r="A33" s="55"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
@@ -19124,7 +19168,7 @@
       <c r="AY33" s="55"/>
       <c r="AZ33" s="55"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:52">
       <c r="A34" s="55"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
@@ -19178,7 +19222,7 @@
       <c r="AY34" s="55"/>
       <c r="AZ34" s="55"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:52">
       <c r="A35" s="55"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
@@ -19232,7 +19276,7 @@
       <c r="AY35" s="55"/>
       <c r="AZ35" s="55"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:52">
       <c r="A36" s="55"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
@@ -19286,7 +19330,7 @@
       <c r="AY36" s="55"/>
       <c r="AZ36" s="55"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:52">
       <c r="A37" s="55"/>
       <c r="B37" s="55"/>
       <c r="C37" s="55"/>
@@ -19340,7 +19384,7 @@
       <c r="AY37" s="55"/>
       <c r="AZ37" s="55"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:52">
       <c r="A38" s="55"/>
       <c r="B38" s="55"/>
       <c r="C38" s="55"/>
@@ -19394,7 +19438,7 @@
       <c r="AY38" s="55"/>
       <c r="AZ38" s="55"/>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:52">
       <c r="A39" s="55"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
@@ -19448,7 +19492,7 @@
       <c r="AY39" s="55"/>
       <c r="AZ39" s="55"/>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:52">
       <c r="A40" s="55"/>
       <c r="B40" s="55"/>
       <c r="C40" s="55"/>
@@ -19502,7 +19546,7 @@
       <c r="AY40" s="55"/>
       <c r="AZ40" s="55"/>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:52">
       <c r="A41" s="55"/>
       <c r="B41" s="55"/>
       <c r="C41" s="55"/>
@@ -19556,7 +19600,7 @@
       <c r="AY41" s="55"/>
       <c r="AZ41" s="55"/>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:52">
       <c r="A42" s="55"/>
       <c r="B42" s="55"/>
       <c r="C42" s="55"/>
@@ -19610,7 +19654,7 @@
       <c r="AY42" s="55"/>
       <c r="AZ42" s="55"/>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:52">
       <c r="A43" s="55"/>
       <c r="B43" s="55"/>
       <c r="C43" s="55"/>
@@ -19664,7 +19708,7 @@
       <c r="AY43" s="55"/>
       <c r="AZ43" s="55"/>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:52">
       <c r="A44" s="55"/>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
@@ -19718,7 +19762,7 @@
       <c r="AY44" s="55"/>
       <c r="AZ44" s="55"/>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:52">
       <c r="A45" s="55"/>
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
@@ -19772,7 +19816,7 @@
       <c r="AY45" s="55"/>
       <c r="AZ45" s="55"/>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:52">
       <c r="A46" s="55"/>
       <c r="B46" s="55"/>
       <c r="C46" s="55"/>
@@ -19826,7 +19870,7 @@
       <c r="AY46" s="55"/>
       <c r="AZ46" s="55"/>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:52">
       <c r="A47" s="55"/>
       <c r="B47" s="55"/>
       <c r="C47" s="55"/>
@@ -19880,7 +19924,7 @@
       <c r="AY47" s="55"/>
       <c r="AZ47" s="55"/>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:52">
       <c r="A48" s="55"/>
       <c r="B48" s="55"/>
       <c r="C48" s="55"/>
@@ -19934,7 +19978,7 @@
       <c r="AY48" s="55"/>
       <c r="AZ48" s="55"/>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:52">
       <c r="A49" s="55"/>
       <c r="B49" s="55"/>
       <c r="C49" s="55"/>
@@ -19988,7 +20032,7 @@
       <c r="AY49" s="55"/>
       <c r="AZ49" s="55"/>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:52">
       <c r="A50" s="55"/>
       <c r="B50" s="55"/>
       <c r="C50" s="55"/>
@@ -20042,7 +20086,7 @@
       <c r="AY50" s="55"/>
       <c r="AZ50" s="55"/>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:52">
       <c r="A51" s="55"/>
       <c r="B51" s="55"/>
       <c r="C51" s="55"/>
@@ -20096,7 +20140,7 @@
       <c r="AY51" s="55"/>
       <c r="AZ51" s="55"/>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:52">
       <c r="A52" s="55"/>
       <c r="B52" s="55"/>
       <c r="C52" s="55"/>
@@ -20150,7 +20194,7 @@
       <c r="AY52" s="55"/>
       <c r="AZ52" s="55"/>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:52">
       <c r="A53" s="55"/>
       <c r="B53" s="55"/>
       <c r="C53" s="55"/>
@@ -20204,7 +20248,7 @@
       <c r="AY53" s="55"/>
       <c r="AZ53" s="55"/>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:52">
       <c r="A54" s="55"/>
       <c r="B54" s="55"/>
       <c r="C54" s="55"/>
@@ -20258,7 +20302,7 @@
       <c r="AY54" s="55"/>
       <c r="AZ54" s="55"/>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:52">
       <c r="A55" s="55"/>
       <c r="B55" s="55"/>
       <c r="C55" s="55"/>
@@ -20312,7 +20356,7 @@
       <c r="AY55" s="55"/>
       <c r="AZ55" s="55"/>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:52">
       <c r="A56" s="55"/>
       <c r="B56" s="55"/>
       <c r="C56" s="55"/>
@@ -20366,7 +20410,7 @@
       <c r="AY56" s="55"/>
       <c r="AZ56" s="55"/>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:52">
       <c r="A57" s="55"/>
       <c r="B57" s="55"/>
       <c r="C57" s="55"/>
@@ -20420,7 +20464,7 @@
       <c r="AY57" s="55"/>
       <c r="AZ57" s="55"/>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:52">
       <c r="A58" s="55"/>
       <c r="B58" s="55"/>
       <c r="C58" s="55"/>
@@ -20474,7 +20518,7 @@
       <c r="AY58" s="55"/>
       <c r="AZ58" s="55"/>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:52">
       <c r="A59" s="55"/>
       <c r="B59" s="55"/>
       <c r="C59" s="55"/>
@@ -20528,7 +20572,7 @@
       <c r="AY59" s="55"/>
       <c r="AZ59" s="55"/>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:52">
       <c r="A60" s="55"/>
       <c r="B60" s="55"/>
       <c r="C60" s="55"/>
@@ -20582,7 +20626,7 @@
       <c r="AY60" s="55"/>
       <c r="AZ60" s="55"/>
     </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:52">
       <c r="A61" s="55"/>
       <c r="B61" s="55"/>
       <c r="C61" s="55"/>
@@ -20636,7 +20680,7 @@
       <c r="AY61" s="55"/>
       <c r="AZ61" s="55"/>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:52">
       <c r="A62" s="55"/>
       <c r="B62" s="55"/>
       <c r="C62" s="55"/>
@@ -20690,7 +20734,7 @@
       <c r="AY62" s="55"/>
       <c r="AZ62" s="55"/>
     </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:52">
       <c r="A63" s="55"/>
       <c r="B63" s="55"/>
       <c r="C63" s="55"/>
@@ -20744,7 +20788,7 @@
       <c r="AY63" s="55"/>
       <c r="AZ63" s="55"/>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:52">
       <c r="A64" s="55"/>
       <c r="B64" s="55"/>
       <c r="C64" s="55"/>
@@ -20798,7 +20842,7 @@
       <c r="AY64" s="55"/>
       <c r="AZ64" s="55"/>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:52">
       <c r="A65" s="55"/>
       <c r="B65" s="55"/>
       <c r="C65" s="55"/>
@@ -20852,7 +20896,7 @@
       <c r="AY65" s="55"/>
       <c r="AZ65" s="55"/>
     </row>
-    <row r="66" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:52">
       <c r="A66" s="55"/>
       <c r="B66" s="55"/>
       <c r="C66" s="55"/>
@@ -20906,7 +20950,7 @@
       <c r="AY66" s="55"/>
       <c r="AZ66" s="55"/>
     </row>
-    <row r="67" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:52">
       <c r="A67" s="55"/>
       <c r="B67" s="55"/>
       <c r="C67" s="55"/>
@@ -20960,7 +21004,7 @@
       <c r="AY67" s="55"/>
       <c r="AZ67" s="55"/>
     </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:52">
       <c r="A68" s="55"/>
       <c r="B68" s="55"/>
       <c r="C68" s="55"/>
@@ -21014,7 +21058,7 @@
       <c r="AY68" s="55"/>
       <c r="AZ68" s="55"/>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:52">
       <c r="A69" s="55"/>
       <c r="B69" s="55"/>
       <c r="C69" s="55"/>
@@ -21068,7 +21112,7 @@
       <c r="AY69" s="55"/>
       <c r="AZ69" s="55"/>
     </row>
-    <row r="70" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:52">
       <c r="A70" s="55"/>
       <c r="B70" s="55"/>
       <c r="C70" s="55"/>
@@ -21122,7 +21166,7 @@
       <c r="AY70" s="55"/>
       <c r="AZ70" s="55"/>
     </row>
-    <row r="71" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:52">
       <c r="A71" s="55"/>
       <c r="B71" s="55"/>
       <c r="C71" s="55"/>
@@ -21176,7 +21220,7 @@
       <c r="AY71" s="55"/>
       <c r="AZ71" s="55"/>
     </row>
-    <row r="72" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:52">
       <c r="A72" s="55"/>
       <c r="B72" s="55"/>
       <c r="C72" s="55"/>
@@ -21230,7 +21274,7 @@
       <c r="AY72" s="55"/>
       <c r="AZ72" s="55"/>
     </row>
-    <row r="73" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:52">
       <c r="A73" s="55"/>
       <c r="B73" s="55"/>
       <c r="C73" s="55"/>
@@ -21284,7 +21328,7 @@
       <c r="AY73" s="55"/>
       <c r="AZ73" s="55"/>
     </row>
-    <row r="74" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:52">
       <c r="A74" s="55"/>
       <c r="B74" s="55"/>
       <c r="C74" s="55"/>
@@ -21338,7 +21382,7 @@
       <c r="AY74" s="55"/>
       <c r="AZ74" s="55"/>
     </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:52">
       <c r="A75" s="55"/>
       <c r="B75" s="55"/>
       <c r="C75" s="55"/>
@@ -21392,7 +21436,7 @@
       <c r="AY75" s="55"/>
       <c r="AZ75" s="55"/>
     </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:52">
       <c r="A76" s="55"/>
       <c r="B76" s="55"/>
       <c r="C76" s="55"/>
@@ -21446,7 +21490,7 @@
       <c r="AY76" s="55"/>
       <c r="AZ76" s="55"/>
     </row>
-    <row r="77" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:52">
       <c r="A77" s="55"/>
       <c r="B77" s="55"/>
       <c r="C77" s="55"/>
@@ -21500,7 +21544,7 @@
       <c r="AY77" s="55"/>
       <c r="AZ77" s="55"/>
     </row>
-    <row r="78" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:52">
       <c r="A78" s="55"/>
       <c r="B78" s="55"/>
       <c r="C78" s="55"/>
@@ -21554,7 +21598,7 @@
       <c r="AY78" s="55"/>
       <c r="AZ78" s="55"/>
     </row>
-    <row r="79" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:52">
       <c r="A79" s="55"/>
       <c r="B79" s="55"/>
       <c r="C79" s="55"/>
@@ -21608,7 +21652,7 @@
       <c r="AY79" s="55"/>
       <c r="AZ79" s="55"/>
     </row>
-    <row r="80" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:52">
       <c r="A80" s="55"/>
       <c r="B80" s="55"/>
       <c r="C80" s="55"/>
@@ -21662,7 +21706,7 @@
       <c r="AY80" s="55"/>
       <c r="AZ80" s="55"/>
     </row>
-    <row r="81" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:52">
       <c r="A81" s="55"/>
       <c r="B81" s="55"/>
       <c r="C81" s="55"/>
@@ -21716,7 +21760,7 @@
       <c r="AY81" s="55"/>
       <c r="AZ81" s="55"/>
     </row>
-    <row r="82" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:52">
       <c r="A82" s="55"/>
       <c r="B82" s="55"/>
       <c r="C82" s="55"/>
@@ -21770,7 +21814,7 @@
       <c r="AY82" s="55"/>
       <c r="AZ82" s="55"/>
     </row>
-    <row r="83" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:52">
       <c r="A83" s="55"/>
       <c r="B83" s="55"/>
       <c r="C83" s="55"/>
@@ -21824,7 +21868,7 @@
       <c r="AY83" s="55"/>
       <c r="AZ83" s="55"/>
     </row>
-    <row r="84" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:52">
       <c r="A84" s="55"/>
       <c r="B84" s="55"/>
       <c r="C84" s="55"/>
@@ -21908,12 +21952,12 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="4.125" style="49"/>
+    <col min="1" max="16384" width="4.109375" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -21958,7 +22002,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="138">
+      <c r="AI1" s="134">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
@@ -21974,7 +22018,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="135" t="str">
+      <c r="AT1" s="129" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -21985,7 +22029,7 @@
       <c r="AY1" s="141"/>
       <c r="AZ1" s="142"/>
     </row>
-    <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -22045,7 +22089,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="135"/>
+      <c r="AT2" s="129"/>
       <c r="AU2" s="141"/>
       <c r="AV2" s="141"/>
       <c r="AW2" s="141"/>
@@ -22053,7 +22097,7 @@
       <c r="AY2" s="141"/>
       <c r="AZ2" s="142"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:52">
       <c r="A3" s="59"/>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -22107,7 +22151,7 @@
       <c r="AY3" s="59"/>
       <c r="AZ3" s="59"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52">
       <c r="A4" s="55"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -22161,7 +22205,7 @@
       <c r="AY4" s="55"/>
       <c r="AZ4" s="55"/>
     </row>
-    <row r="5" spans="1:52" ht="21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52" ht="22.8">
       <c r="A5" s="27" t="s">
         <v>60</v>
       </c>
@@ -22217,7 +22261,7 @@
       <c r="AY5" s="55"/>
       <c r="AZ5" s="55"/>
     </row>
-    <row r="6" spans="1:52" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" ht="18.600000000000001">
       <c r="A6" s="67"/>
       <c r="B6" s="32" t="s">
         <v>133</v>
@@ -22273,7 +22317,7 @@
       <c r="AY6" s="55"/>
       <c r="AZ6" s="55"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:52">
       <c r="A7" s="55"/>
       <c r="B7" s="55"/>
       <c r="C7" s="92"/>
@@ -22327,7 +22371,7 @@
       <c r="AY7" s="55"/>
       <c r="AZ7" s="55"/>
     </row>
-    <row r="8" spans="1:52" s="95" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:52" s="95" customFormat="1">
       <c r="C8" s="100"/>
       <c r="D8" s="97"/>
       <c r="E8" s="98"/>
@@ -22347,7 +22391,7 @@
       <c r="S8" s="96"/>
       <c r="T8" s="96"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:52">
       <c r="A9" s="55"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
@@ -22401,7 +22445,7 @@
       <c r="AY9" s="55"/>
       <c r="AZ9" s="55"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52">
       <c r="A10" s="55"/>
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
@@ -22455,7 +22499,7 @@
       <c r="AY10" s="55"/>
       <c r="AZ10" s="55"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52">
       <c r="A11" s="55"/>
       <c r="B11" s="55"/>
       <c r="C11" s="55"/>
@@ -22509,7 +22553,7 @@
       <c r="AY11" s="55"/>
       <c r="AZ11" s="55"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52">
       <c r="A12" s="55"/>
       <c r="B12" s="55"/>
       <c r="C12" s="55"/>
@@ -22563,7 +22607,7 @@
       <c r="AY12" s="55"/>
       <c r="AZ12" s="55"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52">
       <c r="A13" s="55"/>
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
@@ -22617,7 +22661,7 @@
       <c r="AY13" s="55"/>
       <c r="AZ13" s="55"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52">
       <c r="A14" s="55"/>
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
@@ -22671,7 +22715,7 @@
       <c r="AY14" s="55"/>
       <c r="AZ14" s="55"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52">
       <c r="A15" s="55"/>
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
@@ -22725,7 +22769,7 @@
       <c r="AY15" s="55"/>
       <c r="AZ15" s="55"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52">
       <c r="A16" s="55"/>
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
@@ -22779,7 +22823,7 @@
       <c r="AY16" s="55"/>
       <c r="AZ16" s="55"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
       <c r="C17" s="55"/>
@@ -22833,7 +22877,7 @@
       <c r="AY17" s="55"/>
       <c r="AZ17" s="55"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52">
       <c r="A18" s="55"/>
       <c r="B18" s="55"/>
       <c r="C18" s="55"/>
@@ -22887,7 +22931,7 @@
       <c r="AY18" s="55"/>
       <c r="AZ18" s="55"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52">
       <c r="A19" s="55"/>
       <c r="B19" s="55"/>
       <c r="C19" s="55"/>
@@ -22941,7 +22985,7 @@
       <c r="AY19" s="55"/>
       <c r="AZ19" s="55"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52">
       <c r="A20" s="55"/>
       <c r="B20" s="55"/>
       <c r="C20" s="55"/>
@@ -22995,7 +23039,7 @@
       <c r="AY20" s="55"/>
       <c r="AZ20" s="55"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52">
       <c r="A21" s="55"/>
       <c r="B21" s="55"/>
       <c r="C21" s="55"/>
@@ -23049,7 +23093,7 @@
       <c r="AY21" s="55"/>
       <c r="AZ21" s="55"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52">
       <c r="A22" s="55"/>
       <c r="B22" s="55"/>
       <c r="C22" s="55"/>
@@ -23103,7 +23147,7 @@
       <c r="AY22" s="55"/>
       <c r="AZ22" s="55"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52">
       <c r="A23" s="55"/>
       <c r="B23" s="55"/>
       <c r="C23" s="55"/>
@@ -23157,7 +23201,7 @@
       <c r="AY23" s="55"/>
       <c r="AZ23" s="55"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52">
       <c r="A24" s="55"/>
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
@@ -23211,7 +23255,7 @@
       <c r="AY24" s="55"/>
       <c r="AZ24" s="55"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52">
       <c r="A25" s="55"/>
       <c r="B25" s="55"/>
       <c r="C25" s="55"/>
@@ -23265,7 +23309,7 @@
       <c r="AY25" s="55"/>
       <c r="AZ25" s="55"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52">
       <c r="A26" s="55"/>
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
@@ -23319,7 +23363,7 @@
       <c r="AY26" s="55"/>
       <c r="AZ26" s="55"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52">
       <c r="A27" s="55"/>
       <c r="B27" s="55"/>
       <c r="C27" s="55"/>
@@ -23373,7 +23417,7 @@
       <c r="AY27" s="55"/>
       <c r="AZ27" s="55"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52">
       <c r="A28" s="55"/>
       <c r="B28" s="55"/>
       <c r="C28" s="55"/>
@@ -23427,7 +23471,7 @@
       <c r="AY28" s="55"/>
       <c r="AZ28" s="55"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52">
       <c r="A29" s="55"/>
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
@@ -23481,7 +23525,7 @@
       <c r="AY29" s="55"/>
       <c r="AZ29" s="55"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52">
       <c r="A30" s="55"/>
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
@@ -23535,7 +23579,7 @@
       <c r="AY30" s="55"/>
       <c r="AZ30" s="55"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:52">
       <c r="A31" s="55"/>
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
@@ -23589,7 +23633,7 @@
       <c r="AY31" s="55"/>
       <c r="AZ31" s="55"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52">
       <c r="A32" s="55"/>
       <c r="B32" s="55"/>
       <c r="C32" s="55"/>
@@ -23643,7 +23687,7 @@
       <c r="AY32" s="55"/>
       <c r="AZ32" s="55"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:52">
       <c r="A33" s="55"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
@@ -23697,7 +23741,7 @@
       <c r="AY33" s="55"/>
       <c r="AZ33" s="55"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:52">
       <c r="A34" s="55"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
@@ -23751,7 +23795,7 @@
       <c r="AY34" s="55"/>
       <c r="AZ34" s="55"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:52">
       <c r="A35" s="55"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
@@ -23805,7 +23849,7 @@
       <c r="AY35" s="55"/>
       <c r="AZ35" s="55"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:52">
       <c r="A36" s="55"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
@@ -23859,7 +23903,7 @@
       <c r="AY36" s="55"/>
       <c r="AZ36" s="55"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:52">
       <c r="A37" s="55"/>
       <c r="B37" s="55"/>
       <c r="C37" s="55"/>
@@ -23913,7 +23957,7 @@
       <c r="AY37" s="55"/>
       <c r="AZ37" s="55"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:52">
       <c r="A38" s="55"/>
       <c r="B38" s="55"/>
       <c r="C38" s="55"/>
@@ -23967,7 +24011,7 @@
       <c r="AY38" s="55"/>
       <c r="AZ38" s="55"/>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:52">
       <c r="A39" s="55"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
@@ -24021,7 +24065,7 @@
       <c r="AY39" s="55"/>
       <c r="AZ39" s="55"/>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:52">
       <c r="A40" s="55"/>
       <c r="B40" s="55"/>
       <c r="C40" s="55"/>
@@ -24075,7 +24119,7 @@
       <c r="AY40" s="55"/>
       <c r="AZ40" s="55"/>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:52">
       <c r="A41" s="55"/>
       <c r="B41" s="55"/>
       <c r="C41" s="55"/>
@@ -24129,7 +24173,7 @@
       <c r="AY41" s="55"/>
       <c r="AZ41" s="55"/>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:52">
       <c r="A42" s="55"/>
       <c r="B42" s="55"/>
       <c r="C42" s="55"/>
@@ -24183,7 +24227,7 @@
       <c r="AY42" s="55"/>
       <c r="AZ42" s="55"/>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:52">
       <c r="A43" s="55"/>
       <c r="B43" s="55"/>
       <c r="C43" s="55"/>
@@ -24237,7 +24281,7 @@
       <c r="AY43" s="55"/>
       <c r="AZ43" s="55"/>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:52">
       <c r="A44" s="55"/>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
@@ -24291,7 +24335,7 @@
       <c r="AY44" s="55"/>
       <c r="AZ44" s="55"/>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:52">
       <c r="A45" s="55"/>
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
@@ -24345,7 +24389,7 @@
       <c r="AY45" s="55"/>
       <c r="AZ45" s="55"/>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:52">
       <c r="A46" s="55"/>
       <c r="B46" s="55"/>
       <c r="C46" s="55"/>
@@ -24399,7 +24443,7 @@
       <c r="AY46" s="55"/>
       <c r="AZ46" s="55"/>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:52">
       <c r="A47" s="55"/>
       <c r="B47" s="55"/>
       <c r="C47" s="55"/>
@@ -24453,7 +24497,7 @@
       <c r="AY47" s="55"/>
       <c r="AZ47" s="55"/>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:52">
       <c r="A48" s="55"/>
       <c r="B48" s="55"/>
       <c r="C48" s="55"/>
@@ -24507,7 +24551,7 @@
       <c r="AY48" s="55"/>
       <c r="AZ48" s="55"/>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:52">
       <c r="A49" s="55"/>
       <c r="B49" s="55"/>
       <c r="C49" s="55"/>
@@ -24561,7 +24605,7 @@
       <c r="AY49" s="55"/>
       <c r="AZ49" s="55"/>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:52">
       <c r="A50" s="55"/>
       <c r="B50" s="55"/>
       <c r="C50" s="55"/>
@@ -24615,7 +24659,7 @@
       <c r="AY50" s="55"/>
       <c r="AZ50" s="55"/>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:52">
       <c r="A51" s="55"/>
       <c r="B51" s="55"/>
       <c r="C51" s="55"/>
@@ -24669,7 +24713,7 @@
       <c r="AY51" s="55"/>
       <c r="AZ51" s="55"/>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:52">
       <c r="A52" s="55"/>
       <c r="B52" s="55"/>
       <c r="C52" s="55"/>
@@ -24723,7 +24767,7 @@
       <c r="AY52" s="55"/>
       <c r="AZ52" s="55"/>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:52">
       <c r="A53" s="55"/>
       <c r="B53" s="55"/>
       <c r="C53" s="55"/>
@@ -24777,7 +24821,7 @@
       <c r="AY53" s="55"/>
       <c r="AZ53" s="55"/>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:52">
       <c r="A54" s="55"/>
       <c r="B54" s="55"/>
       <c r="C54" s="55"/>
@@ -24831,7 +24875,7 @@
       <c r="AY54" s="55"/>
       <c r="AZ54" s="55"/>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:52">
       <c r="A55" s="55"/>
       <c r="B55" s="55"/>
       <c r="C55" s="55"/>
@@ -24885,7 +24929,7 @@
       <c r="AY55" s="55"/>
       <c r="AZ55" s="55"/>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:52">
       <c r="A56" s="55"/>
       <c r="B56" s="55"/>
       <c r="C56" s="55"/>
@@ -24939,7 +24983,7 @@
       <c r="AY56" s="55"/>
       <c r="AZ56" s="55"/>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:52">
       <c r="A57" s="55"/>
       <c r="B57" s="55"/>
       <c r="C57" s="55"/>
@@ -24993,7 +25037,7 @@
       <c r="AY57" s="55"/>
       <c r="AZ57" s="55"/>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:52">
       <c r="A58" s="55"/>
       <c r="B58" s="55"/>
       <c r="C58" s="55"/>
@@ -25047,7 +25091,7 @@
       <c r="AY58" s="55"/>
       <c r="AZ58" s="55"/>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:52">
       <c r="A59" s="55"/>
       <c r="B59" s="55"/>
       <c r="C59" s="55"/>
@@ -25101,7 +25145,7 @@
       <c r="AY59" s="55"/>
       <c r="AZ59" s="55"/>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:52">
       <c r="A60" s="55"/>
       <c r="B60" s="55"/>
       <c r="C60" s="55"/>
@@ -25155,7 +25199,7 @@
       <c r="AY60" s="55"/>
       <c r="AZ60" s="55"/>
     </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:52">
       <c r="A61" s="55"/>
       <c r="B61" s="55"/>
       <c r="C61" s="55"/>
@@ -25209,7 +25253,7 @@
       <c r="AY61" s="55"/>
       <c r="AZ61" s="55"/>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:52">
       <c r="A62" s="55"/>
       <c r="B62" s="55"/>
       <c r="C62" s="55"/>
@@ -25263,7 +25307,7 @@
       <c r="AY62" s="55"/>
       <c r="AZ62" s="55"/>
     </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:52">
       <c r="A63" s="55"/>
       <c r="B63" s="55"/>
       <c r="C63" s="55"/>
@@ -25317,7 +25361,7 @@
       <c r="AY63" s="55"/>
       <c r="AZ63" s="55"/>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:52">
       <c r="A64" s="55"/>
       <c r="B64" s="55"/>
       <c r="C64" s="55"/>
@@ -25371,7 +25415,7 @@
       <c r="AY64" s="55"/>
       <c r="AZ64" s="55"/>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:52">
       <c r="A65" s="55"/>
       <c r="B65" s="55"/>
       <c r="C65" s="55"/>
@@ -25425,7 +25469,7 @@
       <c r="AY65" s="55"/>
       <c r="AZ65" s="55"/>
     </row>
-    <row r="66" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:52">
       <c r="A66" s="55"/>
       <c r="B66" s="55"/>
       <c r="C66" s="55"/>
@@ -25479,7 +25523,7 @@
       <c r="AY66" s="55"/>
       <c r="AZ66" s="55"/>
     </row>
-    <row r="67" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:52">
       <c r="A67" s="55"/>
       <c r="B67" s="55"/>
       <c r="C67" s="55"/>
@@ -25533,7 +25577,7 @@
       <c r="AY67" s="55"/>
       <c r="AZ67" s="55"/>
     </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:52">
       <c r="A68" s="55"/>
       <c r="B68" s="55"/>
       <c r="C68" s="55"/>
@@ -25587,7 +25631,7 @@
       <c r="AY68" s="55"/>
       <c r="AZ68" s="55"/>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:52">
       <c r="A69" s="55"/>
       <c r="B69" s="55"/>
       <c r="C69" s="55"/>
@@ -25641,7 +25685,7 @@
       <c r="AY69" s="55"/>
       <c r="AZ69" s="55"/>
     </row>
-    <row r="70" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:52">
       <c r="A70" s="55"/>
       <c r="B70" s="55"/>
       <c r="C70" s="55"/>
@@ -25695,7 +25739,7 @@
       <c r="AY70" s="55"/>
       <c r="AZ70" s="55"/>
     </row>
-    <row r="71" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:52">
       <c r="A71" s="55"/>
       <c r="B71" s="55"/>
       <c r="C71" s="55"/>
@@ -25749,7 +25793,7 @@
       <c r="AY71" s="55"/>
       <c r="AZ71" s="55"/>
     </row>
-    <row r="72" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:52">
       <c r="A72" s="55"/>
       <c r="B72" s="55"/>
       <c r="C72" s="55"/>
@@ -25803,7 +25847,7 @@
       <c r="AY72" s="55"/>
       <c r="AZ72" s="55"/>
     </row>
-    <row r="73" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:52">
       <c r="A73" s="55"/>
       <c r="B73" s="55"/>
       <c r="C73" s="55"/>
@@ -25857,7 +25901,7 @@
       <c r="AY73" s="55"/>
       <c r="AZ73" s="55"/>
     </row>
-    <row r="74" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:52">
       <c r="A74" s="55"/>
       <c r="B74" s="55"/>
       <c r="C74" s="55"/>
@@ -25911,7 +25955,7 @@
       <c r="AY74" s="55"/>
       <c r="AZ74" s="55"/>
     </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:52">
       <c r="A75" s="55"/>
       <c r="B75" s="55"/>
       <c r="C75" s="55"/>
@@ -25965,7 +26009,7 @@
       <c r="AY75" s="55"/>
       <c r="AZ75" s="55"/>
     </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:52">
       <c r="A76" s="55"/>
       <c r="B76" s="55"/>
       <c r="C76" s="55"/>
@@ -26019,7 +26063,7 @@
       <c r="AY76" s="55"/>
       <c r="AZ76" s="55"/>
     </row>
-    <row r="77" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:52">
       <c r="A77" s="55"/>
       <c r="B77" s="55"/>
       <c r="C77" s="55"/>
@@ -26073,7 +26117,7 @@
       <c r="AY77" s="55"/>
       <c r="AZ77" s="55"/>
     </row>
-    <row r="78" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:52">
       <c r="A78" s="55"/>
       <c r="B78" s="55"/>
       <c r="C78" s="55"/>
@@ -26127,7 +26171,7 @@
       <c r="AY78" s="55"/>
       <c r="AZ78" s="55"/>
     </row>
-    <row r="79" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:52">
       <c r="A79" s="55"/>
       <c r="B79" s="55"/>
       <c r="C79" s="55"/>
@@ -26181,7 +26225,7 @@
       <c r="AY79" s="55"/>
       <c r="AZ79" s="55"/>
     </row>
-    <row r="80" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:52">
       <c r="A80" s="55"/>
       <c r="B80" s="55"/>
       <c r="C80" s="55"/>
@@ -26235,7 +26279,7 @@
       <c r="AY80" s="55"/>
       <c r="AZ80" s="55"/>
     </row>
-    <row r="81" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:52">
       <c r="A81" s="55"/>
       <c r="B81" s="55"/>
       <c r="C81" s="55"/>
@@ -26289,7 +26333,7 @@
       <c r="AY81" s="55"/>
       <c r="AZ81" s="55"/>
     </row>
-    <row r="82" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:52">
       <c r="A82" s="55"/>
       <c r="B82" s="55"/>
       <c r="C82" s="55"/>
@@ -26343,7 +26387,7 @@
       <c r="AY82" s="55"/>
       <c r="AZ82" s="55"/>
     </row>
-    <row r="83" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:52">
       <c r="A83" s="55"/>
       <c r="B83" s="55"/>
       <c r="C83" s="55"/>
@@ -26397,7 +26441,7 @@
       <c r="AY83" s="55"/>
       <c r="AZ83" s="55"/>
     </row>
-    <row r="84" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:52">
       <c r="A84" s="55"/>
       <c r="B84" s="55"/>
       <c r="C84" s="55"/>
@@ -26451,7 +26495,7 @@
       <c r="AY84" s="55"/>
       <c r="AZ84" s="55"/>
     </row>
-    <row r="85" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:52">
       <c r="A85" s="55"/>
       <c r="B85" s="55"/>
       <c r="C85" s="55"/>
@@ -26505,7 +26549,7 @@
       <c r="AY85" s="55"/>
       <c r="AZ85" s="55"/>
     </row>
-    <row r="86" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:52">
       <c r="A86" s="55"/>
       <c r="B86" s="55"/>
       <c r="C86" s="55"/>
@@ -26559,7 +26603,7 @@
       <c r="AY86" s="55"/>
       <c r="AZ86" s="55"/>
     </row>
-    <row r="87" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:52">
       <c r="A87" s="55"/>
       <c r="B87" s="55"/>
       <c r="C87" s="55"/>
@@ -26613,7 +26657,7 @@
       <c r="AY87" s="55"/>
       <c r="AZ87" s="55"/>
     </row>
-    <row r="88" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:52">
       <c r="A88" s="55"/>
       <c r="B88" s="55"/>
       <c r="C88" s="55"/>
@@ -26667,7 +26711,7 @@
       <c r="AY88" s="55"/>
       <c r="AZ88" s="55"/>
     </row>
-    <row r="89" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:52">
       <c r="A89" s="55"/>
       <c r="B89" s="55"/>
       <c r="C89" s="55"/>
@@ -26721,7 +26765,7 @@
       <c r="AY89" s="55"/>
       <c r="AZ89" s="55"/>
     </row>
-    <row r="90" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:52">
       <c r="A90" s="55"/>
       <c r="B90" s="55"/>
       <c r="C90" s="55"/>
@@ -26775,7 +26819,7 @@
       <c r="AY90" s="55"/>
       <c r="AZ90" s="55"/>
     </row>
-    <row r="91" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:52">
       <c r="A91" s="55"/>
       <c r="B91" s="55"/>
       <c r="C91" s="55"/>
@@ -26829,7 +26873,7 @@
       <c r="AY91" s="55"/>
       <c r="AZ91" s="55"/>
     </row>
-    <row r="92" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:52">
       <c r="A92" s="55"/>
       <c r="B92" s="55"/>
       <c r="C92" s="55"/>
@@ -26883,7 +26927,7 @@
       <c r="AY92" s="55"/>
       <c r="AZ92" s="55"/>
     </row>
-    <row r="93" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:52">
       <c r="A93" s="55"/>
       <c r="B93" s="55"/>
       <c r="C93" s="55"/>
@@ -26937,7 +26981,7 @@
       <c r="AY93" s="55"/>
       <c r="AZ93" s="55"/>
     </row>
-    <row r="94" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:52">
       <c r="A94" s="55"/>
       <c r="B94" s="55"/>
       <c r="C94" s="55"/>
@@ -26991,7 +27035,7 @@
       <c r="AY94" s="55"/>
       <c r="AZ94" s="55"/>
     </row>
-    <row r="95" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:52">
       <c r="A95" s="55"/>
       <c r="B95" s="55"/>
       <c r="C95" s="55"/>
@@ -27045,7 +27089,7 @@
       <c r="AY95" s="55"/>
       <c r="AZ95" s="55"/>
     </row>
-    <row r="96" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:52">
       <c r="A96" s="55"/>
       <c r="B96" s="55"/>
       <c r="C96" s="55"/>
@@ -27099,7 +27143,7 @@
       <c r="AY96" s="55"/>
       <c r="AZ96" s="55"/>
     </row>
-    <row r="97" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:52">
       <c r="A97" s="55"/>
       <c r="B97" s="55"/>
       <c r="C97" s="55"/>
@@ -27153,7 +27197,7 @@
       <c r="AY97" s="55"/>
       <c r="AZ97" s="55"/>
     </row>
-    <row r="98" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:52">
       <c r="A98" s="55"/>
       <c r="B98" s="55"/>
       <c r="C98" s="55"/>
@@ -27207,7 +27251,7 @@
       <c r="AY98" s="55"/>
       <c r="AZ98" s="55"/>
     </row>
-    <row r="99" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:52">
       <c r="A99" s="55"/>
       <c r="B99" s="55"/>
       <c r="C99" s="55"/>
@@ -27261,7 +27305,7 @@
       <c r="AY99" s="55"/>
       <c r="AZ99" s="55"/>
     </row>
-    <row r="100" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:52">
       <c r="A100" s="55"/>
       <c r="B100" s="55"/>
       <c r="C100" s="55"/>
@@ -27315,7 +27359,7 @@
       <c r="AY100" s="55"/>
       <c r="AZ100" s="55"/>
     </row>
-    <row r="101" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:52">
       <c r="A101" s="55"/>
       <c r="B101" s="55"/>
       <c r="C101" s="55"/>
@@ -27369,7 +27413,7 @@
       <c r="AY101" s="55"/>
       <c r="AZ101" s="55"/>
     </row>
-    <row r="102" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:52">
       <c r="A102" s="55"/>
       <c r="B102" s="55"/>
       <c r="C102" s="55"/>
@@ -27423,7 +27467,7 @@
       <c r="AY102" s="55"/>
       <c r="AZ102" s="55"/>
     </row>
-    <row r="103" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:52">
       <c r="A103" s="55"/>
       <c r="B103" s="55"/>
       <c r="C103" s="55"/>
@@ -27477,7 +27521,7 @@
       <c r="AY103" s="55"/>
       <c r="AZ103" s="55"/>
     </row>
-    <row r="104" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:52">
       <c r="A104" s="55"/>
       <c r="B104" s="55"/>
       <c r="C104" s="55"/>
@@ -27531,7 +27575,7 @@
       <c r="AY104" s="55"/>
       <c r="AZ104" s="55"/>
     </row>
-    <row r="105" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:52">
       <c r="A105" s="55"/>
       <c r="B105" s="55"/>
       <c r="C105" s="55"/>
@@ -27585,7 +27629,7 @@
       <c r="AY105" s="55"/>
       <c r="AZ105" s="55"/>
     </row>
-    <row r="106" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:52">
       <c r="A106" s="55"/>
       <c r="B106" s="55"/>
       <c r="C106" s="55"/>
@@ -27639,7 +27683,7 @@
       <c r="AY106" s="55"/>
       <c r="AZ106" s="55"/>
     </row>
-    <row r="107" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:52">
       <c r="A107" s="55"/>
       <c r="B107" s="55"/>
       <c r="C107" s="55"/>
@@ -27693,7 +27737,7 @@
       <c r="AY107" s="55"/>
       <c r="AZ107" s="55"/>
     </row>
-    <row r="108" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:52">
       <c r="A108" s="55"/>
       <c r="B108" s="55"/>
       <c r="C108" s="55"/>
@@ -27747,7 +27791,7 @@
       <c r="AY108" s="55"/>
       <c r="AZ108" s="55"/>
     </row>
-    <row r="109" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:52">
       <c r="A109" s="55"/>
       <c r="B109" s="55"/>
       <c r="C109" s="55"/>
@@ -27801,7 +27845,7 @@
       <c r="AY109" s="55"/>
       <c r="AZ109" s="55"/>
     </row>
-    <row r="110" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:52">
       <c r="A110" s="55"/>
       <c r="B110" s="55"/>
       <c r="C110" s="55"/>
@@ -27855,7 +27899,7 @@
       <c r="AY110" s="55"/>
       <c r="AZ110" s="55"/>
     </row>
-    <row r="111" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:52">
       <c r="A111" s="55"/>
       <c r="B111" s="55"/>
       <c r="C111" s="55"/>
@@ -27909,7 +27953,7 @@
       <c r="AY111" s="55"/>
       <c r="AZ111" s="55"/>
     </row>
-    <row r="112" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:52">
       <c r="A112" s="55"/>
       <c r="B112" s="55"/>
       <c r="C112" s="55"/>
@@ -27963,7 +28007,7 @@
       <c r="AY112" s="55"/>
       <c r="AZ112" s="55"/>
     </row>
-    <row r="113" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:52">
       <c r="A113" s="55"/>
       <c r="B113" s="55"/>
       <c r="C113" s="55"/>
@@ -28017,7 +28061,7 @@
       <c r="AY113" s="55"/>
       <c r="AZ113" s="55"/>
     </row>
-    <row r="114" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:52">
       <c r="A114" s="55"/>
       <c r="B114" s="55"/>
       <c r="C114" s="55"/>
@@ -28071,7 +28115,7 @@
       <c r="AY114" s="55"/>
       <c r="AZ114" s="55"/>
     </row>
-    <row r="115" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:52">
       <c r="A115" s="55"/>
       <c r="B115" s="55"/>
       <c r="C115" s="55"/>
@@ -28125,7 +28169,7 @@
       <c r="AY115" s="55"/>
       <c r="AZ115" s="55"/>
     </row>
-    <row r="116" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:52">
       <c r="A116" s="55"/>
       <c r="B116" s="55"/>
       <c r="C116" s="55"/>
@@ -28179,7 +28223,7 @@
       <c r="AY116" s="55"/>
       <c r="AZ116" s="55"/>
     </row>
-    <row r="117" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:52">
       <c r="A117" s="55"/>
       <c r="B117" s="55"/>
       <c r="C117" s="55"/>
@@ -28233,7 +28277,7 @@
       <c r="AY117" s="55"/>
       <c r="AZ117" s="55"/>
     </row>
-    <row r="118" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:52">
       <c r="A118" s="55"/>
       <c r="B118" s="55"/>
       <c r="C118" s="55"/>
@@ -28287,7 +28331,7 @@
       <c r="AY118" s="55"/>
       <c r="AZ118" s="55"/>
     </row>
-    <row r="119" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:52">
       <c r="A119" s="55"/>
       <c r="B119" s="55"/>
       <c r="C119" s="55"/>
@@ -28341,7 +28385,7 @@
       <c r="AY119" s="55"/>
       <c r="AZ119" s="55"/>
     </row>
-    <row r="120" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:52">
       <c r="A120" s="55"/>
       <c r="B120" s="55"/>
       <c r="C120" s="55"/>
@@ -28395,7 +28439,7 @@
       <c r="AY120" s="55"/>
       <c r="AZ120" s="55"/>
     </row>
-    <row r="121" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:52">
       <c r="A121" s="55"/>
       <c r="B121" s="55"/>
       <c r="C121" s="55"/>
@@ -28449,7 +28493,7 @@
       <c r="AY121" s="55"/>
       <c r="AZ121" s="55"/>
     </row>
-    <row r="122" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:52">
       <c r="A122" s="55"/>
       <c r="B122" s="55"/>
       <c r="C122" s="55"/>
@@ -28503,7 +28547,7 @@
       <c r="AY122" s="55"/>
       <c r="AZ122" s="55"/>
     </row>
-    <row r="123" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:52">
       <c r="A123" s="55"/>
       <c r="B123" s="55"/>
       <c r="C123" s="55"/>
@@ -28557,7 +28601,7 @@
       <c r="AY123" s="55"/>
       <c r="AZ123" s="55"/>
     </row>
-    <row r="124" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:52">
       <c r="A124" s="55"/>
       <c r="B124" s="55"/>
       <c r="C124" s="55"/>
@@ -28611,7 +28655,7 @@
       <c r="AY124" s="55"/>
       <c r="AZ124" s="55"/>
     </row>
-    <row r="125" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:52">
       <c r="A125" s="55"/>
       <c r="B125" s="55"/>
       <c r="C125" s="55"/>
@@ -28665,7 +28709,7 @@
       <c r="AY125" s="55"/>
       <c r="AZ125" s="55"/>
     </row>
-    <row r="126" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:52">
       <c r="A126" s="55"/>
       <c r="B126" s="55"/>
       <c r="C126" s="55"/>
@@ -28719,7 +28763,7 @@
       <c r="AY126" s="55"/>
       <c r="AZ126" s="55"/>
     </row>
-    <row r="127" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:52">
       <c r="A127" s="55"/>
       <c r="B127" s="55"/>
       <c r="C127" s="55"/>
@@ -28773,7 +28817,7 @@
       <c r="AY127" s="55"/>
       <c r="AZ127" s="55"/>
     </row>
-    <row r="128" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:52">
       <c r="A128" s="55"/>
       <c r="B128" s="55"/>
       <c r="C128" s="55"/>
@@ -28827,7 +28871,7 @@
       <c r="AY128" s="55"/>
       <c r="AZ128" s="55"/>
     </row>
-    <row r="129" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:52">
       <c r="A129" s="55"/>
       <c r="B129" s="55"/>
       <c r="C129" s="55"/>
@@ -28881,7 +28925,7 @@
       <c r="AY129" s="55"/>
       <c r="AZ129" s="55"/>
     </row>
-    <row r="130" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:52">
       <c r="A130" s="55"/>
       <c r="B130" s="55"/>
       <c r="C130" s="55"/>
@@ -28935,7 +28979,7 @@
       <c r="AY130" s="55"/>
       <c r="AZ130" s="55"/>
     </row>
-    <row r="131" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:52">
       <c r="A131" s="55"/>
       <c r="B131" s="55"/>
       <c r="C131" s="55"/>
@@ -28989,7 +29033,7 @@
       <c r="AY131" s="55"/>
       <c r="AZ131" s="55"/>
     </row>
-    <row r="132" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:52">
       <c r="A132" s="55"/>
       <c r="B132" s="55"/>
       <c r="C132" s="55"/>
@@ -29043,7 +29087,7 @@
       <c r="AY132" s="55"/>
       <c r="AZ132" s="55"/>
     </row>
-    <row r="133" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:52">
       <c r="A133" s="55"/>
       <c r="B133" s="55"/>
       <c r="C133" s="55"/>
@@ -29097,7 +29141,7 @@
       <c r="AY133" s="55"/>
       <c r="AZ133" s="55"/>
     </row>
-    <row r="134" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:52">
       <c r="A134" s="55"/>
       <c r="B134" s="55"/>
       <c r="C134" s="55"/>
@@ -29151,7 +29195,7 @@
       <c r="AY134" s="55"/>
       <c r="AZ134" s="55"/>
     </row>
-    <row r="135" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:52">
       <c r="A135" s="55"/>
       <c r="B135" s="55"/>
       <c r="C135" s="55"/>
@@ -29205,7 +29249,7 @@
       <c r="AY135" s="55"/>
       <c r="AZ135" s="55"/>
     </row>
-    <row r="136" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:52">
       <c r="A136" s="55"/>
       <c r="B136" s="55"/>
       <c r="C136" s="55"/>
@@ -29259,7 +29303,7 @@
       <c r="AY136" s="55"/>
       <c r="AZ136" s="55"/>
     </row>
-    <row r="137" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:52">
       <c r="A137" s="55"/>
       <c r="B137" s="55"/>
       <c r="C137" s="55"/>
@@ -29313,7 +29357,7 @@
       <c r="AY137" s="55"/>
       <c r="AZ137" s="55"/>
     </row>
-    <row r="138" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:52">
       <c r="A138" s="55"/>
       <c r="B138" s="55"/>
       <c r="C138" s="55"/>
@@ -29367,7 +29411,7 @@
       <c r="AY138" s="55"/>
       <c r="AZ138" s="55"/>
     </row>
-    <row r="139" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:52">
       <c r="A139" s="55"/>
       <c r="B139" s="55"/>
       <c r="C139" s="55"/>
@@ -29421,7 +29465,7 @@
       <c r="AY139" s="55"/>
       <c r="AZ139" s="55"/>
     </row>
-    <row r="140" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:52">
       <c r="A140" s="55"/>
       <c r="B140" s="55"/>
       <c r="C140" s="55"/>
@@ -29475,7 +29519,7 @@
       <c r="AY140" s="55"/>
       <c r="AZ140" s="55"/>
     </row>
-    <row r="141" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:52">
       <c r="A141" s="55"/>
       <c r="B141" s="55"/>
       <c r="C141" s="55"/>
@@ -29529,7 +29573,7 @@
       <c r="AY141" s="55"/>
       <c r="AZ141" s="55"/>
     </row>
-    <row r="142" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:52">
       <c r="A142" s="55"/>
       <c r="B142" s="55"/>
       <c r="C142" s="55"/>
@@ -29583,7 +29627,7 @@
       <c r="AY142" s="55"/>
       <c r="AZ142" s="55"/>
     </row>
-    <row r="143" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:52">
       <c r="A143" s="55"/>
       <c r="B143" s="55"/>
       <c r="C143" s="55"/>
@@ -29637,7 +29681,7 @@
       <c r="AY143" s="55"/>
       <c r="AZ143" s="55"/>
     </row>
-    <row r="144" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:52">
       <c r="A144" s="55"/>
       <c r="B144" s="55"/>
       <c r="C144" s="55"/>
@@ -29691,7 +29735,7 @@
       <c r="AY144" s="55"/>
       <c r="AZ144" s="55"/>
     </row>
-    <row r="145" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:52">
       <c r="A145" s="55"/>
       <c r="B145" s="55"/>
       <c r="C145" s="55"/>
@@ -29745,7 +29789,7 @@
       <c r="AY145" s="55"/>
       <c r="AZ145" s="55"/>
     </row>
-    <row r="146" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:52">
       <c r="A146" s="55"/>
       <c r="B146" s="55"/>
       <c r="C146" s="55"/>
@@ -29799,7 +29843,7 @@
       <c r="AY146" s="55"/>
       <c r="AZ146" s="55"/>
     </row>
-    <row r="147" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:52">
       <c r="A147" s="55"/>
       <c r="B147" s="55"/>
       <c r="C147" s="55"/>
@@ -29853,7 +29897,7 @@
       <c r="AY147" s="55"/>
       <c r="AZ147" s="55"/>
     </row>
-    <row r="148" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:52">
       <c r="A148" s="55"/>
       <c r="B148" s="55"/>
       <c r="C148" s="55"/>
@@ -29907,7 +29951,7 @@
       <c r="AY148" s="55"/>
       <c r="AZ148" s="55"/>
     </row>
-    <row r="149" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:52">
       <c r="A149" s="55"/>
       <c r="B149" s="55"/>
       <c r="C149" s="55"/>
@@ -29961,7 +30005,7 @@
       <c r="AY149" s="55"/>
       <c r="AZ149" s="55"/>
     </row>
-    <row r="150" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:52">
       <c r="A150" s="55"/>
       <c r="B150" s="55"/>
       <c r="C150" s="55"/>
@@ -30015,7 +30059,7 @@
       <c r="AY150" s="55"/>
       <c r="AZ150" s="55"/>
     </row>
-    <row r="151" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:52">
       <c r="A151" s="55"/>
       <c r="B151" s="55"/>
       <c r="C151" s="55"/>
@@ -30069,7 +30113,7 @@
       <c r="AY151" s="55"/>
       <c r="AZ151" s="55"/>
     </row>
-    <row r="152" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:52">
       <c r="A152" s="55"/>
       <c r="B152" s="55"/>
       <c r="C152" s="55"/>
@@ -30123,7 +30167,7 @@
       <c r="AY152" s="55"/>
       <c r="AZ152" s="55"/>
     </row>
-    <row r="153" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:52">
       <c r="A153" s="55"/>
       <c r="B153" s="55"/>
       <c r="C153" s="55"/>
@@ -30177,7 +30221,7 @@
       <c r="AY153" s="55"/>
       <c r="AZ153" s="55"/>
     </row>
-    <row r="154" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:52">
       <c r="A154" s="55"/>
       <c r="B154" s="55"/>
       <c r="C154" s="55"/>
@@ -30231,7 +30275,7 @@
       <c r="AY154" s="55"/>
       <c r="AZ154" s="55"/>
     </row>
-    <row r="155" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:52">
       <c r="A155" s="55"/>
       <c r="B155" s="55"/>
       <c r="C155" s="55"/>
@@ -30285,7 +30329,7 @@
       <c r="AY155" s="55"/>
       <c r="AZ155" s="55"/>
     </row>
-    <row r="156" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:52">
       <c r="A156" s="55"/>
       <c r="B156" s="55"/>
       <c r="C156" s="55"/>
@@ -30339,7 +30383,7 @@
       <c r="AY156" s="55"/>
       <c r="AZ156" s="55"/>
     </row>
-    <row r="157" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:52">
       <c r="A157" s="55"/>
       <c r="B157" s="55"/>
       <c r="C157" s="55"/>
@@ -30393,7 +30437,7 @@
       <c r="AY157" s="55"/>
       <c r="AZ157" s="55"/>
     </row>
-    <row r="158" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:52">
       <c r="A158" s="55"/>
       <c r="B158" s="55"/>
       <c r="C158" s="55"/>
@@ -30447,7 +30491,7 @@
       <c r="AY158" s="55"/>
       <c r="AZ158" s="55"/>
     </row>
-    <row r="159" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:52">
       <c r="A159" s="55"/>
       <c r="B159" s="55"/>
       <c r="C159" s="55"/>
@@ -30501,7 +30545,7 @@
       <c r="AY159" s="55"/>
       <c r="AZ159" s="55"/>
     </row>
-    <row r="160" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:52">
       <c r="A160" s="55"/>
       <c r="B160" s="55"/>
       <c r="C160" s="55"/>
@@ -30555,7 +30599,7 @@
       <c r="AY160" s="55"/>
       <c r="AZ160" s="55"/>
     </row>
-    <row r="161" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:52">
       <c r="A161" s="55"/>
       <c r="B161" s="55"/>
       <c r="C161" s="55"/>
@@ -30609,7 +30653,7 @@
       <c r="AY161" s="55"/>
       <c r="AZ161" s="55"/>
     </row>
-    <row r="162" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:52">
       <c r="A162" s="55"/>
       <c r="B162" s="55"/>
       <c r="C162" s="55"/>
@@ -30663,7 +30707,7 @@
       <c r="AY162" s="55"/>
       <c r="AZ162" s="55"/>
     </row>
-    <row r="163" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:52">
       <c r="A163" s="55"/>
       <c r="B163" s="55"/>
       <c r="C163" s="55"/>
@@ -30717,7 +30761,7 @@
       <c r="AY163" s="55"/>
       <c r="AZ163" s="55"/>
     </row>
-    <row r="164" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:52">
       <c r="A164" s="55"/>
       <c r="B164" s="55"/>
       <c r="C164" s="55"/>
@@ -30771,7 +30815,7 @@
       <c r="AY164" s="55"/>
       <c r="AZ164" s="55"/>
     </row>
-    <row r="165" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:52">
       <c r="A165" s="55"/>
       <c r="B165" s="55"/>
       <c r="C165" s="55"/>
@@ -30825,7 +30869,7 @@
       <c r="AY165" s="55"/>
       <c r="AZ165" s="55"/>
     </row>
-    <row r="166" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:52">
       <c r="A166" s="55"/>
       <c r="B166" s="55"/>
       <c r="C166" s="55"/>
@@ -30879,7 +30923,7 @@
       <c r="AY166" s="55"/>
       <c r="AZ166" s="55"/>
     </row>
-    <row r="167" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:52">
       <c r="A167" s="55"/>
       <c r="B167" s="55"/>
       <c r="C167" s="55"/>
@@ -30933,7 +30977,7 @@
       <c r="AY167" s="55"/>
       <c r="AZ167" s="55"/>
     </row>
-    <row r="168" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:52">
       <c r="A168" s="55"/>
       <c r="B168" s="55"/>
       <c r="C168" s="55"/>
@@ -30987,7 +31031,7 @@
       <c r="AY168" s="55"/>
       <c r="AZ168" s="55"/>
     </row>
-    <row r="169" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:52">
       <c r="A169" s="55"/>
       <c r="B169" s="55"/>
       <c r="C169" s="55"/>
@@ -31041,7 +31085,7 @@
       <c r="AY169" s="55"/>
       <c r="AZ169" s="55"/>
     </row>
-    <row r="170" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:52">
       <c r="A170" s="55"/>
       <c r="B170" s="55"/>
       <c r="C170" s="55"/>
@@ -31095,7 +31139,7 @@
       <c r="AY170" s="55"/>
       <c r="AZ170" s="55"/>
     </row>
-    <row r="171" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:52">
       <c r="A171" s="55"/>
       <c r="B171" s="55"/>
       <c r="C171" s="55"/>
@@ -31149,7 +31193,7 @@
       <c r="AY171" s="55"/>
       <c r="AZ171" s="55"/>
     </row>
-    <row r="172" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:52">
       <c r="A172" s="55"/>
       <c r="B172" s="55"/>
       <c r="C172" s="55"/>
@@ -31203,7 +31247,7 @@
       <c r="AY172" s="55"/>
       <c r="AZ172" s="55"/>
     </row>
-    <row r="173" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:52">
       <c r="A173" s="55"/>
       <c r="B173" s="55"/>
       <c r="C173" s="55"/>
@@ -31257,7 +31301,7 @@
       <c r="AY173" s="55"/>
       <c r="AZ173" s="55"/>
     </row>
-    <row r="174" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:52">
       <c r="A174" s="55"/>
       <c r="B174" s="55"/>
       <c r="C174" s="55"/>
@@ -31311,7 +31355,7 @@
       <c r="AY174" s="55"/>
       <c r="AZ174" s="55"/>
     </row>
-    <row r="175" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:52">
       <c r="A175" s="55"/>
       <c r="B175" s="55"/>
       <c r="C175" s="55"/>
@@ -31365,7 +31409,7 @@
       <c r="AY175" s="55"/>
       <c r="AZ175" s="55"/>
     </row>
-    <row r="176" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:52">
       <c r="A176" s="55"/>
       <c r="B176" s="55"/>
       <c r="C176" s="55"/>
@@ -31419,7 +31463,7 @@
       <c r="AY176" s="55"/>
       <c r="AZ176" s="55"/>
     </row>
-    <row r="177" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:52">
       <c r="A177" s="55"/>
       <c r="B177" s="55"/>
       <c r="C177" s="55"/>
@@ -31473,7 +31517,7 @@
       <c r="AY177" s="55"/>
       <c r="AZ177" s="55"/>
     </row>
-    <row r="178" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:52">
       <c r="A178" s="55"/>
       <c r="B178" s="55"/>
       <c r="C178" s="55"/>
@@ -31527,7 +31571,7 @@
       <c r="AY178" s="55"/>
       <c r="AZ178" s="55"/>
     </row>
-    <row r="179" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:52">
       <c r="A179" s="55"/>
       <c r="B179" s="55"/>
       <c r="C179" s="55"/>
@@ -31581,7 +31625,7 @@
       <c r="AY179" s="55"/>
       <c r="AZ179" s="55"/>
     </row>
-    <row r="180" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:52">
       <c r="A180" s="55"/>
       <c r="B180" s="55"/>
       <c r="C180" s="55"/>
@@ -31635,7 +31679,7 @@
       <c r="AY180" s="55"/>
       <c r="AZ180" s="55"/>
     </row>
-    <row r="181" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:52">
       <c r="A181" s="55"/>
       <c r="B181" s="55"/>
       <c r="C181" s="55"/>
@@ -31689,7 +31733,7 @@
       <c r="AY181" s="55"/>
       <c r="AZ181" s="55"/>
     </row>
-    <row r="182" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:52">
       <c r="A182" s="55"/>
       <c r="B182" s="55"/>
       <c r="C182" s="55"/>
@@ -31743,7 +31787,7 @@
       <c r="AY182" s="55"/>
       <c r="AZ182" s="55"/>
     </row>
-    <row r="183" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:52">
       <c r="A183" s="55"/>
       <c r="B183" s="55"/>
       <c r="C183" s="55"/>
@@ -31797,7 +31841,7 @@
       <c r="AY183" s="55"/>
       <c r="AZ183" s="55"/>
     </row>
-    <row r="184" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:52">
       <c r="A184" s="55"/>
       <c r="B184" s="55"/>
       <c r="C184" s="55"/>
@@ -31851,7 +31895,7 @@
       <c r="AY184" s="55"/>
       <c r="AZ184" s="55"/>
     </row>
-    <row r="185" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:52">
       <c r="A185" s="55"/>
       <c r="B185" s="55"/>
       <c r="C185" s="55"/>
@@ -31905,7 +31949,7 @@
       <c r="AY185" s="55"/>
       <c r="AZ185" s="55"/>
     </row>
-    <row r="186" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:52">
       <c r="A186" s="55"/>
       <c r="B186" s="55"/>
       <c r="C186" s="55"/>
@@ -31959,7 +32003,7 @@
       <c r="AY186" s="55"/>
       <c r="AZ186" s="55"/>
     </row>
-    <row r="187" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:52">
       <c r="A187" s="55"/>
       <c r="B187" s="55"/>
       <c r="C187" s="55"/>
@@ -32013,7 +32057,7 @@
       <c r="AY187" s="55"/>
       <c r="AZ187" s="55"/>
     </row>
-    <row r="188" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:52">
       <c r="A188" s="55"/>
       <c r="B188" s="55"/>
       <c r="C188" s="55"/>
@@ -32067,7 +32111,7 @@
       <c r="AY188" s="55"/>
       <c r="AZ188" s="55"/>
     </row>
-    <row r="189" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:52">
       <c r="A189" s="55"/>
       <c r="B189" s="55"/>
       <c r="C189" s="55"/>
@@ -32121,7 +32165,7 @@
       <c r="AY189" s="55"/>
       <c r="AZ189" s="55"/>
     </row>
-    <row r="190" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:52">
       <c r="A190" s="55"/>
       <c r="B190" s="55"/>
       <c r="C190" s="55"/>
@@ -32175,7 +32219,7 @@
       <c r="AY190" s="55"/>
       <c r="AZ190" s="55"/>
     </row>
-    <row r="191" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:52">
       <c r="A191" s="55"/>
       <c r="B191" s="55"/>
       <c r="C191" s="55"/>
@@ -32229,7 +32273,7 @@
       <c r="AY191" s="55"/>
       <c r="AZ191" s="55"/>
     </row>
-    <row r="192" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:52">
       <c r="A192" s="55"/>
       <c r="B192" s="55"/>
       <c r="C192" s="55"/>
@@ -32283,7 +32327,7 @@
       <c r="AY192" s="55"/>
       <c r="AZ192" s="55"/>
     </row>
-    <row r="193" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:52">
       <c r="A193" s="55"/>
       <c r="B193" s="55"/>
       <c r="C193" s="55"/>
@@ -32337,7 +32381,7 @@
       <c r="AY193" s="55"/>
       <c r="AZ193" s="55"/>
     </row>
-    <row r="194" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:52">
       <c r="A194" s="55"/>
       <c r="B194" s="55"/>
       <c r="C194" s="55"/>
@@ -32391,7 +32435,7 @@
       <c r="AY194" s="55"/>
       <c r="AZ194" s="55"/>
     </row>
-    <row r="195" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:52">
       <c r="A195" s="55"/>
       <c r="B195" s="55"/>
       <c r="C195" s="55"/>
@@ -32445,7 +32489,7 @@
       <c r="AY195" s="55"/>
       <c r="AZ195" s="55"/>
     </row>
-    <row r="196" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:52">
       <c r="A196" s="55"/>
       <c r="B196" s="55"/>
       <c r="C196" s="55"/>
@@ -32499,7 +32543,7 @@
       <c r="AY196" s="55"/>
       <c r="AZ196" s="55"/>
     </row>
-    <row r="197" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:52">
       <c r="A197" s="55"/>
       <c r="B197" s="55"/>
       <c r="C197" s="55"/>
@@ -32553,7 +32597,7 @@
       <c r="AY197" s="55"/>
       <c r="AZ197" s="55"/>
     </row>
-    <row r="198" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:52">
       <c r="A198" s="55"/>
       <c r="B198" s="55"/>
       <c r="C198" s="55"/>
@@ -32607,7 +32651,7 @@
       <c r="AY198" s="55"/>
       <c r="AZ198" s="55"/>
     </row>
-    <row r="199" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:52">
       <c r="A199" s="55"/>
       <c r="B199" s="55"/>
       <c r="C199" s="55"/>
@@ -32661,7 +32705,7 @@
       <c r="AY199" s="55"/>
       <c r="AZ199" s="55"/>
     </row>
-    <row r="200" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:52">
       <c r="A200" s="55"/>
       <c r="B200" s="55"/>
       <c r="C200" s="55"/>
@@ -32715,7 +32759,7 @@
       <c r="AY200" s="55"/>
       <c r="AZ200" s="55"/>
     </row>
-    <row r="201" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:52">
       <c r="A201" s="55"/>
       <c r="B201" s="55"/>
       <c r="C201" s="55"/>
@@ -32769,7 +32813,7 @@
       <c r="AY201" s="55"/>
       <c r="AZ201" s="55"/>
     </row>
-    <row r="202" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:52">
       <c r="A202" s="55"/>
       <c r="B202" s="55"/>
       <c r="C202" s="55"/>
@@ -32823,7 +32867,7 @@
       <c r="AY202" s="55"/>
       <c r="AZ202" s="55"/>
     </row>
-    <row r="203" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:52">
       <c r="A203" s="55"/>
       <c r="B203" s="55"/>
       <c r="C203" s="55"/>
@@ -32877,7 +32921,7 @@
       <c r="AY203" s="55"/>
       <c r="AZ203" s="55"/>
     </row>
-    <row r="204" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:52">
       <c r="A204" s="55"/>
       <c r="B204" s="55"/>
       <c r="C204" s="55"/>
@@ -32931,7 +32975,7 @@
       <c r="AY204" s="55"/>
       <c r="AZ204" s="55"/>
     </row>
-    <row r="205" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:52">
       <c r="A205" s="55"/>
       <c r="B205" s="55"/>
       <c r="C205" s="55"/>
@@ -32985,7 +33029,7 @@
       <c r="AY205" s="55"/>
       <c r="AZ205" s="55"/>
     </row>
-    <row r="206" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:52">
       <c r="A206" s="55"/>
       <c r="B206" s="55"/>
       <c r="C206" s="55"/>
@@ -33039,7 +33083,7 @@
       <c r="AY206" s="55"/>
       <c r="AZ206" s="55"/>
     </row>
-    <row r="207" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:52">
       <c r="A207" s="55"/>
       <c r="B207" s="55"/>
       <c r="C207" s="55"/>
@@ -33093,7 +33137,7 @@
       <c r="AY207" s="55"/>
       <c r="AZ207" s="55"/>
     </row>
-    <row r="208" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:52">
       <c r="A208" s="55"/>
       <c r="B208" s="55"/>
       <c r="C208" s="55"/>
@@ -33174,12 +33218,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -33337,6 +33375,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
@@ -33346,15 +33390,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33370,4 +33405,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K21A_工程別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21A_工程別集計.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backdoor_cloud\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201910\実績参照\20191017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E87700-9050-4289-96CE-6ADD326C8E2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164F5D37-8858-434E-9C40-FCCEFB529887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -1196,7 +1196,7 @@
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1954,47 +1954,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2025,29 +1984,46 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2060,6 +2036,30 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -2079,19 +2079,20 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="40% - アクセント 1" xfId="6" builtinId="31"/>
     <cellStyle name="60% - アクセント 1" xfId="1" builtinId="32"/>
+    <cellStyle name="通貨 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="標準 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
@@ -2104,7 +2105,6 @@
     <cellStyle name="標準 7" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="標準_07_1_出荷指示の考え方" xfId="8" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="標準_連絡111KU" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="通貨 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -3061,50 +3061,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>113</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>182</xdr:col>
-      <xdr:colOff>20443</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>149214</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97120B78-73A3-4350-943D-725066B4E298}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12915900" y="1097280"/>
-          <a:ext cx="7907143" cy="6435714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3598,163 +3554,163 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="49" width="2.6640625" style="2" customWidth="1"/>
+    <col min="1" max="49" width="2.625" style="2" customWidth="1"/>
     <col min="50" max="256" width="9" style="2"/>
-    <col min="257" max="305" width="2.6640625" style="2" customWidth="1"/>
+    <col min="257" max="305" width="2.625" style="2" customWidth="1"/>
     <col min="306" max="512" width="9" style="2"/>
-    <col min="513" max="561" width="2.6640625" style="2" customWidth="1"/>
+    <col min="513" max="561" width="2.625" style="2" customWidth="1"/>
     <col min="562" max="768" width="9" style="2"/>
-    <col min="769" max="817" width="2.6640625" style="2" customWidth="1"/>
+    <col min="769" max="817" width="2.625" style="2" customWidth="1"/>
     <col min="818" max="1024" width="9" style="2"/>
-    <col min="1025" max="1073" width="2.6640625" style="2" customWidth="1"/>
+    <col min="1025" max="1073" width="2.625" style="2" customWidth="1"/>
     <col min="1074" max="1280" width="9" style="2"/>
-    <col min="1281" max="1329" width="2.6640625" style="2" customWidth="1"/>
+    <col min="1281" max="1329" width="2.625" style="2" customWidth="1"/>
     <col min="1330" max="1536" width="9" style="2"/>
-    <col min="1537" max="1585" width="2.6640625" style="2" customWidth="1"/>
+    <col min="1537" max="1585" width="2.625" style="2" customWidth="1"/>
     <col min="1586" max="1792" width="9" style="2"/>
-    <col min="1793" max="1841" width="2.6640625" style="2" customWidth="1"/>
+    <col min="1793" max="1841" width="2.625" style="2" customWidth="1"/>
     <col min="1842" max="2048" width="9" style="2"/>
-    <col min="2049" max="2097" width="2.6640625" style="2" customWidth="1"/>
+    <col min="2049" max="2097" width="2.625" style="2" customWidth="1"/>
     <col min="2098" max="2304" width="9" style="2"/>
-    <col min="2305" max="2353" width="2.6640625" style="2" customWidth="1"/>
+    <col min="2305" max="2353" width="2.625" style="2" customWidth="1"/>
     <col min="2354" max="2560" width="9" style="2"/>
-    <col min="2561" max="2609" width="2.6640625" style="2" customWidth="1"/>
+    <col min="2561" max="2609" width="2.625" style="2" customWidth="1"/>
     <col min="2610" max="2816" width="9" style="2"/>
-    <col min="2817" max="2865" width="2.6640625" style="2" customWidth="1"/>
+    <col min="2817" max="2865" width="2.625" style="2" customWidth="1"/>
     <col min="2866" max="3072" width="9" style="2"/>
-    <col min="3073" max="3121" width="2.6640625" style="2" customWidth="1"/>
+    <col min="3073" max="3121" width="2.625" style="2" customWidth="1"/>
     <col min="3122" max="3328" width="9" style="2"/>
-    <col min="3329" max="3377" width="2.6640625" style="2" customWidth="1"/>
+    <col min="3329" max="3377" width="2.625" style="2" customWidth="1"/>
     <col min="3378" max="3584" width="9" style="2"/>
-    <col min="3585" max="3633" width="2.6640625" style="2" customWidth="1"/>
+    <col min="3585" max="3633" width="2.625" style="2" customWidth="1"/>
     <col min="3634" max="3840" width="9" style="2"/>
-    <col min="3841" max="3889" width="2.6640625" style="2" customWidth="1"/>
+    <col min="3841" max="3889" width="2.625" style="2" customWidth="1"/>
     <col min="3890" max="4096" width="9" style="2"/>
-    <col min="4097" max="4145" width="2.6640625" style="2" customWidth="1"/>
+    <col min="4097" max="4145" width="2.625" style="2" customWidth="1"/>
     <col min="4146" max="4352" width="9" style="2"/>
-    <col min="4353" max="4401" width="2.6640625" style="2" customWidth="1"/>
+    <col min="4353" max="4401" width="2.625" style="2" customWidth="1"/>
     <col min="4402" max="4608" width="9" style="2"/>
-    <col min="4609" max="4657" width="2.6640625" style="2" customWidth="1"/>
+    <col min="4609" max="4657" width="2.625" style="2" customWidth="1"/>
     <col min="4658" max="4864" width="9" style="2"/>
-    <col min="4865" max="4913" width="2.6640625" style="2" customWidth="1"/>
+    <col min="4865" max="4913" width="2.625" style="2" customWidth="1"/>
     <col min="4914" max="5120" width="9" style="2"/>
-    <col min="5121" max="5169" width="2.6640625" style="2" customWidth="1"/>
+    <col min="5121" max="5169" width="2.625" style="2" customWidth="1"/>
     <col min="5170" max="5376" width="9" style="2"/>
-    <col min="5377" max="5425" width="2.6640625" style="2" customWidth="1"/>
+    <col min="5377" max="5425" width="2.625" style="2" customWidth="1"/>
     <col min="5426" max="5632" width="9" style="2"/>
-    <col min="5633" max="5681" width="2.6640625" style="2" customWidth="1"/>
+    <col min="5633" max="5681" width="2.625" style="2" customWidth="1"/>
     <col min="5682" max="5888" width="9" style="2"/>
-    <col min="5889" max="5937" width="2.6640625" style="2" customWidth="1"/>
+    <col min="5889" max="5937" width="2.625" style="2" customWidth="1"/>
     <col min="5938" max="6144" width="9" style="2"/>
-    <col min="6145" max="6193" width="2.6640625" style="2" customWidth="1"/>
+    <col min="6145" max="6193" width="2.625" style="2" customWidth="1"/>
     <col min="6194" max="6400" width="9" style="2"/>
-    <col min="6401" max="6449" width="2.6640625" style="2" customWidth="1"/>
+    <col min="6401" max="6449" width="2.625" style="2" customWidth="1"/>
     <col min="6450" max="6656" width="9" style="2"/>
-    <col min="6657" max="6705" width="2.6640625" style="2" customWidth="1"/>
+    <col min="6657" max="6705" width="2.625" style="2" customWidth="1"/>
     <col min="6706" max="6912" width="9" style="2"/>
-    <col min="6913" max="6961" width="2.6640625" style="2" customWidth="1"/>
+    <col min="6913" max="6961" width="2.625" style="2" customWidth="1"/>
     <col min="6962" max="7168" width="9" style="2"/>
-    <col min="7169" max="7217" width="2.6640625" style="2" customWidth="1"/>
+    <col min="7169" max="7217" width="2.625" style="2" customWidth="1"/>
     <col min="7218" max="7424" width="9" style="2"/>
-    <col min="7425" max="7473" width="2.6640625" style="2" customWidth="1"/>
+    <col min="7425" max="7473" width="2.625" style="2" customWidth="1"/>
     <col min="7474" max="7680" width="9" style="2"/>
-    <col min="7681" max="7729" width="2.6640625" style="2" customWidth="1"/>
+    <col min="7681" max="7729" width="2.625" style="2" customWidth="1"/>
     <col min="7730" max="7936" width="9" style="2"/>
-    <col min="7937" max="7985" width="2.6640625" style="2" customWidth="1"/>
+    <col min="7937" max="7985" width="2.625" style="2" customWidth="1"/>
     <col min="7986" max="8192" width="9" style="2"/>
-    <col min="8193" max="8241" width="2.6640625" style="2" customWidth="1"/>
+    <col min="8193" max="8241" width="2.625" style="2" customWidth="1"/>
     <col min="8242" max="8448" width="9" style="2"/>
-    <col min="8449" max="8497" width="2.6640625" style="2" customWidth="1"/>
+    <col min="8449" max="8497" width="2.625" style="2" customWidth="1"/>
     <col min="8498" max="8704" width="9" style="2"/>
-    <col min="8705" max="8753" width="2.6640625" style="2" customWidth="1"/>
+    <col min="8705" max="8753" width="2.625" style="2" customWidth="1"/>
     <col min="8754" max="8960" width="9" style="2"/>
-    <col min="8961" max="9009" width="2.6640625" style="2" customWidth="1"/>
+    <col min="8961" max="9009" width="2.625" style="2" customWidth="1"/>
     <col min="9010" max="9216" width="9" style="2"/>
-    <col min="9217" max="9265" width="2.6640625" style="2" customWidth="1"/>
+    <col min="9217" max="9265" width="2.625" style="2" customWidth="1"/>
     <col min="9266" max="9472" width="9" style="2"/>
-    <col min="9473" max="9521" width="2.6640625" style="2" customWidth="1"/>
+    <col min="9473" max="9521" width="2.625" style="2" customWidth="1"/>
     <col min="9522" max="9728" width="9" style="2"/>
-    <col min="9729" max="9777" width="2.6640625" style="2" customWidth="1"/>
+    <col min="9729" max="9777" width="2.625" style="2" customWidth="1"/>
     <col min="9778" max="9984" width="9" style="2"/>
-    <col min="9985" max="10033" width="2.6640625" style="2" customWidth="1"/>
+    <col min="9985" max="10033" width="2.625" style="2" customWidth="1"/>
     <col min="10034" max="10240" width="9" style="2"/>
-    <col min="10241" max="10289" width="2.6640625" style="2" customWidth="1"/>
+    <col min="10241" max="10289" width="2.625" style="2" customWidth="1"/>
     <col min="10290" max="10496" width="9" style="2"/>
-    <col min="10497" max="10545" width="2.6640625" style="2" customWidth="1"/>
+    <col min="10497" max="10545" width="2.625" style="2" customWidth="1"/>
     <col min="10546" max="10752" width="9" style="2"/>
-    <col min="10753" max="10801" width="2.6640625" style="2" customWidth="1"/>
+    <col min="10753" max="10801" width="2.625" style="2" customWidth="1"/>
     <col min="10802" max="11008" width="9" style="2"/>
-    <col min="11009" max="11057" width="2.6640625" style="2" customWidth="1"/>
+    <col min="11009" max="11057" width="2.625" style="2" customWidth="1"/>
     <col min="11058" max="11264" width="9" style="2"/>
-    <col min="11265" max="11313" width="2.6640625" style="2" customWidth="1"/>
+    <col min="11265" max="11313" width="2.625" style="2" customWidth="1"/>
     <col min="11314" max="11520" width="9" style="2"/>
-    <col min="11521" max="11569" width="2.6640625" style="2" customWidth="1"/>
+    <col min="11521" max="11569" width="2.625" style="2" customWidth="1"/>
     <col min="11570" max="11776" width="9" style="2"/>
-    <col min="11777" max="11825" width="2.6640625" style="2" customWidth="1"/>
+    <col min="11777" max="11825" width="2.625" style="2" customWidth="1"/>
     <col min="11826" max="12032" width="9" style="2"/>
-    <col min="12033" max="12081" width="2.6640625" style="2" customWidth="1"/>
+    <col min="12033" max="12081" width="2.625" style="2" customWidth="1"/>
     <col min="12082" max="12288" width="9" style="2"/>
-    <col min="12289" max="12337" width="2.6640625" style="2" customWidth="1"/>
+    <col min="12289" max="12337" width="2.625" style="2" customWidth="1"/>
     <col min="12338" max="12544" width="9" style="2"/>
-    <col min="12545" max="12593" width="2.6640625" style="2" customWidth="1"/>
+    <col min="12545" max="12593" width="2.625" style="2" customWidth="1"/>
     <col min="12594" max="12800" width="9" style="2"/>
-    <col min="12801" max="12849" width="2.6640625" style="2" customWidth="1"/>
+    <col min="12801" max="12849" width="2.625" style="2" customWidth="1"/>
     <col min="12850" max="13056" width="9" style="2"/>
-    <col min="13057" max="13105" width="2.6640625" style="2" customWidth="1"/>
+    <col min="13057" max="13105" width="2.625" style="2" customWidth="1"/>
     <col min="13106" max="13312" width="9" style="2"/>
-    <col min="13313" max="13361" width="2.6640625" style="2" customWidth="1"/>
+    <col min="13313" max="13361" width="2.625" style="2" customWidth="1"/>
     <col min="13362" max="13568" width="9" style="2"/>
-    <col min="13569" max="13617" width="2.6640625" style="2" customWidth="1"/>
+    <col min="13569" max="13617" width="2.625" style="2" customWidth="1"/>
     <col min="13618" max="13824" width="9" style="2"/>
-    <col min="13825" max="13873" width="2.6640625" style="2" customWidth="1"/>
+    <col min="13825" max="13873" width="2.625" style="2" customWidth="1"/>
     <col min="13874" max="14080" width="9" style="2"/>
-    <col min="14081" max="14129" width="2.6640625" style="2" customWidth="1"/>
+    <col min="14081" max="14129" width="2.625" style="2" customWidth="1"/>
     <col min="14130" max="14336" width="9" style="2"/>
-    <col min="14337" max="14385" width="2.6640625" style="2" customWidth="1"/>
+    <col min="14337" max="14385" width="2.625" style="2" customWidth="1"/>
     <col min="14386" max="14592" width="9" style="2"/>
-    <col min="14593" max="14641" width="2.6640625" style="2" customWidth="1"/>
+    <col min="14593" max="14641" width="2.625" style="2" customWidth="1"/>
     <col min="14642" max="14848" width="9" style="2"/>
-    <col min="14849" max="14897" width="2.6640625" style="2" customWidth="1"/>
+    <col min="14849" max="14897" width="2.625" style="2" customWidth="1"/>
     <col min="14898" max="15104" width="9" style="2"/>
-    <col min="15105" max="15153" width="2.6640625" style="2" customWidth="1"/>
+    <col min="15105" max="15153" width="2.625" style="2" customWidth="1"/>
     <col min="15154" max="15360" width="9" style="2"/>
-    <col min="15361" max="15409" width="2.6640625" style="2" customWidth="1"/>
+    <col min="15361" max="15409" width="2.625" style="2" customWidth="1"/>
     <col min="15410" max="15616" width="9" style="2"/>
-    <col min="15617" max="15665" width="2.6640625" style="2" customWidth="1"/>
+    <col min="15617" max="15665" width="2.625" style="2" customWidth="1"/>
     <col min="15666" max="15872" width="9" style="2"/>
-    <col min="15873" max="15921" width="2.6640625" style="2" customWidth="1"/>
+    <col min="15873" max="15921" width="2.625" style="2" customWidth="1"/>
     <col min="15922" max="16128" width="9" style="2"/>
-    <col min="16129" max="16177" width="2.6640625" style="2" customWidth="1"/>
+    <col min="16129" max="16177" width="2.625" style="2" customWidth="1"/>
     <col min="16178" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="21">
+    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
       <c r="AG6" s="3"/>
     </row>
-    <row r="25" spans="1:49">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.15">
       <c r="U25" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:49">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.15">
       <c r="AH26" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:49">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3791,7 +3747,7 @@
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
     </row>
-    <row r="32" spans="1:49" ht="19.2">
+    <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A32" s="101" t="s">
         <v>102</v>
       </c>
@@ -3844,7 +3800,7 @@
       <c r="AV32" s="101"/>
       <c r="AW32" s="101"/>
     </row>
-    <row r="33" spans="1:49" ht="14.4">
+    <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="102"/>
       <c r="B33" s="102"/>
       <c r="C33" s="102"/>
@@ -3895,7 +3851,7 @@
       <c r="AV33" s="102"/>
       <c r="AW33" s="102"/>
     </row>
-    <row r="34" spans="1:49" ht="9" customHeight="1">
+    <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3930,7 +3886,7 @@
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
     </row>
-    <row r="35" spans="1:49" ht="19.2">
+    <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A35" s="103"/>
       <c r="B35" s="103"/>
       <c r="C35" s="103"/>
@@ -3981,7 +3937,7 @@
       <c r="AV35" s="103"/>
       <c r="AW35" s="103"/>
     </row>
-    <row r="42" spans="1:49">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -4007,1786 +3963,2001 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="2.6640625" style="57"/>
+    <col min="1" max="16384" width="2.625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="15">
+    <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="119"/>
-      <c r="AH1" s="119"/>
-      <c r="AI1" s="119"/>
-      <c r="AJ1" s="119"/>
-      <c r="AK1" s="119"/>
-      <c r="AL1" s="119"/>
-      <c r="AM1" s="119"/>
-      <c r="AN1" s="119"/>
-      <c r="AO1" s="119"/>
-      <c r="AP1" s="119"/>
-      <c r="AQ1" s="119"/>
-      <c r="AR1" s="119"/>
-      <c r="AS1" s="119"/>
-      <c r="AT1" s="119"/>
-      <c r="AU1" s="119"/>
-      <c r="AV1" s="119"/>
-      <c r="AW1" s="119"/>
-    </row>
-    <row r="2" spans="1:49" ht="15">
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="104"/>
+      <c r="AG1" s="104"/>
+      <c r="AH1" s="104"/>
+      <c r="AI1" s="104"/>
+      <c r="AJ1" s="104"/>
+      <c r="AK1" s="104"/>
+      <c r="AL1" s="104"/>
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="104"/>
+      <c r="AO1" s="104"/>
+      <c r="AP1" s="104"/>
+      <c r="AQ1" s="104"/>
+      <c r="AR1" s="104"/>
+      <c r="AS1" s="104"/>
+      <c r="AT1" s="104"/>
+      <c r="AU1" s="104"/>
+      <c r="AV1" s="104"/>
+      <c r="AW1" s="104"/>
+    </row>
+    <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="120"/>
-      <c r="AA2" s="120"/>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="120"/>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="120"/>
-      <c r="AG2" s="120"/>
-      <c r="AH2" s="120"/>
-      <c r="AI2" s="120"/>
-      <c r="AJ2" s="120"/>
-      <c r="AK2" s="120"/>
-      <c r="AL2" s="120"/>
-      <c r="AM2" s="120"/>
-      <c r="AN2" s="120"/>
-      <c r="AO2" s="120"/>
-      <c r="AP2" s="120"/>
-      <c r="AQ2" s="120"/>
-      <c r="AR2" s="120"/>
-      <c r="AS2" s="120"/>
-      <c r="AT2" s="120"/>
-      <c r="AU2" s="120"/>
-      <c r="AV2" s="120"/>
-      <c r="AW2" s="120"/>
-    </row>
-    <row r="3" spans="1:49" ht="15">
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="105"/>
+      <c r="AH2" s="105"/>
+      <c r="AI2" s="105"/>
+      <c r="AJ2" s="105"/>
+      <c r="AK2" s="105"/>
+      <c r="AL2" s="105"/>
+      <c r="AM2" s="105"/>
+      <c r="AN2" s="105"/>
+      <c r="AO2" s="105"/>
+      <c r="AP2" s="105"/>
+      <c r="AQ2" s="105"/>
+      <c r="AR2" s="105"/>
+      <c r="AS2" s="105"/>
+      <c r="AT2" s="105"/>
+      <c r="AU2" s="105"/>
+      <c r="AV2" s="105"/>
+      <c r="AW2" s="105"/>
+    </row>
+    <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121" t="s">
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="123" t="s">
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="124"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="123" t="s">
+      <c r="K3" s="109"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="121" t="s">
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121" t="s">
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="121"/>
-      <c r="AD3" s="121"/>
-      <c r="AE3" s="121"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="121"/>
-      <c r="AH3" s="121"/>
-      <c r="AI3" s="121"/>
-      <c r="AJ3" s="121"/>
-      <c r="AK3" s="121"/>
-      <c r="AL3" s="121"/>
-      <c r="AM3" s="121"/>
-      <c r="AN3" s="121" t="s">
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="106"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="106"/>
+      <c r="AE3" s="106"/>
+      <c r="AF3" s="106"/>
+      <c r="AG3" s="106"/>
+      <c r="AH3" s="106"/>
+      <c r="AI3" s="106"/>
+      <c r="AJ3" s="106"/>
+      <c r="AK3" s="106"/>
+      <c r="AL3" s="106"/>
+      <c r="AM3" s="106"/>
+      <c r="AN3" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="121"/>
-      <c r="AP3" s="121"/>
-      <c r="AQ3" s="121"/>
-      <c r="AR3" s="121"/>
-      <c r="AS3" s="121" t="s">
+      <c r="AO3" s="106"/>
+      <c r="AP3" s="106"/>
+      <c r="AQ3" s="106"/>
+      <c r="AR3" s="106"/>
+      <c r="AS3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="121"/>
-      <c r="AU3" s="121"/>
-      <c r="AV3" s="121"/>
-      <c r="AW3" s="121"/>
-    </row>
-    <row r="4" spans="1:49" ht="15">
+      <c r="AT3" s="106"/>
+      <c r="AU3" s="106"/>
+      <c r="AV3" s="106"/>
+      <c r="AW3" s="106"/>
+    </row>
+    <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122"/>
-      <c r="Z4" s="122"/>
-      <c r="AA4" s="122"/>
-      <c r="AB4" s="122"/>
-      <c r="AC4" s="122"/>
-      <c r="AD4" s="122"/>
-      <c r="AE4" s="122"/>
-      <c r="AF4" s="122"/>
-      <c r="AG4" s="122"/>
-      <c r="AH4" s="122"/>
-      <c r="AI4" s="122"/>
-      <c r="AJ4" s="122"/>
-      <c r="AK4" s="122"/>
-      <c r="AL4" s="122"/>
-      <c r="AM4" s="122"/>
-      <c r="AN4" s="122"/>
-      <c r="AO4" s="122"/>
-      <c r="AP4" s="122"/>
-      <c r="AQ4" s="122"/>
-      <c r="AR4" s="122"/>
-      <c r="AS4" s="122"/>
-      <c r="AT4" s="122"/>
-      <c r="AU4" s="122"/>
-      <c r="AV4" s="122"/>
-      <c r="AW4" s="122"/>
-    </row>
-    <row r="5" spans="1:49">
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="113"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="107"/>
+      <c r="AH4" s="107"/>
+      <c r="AI4" s="107"/>
+      <c r="AJ4" s="107"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="107"/>
+      <c r="AM4" s="107"/>
+      <c r="AN4" s="107"/>
+      <c r="AO4" s="107"/>
+      <c r="AP4" s="107"/>
+      <c r="AQ4" s="107"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="107"/>
+      <c r="AT4" s="107"/>
+      <c r="AU4" s="107"/>
+      <c r="AV4" s="107"/>
+      <c r="AW4" s="107"/>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="105">
+      <c r="B5" s="115">
         <v>1</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="106">
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="116">
         <v>43721</v>
       </c>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="107" t="s">
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107" t="s">
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="104" t="s">
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="116" t="s">
+      <c r="T5" s="114"/>
+      <c r="U5" s="114"/>
+      <c r="V5" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="116"/>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="116"/>
-      <c r="Z5" s="116"/>
-      <c r="AA5" s="116"/>
-      <c r="AB5" s="116"/>
-      <c r="AC5" s="116"/>
-      <c r="AD5" s="116"/>
-      <c r="AE5" s="116"/>
-      <c r="AF5" s="116"/>
-      <c r="AG5" s="116"/>
-      <c r="AH5" s="116"/>
-      <c r="AI5" s="116"/>
-      <c r="AJ5" s="116"/>
-      <c r="AK5" s="116"/>
-      <c r="AL5" s="116"/>
-      <c r="AM5" s="116"/>
-      <c r="AN5" s="104" t="s">
+      <c r="W5" s="119"/>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="119"/>
+      <c r="Z5" s="119"/>
+      <c r="AA5" s="119"/>
+      <c r="AB5" s="119"/>
+      <c r="AC5" s="119"/>
+      <c r="AD5" s="119"/>
+      <c r="AE5" s="119"/>
+      <c r="AF5" s="119"/>
+      <c r="AG5" s="119"/>
+      <c r="AH5" s="119"/>
+      <c r="AI5" s="119"/>
+      <c r="AJ5" s="119"/>
+      <c r="AK5" s="119"/>
+      <c r="AL5" s="119"/>
+      <c r="AM5" s="119"/>
+      <c r="AN5" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="AO5" s="104"/>
-      <c r="AP5" s="104"/>
-      <c r="AQ5" s="104"/>
-      <c r="AR5" s="104"/>
-      <c r="AS5" s="104"/>
-      <c r="AT5" s="104"/>
-      <c r="AU5" s="104"/>
-      <c r="AV5" s="104"/>
-      <c r="AW5" s="104"/>
-    </row>
-    <row r="6" spans="1:49">
+      <c r="AO5" s="114"/>
+      <c r="AP5" s="114"/>
+      <c r="AQ5" s="114"/>
+      <c r="AR5" s="114"/>
+      <c r="AS5" s="114"/>
+      <c r="AT5" s="114"/>
+      <c r="AU5" s="114"/>
+      <c r="AV5" s="114"/>
+      <c r="AW5" s="114"/>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
       <c r="M6" s="118"/>
       <c r="N6" s="118"/>
       <c r="O6" s="118"/>
       <c r="P6" s="118"/>
       <c r="Q6" s="118"/>
       <c r="R6" s="118"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="116"/>
-      <c r="W6" s="116"/>
-      <c r="X6" s="116"/>
-      <c r="Y6" s="116"/>
-      <c r="Z6" s="116"/>
-      <c r="AA6" s="116"/>
-      <c r="AB6" s="116"/>
-      <c r="AC6" s="116"/>
-      <c r="AD6" s="116"/>
-      <c r="AE6" s="116"/>
-      <c r="AF6" s="116"/>
-      <c r="AG6" s="116"/>
-      <c r="AH6" s="116"/>
-      <c r="AI6" s="116"/>
-      <c r="AJ6" s="116"/>
-      <c r="AK6" s="116"/>
-      <c r="AL6" s="116"/>
-      <c r="AM6" s="116"/>
-      <c r="AN6" s="104"/>
-      <c r="AO6" s="104"/>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="104"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104"/>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
-    </row>
-    <row r="7" spans="1:49">
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="119"/>
+      <c r="AH6" s="119"/>
+      <c r="AI6" s="119"/>
+      <c r="AJ6" s="119"/>
+      <c r="AK6" s="119"/>
+      <c r="AL6" s="119"/>
+      <c r="AM6" s="119"/>
+      <c r="AN6" s="114"/>
+      <c r="AO6" s="114"/>
+      <c r="AP6" s="114"/>
+      <c r="AQ6" s="114"/>
+      <c r="AR6" s="114"/>
+      <c r="AS6" s="114"/>
+      <c r="AT6" s="114"/>
+      <c r="AU6" s="114"/>
+      <c r="AV6" s="114"/>
+      <c r="AW6" s="114"/>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
       <c r="M7" s="118"/>
       <c r="N7" s="118"/>
       <c r="O7" s="118"/>
       <c r="P7" s="118"/>
       <c r="Q7" s="118"/>
       <c r="R7" s="118"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="116"/>
-      <c r="W7" s="116"/>
-      <c r="X7" s="116"/>
-      <c r="Y7" s="116"/>
-      <c r="Z7" s="116"/>
-      <c r="AA7" s="116"/>
-      <c r="AB7" s="116"/>
-      <c r="AC7" s="116"/>
-      <c r="AD7" s="116"/>
-      <c r="AE7" s="116"/>
-      <c r="AF7" s="116"/>
-      <c r="AG7" s="116"/>
-      <c r="AH7" s="116"/>
-      <c r="AI7" s="116"/>
-      <c r="AJ7" s="116"/>
-      <c r="AK7" s="116"/>
-      <c r="AL7" s="116"/>
-      <c r="AM7" s="116"/>
-      <c r="AN7" s="104"/>
-      <c r="AO7" s="104"/>
-      <c r="AP7" s="104"/>
-      <c r="AQ7" s="104"/>
-      <c r="AR7" s="104"/>
-      <c r="AS7" s="104"/>
-      <c r="AT7" s="104"/>
-      <c r="AU7" s="104"/>
-      <c r="AV7" s="104"/>
-      <c r="AW7" s="104"/>
-    </row>
-    <row r="8" spans="1:49">
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="119"/>
+      <c r="AB7" s="119"/>
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="119"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="119"/>
+      <c r="AG7" s="119"/>
+      <c r="AH7" s="119"/>
+      <c r="AI7" s="119"/>
+      <c r="AJ7" s="119"/>
+      <c r="AK7" s="119"/>
+      <c r="AL7" s="119"/>
+      <c r="AM7" s="119"/>
+      <c r="AN7" s="114"/>
+      <c r="AO7" s="114"/>
+      <c r="AP7" s="114"/>
+      <c r="AQ7" s="114"/>
+      <c r="AR7" s="114"/>
+      <c r="AS7" s="114"/>
+      <c r="AT7" s="114"/>
+      <c r="AU7" s="114"/>
+      <c r="AV7" s="114"/>
+      <c r="AW7" s="114"/>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
       <c r="M8" s="118"/>
       <c r="N8" s="118"/>
       <c r="O8" s="118"/>
       <c r="P8" s="118"/>
       <c r="Q8" s="118"/>
       <c r="R8" s="118"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="116"/>
-      <c r="Z8" s="116"/>
-      <c r="AA8" s="116"/>
-      <c r="AB8" s="116"/>
-      <c r="AC8" s="116"/>
-      <c r="AD8" s="116"/>
-      <c r="AE8" s="116"/>
-      <c r="AF8" s="116"/>
-      <c r="AG8" s="116"/>
-      <c r="AH8" s="116"/>
-      <c r="AI8" s="116"/>
-      <c r="AJ8" s="116"/>
-      <c r="AK8" s="116"/>
-      <c r="AL8" s="116"/>
-      <c r="AM8" s="116"/>
-      <c r="AN8" s="104"/>
-      <c r="AO8" s="104"/>
-      <c r="AP8" s="104"/>
-      <c r="AQ8" s="104"/>
-      <c r="AR8" s="104"/>
-      <c r="AS8" s="104"/>
-      <c r="AT8" s="104"/>
-      <c r="AU8" s="104"/>
-      <c r="AV8" s="104"/>
-      <c r="AW8" s="104"/>
-    </row>
-    <row r="9" spans="1:49">
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="119"/>
+      <c r="X8" s="119"/>
+      <c r="Y8" s="119"/>
+      <c r="Z8" s="119"/>
+      <c r="AA8" s="119"/>
+      <c r="AB8" s="119"/>
+      <c r="AC8" s="119"/>
+      <c r="AD8" s="119"/>
+      <c r="AE8" s="119"/>
+      <c r="AF8" s="119"/>
+      <c r="AG8" s="119"/>
+      <c r="AH8" s="119"/>
+      <c r="AI8" s="119"/>
+      <c r="AJ8" s="119"/>
+      <c r="AK8" s="119"/>
+      <c r="AL8" s="119"/>
+      <c r="AM8" s="119"/>
+      <c r="AN8" s="114"/>
+      <c r="AO8" s="114"/>
+      <c r="AP8" s="114"/>
+      <c r="AQ8" s="114"/>
+      <c r="AR8" s="114"/>
+      <c r="AS8" s="114"/>
+      <c r="AT8" s="114"/>
+      <c r="AU8" s="114"/>
+      <c r="AV8" s="114"/>
+      <c r="AW8" s="114"/>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
       <c r="M9" s="118"/>
       <c r="N9" s="118"/>
       <c r="O9" s="118"/>
       <c r="P9" s="118"/>
       <c r="Q9" s="118"/>
       <c r="R9" s="118"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="104"/>
-      <c r="V9" s="116"/>
-      <c r="W9" s="116"/>
-      <c r="X9" s="116"/>
-      <c r="Y9" s="116"/>
-      <c r="Z9" s="116"/>
-      <c r="AA9" s="116"/>
-      <c r="AB9" s="116"/>
-      <c r="AC9" s="116"/>
-      <c r="AD9" s="116"/>
-      <c r="AE9" s="116"/>
-      <c r="AF9" s="116"/>
-      <c r="AG9" s="116"/>
-      <c r="AH9" s="116"/>
-      <c r="AI9" s="116"/>
-      <c r="AJ9" s="116"/>
-      <c r="AK9" s="116"/>
-      <c r="AL9" s="116"/>
-      <c r="AM9" s="116"/>
-      <c r="AN9" s="104"/>
-      <c r="AO9" s="104"/>
-      <c r="AP9" s="104"/>
-      <c r="AQ9" s="104"/>
-      <c r="AR9" s="104"/>
-      <c r="AS9" s="104"/>
-      <c r="AT9" s="104"/>
-      <c r="AU9" s="104"/>
-      <c r="AV9" s="104"/>
-      <c r="AW9" s="104"/>
-    </row>
-    <row r="10" spans="1:49">
+      <c r="S9" s="114"/>
+      <c r="T9" s="114"/>
+      <c r="U9" s="114"/>
+      <c r="V9" s="119"/>
+      <c r="W9" s="119"/>
+      <c r="X9" s="119"/>
+      <c r="Y9" s="119"/>
+      <c r="Z9" s="119"/>
+      <c r="AA9" s="119"/>
+      <c r="AB9" s="119"/>
+      <c r="AC9" s="119"/>
+      <c r="AD9" s="119"/>
+      <c r="AE9" s="119"/>
+      <c r="AF9" s="119"/>
+      <c r="AG9" s="119"/>
+      <c r="AH9" s="119"/>
+      <c r="AI9" s="119"/>
+      <c r="AJ9" s="119"/>
+      <c r="AK9" s="119"/>
+      <c r="AL9" s="119"/>
+      <c r="AM9" s="119"/>
+      <c r="AN9" s="114"/>
+      <c r="AO9" s="114"/>
+      <c r="AP9" s="114"/>
+      <c r="AQ9" s="114"/>
+      <c r="AR9" s="114"/>
+      <c r="AS9" s="114"/>
+      <c r="AT9" s="114"/>
+      <c r="AU9" s="114"/>
+      <c r="AV9" s="114"/>
+      <c r="AW9" s="114"/>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
       <c r="M10" s="118"/>
       <c r="N10" s="118"/>
       <c r="O10" s="118"/>
       <c r="P10" s="118"/>
       <c r="Q10" s="118"/>
       <c r="R10" s="118"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="116"/>
-      <c r="W10" s="116"/>
-      <c r="X10" s="116"/>
-      <c r="Y10" s="116"/>
-      <c r="Z10" s="116"/>
-      <c r="AA10" s="116"/>
-      <c r="AB10" s="116"/>
-      <c r="AC10" s="116"/>
-      <c r="AD10" s="116"/>
-      <c r="AE10" s="116"/>
-      <c r="AF10" s="116"/>
-      <c r="AG10" s="116"/>
-      <c r="AH10" s="116"/>
-      <c r="AI10" s="116"/>
-      <c r="AJ10" s="116"/>
-      <c r="AK10" s="116"/>
-      <c r="AL10" s="116"/>
-      <c r="AM10" s="116"/>
-      <c r="AN10" s="104"/>
-      <c r="AO10" s="104"/>
-      <c r="AP10" s="104"/>
-      <c r="AQ10" s="104"/>
-      <c r="AR10" s="104"/>
-      <c r="AS10" s="104"/>
-      <c r="AT10" s="104"/>
-      <c r="AU10" s="104"/>
-      <c r="AV10" s="104"/>
-      <c r="AW10" s="104"/>
-    </row>
-    <row r="11" spans="1:49">
+      <c r="S10" s="114"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="114"/>
+      <c r="V10" s="119"/>
+      <c r="W10" s="119"/>
+      <c r="X10" s="119"/>
+      <c r="Y10" s="119"/>
+      <c r="Z10" s="119"/>
+      <c r="AA10" s="119"/>
+      <c r="AB10" s="119"/>
+      <c r="AC10" s="119"/>
+      <c r="AD10" s="119"/>
+      <c r="AE10" s="119"/>
+      <c r="AF10" s="119"/>
+      <c r="AG10" s="119"/>
+      <c r="AH10" s="119"/>
+      <c r="AI10" s="119"/>
+      <c r="AJ10" s="119"/>
+      <c r="AK10" s="119"/>
+      <c r="AL10" s="119"/>
+      <c r="AM10" s="119"/>
+      <c r="AN10" s="114"/>
+      <c r="AO10" s="114"/>
+      <c r="AP10" s="114"/>
+      <c r="AQ10" s="114"/>
+      <c r="AR10" s="114"/>
+      <c r="AS10" s="114"/>
+      <c r="AT10" s="114"/>
+      <c r="AU10" s="114"/>
+      <c r="AV10" s="114"/>
+      <c r="AW10" s="114"/>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
-      <c r="R11" s="112"/>
-      <c r="S11" s="104"/>
-      <c r="T11" s="104"/>
-      <c r="U11" s="104"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="117"/>
-      <c r="X11" s="117"/>
-      <c r="Y11" s="117"/>
-      <c r="Z11" s="117"/>
-      <c r="AA11" s="117"/>
-      <c r="AB11" s="117"/>
-      <c r="AC11" s="117"/>
-      <c r="AD11" s="117"/>
-      <c r="AE11" s="117"/>
-      <c r="AF11" s="117"/>
-      <c r="AG11" s="117"/>
-      <c r="AH11" s="117"/>
-      <c r="AI11" s="117"/>
-      <c r="AJ11" s="117"/>
-      <c r="AK11" s="117"/>
-      <c r="AL11" s="117"/>
-      <c r="AM11" s="117"/>
-      <c r="AN11" s="104"/>
-      <c r="AO11" s="104"/>
-      <c r="AP11" s="104"/>
-      <c r="AQ11" s="104"/>
-      <c r="AR11" s="104"/>
-      <c r="AS11" s="104"/>
-      <c r="AT11" s="104"/>
-      <c r="AU11" s="104"/>
-      <c r="AV11" s="104"/>
-      <c r="AW11" s="104"/>
-    </row>
-    <row r="12" spans="1:49">
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="114"/>
+      <c r="T11" s="114"/>
+      <c r="U11" s="114"/>
+      <c r="V11" s="121"/>
+      <c r="W11" s="122"/>
+      <c r="X11" s="122"/>
+      <c r="Y11" s="122"/>
+      <c r="Z11" s="122"/>
+      <c r="AA11" s="122"/>
+      <c r="AB11" s="122"/>
+      <c r="AC11" s="122"/>
+      <c r="AD11" s="122"/>
+      <c r="AE11" s="122"/>
+      <c r="AF11" s="122"/>
+      <c r="AG11" s="122"/>
+      <c r="AH11" s="122"/>
+      <c r="AI11" s="122"/>
+      <c r="AJ11" s="122"/>
+      <c r="AK11" s="122"/>
+      <c r="AL11" s="122"/>
+      <c r="AM11" s="122"/>
+      <c r="AN11" s="114"/>
+      <c r="AO11" s="114"/>
+      <c r="AP11" s="114"/>
+      <c r="AQ11" s="114"/>
+      <c r="AR11" s="114"/>
+      <c r="AS11" s="114"/>
+      <c r="AT11" s="114"/>
+      <c r="AU11" s="114"/>
+      <c r="AV11" s="114"/>
+      <c r="AW11" s="114"/>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
-      <c r="R12" s="112"/>
-      <c r="S12" s="104"/>
-      <c r="T12" s="104"/>
-      <c r="U12" s="104"/>
-      <c r="V12" s="110"/>
-      <c r="W12" s="110"/>
-      <c r="X12" s="110"/>
-      <c r="Y12" s="110"/>
-      <c r="Z12" s="110"/>
-      <c r="AA12" s="110"/>
-      <c r="AB12" s="110"/>
-      <c r="AC12" s="110"/>
-      <c r="AD12" s="110"/>
-      <c r="AE12" s="110"/>
-      <c r="AF12" s="110"/>
-      <c r="AG12" s="110"/>
-      <c r="AH12" s="110"/>
-      <c r="AI12" s="110"/>
-      <c r="AJ12" s="110"/>
-      <c r="AK12" s="110"/>
-      <c r="AL12" s="110"/>
-      <c r="AM12" s="110"/>
-      <c r="AN12" s="104"/>
-      <c r="AO12" s="104"/>
-      <c r="AP12" s="104"/>
-      <c r="AQ12" s="104"/>
-      <c r="AR12" s="104"/>
-      <c r="AS12" s="104"/>
-      <c r="AT12" s="104"/>
-      <c r="AU12" s="104"/>
-      <c r="AV12" s="104"/>
-      <c r="AW12" s="104"/>
-    </row>
-    <row r="13" spans="1:49">
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="120"/>
+      <c r="S12" s="114"/>
+      <c r="T12" s="114"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="121"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="121"/>
+      <c r="Z12" s="121"/>
+      <c r="AA12" s="121"/>
+      <c r="AB12" s="121"/>
+      <c r="AC12" s="121"/>
+      <c r="AD12" s="121"/>
+      <c r="AE12" s="121"/>
+      <c r="AF12" s="121"/>
+      <c r="AG12" s="121"/>
+      <c r="AH12" s="121"/>
+      <c r="AI12" s="121"/>
+      <c r="AJ12" s="121"/>
+      <c r="AK12" s="121"/>
+      <c r="AL12" s="121"/>
+      <c r="AM12" s="121"/>
+      <c r="AN12" s="114"/>
+      <c r="AO12" s="114"/>
+      <c r="AP12" s="114"/>
+      <c r="AQ12" s="114"/>
+      <c r="AR12" s="114"/>
+      <c r="AS12" s="114"/>
+      <c r="AT12" s="114"/>
+      <c r="AU12" s="114"/>
+      <c r="AV12" s="114"/>
+      <c r="AW12" s="114"/>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="112"/>
-      <c r="S13" s="104"/>
-      <c r="T13" s="104"/>
-      <c r="U13" s="104"/>
-      <c r="V13" s="110"/>
-      <c r="W13" s="110"/>
-      <c r="X13" s="110"/>
-      <c r="Y13" s="110"/>
-      <c r="Z13" s="110"/>
-      <c r="AA13" s="110"/>
-      <c r="AB13" s="110"/>
-      <c r="AC13" s="110"/>
-      <c r="AD13" s="110"/>
-      <c r="AE13" s="110"/>
-      <c r="AF13" s="110"/>
-      <c r="AG13" s="110"/>
-      <c r="AH13" s="110"/>
-      <c r="AI13" s="110"/>
-      <c r="AJ13" s="110"/>
-      <c r="AK13" s="110"/>
-      <c r="AL13" s="110"/>
-      <c r="AM13" s="110"/>
-      <c r="AN13" s="104"/>
-      <c r="AO13" s="104"/>
-      <c r="AP13" s="104"/>
-      <c r="AQ13" s="104"/>
-      <c r="AR13" s="104"/>
-      <c r="AS13" s="104"/>
-      <c r="AT13" s="104"/>
-      <c r="AU13" s="104"/>
-      <c r="AV13" s="104"/>
-      <c r="AW13" s="104"/>
-    </row>
-    <row r="14" spans="1:49">
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="121"/>
+      <c r="Y13" s="121"/>
+      <c r="Z13" s="121"/>
+      <c r="AA13" s="121"/>
+      <c r="AB13" s="121"/>
+      <c r="AC13" s="121"/>
+      <c r="AD13" s="121"/>
+      <c r="AE13" s="121"/>
+      <c r="AF13" s="121"/>
+      <c r="AG13" s="121"/>
+      <c r="AH13" s="121"/>
+      <c r="AI13" s="121"/>
+      <c r="AJ13" s="121"/>
+      <c r="AK13" s="121"/>
+      <c r="AL13" s="121"/>
+      <c r="AM13" s="121"/>
+      <c r="AN13" s="114"/>
+      <c r="AO13" s="114"/>
+      <c r="AP13" s="114"/>
+      <c r="AQ13" s="114"/>
+      <c r="AR13" s="114"/>
+      <c r="AS13" s="114"/>
+      <c r="AT13" s="114"/>
+      <c r="AU13" s="114"/>
+      <c r="AV13" s="114"/>
+      <c r="AW13" s="114"/>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="112"/>
-      <c r="S14" s="104"/>
-      <c r="T14" s="104"/>
-      <c r="U14" s="104"/>
-      <c r="V14" s="115"/>
-      <c r="W14" s="116"/>
-      <c r="X14" s="116"/>
-      <c r="Y14" s="116"/>
-      <c r="Z14" s="116"/>
-      <c r="AA14" s="116"/>
-      <c r="AB14" s="116"/>
-      <c r="AC14" s="116"/>
-      <c r="AD14" s="116"/>
-      <c r="AE14" s="116"/>
-      <c r="AF14" s="116"/>
-      <c r="AG14" s="116"/>
-      <c r="AH14" s="116"/>
-      <c r="AI14" s="116"/>
-      <c r="AJ14" s="116"/>
-      <c r="AK14" s="116"/>
-      <c r="AL14" s="116"/>
-      <c r="AM14" s="116"/>
-      <c r="AN14" s="104"/>
-      <c r="AO14" s="104"/>
-      <c r="AP14" s="104"/>
-      <c r="AQ14" s="104"/>
-      <c r="AR14" s="104"/>
-      <c r="AS14" s="104"/>
-      <c r="AT14" s="104"/>
-      <c r="AU14" s="104"/>
-      <c r="AV14" s="104"/>
-      <c r="AW14" s="104"/>
-    </row>
-    <row r="15" spans="1:49">
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="120"/>
+      <c r="S14" s="114"/>
+      <c r="T14" s="114"/>
+      <c r="U14" s="114"/>
+      <c r="V14" s="124"/>
+      <c r="W14" s="119"/>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="119"/>
+      <c r="Z14" s="119"/>
+      <c r="AA14" s="119"/>
+      <c r="AB14" s="119"/>
+      <c r="AC14" s="119"/>
+      <c r="AD14" s="119"/>
+      <c r="AE14" s="119"/>
+      <c r="AF14" s="119"/>
+      <c r="AG14" s="119"/>
+      <c r="AH14" s="119"/>
+      <c r="AI14" s="119"/>
+      <c r="AJ14" s="119"/>
+      <c r="AK14" s="119"/>
+      <c r="AL14" s="119"/>
+      <c r="AM14" s="119"/>
+      <c r="AN14" s="114"/>
+      <c r="AO14" s="114"/>
+      <c r="AP14" s="114"/>
+      <c r="AQ14" s="114"/>
+      <c r="AR14" s="114"/>
+      <c r="AS14" s="114"/>
+      <c r="AT14" s="114"/>
+      <c r="AU14" s="114"/>
+      <c r="AV14" s="114"/>
+      <c r="AW14" s="114"/>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="112"/>
-      <c r="N15" s="112"/>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="112"/>
-      <c r="R15" s="112"/>
-      <c r="S15" s="104"/>
-      <c r="T15" s="104"/>
-      <c r="U15" s="104"/>
-      <c r="V15" s="110"/>
-      <c r="W15" s="110"/>
-      <c r="X15" s="110"/>
-      <c r="Y15" s="110"/>
-      <c r="Z15" s="110"/>
-      <c r="AA15" s="110"/>
-      <c r="AB15" s="110"/>
-      <c r="AC15" s="110"/>
-      <c r="AD15" s="110"/>
-      <c r="AE15" s="110"/>
-      <c r="AF15" s="110"/>
-      <c r="AG15" s="110"/>
-      <c r="AH15" s="110"/>
-      <c r="AI15" s="110"/>
-      <c r="AJ15" s="110"/>
-      <c r="AK15" s="110"/>
-      <c r="AL15" s="110"/>
-      <c r="AM15" s="110"/>
-      <c r="AN15" s="104"/>
-      <c r="AO15" s="104"/>
-      <c r="AP15" s="104"/>
-      <c r="AQ15" s="104"/>
-      <c r="AR15" s="104"/>
-      <c r="AS15" s="104"/>
-      <c r="AT15" s="104"/>
-      <c r="AU15" s="104"/>
-      <c r="AV15" s="104"/>
-      <c r="AW15" s="104"/>
-    </row>
-    <row r="16" spans="1:49">
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="120"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="120"/>
+      <c r="S15" s="114"/>
+      <c r="T15" s="114"/>
+      <c r="U15" s="114"/>
+      <c r="V15" s="121"/>
+      <c r="W15" s="121"/>
+      <c r="X15" s="121"/>
+      <c r="Y15" s="121"/>
+      <c r="Z15" s="121"/>
+      <c r="AA15" s="121"/>
+      <c r="AB15" s="121"/>
+      <c r="AC15" s="121"/>
+      <c r="AD15" s="121"/>
+      <c r="AE15" s="121"/>
+      <c r="AF15" s="121"/>
+      <c r="AG15" s="121"/>
+      <c r="AH15" s="121"/>
+      <c r="AI15" s="121"/>
+      <c r="AJ15" s="121"/>
+      <c r="AK15" s="121"/>
+      <c r="AL15" s="121"/>
+      <c r="AM15" s="121"/>
+      <c r="AN15" s="114"/>
+      <c r="AO15" s="114"/>
+      <c r="AP15" s="114"/>
+      <c r="AQ15" s="114"/>
+      <c r="AR15" s="114"/>
+      <c r="AS15" s="114"/>
+      <c r="AT15" s="114"/>
+      <c r="AU15" s="114"/>
+      <c r="AV15" s="114"/>
+      <c r="AW15" s="114"/>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="112"/>
-      <c r="N16" s="112"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="112"/>
-      <c r="R16" s="112"/>
-      <c r="S16" s="104"/>
-      <c r="T16" s="104"/>
-      <c r="U16" s="104"/>
-      <c r="V16" s="110"/>
-      <c r="W16" s="110"/>
-      <c r="X16" s="110"/>
-      <c r="Y16" s="110"/>
-      <c r="Z16" s="110"/>
-      <c r="AA16" s="110"/>
-      <c r="AB16" s="110"/>
-      <c r="AC16" s="110"/>
-      <c r="AD16" s="110"/>
-      <c r="AE16" s="110"/>
-      <c r="AF16" s="110"/>
-      <c r="AG16" s="110"/>
-      <c r="AH16" s="110"/>
-      <c r="AI16" s="110"/>
-      <c r="AJ16" s="110"/>
-      <c r="AK16" s="110"/>
-      <c r="AL16" s="110"/>
-      <c r="AM16" s="110"/>
-      <c r="AN16" s="104"/>
-      <c r="AO16" s="104"/>
-      <c r="AP16" s="104"/>
-      <c r="AQ16" s="104"/>
-      <c r="AR16" s="104"/>
-      <c r="AS16" s="104"/>
-      <c r="AT16" s="104"/>
-      <c r="AU16" s="104"/>
-      <c r="AV16" s="104"/>
-      <c r="AW16" s="104"/>
-    </row>
-    <row r="17" spans="1:49">
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="114"/>
+      <c r="T16" s="114"/>
+      <c r="U16" s="114"/>
+      <c r="V16" s="121"/>
+      <c r="W16" s="121"/>
+      <c r="X16" s="121"/>
+      <c r="Y16" s="121"/>
+      <c r="Z16" s="121"/>
+      <c r="AA16" s="121"/>
+      <c r="AB16" s="121"/>
+      <c r="AC16" s="121"/>
+      <c r="AD16" s="121"/>
+      <c r="AE16" s="121"/>
+      <c r="AF16" s="121"/>
+      <c r="AG16" s="121"/>
+      <c r="AH16" s="121"/>
+      <c r="AI16" s="121"/>
+      <c r="AJ16" s="121"/>
+      <c r="AK16" s="121"/>
+      <c r="AL16" s="121"/>
+      <c r="AM16" s="121"/>
+      <c r="AN16" s="114"/>
+      <c r="AO16" s="114"/>
+      <c r="AP16" s="114"/>
+      <c r="AQ16" s="114"/>
+      <c r="AR16" s="114"/>
+      <c r="AS16" s="114"/>
+      <c r="AT16" s="114"/>
+      <c r="AU16" s="114"/>
+      <c r="AV16" s="114"/>
+      <c r="AW16" s="114"/>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="112"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="112"/>
-      <c r="R17" s="113"/>
-      <c r="S17" s="114"/>
-      <c r="T17" s="114"/>
-      <c r="U17" s="114"/>
-      <c r="V17" s="110"/>
-      <c r="W17" s="110"/>
-      <c r="X17" s="110"/>
-      <c r="Y17" s="110"/>
-      <c r="Z17" s="110"/>
-      <c r="AA17" s="110"/>
-      <c r="AB17" s="110"/>
-      <c r="AC17" s="110"/>
-      <c r="AD17" s="110"/>
-      <c r="AE17" s="110"/>
-      <c r="AF17" s="110"/>
-      <c r="AG17" s="110"/>
-      <c r="AH17" s="110"/>
-      <c r="AI17" s="110"/>
-      <c r="AJ17" s="110"/>
-      <c r="AK17" s="110"/>
-      <c r="AL17" s="110"/>
-      <c r="AM17" s="110"/>
-      <c r="AN17" s="104"/>
-      <c r="AO17" s="104"/>
-      <c r="AP17" s="104"/>
-      <c r="AQ17" s="104"/>
-      <c r="AR17" s="104"/>
-      <c r="AS17" s="104"/>
-      <c r="AT17" s="104"/>
-      <c r="AU17" s="104"/>
-      <c r="AV17" s="104"/>
-      <c r="AW17" s="104"/>
-    </row>
-    <row r="18" spans="1:49">
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="120"/>
+      <c r="Q17" s="120"/>
+      <c r="R17" s="125"/>
+      <c r="S17" s="126"/>
+      <c r="T17" s="126"/>
+      <c r="U17" s="126"/>
+      <c r="V17" s="121"/>
+      <c r="W17" s="121"/>
+      <c r="X17" s="121"/>
+      <c r="Y17" s="121"/>
+      <c r="Z17" s="121"/>
+      <c r="AA17" s="121"/>
+      <c r="AB17" s="121"/>
+      <c r="AC17" s="121"/>
+      <c r="AD17" s="121"/>
+      <c r="AE17" s="121"/>
+      <c r="AF17" s="121"/>
+      <c r="AG17" s="121"/>
+      <c r="AH17" s="121"/>
+      <c r="AI17" s="121"/>
+      <c r="AJ17" s="121"/>
+      <c r="AK17" s="121"/>
+      <c r="AL17" s="121"/>
+      <c r="AM17" s="121"/>
+      <c r="AN17" s="114"/>
+      <c r="AO17" s="114"/>
+      <c r="AP17" s="114"/>
+      <c r="AQ17" s="114"/>
+      <c r="AR17" s="114"/>
+      <c r="AS17" s="114"/>
+      <c r="AT17" s="114"/>
+      <c r="AU17" s="114"/>
+      <c r="AV17" s="114"/>
+      <c r="AW17" s="114"/>
+    </row>
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="112"/>
-      <c r="Q18" s="112"/>
-      <c r="R18" s="112"/>
-      <c r="S18" s="104"/>
-      <c r="T18" s="104"/>
-      <c r="U18" s="104"/>
-      <c r="V18" s="110"/>
-      <c r="W18" s="110"/>
-      <c r="X18" s="110"/>
-      <c r="Y18" s="110"/>
-      <c r="Z18" s="110"/>
-      <c r="AA18" s="110"/>
-      <c r="AB18" s="110"/>
-      <c r="AC18" s="110"/>
-      <c r="AD18" s="110"/>
-      <c r="AE18" s="110"/>
-      <c r="AF18" s="110"/>
-      <c r="AG18" s="110"/>
-      <c r="AH18" s="110"/>
-      <c r="AI18" s="110"/>
-      <c r="AJ18" s="110"/>
-      <c r="AK18" s="110"/>
-      <c r="AL18" s="110"/>
-      <c r="AM18" s="110"/>
-      <c r="AN18" s="104"/>
-      <c r="AO18" s="104"/>
-      <c r="AP18" s="104"/>
-      <c r="AQ18" s="104"/>
-      <c r="AR18" s="104"/>
-      <c r="AS18" s="104"/>
-      <c r="AT18" s="104"/>
-      <c r="AU18" s="104"/>
-      <c r="AV18" s="104"/>
-      <c r="AW18" s="104"/>
-    </row>
-    <row r="19" spans="1:49">
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="120"/>
+      <c r="Q18" s="120"/>
+      <c r="R18" s="120"/>
+      <c r="S18" s="114"/>
+      <c r="T18" s="114"/>
+      <c r="U18" s="114"/>
+      <c r="V18" s="121"/>
+      <c r="W18" s="121"/>
+      <c r="X18" s="121"/>
+      <c r="Y18" s="121"/>
+      <c r="Z18" s="121"/>
+      <c r="AA18" s="121"/>
+      <c r="AB18" s="121"/>
+      <c r="AC18" s="121"/>
+      <c r="AD18" s="121"/>
+      <c r="AE18" s="121"/>
+      <c r="AF18" s="121"/>
+      <c r="AG18" s="121"/>
+      <c r="AH18" s="121"/>
+      <c r="AI18" s="121"/>
+      <c r="AJ18" s="121"/>
+      <c r="AK18" s="121"/>
+      <c r="AL18" s="121"/>
+      <c r="AM18" s="121"/>
+      <c r="AN18" s="114"/>
+      <c r="AO18" s="114"/>
+      <c r="AP18" s="114"/>
+      <c r="AQ18" s="114"/>
+      <c r="AR18" s="114"/>
+      <c r="AS18" s="114"/>
+      <c r="AT18" s="114"/>
+      <c r="AU18" s="114"/>
+      <c r="AV18" s="114"/>
+      <c r="AW18" s="114"/>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="112"/>
-      <c r="R19" s="112"/>
-      <c r="S19" s="104"/>
-      <c r="T19" s="104"/>
-      <c r="U19" s="104"/>
-      <c r="V19" s="110"/>
-      <c r="W19" s="110"/>
-      <c r="X19" s="110"/>
-      <c r="Y19" s="110"/>
-      <c r="Z19" s="110"/>
-      <c r="AA19" s="110"/>
-      <c r="AB19" s="110"/>
-      <c r="AC19" s="110"/>
-      <c r="AD19" s="110"/>
-      <c r="AE19" s="110"/>
-      <c r="AF19" s="110"/>
-      <c r="AG19" s="110"/>
-      <c r="AH19" s="110"/>
-      <c r="AI19" s="110"/>
-      <c r="AJ19" s="110"/>
-      <c r="AK19" s="110"/>
-      <c r="AL19" s="110"/>
-      <c r="AM19" s="110"/>
-      <c r="AN19" s="104"/>
-      <c r="AO19" s="104"/>
-      <c r="AP19" s="104"/>
-      <c r="AQ19" s="104"/>
-      <c r="AR19" s="104"/>
-      <c r="AS19" s="104"/>
-      <c r="AT19" s="104"/>
-      <c r="AU19" s="104"/>
-      <c r="AV19" s="104"/>
-      <c r="AW19" s="104"/>
-    </row>
-    <row r="20" spans="1:49">
+      <c r="B19" s="115"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="120"/>
+      <c r="Q19" s="120"/>
+      <c r="R19" s="120"/>
+      <c r="S19" s="114"/>
+      <c r="T19" s="114"/>
+      <c r="U19" s="114"/>
+      <c r="V19" s="121"/>
+      <c r="W19" s="121"/>
+      <c r="X19" s="121"/>
+      <c r="Y19" s="121"/>
+      <c r="Z19" s="121"/>
+      <c r="AA19" s="121"/>
+      <c r="AB19" s="121"/>
+      <c r="AC19" s="121"/>
+      <c r="AD19" s="121"/>
+      <c r="AE19" s="121"/>
+      <c r="AF19" s="121"/>
+      <c r="AG19" s="121"/>
+      <c r="AH19" s="121"/>
+      <c r="AI19" s="121"/>
+      <c r="AJ19" s="121"/>
+      <c r="AK19" s="121"/>
+      <c r="AL19" s="121"/>
+      <c r="AM19" s="121"/>
+      <c r="AN19" s="114"/>
+      <c r="AO19" s="114"/>
+      <c r="AP19" s="114"/>
+      <c r="AQ19" s="114"/>
+      <c r="AR19" s="114"/>
+      <c r="AS19" s="114"/>
+      <c r="AT19" s="114"/>
+      <c r="AU19" s="114"/>
+      <c r="AV19" s="114"/>
+      <c r="AW19" s="114"/>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="112"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="112"/>
-      <c r="Q20" s="112"/>
-      <c r="R20" s="112"/>
-      <c r="S20" s="104"/>
-      <c r="T20" s="104"/>
-      <c r="U20" s="104"/>
-      <c r="V20" s="110"/>
-      <c r="W20" s="110"/>
-      <c r="X20" s="110"/>
-      <c r="Y20" s="110"/>
-      <c r="Z20" s="110"/>
-      <c r="AA20" s="110"/>
-      <c r="AB20" s="110"/>
-      <c r="AC20" s="110"/>
-      <c r="AD20" s="110"/>
-      <c r="AE20" s="110"/>
-      <c r="AF20" s="110"/>
-      <c r="AG20" s="110"/>
-      <c r="AH20" s="110"/>
-      <c r="AI20" s="110"/>
-      <c r="AJ20" s="110"/>
-      <c r="AK20" s="110"/>
-      <c r="AL20" s="110"/>
-      <c r="AM20" s="110"/>
-      <c r="AN20" s="104"/>
-      <c r="AO20" s="104"/>
-      <c r="AP20" s="104"/>
-      <c r="AQ20" s="104"/>
-      <c r="AR20" s="104"/>
-      <c r="AS20" s="104"/>
-      <c r="AT20" s="104"/>
-      <c r="AU20" s="104"/>
-      <c r="AV20" s="104"/>
-      <c r="AW20" s="104"/>
-    </row>
-    <row r="21" spans="1:49">
+      <c r="B20" s="115"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="120"/>
+      <c r="Q20" s="120"/>
+      <c r="R20" s="120"/>
+      <c r="S20" s="114"/>
+      <c r="T20" s="114"/>
+      <c r="U20" s="114"/>
+      <c r="V20" s="121"/>
+      <c r="W20" s="121"/>
+      <c r="X20" s="121"/>
+      <c r="Y20" s="121"/>
+      <c r="Z20" s="121"/>
+      <c r="AA20" s="121"/>
+      <c r="AB20" s="121"/>
+      <c r="AC20" s="121"/>
+      <c r="AD20" s="121"/>
+      <c r="AE20" s="121"/>
+      <c r="AF20" s="121"/>
+      <c r="AG20" s="121"/>
+      <c r="AH20" s="121"/>
+      <c r="AI20" s="121"/>
+      <c r="AJ20" s="121"/>
+      <c r="AK20" s="121"/>
+      <c r="AL20" s="121"/>
+      <c r="AM20" s="121"/>
+      <c r="AN20" s="114"/>
+      <c r="AO20" s="114"/>
+      <c r="AP20" s="114"/>
+      <c r="AQ20" s="114"/>
+      <c r="AR20" s="114"/>
+      <c r="AS20" s="114"/>
+      <c r="AT20" s="114"/>
+      <c r="AU20" s="114"/>
+      <c r="AV20" s="114"/>
+      <c r="AW20" s="114"/>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="112"/>
-      <c r="O21" s="112"/>
-      <c r="P21" s="112"/>
-      <c r="Q21" s="112"/>
-      <c r="R21" s="112"/>
-      <c r="S21" s="104"/>
-      <c r="T21" s="104"/>
-      <c r="U21" s="104"/>
-      <c r="V21" s="110"/>
-      <c r="W21" s="110"/>
-      <c r="X21" s="110"/>
-      <c r="Y21" s="110"/>
-      <c r="Z21" s="110"/>
-      <c r="AA21" s="110"/>
-      <c r="AB21" s="110"/>
-      <c r="AC21" s="110"/>
-      <c r="AD21" s="110"/>
-      <c r="AE21" s="110"/>
-      <c r="AF21" s="110"/>
-      <c r="AG21" s="110"/>
-      <c r="AH21" s="110"/>
-      <c r="AI21" s="110"/>
-      <c r="AJ21" s="110"/>
-      <c r="AK21" s="110"/>
-      <c r="AL21" s="110"/>
-      <c r="AM21" s="110"/>
-      <c r="AN21" s="104"/>
-      <c r="AO21" s="104"/>
-      <c r="AP21" s="104"/>
-      <c r="AQ21" s="104"/>
-      <c r="AR21" s="104"/>
-      <c r="AS21" s="104"/>
-      <c r="AT21" s="104"/>
-      <c r="AU21" s="104"/>
-      <c r="AV21" s="104"/>
-      <c r="AW21" s="104"/>
-    </row>
-    <row r="22" spans="1:49">
+      <c r="B21" s="115"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="120"/>
+      <c r="S21" s="114"/>
+      <c r="T21" s="114"/>
+      <c r="U21" s="114"/>
+      <c r="V21" s="121"/>
+      <c r="W21" s="121"/>
+      <c r="X21" s="121"/>
+      <c r="Y21" s="121"/>
+      <c r="Z21" s="121"/>
+      <c r="AA21" s="121"/>
+      <c r="AB21" s="121"/>
+      <c r="AC21" s="121"/>
+      <c r="AD21" s="121"/>
+      <c r="AE21" s="121"/>
+      <c r="AF21" s="121"/>
+      <c r="AG21" s="121"/>
+      <c r="AH21" s="121"/>
+      <c r="AI21" s="121"/>
+      <c r="AJ21" s="121"/>
+      <c r="AK21" s="121"/>
+      <c r="AL21" s="121"/>
+      <c r="AM21" s="121"/>
+      <c r="AN21" s="114"/>
+      <c r="AO21" s="114"/>
+      <c r="AP21" s="114"/>
+      <c r="AQ21" s="114"/>
+      <c r="AR21" s="114"/>
+      <c r="AS21" s="114"/>
+      <c r="AT21" s="114"/>
+      <c r="AU21" s="114"/>
+      <c r="AV21" s="114"/>
+      <c r="AW21" s="114"/>
+    </row>
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="112"/>
-      <c r="Q22" s="112"/>
-      <c r="R22" s="112"/>
-      <c r="S22" s="104"/>
-      <c r="T22" s="104"/>
-      <c r="U22" s="104"/>
-      <c r="V22" s="110"/>
-      <c r="W22" s="110"/>
-      <c r="X22" s="110"/>
-      <c r="Y22" s="110"/>
-      <c r="Z22" s="110"/>
-      <c r="AA22" s="110"/>
-      <c r="AB22" s="110"/>
-      <c r="AC22" s="110"/>
-      <c r="AD22" s="110"/>
-      <c r="AE22" s="110"/>
-      <c r="AF22" s="110"/>
-      <c r="AG22" s="110"/>
-      <c r="AH22" s="110"/>
-      <c r="AI22" s="110"/>
-      <c r="AJ22" s="110"/>
-      <c r="AK22" s="110"/>
-      <c r="AL22" s="110"/>
-      <c r="AM22" s="110"/>
-      <c r="AN22" s="104"/>
-      <c r="AO22" s="104"/>
-      <c r="AP22" s="104"/>
-      <c r="AQ22" s="104"/>
-      <c r="AR22" s="104"/>
-      <c r="AS22" s="104"/>
-      <c r="AT22" s="104"/>
-      <c r="AU22" s="104"/>
-      <c r="AV22" s="104"/>
-      <c r="AW22" s="104"/>
-    </row>
-    <row r="23" spans="1:49" ht="15">
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="120"/>
+      <c r="Q22" s="120"/>
+      <c r="R22" s="120"/>
+      <c r="S22" s="114"/>
+      <c r="T22" s="114"/>
+      <c r="U22" s="114"/>
+      <c r="V22" s="121"/>
+      <c r="W22" s="121"/>
+      <c r="X22" s="121"/>
+      <c r="Y22" s="121"/>
+      <c r="Z22" s="121"/>
+      <c r="AA22" s="121"/>
+      <c r="AB22" s="121"/>
+      <c r="AC22" s="121"/>
+      <c r="AD22" s="121"/>
+      <c r="AE22" s="121"/>
+      <c r="AF22" s="121"/>
+      <c r="AG22" s="121"/>
+      <c r="AH22" s="121"/>
+      <c r="AI22" s="121"/>
+      <c r="AJ22" s="121"/>
+      <c r="AK22" s="121"/>
+      <c r="AL22" s="121"/>
+      <c r="AM22" s="121"/>
+      <c r="AN22" s="114"/>
+      <c r="AO22" s="114"/>
+      <c r="AP22" s="114"/>
+      <c r="AQ22" s="114"/>
+      <c r="AR22" s="114"/>
+      <c r="AS22" s="114"/>
+      <c r="AT22" s="114"/>
+      <c r="AU22" s="114"/>
+      <c r="AV22" s="114"/>
+      <c r="AW22" s="114"/>
+    </row>
+    <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="112"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="112"/>
-      <c r="S23" s="104"/>
-      <c r="T23" s="104"/>
-      <c r="U23" s="104"/>
-      <c r="V23" s="110"/>
-      <c r="W23" s="110"/>
-      <c r="X23" s="110"/>
-      <c r="Y23" s="110"/>
-      <c r="Z23" s="110"/>
-      <c r="AA23" s="110"/>
-      <c r="AB23" s="110"/>
-      <c r="AC23" s="110"/>
-      <c r="AD23" s="110"/>
-      <c r="AE23" s="110"/>
-      <c r="AF23" s="110"/>
-      <c r="AG23" s="110"/>
-      <c r="AH23" s="110"/>
-      <c r="AI23" s="110"/>
-      <c r="AJ23" s="110"/>
-      <c r="AK23" s="110"/>
-      <c r="AL23" s="110"/>
-      <c r="AM23" s="110"/>
-      <c r="AN23" s="104"/>
-      <c r="AO23" s="104"/>
-      <c r="AP23" s="104"/>
-      <c r="AQ23" s="104"/>
-      <c r="AR23" s="104"/>
-      <c r="AS23" s="104"/>
-      <c r="AT23" s="104"/>
-      <c r="AU23" s="104"/>
-      <c r="AV23" s="104"/>
-      <c r="AW23" s="104"/>
-    </row>
-    <row r="24" spans="1:49" ht="15">
+      <c r="B23" s="115"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="120"/>
+      <c r="Q23" s="120"/>
+      <c r="R23" s="120"/>
+      <c r="S23" s="114"/>
+      <c r="T23" s="114"/>
+      <c r="U23" s="114"/>
+      <c r="V23" s="121"/>
+      <c r="W23" s="121"/>
+      <c r="X23" s="121"/>
+      <c r="Y23" s="121"/>
+      <c r="Z23" s="121"/>
+      <c r="AA23" s="121"/>
+      <c r="AB23" s="121"/>
+      <c r="AC23" s="121"/>
+      <c r="AD23" s="121"/>
+      <c r="AE23" s="121"/>
+      <c r="AF23" s="121"/>
+      <c r="AG23" s="121"/>
+      <c r="AH23" s="121"/>
+      <c r="AI23" s="121"/>
+      <c r="AJ23" s="121"/>
+      <c r="AK23" s="121"/>
+      <c r="AL23" s="121"/>
+      <c r="AM23" s="121"/>
+      <c r="AN23" s="114"/>
+      <c r="AO23" s="114"/>
+      <c r="AP23" s="114"/>
+      <c r="AQ23" s="114"/>
+      <c r="AR23" s="114"/>
+      <c r="AS23" s="114"/>
+      <c r="AT23" s="114"/>
+      <c r="AU23" s="114"/>
+      <c r="AV23" s="114"/>
+      <c r="AW23" s="114"/>
+    </row>
+    <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="112"/>
-      <c r="N24" s="112"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="112"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="112"/>
-      <c r="S24" s="104"/>
-      <c r="T24" s="104"/>
-      <c r="U24" s="104"/>
-      <c r="V24" s="110"/>
-      <c r="W24" s="110"/>
-      <c r="X24" s="110"/>
-      <c r="Y24" s="110"/>
-      <c r="Z24" s="110"/>
-      <c r="AA24" s="110"/>
-      <c r="AB24" s="110"/>
-      <c r="AC24" s="110"/>
-      <c r="AD24" s="110"/>
-      <c r="AE24" s="110"/>
-      <c r="AF24" s="110"/>
-      <c r="AG24" s="110"/>
-      <c r="AH24" s="110"/>
-      <c r="AI24" s="110"/>
-      <c r="AJ24" s="110"/>
-      <c r="AK24" s="110"/>
-      <c r="AL24" s="110"/>
-      <c r="AM24" s="110"/>
-      <c r="AN24" s="104"/>
-      <c r="AO24" s="104"/>
-      <c r="AP24" s="104"/>
-      <c r="AQ24" s="104"/>
-      <c r="AR24" s="104"/>
-      <c r="AS24" s="104"/>
-      <c r="AT24" s="104"/>
-      <c r="AU24" s="104"/>
-      <c r="AV24" s="104"/>
-      <c r="AW24" s="104"/>
-    </row>
-    <row r="25" spans="1:49" ht="15">
+      <c r="B24" s="115"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="120"/>
+      <c r="Q24" s="120"/>
+      <c r="R24" s="120"/>
+      <c r="S24" s="114"/>
+      <c r="T24" s="114"/>
+      <c r="U24" s="114"/>
+      <c r="V24" s="121"/>
+      <c r="W24" s="121"/>
+      <c r="X24" s="121"/>
+      <c r="Y24" s="121"/>
+      <c r="Z24" s="121"/>
+      <c r="AA24" s="121"/>
+      <c r="AB24" s="121"/>
+      <c r="AC24" s="121"/>
+      <c r="AD24" s="121"/>
+      <c r="AE24" s="121"/>
+      <c r="AF24" s="121"/>
+      <c r="AG24" s="121"/>
+      <c r="AH24" s="121"/>
+      <c r="AI24" s="121"/>
+      <c r="AJ24" s="121"/>
+      <c r="AK24" s="121"/>
+      <c r="AL24" s="121"/>
+      <c r="AM24" s="121"/>
+      <c r="AN24" s="114"/>
+      <c r="AO24" s="114"/>
+      <c r="AP24" s="114"/>
+      <c r="AQ24" s="114"/>
+      <c r="AR24" s="114"/>
+      <c r="AS24" s="114"/>
+      <c r="AT24" s="114"/>
+      <c r="AU24" s="114"/>
+      <c r="AV24" s="114"/>
+      <c r="AW24" s="114"/>
+    </row>
+    <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="111"/>
-      <c r="N25" s="112"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="112"/>
-      <c r="R25" s="112"/>
-      <c r="S25" s="104"/>
-      <c r="T25" s="104"/>
-      <c r="U25" s="104"/>
-      <c r="V25" s="110"/>
-      <c r="W25" s="110"/>
-      <c r="X25" s="110"/>
-      <c r="Y25" s="110"/>
-      <c r="Z25" s="110"/>
-      <c r="AA25" s="110"/>
-      <c r="AB25" s="110"/>
-      <c r="AC25" s="110"/>
-      <c r="AD25" s="110"/>
-      <c r="AE25" s="110"/>
-      <c r="AF25" s="110"/>
-      <c r="AG25" s="110"/>
-      <c r="AH25" s="110"/>
-      <c r="AI25" s="110"/>
-      <c r="AJ25" s="110"/>
-      <c r="AK25" s="110"/>
-      <c r="AL25" s="110"/>
-      <c r="AM25" s="110"/>
-      <c r="AN25" s="104"/>
-      <c r="AO25" s="104"/>
-      <c r="AP25" s="104"/>
-      <c r="AQ25" s="104"/>
-      <c r="AR25" s="104"/>
-      <c r="AS25" s="104"/>
-      <c r="AT25" s="104"/>
-      <c r="AU25" s="104"/>
-      <c r="AV25" s="104"/>
-      <c r="AW25" s="104"/>
-    </row>
-    <row r="26" spans="1:49" ht="15">
+      <c r="B25" s="115"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="120"/>
+      <c r="O25" s="120"/>
+      <c r="P25" s="120"/>
+      <c r="Q25" s="120"/>
+      <c r="R25" s="120"/>
+      <c r="S25" s="114"/>
+      <c r="T25" s="114"/>
+      <c r="U25" s="114"/>
+      <c r="V25" s="121"/>
+      <c r="W25" s="121"/>
+      <c r="X25" s="121"/>
+      <c r="Y25" s="121"/>
+      <c r="Z25" s="121"/>
+      <c r="AA25" s="121"/>
+      <c r="AB25" s="121"/>
+      <c r="AC25" s="121"/>
+      <c r="AD25" s="121"/>
+      <c r="AE25" s="121"/>
+      <c r="AF25" s="121"/>
+      <c r="AG25" s="121"/>
+      <c r="AH25" s="121"/>
+      <c r="AI25" s="121"/>
+      <c r="AJ25" s="121"/>
+      <c r="AK25" s="121"/>
+      <c r="AL25" s="121"/>
+      <c r="AM25" s="121"/>
+      <c r="AN25" s="114"/>
+      <c r="AO25" s="114"/>
+      <c r="AP25" s="114"/>
+      <c r="AQ25" s="114"/>
+      <c r="AR25" s="114"/>
+      <c r="AS25" s="114"/>
+      <c r="AT25" s="114"/>
+      <c r="AU25" s="114"/>
+      <c r="AV25" s="114"/>
+      <c r="AW25" s="114"/>
+    </row>
+    <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="111"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="112"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="104"/>
-      <c r="T26" s="104"/>
-      <c r="U26" s="104"/>
-      <c r="V26" s="110"/>
-      <c r="W26" s="110"/>
-      <c r="X26" s="110"/>
-      <c r="Y26" s="110"/>
-      <c r="Z26" s="110"/>
-      <c r="AA26" s="110"/>
-      <c r="AB26" s="110"/>
-      <c r="AC26" s="110"/>
-      <c r="AD26" s="110"/>
-      <c r="AE26" s="110"/>
-      <c r="AF26" s="110"/>
-      <c r="AG26" s="110"/>
-      <c r="AH26" s="110"/>
-      <c r="AI26" s="110"/>
-      <c r="AJ26" s="110"/>
-      <c r="AK26" s="110"/>
-      <c r="AL26" s="110"/>
-      <c r="AM26" s="110"/>
-      <c r="AN26" s="104"/>
-      <c r="AO26" s="104"/>
-      <c r="AP26" s="104"/>
-      <c r="AQ26" s="104"/>
-      <c r="AR26" s="104"/>
-      <c r="AS26" s="104"/>
-      <c r="AT26" s="104"/>
-      <c r="AU26" s="104"/>
-      <c r="AV26" s="104"/>
-      <c r="AW26" s="104"/>
-    </row>
-    <row r="27" spans="1:49" ht="15">
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="117"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="123"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="120"/>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="120"/>
+      <c r="S26" s="114"/>
+      <c r="T26" s="114"/>
+      <c r="U26" s="114"/>
+      <c r="V26" s="121"/>
+      <c r="W26" s="121"/>
+      <c r="X26" s="121"/>
+      <c r="Y26" s="121"/>
+      <c r="Z26" s="121"/>
+      <c r="AA26" s="121"/>
+      <c r="AB26" s="121"/>
+      <c r="AC26" s="121"/>
+      <c r="AD26" s="121"/>
+      <c r="AE26" s="121"/>
+      <c r="AF26" s="121"/>
+      <c r="AG26" s="121"/>
+      <c r="AH26" s="121"/>
+      <c r="AI26" s="121"/>
+      <c r="AJ26" s="121"/>
+      <c r="AK26" s="121"/>
+      <c r="AL26" s="121"/>
+      <c r="AM26" s="121"/>
+      <c r="AN26" s="114"/>
+      <c r="AO26" s="114"/>
+      <c r="AP26" s="114"/>
+      <c r="AQ26" s="114"/>
+      <c r="AR26" s="114"/>
+      <c r="AS26" s="114"/>
+      <c r="AT26" s="114"/>
+      <c r="AU26" s="114"/>
+      <c r="AV26" s="114"/>
+      <c r="AW26" s="114"/>
+    </row>
+    <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="107"/>
-      <c r="M27" s="111"/>
-      <c r="N27" s="112"/>
-      <c r="O27" s="112"/>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="112"/>
-      <c r="S27" s="104"/>
-      <c r="T27" s="104"/>
-      <c r="U27" s="104"/>
-      <c r="V27" s="110"/>
-      <c r="W27" s="110"/>
-      <c r="X27" s="110"/>
-      <c r="Y27" s="110"/>
-      <c r="Z27" s="110"/>
-      <c r="AA27" s="110"/>
-      <c r="AB27" s="110"/>
-      <c r="AC27" s="110"/>
-      <c r="AD27" s="110"/>
-      <c r="AE27" s="110"/>
-      <c r="AF27" s="110"/>
-      <c r="AG27" s="110"/>
-      <c r="AH27" s="110"/>
-      <c r="AI27" s="110"/>
-      <c r="AJ27" s="110"/>
-      <c r="AK27" s="110"/>
-      <c r="AL27" s="110"/>
-      <c r="AM27" s="110"/>
-      <c r="AN27" s="104"/>
-      <c r="AO27" s="104"/>
-      <c r="AP27" s="104"/>
-      <c r="AQ27" s="104"/>
-      <c r="AR27" s="104"/>
-      <c r="AS27" s="104"/>
-      <c r="AT27" s="104"/>
-      <c r="AU27" s="104"/>
-      <c r="AV27" s="104"/>
-      <c r="AW27" s="104"/>
-    </row>
-    <row r="28" spans="1:49" ht="15">
+      <c r="B27" s="115"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="117"/>
+      <c r="M27" s="123"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="120"/>
+      <c r="R27" s="120"/>
+      <c r="S27" s="114"/>
+      <c r="T27" s="114"/>
+      <c r="U27" s="114"/>
+      <c r="V27" s="121"/>
+      <c r="W27" s="121"/>
+      <c r="X27" s="121"/>
+      <c r="Y27" s="121"/>
+      <c r="Z27" s="121"/>
+      <c r="AA27" s="121"/>
+      <c r="AB27" s="121"/>
+      <c r="AC27" s="121"/>
+      <c r="AD27" s="121"/>
+      <c r="AE27" s="121"/>
+      <c r="AF27" s="121"/>
+      <c r="AG27" s="121"/>
+      <c r="AH27" s="121"/>
+      <c r="AI27" s="121"/>
+      <c r="AJ27" s="121"/>
+      <c r="AK27" s="121"/>
+      <c r="AL27" s="121"/>
+      <c r="AM27" s="121"/>
+      <c r="AN27" s="114"/>
+      <c r="AO27" s="114"/>
+      <c r="AP27" s="114"/>
+      <c r="AQ27" s="114"/>
+      <c r="AR27" s="114"/>
+      <c r="AS27" s="114"/>
+      <c r="AT27" s="114"/>
+      <c r="AU27" s="114"/>
+      <c r="AV27" s="114"/>
+      <c r="AW27" s="114"/>
+    </row>
+    <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="107"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="112"/>
-      <c r="S28" s="104"/>
-      <c r="T28" s="104"/>
-      <c r="U28" s="104"/>
-      <c r="V28" s="110"/>
-      <c r="W28" s="110"/>
-      <c r="X28" s="110"/>
-      <c r="Y28" s="110"/>
-      <c r="Z28" s="110"/>
-      <c r="AA28" s="110"/>
-      <c r="AB28" s="110"/>
-      <c r="AC28" s="110"/>
-      <c r="AD28" s="110"/>
-      <c r="AE28" s="110"/>
-      <c r="AF28" s="110"/>
-      <c r="AG28" s="110"/>
-      <c r="AH28" s="110"/>
-      <c r="AI28" s="110"/>
-      <c r="AJ28" s="110"/>
-      <c r="AK28" s="110"/>
-      <c r="AL28" s="110"/>
-      <c r="AM28" s="110"/>
-      <c r="AN28" s="104"/>
-      <c r="AO28" s="104"/>
-      <c r="AP28" s="104"/>
-      <c r="AQ28" s="104"/>
-      <c r="AR28" s="104"/>
-      <c r="AS28" s="104"/>
-      <c r="AT28" s="104"/>
-      <c r="AU28" s="104"/>
-      <c r="AV28" s="104"/>
-      <c r="AW28" s="104"/>
-    </row>
-    <row r="29" spans="1:49" ht="15">
+      <c r="B28" s="115"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="117"/>
+      <c r="K28" s="117"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="120"/>
+      <c r="O28" s="120"/>
+      <c r="P28" s="120"/>
+      <c r="Q28" s="120"/>
+      <c r="R28" s="120"/>
+      <c r="S28" s="114"/>
+      <c r="T28" s="114"/>
+      <c r="U28" s="114"/>
+      <c r="V28" s="121"/>
+      <c r="W28" s="121"/>
+      <c r="X28" s="121"/>
+      <c r="Y28" s="121"/>
+      <c r="Z28" s="121"/>
+      <c r="AA28" s="121"/>
+      <c r="AB28" s="121"/>
+      <c r="AC28" s="121"/>
+      <c r="AD28" s="121"/>
+      <c r="AE28" s="121"/>
+      <c r="AF28" s="121"/>
+      <c r="AG28" s="121"/>
+      <c r="AH28" s="121"/>
+      <c r="AI28" s="121"/>
+      <c r="AJ28" s="121"/>
+      <c r="AK28" s="121"/>
+      <c r="AL28" s="121"/>
+      <c r="AM28" s="121"/>
+      <c r="AN28" s="114"/>
+      <c r="AO28" s="114"/>
+      <c r="AP28" s="114"/>
+      <c r="AQ28" s="114"/>
+      <c r="AR28" s="114"/>
+      <c r="AS28" s="114"/>
+      <c r="AT28" s="114"/>
+      <c r="AU28" s="114"/>
+      <c r="AV28" s="114"/>
+      <c r="AW28" s="114"/>
+    </row>
+    <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="112"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="104"/>
-      <c r="T29" s="104"/>
-      <c r="U29" s="104"/>
-      <c r="V29" s="110"/>
-      <c r="W29" s="110"/>
-      <c r="X29" s="110"/>
-      <c r="Y29" s="110"/>
-      <c r="Z29" s="110"/>
-      <c r="AA29" s="110"/>
-      <c r="AB29" s="110"/>
-      <c r="AC29" s="110"/>
-      <c r="AD29" s="110"/>
-      <c r="AE29" s="110"/>
-      <c r="AF29" s="110"/>
-      <c r="AG29" s="110"/>
-      <c r="AH29" s="110"/>
-      <c r="AI29" s="110"/>
-      <c r="AJ29" s="110"/>
-      <c r="AK29" s="110"/>
-      <c r="AL29" s="110"/>
-      <c r="AM29" s="110"/>
-      <c r="AN29" s="104"/>
-      <c r="AO29" s="104"/>
-      <c r="AP29" s="104"/>
-      <c r="AQ29" s="104"/>
-      <c r="AR29" s="104"/>
-      <c r="AS29" s="104"/>
-      <c r="AT29" s="104"/>
-      <c r="AU29" s="104"/>
-      <c r="AV29" s="104"/>
-      <c r="AW29" s="104"/>
-    </row>
-    <row r="30" spans="1:49" ht="15">
+      <c r="B29" s="115"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="117"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="120"/>
+      <c r="O29" s="120"/>
+      <c r="P29" s="120"/>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="120"/>
+      <c r="S29" s="114"/>
+      <c r="T29" s="114"/>
+      <c r="U29" s="114"/>
+      <c r="V29" s="121"/>
+      <c r="W29" s="121"/>
+      <c r="X29" s="121"/>
+      <c r="Y29" s="121"/>
+      <c r="Z29" s="121"/>
+      <c r="AA29" s="121"/>
+      <c r="AB29" s="121"/>
+      <c r="AC29" s="121"/>
+      <c r="AD29" s="121"/>
+      <c r="AE29" s="121"/>
+      <c r="AF29" s="121"/>
+      <c r="AG29" s="121"/>
+      <c r="AH29" s="121"/>
+      <c r="AI29" s="121"/>
+      <c r="AJ29" s="121"/>
+      <c r="AK29" s="121"/>
+      <c r="AL29" s="121"/>
+      <c r="AM29" s="121"/>
+      <c r="AN29" s="114"/>
+      <c r="AO29" s="114"/>
+      <c r="AP29" s="114"/>
+      <c r="AQ29" s="114"/>
+      <c r="AR29" s="114"/>
+      <c r="AS29" s="114"/>
+      <c r="AT29" s="114"/>
+      <c r="AU29" s="114"/>
+      <c r="AV29" s="114"/>
+      <c r="AW29" s="114"/>
+    </row>
+    <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="107"/>
-      <c r="L30" s="107"/>
-      <c r="M30" s="111"/>
-      <c r="N30" s="112"/>
-      <c r="O30" s="112"/>
-      <c r="P30" s="112"/>
-      <c r="Q30" s="112"/>
-      <c r="R30" s="112"/>
-      <c r="S30" s="104"/>
-      <c r="T30" s="104"/>
-      <c r="U30" s="104"/>
-      <c r="V30" s="110"/>
-      <c r="W30" s="110"/>
-      <c r="X30" s="110"/>
-      <c r="Y30" s="110"/>
-      <c r="Z30" s="110"/>
-      <c r="AA30" s="110"/>
-      <c r="AB30" s="110"/>
-      <c r="AC30" s="110"/>
-      <c r="AD30" s="110"/>
-      <c r="AE30" s="110"/>
-      <c r="AF30" s="110"/>
-      <c r="AG30" s="110"/>
-      <c r="AH30" s="110"/>
-      <c r="AI30" s="110"/>
-      <c r="AJ30" s="110"/>
-      <c r="AK30" s="110"/>
-      <c r="AL30" s="110"/>
-      <c r="AM30" s="110"/>
-      <c r="AN30" s="104"/>
-      <c r="AO30" s="104"/>
-      <c r="AP30" s="104"/>
-      <c r="AQ30" s="104"/>
-      <c r="AR30" s="104"/>
-      <c r="AS30" s="104"/>
-      <c r="AT30" s="104"/>
-      <c r="AU30" s="104"/>
-      <c r="AV30" s="104"/>
-      <c r="AW30" s="104"/>
-    </row>
-    <row r="31" spans="1:49" ht="15">
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="123"/>
+      <c r="N30" s="120"/>
+      <c r="O30" s="120"/>
+      <c r="P30" s="120"/>
+      <c r="Q30" s="120"/>
+      <c r="R30" s="120"/>
+      <c r="S30" s="114"/>
+      <c r="T30" s="114"/>
+      <c r="U30" s="114"/>
+      <c r="V30" s="121"/>
+      <c r="W30" s="121"/>
+      <c r="X30" s="121"/>
+      <c r="Y30" s="121"/>
+      <c r="Z30" s="121"/>
+      <c r="AA30" s="121"/>
+      <c r="AB30" s="121"/>
+      <c r="AC30" s="121"/>
+      <c r="AD30" s="121"/>
+      <c r="AE30" s="121"/>
+      <c r="AF30" s="121"/>
+      <c r="AG30" s="121"/>
+      <c r="AH30" s="121"/>
+      <c r="AI30" s="121"/>
+      <c r="AJ30" s="121"/>
+      <c r="AK30" s="121"/>
+      <c r="AL30" s="121"/>
+      <c r="AM30" s="121"/>
+      <c r="AN30" s="114"/>
+      <c r="AO30" s="114"/>
+      <c r="AP30" s="114"/>
+      <c r="AQ30" s="114"/>
+      <c r="AR30" s="114"/>
+      <c r="AS30" s="114"/>
+      <c r="AT30" s="114"/>
+      <c r="AU30" s="114"/>
+      <c r="AV30" s="114"/>
+      <c r="AW30" s="114"/>
+    </row>
+    <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
-      <c r="L31" s="107"/>
-      <c r="M31" s="111"/>
-      <c r="N31" s="112"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="112"/>
-      <c r="S31" s="104"/>
-      <c r="T31" s="104"/>
-      <c r="U31" s="104"/>
-      <c r="V31" s="110"/>
-      <c r="W31" s="110"/>
-      <c r="X31" s="110"/>
-      <c r="Y31" s="110"/>
-      <c r="Z31" s="110"/>
-      <c r="AA31" s="110"/>
-      <c r="AB31" s="110"/>
-      <c r="AC31" s="110"/>
-      <c r="AD31" s="110"/>
-      <c r="AE31" s="110"/>
-      <c r="AF31" s="110"/>
-      <c r="AG31" s="110"/>
-      <c r="AH31" s="110"/>
-      <c r="AI31" s="110"/>
-      <c r="AJ31" s="110"/>
-      <c r="AK31" s="110"/>
-      <c r="AL31" s="110"/>
-      <c r="AM31" s="110"/>
-      <c r="AN31" s="104"/>
-      <c r="AO31" s="104"/>
-      <c r="AP31" s="104"/>
-      <c r="AQ31" s="104"/>
-      <c r="AR31" s="104"/>
-      <c r="AS31" s="104"/>
-      <c r="AT31" s="104"/>
-      <c r="AU31" s="104"/>
-      <c r="AV31" s="104"/>
-      <c r="AW31" s="104"/>
-    </row>
-    <row r="32" spans="1:49" ht="15">
+      <c r="B31" s="115"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="117"/>
+      <c r="M31" s="123"/>
+      <c r="N31" s="120"/>
+      <c r="O31" s="120"/>
+      <c r="P31" s="120"/>
+      <c r="Q31" s="120"/>
+      <c r="R31" s="120"/>
+      <c r="S31" s="114"/>
+      <c r="T31" s="114"/>
+      <c r="U31" s="114"/>
+      <c r="V31" s="121"/>
+      <c r="W31" s="121"/>
+      <c r="X31" s="121"/>
+      <c r="Y31" s="121"/>
+      <c r="Z31" s="121"/>
+      <c r="AA31" s="121"/>
+      <c r="AB31" s="121"/>
+      <c r="AC31" s="121"/>
+      <c r="AD31" s="121"/>
+      <c r="AE31" s="121"/>
+      <c r="AF31" s="121"/>
+      <c r="AG31" s="121"/>
+      <c r="AH31" s="121"/>
+      <c r="AI31" s="121"/>
+      <c r="AJ31" s="121"/>
+      <c r="AK31" s="121"/>
+      <c r="AL31" s="121"/>
+      <c r="AM31" s="121"/>
+      <c r="AN31" s="114"/>
+      <c r="AO31" s="114"/>
+      <c r="AP31" s="114"/>
+      <c r="AQ31" s="114"/>
+      <c r="AR31" s="114"/>
+      <c r="AS31" s="114"/>
+      <c r="AT31" s="114"/>
+      <c r="AU31" s="114"/>
+      <c r="AV31" s="114"/>
+      <c r="AW31" s="114"/>
+    </row>
+    <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
-      <c r="L32" s="107"/>
-      <c r="M32" s="111"/>
-      <c r="N32" s="112"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="112"/>
-      <c r="Q32" s="112"/>
-      <c r="R32" s="112"/>
-      <c r="S32" s="104"/>
-      <c r="T32" s="104"/>
-      <c r="U32" s="104"/>
-      <c r="V32" s="110"/>
-      <c r="W32" s="110"/>
-      <c r="X32" s="110"/>
-      <c r="Y32" s="110"/>
-      <c r="Z32" s="110"/>
-      <c r="AA32" s="110"/>
-      <c r="AB32" s="110"/>
-      <c r="AC32" s="110"/>
-      <c r="AD32" s="110"/>
-      <c r="AE32" s="110"/>
-      <c r="AF32" s="110"/>
-      <c r="AG32" s="110"/>
-      <c r="AH32" s="110"/>
-      <c r="AI32" s="110"/>
-      <c r="AJ32" s="110"/>
-      <c r="AK32" s="110"/>
-      <c r="AL32" s="110"/>
-      <c r="AM32" s="110"/>
-      <c r="AN32" s="104"/>
-      <c r="AO32" s="104"/>
-      <c r="AP32" s="104"/>
-      <c r="AQ32" s="104"/>
-      <c r="AR32" s="104"/>
-      <c r="AS32" s="104"/>
-      <c r="AT32" s="104"/>
-      <c r="AU32" s="104"/>
-      <c r="AV32" s="104"/>
-      <c r="AW32" s="104"/>
-    </row>
-    <row r="33" spans="2:49">
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="107"/>
-      <c r="L33" s="107"/>
-      <c r="M33" s="111"/>
-      <c r="N33" s="112"/>
-      <c r="O33" s="112"/>
-      <c r="P33" s="112"/>
-      <c r="Q33" s="112"/>
-      <c r="R33" s="112"/>
-      <c r="S33" s="104"/>
-      <c r="T33" s="104"/>
-      <c r="U33" s="104"/>
-      <c r="V33" s="110"/>
-      <c r="W33" s="110"/>
-      <c r="X33" s="110"/>
-      <c r="Y33" s="110"/>
-      <c r="Z33" s="110"/>
-      <c r="AA33" s="110"/>
-      <c r="AB33" s="110"/>
-      <c r="AC33" s="110"/>
-      <c r="AD33" s="110"/>
-      <c r="AE33" s="110"/>
-      <c r="AF33" s="110"/>
-      <c r="AG33" s="110"/>
-      <c r="AH33" s="110"/>
-      <c r="AI33" s="110"/>
-      <c r="AJ33" s="110"/>
-      <c r="AK33" s="110"/>
-      <c r="AL33" s="110"/>
-      <c r="AM33" s="110"/>
-      <c r="AN33" s="104"/>
-      <c r="AO33" s="104"/>
-      <c r="AP33" s="104"/>
-      <c r="AQ33" s="104"/>
-      <c r="AR33" s="104"/>
-      <c r="AS33" s="104"/>
-      <c r="AT33" s="104"/>
-      <c r="AU33" s="104"/>
-      <c r="AV33" s="104"/>
-      <c r="AW33" s="104"/>
-    </row>
-    <row r="34" spans="2:49">
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
-      <c r="L34" s="107"/>
-      <c r="M34" s="108"/>
-      <c r="N34" s="109"/>
-      <c r="O34" s="109"/>
-      <c r="P34" s="109"/>
-      <c r="Q34" s="109"/>
-      <c r="R34" s="109"/>
-      <c r="S34" s="104"/>
-      <c r="T34" s="104"/>
-      <c r="U34" s="104"/>
-      <c r="V34" s="110"/>
-      <c r="W34" s="110"/>
-      <c r="X34" s="110"/>
-      <c r="Y34" s="110"/>
-      <c r="Z34" s="110"/>
-      <c r="AA34" s="110"/>
-      <c r="AB34" s="110"/>
-      <c r="AC34" s="110"/>
-      <c r="AD34" s="110"/>
-      <c r="AE34" s="110"/>
-      <c r="AF34" s="110"/>
-      <c r="AG34" s="110"/>
-      <c r="AH34" s="110"/>
-      <c r="AI34" s="110"/>
-      <c r="AJ34" s="110"/>
-      <c r="AK34" s="110"/>
-      <c r="AL34" s="110"/>
-      <c r="AM34" s="110"/>
-      <c r="AN34" s="104"/>
-      <c r="AO34" s="104"/>
-      <c r="AP34" s="104"/>
-      <c r="AQ34" s="104"/>
-      <c r="AR34" s="104"/>
-      <c r="AS34" s="104"/>
-      <c r="AT34" s="104"/>
-      <c r="AU34" s="104"/>
-      <c r="AV34" s="104"/>
-      <c r="AW34" s="104"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="120"/>
+      <c r="O32" s="120"/>
+      <c r="P32" s="120"/>
+      <c r="Q32" s="120"/>
+      <c r="R32" s="120"/>
+      <c r="S32" s="114"/>
+      <c r="T32" s="114"/>
+      <c r="U32" s="114"/>
+      <c r="V32" s="121"/>
+      <c r="W32" s="121"/>
+      <c r="X32" s="121"/>
+      <c r="Y32" s="121"/>
+      <c r="Z32" s="121"/>
+      <c r="AA32" s="121"/>
+      <c r="AB32" s="121"/>
+      <c r="AC32" s="121"/>
+      <c r="AD32" s="121"/>
+      <c r="AE32" s="121"/>
+      <c r="AF32" s="121"/>
+      <c r="AG32" s="121"/>
+      <c r="AH32" s="121"/>
+      <c r="AI32" s="121"/>
+      <c r="AJ32" s="121"/>
+      <c r="AK32" s="121"/>
+      <c r="AL32" s="121"/>
+      <c r="AM32" s="121"/>
+      <c r="AN32" s="114"/>
+      <c r="AO32" s="114"/>
+      <c r="AP32" s="114"/>
+      <c r="AQ32" s="114"/>
+      <c r="AR32" s="114"/>
+      <c r="AS32" s="114"/>
+      <c r="AT32" s="114"/>
+      <c r="AU32" s="114"/>
+      <c r="AV32" s="114"/>
+      <c r="AW32" s="114"/>
+    </row>
+    <row r="33" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B33" s="115"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="123"/>
+      <c r="N33" s="120"/>
+      <c r="O33" s="120"/>
+      <c r="P33" s="120"/>
+      <c r="Q33" s="120"/>
+      <c r="R33" s="120"/>
+      <c r="S33" s="114"/>
+      <c r="T33" s="114"/>
+      <c r="U33" s="114"/>
+      <c r="V33" s="121"/>
+      <c r="W33" s="121"/>
+      <c r="X33" s="121"/>
+      <c r="Y33" s="121"/>
+      <c r="Z33" s="121"/>
+      <c r="AA33" s="121"/>
+      <c r="AB33" s="121"/>
+      <c r="AC33" s="121"/>
+      <c r="AD33" s="121"/>
+      <c r="AE33" s="121"/>
+      <c r="AF33" s="121"/>
+      <c r="AG33" s="121"/>
+      <c r="AH33" s="121"/>
+      <c r="AI33" s="121"/>
+      <c r="AJ33" s="121"/>
+      <c r="AK33" s="121"/>
+      <c r="AL33" s="121"/>
+      <c r="AM33" s="121"/>
+      <c r="AN33" s="114"/>
+      <c r="AO33" s="114"/>
+      <c r="AP33" s="114"/>
+      <c r="AQ33" s="114"/>
+      <c r="AR33" s="114"/>
+      <c r="AS33" s="114"/>
+      <c r="AT33" s="114"/>
+      <c r="AU33" s="114"/>
+      <c r="AV33" s="114"/>
+      <c r="AW33" s="114"/>
+    </row>
+    <row r="34" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="117"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="127"/>
+      <c r="N34" s="128"/>
+      <c r="O34" s="128"/>
+      <c r="P34" s="128"/>
+      <c r="Q34" s="128"/>
+      <c r="R34" s="128"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="114"/>
+      <c r="U34" s="114"/>
+      <c r="V34" s="121"/>
+      <c r="W34" s="121"/>
+      <c r="X34" s="121"/>
+      <c r="Y34" s="121"/>
+      <c r="Z34" s="121"/>
+      <c r="AA34" s="121"/>
+      <c r="AB34" s="121"/>
+      <c r="AC34" s="121"/>
+      <c r="AD34" s="121"/>
+      <c r="AE34" s="121"/>
+      <c r="AF34" s="121"/>
+      <c r="AG34" s="121"/>
+      <c r="AH34" s="121"/>
+      <c r="AI34" s="121"/>
+      <c r="AJ34" s="121"/>
+      <c r="AK34" s="121"/>
+      <c r="AL34" s="121"/>
+      <c r="AM34" s="121"/>
+      <c r="AN34" s="114"/>
+      <c r="AO34" s="114"/>
+      <c r="AP34" s="114"/>
+      <c r="AQ34" s="114"/>
+      <c r="AR34" s="114"/>
+      <c r="AS34" s="114"/>
+      <c r="AT34" s="114"/>
+      <c r="AU34" s="114"/>
+      <c r="AV34" s="114"/>
+      <c r="AW34" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -5803,230 +5974,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6047,16 +6003,16 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="3.109375" style="30"/>
-    <col min="3" max="3" width="3.109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="53" width="3.109375" style="30"/>
+    <col min="1" max="2" width="3.125" style="30"/>
+    <col min="3" max="3" width="3.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="53" width="3.125" style="30"/>
     <col min="54" max="54" width="2" style="30" customWidth="1"/>
-    <col min="55" max="16384" width="3.109375" style="30"/>
+    <col min="55" max="16384" width="3.125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="16.2">
+    <row r="1" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -6107,14 +6063,14 @@
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
-      <c r="AO1" s="134">
+      <c r="AO1" s="138">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
-      <c r="AP1" s="135"/>
-      <c r="AQ1" s="135"/>
-      <c r="AR1" s="135"/>
-      <c r="AS1" s="136"/>
+      <c r="AP1" s="139"/>
+      <c r="AQ1" s="139"/>
+      <c r="AR1" s="139"/>
+      <c r="AS1" s="140"/>
       <c r="AT1" s="33" t="s">
         <v>24</v>
       </c>
@@ -6123,19 +6079,19 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="129" t="str">
+      <c r="AZ1" s="135" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="BA1" s="130"/>
-      <c r="BB1" s="130"/>
-      <c r="BC1" s="130"/>
-      <c r="BD1" s="130"/>
-      <c r="BE1" s="130"/>
-      <c r="BF1" s="130"/>
-      <c r="BG1" s="131"/>
-    </row>
-    <row r="2" spans="1:59" ht="16.2">
+      <c r="BA1" s="136"/>
+      <c r="BB1" s="136"/>
+      <c r="BC1" s="136"/>
+      <c r="BD1" s="136"/>
+      <c r="BE1" s="136"/>
+      <c r="BF1" s="136"/>
+      <c r="BG1" s="137"/>
+    </row>
+    <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -6186,11 +6142,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="134"/>
-      <c r="AP2" s="135"/>
-      <c r="AQ2" s="135"/>
-      <c r="AR2" s="135"/>
-      <c r="AS2" s="136"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="139"/>
+      <c r="AQ2" s="139"/>
+      <c r="AR2" s="139"/>
+      <c r="AS2" s="140"/>
       <c r="AT2" s="33" t="s">
         <v>25</v>
       </c>
@@ -6199,16 +6155,16 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="129"/>
-      <c r="BA2" s="130"/>
-      <c r="BB2" s="130"/>
-      <c r="BC2" s="130"/>
-      <c r="BD2" s="130"/>
-      <c r="BE2" s="130"/>
-      <c r="BF2" s="130"/>
-      <c r="BG2" s="131"/>
-    </row>
-    <row r="3" spans="1:59">
+      <c r="AZ2" s="135"/>
+      <c r="BA2" s="136"/>
+      <c r="BB2" s="136"/>
+      <c r="BC2" s="136"/>
+      <c r="BD2" s="136"/>
+      <c r="BE2" s="136"/>
+      <c r="BF2" s="136"/>
+      <c r="BG2" s="137"/>
+    </row>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -6269,23 +6225,23 @@
       <c r="BF3" s="32"/>
       <c r="BG3" s="32"/>
     </row>
-    <row r="4" spans="1:59" s="32" customFormat="1" ht="18.600000000000001">
+    <row r="4" spans="1:59" s="32" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
       <c r="A4" s="29" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:59" s="32" customFormat="1" ht="16.2">
+    <row r="5" spans="1:59" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="41"/>
     </row>
-    <row r="6" spans="1:59" s="28" customFormat="1" ht="16.2">
+    <row r="6" spans="1:59" s="28" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:59" s="32" customFormat="1" ht="16.2">
+    <row r="7" spans="1:59" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="41"/>
     </row>
-    <row r="8" spans="1:59" s="32" customFormat="1" ht="16.2">
+    <row r="8" spans="1:59" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="79" t="s">
         <v>113</v>
       </c>
@@ -6333,7 +6289,7 @@
       <c r="AR8" s="80"/>
       <c r="AS8" s="80"/>
     </row>
-    <row r="9" spans="1:59" s="32" customFormat="1" ht="16.2">
+    <row r="9" spans="1:59" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="79"/>
       <c r="C9" s="79"/>
       <c r="D9" s="80"/>
@@ -6379,13 +6335,13 @@
       <c r="AR9" s="80"/>
       <c r="AS9" s="80"/>
     </row>
-    <row r="10" spans="1:59" s="32" customFormat="1"/>
-    <row r="11" spans="1:59" s="32" customFormat="1" ht="16.2">
+    <row r="10" spans="1:59" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:59" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="31" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:59" s="10" customFormat="1" ht="12">
+    <row r="12" spans="1:59" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="G12" s="9"/>
       <c r="H12" s="11"/>
       <c r="I12" s="9"/>
@@ -6428,7 +6384,7 @@
       <c r="BA12" s="9"/>
       <c r="BB12" s="9"/>
     </row>
-    <row r="13" spans="1:59" s="10" customFormat="1" ht="12">
+    <row r="13" spans="1:59" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="G13" s="9"/>
       <c r="H13" s="11"/>
       <c r="I13" s="9"/>
@@ -6472,7 +6428,7 @@
       <c r="BA13" s="9"/>
       <c r="BB13" s="9"/>
     </row>
-    <row r="14" spans="1:59" s="10" customFormat="1" ht="12">
+    <row r="14" spans="1:59" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="G14" s="9"/>
       <c r="H14" s="11"/>
       <c r="I14" s="9"/>
@@ -6516,7 +6472,7 @@
       <c r="BA14" s="9"/>
       <c r="BB14" s="9"/>
     </row>
-    <row r="15" spans="1:59" s="10" customFormat="1" ht="12">
+    <row r="15" spans="1:59" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
@@ -6554,7 +6510,7 @@
       <c r="BA15" s="9"/>
       <c r="BB15" s="9"/>
     </row>
-    <row r="16" spans="1:59" s="10" customFormat="1" ht="12">
+    <row r="16" spans="1:59" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
@@ -6592,7 +6548,7 @@
       <c r="BA16" s="9"/>
       <c r="BB16" s="9"/>
     </row>
-    <row r="17" spans="7:54" s="10" customFormat="1" ht="12">
+    <row r="17" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="M17" s="9"/>
       <c r="N17" s="12"/>
       <c r="O17" s="9"/>
@@ -6636,7 +6592,7 @@
       <c r="BA17" s="9"/>
       <c r="BB17" s="9"/>
     </row>
-    <row r="18" spans="7:54" s="10" customFormat="1" ht="12">
+    <row r="18" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="13"/>
@@ -6659,7 +6615,7 @@
       <c r="BA18" s="9"/>
       <c r="BB18" s="9"/>
     </row>
-    <row r="19" spans="7:54" s="10" customFormat="1" ht="12">
+    <row r="19" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="I19" s="9"/>
       <c r="M19" s="9"/>
       <c r="O19" s="11"/>
@@ -6703,7 +6659,7 @@
       <c r="BA19" s="9"/>
       <c r="BB19" s="9"/>
     </row>
-    <row r="20" spans="7:54" s="10" customFormat="1" ht="12">
+    <row r="20" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="L20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -6724,7 +6680,7 @@
       <c r="BA20" s="9"/>
       <c r="BB20" s="9"/>
     </row>
-    <row r="21" spans="7:54" s="10" customFormat="1" ht="12">
+    <row r="21" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="J21" s="91"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
@@ -6748,7 +6704,7 @@
       <c r="BA21" s="9"/>
       <c r="BB21" s="9"/>
     </row>
-    <row r="22" spans="7:54" s="10" customFormat="1" ht="12">
+    <row r="22" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="N22" s="9"/>
@@ -6770,7 +6726,7 @@
       <c r="BA22" s="9"/>
       <c r="BB22" s="9"/>
     </row>
-    <row r="23" spans="7:54" s="10" customFormat="1" ht="12">
+    <row r="23" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -6807,7 +6763,7 @@
       <c r="BA23" s="9"/>
       <c r="BB23" s="9"/>
     </row>
-    <row r="24" spans="7:54" s="10" customFormat="1" ht="12">
+    <row r="24" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="M24" s="11"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
@@ -6845,7 +6801,7 @@
       <c r="BA24" s="9"/>
       <c r="BB24" s="9"/>
     </row>
-    <row r="25" spans="7:54" s="10" customFormat="1" ht="12">
+    <row r="25" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
@@ -6883,7 +6839,7 @@
       <c r="BA25" s="9"/>
       <c r="BB25" s="9"/>
     </row>
-    <row r="26" spans="7:54" s="10" customFormat="1" ht="12">
+    <row r="26" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="G26" s="9"/>
       <c r="I26" s="9"/>
       <c r="K26" s="9"/>
@@ -6924,7 +6880,7 @@
       <c r="BA26" s="9"/>
       <c r="BB26" s="9"/>
     </row>
-    <row r="27" spans="7:54" s="10" customFormat="1" ht="12">
+    <row r="27" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="G27" s="9"/>
       <c r="I27" s="9"/>
       <c r="K27" s="9"/>
@@ -6966,7 +6922,7 @@
       <c r="BA27" s="9"/>
       <c r="BB27" s="9"/>
     </row>
-    <row r="28" spans="7:54" s="10" customFormat="1" ht="12">
+    <row r="28" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="G28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -7009,7 +6965,7 @@
       <c r="BA28" s="9"/>
       <c r="BB28" s="9"/>
     </row>
-    <row r="29" spans="7:54" s="10" customFormat="1" ht="12">
+    <row r="29" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="G29" s="9"/>
       <c r="M29" s="9"/>
       <c r="O29" s="9"/>
@@ -7047,7 +7003,7 @@
       <c r="BA29" s="9"/>
       <c r="BB29" s="9"/>
     </row>
-    <row r="30" spans="7:54" s="10" customFormat="1" ht="12">
+    <row r="30" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="G30" s="9"/>
       <c r="J30" s="9"/>
       <c r="M30" s="9"/>
@@ -7090,7 +7046,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="7:54" s="10" customFormat="1" ht="12">
+    <row r="31" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="J31" s="9"/>
@@ -7132,7 +7088,7 @@
       <c r="BA31" s="9"/>
       <c r="BB31" s="9"/>
     </row>
-    <row r="32" spans="7:54" s="10" customFormat="1" ht="12">
+    <row r="32" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="L32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
@@ -7158,7 +7114,7 @@
       <c r="BA32" s="9"/>
       <c r="BB32" s="9"/>
     </row>
-    <row r="33" spans="1:66" s="10" customFormat="1" ht="12">
+    <row r="33" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="L33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
@@ -7179,7 +7135,7 @@
       <c r="BA33" s="9"/>
       <c r="BB33" s="9"/>
     </row>
-    <row r="34" spans="1:66" s="10" customFormat="1" ht="12">
+    <row r="34" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="L34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
@@ -7200,7 +7156,7 @@
       <c r="BA34" s="9"/>
       <c r="BB34" s="9"/>
     </row>
-    <row r="35" spans="1:66" s="10" customFormat="1" ht="12">
+    <row r="35" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="L35" s="9"/>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
@@ -7221,7 +7177,7 @@
       <c r="BA35" s="9"/>
       <c r="BB35" s="9"/>
     </row>
-    <row r="36" spans="1:66" s="10" customFormat="1" ht="12">
+    <row r="36" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="L36" s="9" t="s">
         <v>110</v>
       </c>
@@ -7247,7 +7203,7 @@
       <c r="BA36" s="9"/>
       <c r="BB36" s="9"/>
     </row>
-    <row r="37" spans="1:66" s="10" customFormat="1" ht="12">
+    <row r="37" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="L37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
@@ -7268,7 +7224,7 @@
       <c r="BA37" s="9"/>
       <c r="BB37" s="9"/>
     </row>
-    <row r="38" spans="1:66" s="10" customFormat="1" ht="12">
+    <row r="38" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="L38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
@@ -7289,7 +7245,7 @@
       <c r="BA38" s="9"/>
       <c r="BB38" s="9"/>
     </row>
-    <row r="39" spans="1:66" ht="15" customHeight="1">
+    <row r="39" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="31" t="s">
         <v>89</v>
       </c>
@@ -7357,7 +7313,7 @@
       <c r="BK39" s="32"/>
       <c r="BL39" s="32"/>
     </row>
-    <row r="40" spans="1:66">
+    <row r="40" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -7423,12 +7379,12 @@
       <c r="BK40" s="32"/>
       <c r="BL40" s="32"/>
     </row>
-    <row r="41" spans="1:66">
+    <row r="41" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A41" s="28"/>
-      <c r="B41" s="137" t="s">
+      <c r="B41" s="129" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="138"/>
+      <c r="C41" s="130"/>
       <c r="D41" s="88" t="s">
         <v>79</v>
       </c>
@@ -7509,12 +7465,12 @@
       <c r="BM41" s="32"/>
       <c r="BN41" s="32"/>
     </row>
-    <row r="42" spans="1:66">
+    <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
-      <c r="B42" s="139">
+      <c r="B42" s="131">
         <v>1</v>
       </c>
-      <c r="C42" s="140"/>
+      <c r="C42" s="132"/>
       <c r="D42" s="93" t="s">
         <v>94</v>
       </c>
@@ -7546,16 +7502,16 @@
       <c r="AB42" s="86"/>
       <c r="AC42" s="86"/>
       <c r="AD42" s="87"/>
-      <c r="AE42" s="132" t="s">
+      <c r="AE42" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="AF42" s="133"/>
-      <c r="AG42" s="132"/>
-      <c r="AH42" s="133"/>
-      <c r="AI42" s="132"/>
-      <c r="AJ42" s="133"/>
-      <c r="AK42" s="132"/>
-      <c r="AL42" s="133"/>
+      <c r="AF42" s="134"/>
+      <c r="AG42" s="133"/>
+      <c r="AH42" s="134"/>
+      <c r="AI42" s="133"/>
+      <c r="AJ42" s="134"/>
+      <c r="AK42" s="133"/>
+      <c r="AL42" s="134"/>
       <c r="AM42" s="83" t="s">
         <v>109</v>
       </c>
@@ -7587,12 +7543,12 @@
       <c r="BM42" s="32"/>
       <c r="BN42" s="32"/>
     </row>
-    <row r="43" spans="1:66">
+    <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="139">
+      <c r="B43" s="131">
         <v>2</v>
       </c>
-      <c r="C43" s="140"/>
+      <c r="C43" s="132"/>
       <c r="D43" s="82" t="s">
         <v>107</v>
       </c>
@@ -7624,16 +7580,16 @@
       <c r="AB43" s="86"/>
       <c r="AC43" s="86"/>
       <c r="AD43" s="87"/>
-      <c r="AE43" s="132" t="s">
+      <c r="AE43" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="AF43" s="133"/>
-      <c r="AG43" s="132"/>
-      <c r="AH43" s="133"/>
-      <c r="AI43" s="132"/>
-      <c r="AJ43" s="133"/>
-      <c r="AK43" s="132"/>
-      <c r="AL43" s="133"/>
+      <c r="AF43" s="134"/>
+      <c r="AG43" s="133"/>
+      <c r="AH43" s="134"/>
+      <c r="AI43" s="133"/>
+      <c r="AJ43" s="134"/>
+      <c r="AK43" s="133"/>
+      <c r="AL43" s="134"/>
       <c r="AM43" s="83" t="s">
         <v>108</v>
       </c>
@@ -7665,18 +7621,13 @@
       <c r="BM43" s="32"/>
       <c r="BN43" s="32"/>
     </row>
-    <row r="44" spans="1:66">
+    <row r="44" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AE43:AF43"/>
     <mergeCell ref="AZ1:BG1"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK43:AL43"/>
@@ -7687,11 +7638,16 @@
     <mergeCell ref="AI43:AJ43"/>
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AE43:AF43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
@@ -7710,15 +7666,15 @@
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A1:XFD4"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="1.6640625" style="53"/>
+    <col min="1" max="16384" width="1.625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" s="52" customFormat="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:113" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -7810,7 +7766,7 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="134">
+      <c r="CD1" s="138">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
@@ -7832,7 +7788,7 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="129" t="str">
+      <c r="CU1" s="135" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -7850,7 +7806,7 @@
       <c r="DG1" s="141"/>
       <c r="DH1" s="142"/>
     </row>
-    <row r="2" spans="1:113" s="52" customFormat="1" ht="16.5" customHeight="1">
+    <row r="2" spans="1:113" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -7963,7 +7919,7 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="129"/>
+      <c r="CU2" s="135"/>
       <c r="CV2" s="141"/>
       <c r="CW2" s="141"/>
       <c r="CX2" s="141"/>
@@ -7978,7 +7934,7 @@
       <c r="DG2" s="141"/>
       <c r="DH2" s="142"/>
     </row>
-    <row r="3" spans="1:113">
+    <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="54"/>
       <c r="AV3" s="54"/>
       <c r="AW3" s="54"/>
@@ -8024,13 +7980,13 @@
       <c r="DH3" s="54"/>
       <c r="DI3" s="54"/>
     </row>
-    <row r="4" spans="1:113" s="32" customFormat="1" ht="22.8">
+    <row r="4" spans="1:113" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A4" s="29" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="27"/>
     </row>
-    <row r="5" spans="1:113" ht="16.2">
+    <row r="5" spans="1:113" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B5" s="31"/>
     </row>
   </sheetData>
@@ -8066,28 +8022,28 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="2.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="3.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="4.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.88671875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="18.88671875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="18.109375" style="6" customWidth="1"/>
+    <col min="1" max="2" width="2.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="3.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="34.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="4.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="18.875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="18.125" style="6" customWidth="1"/>
     <col min="14" max="14" width="24" style="5" customWidth="1"/>
-    <col min="15" max="15" width="29.44140625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="38.44140625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="40.88671875" style="6" customWidth="1"/>
-    <col min="18" max="18" width="2.21875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="29.5" style="5" customWidth="1"/>
+    <col min="16" max="16" width="38.5" style="5" customWidth="1"/>
+    <col min="17" max="17" width="40.875" style="6" customWidth="1"/>
+    <col min="18" max="18" width="2.25" style="5" customWidth="1"/>
     <col min="19" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="23.25" customHeight="1">
+    <row r="1" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -8125,7 +8081,7 @@
       <c r="Q1" s="23"/>
       <c r="R1" s="23"/>
     </row>
-    <row r="2" spans="1:18" ht="23.25" customHeight="1">
+    <row r="2" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -8159,57 +8115,57 @@
       <c r="Q2" s="23"/>
       <c r="R2" s="23"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:18" s="32" customFormat="1" ht="22.8">
+    <row r="4" spans="1:18" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A4" s="29" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
     </row>
-    <row r="5" spans="1:18" ht="18.600000000000001">
+    <row r="5" spans="1:18" ht="19.5" x14ac:dyDescent="0.15">
       <c r="A5" s="29"/>
       <c r="B5" s="31" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="18.75" customHeight="1">
+    <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="121" t="s">
+      <c r="D6" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="121" t="s">
+      <c r="E6" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="121" t="s">
+      <c r="F6" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="121" t="s">
+      <c r="G6" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="121" t="s">
+      <c r="H6" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="149" t="s">
+      <c r="I6" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="149" t="s">
+      <c r="J6" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="121" t="s">
+      <c r="K6" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="121" t="s">
+      <c r="L6" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="121" t="s">
+      <c r="M6" s="106" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -8217,24 +8173,24 @@
       </c>
       <c r="O6" s="68"/>
       <c r="P6" s="68"/>
-      <c r="Q6" s="149" t="s">
+      <c r="Q6" s="147" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="149"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -8244,9 +8200,9 @@
       <c r="P7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="149"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="Q7" s="147"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="7">
@@ -8293,50 +8249,50 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
     </row>
-    <row r="10" spans="1:18" ht="18.600000000000001">
+    <row r="10" spans="1:18" ht="19.5" x14ac:dyDescent="0.15">
       <c r="A10" s="29"/>
       <c r="B10" s="31" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="18.75" customHeight="1">
+    <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="121" t="s">
+      <c r="C11" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="121" t="s">
+      <c r="E11" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="121" t="s">
+      <c r="F11" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="121" t="s">
+      <c r="G11" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="121" t="s">
+      <c r="H11" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="147" t="s">
+      <c r="I11" s="148" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="149" t="s">
+      <c r="J11" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="121" t="s">
+      <c r="K11" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="121" t="s">
+      <c r="L11" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="121" t="s">
+      <c r="M11" s="106" t="s">
         <v>32</v>
       </c>
       <c r="N11" s="68" t="s">
@@ -8344,24 +8300,24 @@
       </c>
       <c r="O11" s="68"/>
       <c r="P11" s="68"/>
-      <c r="Q11" s="147" t="s">
+      <c r="Q11" s="148" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15">
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="106"/>
       <c r="N12" s="42" t="s">
         <v>64</v>
       </c>
@@ -8371,9 +8327,9 @@
       <c r="P12" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="148"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="Q12" s="149"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="7">
@@ -8422,7 +8378,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="7">
@@ -8471,61 +8427,61 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C15" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
     </row>
-    <row r="17" spans="1:17" ht="16.2">
+    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="16.2">
+    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="31" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="18.75" customHeight="1">
+    <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="60"/>
-      <c r="C19" s="121" t="s">
+      <c r="C19" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="121" t="s">
+      <c r="E19" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="121" t="s">
+      <c r="F19" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="121" t="s">
+      <c r="G19" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="121" t="s">
+      <c r="H19" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="149" t="s">
+      <c r="I19" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="149" t="s">
+      <c r="J19" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="121" t="s">
+      <c r="K19" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="121" t="s">
+      <c r="L19" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="121" t="s">
+      <c r="M19" s="106" t="s">
         <v>32</v>
       </c>
       <c r="N19" s="68" t="s">
@@ -8533,24 +8489,24 @@
       </c>
       <c r="O19" s="68"/>
       <c r="P19" s="68"/>
-      <c r="Q19" s="149" t="s">
+      <c r="Q19" s="147" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="16.2">
+    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="60"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="149"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="121"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="106"/>
       <c r="N20" s="42" t="s">
         <v>64</v>
       </c>
@@ -8560,9 +8516,9 @@
       <c r="P20" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q20" s="149"/>
-    </row>
-    <row r="21" spans="1:17" s="49" customFormat="1" ht="16.2">
+      <c r="Q20" s="147"/>
+    </row>
+    <row r="21" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="55"/>
       <c r="B21" s="61"/>
       <c r="C21" s="44" t="s">
@@ -8583,7 +8539,7 @@
       <c r="P21" s="46"/>
       <c r="Q21" s="48"/>
     </row>
-    <row r="22" spans="1:17" ht="16.2">
+    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="60"/>
       <c r="C22" s="7">
@@ -8632,7 +8588,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="16.2">
+    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="60"/>
       <c r="C23" s="7">
@@ -8681,7 +8637,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="16.2">
+    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="60"/>
       <c r="C24" s="7">
@@ -8730,7 +8686,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="16.2">
+    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="60"/>
       <c r="C25" s="7">
@@ -8779,11 +8735,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="16.2">
+    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="60"/>
     </row>
-    <row r="27" spans="1:17" ht="16.2">
+    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="60"/>
       <c r="C27" s="81"/>
@@ -8791,11 +8747,11 @@
       <c r="E27" s="81"/>
       <c r="F27" s="81"/>
     </row>
-    <row r="28" spans="1:17" ht="16.2">
+    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="60"/>
     </row>
-    <row r="29" spans="1:17" s="50" customFormat="1" ht="16.2">
+    <row r="29" spans="1:17" s="50" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B29" s="62"/>
       <c r="C29" s="81"/>
       <c r="D29" s="81"/>
@@ -8806,26 +8762,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="I19:I20"/>
@@ -8842,6 +8778,26 @@
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="M19:M20"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -8868,12 +8824,12 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.109375" style="49"/>
+    <col min="1" max="16384" width="4.125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -8918,7 +8874,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="134">
+      <c r="AI1" s="138">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
@@ -8934,7 +8890,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="129" t="str">
+      <c r="AT1" s="135" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -8945,7 +8901,7 @@
       <c r="AY1" s="141"/>
       <c r="AZ1" s="142"/>
     </row>
-    <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1">
+    <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -9005,7 +8961,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="129"/>
+      <c r="AT2" s="135"/>
       <c r="AU2" s="141"/>
       <c r="AV2" s="141"/>
       <c r="AW2" s="141"/>
@@ -9013,7 +8969,7 @@
       <c r="AY2" s="141"/>
       <c r="AZ2" s="142"/>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -9067,7 +9023,7 @@
       <c r="AY3" s="59"/>
       <c r="AZ3" s="59"/>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A4" s="55"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -9121,16 +9077,16 @@
       <c r="AY4" s="55"/>
       <c r="AZ4" s="55"/>
     </row>
-    <row r="5" spans="1:52" s="16" customFormat="1" ht="18.600000000000001">
+    <row r="5" spans="1:52" s="16" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:52" s="16" customFormat="1" ht="16.2">
+    <row r="6" spans="1:52" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="63"/>
       <c r="B6" s="31"/>
     </row>
-    <row r="7" spans="1:52" s="16" customFormat="1" ht="15">
+    <row r="7" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B7" s="17" t="s">
         <v>61</v>
       </c>
@@ -9187,7 +9143,7 @@
       <c r="AU7" s="18"/>
       <c r="AV7" s="19"/>
     </row>
-    <row r="8" spans="1:52" s="16" customFormat="1" ht="15">
+    <row r="8" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B8" s="20">
         <v>1</v>
       </c>
@@ -9244,7 +9200,7 @@
       <c r="AU8" s="21"/>
       <c r="AV8" s="22"/>
     </row>
-    <row r="9" spans="1:52" s="16" customFormat="1" ht="15">
+    <row r="9" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B9" s="71"/>
       <c r="C9" s="71"/>
       <c r="D9" s="23"/>
@@ -9295,7 +9251,7 @@
       <c r="AU9" s="23"/>
       <c r="AV9" s="72"/>
     </row>
-    <row r="10" spans="1:52" s="16" customFormat="1" ht="15">
+    <row r="10" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B10" s="71"/>
       <c r="C10" s="71"/>
       <c r="D10" s="23"/>
@@ -9344,7 +9300,7 @@
       <c r="AU10" s="23"/>
       <c r="AV10" s="72"/>
     </row>
-    <row r="11" spans="1:52" s="16" customFormat="1" ht="15">
+    <row r="11" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B11" s="71"/>
       <c r="C11" s="71"/>
       <c r="F11" s="72"/>
@@ -9365,7 +9321,7 @@
       <c r="W11" s="94"/>
       <c r="AV11" s="72"/>
     </row>
-    <row r="12" spans="1:52" s="16" customFormat="1" ht="15">
+    <row r="12" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B12" s="71"/>
       <c r="C12" s="71"/>
       <c r="F12" s="72"/>
@@ -9385,7 +9341,7 @@
       <c r="W12" s="94"/>
       <c r="AV12" s="72"/>
     </row>
-    <row r="13" spans="1:52" s="16" customFormat="1" ht="15">
+    <row r="13" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B13" s="71"/>
       <c r="C13" s="71"/>
       <c r="F13" s="72"/>
@@ -9405,7 +9361,7 @@
       <c r="W13" s="94"/>
       <c r="AV13" s="72"/>
     </row>
-    <row r="14" spans="1:52" s="16" customFormat="1" ht="15">
+    <row r="14" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B14" s="71"/>
       <c r="C14" s="71"/>
       <c r="F14" s="72"/>
@@ -9425,7 +9381,7 @@
       <c r="W14" s="94"/>
       <c r="AV14" s="72"/>
     </row>
-    <row r="15" spans="1:52" s="16" customFormat="1" ht="15">
+    <row r="15" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B15" s="71"/>
       <c r="C15" s="71"/>
       <c r="F15" s="72"/>
@@ -9443,7 +9399,7 @@
       <c r="W15" s="94"/>
       <c r="AV15" s="72"/>
     </row>
-    <row r="16" spans="1:52" s="16" customFormat="1" ht="15">
+    <row r="16" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B16" s="71"/>
       <c r="C16" s="71"/>
       <c r="F16" s="72"/>
@@ -9464,7 +9420,7 @@
       <c r="W16" s="94"/>
       <c r="AV16" s="72"/>
     </row>
-    <row r="17" spans="2:48" s="16" customFormat="1" ht="15">
+    <row r="17" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B17" s="71"/>
       <c r="C17" s="71"/>
       <c r="F17" s="72"/>
@@ -9484,7 +9440,7 @@
       <c r="W17" s="94"/>
       <c r="AV17" s="72"/>
     </row>
-    <row r="18" spans="2:48" s="16" customFormat="1" ht="15">
+    <row r="18" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B18" s="71"/>
       <c r="C18" s="71"/>
       <c r="F18" s="72"/>
@@ -9504,7 +9460,7 @@
       <c r="W18" s="94"/>
       <c r="AV18" s="72"/>
     </row>
-    <row r="19" spans="2:48" s="16" customFormat="1" ht="15">
+    <row r="19" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B19" s="71"/>
       <c r="C19" s="71"/>
       <c r="F19" s="72"/>
@@ -9524,7 +9480,7 @@
       <c r="W19" s="94"/>
       <c r="AV19" s="72"/>
     </row>
-    <row r="20" spans="2:48" s="16" customFormat="1" ht="15">
+    <row r="20" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B20" s="71"/>
       <c r="C20" s="71"/>
       <c r="D20" s="23"/>
@@ -9556,7 +9512,7 @@
       <c r="AU20" s="23"/>
       <c r="AV20" s="72"/>
     </row>
-    <row r="21" spans="2:48" s="16" customFormat="1" ht="15">
+    <row r="21" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B21" s="71"/>
       <c r="C21" s="71"/>
       <c r="D21" s="23"/>
@@ -9607,7 +9563,7 @@
       <c r="AU21" s="23"/>
       <c r="AV21" s="72"/>
     </row>
-    <row r="22" spans="2:48" s="16" customFormat="1" ht="15">
+    <row r="22" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B22" s="71"/>
       <c r="C22" s="71"/>
       <c r="F22" s="72"/>
@@ -9635,7 +9591,7 @@
       <c r="AB22" s="94"/>
       <c r="AV22" s="72"/>
     </row>
-    <row r="23" spans="2:48" s="16" customFormat="1" ht="15">
+    <row r="23" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B23" s="71"/>
       <c r="C23" s="71"/>
       <c r="D23" s="23"/>
@@ -9687,7 +9643,7 @@
       <c r="AU23" s="23"/>
       <c r="AV23" s="72"/>
     </row>
-    <row r="24" spans="2:48" s="16" customFormat="1" ht="15">
+    <row r="24" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B24" s="71"/>
       <c r="C24" s="71"/>
       <c r="D24" s="23"/>
@@ -9739,7 +9695,7 @@
       <c r="AU24" s="23"/>
       <c r="AV24" s="72"/>
     </row>
-    <row r="25" spans="2:48" s="16" customFormat="1" ht="15">
+    <row r="25" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B25" s="71"/>
       <c r="C25" s="71"/>
       <c r="D25" s="23"/>
@@ -9772,7 +9728,7 @@
       <c r="AU25" s="23"/>
       <c r="AV25" s="72"/>
     </row>
-    <row r="26" spans="2:48" s="16" customFormat="1" ht="15">
+    <row r="26" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B26" s="71"/>
       <c r="C26" s="71"/>
       <c r="F26" s="72"/>
@@ -9787,7 +9743,7 @@
       <c r="AP26" s="94"/>
       <c r="AV26" s="72"/>
     </row>
-    <row r="27" spans="2:48" s="16" customFormat="1" ht="15">
+    <row r="27" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B27" s="71"/>
       <c r="C27" s="71"/>
       <c r="F27" s="72"/>
@@ -9802,7 +9758,7 @@
       <c r="AP27" s="94"/>
       <c r="AV27" s="72"/>
     </row>
-    <row r="28" spans="2:48" s="16" customFormat="1" ht="15">
+    <row r="28" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B28" s="71"/>
       <c r="C28" s="71"/>
       <c r="F28" s="72"/>
@@ -9817,7 +9773,7 @@
       <c r="AP28" s="94"/>
       <c r="AV28" s="72"/>
     </row>
-    <row r="29" spans="2:48" s="16" customFormat="1" ht="15">
+    <row r="29" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B29" s="71"/>
       <c r="C29" s="71"/>
       <c r="D29" s="23"/>
@@ -9850,7 +9806,7 @@
       <c r="AU29" s="23"/>
       <c r="AV29" s="72"/>
     </row>
-    <row r="30" spans="2:48" s="16" customFormat="1" ht="15">
+    <row r="30" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B30" s="71"/>
       <c r="C30" s="71"/>
       <c r="D30" s="23"/>
@@ -9885,7 +9841,7 @@
       <c r="AU30" s="23"/>
       <c r="AV30" s="72"/>
     </row>
-    <row r="31" spans="2:48" s="16" customFormat="1" ht="15">
+    <row r="31" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B31" s="71"/>
       <c r="C31" s="71"/>
       <c r="D31" s="23"/>
@@ -9920,7 +9876,7 @@
       <c r="AU31" s="23"/>
       <c r="AV31" s="72"/>
     </row>
-    <row r="32" spans="2:48" s="16" customFormat="1" ht="15">
+    <row r="32" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
       <c r="D32" s="25"/>
@@ -9969,7 +9925,7 @@
       <c r="AU32" s="25"/>
       <c r="AV32" s="26"/>
     </row>
-    <row r="33" spans="1:52" s="16" customFormat="1" ht="15">
+    <row r="33" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B33" s="20">
         <v>2</v>
       </c>
@@ -10026,7 +9982,7 @@
       <c r="AU33" s="21"/>
       <c r="AV33" s="22"/>
     </row>
-    <row r="34" spans="1:52" s="16" customFormat="1" ht="15">
+    <row r="34" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B34" s="71"/>
       <c r="C34" s="71"/>
       <c r="D34" s="23"/>
@@ -10077,7 +10033,7 @@
       <c r="AU34" s="23"/>
       <c r="AV34" s="72"/>
     </row>
-    <row r="35" spans="1:52" s="16" customFormat="1" ht="15">
+    <row r="35" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B35" s="71"/>
       <c r="C35" s="71"/>
       <c r="D35" s="23"/>
@@ -10126,10 +10082,10 @@
       <c r="AU35" s="25"/>
       <c r="AV35" s="26"/>
     </row>
-    <row r="36" spans="1:52" s="16" customFormat="1" ht="15"/>
-    <row r="37" spans="1:52" s="16" customFormat="1" ht="15"/>
-    <row r="38" spans="1:52" s="16" customFormat="1" ht="15"/>
-    <row r="39" spans="1:52">
+    <row r="36" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A39" s="55"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
@@ -10183,7 +10139,7 @@
       <c r="AY39" s="55"/>
       <c r="AZ39" s="55"/>
     </row>
-    <row r="40" spans="1:52">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A40" s="55"/>
       <c r="B40" s="55"/>
       <c r="C40" s="55"/>
@@ -10237,7 +10193,7 @@
       <c r="AY40" s="55"/>
       <c r="AZ40" s="55"/>
     </row>
-    <row r="41" spans="1:52">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A41" s="55"/>
       <c r="B41" s="55"/>
       <c r="C41" s="55"/>
@@ -10291,7 +10247,7 @@
       <c r="AY41" s="55"/>
       <c r="AZ41" s="55"/>
     </row>
-    <row r="42" spans="1:52">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A42" s="55"/>
       <c r="B42" s="55"/>
       <c r="C42" s="55"/>
@@ -10345,7 +10301,7 @@
       <c r="AY42" s="55"/>
       <c r="AZ42" s="55"/>
     </row>
-    <row r="43" spans="1:52">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A43" s="55"/>
       <c r="B43" s="55"/>
       <c r="C43" s="55"/>
@@ -10399,7 +10355,7 @@
       <c r="AY43" s="55"/>
       <c r="AZ43" s="55"/>
     </row>
-    <row r="44" spans="1:52">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A44" s="55"/>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
@@ -10453,7 +10409,7 @@
       <c r="AY44" s="55"/>
       <c r="AZ44" s="55"/>
     </row>
-    <row r="45" spans="1:52">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A45" s="55"/>
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
@@ -10507,7 +10463,7 @@
       <c r="AY45" s="55"/>
       <c r="AZ45" s="55"/>
     </row>
-    <row r="46" spans="1:52">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A46" s="55"/>
       <c r="B46" s="55"/>
       <c r="C46" s="55"/>
@@ -10561,7 +10517,7 @@
       <c r="AY46" s="55"/>
       <c r="AZ46" s="55"/>
     </row>
-    <row r="47" spans="1:52">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A47" s="55"/>
       <c r="B47" s="55"/>
       <c r="C47" s="55"/>
@@ -10615,7 +10571,7 @@
       <c r="AY47" s="55"/>
       <c r="AZ47" s="55"/>
     </row>
-    <row r="48" spans="1:52">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A48" s="55"/>
       <c r="B48" s="55"/>
       <c r="C48" s="55"/>
@@ -10669,7 +10625,7 @@
       <c r="AY48" s="55"/>
       <c r="AZ48" s="55"/>
     </row>
-    <row r="49" spans="1:52">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A49" s="55"/>
       <c r="B49" s="55"/>
       <c r="C49" s="55"/>
@@ -10723,7 +10679,7 @@
       <c r="AY49" s="55"/>
       <c r="AZ49" s="55"/>
     </row>
-    <row r="50" spans="1:52">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A50" s="55"/>
       <c r="B50" s="55"/>
       <c r="C50" s="55"/>
@@ -10777,7 +10733,7 @@
       <c r="AY50" s="55"/>
       <c r="AZ50" s="55"/>
     </row>
-    <row r="51" spans="1:52">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A51" s="55"/>
       <c r="B51" s="55"/>
       <c r="C51" s="55"/>
@@ -10831,7 +10787,7 @@
       <c r="AY51" s="55"/>
       <c r="AZ51" s="55"/>
     </row>
-    <row r="52" spans="1:52">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A52" s="55"/>
       <c r="B52" s="55"/>
       <c r="C52" s="55"/>
@@ -10885,7 +10841,7 @@
       <c r="AY52" s="55"/>
       <c r="AZ52" s="55"/>
     </row>
-    <row r="53" spans="1:52">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A53" s="55"/>
       <c r="B53" s="55"/>
       <c r="C53" s="55"/>
@@ -10939,7 +10895,7 @@
       <c r="AY53" s="55"/>
       <c r="AZ53" s="55"/>
     </row>
-    <row r="54" spans="1:52">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A54" s="55"/>
       <c r="B54" s="55"/>
       <c r="C54" s="55"/>
@@ -10993,7 +10949,7 @@
       <c r="AY54" s="55"/>
       <c r="AZ54" s="55"/>
     </row>
-    <row r="55" spans="1:52">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A55" s="55"/>
       <c r="B55" s="55"/>
       <c r="C55" s="55"/>
@@ -11047,7 +11003,7 @@
       <c r="AY55" s="55"/>
       <c r="AZ55" s="55"/>
     </row>
-    <row r="56" spans="1:52">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A56" s="55"/>
       <c r="B56" s="55"/>
       <c r="C56" s="55"/>
@@ -11101,7 +11057,7 @@
       <c r="AY56" s="55"/>
       <c r="AZ56" s="55"/>
     </row>
-    <row r="57" spans="1:52">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A57" s="55"/>
       <c r="B57" s="55"/>
       <c r="C57" s="55"/>
@@ -11155,7 +11111,7 @@
       <c r="AY57" s="55"/>
       <c r="AZ57" s="55"/>
     </row>
-    <row r="58" spans="1:52">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A58" s="55"/>
       <c r="B58" s="55"/>
       <c r="C58" s="55"/>
@@ -11209,7 +11165,7 @@
       <c r="AY58" s="55"/>
       <c r="AZ58" s="55"/>
     </row>
-    <row r="59" spans="1:52">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A59" s="55"/>
       <c r="B59" s="55"/>
       <c r="C59" s="55"/>
@@ -11263,7 +11219,7 @@
       <c r="AY59" s="55"/>
       <c r="AZ59" s="55"/>
     </row>
-    <row r="60" spans="1:52">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A60" s="55"/>
       <c r="B60" s="55"/>
       <c r="C60" s="55"/>
@@ -11317,7 +11273,7 @@
       <c r="AY60" s="55"/>
       <c r="AZ60" s="55"/>
     </row>
-    <row r="61" spans="1:52">
+    <row r="61" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A61" s="55"/>
       <c r="B61" s="55"/>
       <c r="C61" s="55"/>
@@ -11371,7 +11327,7 @@
       <c r="AY61" s="55"/>
       <c r="AZ61" s="55"/>
     </row>
-    <row r="62" spans="1:52">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A62" s="55"/>
       <c r="B62" s="55"/>
       <c r="C62" s="55"/>
@@ -11425,7 +11381,7 @@
       <c r="AY62" s="55"/>
       <c r="AZ62" s="55"/>
     </row>
-    <row r="63" spans="1:52">
+    <row r="63" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A63" s="55"/>
       <c r="B63" s="55"/>
       <c r="C63" s="55"/>
@@ -11479,7 +11435,7 @@
       <c r="AY63" s="55"/>
       <c r="AZ63" s="55"/>
     </row>
-    <row r="64" spans="1:52">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A64" s="55"/>
       <c r="B64" s="55"/>
       <c r="C64" s="55"/>
@@ -11533,7 +11489,7 @@
       <c r="AY64" s="55"/>
       <c r="AZ64" s="55"/>
     </row>
-    <row r="65" spans="1:52">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A65" s="55"/>
       <c r="B65" s="55"/>
       <c r="C65" s="55"/>
@@ -11587,7 +11543,7 @@
       <c r="AY65" s="55"/>
       <c r="AZ65" s="55"/>
     </row>
-    <row r="66" spans="1:52">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A66" s="55"/>
       <c r="B66" s="55"/>
       <c r="C66" s="55"/>
@@ -11641,7 +11597,7 @@
       <c r="AY66" s="55"/>
       <c r="AZ66" s="55"/>
     </row>
-    <row r="67" spans="1:52">
+    <row r="67" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A67" s="55"/>
       <c r="B67" s="55"/>
       <c r="C67" s="55"/>
@@ -11695,7 +11651,7 @@
       <c r="AY67" s="55"/>
       <c r="AZ67" s="55"/>
     </row>
-    <row r="68" spans="1:52">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A68" s="55"/>
       <c r="B68" s="55"/>
       <c r="C68" s="55"/>
@@ -11749,7 +11705,7 @@
       <c r="AY68" s="55"/>
       <c r="AZ68" s="55"/>
     </row>
-    <row r="69" spans="1:52">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A69" s="55"/>
       <c r="B69" s="55"/>
       <c r="C69" s="55"/>
@@ -11803,7 +11759,7 @@
       <c r="AY69" s="55"/>
       <c r="AZ69" s="55"/>
     </row>
-    <row r="70" spans="1:52">
+    <row r="70" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A70" s="55"/>
       <c r="B70" s="55"/>
       <c r="C70" s="55"/>
@@ -11857,7 +11813,7 @@
       <c r="AY70" s="55"/>
       <c r="AZ70" s="55"/>
     </row>
-    <row r="71" spans="1:52">
+    <row r="71" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A71" s="55"/>
       <c r="B71" s="55"/>
       <c r="C71" s="55"/>
@@ -11911,7 +11867,7 @@
       <c r="AY71" s="55"/>
       <c r="AZ71" s="55"/>
     </row>
-    <row r="72" spans="1:52">
+    <row r="72" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A72" s="55"/>
       <c r="B72" s="55"/>
       <c r="C72" s="55"/>
@@ -11965,7 +11921,7 @@
       <c r="AY72" s="55"/>
       <c r="AZ72" s="55"/>
     </row>
-    <row r="73" spans="1:52">
+    <row r="73" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A73" s="55"/>
       <c r="B73" s="55"/>
       <c r="C73" s="55"/>
@@ -12019,7 +11975,7 @@
       <c r="AY73" s="55"/>
       <c r="AZ73" s="55"/>
     </row>
-    <row r="74" spans="1:52">
+    <row r="74" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A74" s="55"/>
       <c r="B74" s="55"/>
       <c r="C74" s="55"/>
@@ -12073,7 +12029,7 @@
       <c r="AY74" s="55"/>
       <c r="AZ74" s="55"/>
     </row>
-    <row r="75" spans="1:52">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A75" s="55"/>
       <c r="B75" s="55"/>
       <c r="C75" s="55"/>
@@ -12127,7 +12083,7 @@
       <c r="AY75" s="55"/>
       <c r="AZ75" s="55"/>
     </row>
-    <row r="76" spans="1:52">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A76" s="55"/>
       <c r="B76" s="55"/>
       <c r="C76" s="55"/>
@@ -12181,7 +12137,7 @@
       <c r="AY76" s="55"/>
       <c r="AZ76" s="55"/>
     </row>
-    <row r="77" spans="1:52">
+    <row r="77" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A77" s="55"/>
       <c r="B77" s="55"/>
       <c r="C77" s="55"/>
@@ -12235,7 +12191,7 @@
       <c r="AY77" s="55"/>
       <c r="AZ77" s="55"/>
     </row>
-    <row r="78" spans="1:52">
+    <row r="78" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A78" s="55"/>
       <c r="B78" s="55"/>
       <c r="C78" s="55"/>
@@ -12289,7 +12245,7 @@
       <c r="AY78" s="55"/>
       <c r="AZ78" s="55"/>
     </row>
-    <row r="79" spans="1:52">
+    <row r="79" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A79" s="55"/>
       <c r="B79" s="55"/>
       <c r="C79" s="55"/>
@@ -12343,7 +12299,7 @@
       <c r="AY79" s="55"/>
       <c r="AZ79" s="55"/>
     </row>
-    <row r="80" spans="1:52">
+    <row r="80" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A80" s="55"/>
       <c r="B80" s="55"/>
       <c r="C80" s="55"/>
@@ -12397,7 +12353,7 @@
       <c r="AY80" s="55"/>
       <c r="AZ80" s="55"/>
     </row>
-    <row r="81" spans="1:52">
+    <row r="81" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A81" s="55"/>
       <c r="B81" s="55"/>
       <c r="C81" s="55"/>
@@ -12451,7 +12407,7 @@
       <c r="AY81" s="55"/>
       <c r="AZ81" s="55"/>
     </row>
-    <row r="82" spans="1:52">
+    <row r="82" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A82" s="55"/>
       <c r="B82" s="55"/>
       <c r="C82" s="55"/>
@@ -12505,7 +12461,7 @@
       <c r="AY82" s="55"/>
       <c r="AZ82" s="55"/>
     </row>
-    <row r="83" spans="1:52">
+    <row r="83" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A83" s="55"/>
       <c r="B83" s="55"/>
       <c r="C83" s="55"/>
@@ -12559,7 +12515,7 @@
       <c r="AY83" s="55"/>
       <c r="AZ83" s="55"/>
     </row>
-    <row r="84" spans="1:52">
+    <row r="84" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A84" s="55"/>
       <c r="B84" s="55"/>
       <c r="C84" s="55"/>
@@ -12613,7 +12569,7 @@
       <c r="AY84" s="55"/>
       <c r="AZ84" s="55"/>
     </row>
-    <row r="85" spans="1:52">
+    <row r="85" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A85" s="55"/>
       <c r="B85" s="55"/>
       <c r="C85" s="55"/>
@@ -12667,7 +12623,7 @@
       <c r="AY85" s="55"/>
       <c r="AZ85" s="55"/>
     </row>
-    <row r="86" spans="1:52">
+    <row r="86" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A86" s="55"/>
       <c r="B86" s="55"/>
       <c r="C86" s="55"/>
@@ -12721,7 +12677,7 @@
       <c r="AY86" s="55"/>
       <c r="AZ86" s="55"/>
     </row>
-    <row r="87" spans="1:52">
+    <row r="87" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A87" s="55"/>
       <c r="B87" s="55"/>
       <c r="C87" s="55"/>
@@ -12775,7 +12731,7 @@
       <c r="AY87" s="55"/>
       <c r="AZ87" s="55"/>
     </row>
-    <row r="88" spans="1:52">
+    <row r="88" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A88" s="55"/>
       <c r="B88" s="55"/>
       <c r="C88" s="55"/>
@@ -12829,7 +12785,7 @@
       <c r="AY88" s="55"/>
       <c r="AZ88" s="55"/>
     </row>
-    <row r="89" spans="1:52">
+    <row r="89" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A89" s="55"/>
       <c r="B89" s="55"/>
       <c r="C89" s="55"/>
@@ -12883,7 +12839,7 @@
       <c r="AY89" s="55"/>
       <c r="AZ89" s="55"/>
     </row>
-    <row r="90" spans="1:52">
+    <row r="90" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A90" s="55"/>
       <c r="B90" s="55"/>
       <c r="C90" s="55"/>
@@ -12937,7 +12893,7 @@
       <c r="AY90" s="55"/>
       <c r="AZ90" s="55"/>
     </row>
-    <row r="91" spans="1:52">
+    <row r="91" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A91" s="55"/>
       <c r="B91" s="55"/>
       <c r="C91" s="55"/>
@@ -12991,7 +12947,7 @@
       <c r="AY91" s="55"/>
       <c r="AZ91" s="55"/>
     </row>
-    <row r="92" spans="1:52">
+    <row r="92" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A92" s="55"/>
       <c r="B92" s="55"/>
       <c r="C92" s="55"/>
@@ -13045,7 +13001,7 @@
       <c r="AY92" s="55"/>
       <c r="AZ92" s="55"/>
     </row>
-    <row r="93" spans="1:52">
+    <row r="93" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A93" s="55"/>
       <c r="B93" s="55"/>
       <c r="C93" s="55"/>
@@ -13099,7 +13055,7 @@
       <c r="AY93" s="55"/>
       <c r="AZ93" s="55"/>
     </row>
-    <row r="94" spans="1:52">
+    <row r="94" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A94" s="55"/>
       <c r="B94" s="55"/>
       <c r="C94" s="55"/>
@@ -13153,7 +13109,7 @@
       <c r="AY94" s="55"/>
       <c r="AZ94" s="55"/>
     </row>
-    <row r="95" spans="1:52">
+    <row r="95" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A95" s="55"/>
       <c r="B95" s="55"/>
       <c r="C95" s="55"/>
@@ -13207,7 +13163,7 @@
       <c r="AY95" s="55"/>
       <c r="AZ95" s="55"/>
     </row>
-    <row r="96" spans="1:52">
+    <row r="96" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A96" s="55"/>
       <c r="B96" s="55"/>
       <c r="C96" s="55"/>
@@ -13261,7 +13217,7 @@
       <c r="AY96" s="55"/>
       <c r="AZ96" s="55"/>
     </row>
-    <row r="97" spans="1:52">
+    <row r="97" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A97" s="55"/>
       <c r="B97" s="55"/>
       <c r="C97" s="55"/>
@@ -13315,7 +13271,7 @@
       <c r="AY97" s="55"/>
       <c r="AZ97" s="55"/>
     </row>
-    <row r="98" spans="1:52">
+    <row r="98" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A98" s="55"/>
       <c r="B98" s="55"/>
       <c r="C98" s="55"/>
@@ -13369,7 +13325,7 @@
       <c r="AY98" s="55"/>
       <c r="AZ98" s="55"/>
     </row>
-    <row r="99" spans="1:52">
+    <row r="99" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A99" s="55"/>
       <c r="B99" s="55"/>
       <c r="C99" s="55"/>
@@ -13423,7 +13379,7 @@
       <c r="AY99" s="55"/>
       <c r="AZ99" s="55"/>
     </row>
-    <row r="100" spans="1:52">
+    <row r="100" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A100" s="55"/>
       <c r="B100" s="55"/>
       <c r="C100" s="55"/>
@@ -13477,7 +13433,7 @@
       <c r="AY100" s="55"/>
       <c r="AZ100" s="55"/>
     </row>
-    <row r="101" spans="1:52">
+    <row r="101" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A101" s="55"/>
       <c r="B101" s="55"/>
       <c r="C101" s="55"/>
@@ -13531,7 +13487,7 @@
       <c r="AY101" s="55"/>
       <c r="AZ101" s="55"/>
     </row>
-    <row r="102" spans="1:52">
+    <row r="102" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A102" s="55"/>
       <c r="B102" s="55"/>
       <c r="C102" s="55"/>
@@ -13585,7 +13541,7 @@
       <c r="AY102" s="55"/>
       <c r="AZ102" s="55"/>
     </row>
-    <row r="103" spans="1:52">
+    <row r="103" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A103" s="55"/>
       <c r="B103" s="55"/>
       <c r="C103" s="55"/>
@@ -13639,7 +13595,7 @@
       <c r="AY103" s="55"/>
       <c r="AZ103" s="55"/>
     </row>
-    <row r="104" spans="1:52">
+    <row r="104" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A104" s="55"/>
       <c r="B104" s="55"/>
       <c r="C104" s="55"/>
@@ -13693,7 +13649,7 @@
       <c r="AY104" s="55"/>
       <c r="AZ104" s="55"/>
     </row>
-    <row r="105" spans="1:52">
+    <row r="105" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A105" s="55"/>
       <c r="B105" s="55"/>
       <c r="C105" s="55"/>
@@ -13747,7 +13703,7 @@
       <c r="AY105" s="55"/>
       <c r="AZ105" s="55"/>
     </row>
-    <row r="106" spans="1:52">
+    <row r="106" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A106" s="55"/>
       <c r="B106" s="55"/>
       <c r="C106" s="55"/>
@@ -13801,7 +13757,7 @@
       <c r="AY106" s="55"/>
       <c r="AZ106" s="55"/>
     </row>
-    <row r="107" spans="1:52">
+    <row r="107" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A107" s="55"/>
       <c r="B107" s="55"/>
       <c r="C107" s="55"/>
@@ -13855,7 +13811,7 @@
       <c r="AY107" s="55"/>
       <c r="AZ107" s="55"/>
     </row>
-    <row r="108" spans="1:52">
+    <row r="108" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A108" s="55"/>
       <c r="B108" s="55"/>
       <c r="C108" s="55"/>
@@ -13909,7 +13865,7 @@
       <c r="AY108" s="55"/>
       <c r="AZ108" s="55"/>
     </row>
-    <row r="109" spans="1:52">
+    <row r="109" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A109" s="55"/>
       <c r="B109" s="55"/>
       <c r="C109" s="55"/>
@@ -13963,7 +13919,7 @@
       <c r="AY109" s="55"/>
       <c r="AZ109" s="55"/>
     </row>
-    <row r="110" spans="1:52">
+    <row r="110" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A110" s="55"/>
       <c r="B110" s="55"/>
       <c r="C110" s="55"/>
@@ -14017,7 +13973,7 @@
       <c r="AY110" s="55"/>
       <c r="AZ110" s="55"/>
     </row>
-    <row r="111" spans="1:52">
+    <row r="111" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A111" s="55"/>
       <c r="B111" s="55"/>
       <c r="C111" s="55"/>
@@ -14071,7 +14027,7 @@
       <c r="AY111" s="55"/>
       <c r="AZ111" s="55"/>
     </row>
-    <row r="112" spans="1:52">
+    <row r="112" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A112" s="55"/>
       <c r="B112" s="55"/>
       <c r="C112" s="55"/>
@@ -14125,7 +14081,7 @@
       <c r="AY112" s="55"/>
       <c r="AZ112" s="55"/>
     </row>
-    <row r="113" spans="1:52">
+    <row r="113" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A113" s="55"/>
       <c r="B113" s="55"/>
       <c r="C113" s="55"/>
@@ -14179,7 +14135,7 @@
       <c r="AY113" s="55"/>
       <c r="AZ113" s="55"/>
     </row>
-    <row r="114" spans="1:52">
+    <row r="114" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A114" s="55"/>
       <c r="B114" s="55"/>
       <c r="C114" s="55"/>
@@ -14233,7 +14189,7 @@
       <c r="AY114" s="55"/>
       <c r="AZ114" s="55"/>
     </row>
-    <row r="115" spans="1:52">
+    <row r="115" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A115" s="55"/>
       <c r="B115" s="55"/>
       <c r="C115" s="55"/>
@@ -14287,7 +14243,7 @@
       <c r="AY115" s="55"/>
       <c r="AZ115" s="55"/>
     </row>
-    <row r="116" spans="1:52">
+    <row r="116" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A116" s="55"/>
       <c r="B116" s="55"/>
       <c r="C116" s="55"/>
@@ -14341,7 +14297,7 @@
       <c r="AY116" s="55"/>
       <c r="AZ116" s="55"/>
     </row>
-    <row r="117" spans="1:52">
+    <row r="117" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A117" s="55"/>
       <c r="B117" s="55"/>
       <c r="C117" s="55"/>
@@ -14395,7 +14351,7 @@
       <c r="AY117" s="55"/>
       <c r="AZ117" s="55"/>
     </row>
-    <row r="118" spans="1:52">
+    <row r="118" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A118" s="55"/>
       <c r="B118" s="55"/>
       <c r="C118" s="55"/>
@@ -14449,7 +14405,7 @@
       <c r="AY118" s="55"/>
       <c r="AZ118" s="55"/>
     </row>
-    <row r="119" spans="1:52">
+    <row r="119" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A119" s="55"/>
       <c r="B119" s="55"/>
       <c r="C119" s="55"/>
@@ -14503,7 +14459,7 @@
       <c r="AY119" s="55"/>
       <c r="AZ119" s="55"/>
     </row>
-    <row r="120" spans="1:52">
+    <row r="120" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A120" s="55"/>
       <c r="B120" s="55"/>
       <c r="C120" s="55"/>
@@ -14557,7 +14513,7 @@
       <c r="AY120" s="55"/>
       <c r="AZ120" s="55"/>
     </row>
-    <row r="121" spans="1:52">
+    <row r="121" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A121" s="55"/>
       <c r="B121" s="55"/>
       <c r="C121" s="55"/>
@@ -14611,7 +14567,7 @@
       <c r="AY121" s="55"/>
       <c r="AZ121" s="55"/>
     </row>
-    <row r="122" spans="1:52">
+    <row r="122" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A122" s="55"/>
       <c r="B122" s="55"/>
       <c r="C122" s="55"/>
@@ -14665,7 +14621,7 @@
       <c r="AY122" s="55"/>
       <c r="AZ122" s="55"/>
     </row>
-    <row r="123" spans="1:52">
+    <row r="123" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A123" s="55"/>
       <c r="B123" s="55"/>
       <c r="C123" s="55"/>
@@ -14719,7 +14675,7 @@
       <c r="AY123" s="55"/>
       <c r="AZ123" s="55"/>
     </row>
-    <row r="124" spans="1:52">
+    <row r="124" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A124" s="55"/>
       <c r="B124" s="55"/>
       <c r="C124" s="55"/>
@@ -14773,7 +14729,7 @@
       <c r="AY124" s="55"/>
       <c r="AZ124" s="55"/>
     </row>
-    <row r="125" spans="1:52">
+    <row r="125" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A125" s="55"/>
       <c r="B125" s="55"/>
       <c r="C125" s="55"/>
@@ -14827,7 +14783,7 @@
       <c r="AY125" s="55"/>
       <c r="AZ125" s="55"/>
     </row>
-    <row r="126" spans="1:52">
+    <row r="126" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A126" s="55"/>
       <c r="B126" s="55"/>
       <c r="C126" s="55"/>
@@ -14881,7 +14837,7 @@
       <c r="AY126" s="55"/>
       <c r="AZ126" s="55"/>
     </row>
-    <row r="127" spans="1:52">
+    <row r="127" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A127" s="55"/>
       <c r="B127" s="55"/>
       <c r="C127" s="55"/>
@@ -14935,7 +14891,7 @@
       <c r="AY127" s="55"/>
       <c r="AZ127" s="55"/>
     </row>
-    <row r="128" spans="1:52">
+    <row r="128" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A128" s="55"/>
       <c r="B128" s="55"/>
       <c r="C128" s="55"/>
@@ -14989,7 +14945,7 @@
       <c r="AY128" s="55"/>
       <c r="AZ128" s="55"/>
     </row>
-    <row r="129" spans="1:52">
+    <row r="129" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A129" s="55"/>
       <c r="B129" s="55"/>
       <c r="C129" s="55"/>
@@ -15043,7 +14999,7 @@
       <c r="AY129" s="55"/>
       <c r="AZ129" s="55"/>
     </row>
-    <row r="130" spans="1:52">
+    <row r="130" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A130" s="55"/>
       <c r="B130" s="55"/>
       <c r="C130" s="55"/>
@@ -15097,7 +15053,7 @@
       <c r="AY130" s="55"/>
       <c r="AZ130" s="55"/>
     </row>
-    <row r="131" spans="1:52">
+    <row r="131" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A131" s="55"/>
       <c r="B131" s="55"/>
       <c r="C131" s="55"/>
@@ -15151,7 +15107,7 @@
       <c r="AY131" s="55"/>
       <c r="AZ131" s="55"/>
     </row>
-    <row r="132" spans="1:52">
+    <row r="132" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A132" s="55"/>
       <c r="B132" s="55"/>
       <c r="C132" s="55"/>
@@ -15205,7 +15161,7 @@
       <c r="AY132" s="55"/>
       <c r="AZ132" s="55"/>
     </row>
-    <row r="133" spans="1:52">
+    <row r="133" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A133" s="55"/>
       <c r="B133" s="55"/>
       <c r="C133" s="55"/>
@@ -15259,7 +15215,7 @@
       <c r="AY133" s="55"/>
       <c r="AZ133" s="55"/>
     </row>
-    <row r="134" spans="1:52">
+    <row r="134" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A134" s="55"/>
       <c r="B134" s="55"/>
       <c r="C134" s="55"/>
@@ -15313,7 +15269,7 @@
       <c r="AY134" s="55"/>
       <c r="AZ134" s="55"/>
     </row>
-    <row r="135" spans="1:52">
+    <row r="135" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A135" s="55"/>
       <c r="B135" s="55"/>
       <c r="C135" s="55"/>
@@ -15367,7 +15323,7 @@
       <c r="AY135" s="55"/>
       <c r="AZ135" s="55"/>
     </row>
-    <row r="136" spans="1:52">
+    <row r="136" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A136" s="55"/>
       <c r="B136" s="55"/>
       <c r="C136" s="55"/>
@@ -15421,7 +15377,7 @@
       <c r="AY136" s="55"/>
       <c r="AZ136" s="55"/>
     </row>
-    <row r="137" spans="1:52">
+    <row r="137" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A137" s="55"/>
       <c r="B137" s="55"/>
       <c r="C137" s="55"/>
@@ -15475,7 +15431,7 @@
       <c r="AY137" s="55"/>
       <c r="AZ137" s="55"/>
     </row>
-    <row r="138" spans="1:52">
+    <row r="138" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A138" s="55"/>
       <c r="B138" s="55"/>
       <c r="C138" s="55"/>
@@ -15529,7 +15485,7 @@
       <c r="AY138" s="55"/>
       <c r="AZ138" s="55"/>
     </row>
-    <row r="139" spans="1:52">
+    <row r="139" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A139" s="55"/>
       <c r="B139" s="55"/>
       <c r="C139" s="55"/>
@@ -15583,7 +15539,7 @@
       <c r="AY139" s="55"/>
       <c r="AZ139" s="55"/>
     </row>
-    <row r="140" spans="1:52">
+    <row r="140" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A140" s="55"/>
       <c r="B140" s="55"/>
       <c r="C140" s="55"/>
@@ -15637,7 +15593,7 @@
       <c r="AY140" s="55"/>
       <c r="AZ140" s="55"/>
     </row>
-    <row r="141" spans="1:52">
+    <row r="141" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A141" s="55"/>
       <c r="B141" s="55"/>
       <c r="C141" s="55"/>
@@ -15691,7 +15647,7 @@
       <c r="AY141" s="55"/>
       <c r="AZ141" s="55"/>
     </row>
-    <row r="142" spans="1:52">
+    <row r="142" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A142" s="55"/>
       <c r="B142" s="55"/>
       <c r="C142" s="55"/>
@@ -15745,7 +15701,7 @@
       <c r="AY142" s="55"/>
       <c r="AZ142" s="55"/>
     </row>
-    <row r="143" spans="1:52">
+    <row r="143" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A143" s="55"/>
       <c r="B143" s="55"/>
       <c r="C143" s="55"/>
@@ -15799,7 +15755,7 @@
       <c r="AY143" s="55"/>
       <c r="AZ143" s="55"/>
     </row>
-    <row r="144" spans="1:52">
+    <row r="144" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A144" s="55"/>
       <c r="B144" s="55"/>
       <c r="C144" s="55"/>
@@ -15853,7 +15809,7 @@
       <c r="AY144" s="55"/>
       <c r="AZ144" s="55"/>
     </row>
-    <row r="145" spans="1:52">
+    <row r="145" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A145" s="55"/>
       <c r="B145" s="55"/>
       <c r="C145" s="55"/>
@@ -15907,7 +15863,7 @@
       <c r="AY145" s="55"/>
       <c r="AZ145" s="55"/>
     </row>
-    <row r="146" spans="1:52">
+    <row r="146" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A146" s="55"/>
       <c r="B146" s="55"/>
       <c r="C146" s="55"/>
@@ -15961,7 +15917,7 @@
       <c r="AY146" s="55"/>
       <c r="AZ146" s="55"/>
     </row>
-    <row r="147" spans="1:52">
+    <row r="147" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A147" s="55"/>
       <c r="B147" s="55"/>
       <c r="C147" s="55"/>
@@ -16015,7 +15971,7 @@
       <c r="AY147" s="55"/>
       <c r="AZ147" s="55"/>
     </row>
-    <row r="148" spans="1:52">
+    <row r="148" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A148" s="55"/>
       <c r="B148" s="55"/>
       <c r="C148" s="55"/>
@@ -16069,7 +16025,7 @@
       <c r="AY148" s="55"/>
       <c r="AZ148" s="55"/>
     </row>
-    <row r="149" spans="1:52">
+    <row r="149" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A149" s="55"/>
       <c r="B149" s="55"/>
       <c r="C149" s="55"/>
@@ -16123,7 +16079,7 @@
       <c r="AY149" s="55"/>
       <c r="AZ149" s="55"/>
     </row>
-    <row r="150" spans="1:52">
+    <row r="150" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A150" s="55"/>
       <c r="B150" s="55"/>
       <c r="C150" s="55"/>
@@ -16177,7 +16133,7 @@
       <c r="AY150" s="55"/>
       <c r="AZ150" s="55"/>
     </row>
-    <row r="151" spans="1:52">
+    <row r="151" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A151" s="55"/>
       <c r="B151" s="55"/>
       <c r="C151" s="55"/>
@@ -16231,7 +16187,7 @@
       <c r="AY151" s="55"/>
       <c r="AZ151" s="55"/>
     </row>
-    <row r="152" spans="1:52">
+    <row r="152" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A152" s="55"/>
       <c r="B152" s="55"/>
       <c r="C152" s="55"/>
@@ -16285,7 +16241,7 @@
       <c r="AY152" s="55"/>
       <c r="AZ152" s="55"/>
     </row>
-    <row r="153" spans="1:52">
+    <row r="153" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A153" s="55"/>
       <c r="B153" s="55"/>
       <c r="C153" s="55"/>
@@ -16339,7 +16295,7 @@
       <c r="AY153" s="55"/>
       <c r="AZ153" s="55"/>
     </row>
-    <row r="154" spans="1:52">
+    <row r="154" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A154" s="55"/>
       <c r="B154" s="55"/>
       <c r="C154" s="55"/>
@@ -16393,7 +16349,7 @@
       <c r="AY154" s="55"/>
       <c r="AZ154" s="55"/>
     </row>
-    <row r="155" spans="1:52">
+    <row r="155" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A155" s="55"/>
       <c r="B155" s="55"/>
       <c r="C155" s="55"/>
@@ -16447,7 +16403,7 @@
       <c r="AY155" s="55"/>
       <c r="AZ155" s="55"/>
     </row>
-    <row r="156" spans="1:52">
+    <row r="156" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A156" s="55"/>
       <c r="B156" s="55"/>
       <c r="C156" s="55"/>
@@ -16501,7 +16457,7 @@
       <c r="AY156" s="55"/>
       <c r="AZ156" s="55"/>
     </row>
-    <row r="157" spans="1:52">
+    <row r="157" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A157" s="55"/>
       <c r="B157" s="55"/>
       <c r="C157" s="55"/>
@@ -16555,7 +16511,7 @@
       <c r="AY157" s="55"/>
       <c r="AZ157" s="55"/>
     </row>
-    <row r="158" spans="1:52">
+    <row r="158" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A158" s="55"/>
       <c r="B158" s="55"/>
       <c r="C158" s="55"/>
@@ -16609,7 +16565,7 @@
       <c r="AY158" s="55"/>
       <c r="AZ158" s="55"/>
     </row>
-    <row r="159" spans="1:52">
+    <row r="159" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A159" s="55"/>
       <c r="B159" s="55"/>
       <c r="C159" s="55"/>
@@ -16663,7 +16619,7 @@
       <c r="AY159" s="55"/>
       <c r="AZ159" s="55"/>
     </row>
-    <row r="160" spans="1:52">
+    <row r="160" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A160" s="55"/>
       <c r="B160" s="55"/>
       <c r="C160" s="55"/>
@@ -16717,7 +16673,7 @@
       <c r="AY160" s="55"/>
       <c r="AZ160" s="55"/>
     </row>
-    <row r="161" spans="1:52">
+    <row r="161" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A161" s="55"/>
       <c r="B161" s="55"/>
       <c r="C161" s="55"/>
@@ -16771,7 +16727,7 @@
       <c r="AY161" s="55"/>
       <c r="AZ161" s="55"/>
     </row>
-    <row r="162" spans="1:52">
+    <row r="162" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A162" s="55"/>
       <c r="B162" s="55"/>
       <c r="C162" s="55"/>
@@ -16825,7 +16781,7 @@
       <c r="AY162" s="55"/>
       <c r="AZ162" s="55"/>
     </row>
-    <row r="163" spans="1:52">
+    <row r="163" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A163" s="55"/>
       <c r="B163" s="55"/>
       <c r="C163" s="55"/>
@@ -16879,7 +16835,7 @@
       <c r="AY163" s="55"/>
       <c r="AZ163" s="55"/>
     </row>
-    <row r="164" spans="1:52">
+    <row r="164" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A164" s="55"/>
       <c r="B164" s="55"/>
       <c r="C164" s="55"/>
@@ -16933,7 +16889,7 @@
       <c r="AY164" s="55"/>
       <c r="AZ164" s="55"/>
     </row>
-    <row r="165" spans="1:52">
+    <row r="165" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A165" s="55"/>
       <c r="B165" s="55"/>
       <c r="C165" s="55"/>
@@ -16987,7 +16943,7 @@
       <c r="AY165" s="55"/>
       <c r="AZ165" s="55"/>
     </row>
-    <row r="166" spans="1:52">
+    <row r="166" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A166" s="55"/>
       <c r="B166" s="55"/>
       <c r="C166" s="55"/>
@@ -17041,7 +16997,7 @@
       <c r="AY166" s="55"/>
       <c r="AZ166" s="55"/>
     </row>
-    <row r="167" spans="1:52">
+    <row r="167" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A167" s="55"/>
       <c r="B167" s="55"/>
       <c r="C167" s="55"/>
@@ -17095,7 +17051,7 @@
       <c r="AY167" s="55"/>
       <c r="AZ167" s="55"/>
     </row>
-    <row r="168" spans="1:52">
+    <row r="168" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A168" s="55"/>
       <c r="B168" s="55"/>
       <c r="C168" s="55"/>
@@ -17149,7 +17105,7 @@
       <c r="AY168" s="55"/>
       <c r="AZ168" s="55"/>
     </row>
-    <row r="169" spans="1:52">
+    <row r="169" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A169" s="55"/>
       <c r="B169" s="55"/>
       <c r="C169" s="55"/>
@@ -17203,7 +17159,7 @@
       <c r="AY169" s="55"/>
       <c r="AZ169" s="55"/>
     </row>
-    <row r="170" spans="1:52">
+    <row r="170" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A170" s="55"/>
       <c r="B170" s="55"/>
       <c r="C170" s="55"/>
@@ -17257,7 +17213,7 @@
       <c r="AY170" s="55"/>
       <c r="AZ170" s="55"/>
     </row>
-    <row r="171" spans="1:52">
+    <row r="171" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A171" s="55"/>
       <c r="B171" s="55"/>
       <c r="C171" s="55"/>
@@ -17341,12 +17297,12 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.109375" style="49"/>
+    <col min="1" max="16384" width="4.125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -17391,7 +17347,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="134">
+      <c r="AI1" s="138">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
@@ -17407,7 +17363,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="129" t="str">
+      <c r="AT1" s="135" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -17418,7 +17374,7 @@
       <c r="AY1" s="141"/>
       <c r="AZ1" s="142"/>
     </row>
-    <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1">
+    <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -17478,7 +17434,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="129"/>
+      <c r="AT2" s="135"/>
       <c r="AU2" s="141"/>
       <c r="AV2" s="141"/>
       <c r="AW2" s="141"/>
@@ -17486,7 +17442,7 @@
       <c r="AY2" s="141"/>
       <c r="AZ2" s="142"/>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -17540,7 +17496,7 @@
       <c r="AY3" s="59"/>
       <c r="AZ3" s="59"/>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A4" s="55"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -17594,7 +17550,7 @@
       <c r="AY4" s="55"/>
       <c r="AZ4" s="55"/>
     </row>
-    <row r="5" spans="1:52" ht="22.8">
+    <row r="5" spans="1:52" ht="21" x14ac:dyDescent="0.15">
       <c r="A5" s="27" t="s">
         <v>78</v>
       </c>
@@ -17650,7 +17606,7 @@
       <c r="AY5" s="55"/>
       <c r="AZ5" s="55"/>
     </row>
-    <row r="6" spans="1:52" s="16" customFormat="1" ht="15">
+    <row r="6" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B6" s="17" t="s">
         <v>61</v>
       </c>
@@ -17712,7 +17668,7 @@
       <c r="AV6" s="18"/>
       <c r="AW6" s="19"/>
     </row>
-    <row r="7" spans="1:52" s="16" customFormat="1" ht="15">
+    <row r="7" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B7" s="20">
         <v>1</v>
       </c>
@@ -17772,7 +17728,7 @@
       <c r="AV7" s="21"/>
       <c r="AW7" s="22"/>
     </row>
-    <row r="8" spans="1:52" s="16" customFormat="1" ht="15">
+    <row r="8" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -17822,7 +17778,7 @@
       <c r="AV8" s="25"/>
       <c r="AW8" s="26"/>
     </row>
-    <row r="9" spans="1:52" s="16" customFormat="1" ht="15">
+    <row r="9" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B9" s="20">
         <v>2</v>
       </c>
@@ -17876,7 +17832,7 @@
       <c r="AV9" s="74"/>
       <c r="AW9" s="75"/>
     </row>
-    <row r="10" spans="1:52" s="16" customFormat="1" ht="15">
+    <row r="10" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B10" s="24"/>
       <c r="C10" s="76"/>
       <c r="D10" s="77"/>
@@ -17926,7 +17882,7 @@
       <c r="AV10" s="77"/>
       <c r="AW10" s="78"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="55"/>
       <c r="B11" s="55"/>
       <c r="C11" s="55"/>
@@ -17980,7 +17936,7 @@
       <c r="AY11" s="55"/>
       <c r="AZ11" s="55"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="55"/>
       <c r="B12" s="55"/>
       <c r="C12" s="55"/>
@@ -18034,7 +17990,7 @@
       <c r="AY12" s="55"/>
       <c r="AZ12" s="55"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="55"/>
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
@@ -18088,7 +18044,7 @@
       <c r="AY13" s="55"/>
       <c r="AZ13" s="55"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="55"/>
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
@@ -18142,7 +18098,7 @@
       <c r="AY14" s="55"/>
       <c r="AZ14" s="55"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="55"/>
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
@@ -18196,7 +18152,7 @@
       <c r="AY15" s="55"/>
       <c r="AZ15" s="55"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="55"/>
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
@@ -18250,7 +18206,7 @@
       <c r="AY16" s="55"/>
       <c r="AZ16" s="55"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
       <c r="C17" s="55"/>
@@ -18304,7 +18260,7 @@
       <c r="AY17" s="55"/>
       <c r="AZ17" s="55"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="55"/>
       <c r="B18" s="55"/>
       <c r="C18" s="55"/>
@@ -18358,7 +18314,7 @@
       <c r="AY18" s="55"/>
       <c r="AZ18" s="55"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="55"/>
       <c r="B19" s="55"/>
       <c r="C19" s="55"/>
@@ -18412,7 +18368,7 @@
       <c r="AY19" s="55"/>
       <c r="AZ19" s="55"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="55"/>
       <c r="B20" s="55"/>
       <c r="C20" s="55"/>
@@ -18466,7 +18422,7 @@
       <c r="AY20" s="55"/>
       <c r="AZ20" s="55"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="55"/>
       <c r="B21" s="55"/>
       <c r="C21" s="55"/>
@@ -18520,7 +18476,7 @@
       <c r="AY21" s="55"/>
       <c r="AZ21" s="55"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="55"/>
       <c r="B22" s="55"/>
       <c r="C22" s="55"/>
@@ -18574,7 +18530,7 @@
       <c r="AY22" s="55"/>
       <c r="AZ22" s="55"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="55"/>
       <c r="B23" s="55"/>
       <c r="C23" s="55"/>
@@ -18628,7 +18584,7 @@
       <c r="AY23" s="55"/>
       <c r="AZ23" s="55"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="55"/>
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
@@ -18682,7 +18638,7 @@
       <c r="AY24" s="55"/>
       <c r="AZ24" s="55"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="55"/>
       <c r="B25" s="55"/>
       <c r="C25" s="55"/>
@@ -18736,7 +18692,7 @@
       <c r="AY25" s="55"/>
       <c r="AZ25" s="55"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="55"/>
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
@@ -18790,7 +18746,7 @@
       <c r="AY26" s="55"/>
       <c r="AZ26" s="55"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="55"/>
       <c r="B27" s="55"/>
       <c r="C27" s="55"/>
@@ -18844,7 +18800,7 @@
       <c r="AY27" s="55"/>
       <c r="AZ27" s="55"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="55"/>
       <c r="B28" s="55"/>
       <c r="C28" s="55"/>
@@ -18898,7 +18854,7 @@
       <c r="AY28" s="55"/>
       <c r="AZ28" s="55"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="55"/>
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
@@ -18952,7 +18908,7 @@
       <c r="AY29" s="55"/>
       <c r="AZ29" s="55"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="55"/>
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
@@ -19006,7 +18962,7 @@
       <c r="AY30" s="55"/>
       <c r="AZ30" s="55"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="55"/>
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
@@ -19060,7 +19016,7 @@
       <c r="AY31" s="55"/>
       <c r="AZ31" s="55"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="55"/>
       <c r="B32" s="55"/>
       <c r="C32" s="55"/>
@@ -19114,7 +19070,7 @@
       <c r="AY32" s="55"/>
       <c r="AZ32" s="55"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="55"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
@@ -19168,7 +19124,7 @@
       <c r="AY33" s="55"/>
       <c r="AZ33" s="55"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="55"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
@@ -19222,7 +19178,7 @@
       <c r="AY34" s="55"/>
       <c r="AZ34" s="55"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="55"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
@@ -19276,7 +19232,7 @@
       <c r="AY35" s="55"/>
       <c r="AZ35" s="55"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="55"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
@@ -19330,7 +19286,7 @@
       <c r="AY36" s="55"/>
       <c r="AZ36" s="55"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="55"/>
       <c r="B37" s="55"/>
       <c r="C37" s="55"/>
@@ -19384,7 +19340,7 @@
       <c r="AY37" s="55"/>
       <c r="AZ37" s="55"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="55"/>
       <c r="B38" s="55"/>
       <c r="C38" s="55"/>
@@ -19438,7 +19394,7 @@
       <c r="AY38" s="55"/>
       <c r="AZ38" s="55"/>
     </row>
-    <row r="39" spans="1:52">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A39" s="55"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
@@ -19492,7 +19448,7 @@
       <c r="AY39" s="55"/>
       <c r="AZ39" s="55"/>
     </row>
-    <row r="40" spans="1:52">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A40" s="55"/>
       <c r="B40" s="55"/>
       <c r="C40" s="55"/>
@@ -19546,7 +19502,7 @@
       <c r="AY40" s="55"/>
       <c r="AZ40" s="55"/>
     </row>
-    <row r="41" spans="1:52">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A41" s="55"/>
       <c r="B41" s="55"/>
       <c r="C41" s="55"/>
@@ -19600,7 +19556,7 @@
       <c r="AY41" s="55"/>
       <c r="AZ41" s="55"/>
     </row>
-    <row r="42" spans="1:52">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A42" s="55"/>
       <c r="B42" s="55"/>
       <c r="C42" s="55"/>
@@ -19654,7 +19610,7 @@
       <c r="AY42" s="55"/>
       <c r="AZ42" s="55"/>
     </row>
-    <row r="43" spans="1:52">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A43" s="55"/>
       <c r="B43" s="55"/>
       <c r="C43" s="55"/>
@@ -19708,7 +19664,7 @@
       <c r="AY43" s="55"/>
       <c r="AZ43" s="55"/>
     </row>
-    <row r="44" spans="1:52">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A44" s="55"/>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
@@ -19762,7 +19718,7 @@
       <c r="AY44" s="55"/>
       <c r="AZ44" s="55"/>
     </row>
-    <row r="45" spans="1:52">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A45" s="55"/>
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
@@ -19816,7 +19772,7 @@
       <c r="AY45" s="55"/>
       <c r="AZ45" s="55"/>
     </row>
-    <row r="46" spans="1:52">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A46" s="55"/>
       <c r="B46" s="55"/>
       <c r="C46" s="55"/>
@@ -19870,7 +19826,7 @@
       <c r="AY46" s="55"/>
       <c r="AZ46" s="55"/>
     </row>
-    <row r="47" spans="1:52">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A47" s="55"/>
       <c r="B47" s="55"/>
       <c r="C47" s="55"/>
@@ -19924,7 +19880,7 @@
       <c r="AY47" s="55"/>
       <c r="AZ47" s="55"/>
     </row>
-    <row r="48" spans="1:52">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A48" s="55"/>
       <c r="B48" s="55"/>
       <c r="C48" s="55"/>
@@ -19978,7 +19934,7 @@
       <c r="AY48" s="55"/>
       <c r="AZ48" s="55"/>
     </row>
-    <row r="49" spans="1:52">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A49" s="55"/>
       <c r="B49" s="55"/>
       <c r="C49" s="55"/>
@@ -20032,7 +19988,7 @@
       <c r="AY49" s="55"/>
       <c r="AZ49" s="55"/>
     </row>
-    <row r="50" spans="1:52">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A50" s="55"/>
       <c r="B50" s="55"/>
       <c r="C50" s="55"/>
@@ -20086,7 +20042,7 @@
       <c r="AY50" s="55"/>
       <c r="AZ50" s="55"/>
     </row>
-    <row r="51" spans="1:52">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A51" s="55"/>
       <c r="B51" s="55"/>
       <c r="C51" s="55"/>
@@ -20140,7 +20096,7 @@
       <c r="AY51" s="55"/>
       <c r="AZ51" s="55"/>
     </row>
-    <row r="52" spans="1:52">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A52" s="55"/>
       <c r="B52" s="55"/>
       <c r="C52" s="55"/>
@@ -20194,7 +20150,7 @@
       <c r="AY52" s="55"/>
       <c r="AZ52" s="55"/>
     </row>
-    <row r="53" spans="1:52">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A53" s="55"/>
       <c r="B53" s="55"/>
       <c r="C53" s="55"/>
@@ -20248,7 +20204,7 @@
       <c r="AY53" s="55"/>
       <c r="AZ53" s="55"/>
     </row>
-    <row r="54" spans="1:52">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A54" s="55"/>
       <c r="B54" s="55"/>
       <c r="C54" s="55"/>
@@ -20302,7 +20258,7 @@
       <c r="AY54" s="55"/>
       <c r="AZ54" s="55"/>
     </row>
-    <row r="55" spans="1:52">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A55" s="55"/>
       <c r="B55" s="55"/>
       <c r="C55" s="55"/>
@@ -20356,7 +20312,7 @@
       <c r="AY55" s="55"/>
       <c r="AZ55" s="55"/>
     </row>
-    <row r="56" spans="1:52">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A56" s="55"/>
       <c r="B56" s="55"/>
       <c r="C56" s="55"/>
@@ -20410,7 +20366,7 @@
       <c r="AY56" s="55"/>
       <c r="AZ56" s="55"/>
     </row>
-    <row r="57" spans="1:52">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A57" s="55"/>
       <c r="B57" s="55"/>
       <c r="C57" s="55"/>
@@ -20464,7 +20420,7 @@
       <c r="AY57" s="55"/>
       <c r="AZ57" s="55"/>
     </row>
-    <row r="58" spans="1:52">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A58" s="55"/>
       <c r="B58" s="55"/>
       <c r="C58" s="55"/>
@@ -20518,7 +20474,7 @@
       <c r="AY58" s="55"/>
       <c r="AZ58" s="55"/>
     </row>
-    <row r="59" spans="1:52">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A59" s="55"/>
       <c r="B59" s="55"/>
       <c r="C59" s="55"/>
@@ -20572,7 +20528,7 @@
       <c r="AY59" s="55"/>
       <c r="AZ59" s="55"/>
     </row>
-    <row r="60" spans="1:52">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A60" s="55"/>
       <c r="B60" s="55"/>
       <c r="C60" s="55"/>
@@ -20626,7 +20582,7 @@
       <c r="AY60" s="55"/>
       <c r="AZ60" s="55"/>
     </row>
-    <row r="61" spans="1:52">
+    <row r="61" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A61" s="55"/>
       <c r="B61" s="55"/>
       <c r="C61" s="55"/>
@@ -20680,7 +20636,7 @@
       <c r="AY61" s="55"/>
       <c r="AZ61" s="55"/>
     </row>
-    <row r="62" spans="1:52">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A62" s="55"/>
       <c r="B62" s="55"/>
       <c r="C62" s="55"/>
@@ -20734,7 +20690,7 @@
       <c r="AY62" s="55"/>
       <c r="AZ62" s="55"/>
     </row>
-    <row r="63" spans="1:52">
+    <row r="63" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A63" s="55"/>
       <c r="B63" s="55"/>
       <c r="C63" s="55"/>
@@ -20788,7 +20744,7 @@
       <c r="AY63" s="55"/>
       <c r="AZ63" s="55"/>
     </row>
-    <row r="64" spans="1:52">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A64" s="55"/>
       <c r="B64" s="55"/>
       <c r="C64" s="55"/>
@@ -20842,7 +20798,7 @@
       <c r="AY64" s="55"/>
       <c r="AZ64" s="55"/>
     </row>
-    <row r="65" spans="1:52">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A65" s="55"/>
       <c r="B65" s="55"/>
       <c r="C65" s="55"/>
@@ -20896,7 +20852,7 @@
       <c r="AY65" s="55"/>
       <c r="AZ65" s="55"/>
     </row>
-    <row r="66" spans="1:52">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A66" s="55"/>
       <c r="B66" s="55"/>
       <c r="C66" s="55"/>
@@ -20950,7 +20906,7 @@
       <c r="AY66" s="55"/>
       <c r="AZ66" s="55"/>
     </row>
-    <row r="67" spans="1:52">
+    <row r="67" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A67" s="55"/>
       <c r="B67" s="55"/>
       <c r="C67" s="55"/>
@@ -21004,7 +20960,7 @@
       <c r="AY67" s="55"/>
       <c r="AZ67" s="55"/>
     </row>
-    <row r="68" spans="1:52">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A68" s="55"/>
       <c r="B68" s="55"/>
       <c r="C68" s="55"/>
@@ -21058,7 +21014,7 @@
       <c r="AY68" s="55"/>
       <c r="AZ68" s="55"/>
     </row>
-    <row r="69" spans="1:52">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A69" s="55"/>
       <c r="B69" s="55"/>
       <c r="C69" s="55"/>
@@ -21112,7 +21068,7 @@
       <c r="AY69" s="55"/>
       <c r="AZ69" s="55"/>
     </row>
-    <row r="70" spans="1:52">
+    <row r="70" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A70" s="55"/>
       <c r="B70" s="55"/>
       <c r="C70" s="55"/>
@@ -21166,7 +21122,7 @@
       <c r="AY70" s="55"/>
       <c r="AZ70" s="55"/>
     </row>
-    <row r="71" spans="1:52">
+    <row r="71" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A71" s="55"/>
       <c r="B71" s="55"/>
       <c r="C71" s="55"/>
@@ -21220,7 +21176,7 @@
       <c r="AY71" s="55"/>
       <c r="AZ71" s="55"/>
     </row>
-    <row r="72" spans="1:52">
+    <row r="72" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A72" s="55"/>
       <c r="B72" s="55"/>
       <c r="C72" s="55"/>
@@ -21274,7 +21230,7 @@
       <c r="AY72" s="55"/>
       <c r="AZ72" s="55"/>
     </row>
-    <row r="73" spans="1:52">
+    <row r="73" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A73" s="55"/>
       <c r="B73" s="55"/>
       <c r="C73" s="55"/>
@@ -21328,7 +21284,7 @@
       <c r="AY73" s="55"/>
       <c r="AZ73" s="55"/>
     </row>
-    <row r="74" spans="1:52">
+    <row r="74" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A74" s="55"/>
       <c r="B74" s="55"/>
       <c r="C74" s="55"/>
@@ -21382,7 +21338,7 @@
       <c r="AY74" s="55"/>
       <c r="AZ74" s="55"/>
     </row>
-    <row r="75" spans="1:52">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A75" s="55"/>
       <c r="B75" s="55"/>
       <c r="C75" s="55"/>
@@ -21436,7 +21392,7 @@
       <c r="AY75" s="55"/>
       <c r="AZ75" s="55"/>
     </row>
-    <row r="76" spans="1:52">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A76" s="55"/>
       <c r="B76" s="55"/>
       <c r="C76" s="55"/>
@@ -21490,7 +21446,7 @@
       <c r="AY76" s="55"/>
       <c r="AZ76" s="55"/>
     </row>
-    <row r="77" spans="1:52">
+    <row r="77" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A77" s="55"/>
       <c r="B77" s="55"/>
       <c r="C77" s="55"/>
@@ -21544,7 +21500,7 @@
       <c r="AY77" s="55"/>
       <c r="AZ77" s="55"/>
     </row>
-    <row r="78" spans="1:52">
+    <row r="78" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A78" s="55"/>
       <c r="B78" s="55"/>
       <c r="C78" s="55"/>
@@ -21598,7 +21554,7 @@
       <c r="AY78" s="55"/>
       <c r="AZ78" s="55"/>
     </row>
-    <row r="79" spans="1:52">
+    <row r="79" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A79" s="55"/>
       <c r="B79" s="55"/>
       <c r="C79" s="55"/>
@@ -21652,7 +21608,7 @@
       <c r="AY79" s="55"/>
       <c r="AZ79" s="55"/>
     </row>
-    <row r="80" spans="1:52">
+    <row r="80" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A80" s="55"/>
       <c r="B80" s="55"/>
       <c r="C80" s="55"/>
@@ -21706,7 +21662,7 @@
       <c r="AY80" s="55"/>
       <c r="AZ80" s="55"/>
     </row>
-    <row r="81" spans="1:52">
+    <row r="81" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A81" s="55"/>
       <c r="B81" s="55"/>
       <c r="C81" s="55"/>
@@ -21760,7 +21716,7 @@
       <c r="AY81" s="55"/>
       <c r="AZ81" s="55"/>
     </row>
-    <row r="82" spans="1:52">
+    <row r="82" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A82" s="55"/>
       <c r="B82" s="55"/>
       <c r="C82" s="55"/>
@@ -21814,7 +21770,7 @@
       <c r="AY82" s="55"/>
       <c r="AZ82" s="55"/>
     </row>
-    <row r="83" spans="1:52">
+    <row r="83" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A83" s="55"/>
       <c r="B83" s="55"/>
       <c r="C83" s="55"/>
@@ -21868,7 +21824,7 @@
       <c r="AY83" s="55"/>
       <c r="AZ83" s="55"/>
     </row>
-    <row r="84" spans="1:52">
+    <row r="84" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A84" s="55"/>
       <c r="B84" s="55"/>
       <c r="C84" s="55"/>
@@ -21952,12 +21908,12 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.109375" style="49"/>
+    <col min="1" max="16384" width="4.125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -22002,7 +21958,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="134">
+      <c r="AI1" s="138">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
@@ -22018,7 +21974,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="129" t="str">
+      <c r="AT1" s="135" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -22029,7 +21985,7 @@
       <c r="AY1" s="141"/>
       <c r="AZ1" s="142"/>
     </row>
-    <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1">
+    <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -22089,7 +22045,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="129"/>
+      <c r="AT2" s="135"/>
       <c r="AU2" s="141"/>
       <c r="AV2" s="141"/>
       <c r="AW2" s="141"/>
@@ -22097,7 +22053,7 @@
       <c r="AY2" s="141"/>
       <c r="AZ2" s="142"/>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -22151,7 +22107,7 @@
       <c r="AY3" s="59"/>
       <c r="AZ3" s="59"/>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A4" s="55"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -22205,7 +22161,7 @@
       <c r="AY4" s="55"/>
       <c r="AZ4" s="55"/>
     </row>
-    <row r="5" spans="1:52" ht="22.8">
+    <row r="5" spans="1:52" ht="21" x14ac:dyDescent="0.15">
       <c r="A5" s="27" t="s">
         <v>60</v>
       </c>
@@ -22261,7 +22217,7 @@
       <c r="AY5" s="55"/>
       <c r="AZ5" s="55"/>
     </row>
-    <row r="6" spans="1:52" ht="18.600000000000001">
+    <row r="6" spans="1:52" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A6" s="67"/>
       <c r="B6" s="32" t="s">
         <v>133</v>
@@ -22317,7 +22273,7 @@
       <c r="AY6" s="55"/>
       <c r="AZ6" s="55"/>
     </row>
-    <row r="7" spans="1:52">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A7" s="55"/>
       <c r="B7" s="55"/>
       <c r="C7" s="92"/>
@@ -22371,7 +22327,7 @@
       <c r="AY7" s="55"/>
       <c r="AZ7" s="55"/>
     </row>
-    <row r="8" spans="1:52" s="95" customFormat="1">
+    <row r="8" spans="1:52" s="95" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C8" s="100"/>
       <c r="D8" s="97"/>
       <c r="E8" s="98"/>
@@ -22391,7 +22347,7 @@
       <c r="S8" s="96"/>
       <c r="T8" s="96"/>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A9" s="55"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
@@ -22445,7 +22401,7 @@
       <c r="AY9" s="55"/>
       <c r="AZ9" s="55"/>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A10" s="55"/>
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
@@ -22499,7 +22455,7 @@
       <c r="AY10" s="55"/>
       <c r="AZ10" s="55"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="55"/>
       <c r="B11" s="55"/>
       <c r="C11" s="55"/>
@@ -22553,7 +22509,7 @@
       <c r="AY11" s="55"/>
       <c r="AZ11" s="55"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A12" s="55"/>
       <c r="B12" s="55"/>
       <c r="C12" s="55"/>
@@ -22607,7 +22563,7 @@
       <c r="AY12" s="55"/>
       <c r="AZ12" s="55"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A13" s="55"/>
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
@@ -22661,7 +22617,7 @@
       <c r="AY13" s="55"/>
       <c r="AZ13" s="55"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A14" s="55"/>
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
@@ -22715,7 +22671,7 @@
       <c r="AY14" s="55"/>
       <c r="AZ14" s="55"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A15" s="55"/>
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
@@ -22769,7 +22725,7 @@
       <c r="AY15" s="55"/>
       <c r="AZ15" s="55"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A16" s="55"/>
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
@@ -22823,7 +22779,7 @@
       <c r="AY16" s="55"/>
       <c r="AZ16" s="55"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A17" s="55"/>
       <c r="B17" s="55"/>
       <c r="C17" s="55"/>
@@ -22877,7 +22833,7 @@
       <c r="AY17" s="55"/>
       <c r="AZ17" s="55"/>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A18" s="55"/>
       <c r="B18" s="55"/>
       <c r="C18" s="55"/>
@@ -22931,7 +22887,7 @@
       <c r="AY18" s="55"/>
       <c r="AZ18" s="55"/>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A19" s="55"/>
       <c r="B19" s="55"/>
       <c r="C19" s="55"/>
@@ -22985,7 +22941,7 @@
       <c r="AY19" s="55"/>
       <c r="AZ19" s="55"/>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A20" s="55"/>
       <c r="B20" s="55"/>
       <c r="C20" s="55"/>
@@ -23039,7 +22995,7 @@
       <c r="AY20" s="55"/>
       <c r="AZ20" s="55"/>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A21" s="55"/>
       <c r="B21" s="55"/>
       <c r="C21" s="55"/>
@@ -23093,7 +23049,7 @@
       <c r="AY21" s="55"/>
       <c r="AZ21" s="55"/>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A22" s="55"/>
       <c r="B22" s="55"/>
       <c r="C22" s="55"/>
@@ -23147,7 +23103,7 @@
       <c r="AY22" s="55"/>
       <c r="AZ22" s="55"/>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A23" s="55"/>
       <c r="B23" s="55"/>
       <c r="C23" s="55"/>
@@ -23201,7 +23157,7 @@
       <c r="AY23" s="55"/>
       <c r="AZ23" s="55"/>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A24" s="55"/>
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
@@ -23255,7 +23211,7 @@
       <c r="AY24" s="55"/>
       <c r="AZ24" s="55"/>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A25" s="55"/>
       <c r="B25" s="55"/>
       <c r="C25" s="55"/>
@@ -23309,7 +23265,7 @@
       <c r="AY25" s="55"/>
       <c r="AZ25" s="55"/>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A26" s="55"/>
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
@@ -23363,7 +23319,7 @@
       <c r="AY26" s="55"/>
       <c r="AZ26" s="55"/>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A27" s="55"/>
       <c r="B27" s="55"/>
       <c r="C27" s="55"/>
@@ -23417,7 +23373,7 @@
       <c r="AY27" s="55"/>
       <c r="AZ27" s="55"/>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A28" s="55"/>
       <c r="B28" s="55"/>
       <c r="C28" s="55"/>
@@ -23471,7 +23427,7 @@
       <c r="AY28" s="55"/>
       <c r="AZ28" s="55"/>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A29" s="55"/>
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
@@ -23525,7 +23481,7 @@
       <c r="AY29" s="55"/>
       <c r="AZ29" s="55"/>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A30" s="55"/>
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
@@ -23579,7 +23535,7 @@
       <c r="AY30" s="55"/>
       <c r="AZ30" s="55"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A31" s="55"/>
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
@@ -23633,7 +23589,7 @@
       <c r="AY31" s="55"/>
       <c r="AZ31" s="55"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A32" s="55"/>
       <c r="B32" s="55"/>
       <c r="C32" s="55"/>
@@ -23687,7 +23643,7 @@
       <c r="AY32" s="55"/>
       <c r="AZ32" s="55"/>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="55"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
@@ -23741,7 +23697,7 @@
       <c r="AY33" s="55"/>
       <c r="AZ33" s="55"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="55"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
@@ -23795,7 +23751,7 @@
       <c r="AY34" s="55"/>
       <c r="AZ34" s="55"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A35" s="55"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
@@ -23849,7 +23805,7 @@
       <c r="AY35" s="55"/>
       <c r="AZ35" s="55"/>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="55"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
@@ -23903,7 +23859,7 @@
       <c r="AY36" s="55"/>
       <c r="AZ36" s="55"/>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="55"/>
       <c r="B37" s="55"/>
       <c r="C37" s="55"/>
@@ -23957,7 +23913,7 @@
       <c r="AY37" s="55"/>
       <c r="AZ37" s="55"/>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="55"/>
       <c r="B38" s="55"/>
       <c r="C38" s="55"/>
@@ -24011,7 +23967,7 @@
       <c r="AY38" s="55"/>
       <c r="AZ38" s="55"/>
     </row>
-    <row r="39" spans="1:52">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A39" s="55"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
@@ -24065,7 +24021,7 @@
       <c r="AY39" s="55"/>
       <c r="AZ39" s="55"/>
     </row>
-    <row r="40" spans="1:52">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A40" s="55"/>
       <c r="B40" s="55"/>
       <c r="C40" s="55"/>
@@ -24119,7 +24075,7 @@
       <c r="AY40" s="55"/>
       <c r="AZ40" s="55"/>
     </row>
-    <row r="41" spans="1:52">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A41" s="55"/>
       <c r="B41" s="55"/>
       <c r="C41" s="55"/>
@@ -24173,7 +24129,7 @@
       <c r="AY41" s="55"/>
       <c r="AZ41" s="55"/>
     </row>
-    <row r="42" spans="1:52">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A42" s="55"/>
       <c r="B42" s="55"/>
       <c r="C42" s="55"/>
@@ -24227,7 +24183,7 @@
       <c r="AY42" s="55"/>
       <c r="AZ42" s="55"/>
     </row>
-    <row r="43" spans="1:52">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A43" s="55"/>
       <c r="B43" s="55"/>
       <c r="C43" s="55"/>
@@ -24281,7 +24237,7 @@
       <c r="AY43" s="55"/>
       <c r="AZ43" s="55"/>
     </row>
-    <row r="44" spans="1:52">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A44" s="55"/>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
@@ -24335,7 +24291,7 @@
       <c r="AY44" s="55"/>
       <c r="AZ44" s="55"/>
     </row>
-    <row r="45" spans="1:52">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A45" s="55"/>
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
@@ -24389,7 +24345,7 @@
       <c r="AY45" s="55"/>
       <c r="AZ45" s="55"/>
     </row>
-    <row r="46" spans="1:52">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A46" s="55"/>
       <c r="B46" s="55"/>
       <c r="C46" s="55"/>
@@ -24443,7 +24399,7 @@
       <c r="AY46" s="55"/>
       <c r="AZ46" s="55"/>
     </row>
-    <row r="47" spans="1:52">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A47" s="55"/>
       <c r="B47" s="55"/>
       <c r="C47" s="55"/>
@@ -24497,7 +24453,7 @@
       <c r="AY47" s="55"/>
       <c r="AZ47" s="55"/>
     </row>
-    <row r="48" spans="1:52">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A48" s="55"/>
       <c r="B48" s="55"/>
       <c r="C48" s="55"/>
@@ -24551,7 +24507,7 @@
       <c r="AY48" s="55"/>
       <c r="AZ48" s="55"/>
     </row>
-    <row r="49" spans="1:52">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A49" s="55"/>
       <c r="B49" s="55"/>
       <c r="C49" s="55"/>
@@ -24605,7 +24561,7 @@
       <c r="AY49" s="55"/>
       <c r="AZ49" s="55"/>
     </row>
-    <row r="50" spans="1:52">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A50" s="55"/>
       <c r="B50" s="55"/>
       <c r="C50" s="55"/>
@@ -24659,7 +24615,7 @@
       <c r="AY50" s="55"/>
       <c r="AZ50" s="55"/>
     </row>
-    <row r="51" spans="1:52">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A51" s="55"/>
       <c r="B51" s="55"/>
       <c r="C51" s="55"/>
@@ -24713,7 +24669,7 @@
       <c r="AY51" s="55"/>
       <c r="AZ51" s="55"/>
     </row>
-    <row r="52" spans="1:52">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A52" s="55"/>
       <c r="B52" s="55"/>
       <c r="C52" s="55"/>
@@ -24767,7 +24723,7 @@
       <c r="AY52" s="55"/>
       <c r="AZ52" s="55"/>
     </row>
-    <row r="53" spans="1:52">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A53" s="55"/>
       <c r="B53" s="55"/>
       <c r="C53" s="55"/>
@@ -24821,7 +24777,7 @@
       <c r="AY53" s="55"/>
       <c r="AZ53" s="55"/>
     </row>
-    <row r="54" spans="1:52">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A54" s="55"/>
       <c r="B54" s="55"/>
       <c r="C54" s="55"/>
@@ -24875,7 +24831,7 @@
       <c r="AY54" s="55"/>
       <c r="AZ54" s="55"/>
     </row>
-    <row r="55" spans="1:52">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A55" s="55"/>
       <c r="B55" s="55"/>
       <c r="C55" s="55"/>
@@ -24929,7 +24885,7 @@
       <c r="AY55" s="55"/>
       <c r="AZ55" s="55"/>
     </row>
-    <row r="56" spans="1:52">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A56" s="55"/>
       <c r="B56" s="55"/>
       <c r="C56" s="55"/>
@@ -24983,7 +24939,7 @@
       <c r="AY56" s="55"/>
       <c r="AZ56" s="55"/>
     </row>
-    <row r="57" spans="1:52">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A57" s="55"/>
       <c r="B57" s="55"/>
       <c r="C57" s="55"/>
@@ -25037,7 +24993,7 @@
       <c r="AY57" s="55"/>
       <c r="AZ57" s="55"/>
     </row>
-    <row r="58" spans="1:52">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A58" s="55"/>
       <c r="B58" s="55"/>
       <c r="C58" s="55"/>
@@ -25091,7 +25047,7 @@
       <c r="AY58" s="55"/>
       <c r="AZ58" s="55"/>
     </row>
-    <row r="59" spans="1:52">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A59" s="55"/>
       <c r="B59" s="55"/>
       <c r="C59" s="55"/>
@@ -25145,7 +25101,7 @@
       <c r="AY59" s="55"/>
       <c r="AZ59" s="55"/>
     </row>
-    <row r="60" spans="1:52">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A60" s="55"/>
       <c r="B60" s="55"/>
       <c r="C60" s="55"/>
@@ -25199,7 +25155,7 @@
       <c r="AY60" s="55"/>
       <c r="AZ60" s="55"/>
     </row>
-    <row r="61" spans="1:52">
+    <row r="61" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A61" s="55"/>
       <c r="B61" s="55"/>
       <c r="C61" s="55"/>
@@ -25253,7 +25209,7 @@
       <c r="AY61" s="55"/>
       <c r="AZ61" s="55"/>
     </row>
-    <row r="62" spans="1:52">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A62" s="55"/>
       <c r="B62" s="55"/>
       <c r="C62" s="55"/>
@@ -25307,7 +25263,7 @@
       <c r="AY62" s="55"/>
       <c r="AZ62" s="55"/>
     </row>
-    <row r="63" spans="1:52">
+    <row r="63" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A63" s="55"/>
       <c r="B63" s="55"/>
       <c r="C63" s="55"/>
@@ -25361,7 +25317,7 @@
       <c r="AY63" s="55"/>
       <c r="AZ63" s="55"/>
     </row>
-    <row r="64" spans="1:52">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A64" s="55"/>
       <c r="B64" s="55"/>
       <c r="C64" s="55"/>
@@ -25415,7 +25371,7 @@
       <c r="AY64" s="55"/>
       <c r="AZ64" s="55"/>
     </row>
-    <row r="65" spans="1:52">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A65" s="55"/>
       <c r="B65" s="55"/>
       <c r="C65" s="55"/>
@@ -25469,7 +25425,7 @@
       <c r="AY65" s="55"/>
       <c r="AZ65" s="55"/>
     </row>
-    <row r="66" spans="1:52">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A66" s="55"/>
       <c r="B66" s="55"/>
       <c r="C66" s="55"/>
@@ -25523,7 +25479,7 @@
       <c r="AY66" s="55"/>
       <c r="AZ66" s="55"/>
     </row>
-    <row r="67" spans="1:52">
+    <row r="67" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A67" s="55"/>
       <c r="B67" s="55"/>
       <c r="C67" s="55"/>
@@ -25577,7 +25533,7 @@
       <c r="AY67" s="55"/>
       <c r="AZ67" s="55"/>
     </row>
-    <row r="68" spans="1:52">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A68" s="55"/>
       <c r="B68" s="55"/>
       <c r="C68" s="55"/>
@@ -25631,7 +25587,7 @@
       <c r="AY68" s="55"/>
       <c r="AZ68" s="55"/>
     </row>
-    <row r="69" spans="1:52">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A69" s="55"/>
       <c r="B69" s="55"/>
       <c r="C69" s="55"/>
@@ -25685,7 +25641,7 @@
       <c r="AY69" s="55"/>
       <c r="AZ69" s="55"/>
     </row>
-    <row r="70" spans="1:52">
+    <row r="70" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A70" s="55"/>
       <c r="B70" s="55"/>
       <c r="C70" s="55"/>
@@ -25739,7 +25695,7 @@
       <c r="AY70" s="55"/>
       <c r="AZ70" s="55"/>
     </row>
-    <row r="71" spans="1:52">
+    <row r="71" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A71" s="55"/>
       <c r="B71" s="55"/>
       <c r="C71" s="55"/>
@@ -25793,7 +25749,7 @@
       <c r="AY71" s="55"/>
       <c r="AZ71" s="55"/>
     </row>
-    <row r="72" spans="1:52">
+    <row r="72" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A72" s="55"/>
       <c r="B72" s="55"/>
       <c r="C72" s="55"/>
@@ -25847,7 +25803,7 @@
       <c r="AY72" s="55"/>
       <c r="AZ72" s="55"/>
     </row>
-    <row r="73" spans="1:52">
+    <row r="73" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A73" s="55"/>
       <c r="B73" s="55"/>
       <c r="C73" s="55"/>
@@ -25901,7 +25857,7 @@
       <c r="AY73" s="55"/>
       <c r="AZ73" s="55"/>
     </row>
-    <row r="74" spans="1:52">
+    <row r="74" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A74" s="55"/>
       <c r="B74" s="55"/>
       <c r="C74" s="55"/>
@@ -25955,7 +25911,7 @@
       <c r="AY74" s="55"/>
       <c r="AZ74" s="55"/>
     </row>
-    <row r="75" spans="1:52">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A75" s="55"/>
       <c r="B75" s="55"/>
       <c r="C75" s="55"/>
@@ -26009,7 +25965,7 @@
       <c r="AY75" s="55"/>
       <c r="AZ75" s="55"/>
     </row>
-    <row r="76" spans="1:52">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A76" s="55"/>
       <c r="B76" s="55"/>
       <c r="C76" s="55"/>
@@ -26063,7 +26019,7 @@
       <c r="AY76" s="55"/>
       <c r="AZ76" s="55"/>
     </row>
-    <row r="77" spans="1:52">
+    <row r="77" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A77" s="55"/>
       <c r="B77" s="55"/>
       <c r="C77" s="55"/>
@@ -26117,7 +26073,7 @@
       <c r="AY77" s="55"/>
       <c r="AZ77" s="55"/>
     </row>
-    <row r="78" spans="1:52">
+    <row r="78" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A78" s="55"/>
       <c r="B78" s="55"/>
       <c r="C78" s="55"/>
@@ -26171,7 +26127,7 @@
       <c r="AY78" s="55"/>
       <c r="AZ78" s="55"/>
     </row>
-    <row r="79" spans="1:52">
+    <row r="79" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A79" s="55"/>
       <c r="B79" s="55"/>
       <c r="C79" s="55"/>
@@ -26225,7 +26181,7 @@
       <c r="AY79" s="55"/>
       <c r="AZ79" s="55"/>
     </row>
-    <row r="80" spans="1:52">
+    <row r="80" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A80" s="55"/>
       <c r="B80" s="55"/>
       <c r="C80" s="55"/>
@@ -26279,7 +26235,7 @@
       <c r="AY80" s="55"/>
       <c r="AZ80" s="55"/>
     </row>
-    <row r="81" spans="1:52">
+    <row r="81" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A81" s="55"/>
       <c r="B81" s="55"/>
       <c r="C81" s="55"/>
@@ -26333,7 +26289,7 @@
       <c r="AY81" s="55"/>
       <c r="AZ81" s="55"/>
     </row>
-    <row r="82" spans="1:52">
+    <row r="82" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A82" s="55"/>
       <c r="B82" s="55"/>
       <c r="C82" s="55"/>
@@ -26387,7 +26343,7 @@
       <c r="AY82" s="55"/>
       <c r="AZ82" s="55"/>
     </row>
-    <row r="83" spans="1:52">
+    <row r="83" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A83" s="55"/>
       <c r="B83" s="55"/>
       <c r="C83" s="55"/>
@@ -26441,7 +26397,7 @@
       <c r="AY83" s="55"/>
       <c r="AZ83" s="55"/>
     </row>
-    <row r="84" spans="1:52">
+    <row r="84" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A84" s="55"/>
       <c r="B84" s="55"/>
       <c r="C84" s="55"/>
@@ -26495,7 +26451,7 @@
       <c r="AY84" s="55"/>
       <c r="AZ84" s="55"/>
     </row>
-    <row r="85" spans="1:52">
+    <row r="85" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A85" s="55"/>
       <c r="B85" s="55"/>
       <c r="C85" s="55"/>
@@ -26549,7 +26505,7 @@
       <c r="AY85" s="55"/>
       <c r="AZ85" s="55"/>
     </row>
-    <row r="86" spans="1:52">
+    <row r="86" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A86" s="55"/>
       <c r="B86" s="55"/>
       <c r="C86" s="55"/>
@@ -26603,7 +26559,7 @@
       <c r="AY86" s="55"/>
       <c r="AZ86" s="55"/>
     </row>
-    <row r="87" spans="1:52">
+    <row r="87" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A87" s="55"/>
       <c r="B87" s="55"/>
       <c r="C87" s="55"/>
@@ -26657,7 +26613,7 @@
       <c r="AY87" s="55"/>
       <c r="AZ87" s="55"/>
     </row>
-    <row r="88" spans="1:52">
+    <row r="88" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A88" s="55"/>
       <c r="B88" s="55"/>
       <c r="C88" s="55"/>
@@ -26711,7 +26667,7 @@
       <c r="AY88" s="55"/>
       <c r="AZ88" s="55"/>
     </row>
-    <row r="89" spans="1:52">
+    <row r="89" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A89" s="55"/>
       <c r="B89" s="55"/>
       <c r="C89" s="55"/>
@@ -26765,7 +26721,7 @@
       <c r="AY89" s="55"/>
       <c r="AZ89" s="55"/>
     </row>
-    <row r="90" spans="1:52">
+    <row r="90" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A90" s="55"/>
       <c r="B90" s="55"/>
       <c r="C90" s="55"/>
@@ -26819,7 +26775,7 @@
       <c r="AY90" s="55"/>
       <c r="AZ90" s="55"/>
     </row>
-    <row r="91" spans="1:52">
+    <row r="91" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A91" s="55"/>
       <c r="B91" s="55"/>
       <c r="C91" s="55"/>
@@ -26873,7 +26829,7 @@
       <c r="AY91" s="55"/>
       <c r="AZ91" s="55"/>
     </row>
-    <row r="92" spans="1:52">
+    <row r="92" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A92" s="55"/>
       <c r="B92" s="55"/>
       <c r="C92" s="55"/>
@@ -26927,7 +26883,7 @@
       <c r="AY92" s="55"/>
       <c r="AZ92" s="55"/>
     </row>
-    <row r="93" spans="1:52">
+    <row r="93" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A93" s="55"/>
       <c r="B93" s="55"/>
       <c r="C93" s="55"/>
@@ -26981,7 +26937,7 @@
       <c r="AY93" s="55"/>
       <c r="AZ93" s="55"/>
     </row>
-    <row r="94" spans="1:52">
+    <row r="94" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A94" s="55"/>
       <c r="B94" s="55"/>
       <c r="C94" s="55"/>
@@ -27035,7 +26991,7 @@
       <c r="AY94" s="55"/>
       <c r="AZ94" s="55"/>
     </row>
-    <row r="95" spans="1:52">
+    <row r="95" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A95" s="55"/>
       <c r="B95" s="55"/>
       <c r="C95" s="55"/>
@@ -27089,7 +27045,7 @@
       <c r="AY95" s="55"/>
       <c r="AZ95" s="55"/>
     </row>
-    <row r="96" spans="1:52">
+    <row r="96" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A96" s="55"/>
       <c r="B96" s="55"/>
       <c r="C96" s="55"/>
@@ -27143,7 +27099,7 @@
       <c r="AY96" s="55"/>
       <c r="AZ96" s="55"/>
     </row>
-    <row r="97" spans="1:52">
+    <row r="97" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A97" s="55"/>
       <c r="B97" s="55"/>
       <c r="C97" s="55"/>
@@ -27197,7 +27153,7 @@
       <c r="AY97" s="55"/>
       <c r="AZ97" s="55"/>
     </row>
-    <row r="98" spans="1:52">
+    <row r="98" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A98" s="55"/>
       <c r="B98" s="55"/>
       <c r="C98" s="55"/>
@@ -27251,7 +27207,7 @@
       <c r="AY98" s="55"/>
       <c r="AZ98" s="55"/>
     </row>
-    <row r="99" spans="1:52">
+    <row r="99" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A99" s="55"/>
       <c r="B99" s="55"/>
       <c r="C99" s="55"/>
@@ -27305,7 +27261,7 @@
       <c r="AY99" s="55"/>
       <c r="AZ99" s="55"/>
     </row>
-    <row r="100" spans="1:52">
+    <row r="100" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A100" s="55"/>
       <c r="B100" s="55"/>
       <c r="C100" s="55"/>
@@ -27359,7 +27315,7 @@
       <c r="AY100" s="55"/>
       <c r="AZ100" s="55"/>
     </row>
-    <row r="101" spans="1:52">
+    <row r="101" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A101" s="55"/>
       <c r="B101" s="55"/>
       <c r="C101" s="55"/>
@@ -27413,7 +27369,7 @@
       <c r="AY101" s="55"/>
       <c r="AZ101" s="55"/>
     </row>
-    <row r="102" spans="1:52">
+    <row r="102" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A102" s="55"/>
       <c r="B102" s="55"/>
       <c r="C102" s="55"/>
@@ -27467,7 +27423,7 @@
       <c r="AY102" s="55"/>
       <c r="AZ102" s="55"/>
     </row>
-    <row r="103" spans="1:52">
+    <row r="103" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A103" s="55"/>
       <c r="B103" s="55"/>
       <c r="C103" s="55"/>
@@ -27521,7 +27477,7 @@
       <c r="AY103" s="55"/>
       <c r="AZ103" s="55"/>
     </row>
-    <row r="104" spans="1:52">
+    <row r="104" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A104" s="55"/>
       <c r="B104" s="55"/>
       <c r="C104" s="55"/>
@@ -27575,7 +27531,7 @@
       <c r="AY104" s="55"/>
       <c r="AZ104" s="55"/>
     </row>
-    <row r="105" spans="1:52">
+    <row r="105" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A105" s="55"/>
       <c r="B105" s="55"/>
       <c r="C105" s="55"/>
@@ -27629,7 +27585,7 @@
       <c r="AY105" s="55"/>
       <c r="AZ105" s="55"/>
     </row>
-    <row r="106" spans="1:52">
+    <row r="106" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A106" s="55"/>
       <c r="B106" s="55"/>
       <c r="C106" s="55"/>
@@ -27683,7 +27639,7 @@
       <c r="AY106" s="55"/>
       <c r="AZ106" s="55"/>
     </row>
-    <row r="107" spans="1:52">
+    <row r="107" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A107" s="55"/>
       <c r="B107" s="55"/>
       <c r="C107" s="55"/>
@@ -27737,7 +27693,7 @@
       <c r="AY107" s="55"/>
       <c r="AZ107" s="55"/>
     </row>
-    <row r="108" spans="1:52">
+    <row r="108" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A108" s="55"/>
       <c r="B108" s="55"/>
       <c r="C108" s="55"/>
@@ -27791,7 +27747,7 @@
       <c r="AY108" s="55"/>
       <c r="AZ108" s="55"/>
     </row>
-    <row r="109" spans="1:52">
+    <row r="109" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A109" s="55"/>
       <c r="B109" s="55"/>
       <c r="C109" s="55"/>
@@ -27845,7 +27801,7 @@
       <c r="AY109" s="55"/>
       <c r="AZ109" s="55"/>
     </row>
-    <row r="110" spans="1:52">
+    <row r="110" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A110" s="55"/>
       <c r="B110" s="55"/>
       <c r="C110" s="55"/>
@@ -27899,7 +27855,7 @@
       <c r="AY110" s="55"/>
       <c r="AZ110" s="55"/>
     </row>
-    <row r="111" spans="1:52">
+    <row r="111" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A111" s="55"/>
       <c r="B111" s="55"/>
       <c r="C111" s="55"/>
@@ -27953,7 +27909,7 @@
       <c r="AY111" s="55"/>
       <c r="AZ111" s="55"/>
     </row>
-    <row r="112" spans="1:52">
+    <row r="112" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A112" s="55"/>
       <c r="B112" s="55"/>
       <c r="C112" s="55"/>
@@ -28007,7 +27963,7 @@
       <c r="AY112" s="55"/>
       <c r="AZ112" s="55"/>
     </row>
-    <row r="113" spans="1:52">
+    <row r="113" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A113" s="55"/>
       <c r="B113" s="55"/>
       <c r="C113" s="55"/>
@@ -28061,7 +28017,7 @@
       <c r="AY113" s="55"/>
       <c r="AZ113" s="55"/>
     </row>
-    <row r="114" spans="1:52">
+    <row r="114" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A114" s="55"/>
       <c r="B114" s="55"/>
       <c r="C114" s="55"/>
@@ -28115,7 +28071,7 @@
       <c r="AY114" s="55"/>
       <c r="AZ114" s="55"/>
     </row>
-    <row r="115" spans="1:52">
+    <row r="115" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A115" s="55"/>
       <c r="B115" s="55"/>
       <c r="C115" s="55"/>
@@ -28169,7 +28125,7 @@
       <c r="AY115" s="55"/>
       <c r="AZ115" s="55"/>
     </row>
-    <row r="116" spans="1:52">
+    <row r="116" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A116" s="55"/>
       <c r="B116" s="55"/>
       <c r="C116" s="55"/>
@@ -28223,7 +28179,7 @@
       <c r="AY116" s="55"/>
       <c r="AZ116" s="55"/>
     </row>
-    <row r="117" spans="1:52">
+    <row r="117" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A117" s="55"/>
       <c r="B117" s="55"/>
       <c r="C117" s="55"/>
@@ -28277,7 +28233,7 @@
       <c r="AY117" s="55"/>
       <c r="AZ117" s="55"/>
     </row>
-    <row r="118" spans="1:52">
+    <row r="118" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A118" s="55"/>
       <c r="B118" s="55"/>
       <c r="C118" s="55"/>
@@ -28331,7 +28287,7 @@
       <c r="AY118" s="55"/>
       <c r="AZ118" s="55"/>
     </row>
-    <row r="119" spans="1:52">
+    <row r="119" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A119" s="55"/>
       <c r="B119" s="55"/>
       <c r="C119" s="55"/>
@@ -28385,7 +28341,7 @@
       <c r="AY119" s="55"/>
       <c r="AZ119" s="55"/>
     </row>
-    <row r="120" spans="1:52">
+    <row r="120" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A120" s="55"/>
       <c r="B120" s="55"/>
       <c r="C120" s="55"/>
@@ -28439,7 +28395,7 @@
       <c r="AY120" s="55"/>
       <c r="AZ120" s="55"/>
     </row>
-    <row r="121" spans="1:52">
+    <row r="121" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A121" s="55"/>
       <c r="B121" s="55"/>
       <c r="C121" s="55"/>
@@ -28493,7 +28449,7 @@
       <c r="AY121" s="55"/>
       <c r="AZ121" s="55"/>
     </row>
-    <row r="122" spans="1:52">
+    <row r="122" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A122" s="55"/>
       <c r="B122" s="55"/>
       <c r="C122" s="55"/>
@@ -28547,7 +28503,7 @@
       <c r="AY122" s="55"/>
       <c r="AZ122" s="55"/>
     </row>
-    <row r="123" spans="1:52">
+    <row r="123" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A123" s="55"/>
       <c r="B123" s="55"/>
       <c r="C123" s="55"/>
@@ -28601,7 +28557,7 @@
       <c r="AY123" s="55"/>
       <c r="AZ123" s="55"/>
     </row>
-    <row r="124" spans="1:52">
+    <row r="124" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A124" s="55"/>
       <c r="B124" s="55"/>
       <c r="C124" s="55"/>
@@ -28655,7 +28611,7 @@
       <c r="AY124" s="55"/>
       <c r="AZ124" s="55"/>
     </row>
-    <row r="125" spans="1:52">
+    <row r="125" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A125" s="55"/>
       <c r="B125" s="55"/>
       <c r="C125" s="55"/>
@@ -28709,7 +28665,7 @@
       <c r="AY125" s="55"/>
       <c r="AZ125" s="55"/>
     </row>
-    <row r="126" spans="1:52">
+    <row r="126" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A126" s="55"/>
       <c r="B126" s="55"/>
       <c r="C126" s="55"/>
@@ -28763,7 +28719,7 @@
       <c r="AY126" s="55"/>
       <c r="AZ126" s="55"/>
     </row>
-    <row r="127" spans="1:52">
+    <row r="127" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A127" s="55"/>
       <c r="B127" s="55"/>
       <c r="C127" s="55"/>
@@ -28817,7 +28773,7 @@
       <c r="AY127" s="55"/>
       <c r="AZ127" s="55"/>
     </row>
-    <row r="128" spans="1:52">
+    <row r="128" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A128" s="55"/>
       <c r="B128" s="55"/>
       <c r="C128" s="55"/>
@@ -28871,7 +28827,7 @@
       <c r="AY128" s="55"/>
       <c r="AZ128" s="55"/>
     </row>
-    <row r="129" spans="1:52">
+    <row r="129" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A129" s="55"/>
       <c r="B129" s="55"/>
       <c r="C129" s="55"/>
@@ -28925,7 +28881,7 @@
       <c r="AY129" s="55"/>
       <c r="AZ129" s="55"/>
     </row>
-    <row r="130" spans="1:52">
+    <row r="130" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A130" s="55"/>
       <c r="B130" s="55"/>
       <c r="C130" s="55"/>
@@ -28979,7 +28935,7 @@
       <c r="AY130" s="55"/>
       <c r="AZ130" s="55"/>
     </row>
-    <row r="131" spans="1:52">
+    <row r="131" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A131" s="55"/>
       <c r="B131" s="55"/>
       <c r="C131" s="55"/>
@@ -29033,7 +28989,7 @@
       <c r="AY131" s="55"/>
       <c r="AZ131" s="55"/>
     </row>
-    <row r="132" spans="1:52">
+    <row r="132" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A132" s="55"/>
       <c r="B132" s="55"/>
       <c r="C132" s="55"/>
@@ -29087,7 +29043,7 @@
       <c r="AY132" s="55"/>
       <c r="AZ132" s="55"/>
     </row>
-    <row r="133" spans="1:52">
+    <row r="133" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A133" s="55"/>
       <c r="B133" s="55"/>
       <c r="C133" s="55"/>
@@ -29141,7 +29097,7 @@
       <c r="AY133" s="55"/>
       <c r="AZ133" s="55"/>
     </row>
-    <row r="134" spans="1:52">
+    <row r="134" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A134" s="55"/>
       <c r="B134" s="55"/>
       <c r="C134" s="55"/>
@@ -29195,7 +29151,7 @@
       <c r="AY134" s="55"/>
       <c r="AZ134" s="55"/>
     </row>
-    <row r="135" spans="1:52">
+    <row r="135" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A135" s="55"/>
       <c r="B135" s="55"/>
       <c r="C135" s="55"/>
@@ -29249,7 +29205,7 @@
       <c r="AY135" s="55"/>
       <c r="AZ135" s="55"/>
     </row>
-    <row r="136" spans="1:52">
+    <row r="136" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A136" s="55"/>
       <c r="B136" s="55"/>
       <c r="C136" s="55"/>
@@ -29303,7 +29259,7 @@
       <c r="AY136" s="55"/>
       <c r="AZ136" s="55"/>
     </row>
-    <row r="137" spans="1:52">
+    <row r="137" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A137" s="55"/>
       <c r="B137" s="55"/>
       <c r="C137" s="55"/>
@@ -29357,7 +29313,7 @@
       <c r="AY137" s="55"/>
       <c r="AZ137" s="55"/>
     </row>
-    <row r="138" spans="1:52">
+    <row r="138" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A138" s="55"/>
       <c r="B138" s="55"/>
       <c r="C138" s="55"/>
@@ -29411,7 +29367,7 @@
       <c r="AY138" s="55"/>
       <c r="AZ138" s="55"/>
     </row>
-    <row r="139" spans="1:52">
+    <row r="139" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A139" s="55"/>
       <c r="B139" s="55"/>
       <c r="C139" s="55"/>
@@ -29465,7 +29421,7 @@
       <c r="AY139" s="55"/>
       <c r="AZ139" s="55"/>
     </row>
-    <row r="140" spans="1:52">
+    <row r="140" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A140" s="55"/>
       <c r="B140" s="55"/>
       <c r="C140" s="55"/>
@@ -29519,7 +29475,7 @@
       <c r="AY140" s="55"/>
       <c r="AZ140" s="55"/>
     </row>
-    <row r="141" spans="1:52">
+    <row r="141" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A141" s="55"/>
       <c r="B141" s="55"/>
       <c r="C141" s="55"/>
@@ -29573,7 +29529,7 @@
       <c r="AY141" s="55"/>
       <c r="AZ141" s="55"/>
     </row>
-    <row r="142" spans="1:52">
+    <row r="142" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A142" s="55"/>
       <c r="B142" s="55"/>
       <c r="C142" s="55"/>
@@ -29627,7 +29583,7 @@
       <c r="AY142" s="55"/>
       <c r="AZ142" s="55"/>
     </row>
-    <row r="143" spans="1:52">
+    <row r="143" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A143" s="55"/>
       <c r="B143" s="55"/>
       <c r="C143" s="55"/>
@@ -29681,7 +29637,7 @@
       <c r="AY143" s="55"/>
       <c r="AZ143" s="55"/>
     </row>
-    <row r="144" spans="1:52">
+    <row r="144" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A144" s="55"/>
       <c r="B144" s="55"/>
       <c r="C144" s="55"/>
@@ -29735,7 +29691,7 @@
       <c r="AY144" s="55"/>
       <c r="AZ144" s="55"/>
     </row>
-    <row r="145" spans="1:52">
+    <row r="145" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A145" s="55"/>
       <c r="B145" s="55"/>
       <c r="C145" s="55"/>
@@ -29789,7 +29745,7 @@
       <c r="AY145" s="55"/>
       <c r="AZ145" s="55"/>
     </row>
-    <row r="146" spans="1:52">
+    <row r="146" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A146" s="55"/>
       <c r="B146" s="55"/>
       <c r="C146" s="55"/>
@@ -29843,7 +29799,7 @@
       <c r="AY146" s="55"/>
       <c r="AZ146" s="55"/>
     </row>
-    <row r="147" spans="1:52">
+    <row r="147" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A147" s="55"/>
       <c r="B147" s="55"/>
       <c r="C147" s="55"/>
@@ -29897,7 +29853,7 @@
       <c r="AY147" s="55"/>
       <c r="AZ147" s="55"/>
     </row>
-    <row r="148" spans="1:52">
+    <row r="148" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A148" s="55"/>
       <c r="B148" s="55"/>
       <c r="C148" s="55"/>
@@ -29951,7 +29907,7 @@
       <c r="AY148" s="55"/>
       <c r="AZ148" s="55"/>
     </row>
-    <row r="149" spans="1:52">
+    <row r="149" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A149" s="55"/>
       <c r="B149" s="55"/>
       <c r="C149" s="55"/>
@@ -30005,7 +29961,7 @@
       <c r="AY149" s="55"/>
       <c r="AZ149" s="55"/>
     </row>
-    <row r="150" spans="1:52">
+    <row r="150" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A150" s="55"/>
       <c r="B150" s="55"/>
       <c r="C150" s="55"/>
@@ -30059,7 +30015,7 @@
       <c r="AY150" s="55"/>
       <c r="AZ150" s="55"/>
     </row>
-    <row r="151" spans="1:52">
+    <row r="151" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A151" s="55"/>
       <c r="B151" s="55"/>
       <c r="C151" s="55"/>
@@ -30113,7 +30069,7 @@
       <c r="AY151" s="55"/>
       <c r="AZ151" s="55"/>
     </row>
-    <row r="152" spans="1:52">
+    <row r="152" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A152" s="55"/>
       <c r="B152" s="55"/>
       <c r="C152" s="55"/>
@@ -30167,7 +30123,7 @@
       <c r="AY152" s="55"/>
       <c r="AZ152" s="55"/>
     </row>
-    <row r="153" spans="1:52">
+    <row r="153" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A153" s="55"/>
       <c r="B153" s="55"/>
       <c r="C153" s="55"/>
@@ -30221,7 +30177,7 @@
       <c r="AY153" s="55"/>
       <c r="AZ153" s="55"/>
     </row>
-    <row r="154" spans="1:52">
+    <row r="154" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A154" s="55"/>
       <c r="B154" s="55"/>
       <c r="C154" s="55"/>
@@ -30275,7 +30231,7 @@
       <c r="AY154" s="55"/>
       <c r="AZ154" s="55"/>
     </row>
-    <row r="155" spans="1:52">
+    <row r="155" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A155" s="55"/>
       <c r="B155" s="55"/>
       <c r="C155" s="55"/>
@@ -30329,7 +30285,7 @@
       <c r="AY155" s="55"/>
       <c r="AZ155" s="55"/>
     </row>
-    <row r="156" spans="1:52">
+    <row r="156" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A156" s="55"/>
       <c r="B156" s="55"/>
       <c r="C156" s="55"/>
@@ -30383,7 +30339,7 @@
       <c r="AY156" s="55"/>
       <c r="AZ156" s="55"/>
     </row>
-    <row r="157" spans="1:52">
+    <row r="157" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A157" s="55"/>
       <c r="B157" s="55"/>
       <c r="C157" s="55"/>
@@ -30437,7 +30393,7 @@
       <c r="AY157" s="55"/>
       <c r="AZ157" s="55"/>
     </row>
-    <row r="158" spans="1:52">
+    <row r="158" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A158" s="55"/>
       <c r="B158" s="55"/>
       <c r="C158" s="55"/>
@@ -30491,7 +30447,7 @@
       <c r="AY158" s="55"/>
       <c r="AZ158" s="55"/>
     </row>
-    <row r="159" spans="1:52">
+    <row r="159" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A159" s="55"/>
       <c r="B159" s="55"/>
       <c r="C159" s="55"/>
@@ -30545,7 +30501,7 @@
       <c r="AY159" s="55"/>
       <c r="AZ159" s="55"/>
     </row>
-    <row r="160" spans="1:52">
+    <row r="160" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A160" s="55"/>
       <c r="B160" s="55"/>
       <c r="C160" s="55"/>
@@ -30599,7 +30555,7 @@
       <c r="AY160" s="55"/>
       <c r="AZ160" s="55"/>
     </row>
-    <row r="161" spans="1:52">
+    <row r="161" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A161" s="55"/>
       <c r="B161" s="55"/>
       <c r="C161" s="55"/>
@@ -30653,7 +30609,7 @@
       <c r="AY161" s="55"/>
       <c r="AZ161" s="55"/>
     </row>
-    <row r="162" spans="1:52">
+    <row r="162" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A162" s="55"/>
       <c r="B162" s="55"/>
       <c r="C162" s="55"/>
@@ -30707,7 +30663,7 @@
       <c r="AY162" s="55"/>
       <c r="AZ162" s="55"/>
     </row>
-    <row r="163" spans="1:52">
+    <row r="163" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A163" s="55"/>
       <c r="B163" s="55"/>
       <c r="C163" s="55"/>
@@ -30761,7 +30717,7 @@
       <c r="AY163" s="55"/>
       <c r="AZ163" s="55"/>
     </row>
-    <row r="164" spans="1:52">
+    <row r="164" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A164" s="55"/>
       <c r="B164" s="55"/>
       <c r="C164" s="55"/>
@@ -30815,7 +30771,7 @@
       <c r="AY164" s="55"/>
       <c r="AZ164" s="55"/>
     </row>
-    <row r="165" spans="1:52">
+    <row r="165" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A165" s="55"/>
       <c r="B165" s="55"/>
       <c r="C165" s="55"/>
@@ -30869,7 +30825,7 @@
       <c r="AY165" s="55"/>
       <c r="AZ165" s="55"/>
     </row>
-    <row r="166" spans="1:52">
+    <row r="166" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A166" s="55"/>
       <c r="B166" s="55"/>
       <c r="C166" s="55"/>
@@ -30923,7 +30879,7 @@
       <c r="AY166" s="55"/>
       <c r="AZ166" s="55"/>
     </row>
-    <row r="167" spans="1:52">
+    <row r="167" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A167" s="55"/>
       <c r="B167" s="55"/>
       <c r="C167" s="55"/>
@@ -30977,7 +30933,7 @@
       <c r="AY167" s="55"/>
       <c r="AZ167" s="55"/>
     </row>
-    <row r="168" spans="1:52">
+    <row r="168" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A168" s="55"/>
       <c r="B168" s="55"/>
       <c r="C168" s="55"/>
@@ -31031,7 +30987,7 @@
       <c r="AY168" s="55"/>
       <c r="AZ168" s="55"/>
     </row>
-    <row r="169" spans="1:52">
+    <row r="169" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A169" s="55"/>
       <c r="B169" s="55"/>
       <c r="C169" s="55"/>
@@ -31085,7 +31041,7 @@
       <c r="AY169" s="55"/>
       <c r="AZ169" s="55"/>
     </row>
-    <row r="170" spans="1:52">
+    <row r="170" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A170" s="55"/>
       <c r="B170" s="55"/>
       <c r="C170" s="55"/>
@@ -31139,7 +31095,7 @@
       <c r="AY170" s="55"/>
       <c r="AZ170" s="55"/>
     </row>
-    <row r="171" spans="1:52">
+    <row r="171" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A171" s="55"/>
       <c r="B171" s="55"/>
       <c r="C171" s="55"/>
@@ -31193,7 +31149,7 @@
       <c r="AY171" s="55"/>
       <c r="AZ171" s="55"/>
     </row>
-    <row r="172" spans="1:52">
+    <row r="172" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A172" s="55"/>
       <c r="B172" s="55"/>
       <c r="C172" s="55"/>
@@ -31247,7 +31203,7 @@
       <c r="AY172" s="55"/>
       <c r="AZ172" s="55"/>
     </row>
-    <row r="173" spans="1:52">
+    <row r="173" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A173" s="55"/>
       <c r="B173" s="55"/>
       <c r="C173" s="55"/>
@@ -31301,7 +31257,7 @@
       <c r="AY173" s="55"/>
       <c r="AZ173" s="55"/>
     </row>
-    <row r="174" spans="1:52">
+    <row r="174" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A174" s="55"/>
       <c r="B174" s="55"/>
       <c r="C174" s="55"/>
@@ -31355,7 +31311,7 @@
       <c r="AY174" s="55"/>
       <c r="AZ174" s="55"/>
     </row>
-    <row r="175" spans="1:52">
+    <row r="175" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A175" s="55"/>
       <c r="B175" s="55"/>
       <c r="C175" s="55"/>
@@ -31409,7 +31365,7 @@
       <c r="AY175" s="55"/>
       <c r="AZ175" s="55"/>
     </row>
-    <row r="176" spans="1:52">
+    <row r="176" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A176" s="55"/>
       <c r="B176" s="55"/>
       <c r="C176" s="55"/>
@@ -31463,7 +31419,7 @@
       <c r="AY176" s="55"/>
       <c r="AZ176" s="55"/>
     </row>
-    <row r="177" spans="1:52">
+    <row r="177" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A177" s="55"/>
       <c r="B177" s="55"/>
       <c r="C177" s="55"/>
@@ -31517,7 +31473,7 @@
       <c r="AY177" s="55"/>
       <c r="AZ177" s="55"/>
     </row>
-    <row r="178" spans="1:52">
+    <row r="178" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A178" s="55"/>
       <c r="B178" s="55"/>
       <c r="C178" s="55"/>
@@ -31571,7 +31527,7 @@
       <c r="AY178" s="55"/>
       <c r="AZ178" s="55"/>
     </row>
-    <row r="179" spans="1:52">
+    <row r="179" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A179" s="55"/>
       <c r="B179" s="55"/>
       <c r="C179" s="55"/>
@@ -31625,7 +31581,7 @@
       <c r="AY179" s="55"/>
       <c r="AZ179" s="55"/>
     </row>
-    <row r="180" spans="1:52">
+    <row r="180" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A180" s="55"/>
       <c r="B180" s="55"/>
       <c r="C180" s="55"/>
@@ -31679,7 +31635,7 @@
       <c r="AY180" s="55"/>
       <c r="AZ180" s="55"/>
     </row>
-    <row r="181" spans="1:52">
+    <row r="181" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A181" s="55"/>
       <c r="B181" s="55"/>
       <c r="C181" s="55"/>
@@ -31733,7 +31689,7 @@
       <c r="AY181" s="55"/>
       <c r="AZ181" s="55"/>
     </row>
-    <row r="182" spans="1:52">
+    <row r="182" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A182" s="55"/>
       <c r="B182" s="55"/>
       <c r="C182" s="55"/>
@@ -31787,7 +31743,7 @@
       <c r="AY182" s="55"/>
       <c r="AZ182" s="55"/>
     </row>
-    <row r="183" spans="1:52">
+    <row r="183" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A183" s="55"/>
       <c r="B183" s="55"/>
       <c r="C183" s="55"/>
@@ -31841,7 +31797,7 @@
       <c r="AY183" s="55"/>
       <c r="AZ183" s="55"/>
     </row>
-    <row r="184" spans="1:52">
+    <row r="184" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A184" s="55"/>
       <c r="B184" s="55"/>
       <c r="C184" s="55"/>
@@ -31895,7 +31851,7 @@
       <c r="AY184" s="55"/>
       <c r="AZ184" s="55"/>
     </row>
-    <row r="185" spans="1:52">
+    <row r="185" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A185" s="55"/>
       <c r="B185" s="55"/>
       <c r="C185" s="55"/>
@@ -31949,7 +31905,7 @@
       <c r="AY185" s="55"/>
       <c r="AZ185" s="55"/>
     </row>
-    <row r="186" spans="1:52">
+    <row r="186" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A186" s="55"/>
       <c r="B186" s="55"/>
       <c r="C186" s="55"/>
@@ -32003,7 +31959,7 @@
       <c r="AY186" s="55"/>
       <c r="AZ186" s="55"/>
     </row>
-    <row r="187" spans="1:52">
+    <row r="187" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A187" s="55"/>
       <c r="B187" s="55"/>
       <c r="C187" s="55"/>
@@ -32057,7 +32013,7 @@
       <c r="AY187" s="55"/>
       <c r="AZ187" s="55"/>
     </row>
-    <row r="188" spans="1:52">
+    <row r="188" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A188" s="55"/>
       <c r="B188" s="55"/>
       <c r="C188" s="55"/>
@@ -32111,7 +32067,7 @@
       <c r="AY188" s="55"/>
       <c r="AZ188" s="55"/>
     </row>
-    <row r="189" spans="1:52">
+    <row r="189" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A189" s="55"/>
       <c r="B189" s="55"/>
       <c r="C189" s="55"/>
@@ -32165,7 +32121,7 @@
       <c r="AY189" s="55"/>
       <c r="AZ189" s="55"/>
     </row>
-    <row r="190" spans="1:52">
+    <row r="190" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A190" s="55"/>
       <c r="B190" s="55"/>
       <c r="C190" s="55"/>
@@ -32219,7 +32175,7 @@
       <c r="AY190" s="55"/>
       <c r="AZ190" s="55"/>
     </row>
-    <row r="191" spans="1:52">
+    <row r="191" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A191" s="55"/>
       <c r="B191" s="55"/>
       <c r="C191" s="55"/>
@@ -32273,7 +32229,7 @@
       <c r="AY191" s="55"/>
       <c r="AZ191" s="55"/>
     </row>
-    <row r="192" spans="1:52">
+    <row r="192" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A192" s="55"/>
       <c r="B192" s="55"/>
       <c r="C192" s="55"/>
@@ -32327,7 +32283,7 @@
       <c r="AY192" s="55"/>
       <c r="AZ192" s="55"/>
     </row>
-    <row r="193" spans="1:52">
+    <row r="193" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A193" s="55"/>
       <c r="B193" s="55"/>
       <c r="C193" s="55"/>
@@ -32381,7 +32337,7 @@
       <c r="AY193" s="55"/>
       <c r="AZ193" s="55"/>
     </row>
-    <row r="194" spans="1:52">
+    <row r="194" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A194" s="55"/>
       <c r="B194" s="55"/>
       <c r="C194" s="55"/>
@@ -32435,7 +32391,7 @@
       <c r="AY194" s="55"/>
       <c r="AZ194" s="55"/>
     </row>
-    <row r="195" spans="1:52">
+    <row r="195" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A195" s="55"/>
       <c r="B195" s="55"/>
       <c r="C195" s="55"/>
@@ -32489,7 +32445,7 @@
       <c r="AY195" s="55"/>
       <c r="AZ195" s="55"/>
     </row>
-    <row r="196" spans="1:52">
+    <row r="196" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A196" s="55"/>
       <c r="B196" s="55"/>
       <c r="C196" s="55"/>
@@ -32543,7 +32499,7 @@
       <c r="AY196" s="55"/>
       <c r="AZ196" s="55"/>
     </row>
-    <row r="197" spans="1:52">
+    <row r="197" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A197" s="55"/>
       <c r="B197" s="55"/>
       <c r="C197" s="55"/>
@@ -32597,7 +32553,7 @@
       <c r="AY197" s="55"/>
       <c r="AZ197" s="55"/>
     </row>
-    <row r="198" spans="1:52">
+    <row r="198" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A198" s="55"/>
       <c r="B198" s="55"/>
       <c r="C198" s="55"/>
@@ -32651,7 +32607,7 @@
       <c r="AY198" s="55"/>
       <c r="AZ198" s="55"/>
     </row>
-    <row r="199" spans="1:52">
+    <row r="199" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A199" s="55"/>
       <c r="B199" s="55"/>
       <c r="C199" s="55"/>
@@ -32705,7 +32661,7 @@
       <c r="AY199" s="55"/>
       <c r="AZ199" s="55"/>
     </row>
-    <row r="200" spans="1:52">
+    <row r="200" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A200" s="55"/>
       <c r="B200" s="55"/>
       <c r="C200" s="55"/>
@@ -32759,7 +32715,7 @@
       <c r="AY200" s="55"/>
       <c r="AZ200" s="55"/>
     </row>
-    <row r="201" spans="1:52">
+    <row r="201" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A201" s="55"/>
       <c r="B201" s="55"/>
       <c r="C201" s="55"/>
@@ -32813,7 +32769,7 @@
       <c r="AY201" s="55"/>
       <c r="AZ201" s="55"/>
     </row>
-    <row r="202" spans="1:52">
+    <row r="202" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A202" s="55"/>
       <c r="B202" s="55"/>
       <c r="C202" s="55"/>
@@ -32867,7 +32823,7 @@
       <c r="AY202" s="55"/>
       <c r="AZ202" s="55"/>
     </row>
-    <row r="203" spans="1:52">
+    <row r="203" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A203" s="55"/>
       <c r="B203" s="55"/>
       <c r="C203" s="55"/>
@@ -32921,7 +32877,7 @@
       <c r="AY203" s="55"/>
       <c r="AZ203" s="55"/>
     </row>
-    <row r="204" spans="1:52">
+    <row r="204" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A204" s="55"/>
       <c r="B204" s="55"/>
       <c r="C204" s="55"/>
@@ -32975,7 +32931,7 @@
       <c r="AY204" s="55"/>
       <c r="AZ204" s="55"/>
     </row>
-    <row r="205" spans="1:52">
+    <row r="205" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A205" s="55"/>
       <c r="B205" s="55"/>
       <c r="C205" s="55"/>
@@ -33029,7 +32985,7 @@
       <c r="AY205" s="55"/>
       <c r="AZ205" s="55"/>
     </row>
-    <row r="206" spans="1:52">
+    <row r="206" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A206" s="55"/>
       <c r="B206" s="55"/>
       <c r="C206" s="55"/>
@@ -33083,7 +33039,7 @@
       <c r="AY206" s="55"/>
       <c r="AZ206" s="55"/>
     </row>
-    <row r="207" spans="1:52">
+    <row r="207" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A207" s="55"/>
       <c r="B207" s="55"/>
       <c r="C207" s="55"/>
@@ -33137,7 +33093,7 @@
       <c r="AY207" s="55"/>
       <c r="AZ207" s="55"/>
     </row>
-    <row r="208" spans="1:52">
+    <row r="208" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A208" s="55"/>
       <c r="B208" s="55"/>
       <c r="C208" s="55"/>
@@ -33218,6 +33174,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -33375,12 +33337,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
@@ -33390,6 +33346,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33405,13 +33370,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K21A_工程別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21A_工程別集計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8F142A-ACA2-4BCC-A99D-CA62E6458632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972D95D7-9533-44CE-8095-86835CE2693E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="174">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -998,13 +998,6 @@
     <t>受払データ</t>
   </si>
   <si>
-    <t>・受払データ.受払年月日の年月</t>
-    <rPh sb="13" eb="15">
-      <t>ネンゲツ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>・工程マスタ.工程略称</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1019,23 +1012,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>・受払データ.払出区分</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・受払データ.大工程コード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>受払データ.大工程コード(昇順)</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>YYYY/MM/DD</t>
-  </si>
-  <si>
-    <t>・受払データ.事業所コード</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>＜検索項目＞</t>
@@ -1053,10 +1030,6 @@
       <t>カンケイ</t>
     </rPh>
     <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>・受払データ</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>・LEFT JOIN 工程マスタ</t>
@@ -1159,17 +1132,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ON 受払データ.大工程コード</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>・COUNT(受払データ.大工程コード)　AS 数量</t>
-    <rPh sb="24" eb="26">
-      <t>スウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>受払データの大工程コード</t>
     <rPh sb="6" eb="7">
       <t>オオ</t>
@@ -1177,10 +1139,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>・受払データ.受払区分</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>'8'：その他払出</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1190,6 +1148,109 @@
   </si>
   <si>
     <t>○</t>
+  </si>
+  <si>
+    <t>※1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・RANK() OVER (PARTITION BY 事業所コード,個体NO ORDER BY シーケンス DESC) AS RANKNO</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>＜利用テーブル＞</t>
+    <rPh sb="1" eb="3">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>受払データ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>検索結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・事業所コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・大工程コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・受払年月日</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・受払区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・払出区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>最新受払データ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ.大工程コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・COUNT(最新受払データ.大工程コード)　AS 数量</t>
+    <rPh sb="26" eb="28">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ON 最新受払データ.大工程コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ.事業所コード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ.受払区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ.受払年月日の年月</t>
+    <rPh sb="15" eb="17">
+      <t>ネンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ.払出区分</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>最新受払データ.大工程コード(昇順)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・最新受払データ.RANKNO</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -1200,7 +1261,7 @@
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1431,6 +1492,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1678,7 +1746,7 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
@@ -1970,6 +2038,18 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3774,108 +3854,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="104" t="s">
+      <c r="A32" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="104"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="104"/>
-      <c r="M32" s="104"/>
-      <c r="N32" s="104"/>
-      <c r="O32" s="104"/>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="104"/>
-      <c r="R32" s="104"/>
-      <c r="S32" s="104"/>
-      <c r="T32" s="104"/>
-      <c r="U32" s="104"/>
-      <c r="V32" s="104"/>
-      <c r="W32" s="104"/>
-      <c r="X32" s="104"/>
-      <c r="Y32" s="104"/>
-      <c r="Z32" s="104"/>
-      <c r="AA32" s="104"/>
-      <c r="AB32" s="104"/>
-      <c r="AC32" s="104"/>
-      <c r="AD32" s="104"/>
-      <c r="AE32" s="104"/>
-      <c r="AF32" s="104"/>
-      <c r="AG32" s="104"/>
-      <c r="AH32" s="104"/>
-      <c r="AI32" s="104"/>
-      <c r="AJ32" s="104"/>
-      <c r="AK32" s="104"/>
-      <c r="AL32" s="104"/>
-      <c r="AM32" s="104"/>
-      <c r="AN32" s="104"/>
-      <c r="AO32" s="104"/>
-      <c r="AP32" s="104"/>
-      <c r="AQ32" s="104"/>
-      <c r="AR32" s="104"/>
-      <c r="AS32" s="104"/>
-      <c r="AT32" s="104"/>
-      <c r="AU32" s="104"/>
-      <c r="AV32" s="104"/>
-      <c r="AW32" s="104"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="108"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="108"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="108"/>
+      <c r="Q32" s="108"/>
+      <c r="R32" s="108"/>
+      <c r="S32" s="108"/>
+      <c r="T32" s="108"/>
+      <c r="U32" s="108"/>
+      <c r="V32" s="108"/>
+      <c r="W32" s="108"/>
+      <c r="X32" s="108"/>
+      <c r="Y32" s="108"/>
+      <c r="Z32" s="108"/>
+      <c r="AA32" s="108"/>
+      <c r="AB32" s="108"/>
+      <c r="AC32" s="108"/>
+      <c r="AD32" s="108"/>
+      <c r="AE32" s="108"/>
+      <c r="AF32" s="108"/>
+      <c r="AG32" s="108"/>
+      <c r="AH32" s="108"/>
+      <c r="AI32" s="108"/>
+      <c r="AJ32" s="108"/>
+      <c r="AK32" s="108"/>
+      <c r="AL32" s="108"/>
+      <c r="AM32" s="108"/>
+      <c r="AN32" s="108"/>
+      <c r="AO32" s="108"/>
+      <c r="AP32" s="108"/>
+      <c r="AQ32" s="108"/>
+      <c r="AR32" s="108"/>
+      <c r="AS32" s="108"/>
+      <c r="AT32" s="108"/>
+      <c r="AU32" s="108"/>
+      <c r="AV32" s="108"/>
+      <c r="AW32" s="108"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="105"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="105"/>
-      <c r="N33" s="105"/>
-      <c r="O33" s="105"/>
-      <c r="P33" s="105"/>
-      <c r="Q33" s="105"/>
-      <c r="R33" s="105"/>
-      <c r="S33" s="105"/>
-      <c r="T33" s="105"/>
-      <c r="U33" s="105"/>
-      <c r="V33" s="105"/>
-      <c r="W33" s="105"/>
-      <c r="X33" s="105"/>
-      <c r="Y33" s="105"/>
-      <c r="Z33" s="105"/>
-      <c r="AA33" s="105"/>
-      <c r="AB33" s="105"/>
-      <c r="AC33" s="105"/>
-      <c r="AD33" s="105"/>
-      <c r="AE33" s="105"/>
-      <c r="AF33" s="105"/>
-      <c r="AG33" s="105"/>
-      <c r="AH33" s="105"/>
-      <c r="AI33" s="105"/>
-      <c r="AJ33" s="105"/>
-      <c r="AK33" s="105"/>
-      <c r="AL33" s="105"/>
-      <c r="AM33" s="105"/>
-      <c r="AN33" s="105"/>
-      <c r="AO33" s="105"/>
-      <c r="AP33" s="105"/>
-      <c r="AQ33" s="105"/>
-      <c r="AR33" s="105"/>
-      <c r="AS33" s="105"/>
-      <c r="AT33" s="105"/>
-      <c r="AU33" s="105"/>
-      <c r="AV33" s="105"/>
-      <c r="AW33" s="105"/>
+      <c r="A33" s="109"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="109"/>
+      <c r="L33" s="109"/>
+      <c r="M33" s="109"/>
+      <c r="N33" s="109"/>
+      <c r="O33" s="109"/>
+      <c r="P33" s="109"/>
+      <c r="Q33" s="109"/>
+      <c r="R33" s="109"/>
+      <c r="S33" s="109"/>
+      <c r="T33" s="109"/>
+      <c r="U33" s="109"/>
+      <c r="V33" s="109"/>
+      <c r="W33" s="109"/>
+      <c r="X33" s="109"/>
+      <c r="Y33" s="109"/>
+      <c r="Z33" s="109"/>
+      <c r="AA33" s="109"/>
+      <c r="AB33" s="109"/>
+      <c r="AC33" s="109"/>
+      <c r="AD33" s="109"/>
+      <c r="AE33" s="109"/>
+      <c r="AF33" s="109"/>
+      <c r="AG33" s="109"/>
+      <c r="AH33" s="109"/>
+      <c r="AI33" s="109"/>
+      <c r="AJ33" s="109"/>
+      <c r="AK33" s="109"/>
+      <c r="AL33" s="109"/>
+      <c r="AM33" s="109"/>
+      <c r="AN33" s="109"/>
+      <c r="AO33" s="109"/>
+      <c r="AP33" s="109"/>
+      <c r="AQ33" s="109"/>
+      <c r="AR33" s="109"/>
+      <c r="AS33" s="109"/>
+      <c r="AT33" s="109"/>
+      <c r="AU33" s="109"/>
+      <c r="AV33" s="109"/>
+      <c r="AW33" s="109"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -3913,55 +3993,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="106"/>
-      <c r="B35" s="106"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="106"/>
-      <c r="M35" s="106"/>
-      <c r="N35" s="106"/>
-      <c r="O35" s="106"/>
-      <c r="P35" s="106"/>
-      <c r="Q35" s="106"/>
-      <c r="R35" s="106"/>
-      <c r="S35" s="106"/>
-      <c r="T35" s="106"/>
-      <c r="U35" s="106"/>
-      <c r="V35" s="106"/>
-      <c r="W35" s="106"/>
-      <c r="X35" s="106"/>
-      <c r="Y35" s="106"/>
-      <c r="Z35" s="106"/>
-      <c r="AA35" s="106"/>
-      <c r="AB35" s="106"/>
-      <c r="AC35" s="106"/>
-      <c r="AD35" s="106"/>
-      <c r="AE35" s="106"/>
-      <c r="AF35" s="106"/>
-      <c r="AG35" s="106"/>
-      <c r="AH35" s="106"/>
-      <c r="AI35" s="106"/>
-      <c r="AJ35" s="106"/>
-      <c r="AK35" s="106"/>
-      <c r="AL35" s="106"/>
-      <c r="AM35" s="106"/>
-      <c r="AN35" s="106"/>
-      <c r="AO35" s="106"/>
-      <c r="AP35" s="106"/>
-      <c r="AQ35" s="106"/>
-      <c r="AR35" s="106"/>
-      <c r="AS35" s="106"/>
-      <c r="AT35" s="106"/>
-      <c r="AU35" s="106"/>
-      <c r="AV35" s="106"/>
-      <c r="AW35" s="106"/>
+      <c r="A35" s="110"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="110"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="110"/>
+      <c r="N35" s="110"/>
+      <c r="O35" s="110"/>
+      <c r="P35" s="110"/>
+      <c r="Q35" s="110"/>
+      <c r="R35" s="110"/>
+      <c r="S35" s="110"/>
+      <c r="T35" s="110"/>
+      <c r="U35" s="110"/>
+      <c r="V35" s="110"/>
+      <c r="W35" s="110"/>
+      <c r="X35" s="110"/>
+      <c r="Y35" s="110"/>
+      <c r="Z35" s="110"/>
+      <c r="AA35" s="110"/>
+      <c r="AB35" s="110"/>
+      <c r="AC35" s="110"/>
+      <c r="AD35" s="110"/>
+      <c r="AE35" s="110"/>
+      <c r="AF35" s="110"/>
+      <c r="AG35" s="110"/>
+      <c r="AH35" s="110"/>
+      <c r="AI35" s="110"/>
+      <c r="AJ35" s="110"/>
+      <c r="AK35" s="110"/>
+      <c r="AL35" s="110"/>
+      <c r="AM35" s="110"/>
+      <c r="AN35" s="110"/>
+      <c r="AO35" s="110"/>
+      <c r="AP35" s="110"/>
+      <c r="AQ35" s="110"/>
+      <c r="AR35" s="110"/>
+      <c r="AS35" s="110"/>
+      <c r="AT35" s="110"/>
+      <c r="AU35" s="110"/>
+      <c r="AV35" s="110"/>
+      <c r="AW35" s="110"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -3996,1767 +4076,1767 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="107"/>
-      <c r="AH1" s="107"/>
-      <c r="AI1" s="107"/>
-      <c r="AJ1" s="107"/>
-      <c r="AK1" s="107"/>
-      <c r="AL1" s="107"/>
-      <c r="AM1" s="107"/>
-      <c r="AN1" s="107"/>
-      <c r="AO1" s="107"/>
-      <c r="AP1" s="107"/>
-      <c r="AQ1" s="107"/>
-      <c r="AR1" s="107"/>
-      <c r="AS1" s="107"/>
-      <c r="AT1" s="107"/>
-      <c r="AU1" s="107"/>
-      <c r="AV1" s="107"/>
-      <c r="AW1" s="107"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="111"/>
+      <c r="AB1" s="111"/>
+      <c r="AC1" s="111"/>
+      <c r="AD1" s="111"/>
+      <c r="AE1" s="111"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="111"/>
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="111"/>
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="111"/>
+      <c r="AN1" s="111"/>
+      <c r="AO1" s="111"/>
+      <c r="AP1" s="111"/>
+      <c r="AQ1" s="111"/>
+      <c r="AR1" s="111"/>
+      <c r="AS1" s="111"/>
+      <c r="AT1" s="111"/>
+      <c r="AU1" s="111"/>
+      <c r="AV1" s="111"/>
+      <c r="AW1" s="111"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="108"/>
-      <c r="AF2" s="108"/>
-      <c r="AG2" s="108"/>
-      <c r="AH2" s="108"/>
-      <c r="AI2" s="108"/>
-      <c r="AJ2" s="108"/>
-      <c r="AK2" s="108"/>
-      <c r="AL2" s="108"/>
-      <c r="AM2" s="108"/>
-      <c r="AN2" s="108"/>
-      <c r="AO2" s="108"/>
-      <c r="AP2" s="108"/>
-      <c r="AQ2" s="108"/>
-      <c r="AR2" s="108"/>
-      <c r="AS2" s="108"/>
-      <c r="AT2" s="108"/>
-      <c r="AU2" s="108"/>
-      <c r="AV2" s="108"/>
-      <c r="AW2" s="108"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="112"/>
+      <c r="AG2" s="112"/>
+      <c r="AH2" s="112"/>
+      <c r="AI2" s="112"/>
+      <c r="AJ2" s="112"/>
+      <c r="AK2" s="112"/>
+      <c r="AL2" s="112"/>
+      <c r="AM2" s="112"/>
+      <c r="AN2" s="112"/>
+      <c r="AO2" s="112"/>
+      <c r="AP2" s="112"/>
+      <c r="AQ2" s="112"/>
+      <c r="AR2" s="112"/>
+      <c r="AS2" s="112"/>
+      <c r="AT2" s="112"/>
+      <c r="AU2" s="112"/>
+      <c r="AV2" s="112"/>
+      <c r="AW2" s="112"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109" t="s">
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="111" t="s">
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="112"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="111" t="s">
+      <c r="K3" s="116"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="109" t="s">
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109" t="s">
+      <c r="T3" s="113"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="109"/>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="109"/>
-      <c r="AG3" s="109"/>
-      <c r="AH3" s="109"/>
-      <c r="AI3" s="109"/>
-      <c r="AJ3" s="109"/>
-      <c r="AK3" s="109"/>
-      <c r="AL3" s="109"/>
-      <c r="AM3" s="109"/>
-      <c r="AN3" s="109" t="s">
+      <c r="W3" s="113"/>
+      <c r="X3" s="113"/>
+      <c r="Y3" s="113"/>
+      <c r="Z3" s="113"/>
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="113"/>
+      <c r="AC3" s="113"/>
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="113"/>
+      <c r="AH3" s="113"/>
+      <c r="AI3" s="113"/>
+      <c r="AJ3" s="113"/>
+      <c r="AK3" s="113"/>
+      <c r="AL3" s="113"/>
+      <c r="AM3" s="113"/>
+      <c r="AN3" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="109"/>
-      <c r="AP3" s="109"/>
-      <c r="AQ3" s="109"/>
-      <c r="AR3" s="109"/>
-      <c r="AS3" s="109" t="s">
+      <c r="AO3" s="113"/>
+      <c r="AP3" s="113"/>
+      <c r="AQ3" s="113"/>
+      <c r="AR3" s="113"/>
+      <c r="AS3" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="109"/>
-      <c r="AU3" s="109"/>
-      <c r="AV3" s="109"/>
-      <c r="AW3" s="109"/>
+      <c r="AT3" s="113"/>
+      <c r="AU3" s="113"/>
+      <c r="AV3" s="113"/>
+      <c r="AW3" s="113"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="110"/>
-      <c r="Z4" s="110"/>
-      <c r="AA4" s="110"/>
-      <c r="AB4" s="110"/>
-      <c r="AC4" s="110"/>
-      <c r="AD4" s="110"/>
-      <c r="AE4" s="110"/>
-      <c r="AF4" s="110"/>
-      <c r="AG4" s="110"/>
-      <c r="AH4" s="110"/>
-      <c r="AI4" s="110"/>
-      <c r="AJ4" s="110"/>
-      <c r="AK4" s="110"/>
-      <c r="AL4" s="110"/>
-      <c r="AM4" s="110"/>
-      <c r="AN4" s="110"/>
-      <c r="AO4" s="110"/>
-      <c r="AP4" s="110"/>
-      <c r="AQ4" s="110"/>
-      <c r="AR4" s="110"/>
-      <c r="AS4" s="110"/>
-      <c r="AT4" s="110"/>
-      <c r="AU4" s="110"/>
-      <c r="AV4" s="110"/>
-      <c r="AW4" s="110"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="114"/>
+      <c r="W4" s="114"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="114"/>
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="114"/>
+      <c r="AB4" s="114"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="114"/>
+      <c r="AE4" s="114"/>
+      <c r="AF4" s="114"/>
+      <c r="AG4" s="114"/>
+      <c r="AH4" s="114"/>
+      <c r="AI4" s="114"/>
+      <c r="AJ4" s="114"/>
+      <c r="AK4" s="114"/>
+      <c r="AL4" s="114"/>
+      <c r="AM4" s="114"/>
+      <c r="AN4" s="114"/>
+      <c r="AO4" s="114"/>
+      <c r="AP4" s="114"/>
+      <c r="AQ4" s="114"/>
+      <c r="AR4" s="114"/>
+      <c r="AS4" s="114"/>
+      <c r="AT4" s="114"/>
+      <c r="AU4" s="114"/>
+      <c r="AV4" s="114"/>
+      <c r="AW4" s="114"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="118">
+      <c r="B5" s="122">
         <v>1</v>
       </c>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="119">
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="123">
         <v>43721</v>
       </c>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="120" t="s">
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120" t="s">
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="117" t="s">
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="124"/>
+      <c r="S5" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="122" t="s">
+      <c r="T5" s="121"/>
+      <c r="U5" s="121"/>
+      <c r="V5" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="122"/>
-      <c r="AA5" s="122"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="122"/>
-      <c r="AD5" s="122"/>
-      <c r="AE5" s="122"/>
-      <c r="AF5" s="122"/>
-      <c r="AG5" s="122"/>
-      <c r="AH5" s="122"/>
-      <c r="AI5" s="122"/>
-      <c r="AJ5" s="122"/>
-      <c r="AK5" s="122"/>
-      <c r="AL5" s="122"/>
-      <c r="AM5" s="122"/>
-      <c r="AN5" s="117" t="s">
+      <c r="W5" s="126"/>
+      <c r="X5" s="126"/>
+      <c r="Y5" s="126"/>
+      <c r="Z5" s="126"/>
+      <c r="AA5" s="126"/>
+      <c r="AB5" s="126"/>
+      <c r="AC5" s="126"/>
+      <c r="AD5" s="126"/>
+      <c r="AE5" s="126"/>
+      <c r="AF5" s="126"/>
+      <c r="AG5" s="126"/>
+      <c r="AH5" s="126"/>
+      <c r="AI5" s="126"/>
+      <c r="AJ5" s="126"/>
+      <c r="AK5" s="126"/>
+      <c r="AL5" s="126"/>
+      <c r="AM5" s="126"/>
+      <c r="AN5" s="121" t="s">
         <v>102</v>
       </c>
-      <c r="AO5" s="117"/>
-      <c r="AP5" s="117"/>
-      <c r="AQ5" s="117"/>
-      <c r="AR5" s="117"/>
-      <c r="AS5" s="117"/>
-      <c r="AT5" s="117"/>
-      <c r="AU5" s="117"/>
-      <c r="AV5" s="117"/>
-      <c r="AW5" s="117"/>
+      <c r="AO5" s="121"/>
+      <c r="AP5" s="121"/>
+      <c r="AQ5" s="121"/>
+      <c r="AR5" s="121"/>
+      <c r="AS5" s="121"/>
+      <c r="AT5" s="121"/>
+      <c r="AU5" s="121"/>
+      <c r="AV5" s="121"/>
+      <c r="AW5" s="121"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="121"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="117"/>
-      <c r="T6" s="117"/>
-      <c r="U6" s="117"/>
-      <c r="V6" s="122"/>
-      <c r="W6" s="122"/>
-      <c r="X6" s="122"/>
-      <c r="Y6" s="122"/>
-      <c r="Z6" s="122"/>
-      <c r="AA6" s="122"/>
-      <c r="AB6" s="122"/>
-      <c r="AC6" s="122"/>
-      <c r="AD6" s="122"/>
-      <c r="AE6" s="122"/>
-      <c r="AF6" s="122"/>
-      <c r="AG6" s="122"/>
-      <c r="AH6" s="122"/>
-      <c r="AI6" s="122"/>
-      <c r="AJ6" s="122"/>
-      <c r="AK6" s="122"/>
-      <c r="AL6" s="122"/>
-      <c r="AM6" s="122"/>
-      <c r="AN6" s="117"/>
-      <c r="AO6" s="117"/>
-      <c r="AP6" s="117"/>
-      <c r="AQ6" s="117"/>
-      <c r="AR6" s="117"/>
-      <c r="AS6" s="117"/>
-      <c r="AT6" s="117"/>
-      <c r="AU6" s="117"/>
-      <c r="AV6" s="117"/>
-      <c r="AW6" s="117"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
+      <c r="U6" s="121"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="126"/>
+      <c r="AC6" s="126"/>
+      <c r="AD6" s="126"/>
+      <c r="AE6" s="126"/>
+      <c r="AF6" s="126"/>
+      <c r="AG6" s="126"/>
+      <c r="AH6" s="126"/>
+      <c r="AI6" s="126"/>
+      <c r="AJ6" s="126"/>
+      <c r="AK6" s="126"/>
+      <c r="AL6" s="126"/>
+      <c r="AM6" s="126"/>
+      <c r="AN6" s="121"/>
+      <c r="AO6" s="121"/>
+      <c r="AP6" s="121"/>
+      <c r="AQ6" s="121"/>
+      <c r="AR6" s="121"/>
+      <c r="AS6" s="121"/>
+      <c r="AT6" s="121"/>
+      <c r="AU6" s="121"/>
+      <c r="AV6" s="121"/>
+      <c r="AW6" s="121"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
-      <c r="S7" s="117"/>
-      <c r="T7" s="117"/>
-      <c r="U7" s="117"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="122"/>
-      <c r="AB7" s="122"/>
-      <c r="AC7" s="122"/>
-      <c r="AD7" s="122"/>
-      <c r="AE7" s="122"/>
-      <c r="AF7" s="122"/>
-      <c r="AG7" s="122"/>
-      <c r="AH7" s="122"/>
-      <c r="AI7" s="122"/>
-      <c r="AJ7" s="122"/>
-      <c r="AK7" s="122"/>
-      <c r="AL7" s="122"/>
-      <c r="AM7" s="122"/>
-      <c r="AN7" s="117"/>
-      <c r="AO7" s="117"/>
-      <c r="AP7" s="117"/>
-      <c r="AQ7" s="117"/>
-      <c r="AR7" s="117"/>
-      <c r="AS7" s="117"/>
-      <c r="AT7" s="117"/>
-      <c r="AU7" s="117"/>
-      <c r="AV7" s="117"/>
-      <c r="AW7" s="117"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="126"/>
+      <c r="AD7" s="126"/>
+      <c r="AE7" s="126"/>
+      <c r="AF7" s="126"/>
+      <c r="AG7" s="126"/>
+      <c r="AH7" s="126"/>
+      <c r="AI7" s="126"/>
+      <c r="AJ7" s="126"/>
+      <c r="AK7" s="126"/>
+      <c r="AL7" s="126"/>
+      <c r="AM7" s="126"/>
+      <c r="AN7" s="121"/>
+      <c r="AO7" s="121"/>
+      <c r="AP7" s="121"/>
+      <c r="AQ7" s="121"/>
+      <c r="AR7" s="121"/>
+      <c r="AS7" s="121"/>
+      <c r="AT7" s="121"/>
+      <c r="AU7" s="121"/>
+      <c r="AV7" s="121"/>
+      <c r="AW7" s="121"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="121"/>
-      <c r="Q8" s="121"/>
-      <c r="R8" s="121"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="117"/>
-      <c r="U8" s="117"/>
-      <c r="V8" s="122"/>
-      <c r="W8" s="122"/>
-      <c r="X8" s="122"/>
-      <c r="Y8" s="122"/>
-      <c r="Z8" s="122"/>
-      <c r="AA8" s="122"/>
-      <c r="AB8" s="122"/>
-      <c r="AC8" s="122"/>
-      <c r="AD8" s="122"/>
-      <c r="AE8" s="122"/>
-      <c r="AF8" s="122"/>
-      <c r="AG8" s="122"/>
-      <c r="AH8" s="122"/>
-      <c r="AI8" s="122"/>
-      <c r="AJ8" s="122"/>
-      <c r="AK8" s="122"/>
-      <c r="AL8" s="122"/>
-      <c r="AM8" s="122"/>
-      <c r="AN8" s="117"/>
-      <c r="AO8" s="117"/>
-      <c r="AP8" s="117"/>
-      <c r="AQ8" s="117"/>
-      <c r="AR8" s="117"/>
-      <c r="AS8" s="117"/>
-      <c r="AT8" s="117"/>
-      <c r="AU8" s="117"/>
-      <c r="AV8" s="117"/>
-      <c r="AW8" s="117"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="125"/>
+      <c r="R8" s="125"/>
+      <c r="S8" s="121"/>
+      <c r="T8" s="121"/>
+      <c r="U8" s="121"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="126"/>
+      <c r="X8" s="126"/>
+      <c r="Y8" s="126"/>
+      <c r="Z8" s="126"/>
+      <c r="AA8" s="126"/>
+      <c r="AB8" s="126"/>
+      <c r="AC8" s="126"/>
+      <c r="AD8" s="126"/>
+      <c r="AE8" s="126"/>
+      <c r="AF8" s="126"/>
+      <c r="AG8" s="126"/>
+      <c r="AH8" s="126"/>
+      <c r="AI8" s="126"/>
+      <c r="AJ8" s="126"/>
+      <c r="AK8" s="126"/>
+      <c r="AL8" s="126"/>
+      <c r="AM8" s="126"/>
+      <c r="AN8" s="121"/>
+      <c r="AO8" s="121"/>
+      <c r="AP8" s="121"/>
+      <c r="AQ8" s="121"/>
+      <c r="AR8" s="121"/>
+      <c r="AS8" s="121"/>
+      <c r="AT8" s="121"/>
+      <c r="AU8" s="121"/>
+      <c r="AV8" s="121"/>
+      <c r="AW8" s="121"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="121"/>
-      <c r="P9" s="121"/>
-      <c r="Q9" s="121"/>
-      <c r="R9" s="121"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="117"/>
-      <c r="V9" s="122"/>
-      <c r="W9" s="122"/>
-      <c r="X9" s="122"/>
-      <c r="Y9" s="122"/>
-      <c r="Z9" s="122"/>
-      <c r="AA9" s="122"/>
-      <c r="AB9" s="122"/>
-      <c r="AC9" s="122"/>
-      <c r="AD9" s="122"/>
-      <c r="AE9" s="122"/>
-      <c r="AF9" s="122"/>
-      <c r="AG9" s="122"/>
-      <c r="AH9" s="122"/>
-      <c r="AI9" s="122"/>
-      <c r="AJ9" s="122"/>
-      <c r="AK9" s="122"/>
-      <c r="AL9" s="122"/>
-      <c r="AM9" s="122"/>
-      <c r="AN9" s="117"/>
-      <c r="AO9" s="117"/>
-      <c r="AP9" s="117"/>
-      <c r="AQ9" s="117"/>
-      <c r="AR9" s="117"/>
-      <c r="AS9" s="117"/>
-      <c r="AT9" s="117"/>
-      <c r="AU9" s="117"/>
-      <c r="AV9" s="117"/>
-      <c r="AW9" s="117"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="125"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="125"/>
+      <c r="R9" s="125"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="121"/>
+      <c r="V9" s="126"/>
+      <c r="W9" s="126"/>
+      <c r="X9" s="126"/>
+      <c r="Y9" s="126"/>
+      <c r="Z9" s="126"/>
+      <c r="AA9" s="126"/>
+      <c r="AB9" s="126"/>
+      <c r="AC9" s="126"/>
+      <c r="AD9" s="126"/>
+      <c r="AE9" s="126"/>
+      <c r="AF9" s="126"/>
+      <c r="AG9" s="126"/>
+      <c r="AH9" s="126"/>
+      <c r="AI9" s="126"/>
+      <c r="AJ9" s="126"/>
+      <c r="AK9" s="126"/>
+      <c r="AL9" s="126"/>
+      <c r="AM9" s="126"/>
+      <c r="AN9" s="121"/>
+      <c r="AO9" s="121"/>
+      <c r="AP9" s="121"/>
+      <c r="AQ9" s="121"/>
+      <c r="AR9" s="121"/>
+      <c r="AS9" s="121"/>
+      <c r="AT9" s="121"/>
+      <c r="AU9" s="121"/>
+      <c r="AV9" s="121"/>
+      <c r="AW9" s="121"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="121"/>
-      <c r="Q10" s="121"/>
-      <c r="R10" s="121"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="122"/>
-      <c r="W10" s="122"/>
-      <c r="X10" s="122"/>
-      <c r="Y10" s="122"/>
-      <c r="Z10" s="122"/>
-      <c r="AA10" s="122"/>
-      <c r="AB10" s="122"/>
-      <c r="AC10" s="122"/>
-      <c r="AD10" s="122"/>
-      <c r="AE10" s="122"/>
-      <c r="AF10" s="122"/>
-      <c r="AG10" s="122"/>
-      <c r="AH10" s="122"/>
-      <c r="AI10" s="122"/>
-      <c r="AJ10" s="122"/>
-      <c r="AK10" s="122"/>
-      <c r="AL10" s="122"/>
-      <c r="AM10" s="122"/>
-      <c r="AN10" s="117"/>
-      <c r="AO10" s="117"/>
-      <c r="AP10" s="117"/>
-      <c r="AQ10" s="117"/>
-      <c r="AR10" s="117"/>
-      <c r="AS10" s="117"/>
-      <c r="AT10" s="117"/>
-      <c r="AU10" s="117"/>
-      <c r="AV10" s="117"/>
-      <c r="AW10" s="117"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="121"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="126"/>
+      <c r="Z10" s="126"/>
+      <c r="AA10" s="126"/>
+      <c r="AB10" s="126"/>
+      <c r="AC10" s="126"/>
+      <c r="AD10" s="126"/>
+      <c r="AE10" s="126"/>
+      <c r="AF10" s="126"/>
+      <c r="AG10" s="126"/>
+      <c r="AH10" s="126"/>
+      <c r="AI10" s="126"/>
+      <c r="AJ10" s="126"/>
+      <c r="AK10" s="126"/>
+      <c r="AL10" s="126"/>
+      <c r="AM10" s="126"/>
+      <c r="AN10" s="121"/>
+      <c r="AO10" s="121"/>
+      <c r="AP10" s="121"/>
+      <c r="AQ10" s="121"/>
+      <c r="AR10" s="121"/>
+      <c r="AS10" s="121"/>
+      <c r="AT10" s="121"/>
+      <c r="AU10" s="121"/>
+      <c r="AV10" s="121"/>
+      <c r="AW10" s="121"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="123"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="123"/>
-      <c r="P11" s="123"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="117"/>
-      <c r="T11" s="117"/>
-      <c r="U11" s="117"/>
-      <c r="V11" s="124"/>
-      <c r="W11" s="125"/>
-      <c r="X11" s="125"/>
-      <c r="Y11" s="125"/>
-      <c r="Z11" s="125"/>
-      <c r="AA11" s="125"/>
-      <c r="AB11" s="125"/>
-      <c r="AC11" s="125"/>
-      <c r="AD11" s="125"/>
-      <c r="AE11" s="125"/>
-      <c r="AF11" s="125"/>
-      <c r="AG11" s="125"/>
-      <c r="AH11" s="125"/>
-      <c r="AI11" s="125"/>
-      <c r="AJ11" s="125"/>
-      <c r="AK11" s="125"/>
-      <c r="AL11" s="125"/>
-      <c r="AM11" s="125"/>
-      <c r="AN11" s="117"/>
-      <c r="AO11" s="117"/>
-      <c r="AP11" s="117"/>
-      <c r="AQ11" s="117"/>
-      <c r="AR11" s="117"/>
-      <c r="AS11" s="117"/>
-      <c r="AT11" s="117"/>
-      <c r="AU11" s="117"/>
-      <c r="AV11" s="117"/>
-      <c r="AW11" s="117"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="127"/>
+      <c r="N11" s="127"/>
+      <c r="O11" s="127"/>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="127"/>
+      <c r="R11" s="127"/>
+      <c r="S11" s="121"/>
+      <c r="T11" s="121"/>
+      <c r="U11" s="121"/>
+      <c r="V11" s="128"/>
+      <c r="W11" s="129"/>
+      <c r="X11" s="129"/>
+      <c r="Y11" s="129"/>
+      <c r="Z11" s="129"/>
+      <c r="AA11" s="129"/>
+      <c r="AB11" s="129"/>
+      <c r="AC11" s="129"/>
+      <c r="AD11" s="129"/>
+      <c r="AE11" s="129"/>
+      <c r="AF11" s="129"/>
+      <c r="AG11" s="129"/>
+      <c r="AH11" s="129"/>
+      <c r="AI11" s="129"/>
+      <c r="AJ11" s="129"/>
+      <c r="AK11" s="129"/>
+      <c r="AL11" s="129"/>
+      <c r="AM11" s="129"/>
+      <c r="AN11" s="121"/>
+      <c r="AO11" s="121"/>
+      <c r="AP11" s="121"/>
+      <c r="AQ11" s="121"/>
+      <c r="AR11" s="121"/>
+      <c r="AS11" s="121"/>
+      <c r="AT11" s="121"/>
+      <c r="AU11" s="121"/>
+      <c r="AV11" s="121"/>
+      <c r="AW11" s="121"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="123"/>
-      <c r="S12" s="117"/>
-      <c r="T12" s="117"/>
-      <c r="U12" s="117"/>
-      <c r="V12" s="124"/>
-      <c r="W12" s="124"/>
-      <c r="X12" s="124"/>
-      <c r="Y12" s="124"/>
-      <c r="Z12" s="124"/>
-      <c r="AA12" s="124"/>
-      <c r="AB12" s="124"/>
-      <c r="AC12" s="124"/>
-      <c r="AD12" s="124"/>
-      <c r="AE12" s="124"/>
-      <c r="AF12" s="124"/>
-      <c r="AG12" s="124"/>
-      <c r="AH12" s="124"/>
-      <c r="AI12" s="124"/>
-      <c r="AJ12" s="124"/>
-      <c r="AK12" s="124"/>
-      <c r="AL12" s="124"/>
-      <c r="AM12" s="124"/>
-      <c r="AN12" s="117"/>
-      <c r="AO12" s="117"/>
-      <c r="AP12" s="117"/>
-      <c r="AQ12" s="117"/>
-      <c r="AR12" s="117"/>
-      <c r="AS12" s="117"/>
-      <c r="AT12" s="117"/>
-      <c r="AU12" s="117"/>
-      <c r="AV12" s="117"/>
-      <c r="AW12" s="117"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="127"/>
+      <c r="O12" s="127"/>
+      <c r="P12" s="127"/>
+      <c r="Q12" s="127"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="121"/>
+      <c r="T12" s="121"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="128"/>
+      <c r="W12" s="128"/>
+      <c r="X12" s="128"/>
+      <c r="Y12" s="128"/>
+      <c r="Z12" s="128"/>
+      <c r="AA12" s="128"/>
+      <c r="AB12" s="128"/>
+      <c r="AC12" s="128"/>
+      <c r="AD12" s="128"/>
+      <c r="AE12" s="128"/>
+      <c r="AF12" s="128"/>
+      <c r="AG12" s="128"/>
+      <c r="AH12" s="128"/>
+      <c r="AI12" s="128"/>
+      <c r="AJ12" s="128"/>
+      <c r="AK12" s="128"/>
+      <c r="AL12" s="128"/>
+      <c r="AM12" s="128"/>
+      <c r="AN12" s="121"/>
+      <c r="AO12" s="121"/>
+      <c r="AP12" s="121"/>
+      <c r="AQ12" s="121"/>
+      <c r="AR12" s="121"/>
+      <c r="AS12" s="121"/>
+      <c r="AT12" s="121"/>
+      <c r="AU12" s="121"/>
+      <c r="AV12" s="121"/>
+      <c r="AW12" s="121"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="117"/>
-      <c r="T13" s="117"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="124"/>
-      <c r="W13" s="124"/>
-      <c r="X13" s="124"/>
-      <c r="Y13" s="124"/>
-      <c r="Z13" s="124"/>
-      <c r="AA13" s="124"/>
-      <c r="AB13" s="124"/>
-      <c r="AC13" s="124"/>
-      <c r="AD13" s="124"/>
-      <c r="AE13" s="124"/>
-      <c r="AF13" s="124"/>
-      <c r="AG13" s="124"/>
-      <c r="AH13" s="124"/>
-      <c r="AI13" s="124"/>
-      <c r="AJ13" s="124"/>
-      <c r="AK13" s="124"/>
-      <c r="AL13" s="124"/>
-      <c r="AM13" s="124"/>
-      <c r="AN13" s="117"/>
-      <c r="AO13" s="117"/>
-      <c r="AP13" s="117"/>
-      <c r="AQ13" s="117"/>
-      <c r="AR13" s="117"/>
-      <c r="AS13" s="117"/>
-      <c r="AT13" s="117"/>
-      <c r="AU13" s="117"/>
-      <c r="AV13" s="117"/>
-      <c r="AW13" s="117"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="130"/>
+      <c r="N13" s="127"/>
+      <c r="O13" s="127"/>
+      <c r="P13" s="127"/>
+      <c r="Q13" s="127"/>
+      <c r="R13" s="127"/>
+      <c r="S13" s="121"/>
+      <c r="T13" s="121"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="128"/>
+      <c r="W13" s="128"/>
+      <c r="X13" s="128"/>
+      <c r="Y13" s="128"/>
+      <c r="Z13" s="128"/>
+      <c r="AA13" s="128"/>
+      <c r="AB13" s="128"/>
+      <c r="AC13" s="128"/>
+      <c r="AD13" s="128"/>
+      <c r="AE13" s="128"/>
+      <c r="AF13" s="128"/>
+      <c r="AG13" s="128"/>
+      <c r="AH13" s="128"/>
+      <c r="AI13" s="128"/>
+      <c r="AJ13" s="128"/>
+      <c r="AK13" s="128"/>
+      <c r="AL13" s="128"/>
+      <c r="AM13" s="128"/>
+      <c r="AN13" s="121"/>
+      <c r="AO13" s="121"/>
+      <c r="AP13" s="121"/>
+      <c r="AQ13" s="121"/>
+      <c r="AR13" s="121"/>
+      <c r="AS13" s="121"/>
+      <c r="AT13" s="121"/>
+      <c r="AU13" s="121"/>
+      <c r="AV13" s="121"/>
+      <c r="AW13" s="121"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="123"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="123"/>
-      <c r="S14" s="117"/>
-      <c r="T14" s="117"/>
-      <c r="U14" s="117"/>
-      <c r="V14" s="127"/>
-      <c r="W14" s="122"/>
-      <c r="X14" s="122"/>
-      <c r="Y14" s="122"/>
-      <c r="Z14" s="122"/>
-      <c r="AA14" s="122"/>
-      <c r="AB14" s="122"/>
-      <c r="AC14" s="122"/>
-      <c r="AD14" s="122"/>
-      <c r="AE14" s="122"/>
-      <c r="AF14" s="122"/>
-      <c r="AG14" s="122"/>
-      <c r="AH14" s="122"/>
-      <c r="AI14" s="122"/>
-      <c r="AJ14" s="122"/>
-      <c r="AK14" s="122"/>
-      <c r="AL14" s="122"/>
-      <c r="AM14" s="122"/>
-      <c r="AN14" s="117"/>
-      <c r="AO14" s="117"/>
-      <c r="AP14" s="117"/>
-      <c r="AQ14" s="117"/>
-      <c r="AR14" s="117"/>
-      <c r="AS14" s="117"/>
-      <c r="AT14" s="117"/>
-      <c r="AU14" s="117"/>
-      <c r="AV14" s="117"/>
-      <c r="AW14" s="117"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="127"/>
+      <c r="O14" s="127"/>
+      <c r="P14" s="127"/>
+      <c r="Q14" s="127"/>
+      <c r="R14" s="127"/>
+      <c r="S14" s="121"/>
+      <c r="T14" s="121"/>
+      <c r="U14" s="121"/>
+      <c r="V14" s="131"/>
+      <c r="W14" s="126"/>
+      <c r="X14" s="126"/>
+      <c r="Y14" s="126"/>
+      <c r="Z14" s="126"/>
+      <c r="AA14" s="126"/>
+      <c r="AB14" s="126"/>
+      <c r="AC14" s="126"/>
+      <c r="AD14" s="126"/>
+      <c r="AE14" s="126"/>
+      <c r="AF14" s="126"/>
+      <c r="AG14" s="126"/>
+      <c r="AH14" s="126"/>
+      <c r="AI14" s="126"/>
+      <c r="AJ14" s="126"/>
+      <c r="AK14" s="126"/>
+      <c r="AL14" s="126"/>
+      <c r="AM14" s="126"/>
+      <c r="AN14" s="121"/>
+      <c r="AO14" s="121"/>
+      <c r="AP14" s="121"/>
+      <c r="AQ14" s="121"/>
+      <c r="AR14" s="121"/>
+      <c r="AS14" s="121"/>
+      <c r="AT14" s="121"/>
+      <c r="AU14" s="121"/>
+      <c r="AV14" s="121"/>
+      <c r="AW14" s="121"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="118"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="123"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="123"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="117"/>
-      <c r="T15" s="117"/>
-      <c r="U15" s="117"/>
-      <c r="V15" s="124"/>
-      <c r="W15" s="124"/>
-      <c r="X15" s="124"/>
-      <c r="Y15" s="124"/>
-      <c r="Z15" s="124"/>
-      <c r="AA15" s="124"/>
-      <c r="AB15" s="124"/>
-      <c r="AC15" s="124"/>
-      <c r="AD15" s="124"/>
-      <c r="AE15" s="124"/>
-      <c r="AF15" s="124"/>
-      <c r="AG15" s="124"/>
-      <c r="AH15" s="124"/>
-      <c r="AI15" s="124"/>
-      <c r="AJ15" s="124"/>
-      <c r="AK15" s="124"/>
-      <c r="AL15" s="124"/>
-      <c r="AM15" s="124"/>
-      <c r="AN15" s="117"/>
-      <c r="AO15" s="117"/>
-      <c r="AP15" s="117"/>
-      <c r="AQ15" s="117"/>
-      <c r="AR15" s="117"/>
-      <c r="AS15" s="117"/>
-      <c r="AT15" s="117"/>
-      <c r="AU15" s="117"/>
-      <c r="AV15" s="117"/>
-      <c r="AW15" s="117"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="127"/>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="121"/>
+      <c r="T15" s="121"/>
+      <c r="U15" s="121"/>
+      <c r="V15" s="128"/>
+      <c r="W15" s="128"/>
+      <c r="X15" s="128"/>
+      <c r="Y15" s="128"/>
+      <c r="Z15" s="128"/>
+      <c r="AA15" s="128"/>
+      <c r="AB15" s="128"/>
+      <c r="AC15" s="128"/>
+      <c r="AD15" s="128"/>
+      <c r="AE15" s="128"/>
+      <c r="AF15" s="128"/>
+      <c r="AG15" s="128"/>
+      <c r="AH15" s="128"/>
+      <c r="AI15" s="128"/>
+      <c r="AJ15" s="128"/>
+      <c r="AK15" s="128"/>
+      <c r="AL15" s="128"/>
+      <c r="AM15" s="128"/>
+      <c r="AN15" s="121"/>
+      <c r="AO15" s="121"/>
+      <c r="AP15" s="121"/>
+      <c r="AQ15" s="121"/>
+      <c r="AR15" s="121"/>
+      <c r="AS15" s="121"/>
+      <c r="AT15" s="121"/>
+      <c r="AU15" s="121"/>
+      <c r="AV15" s="121"/>
+      <c r="AW15" s="121"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="117"/>
-      <c r="T16" s="117"/>
-      <c r="U16" s="117"/>
-      <c r="V16" s="124"/>
-      <c r="W16" s="124"/>
-      <c r="X16" s="124"/>
-      <c r="Y16" s="124"/>
-      <c r="Z16" s="124"/>
-      <c r="AA16" s="124"/>
-      <c r="AB16" s="124"/>
-      <c r="AC16" s="124"/>
-      <c r="AD16" s="124"/>
-      <c r="AE16" s="124"/>
-      <c r="AF16" s="124"/>
-      <c r="AG16" s="124"/>
-      <c r="AH16" s="124"/>
-      <c r="AI16" s="124"/>
-      <c r="AJ16" s="124"/>
-      <c r="AK16" s="124"/>
-      <c r="AL16" s="124"/>
-      <c r="AM16" s="124"/>
-      <c r="AN16" s="117"/>
-      <c r="AO16" s="117"/>
-      <c r="AP16" s="117"/>
-      <c r="AQ16" s="117"/>
-      <c r="AR16" s="117"/>
-      <c r="AS16" s="117"/>
-      <c r="AT16" s="117"/>
-      <c r="AU16" s="117"/>
-      <c r="AV16" s="117"/>
-      <c r="AW16" s="117"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="121"/>
+      <c r="T16" s="121"/>
+      <c r="U16" s="121"/>
+      <c r="V16" s="128"/>
+      <c r="W16" s="128"/>
+      <c r="X16" s="128"/>
+      <c r="Y16" s="128"/>
+      <c r="Z16" s="128"/>
+      <c r="AA16" s="128"/>
+      <c r="AB16" s="128"/>
+      <c r="AC16" s="128"/>
+      <c r="AD16" s="128"/>
+      <c r="AE16" s="128"/>
+      <c r="AF16" s="128"/>
+      <c r="AG16" s="128"/>
+      <c r="AH16" s="128"/>
+      <c r="AI16" s="128"/>
+      <c r="AJ16" s="128"/>
+      <c r="AK16" s="128"/>
+      <c r="AL16" s="128"/>
+      <c r="AM16" s="128"/>
+      <c r="AN16" s="121"/>
+      <c r="AO16" s="121"/>
+      <c r="AP16" s="121"/>
+      <c r="AQ16" s="121"/>
+      <c r="AR16" s="121"/>
+      <c r="AS16" s="121"/>
+      <c r="AT16" s="121"/>
+      <c r="AU16" s="121"/>
+      <c r="AV16" s="121"/>
+      <c r="AW16" s="121"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="118"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="128"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="129"/>
-      <c r="U17" s="129"/>
-      <c r="V17" s="124"/>
-      <c r="W17" s="124"/>
-      <c r="X17" s="124"/>
-      <c r="Y17" s="124"/>
-      <c r="Z17" s="124"/>
-      <c r="AA17" s="124"/>
-      <c r="AB17" s="124"/>
-      <c r="AC17" s="124"/>
-      <c r="AD17" s="124"/>
-      <c r="AE17" s="124"/>
-      <c r="AF17" s="124"/>
-      <c r="AG17" s="124"/>
-      <c r="AH17" s="124"/>
-      <c r="AI17" s="124"/>
-      <c r="AJ17" s="124"/>
-      <c r="AK17" s="124"/>
-      <c r="AL17" s="124"/>
-      <c r="AM17" s="124"/>
-      <c r="AN17" s="117"/>
-      <c r="AO17" s="117"/>
-      <c r="AP17" s="117"/>
-      <c r="AQ17" s="117"/>
-      <c r="AR17" s="117"/>
-      <c r="AS17" s="117"/>
-      <c r="AT17" s="117"/>
-      <c r="AU17" s="117"/>
-      <c r="AV17" s="117"/>
-      <c r="AW17" s="117"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="132"/>
+      <c r="S17" s="133"/>
+      <c r="T17" s="133"/>
+      <c r="U17" s="133"/>
+      <c r="V17" s="128"/>
+      <c r="W17" s="128"/>
+      <c r="X17" s="128"/>
+      <c r="Y17" s="128"/>
+      <c r="Z17" s="128"/>
+      <c r="AA17" s="128"/>
+      <c r="AB17" s="128"/>
+      <c r="AC17" s="128"/>
+      <c r="AD17" s="128"/>
+      <c r="AE17" s="128"/>
+      <c r="AF17" s="128"/>
+      <c r="AG17" s="128"/>
+      <c r="AH17" s="128"/>
+      <c r="AI17" s="128"/>
+      <c r="AJ17" s="128"/>
+      <c r="AK17" s="128"/>
+      <c r="AL17" s="128"/>
+      <c r="AM17" s="128"/>
+      <c r="AN17" s="121"/>
+      <c r="AO17" s="121"/>
+      <c r="AP17" s="121"/>
+      <c r="AQ17" s="121"/>
+      <c r="AR17" s="121"/>
+      <c r="AS17" s="121"/>
+      <c r="AT17" s="121"/>
+      <c r="AU17" s="121"/>
+      <c r="AV17" s="121"/>
+      <c r="AW17" s="121"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="126"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="123"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="123"/>
-      <c r="S18" s="117"/>
-      <c r="T18" s="117"/>
-      <c r="U18" s="117"/>
-      <c r="V18" s="124"/>
-      <c r="W18" s="124"/>
-      <c r="X18" s="124"/>
-      <c r="Y18" s="124"/>
-      <c r="Z18" s="124"/>
-      <c r="AA18" s="124"/>
-      <c r="AB18" s="124"/>
-      <c r="AC18" s="124"/>
-      <c r="AD18" s="124"/>
-      <c r="AE18" s="124"/>
-      <c r="AF18" s="124"/>
-      <c r="AG18" s="124"/>
-      <c r="AH18" s="124"/>
-      <c r="AI18" s="124"/>
-      <c r="AJ18" s="124"/>
-      <c r="AK18" s="124"/>
-      <c r="AL18" s="124"/>
-      <c r="AM18" s="124"/>
-      <c r="AN18" s="117"/>
-      <c r="AO18" s="117"/>
-      <c r="AP18" s="117"/>
-      <c r="AQ18" s="117"/>
-      <c r="AR18" s="117"/>
-      <c r="AS18" s="117"/>
-      <c r="AT18" s="117"/>
-      <c r="AU18" s="117"/>
-      <c r="AV18" s="117"/>
-      <c r="AW18" s="117"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="127"/>
+      <c r="O18" s="127"/>
+      <c r="P18" s="127"/>
+      <c r="Q18" s="127"/>
+      <c r="R18" s="127"/>
+      <c r="S18" s="121"/>
+      <c r="T18" s="121"/>
+      <c r="U18" s="121"/>
+      <c r="V18" s="128"/>
+      <c r="W18" s="128"/>
+      <c r="X18" s="128"/>
+      <c r="Y18" s="128"/>
+      <c r="Z18" s="128"/>
+      <c r="AA18" s="128"/>
+      <c r="AB18" s="128"/>
+      <c r="AC18" s="128"/>
+      <c r="AD18" s="128"/>
+      <c r="AE18" s="128"/>
+      <c r="AF18" s="128"/>
+      <c r="AG18" s="128"/>
+      <c r="AH18" s="128"/>
+      <c r="AI18" s="128"/>
+      <c r="AJ18" s="128"/>
+      <c r="AK18" s="128"/>
+      <c r="AL18" s="128"/>
+      <c r="AM18" s="128"/>
+      <c r="AN18" s="121"/>
+      <c r="AO18" s="121"/>
+      <c r="AP18" s="121"/>
+      <c r="AQ18" s="121"/>
+      <c r="AR18" s="121"/>
+      <c r="AS18" s="121"/>
+      <c r="AT18" s="121"/>
+      <c r="AU18" s="121"/>
+      <c r="AV18" s="121"/>
+      <c r="AW18" s="121"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="123"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="123"/>
-      <c r="R19" s="123"/>
-      <c r="S19" s="117"/>
-      <c r="T19" s="117"/>
-      <c r="U19" s="117"/>
-      <c r="V19" s="124"/>
-      <c r="W19" s="124"/>
-      <c r="X19" s="124"/>
-      <c r="Y19" s="124"/>
-      <c r="Z19" s="124"/>
-      <c r="AA19" s="124"/>
-      <c r="AB19" s="124"/>
-      <c r="AC19" s="124"/>
-      <c r="AD19" s="124"/>
-      <c r="AE19" s="124"/>
-      <c r="AF19" s="124"/>
-      <c r="AG19" s="124"/>
-      <c r="AH19" s="124"/>
-      <c r="AI19" s="124"/>
-      <c r="AJ19" s="124"/>
-      <c r="AK19" s="124"/>
-      <c r="AL19" s="124"/>
-      <c r="AM19" s="124"/>
-      <c r="AN19" s="117"/>
-      <c r="AO19" s="117"/>
-      <c r="AP19" s="117"/>
-      <c r="AQ19" s="117"/>
-      <c r="AR19" s="117"/>
-      <c r="AS19" s="117"/>
-      <c r="AT19" s="117"/>
-      <c r="AU19" s="117"/>
-      <c r="AV19" s="117"/>
-      <c r="AW19" s="117"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="127"/>
+      <c r="O19" s="127"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="127"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="121"/>
+      <c r="T19" s="121"/>
+      <c r="U19" s="121"/>
+      <c r="V19" s="128"/>
+      <c r="W19" s="128"/>
+      <c r="X19" s="128"/>
+      <c r="Y19" s="128"/>
+      <c r="Z19" s="128"/>
+      <c r="AA19" s="128"/>
+      <c r="AB19" s="128"/>
+      <c r="AC19" s="128"/>
+      <c r="AD19" s="128"/>
+      <c r="AE19" s="128"/>
+      <c r="AF19" s="128"/>
+      <c r="AG19" s="128"/>
+      <c r="AH19" s="128"/>
+      <c r="AI19" s="128"/>
+      <c r="AJ19" s="128"/>
+      <c r="AK19" s="128"/>
+      <c r="AL19" s="128"/>
+      <c r="AM19" s="128"/>
+      <c r="AN19" s="121"/>
+      <c r="AO19" s="121"/>
+      <c r="AP19" s="121"/>
+      <c r="AQ19" s="121"/>
+      <c r="AR19" s="121"/>
+      <c r="AS19" s="121"/>
+      <c r="AT19" s="121"/>
+      <c r="AU19" s="121"/>
+      <c r="AV19" s="121"/>
+      <c r="AW19" s="121"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="117"/>
-      <c r="T20" s="117"/>
-      <c r="U20" s="117"/>
-      <c r="V20" s="124"/>
-      <c r="W20" s="124"/>
-      <c r="X20" s="124"/>
-      <c r="Y20" s="124"/>
-      <c r="Z20" s="124"/>
-      <c r="AA20" s="124"/>
-      <c r="AB20" s="124"/>
-      <c r="AC20" s="124"/>
-      <c r="AD20" s="124"/>
-      <c r="AE20" s="124"/>
-      <c r="AF20" s="124"/>
-      <c r="AG20" s="124"/>
-      <c r="AH20" s="124"/>
-      <c r="AI20" s="124"/>
-      <c r="AJ20" s="124"/>
-      <c r="AK20" s="124"/>
-      <c r="AL20" s="124"/>
-      <c r="AM20" s="124"/>
-      <c r="AN20" s="117"/>
-      <c r="AO20" s="117"/>
-      <c r="AP20" s="117"/>
-      <c r="AQ20" s="117"/>
-      <c r="AR20" s="117"/>
-      <c r="AS20" s="117"/>
-      <c r="AT20" s="117"/>
-      <c r="AU20" s="117"/>
-      <c r="AV20" s="117"/>
-      <c r="AW20" s="117"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="127"/>
+      <c r="N20" s="127"/>
+      <c r="O20" s="127"/>
+      <c r="P20" s="127"/>
+      <c r="Q20" s="127"/>
+      <c r="R20" s="127"/>
+      <c r="S20" s="121"/>
+      <c r="T20" s="121"/>
+      <c r="U20" s="121"/>
+      <c r="V20" s="128"/>
+      <c r="W20" s="128"/>
+      <c r="X20" s="128"/>
+      <c r="Y20" s="128"/>
+      <c r="Z20" s="128"/>
+      <c r="AA20" s="128"/>
+      <c r="AB20" s="128"/>
+      <c r="AC20" s="128"/>
+      <c r="AD20" s="128"/>
+      <c r="AE20" s="128"/>
+      <c r="AF20" s="128"/>
+      <c r="AG20" s="128"/>
+      <c r="AH20" s="128"/>
+      <c r="AI20" s="128"/>
+      <c r="AJ20" s="128"/>
+      <c r="AK20" s="128"/>
+      <c r="AL20" s="128"/>
+      <c r="AM20" s="128"/>
+      <c r="AN20" s="121"/>
+      <c r="AO20" s="121"/>
+      <c r="AP20" s="121"/>
+      <c r="AQ20" s="121"/>
+      <c r="AR20" s="121"/>
+      <c r="AS20" s="121"/>
+      <c r="AT20" s="121"/>
+      <c r="AU20" s="121"/>
+      <c r="AV20" s="121"/>
+      <c r="AW20" s="121"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="123"/>
-      <c r="S21" s="117"/>
-      <c r="T21" s="117"/>
-      <c r="U21" s="117"/>
-      <c r="V21" s="124"/>
-      <c r="W21" s="124"/>
-      <c r="X21" s="124"/>
-      <c r="Y21" s="124"/>
-      <c r="Z21" s="124"/>
-      <c r="AA21" s="124"/>
-      <c r="AB21" s="124"/>
-      <c r="AC21" s="124"/>
-      <c r="AD21" s="124"/>
-      <c r="AE21" s="124"/>
-      <c r="AF21" s="124"/>
-      <c r="AG21" s="124"/>
-      <c r="AH21" s="124"/>
-      <c r="AI21" s="124"/>
-      <c r="AJ21" s="124"/>
-      <c r="AK21" s="124"/>
-      <c r="AL21" s="124"/>
-      <c r="AM21" s="124"/>
-      <c r="AN21" s="117"/>
-      <c r="AO21" s="117"/>
-      <c r="AP21" s="117"/>
-      <c r="AQ21" s="117"/>
-      <c r="AR21" s="117"/>
-      <c r="AS21" s="117"/>
-      <c r="AT21" s="117"/>
-      <c r="AU21" s="117"/>
-      <c r="AV21" s="117"/>
-      <c r="AW21" s="117"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="127"/>
+      <c r="N21" s="127"/>
+      <c r="O21" s="127"/>
+      <c r="P21" s="127"/>
+      <c r="Q21" s="127"/>
+      <c r="R21" s="127"/>
+      <c r="S21" s="121"/>
+      <c r="T21" s="121"/>
+      <c r="U21" s="121"/>
+      <c r="V21" s="128"/>
+      <c r="W21" s="128"/>
+      <c r="X21" s="128"/>
+      <c r="Y21" s="128"/>
+      <c r="Z21" s="128"/>
+      <c r="AA21" s="128"/>
+      <c r="AB21" s="128"/>
+      <c r="AC21" s="128"/>
+      <c r="AD21" s="128"/>
+      <c r="AE21" s="128"/>
+      <c r="AF21" s="128"/>
+      <c r="AG21" s="128"/>
+      <c r="AH21" s="128"/>
+      <c r="AI21" s="128"/>
+      <c r="AJ21" s="128"/>
+      <c r="AK21" s="128"/>
+      <c r="AL21" s="128"/>
+      <c r="AM21" s="128"/>
+      <c r="AN21" s="121"/>
+      <c r="AO21" s="121"/>
+      <c r="AP21" s="121"/>
+      <c r="AQ21" s="121"/>
+      <c r="AR21" s="121"/>
+      <c r="AS21" s="121"/>
+      <c r="AT21" s="121"/>
+      <c r="AU21" s="121"/>
+      <c r="AV21" s="121"/>
+      <c r="AW21" s="121"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="123"/>
-      <c r="N22" s="123"/>
-      <c r="O22" s="123"/>
-      <c r="P22" s="123"/>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="123"/>
-      <c r="S22" s="117"/>
-      <c r="T22" s="117"/>
-      <c r="U22" s="117"/>
-      <c r="V22" s="124"/>
-      <c r="W22" s="124"/>
-      <c r="X22" s="124"/>
-      <c r="Y22" s="124"/>
-      <c r="Z22" s="124"/>
-      <c r="AA22" s="124"/>
-      <c r="AB22" s="124"/>
-      <c r="AC22" s="124"/>
-      <c r="AD22" s="124"/>
-      <c r="AE22" s="124"/>
-      <c r="AF22" s="124"/>
-      <c r="AG22" s="124"/>
-      <c r="AH22" s="124"/>
-      <c r="AI22" s="124"/>
-      <c r="AJ22" s="124"/>
-      <c r="AK22" s="124"/>
-      <c r="AL22" s="124"/>
-      <c r="AM22" s="124"/>
-      <c r="AN22" s="117"/>
-      <c r="AO22" s="117"/>
-      <c r="AP22" s="117"/>
-      <c r="AQ22" s="117"/>
-      <c r="AR22" s="117"/>
-      <c r="AS22" s="117"/>
-      <c r="AT22" s="117"/>
-      <c r="AU22" s="117"/>
-      <c r="AV22" s="117"/>
-      <c r="AW22" s="117"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="127"/>
+      <c r="N22" s="127"/>
+      <c r="O22" s="127"/>
+      <c r="P22" s="127"/>
+      <c r="Q22" s="127"/>
+      <c r="R22" s="127"/>
+      <c r="S22" s="121"/>
+      <c r="T22" s="121"/>
+      <c r="U22" s="121"/>
+      <c r="V22" s="128"/>
+      <c r="W22" s="128"/>
+      <c r="X22" s="128"/>
+      <c r="Y22" s="128"/>
+      <c r="Z22" s="128"/>
+      <c r="AA22" s="128"/>
+      <c r="AB22" s="128"/>
+      <c r="AC22" s="128"/>
+      <c r="AD22" s="128"/>
+      <c r="AE22" s="128"/>
+      <c r="AF22" s="128"/>
+      <c r="AG22" s="128"/>
+      <c r="AH22" s="128"/>
+      <c r="AI22" s="128"/>
+      <c r="AJ22" s="128"/>
+      <c r="AK22" s="128"/>
+      <c r="AL22" s="128"/>
+      <c r="AM22" s="128"/>
+      <c r="AN22" s="121"/>
+      <c r="AO22" s="121"/>
+      <c r="AP22" s="121"/>
+      <c r="AQ22" s="121"/>
+      <c r="AR22" s="121"/>
+      <c r="AS22" s="121"/>
+      <c r="AT22" s="121"/>
+      <c r="AU22" s="121"/>
+      <c r="AV22" s="121"/>
+      <c r="AW22" s="121"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="120"/>
-      <c r="L23" s="120"/>
-      <c r="M23" s="123"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="123"/>
-      <c r="S23" s="117"/>
-      <c r="T23" s="117"/>
-      <c r="U23" s="117"/>
-      <c r="V23" s="124"/>
-      <c r="W23" s="124"/>
-      <c r="X23" s="124"/>
-      <c r="Y23" s="124"/>
-      <c r="Z23" s="124"/>
-      <c r="AA23" s="124"/>
-      <c r="AB23" s="124"/>
-      <c r="AC23" s="124"/>
-      <c r="AD23" s="124"/>
-      <c r="AE23" s="124"/>
-      <c r="AF23" s="124"/>
-      <c r="AG23" s="124"/>
-      <c r="AH23" s="124"/>
-      <c r="AI23" s="124"/>
-      <c r="AJ23" s="124"/>
-      <c r="AK23" s="124"/>
-      <c r="AL23" s="124"/>
-      <c r="AM23" s="124"/>
-      <c r="AN23" s="117"/>
-      <c r="AO23" s="117"/>
-      <c r="AP23" s="117"/>
-      <c r="AQ23" s="117"/>
-      <c r="AR23" s="117"/>
-      <c r="AS23" s="117"/>
-      <c r="AT23" s="117"/>
-      <c r="AU23" s="117"/>
-      <c r="AV23" s="117"/>
-      <c r="AW23" s="117"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="127"/>
+      <c r="N23" s="127"/>
+      <c r="O23" s="127"/>
+      <c r="P23" s="127"/>
+      <c r="Q23" s="127"/>
+      <c r="R23" s="127"/>
+      <c r="S23" s="121"/>
+      <c r="T23" s="121"/>
+      <c r="U23" s="121"/>
+      <c r="V23" s="128"/>
+      <c r="W23" s="128"/>
+      <c r="X23" s="128"/>
+      <c r="Y23" s="128"/>
+      <c r="Z23" s="128"/>
+      <c r="AA23" s="128"/>
+      <c r="AB23" s="128"/>
+      <c r="AC23" s="128"/>
+      <c r="AD23" s="128"/>
+      <c r="AE23" s="128"/>
+      <c r="AF23" s="128"/>
+      <c r="AG23" s="128"/>
+      <c r="AH23" s="128"/>
+      <c r="AI23" s="128"/>
+      <c r="AJ23" s="128"/>
+      <c r="AK23" s="128"/>
+      <c r="AL23" s="128"/>
+      <c r="AM23" s="128"/>
+      <c r="AN23" s="121"/>
+      <c r="AO23" s="121"/>
+      <c r="AP23" s="121"/>
+      <c r="AQ23" s="121"/>
+      <c r="AR23" s="121"/>
+      <c r="AS23" s="121"/>
+      <c r="AT23" s="121"/>
+      <c r="AU23" s="121"/>
+      <c r="AV23" s="121"/>
+      <c r="AW23" s="121"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="120"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="123"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="123"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="123"/>
-      <c r="S24" s="117"/>
-      <c r="T24" s="117"/>
-      <c r="U24" s="117"/>
-      <c r="V24" s="124"/>
-      <c r="W24" s="124"/>
-      <c r="X24" s="124"/>
-      <c r="Y24" s="124"/>
-      <c r="Z24" s="124"/>
-      <c r="AA24" s="124"/>
-      <c r="AB24" s="124"/>
-      <c r="AC24" s="124"/>
-      <c r="AD24" s="124"/>
-      <c r="AE24" s="124"/>
-      <c r="AF24" s="124"/>
-      <c r="AG24" s="124"/>
-      <c r="AH24" s="124"/>
-      <c r="AI24" s="124"/>
-      <c r="AJ24" s="124"/>
-      <c r="AK24" s="124"/>
-      <c r="AL24" s="124"/>
-      <c r="AM24" s="124"/>
-      <c r="AN24" s="117"/>
-      <c r="AO24" s="117"/>
-      <c r="AP24" s="117"/>
-      <c r="AQ24" s="117"/>
-      <c r="AR24" s="117"/>
-      <c r="AS24" s="117"/>
-      <c r="AT24" s="117"/>
-      <c r="AU24" s="117"/>
-      <c r="AV24" s="117"/>
-      <c r="AW24" s="117"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="127"/>
+      <c r="N24" s="127"/>
+      <c r="O24" s="127"/>
+      <c r="P24" s="127"/>
+      <c r="Q24" s="127"/>
+      <c r="R24" s="127"/>
+      <c r="S24" s="121"/>
+      <c r="T24" s="121"/>
+      <c r="U24" s="121"/>
+      <c r="V24" s="128"/>
+      <c r="W24" s="128"/>
+      <c r="X24" s="128"/>
+      <c r="Y24" s="128"/>
+      <c r="Z24" s="128"/>
+      <c r="AA24" s="128"/>
+      <c r="AB24" s="128"/>
+      <c r="AC24" s="128"/>
+      <c r="AD24" s="128"/>
+      <c r="AE24" s="128"/>
+      <c r="AF24" s="128"/>
+      <c r="AG24" s="128"/>
+      <c r="AH24" s="128"/>
+      <c r="AI24" s="128"/>
+      <c r="AJ24" s="128"/>
+      <c r="AK24" s="128"/>
+      <c r="AL24" s="128"/>
+      <c r="AM24" s="128"/>
+      <c r="AN24" s="121"/>
+      <c r="AO24" s="121"/>
+      <c r="AP24" s="121"/>
+      <c r="AQ24" s="121"/>
+      <c r="AR24" s="121"/>
+      <c r="AS24" s="121"/>
+      <c r="AT24" s="121"/>
+      <c r="AU24" s="121"/>
+      <c r="AV24" s="121"/>
+      <c r="AW24" s="121"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="120"/>
-      <c r="K25" s="120"/>
-      <c r="L25" s="120"/>
-      <c r="M25" s="126"/>
-      <c r="N25" s="123"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="123"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="123"/>
-      <c r="S25" s="117"/>
-      <c r="T25" s="117"/>
-      <c r="U25" s="117"/>
-      <c r="V25" s="124"/>
-      <c r="W25" s="124"/>
-      <c r="X25" s="124"/>
-      <c r="Y25" s="124"/>
-      <c r="Z25" s="124"/>
-      <c r="AA25" s="124"/>
-      <c r="AB25" s="124"/>
-      <c r="AC25" s="124"/>
-      <c r="AD25" s="124"/>
-      <c r="AE25" s="124"/>
-      <c r="AF25" s="124"/>
-      <c r="AG25" s="124"/>
-      <c r="AH25" s="124"/>
-      <c r="AI25" s="124"/>
-      <c r="AJ25" s="124"/>
-      <c r="AK25" s="124"/>
-      <c r="AL25" s="124"/>
-      <c r="AM25" s="124"/>
-      <c r="AN25" s="117"/>
-      <c r="AO25" s="117"/>
-      <c r="AP25" s="117"/>
-      <c r="AQ25" s="117"/>
-      <c r="AR25" s="117"/>
-      <c r="AS25" s="117"/>
-      <c r="AT25" s="117"/>
-      <c r="AU25" s="117"/>
-      <c r="AV25" s="117"/>
-      <c r="AW25" s="117"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="130"/>
+      <c r="N25" s="127"/>
+      <c r="O25" s="127"/>
+      <c r="P25" s="127"/>
+      <c r="Q25" s="127"/>
+      <c r="R25" s="127"/>
+      <c r="S25" s="121"/>
+      <c r="T25" s="121"/>
+      <c r="U25" s="121"/>
+      <c r="V25" s="128"/>
+      <c r="W25" s="128"/>
+      <c r="X25" s="128"/>
+      <c r="Y25" s="128"/>
+      <c r="Z25" s="128"/>
+      <c r="AA25" s="128"/>
+      <c r="AB25" s="128"/>
+      <c r="AC25" s="128"/>
+      <c r="AD25" s="128"/>
+      <c r="AE25" s="128"/>
+      <c r="AF25" s="128"/>
+      <c r="AG25" s="128"/>
+      <c r="AH25" s="128"/>
+      <c r="AI25" s="128"/>
+      <c r="AJ25" s="128"/>
+      <c r="AK25" s="128"/>
+      <c r="AL25" s="128"/>
+      <c r="AM25" s="128"/>
+      <c r="AN25" s="121"/>
+      <c r="AO25" s="121"/>
+      <c r="AP25" s="121"/>
+      <c r="AQ25" s="121"/>
+      <c r="AR25" s="121"/>
+      <c r="AS25" s="121"/>
+      <c r="AT25" s="121"/>
+      <c r="AU25" s="121"/>
+      <c r="AV25" s="121"/>
+      <c r="AW25" s="121"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="120"/>
-      <c r="L26" s="120"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="123"/>
-      <c r="O26" s="123"/>
-      <c r="P26" s="123"/>
-      <c r="Q26" s="123"/>
-      <c r="R26" s="123"/>
-      <c r="S26" s="117"/>
-      <c r="T26" s="117"/>
-      <c r="U26" s="117"/>
-      <c r="V26" s="124"/>
-      <c r="W26" s="124"/>
-      <c r="X26" s="124"/>
-      <c r="Y26" s="124"/>
-      <c r="Z26" s="124"/>
-      <c r="AA26" s="124"/>
-      <c r="AB26" s="124"/>
-      <c r="AC26" s="124"/>
-      <c r="AD26" s="124"/>
-      <c r="AE26" s="124"/>
-      <c r="AF26" s="124"/>
-      <c r="AG26" s="124"/>
-      <c r="AH26" s="124"/>
-      <c r="AI26" s="124"/>
-      <c r="AJ26" s="124"/>
-      <c r="AK26" s="124"/>
-      <c r="AL26" s="124"/>
-      <c r="AM26" s="124"/>
-      <c r="AN26" s="117"/>
-      <c r="AO26" s="117"/>
-      <c r="AP26" s="117"/>
-      <c r="AQ26" s="117"/>
-      <c r="AR26" s="117"/>
-      <c r="AS26" s="117"/>
-      <c r="AT26" s="117"/>
-      <c r="AU26" s="117"/>
-      <c r="AV26" s="117"/>
-      <c r="AW26" s="117"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="130"/>
+      <c r="N26" s="127"/>
+      <c r="O26" s="127"/>
+      <c r="P26" s="127"/>
+      <c r="Q26" s="127"/>
+      <c r="R26" s="127"/>
+      <c r="S26" s="121"/>
+      <c r="T26" s="121"/>
+      <c r="U26" s="121"/>
+      <c r="V26" s="128"/>
+      <c r="W26" s="128"/>
+      <c r="X26" s="128"/>
+      <c r="Y26" s="128"/>
+      <c r="Z26" s="128"/>
+      <c r="AA26" s="128"/>
+      <c r="AB26" s="128"/>
+      <c r="AC26" s="128"/>
+      <c r="AD26" s="128"/>
+      <c r="AE26" s="128"/>
+      <c r="AF26" s="128"/>
+      <c r="AG26" s="128"/>
+      <c r="AH26" s="128"/>
+      <c r="AI26" s="128"/>
+      <c r="AJ26" s="128"/>
+      <c r="AK26" s="128"/>
+      <c r="AL26" s="128"/>
+      <c r="AM26" s="128"/>
+      <c r="AN26" s="121"/>
+      <c r="AO26" s="121"/>
+      <c r="AP26" s="121"/>
+      <c r="AQ26" s="121"/>
+      <c r="AR26" s="121"/>
+      <c r="AS26" s="121"/>
+      <c r="AT26" s="121"/>
+      <c r="AU26" s="121"/>
+      <c r="AV26" s="121"/>
+      <c r="AW26" s="121"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="118"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="120"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="123"/>
-      <c r="O27" s="123"/>
-      <c r="P27" s="123"/>
-      <c r="Q27" s="123"/>
-      <c r="R27" s="123"/>
-      <c r="S27" s="117"/>
-      <c r="T27" s="117"/>
-      <c r="U27" s="117"/>
-      <c r="V27" s="124"/>
-      <c r="W27" s="124"/>
-      <c r="X27" s="124"/>
-      <c r="Y27" s="124"/>
-      <c r="Z27" s="124"/>
-      <c r="AA27" s="124"/>
-      <c r="AB27" s="124"/>
-      <c r="AC27" s="124"/>
-      <c r="AD27" s="124"/>
-      <c r="AE27" s="124"/>
-      <c r="AF27" s="124"/>
-      <c r="AG27" s="124"/>
-      <c r="AH27" s="124"/>
-      <c r="AI27" s="124"/>
-      <c r="AJ27" s="124"/>
-      <c r="AK27" s="124"/>
-      <c r="AL27" s="124"/>
-      <c r="AM27" s="124"/>
-      <c r="AN27" s="117"/>
-      <c r="AO27" s="117"/>
-      <c r="AP27" s="117"/>
-      <c r="AQ27" s="117"/>
-      <c r="AR27" s="117"/>
-      <c r="AS27" s="117"/>
-      <c r="AT27" s="117"/>
-      <c r="AU27" s="117"/>
-      <c r="AV27" s="117"/>
-      <c r="AW27" s="117"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="124"/>
+      <c r="M27" s="130"/>
+      <c r="N27" s="127"/>
+      <c r="O27" s="127"/>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="127"/>
+      <c r="R27" s="127"/>
+      <c r="S27" s="121"/>
+      <c r="T27" s="121"/>
+      <c r="U27" s="121"/>
+      <c r="V27" s="128"/>
+      <c r="W27" s="128"/>
+      <c r="X27" s="128"/>
+      <c r="Y27" s="128"/>
+      <c r="Z27" s="128"/>
+      <c r="AA27" s="128"/>
+      <c r="AB27" s="128"/>
+      <c r="AC27" s="128"/>
+      <c r="AD27" s="128"/>
+      <c r="AE27" s="128"/>
+      <c r="AF27" s="128"/>
+      <c r="AG27" s="128"/>
+      <c r="AH27" s="128"/>
+      <c r="AI27" s="128"/>
+      <c r="AJ27" s="128"/>
+      <c r="AK27" s="128"/>
+      <c r="AL27" s="128"/>
+      <c r="AM27" s="128"/>
+      <c r="AN27" s="121"/>
+      <c r="AO27" s="121"/>
+      <c r="AP27" s="121"/>
+      <c r="AQ27" s="121"/>
+      <c r="AR27" s="121"/>
+      <c r="AS27" s="121"/>
+      <c r="AT27" s="121"/>
+      <c r="AU27" s="121"/>
+      <c r="AV27" s="121"/>
+      <c r="AW27" s="121"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="120"/>
-      <c r="K28" s="120"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="123"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="123"/>
-      <c r="S28" s="117"/>
-      <c r="T28" s="117"/>
-      <c r="U28" s="117"/>
-      <c r="V28" s="124"/>
-      <c r="W28" s="124"/>
-      <c r="X28" s="124"/>
-      <c r="Y28" s="124"/>
-      <c r="Z28" s="124"/>
-      <c r="AA28" s="124"/>
-      <c r="AB28" s="124"/>
-      <c r="AC28" s="124"/>
-      <c r="AD28" s="124"/>
-      <c r="AE28" s="124"/>
-      <c r="AF28" s="124"/>
-      <c r="AG28" s="124"/>
-      <c r="AH28" s="124"/>
-      <c r="AI28" s="124"/>
-      <c r="AJ28" s="124"/>
-      <c r="AK28" s="124"/>
-      <c r="AL28" s="124"/>
-      <c r="AM28" s="124"/>
-      <c r="AN28" s="117"/>
-      <c r="AO28" s="117"/>
-      <c r="AP28" s="117"/>
-      <c r="AQ28" s="117"/>
-      <c r="AR28" s="117"/>
-      <c r="AS28" s="117"/>
-      <c r="AT28" s="117"/>
-      <c r="AU28" s="117"/>
-      <c r="AV28" s="117"/>
-      <c r="AW28" s="117"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="127"/>
+      <c r="N28" s="127"/>
+      <c r="O28" s="127"/>
+      <c r="P28" s="127"/>
+      <c r="Q28" s="127"/>
+      <c r="R28" s="127"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="121"/>
+      <c r="U28" s="121"/>
+      <c r="V28" s="128"/>
+      <c r="W28" s="128"/>
+      <c r="X28" s="128"/>
+      <c r="Y28" s="128"/>
+      <c r="Z28" s="128"/>
+      <c r="AA28" s="128"/>
+      <c r="AB28" s="128"/>
+      <c r="AC28" s="128"/>
+      <c r="AD28" s="128"/>
+      <c r="AE28" s="128"/>
+      <c r="AF28" s="128"/>
+      <c r="AG28" s="128"/>
+      <c r="AH28" s="128"/>
+      <c r="AI28" s="128"/>
+      <c r="AJ28" s="128"/>
+      <c r="AK28" s="128"/>
+      <c r="AL28" s="128"/>
+      <c r="AM28" s="128"/>
+      <c r="AN28" s="121"/>
+      <c r="AO28" s="121"/>
+      <c r="AP28" s="121"/>
+      <c r="AQ28" s="121"/>
+      <c r="AR28" s="121"/>
+      <c r="AS28" s="121"/>
+      <c r="AT28" s="121"/>
+      <c r="AU28" s="121"/>
+      <c r="AV28" s="121"/>
+      <c r="AW28" s="121"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="118"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="120"/>
-      <c r="K29" s="120"/>
-      <c r="L29" s="120"/>
-      <c r="M29" s="123"/>
-      <c r="N29" s="123"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="123"/>
-      <c r="S29" s="117"/>
-      <c r="T29" s="117"/>
-      <c r="U29" s="117"/>
-      <c r="V29" s="124"/>
-      <c r="W29" s="124"/>
-      <c r="X29" s="124"/>
-      <c r="Y29" s="124"/>
-      <c r="Z29" s="124"/>
-      <c r="AA29" s="124"/>
-      <c r="AB29" s="124"/>
-      <c r="AC29" s="124"/>
-      <c r="AD29" s="124"/>
-      <c r="AE29" s="124"/>
-      <c r="AF29" s="124"/>
-      <c r="AG29" s="124"/>
-      <c r="AH29" s="124"/>
-      <c r="AI29" s="124"/>
-      <c r="AJ29" s="124"/>
-      <c r="AK29" s="124"/>
-      <c r="AL29" s="124"/>
-      <c r="AM29" s="124"/>
-      <c r="AN29" s="117"/>
-      <c r="AO29" s="117"/>
-      <c r="AP29" s="117"/>
-      <c r="AQ29" s="117"/>
-      <c r="AR29" s="117"/>
-      <c r="AS29" s="117"/>
-      <c r="AT29" s="117"/>
-      <c r="AU29" s="117"/>
-      <c r="AV29" s="117"/>
-      <c r="AW29" s="117"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="124"/>
+      <c r="M29" s="127"/>
+      <c r="N29" s="127"/>
+      <c r="O29" s="127"/>
+      <c r="P29" s="127"/>
+      <c r="Q29" s="127"/>
+      <c r="R29" s="127"/>
+      <c r="S29" s="121"/>
+      <c r="T29" s="121"/>
+      <c r="U29" s="121"/>
+      <c r="V29" s="128"/>
+      <c r="W29" s="128"/>
+      <c r="X29" s="128"/>
+      <c r="Y29" s="128"/>
+      <c r="Z29" s="128"/>
+      <c r="AA29" s="128"/>
+      <c r="AB29" s="128"/>
+      <c r="AC29" s="128"/>
+      <c r="AD29" s="128"/>
+      <c r="AE29" s="128"/>
+      <c r="AF29" s="128"/>
+      <c r="AG29" s="128"/>
+      <c r="AH29" s="128"/>
+      <c r="AI29" s="128"/>
+      <c r="AJ29" s="128"/>
+      <c r="AK29" s="128"/>
+      <c r="AL29" s="128"/>
+      <c r="AM29" s="128"/>
+      <c r="AN29" s="121"/>
+      <c r="AO29" s="121"/>
+      <c r="AP29" s="121"/>
+      <c r="AQ29" s="121"/>
+      <c r="AR29" s="121"/>
+      <c r="AS29" s="121"/>
+      <c r="AT29" s="121"/>
+      <c r="AU29" s="121"/>
+      <c r="AV29" s="121"/>
+      <c r="AW29" s="121"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="118"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="120"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="126"/>
-      <c r="N30" s="123"/>
-      <c r="O30" s="123"/>
-      <c r="P30" s="123"/>
-      <c r="Q30" s="123"/>
-      <c r="R30" s="123"/>
-      <c r="S30" s="117"/>
-      <c r="T30" s="117"/>
-      <c r="U30" s="117"/>
-      <c r="V30" s="124"/>
-      <c r="W30" s="124"/>
-      <c r="X30" s="124"/>
-      <c r="Y30" s="124"/>
-      <c r="Z30" s="124"/>
-      <c r="AA30" s="124"/>
-      <c r="AB30" s="124"/>
-      <c r="AC30" s="124"/>
-      <c r="AD30" s="124"/>
-      <c r="AE30" s="124"/>
-      <c r="AF30" s="124"/>
-      <c r="AG30" s="124"/>
-      <c r="AH30" s="124"/>
-      <c r="AI30" s="124"/>
-      <c r="AJ30" s="124"/>
-      <c r="AK30" s="124"/>
-      <c r="AL30" s="124"/>
-      <c r="AM30" s="124"/>
-      <c r="AN30" s="117"/>
-      <c r="AO30" s="117"/>
-      <c r="AP30" s="117"/>
-      <c r="AQ30" s="117"/>
-      <c r="AR30" s="117"/>
-      <c r="AS30" s="117"/>
-      <c r="AT30" s="117"/>
-      <c r="AU30" s="117"/>
-      <c r="AV30" s="117"/>
-      <c r="AW30" s="117"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="124"/>
+      <c r="M30" s="130"/>
+      <c r="N30" s="127"/>
+      <c r="O30" s="127"/>
+      <c r="P30" s="127"/>
+      <c r="Q30" s="127"/>
+      <c r="R30" s="127"/>
+      <c r="S30" s="121"/>
+      <c r="T30" s="121"/>
+      <c r="U30" s="121"/>
+      <c r="V30" s="128"/>
+      <c r="W30" s="128"/>
+      <c r="X30" s="128"/>
+      <c r="Y30" s="128"/>
+      <c r="Z30" s="128"/>
+      <c r="AA30" s="128"/>
+      <c r="AB30" s="128"/>
+      <c r="AC30" s="128"/>
+      <c r="AD30" s="128"/>
+      <c r="AE30" s="128"/>
+      <c r="AF30" s="128"/>
+      <c r="AG30" s="128"/>
+      <c r="AH30" s="128"/>
+      <c r="AI30" s="128"/>
+      <c r="AJ30" s="128"/>
+      <c r="AK30" s="128"/>
+      <c r="AL30" s="128"/>
+      <c r="AM30" s="128"/>
+      <c r="AN30" s="121"/>
+      <c r="AO30" s="121"/>
+      <c r="AP30" s="121"/>
+      <c r="AQ30" s="121"/>
+      <c r="AR30" s="121"/>
+      <c r="AS30" s="121"/>
+      <c r="AT30" s="121"/>
+      <c r="AU30" s="121"/>
+      <c r="AV30" s="121"/>
+      <c r="AW30" s="121"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="118"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="120"/>
-      <c r="K31" s="120"/>
-      <c r="L31" s="120"/>
-      <c r="M31" s="126"/>
-      <c r="N31" s="123"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="123"/>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="123"/>
-      <c r="S31" s="117"/>
-      <c r="T31" s="117"/>
-      <c r="U31" s="117"/>
-      <c r="V31" s="124"/>
-      <c r="W31" s="124"/>
-      <c r="X31" s="124"/>
-      <c r="Y31" s="124"/>
-      <c r="Z31" s="124"/>
-      <c r="AA31" s="124"/>
-      <c r="AB31" s="124"/>
-      <c r="AC31" s="124"/>
-      <c r="AD31" s="124"/>
-      <c r="AE31" s="124"/>
-      <c r="AF31" s="124"/>
-      <c r="AG31" s="124"/>
-      <c r="AH31" s="124"/>
-      <c r="AI31" s="124"/>
-      <c r="AJ31" s="124"/>
-      <c r="AK31" s="124"/>
-      <c r="AL31" s="124"/>
-      <c r="AM31" s="124"/>
-      <c r="AN31" s="117"/>
-      <c r="AO31" s="117"/>
-      <c r="AP31" s="117"/>
-      <c r="AQ31" s="117"/>
-      <c r="AR31" s="117"/>
-      <c r="AS31" s="117"/>
-      <c r="AT31" s="117"/>
-      <c r="AU31" s="117"/>
-      <c r="AV31" s="117"/>
-      <c r="AW31" s="117"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="124"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="124"/>
+      <c r="M31" s="130"/>
+      <c r="N31" s="127"/>
+      <c r="O31" s="127"/>
+      <c r="P31" s="127"/>
+      <c r="Q31" s="127"/>
+      <c r="R31" s="127"/>
+      <c r="S31" s="121"/>
+      <c r="T31" s="121"/>
+      <c r="U31" s="121"/>
+      <c r="V31" s="128"/>
+      <c r="W31" s="128"/>
+      <c r="X31" s="128"/>
+      <c r="Y31" s="128"/>
+      <c r="Z31" s="128"/>
+      <c r="AA31" s="128"/>
+      <c r="AB31" s="128"/>
+      <c r="AC31" s="128"/>
+      <c r="AD31" s="128"/>
+      <c r="AE31" s="128"/>
+      <c r="AF31" s="128"/>
+      <c r="AG31" s="128"/>
+      <c r="AH31" s="128"/>
+      <c r="AI31" s="128"/>
+      <c r="AJ31" s="128"/>
+      <c r="AK31" s="128"/>
+      <c r="AL31" s="128"/>
+      <c r="AM31" s="128"/>
+      <c r="AN31" s="121"/>
+      <c r="AO31" s="121"/>
+      <c r="AP31" s="121"/>
+      <c r="AQ31" s="121"/>
+      <c r="AR31" s="121"/>
+      <c r="AS31" s="121"/>
+      <c r="AT31" s="121"/>
+      <c r="AU31" s="121"/>
+      <c r="AV31" s="121"/>
+      <c r="AW31" s="121"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="120"/>
-      <c r="K32" s="120"/>
-      <c r="L32" s="120"/>
-      <c r="M32" s="126"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="123"/>
-      <c r="P32" s="123"/>
-      <c r="Q32" s="123"/>
-      <c r="R32" s="123"/>
-      <c r="S32" s="117"/>
-      <c r="T32" s="117"/>
-      <c r="U32" s="117"/>
-      <c r="V32" s="124"/>
-      <c r="W32" s="124"/>
-      <c r="X32" s="124"/>
-      <c r="Y32" s="124"/>
-      <c r="Z32" s="124"/>
-      <c r="AA32" s="124"/>
-      <c r="AB32" s="124"/>
-      <c r="AC32" s="124"/>
-      <c r="AD32" s="124"/>
-      <c r="AE32" s="124"/>
-      <c r="AF32" s="124"/>
-      <c r="AG32" s="124"/>
-      <c r="AH32" s="124"/>
-      <c r="AI32" s="124"/>
-      <c r="AJ32" s="124"/>
-      <c r="AK32" s="124"/>
-      <c r="AL32" s="124"/>
-      <c r="AM32" s="124"/>
-      <c r="AN32" s="117"/>
-      <c r="AO32" s="117"/>
-      <c r="AP32" s="117"/>
-      <c r="AQ32" s="117"/>
-      <c r="AR32" s="117"/>
-      <c r="AS32" s="117"/>
-      <c r="AT32" s="117"/>
-      <c r="AU32" s="117"/>
-      <c r="AV32" s="117"/>
-      <c r="AW32" s="117"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="124"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="124"/>
+      <c r="M32" s="130"/>
+      <c r="N32" s="127"/>
+      <c r="O32" s="127"/>
+      <c r="P32" s="127"/>
+      <c r="Q32" s="127"/>
+      <c r="R32" s="127"/>
+      <c r="S32" s="121"/>
+      <c r="T32" s="121"/>
+      <c r="U32" s="121"/>
+      <c r="V32" s="128"/>
+      <c r="W32" s="128"/>
+      <c r="X32" s="128"/>
+      <c r="Y32" s="128"/>
+      <c r="Z32" s="128"/>
+      <c r="AA32" s="128"/>
+      <c r="AB32" s="128"/>
+      <c r="AC32" s="128"/>
+      <c r="AD32" s="128"/>
+      <c r="AE32" s="128"/>
+      <c r="AF32" s="128"/>
+      <c r="AG32" s="128"/>
+      <c r="AH32" s="128"/>
+      <c r="AI32" s="128"/>
+      <c r="AJ32" s="128"/>
+      <c r="AK32" s="128"/>
+      <c r="AL32" s="128"/>
+      <c r="AM32" s="128"/>
+      <c r="AN32" s="121"/>
+      <c r="AO32" s="121"/>
+      <c r="AP32" s="121"/>
+      <c r="AQ32" s="121"/>
+      <c r="AR32" s="121"/>
+      <c r="AS32" s="121"/>
+      <c r="AT32" s="121"/>
+      <c r="AU32" s="121"/>
+      <c r="AV32" s="121"/>
+      <c r="AW32" s="121"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="118"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="120"/>
-      <c r="K33" s="120"/>
-      <c r="L33" s="120"/>
-      <c r="M33" s="126"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="123"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="123"/>
-      <c r="S33" s="117"/>
-      <c r="T33" s="117"/>
-      <c r="U33" s="117"/>
-      <c r="V33" s="124"/>
-      <c r="W33" s="124"/>
-      <c r="X33" s="124"/>
-      <c r="Y33" s="124"/>
-      <c r="Z33" s="124"/>
-      <c r="AA33" s="124"/>
-      <c r="AB33" s="124"/>
-      <c r="AC33" s="124"/>
-      <c r="AD33" s="124"/>
-      <c r="AE33" s="124"/>
-      <c r="AF33" s="124"/>
-      <c r="AG33" s="124"/>
-      <c r="AH33" s="124"/>
-      <c r="AI33" s="124"/>
-      <c r="AJ33" s="124"/>
-      <c r="AK33" s="124"/>
-      <c r="AL33" s="124"/>
-      <c r="AM33" s="124"/>
-      <c r="AN33" s="117"/>
-      <c r="AO33" s="117"/>
-      <c r="AP33" s="117"/>
-      <c r="AQ33" s="117"/>
-      <c r="AR33" s="117"/>
-      <c r="AS33" s="117"/>
-      <c r="AT33" s="117"/>
-      <c r="AU33" s="117"/>
-      <c r="AV33" s="117"/>
-      <c r="AW33" s="117"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="124"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="124"/>
+      <c r="M33" s="130"/>
+      <c r="N33" s="127"/>
+      <c r="O33" s="127"/>
+      <c r="P33" s="127"/>
+      <c r="Q33" s="127"/>
+      <c r="R33" s="127"/>
+      <c r="S33" s="121"/>
+      <c r="T33" s="121"/>
+      <c r="U33" s="121"/>
+      <c r="V33" s="128"/>
+      <c r="W33" s="128"/>
+      <c r="X33" s="128"/>
+      <c r="Y33" s="128"/>
+      <c r="Z33" s="128"/>
+      <c r="AA33" s="128"/>
+      <c r="AB33" s="128"/>
+      <c r="AC33" s="128"/>
+      <c r="AD33" s="128"/>
+      <c r="AE33" s="128"/>
+      <c r="AF33" s="128"/>
+      <c r="AG33" s="128"/>
+      <c r="AH33" s="128"/>
+      <c r="AI33" s="128"/>
+      <c r="AJ33" s="128"/>
+      <c r="AK33" s="128"/>
+      <c r="AL33" s="128"/>
+      <c r="AM33" s="128"/>
+      <c r="AN33" s="121"/>
+      <c r="AO33" s="121"/>
+      <c r="AP33" s="121"/>
+      <c r="AQ33" s="121"/>
+      <c r="AR33" s="121"/>
+      <c r="AS33" s="121"/>
+      <c r="AT33" s="121"/>
+      <c r="AU33" s="121"/>
+      <c r="AV33" s="121"/>
+      <c r="AW33" s="121"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="120"/>
-      <c r="K34" s="120"/>
-      <c r="L34" s="120"/>
-      <c r="M34" s="130"/>
-      <c r="N34" s="131"/>
-      <c r="O34" s="131"/>
-      <c r="P34" s="131"/>
-      <c r="Q34" s="131"/>
-      <c r="R34" s="131"/>
-      <c r="S34" s="117"/>
-      <c r="T34" s="117"/>
-      <c r="U34" s="117"/>
-      <c r="V34" s="124"/>
-      <c r="W34" s="124"/>
-      <c r="X34" s="124"/>
-      <c r="Y34" s="124"/>
-      <c r="Z34" s="124"/>
-      <c r="AA34" s="124"/>
-      <c r="AB34" s="124"/>
-      <c r="AC34" s="124"/>
-      <c r="AD34" s="124"/>
-      <c r="AE34" s="124"/>
-      <c r="AF34" s="124"/>
-      <c r="AG34" s="124"/>
-      <c r="AH34" s="124"/>
-      <c r="AI34" s="124"/>
-      <c r="AJ34" s="124"/>
-      <c r="AK34" s="124"/>
-      <c r="AL34" s="124"/>
-      <c r="AM34" s="124"/>
-      <c r="AN34" s="117"/>
-      <c r="AO34" s="117"/>
-      <c r="AP34" s="117"/>
-      <c r="AQ34" s="117"/>
-      <c r="AR34" s="117"/>
-      <c r="AS34" s="117"/>
-      <c r="AT34" s="117"/>
-      <c r="AU34" s="117"/>
-      <c r="AV34" s="117"/>
-      <c r="AW34" s="117"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="124"/>
+      <c r="K34" s="124"/>
+      <c r="L34" s="124"/>
+      <c r="M34" s="134"/>
+      <c r="N34" s="135"/>
+      <c r="O34" s="135"/>
+      <c r="P34" s="135"/>
+      <c r="Q34" s="135"/>
+      <c r="R34" s="135"/>
+      <c r="S34" s="121"/>
+      <c r="T34" s="121"/>
+      <c r="U34" s="121"/>
+      <c r="V34" s="128"/>
+      <c r="W34" s="128"/>
+      <c r="X34" s="128"/>
+      <c r="Y34" s="128"/>
+      <c r="Z34" s="128"/>
+      <c r="AA34" s="128"/>
+      <c r="AB34" s="128"/>
+      <c r="AC34" s="128"/>
+      <c r="AD34" s="128"/>
+      <c r="AE34" s="128"/>
+      <c r="AF34" s="128"/>
+      <c r="AG34" s="128"/>
+      <c r="AH34" s="128"/>
+      <c r="AI34" s="128"/>
+      <c r="AJ34" s="128"/>
+      <c r="AK34" s="128"/>
+      <c r="AL34" s="128"/>
+      <c r="AM34" s="128"/>
+      <c r="AN34" s="121"/>
+      <c r="AO34" s="121"/>
+      <c r="AP34" s="121"/>
+      <c r="AQ34" s="121"/>
+      <c r="AR34" s="121"/>
+      <c r="AS34" s="121"/>
+      <c r="AT34" s="121"/>
+      <c r="AU34" s="121"/>
+      <c r="AV34" s="121"/>
+      <c r="AW34" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="249">
@@ -6089,14 +6169,14 @@
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
-      <c r="AO1" s="141">
+      <c r="AO1" s="145">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
-      <c r="AP1" s="142"/>
-      <c r="AQ1" s="142"/>
-      <c r="AR1" s="142"/>
-      <c r="AS1" s="143"/>
+      <c r="AP1" s="146"/>
+      <c r="AQ1" s="146"/>
+      <c r="AR1" s="146"/>
+      <c r="AS1" s="147"/>
       <c r="AT1" s="33" t="s">
         <v>24</v>
       </c>
@@ -6105,17 +6185,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="138" t="str">
+      <c r="AZ1" s="142" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="BA1" s="139"/>
-      <c r="BB1" s="139"/>
-      <c r="BC1" s="139"/>
-      <c r="BD1" s="139"/>
-      <c r="BE1" s="139"/>
-      <c r="BF1" s="139"/>
-      <c r="BG1" s="140"/>
+      <c r="BA1" s="143"/>
+      <c r="BB1" s="143"/>
+      <c r="BC1" s="143"/>
+      <c r="BD1" s="143"/>
+      <c r="BE1" s="143"/>
+      <c r="BF1" s="143"/>
+      <c r="BG1" s="144"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -6168,11 +6248,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="141"/>
-      <c r="AP2" s="142"/>
-      <c r="AQ2" s="142"/>
-      <c r="AR2" s="142"/>
-      <c r="AS2" s="143"/>
+      <c r="AO2" s="145"/>
+      <c r="AP2" s="146"/>
+      <c r="AQ2" s="146"/>
+      <c r="AR2" s="146"/>
+      <c r="AS2" s="147"/>
       <c r="AT2" s="33" t="s">
         <v>25</v>
       </c>
@@ -6181,14 +6261,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="138"/>
-      <c r="BA2" s="139"/>
-      <c r="BB2" s="139"/>
-      <c r="BC2" s="139"/>
-      <c r="BD2" s="139"/>
-      <c r="BE2" s="139"/>
-      <c r="BF2" s="139"/>
-      <c r="BG2" s="140"/>
+      <c r="AZ2" s="142"/>
+      <c r="BA2" s="143"/>
+      <c r="BB2" s="143"/>
+      <c r="BC2" s="143"/>
+      <c r="BD2" s="143"/>
+      <c r="BE2" s="143"/>
+      <c r="BF2" s="143"/>
+      <c r="BG2" s="144"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -7407,10 +7487,10 @@
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A41" s="28"/>
-      <c r="B41" s="132" t="s">
+      <c r="B41" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="133"/>
+      <c r="C41" s="137"/>
       <c r="D41" s="88" t="s">
         <v>79</v>
       </c>
@@ -7493,10 +7573,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
-      <c r="B42" s="134">
+      <c r="B42" s="138">
         <v>1</v>
       </c>
-      <c r="C42" s="135"/>
+      <c r="C42" s="139"/>
       <c r="D42" s="93" t="s">
         <v>94</v>
       </c>
@@ -7528,16 +7608,16 @@
       <c r="AB42" s="86"/>
       <c r="AC42" s="86"/>
       <c r="AD42" s="87"/>
-      <c r="AE42" s="136" t="s">
+      <c r="AE42" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="AF42" s="137"/>
-      <c r="AG42" s="136"/>
-      <c r="AH42" s="137"/>
-      <c r="AI42" s="136"/>
-      <c r="AJ42" s="137"/>
-      <c r="AK42" s="136"/>
-      <c r="AL42" s="137"/>
+      <c r="AF42" s="141"/>
+      <c r="AG42" s="140"/>
+      <c r="AH42" s="141"/>
+      <c r="AI42" s="140"/>
+      <c r="AJ42" s="141"/>
+      <c r="AK42" s="140"/>
+      <c r="AL42" s="141"/>
       <c r="AM42" s="83" t="s">
         <v>108</v>
       </c>
@@ -7571,10 +7651,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="134">
+      <c r="B43" s="138">
         <v>2</v>
       </c>
-      <c r="C43" s="135"/>
+      <c r="C43" s="139"/>
       <c r="D43" s="82" t="s">
         <v>106</v>
       </c>
@@ -7606,16 +7686,16 @@
       <c r="AB43" s="86"/>
       <c r="AC43" s="86"/>
       <c r="AD43" s="87"/>
-      <c r="AE43" s="136" t="s">
+      <c r="AE43" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="AF43" s="137"/>
-      <c r="AG43" s="136"/>
-      <c r="AH43" s="137"/>
-      <c r="AI43" s="136"/>
-      <c r="AJ43" s="137"/>
-      <c r="AK43" s="136"/>
-      <c r="AL43" s="137"/>
+      <c r="AF43" s="141"/>
+      <c r="AG43" s="140"/>
+      <c r="AH43" s="141"/>
+      <c r="AI43" s="140"/>
+      <c r="AJ43" s="141"/>
+      <c r="AK43" s="140"/>
+      <c r="AL43" s="141"/>
       <c r="AM43" s="83" t="s">
         <v>107</v>
       </c>
@@ -7792,20 +7872,20 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="141">
+      <c r="CD1" s="145">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
-      <c r="CE1" s="146"/>
-      <c r="CF1" s="146"/>
-      <c r="CG1" s="146"/>
-      <c r="CH1" s="146"/>
-      <c r="CI1" s="146"/>
-      <c r="CJ1" s="146"/>
-      <c r="CK1" s="146"/>
-      <c r="CL1" s="146"/>
-      <c r="CM1" s="146"/>
-      <c r="CN1" s="147"/>
+      <c r="CE1" s="150"/>
+      <c r="CF1" s="150"/>
+      <c r="CG1" s="150"/>
+      <c r="CH1" s="150"/>
+      <c r="CI1" s="150"/>
+      <c r="CJ1" s="150"/>
+      <c r="CK1" s="150"/>
+      <c r="CL1" s="150"/>
+      <c r="CM1" s="150"/>
+      <c r="CN1" s="151"/>
       <c r="CO1" s="33" t="s">
         <v>24</v>
       </c>
@@ -7814,23 +7894,23 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="138" t="str">
+      <c r="CU1" s="142" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="CV1" s="144"/>
-      <c r="CW1" s="144"/>
-      <c r="CX1" s="144"/>
-      <c r="CY1" s="144"/>
-      <c r="CZ1" s="144"/>
-      <c r="DA1" s="144"/>
-      <c r="DB1" s="144"/>
-      <c r="DC1" s="144"/>
-      <c r="DD1" s="144"/>
-      <c r="DE1" s="144"/>
-      <c r="DF1" s="144"/>
-      <c r="DG1" s="144"/>
-      <c r="DH1" s="145"/>
+      <c r="CV1" s="148"/>
+      <c r="CW1" s="148"/>
+      <c r="CX1" s="148"/>
+      <c r="CY1" s="148"/>
+      <c r="CZ1" s="148"/>
+      <c r="DA1" s="148"/>
+      <c r="DB1" s="148"/>
+      <c r="DC1" s="148"/>
+      <c r="DD1" s="148"/>
+      <c r="DE1" s="148"/>
+      <c r="DF1" s="148"/>
+      <c r="DG1" s="148"/>
+      <c r="DH1" s="149"/>
     </row>
     <row r="2" spans="1:113" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -7885,39 +7965,39 @@
       <c r="AQ2" s="37"/>
       <c r="AR2" s="37"/>
       <c r="AS2" s="38"/>
-      <c r="AT2" s="149" t="str">
+      <c r="AT2" s="153" t="str">
         <f>'１．機能概要'!W2</f>
         <v>工程別集計</v>
       </c>
-      <c r="AU2" s="146"/>
-      <c r="AV2" s="146"/>
-      <c r="AW2" s="146"/>
-      <c r="AX2" s="146"/>
-      <c r="AY2" s="146"/>
-      <c r="AZ2" s="146"/>
-      <c r="BA2" s="146"/>
-      <c r="BB2" s="146"/>
-      <c r="BC2" s="146"/>
-      <c r="BD2" s="146"/>
-      <c r="BE2" s="146"/>
-      <c r="BF2" s="146"/>
-      <c r="BG2" s="146"/>
-      <c r="BH2" s="146"/>
-      <c r="BI2" s="146"/>
-      <c r="BJ2" s="146"/>
-      <c r="BK2" s="146"/>
-      <c r="BL2" s="146"/>
-      <c r="BM2" s="146"/>
-      <c r="BN2" s="146"/>
-      <c r="BO2" s="146"/>
-      <c r="BP2" s="146"/>
-      <c r="BQ2" s="146"/>
-      <c r="BR2" s="146"/>
-      <c r="BS2" s="146"/>
-      <c r="BT2" s="146"/>
-      <c r="BU2" s="146"/>
-      <c r="BV2" s="146"/>
-      <c r="BW2" s="147"/>
+      <c r="AU2" s="150"/>
+      <c r="AV2" s="150"/>
+      <c r="AW2" s="150"/>
+      <c r="AX2" s="150"/>
+      <c r="AY2" s="150"/>
+      <c r="AZ2" s="150"/>
+      <c r="BA2" s="150"/>
+      <c r="BB2" s="150"/>
+      <c r="BC2" s="150"/>
+      <c r="BD2" s="150"/>
+      <c r="BE2" s="150"/>
+      <c r="BF2" s="150"/>
+      <c r="BG2" s="150"/>
+      <c r="BH2" s="150"/>
+      <c r="BI2" s="150"/>
+      <c r="BJ2" s="150"/>
+      <c r="BK2" s="150"/>
+      <c r="BL2" s="150"/>
+      <c r="BM2" s="150"/>
+      <c r="BN2" s="150"/>
+      <c r="BO2" s="150"/>
+      <c r="BP2" s="150"/>
+      <c r="BQ2" s="150"/>
+      <c r="BR2" s="150"/>
+      <c r="BS2" s="150"/>
+      <c r="BT2" s="150"/>
+      <c r="BU2" s="150"/>
+      <c r="BV2" s="150"/>
+      <c r="BW2" s="151"/>
       <c r="BX2" s="33" t="s">
         <v>23</v>
       </c>
@@ -7926,17 +8006,17 @@
       <c r="CA2" s="34"/>
       <c r="CB2" s="34"/>
       <c r="CC2" s="35"/>
-      <c r="CD2" s="148"/>
-      <c r="CE2" s="144"/>
-      <c r="CF2" s="144"/>
-      <c r="CG2" s="144"/>
-      <c r="CH2" s="144"/>
-      <c r="CI2" s="144"/>
-      <c r="CJ2" s="144"/>
-      <c r="CK2" s="144"/>
-      <c r="CL2" s="144"/>
-      <c r="CM2" s="144"/>
-      <c r="CN2" s="145"/>
+      <c r="CD2" s="152"/>
+      <c r="CE2" s="148"/>
+      <c r="CF2" s="148"/>
+      <c r="CG2" s="148"/>
+      <c r="CH2" s="148"/>
+      <c r="CI2" s="148"/>
+      <c r="CJ2" s="148"/>
+      <c r="CK2" s="148"/>
+      <c r="CL2" s="148"/>
+      <c r="CM2" s="148"/>
+      <c r="CN2" s="149"/>
       <c r="CO2" s="33" t="s">
         <v>25</v>
       </c>
@@ -7945,20 +8025,20 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="138"/>
-      <c r="CV2" s="144"/>
-      <c r="CW2" s="144"/>
-      <c r="CX2" s="144"/>
-      <c r="CY2" s="144"/>
-      <c r="CZ2" s="144"/>
-      <c r="DA2" s="144"/>
-      <c r="DB2" s="144"/>
-      <c r="DC2" s="144"/>
-      <c r="DD2" s="144"/>
-      <c r="DE2" s="144"/>
-      <c r="DF2" s="144"/>
-      <c r="DG2" s="144"/>
-      <c r="DH2" s="145"/>
+      <c r="CU2" s="142"/>
+      <c r="CV2" s="148"/>
+      <c r="CW2" s="148"/>
+      <c r="CX2" s="148"/>
+      <c r="CY2" s="148"/>
+      <c r="CZ2" s="148"/>
+      <c r="DA2" s="148"/>
+      <c r="DB2" s="148"/>
+      <c r="DC2" s="148"/>
+      <c r="DD2" s="148"/>
+      <c r="DE2" s="148"/>
+      <c r="DF2" s="148"/>
+      <c r="DG2" s="148"/>
+      <c r="DH2" s="149"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="54"/>
@@ -8161,37 +8241,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="109" t="s">
+      <c r="E6" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="109" t="s">
+      <c r="G6" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="109" t="s">
+      <c r="H6" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="150" t="s">
+      <c r="I6" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="150" t="s">
+      <c r="J6" s="154" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="109" t="s">
+      <c r="K6" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="109" t="s">
+      <c r="L6" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="109" t="s">
+      <c r="M6" s="113" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -8199,24 +8279,24 @@
       </c>
       <c r="O6" s="68"/>
       <c r="P6" s="68"/>
-      <c r="Q6" s="150" t="s">
+      <c r="Q6" s="154" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -8226,7 +8306,7 @@
       <c r="P7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="150"/>
+      <c r="Q7" s="154"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -8240,8 +8320,8 @@
       <c r="E8" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>144</v>
+      <c r="F8" s="107" t="s">
+        <v>138</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>37</v>
@@ -8288,37 +8368,37 @@
     <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="109" t="s">
+      <c r="E11" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="109" t="s">
+      <c r="F11" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="109" t="s">
+      <c r="G11" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="109" t="s">
+      <c r="H11" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="151" t="s">
+      <c r="I11" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="150" t="s">
+      <c r="J11" s="154" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="109" t="s">
+      <c r="K11" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="109" t="s">
+      <c r="L11" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="109" t="s">
+      <c r="M11" s="113" t="s">
         <v>32</v>
       </c>
       <c r="N11" s="68" t="s">
@@ -8326,24 +8406,24 @@
       </c>
       <c r="O11" s="68"/>
       <c r="P11" s="68"/>
-      <c r="Q11" s="151" t="s">
+      <c r="Q11" s="155" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
       <c r="N12" s="42" t="s">
         <v>64</v>
       </c>
@@ -8353,7 +8433,7 @@
       <c r="P12" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="152"/>
+      <c r="Q12" s="156"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
@@ -8371,10 +8451,10 @@
         <v>119</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>34</v>
@@ -8383,7 +8463,7 @@
         <v>34</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>34</v>
@@ -8398,7 +8478,7 @@
         <v>34</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="8" t="s">
         <v>33</v>
@@ -8416,14 +8496,14 @@
       <c r="E14" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>145</v>
+      <c r="F14" s="107" t="s">
+        <v>139</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>34</v>
@@ -8447,7 +8527,7 @@
         <v>33</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Q14" s="8" t="s">
         <v>33</v>
@@ -8472,37 +8552,37 @@
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="60"/>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="109" t="s">
+      <c r="D18" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="109" t="s">
+      <c r="E18" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="109" t="s">
+      <c r="F18" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="109" t="s">
+      <c r="G18" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="109" t="s">
+      <c r="H18" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="150" t="s">
+      <c r="I18" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="150" t="s">
+      <c r="J18" s="154" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="109" t="s">
+      <c r="K18" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="109" t="s">
+      <c r="L18" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="109" t="s">
+      <c r="M18" s="113" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="68" t="s">
@@ -8510,24 +8590,24 @@
       </c>
       <c r="O18" s="68"/>
       <c r="P18" s="68"/>
-      <c r="Q18" s="150" t="s">
+      <c r="Q18" s="154" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="60"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="109"/>
-      <c r="M19" s="109"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
       <c r="N19" s="42" t="s">
         <v>64</v>
       </c>
@@ -8537,7 +8617,7 @@
       <c r="P19" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q19" s="150"/>
+      <c r="Q19" s="154"/>
     </row>
     <row r="20" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="55"/>
@@ -8652,7 +8732,7 @@
         <v>33</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>34</v>
@@ -8720,7 +8800,7 @@
         <v>118</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G24" s="43" t="s">
         <v>42</v>
@@ -8753,7 +8833,7 @@
         <v>34</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -8837,7 +8917,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ36"/>
+  <dimension ref="A1:AZ50"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -8895,14 +8975,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="141">
+      <c r="AI1" s="145">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
-      <c r="AJ1" s="146"/>
-      <c r="AK1" s="146"/>
-      <c r="AL1" s="146"/>
-      <c r="AM1" s="147"/>
+      <c r="AJ1" s="150"/>
+      <c r="AK1" s="150"/>
+      <c r="AL1" s="150"/>
+      <c r="AM1" s="151"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -8911,16 +8991,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="138" t="str">
+      <c r="AT1" s="142" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="144"/>
-      <c r="AV1" s="144"/>
-      <c r="AW1" s="144"/>
-      <c r="AX1" s="144"/>
-      <c r="AY1" s="144"/>
-      <c r="AZ1" s="145"/>
+      <c r="AU1" s="148"/>
+      <c r="AV1" s="148"/>
+      <c r="AW1" s="148"/>
+      <c r="AX1" s="148"/>
+      <c r="AY1" s="148"/>
+      <c r="AZ1" s="149"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -8948,32 +9028,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="149" t="str">
+      <c r="S2" s="153" t="str">
         <f>'１．機能概要'!W2</f>
         <v>工程別集計</v>
       </c>
-      <c r="T2" s="146"/>
-      <c r="U2" s="146"/>
-      <c r="V2" s="146"/>
-      <c r="W2" s="146"/>
-      <c r="X2" s="146"/>
-      <c r="Y2" s="146"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="146"/>
-      <c r="AB2" s="146"/>
-      <c r="AC2" s="146"/>
-      <c r="AD2" s="147"/>
+      <c r="T2" s="150"/>
+      <c r="U2" s="150"/>
+      <c r="V2" s="150"/>
+      <c r="W2" s="150"/>
+      <c r="X2" s="150"/>
+      <c r="Y2" s="150"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="150"/>
+      <c r="AB2" s="150"/>
+      <c r="AC2" s="150"/>
+      <c r="AD2" s="151"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="148"/>
-      <c r="AJ2" s="144"/>
-      <c r="AK2" s="144"/>
-      <c r="AL2" s="144"/>
-      <c r="AM2" s="145"/>
+      <c r="AI2" s="152"/>
+      <c r="AJ2" s="148"/>
+      <c r="AK2" s="148"/>
+      <c r="AL2" s="148"/>
+      <c r="AM2" s="149"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -8982,13 +9062,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="138"/>
-      <c r="AU2" s="144"/>
-      <c r="AV2" s="144"/>
-      <c r="AW2" s="144"/>
-      <c r="AX2" s="144"/>
-      <c r="AY2" s="144"/>
-      <c r="AZ2" s="145"/>
+      <c r="AT2" s="142"/>
+      <c r="AU2" s="148"/>
+      <c r="AV2" s="148"/>
+      <c r="AW2" s="148"/>
+      <c r="AX2" s="148"/>
+      <c r="AY2" s="148"/>
+      <c r="AZ2" s="149"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -9326,9 +9406,11 @@
       <c r="C11" s="71"/>
       <c r="F11" s="72"/>
       <c r="G11" s="71"/>
-      <c r="K11" s="72"/>
+      <c r="L11" s="71" t="s">
+        <v>152</v>
+      </c>
       <c r="M11" s="94" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="N11" s="94"/>
       <c r="O11" s="94"/>
@@ -9340,6 +9422,25 @@
       <c r="U11" s="94"/>
       <c r="V11" s="94"/>
       <c r="W11" s="94"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="94"/>
+      <c r="Z11" s="94"/>
+      <c r="AA11" s="94"/>
+      <c r="AB11" s="94"/>
+      <c r="AC11" s="94"/>
+      <c r="AD11" s="94"/>
+      <c r="AE11" s="94"/>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="94"/>
+      <c r="AH11" s="94"/>
+      <c r="AI11" s="94"/>
+      <c r="AJ11" s="94"/>
+      <c r="AK11" s="94"/>
+      <c r="AL11" s="94"/>
+      <c r="AM11" s="94"/>
+      <c r="AN11" s="94"/>
+      <c r="AO11" s="94"/>
+      <c r="AP11" s="94"/>
       <c r="AV11" s="72"/>
     </row>
     <row r="12" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -9347,10 +9448,11 @@
       <c r="C12" s="71"/>
       <c r="F12" s="72"/>
       <c r="G12" s="71"/>
-      <c r="K12" s="72"/>
-      <c r="N12" s="94" t="s">
-        <v>134</v>
-      </c>
+      <c r="L12" s="71"/>
+      <c r="M12" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="N12" s="94"/>
       <c r="O12" s="94"/>
       <c r="P12" s="94"/>
       <c r="Q12" s="94"/>
@@ -9360,6 +9462,24 @@
       <c r="U12" s="94"/>
       <c r="V12" s="94"/>
       <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="94"/>
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="94"/>
+      <c r="AC12" s="94"/>
+      <c r="AD12" s="94"/>
+      <c r="AE12" s="94"/>
+      <c r="AF12" s="94"/>
+      <c r="AG12" s="94"/>
+      <c r="AH12" s="94"/>
+      <c r="AI12" s="94"/>
+      <c r="AJ12" s="94"/>
+      <c r="AK12" s="94"/>
+      <c r="AL12" s="94"/>
+      <c r="AM12" s="94"/>
+      <c r="AO12" s="94"/>
+      <c r="AP12" s="94"/>
       <c r="AV12" s="72"/>
     </row>
     <row r="13" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -9367,19 +9487,15 @@
       <c r="C13" s="71"/>
       <c r="F13" s="72"/>
       <c r="G13" s="71"/>
-      <c r="K13" s="72"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="94"/>
       <c r="N13" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
-      <c r="T13" s="94"/>
-      <c r="U13" s="94"/>
-      <c r="V13" s="94"/>
-      <c r="W13" s="94"/>
+        <v>153</v>
+      </c>
+      <c r="AL13" s="94"/>
+      <c r="AM13" s="94"/>
+      <c r="AO13" s="94"/>
+      <c r="AP13" s="94"/>
       <c r="AV13" s="72"/>
     </row>
     <row r="14" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -9387,19 +9503,15 @@
       <c r="C14" s="71"/>
       <c r="F14" s="72"/>
       <c r="G14" s="71"/>
-      <c r="K14" s="72"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="94"/>
       <c r="N14" s="94" t="s">
-        <v>155</v>
-      </c>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
-      <c r="T14" s="94"/>
-      <c r="U14" s="94"/>
-      <c r="V14" s="94"/>
-      <c r="W14" s="94"/>
+        <v>157</v>
+      </c>
+      <c r="AL14" s="94"/>
+      <c r="AM14" s="94"/>
+      <c r="AO14" s="94"/>
+      <c r="AP14" s="94"/>
       <c r="AV14" s="72"/>
     </row>
     <row r="15" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -9407,17 +9519,15 @@
       <c r="C15" s="71"/>
       <c r="F15" s="72"/>
       <c r="G15" s="71"/>
-      <c r="K15" s="72"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
-      <c r="T15" s="94"/>
-      <c r="U15" s="94"/>
-      <c r="V15" s="94"/>
-      <c r="W15" s="94"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL15" s="94"/>
+      <c r="AM15" s="94"/>
+      <c r="AO15" s="94"/>
+      <c r="AP15" s="94"/>
       <c r="AV15" s="72"/>
     </row>
     <row r="16" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -9425,20 +9535,15 @@
       <c r="C16" s="71"/>
       <c r="F16" s="72"/>
       <c r="G16" s="71"/>
-      <c r="K16" s="72"/>
-      <c r="M16" s="94" t="s">
-        <v>139</v>
-      </c>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
-      <c r="T16" s="94"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="94"/>
-      <c r="W16" s="94"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL16" s="94"/>
+      <c r="AM16" s="94"/>
+      <c r="AO16" s="94"/>
+      <c r="AP16" s="94"/>
       <c r="AV16" s="72"/>
     </row>
     <row r="17" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -9446,19 +9551,15 @@
       <c r="C17" s="71"/>
       <c r="F17" s="72"/>
       <c r="G17" s="71"/>
-      <c r="K17" s="72"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="94"/>
       <c r="N17" s="94" t="s">
-        <v>140</v>
-      </c>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="94"/>
-      <c r="T17" s="94"/>
-      <c r="U17" s="94"/>
-      <c r="V17" s="94"/>
-      <c r="W17" s="94"/>
+        <v>160</v>
+      </c>
+      <c r="AL17" s="94"/>
+      <c r="AM17" s="94"/>
+      <c r="AO17" s="94"/>
+      <c r="AP17" s="94"/>
       <c r="AV17" s="72"/>
     </row>
     <row r="18" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -9466,19 +9567,15 @@
       <c r="C18" s="71"/>
       <c r="F18" s="72"/>
       <c r="G18" s="71"/>
-      <c r="K18" s="72"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="94"/>
       <c r="N18" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94"/>
-      <c r="V18" s="94"/>
-      <c r="W18" s="94"/>
+        <v>161</v>
+      </c>
+      <c r="AL18" s="94"/>
+      <c r="AM18" s="94"/>
+      <c r="AO18" s="94"/>
+      <c r="AP18" s="94"/>
       <c r="AV18" s="72"/>
     </row>
     <row r="19" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -9486,11 +9583,10 @@
       <c r="C19" s="71"/>
       <c r="F19" s="72"/>
       <c r="G19" s="71"/>
-      <c r="K19" s="72"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="94"/>
       <c r="N19" s="94"/>
-      <c r="O19" s="94" t="s">
-        <v>154</v>
-      </c>
+      <c r="O19" s="94"/>
       <c r="P19" s="94"/>
       <c r="Q19" s="94"/>
       <c r="R19" s="94"/>
@@ -9499,62 +9595,74 @@
       <c r="U19" s="94"/>
       <c r="V19" s="94"/>
       <c r="W19" s="94"/>
-      <c r="X19" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y19" s="16" t="s">
-        <v>147</v>
-      </c>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="94"/>
+      <c r="Z19" s="94"/>
+      <c r="AA19" s="94"/>
+      <c r="AB19" s="94"/>
+      <c r="AC19" s="94"/>
+      <c r="AD19" s="94"/>
+      <c r="AE19" s="94"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="94"/>
+      <c r="AH19" s="94"/>
+      <c r="AI19" s="94"/>
+      <c r="AJ19" s="94"/>
+      <c r="AK19" s="94"/>
+      <c r="AL19" s="94"/>
+      <c r="AM19" s="94"/>
+      <c r="AO19" s="94"/>
+      <c r="AP19" s="94"/>
       <c r="AV19" s="72"/>
     </row>
     <row r="20" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B20" s="71"/>
       <c r="C20" s="71"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
       <c r="F20" s="72"/>
       <c r="G20" s="71"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="23"/>
-      <c r="AD20" s="23"/>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="23"/>
-      <c r="AG20" s="23"/>
-      <c r="AH20" s="23"/>
-      <c r="AI20" s="23"/>
-      <c r="AJ20" s="23"/>
-      <c r="AK20" s="23"/>
-      <c r="AL20" s="23"/>
-      <c r="AM20" s="23"/>
-      <c r="AN20" s="23"/>
-      <c r="AO20" s="23"/>
-      <c r="AP20" s="23"/>
-      <c r="AQ20" s="23"/>
-      <c r="AR20" s="23"/>
-      <c r="AS20" s="23"/>
-      <c r="AT20" s="23"/>
-      <c r="AU20" s="23"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="94" t="s">
+        <v>154</v>
+      </c>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="94"/>
+      <c r="Z20" s="94"/>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="94"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="94"/>
+      <c r="AE20" s="94"/>
+      <c r="AF20" s="94"/>
+      <c r="AG20" s="94"/>
+      <c r="AH20" s="94"/>
+      <c r="AI20" s="94"/>
+      <c r="AJ20" s="94"/>
+      <c r="AK20" s="94"/>
+      <c r="AL20" s="94"/>
+      <c r="AM20" s="94"/>
+      <c r="AO20" s="94"/>
+      <c r="AP20" s="94"/>
       <c r="AV20" s="72"/>
     </row>
     <row r="21" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B21" s="71"/>
       <c r="C21" s="71"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
       <c r="F21" s="72"/>
       <c r="G21" s="71"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="N21" s="94"/>
+      <c r="L21" s="71"/>
+      <c r="N21" s="94" t="s">
+        <v>155</v>
+      </c>
       <c r="O21" s="94"/>
       <c r="P21" s="94"/>
       <c r="Q21" s="94"/>
@@ -9570,24 +9678,18 @@
       <c r="AA21" s="94"/>
       <c r="AB21" s="94"/>
       <c r="AC21" s="94"/>
-      <c r="AD21" s="23"/>
-      <c r="AE21" s="23"/>
-      <c r="AF21" s="23"/>
-      <c r="AG21" s="23"/>
-      <c r="AH21" s="23"/>
-      <c r="AI21" s="23"/>
-      <c r="AJ21" s="23"/>
-      <c r="AK21" s="23"/>
-      <c r="AL21" s="23"/>
-      <c r="AM21" s="23"/>
-      <c r="AN21" s="23"/>
-      <c r="AO21" s="23"/>
-      <c r="AP21" s="23"/>
-      <c r="AQ21" s="23"/>
-      <c r="AR21" s="23"/>
-      <c r="AS21" s="23"/>
-      <c r="AT21" s="23"/>
-      <c r="AU21" s="23"/>
+      <c r="AD21" s="94"/>
+      <c r="AE21" s="94"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="94"/>
+      <c r="AH21" s="94"/>
+      <c r="AI21" s="94"/>
+      <c r="AJ21" s="94"/>
+      <c r="AK21" s="94"/>
+      <c r="AL21" s="94"/>
+      <c r="AM21" s="94"/>
+      <c r="AO21" s="94"/>
+      <c r="AP21" s="94"/>
       <c r="AV21" s="72"/>
     </row>
     <row r="22" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -9596,26 +9698,38 @@
       <c r="F22" s="72"/>
       <c r="G22" s="71"/>
       <c r="K22" s="72"/>
-      <c r="N22" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="94"/>
-      <c r="T22" s="94"/>
-      <c r="U22" s="94"/>
-      <c r="V22" s="94"/>
-      <c r="X22" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y22" s="94" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z22" s="94"/>
-      <c r="AA22" s="94"/>
-      <c r="AB22" s="94"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="105"/>
+      <c r="P22" s="105"/>
+      <c r="Q22" s="105"/>
+      <c r="R22" s="105"/>
+      <c r="S22" s="105"/>
+      <c r="T22" s="105"/>
+      <c r="U22" s="105"/>
+      <c r="V22" s="105"/>
+      <c r="W22" s="105"/>
+      <c r="X22" s="105"/>
+      <c r="Y22" s="105"/>
+      <c r="Z22" s="105"/>
+      <c r="AA22" s="105"/>
+      <c r="AB22" s="105"/>
+      <c r="AC22" s="105"/>
+      <c r="AD22" s="105"/>
+      <c r="AE22" s="105"/>
+      <c r="AF22" s="105"/>
+      <c r="AG22" s="105"/>
+      <c r="AH22" s="105"/>
+      <c r="AI22" s="105"/>
+      <c r="AJ22" s="105"/>
+      <c r="AK22" s="105"/>
+      <c r="AL22" s="105"/>
+      <c r="AM22" s="105"/>
+      <c r="AN22" s="105"/>
+      <c r="AO22" s="105"/>
+      <c r="AP22" s="105"/>
+      <c r="AQ22" s="105"/>
       <c r="AV22" s="72"/>
     </row>
     <row r="23" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -9624,49 +9738,52 @@
       <c r="F23" s="72"/>
       <c r="G23" s="71"/>
       <c r="K23" s="72"/>
-      <c r="L23" s="101"/>
-      <c r="N23" s="94" t="s">
-        <v>157</v>
-      </c>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="94"/>
-      <c r="T23" s="94"/>
-      <c r="U23" s="94"/>
-      <c r="V23" s="94"/>
-      <c r="W23" s="94"/>
-      <c r="X23" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y23" s="102" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA23" s="94"/>
-      <c r="AB23" s="94"/>
-      <c r="AC23" s="94"/>
-      <c r="AG23" s="94"/>
-      <c r="AH23" s="94"/>
-      <c r="AI23" s="94"/>
-      <c r="AJ23" s="103"/>
+      <c r="L23" s="106" t="s">
+        <v>156</v>
+      </c>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="105"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="105"/>
+      <c r="R23" s="105"/>
+      <c r="S23" s="105"/>
+      <c r="T23" s="105"/>
+      <c r="U23" s="105"/>
+      <c r="V23" s="105"/>
+      <c r="W23" s="105"/>
+      <c r="X23" s="105"/>
+      <c r="Y23" s="105"/>
+      <c r="Z23" s="105"/>
+      <c r="AA23" s="105"/>
+      <c r="AB23" s="105"/>
+      <c r="AC23" s="105"/>
+      <c r="AD23" s="105"/>
+      <c r="AE23" s="105"/>
+      <c r="AF23" s="105"/>
+      <c r="AG23" s="105"/>
+      <c r="AH23" s="105"/>
+      <c r="AI23" s="105"/>
+      <c r="AJ23" s="105"/>
+      <c r="AK23" s="105"/>
+      <c r="AL23" s="105"/>
+      <c r="AM23" s="105"/>
+      <c r="AN23" s="105"/>
+      <c r="AO23" s="105"/>
+      <c r="AP23" s="105"/>
+      <c r="AQ23" s="105"/>
       <c r="AV23" s="72"/>
     </row>
     <row r="24" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B24" s="71"/>
       <c r="C24" s="71"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
       <c r="F24" s="72"/>
       <c r="G24" s="71"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
       <c r="K24" s="72"/>
-      <c r="L24" s="23"/>
-      <c r="N24" s="94" t="s">
-        <v>130</v>
-      </c>
+      <c r="M24" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="N24" s="94"/>
       <c r="O24" s="94"/>
       <c r="P24" s="94"/>
       <c r="Q24" s="94"/>
@@ -9675,51 +9792,17 @@
       <c r="T24" s="94"/>
       <c r="U24" s="94"/>
       <c r="V24" s="94"/>
-      <c r="X24" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y24" s="94" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z24" s="94"/>
-      <c r="AA24" s="94"/>
-      <c r="AB24" s="94"/>
-      <c r="AD24" s="23"/>
-      <c r="AE24" s="23"/>
-      <c r="AF24" s="23"/>
-      <c r="AG24" s="23"/>
-      <c r="AH24" s="23"/>
-      <c r="AI24" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="AJ24" s="23"/>
-      <c r="AK24" s="23"/>
-      <c r="AL24" s="23"/>
-      <c r="AM24" s="23"/>
-      <c r="AN24" s="23"/>
-      <c r="AO24" s="23"/>
-      <c r="AP24" s="23"/>
-      <c r="AQ24" s="23"/>
-      <c r="AR24" s="23"/>
-      <c r="AS24" s="23"/>
-      <c r="AT24" s="23"/>
-      <c r="AU24" s="23"/>
+      <c r="W24" s="94"/>
       <c r="AV24" s="72"/>
     </row>
     <row r="25" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B25" s="71"/>
       <c r="C25" s="71"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
       <c r="F25" s="72"/>
       <c r="G25" s="71"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
       <c r="K25" s="72"/>
-      <c r="L25" s="23"/>
       <c r="N25" s="94" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="O25" s="94"/>
       <c r="P25" s="94"/>
@@ -9729,68 +9812,27 @@
       <c r="T25" s="94"/>
       <c r="U25" s="94"/>
       <c r="V25" s="94"/>
-      <c r="X25" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y25" s="94" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z25" s="94"/>
-      <c r="AA25" s="94"/>
-      <c r="AB25" s="94"/>
-      <c r="AD25" s="23"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="23"/>
-      <c r="AG25" s="23"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="AJ25" s="23"/>
-      <c r="AK25" s="23"/>
-      <c r="AL25" s="23"/>
-      <c r="AM25" s="23"/>
-      <c r="AN25" s="23"/>
-      <c r="AO25" s="23"/>
-      <c r="AP25" s="23"/>
-      <c r="AQ25" s="23"/>
-      <c r="AR25" s="23"/>
-      <c r="AS25" s="23"/>
-      <c r="AT25" s="23"/>
-      <c r="AU25" s="23"/>
+      <c r="W25" s="94"/>
       <c r="AV25" s="72"/>
     </row>
     <row r="26" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B26" s="71"/>
       <c r="C26" s="71"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
       <c r="F26" s="72"/>
       <c r="G26" s="71"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
       <c r="K26" s="72"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="94"/>
-      <c r="AD26" s="23"/>
-      <c r="AE26" s="23"/>
-      <c r="AF26" s="23"/>
-      <c r="AG26" s="23"/>
-      <c r="AH26" s="23"/>
-      <c r="AI26" s="23"/>
-      <c r="AJ26" s="23"/>
-      <c r="AK26" s="23"/>
-      <c r="AL26" s="23"/>
-      <c r="AM26" s="23"/>
-      <c r="AN26" s="23"/>
-      <c r="AO26" s="23"/>
-      <c r="AP26" s="23"/>
-      <c r="AQ26" s="23"/>
-      <c r="AR26" s="23"/>
-      <c r="AS26" s="23"/>
-      <c r="AT26" s="23"/>
-      <c r="AU26" s="23"/>
+      <c r="N26" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="94"/>
+      <c r="T26" s="94"/>
+      <c r="U26" s="94"/>
+      <c r="V26" s="94"/>
+      <c r="W26" s="94"/>
       <c r="AV26" s="72"/>
     </row>
     <row r="27" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -9798,14 +9840,19 @@
       <c r="C27" s="71"/>
       <c r="F27" s="72"/>
       <c r="G27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM27" s="94"/>
-      <c r="AN27" s="94"/>
-      <c r="AO27" s="94"/>
-      <c r="AP27" s="94"/>
+      <c r="K27" s="72"/>
+      <c r="N27" s="94" t="s">
+        <v>164</v>
+      </c>
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="94"/>
+      <c r="S27" s="94"/>
+      <c r="T27" s="94"/>
+      <c r="U27" s="94"/>
+      <c r="V27" s="94"/>
+      <c r="W27" s="94"/>
       <c r="AV27" s="72"/>
     </row>
     <row r="28" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -9813,14 +9860,17 @@
       <c r="C28" s="71"/>
       <c r="F28" s="72"/>
       <c r="G28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="N28" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM28" s="94"/>
-      <c r="AN28" s="94"/>
-      <c r="AO28" s="94"/>
-      <c r="AP28" s="94"/>
+      <c r="K28" s="72"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="94"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="94"/>
+      <c r="U28" s="94"/>
+      <c r="V28" s="94"/>
+      <c r="W28" s="94"/>
       <c r="AV28" s="72"/>
     </row>
     <row r="29" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -9828,324 +9878,755 @@
       <c r="C29" s="71"/>
       <c r="F29" s="72"/>
       <c r="G29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="N29" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM29" s="94"/>
-      <c r="AN29" s="94"/>
-      <c r="AO29" s="94"/>
-      <c r="AP29" s="94"/>
+      <c r="K29" s="72"/>
+      <c r="M29" s="94" t="s">
+        <v>134</v>
+      </c>
+      <c r="N29" s="94"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="94"/>
+      <c r="T29" s="94"/>
+      <c r="U29" s="94"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="94"/>
       <c r="AV29" s="72"/>
     </row>
     <row r="30" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B30" s="71"/>
       <c r="C30" s="71"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
       <c r="F30" s="72"/>
       <c r="G30" s="71"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
       <c r="K30" s="72"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="94"/>
-      <c r="AD30" s="23"/>
-      <c r="AE30" s="23"/>
-      <c r="AF30" s="23"/>
-      <c r="AG30" s="23"/>
-      <c r="AH30" s="23"/>
-      <c r="AI30" s="23"/>
-      <c r="AJ30" s="23"/>
-      <c r="AK30" s="23"/>
-      <c r="AL30" s="23"/>
-      <c r="AM30" s="23"/>
-      <c r="AN30" s="23"/>
-      <c r="AO30" s="23"/>
-      <c r="AP30" s="23"/>
-      <c r="AQ30" s="23"/>
-      <c r="AR30" s="23"/>
-      <c r="AS30" s="23"/>
-      <c r="AT30" s="23"/>
-      <c r="AU30" s="23"/>
+      <c r="N30" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="O30" s="94"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="94"/>
+      <c r="S30" s="94"/>
+      <c r="T30" s="94"/>
+      <c r="U30" s="94"/>
+      <c r="V30" s="94"/>
+      <c r="W30" s="94"/>
       <c r="AV30" s="72"/>
     </row>
     <row r="31" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B31" s="71"/>
       <c r="C31" s="71"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
       <c r="F31" s="72"/>
       <c r="G31" s="71"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
       <c r="K31" s="72"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD31" s="23"/>
-      <c r="AE31" s="23"/>
-      <c r="AF31" s="23"/>
-      <c r="AG31" s="23"/>
-      <c r="AH31" s="23"/>
-      <c r="AI31" s="23"/>
-      <c r="AJ31" s="23"/>
-      <c r="AK31" s="23"/>
-      <c r="AL31" s="23"/>
-      <c r="AM31" s="23"/>
-      <c r="AN31" s="23"/>
-      <c r="AO31" s="23"/>
-      <c r="AP31" s="23"/>
-      <c r="AQ31" s="23"/>
-      <c r="AR31" s="23"/>
-      <c r="AS31" s="23"/>
-      <c r="AT31" s="23"/>
-      <c r="AU31" s="23"/>
+      <c r="N31" s="94" t="s">
+        <v>135</v>
+      </c>
+      <c r="O31" s="94"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="94"/>
+      <c r="S31" s="94"/>
+      <c r="T31" s="94"/>
+      <c r="U31" s="94"/>
+      <c r="V31" s="94"/>
+      <c r="W31" s="94"/>
       <c r="AV31" s="72"/>
     </row>
     <row r="32" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B32" s="71"/>
       <c r="C32" s="71"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
       <c r="F32" s="72"/>
       <c r="G32" s="71"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
       <c r="K32" s="72"/>
-      <c r="L32" s="23"/>
-      <c r="N32" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD32" s="23"/>
-      <c r="AE32" s="23"/>
-      <c r="AF32" s="23"/>
-      <c r="AG32" s="23"/>
-      <c r="AH32" s="23"/>
-      <c r="AI32" s="23"/>
-      <c r="AJ32" s="23"/>
-      <c r="AK32" s="23"/>
-      <c r="AL32" s="23"/>
-      <c r="AM32" s="23"/>
-      <c r="AN32" s="23"/>
-      <c r="AO32" s="23"/>
-      <c r="AP32" s="23"/>
-      <c r="AQ32" s="23"/>
-      <c r="AR32" s="23"/>
-      <c r="AS32" s="23"/>
-      <c r="AT32" s="23"/>
-      <c r="AU32" s="23"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="94" t="s">
+        <v>166</v>
+      </c>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="94"/>
+      <c r="S32" s="94"/>
+      <c r="T32" s="94"/>
+      <c r="U32" s="94"/>
+      <c r="V32" s="94"/>
+      <c r="W32" s="94"/>
+      <c r="X32" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y32" s="16" t="s">
+        <v>141</v>
+      </c>
       <c r="AV32" s="72"/>
     </row>
     <row r="33" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="25"/>
-      <c r="AC33" s="25"/>
-      <c r="AD33" s="25"/>
-      <c r="AE33" s="25"/>
-      <c r="AF33" s="25"/>
-      <c r="AG33" s="25"/>
-      <c r="AH33" s="25"/>
-      <c r="AI33" s="25"/>
-      <c r="AJ33" s="25"/>
-      <c r="AK33" s="25"/>
-      <c r="AL33" s="25"/>
-      <c r="AM33" s="25"/>
-      <c r="AN33" s="25"/>
-      <c r="AO33" s="25"/>
-      <c r="AP33" s="25"/>
-      <c r="AQ33" s="25"/>
-      <c r="AR33" s="25"/>
-      <c r="AS33" s="25"/>
-      <c r="AT33" s="25"/>
-      <c r="AU33" s="25"/>
-      <c r="AV33" s="26"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="23"/>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="23"/>
+      <c r="AG33" s="23"/>
+      <c r="AH33" s="23"/>
+      <c r="AI33" s="23"/>
+      <c r="AJ33" s="23"/>
+      <c r="AK33" s="23"/>
+      <c r="AL33" s="23"/>
+      <c r="AM33" s="23"/>
+      <c r="AN33" s="23"/>
+      <c r="AO33" s="23"/>
+      <c r="AP33" s="23"/>
+      <c r="AQ33" s="23"/>
+      <c r="AR33" s="23"/>
+      <c r="AS33" s="23"/>
+      <c r="AT33" s="23"/>
+      <c r="AU33" s="23"/>
+      <c r="AV33" s="72"/>
     </row>
     <row r="34" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B34" s="20">
-        <v>2</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
-      <c r="AA34" s="21"/>
-      <c r="AB34" s="21"/>
-      <c r="AC34" s="21"/>
-      <c r="AD34" s="21"/>
-      <c r="AE34" s="21"/>
-      <c r="AF34" s="21"/>
-      <c r="AG34" s="21"/>
-      <c r="AH34" s="21"/>
-      <c r="AI34" s="21"/>
-      <c r="AJ34" s="21"/>
-      <c r="AK34" s="21"/>
-      <c r="AL34" s="21"/>
-      <c r="AM34" s="21"/>
-      <c r="AN34" s="21"/>
-      <c r="AO34" s="21"/>
-      <c r="AP34" s="21"/>
-      <c r="AQ34" s="21"/>
-      <c r="AR34" s="21"/>
-      <c r="AS34" s="21"/>
-      <c r="AT34" s="21"/>
-      <c r="AU34" s="21"/>
-      <c r="AV34" s="22"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="94"/>
+      <c r="S34" s="94"/>
+      <c r="T34" s="94"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="94"/>
+      <c r="X34" s="94"/>
+      <c r="Y34" s="94"/>
+      <c r="Z34" s="94"/>
+      <c r="AA34" s="94"/>
+      <c r="AB34" s="94"/>
+      <c r="AC34" s="94"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="23"/>
+      <c r="AI34" s="23"/>
+      <c r="AJ34" s="23"/>
+      <c r="AK34" s="23"/>
+      <c r="AL34" s="23"/>
+      <c r="AM34" s="23"/>
+      <c r="AN34" s="23"/>
+      <c r="AO34" s="23"/>
+      <c r="AP34" s="23"/>
+      <c r="AQ34" s="23"/>
+      <c r="AR34" s="23"/>
+      <c r="AS34" s="23"/>
+      <c r="AT34" s="23"/>
+      <c r="AU34" s="23"/>
+      <c r="AV34" s="72"/>
     </row>
     <row r="35" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B35" s="71"/>
       <c r="C35" s="71"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
       <c r="F35" s="72"/>
-      <c r="G35" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
+      <c r="G35" s="71"/>
       <c r="K35" s="72"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="23"/>
-      <c r="AB35" s="23"/>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="23"/>
-      <c r="AE35" s="23"/>
-      <c r="AF35" s="23"/>
-      <c r="AG35" s="23"/>
-      <c r="AH35" s="23"/>
-      <c r="AI35" s="23"/>
-      <c r="AJ35" s="23"/>
-      <c r="AK35" s="23"/>
-      <c r="AL35" s="23"/>
-      <c r="AM35" s="23"/>
-      <c r="AN35" s="23"/>
-      <c r="AO35" s="23"/>
-      <c r="AP35" s="23"/>
-      <c r="AQ35" s="23"/>
-      <c r="AR35" s="23"/>
-      <c r="AS35" s="23"/>
-      <c r="AT35" s="23"/>
-      <c r="AU35" s="23"/>
+      <c r="N35" s="94" t="s">
+        <v>172</v>
+      </c>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="94"/>
+      <c r="X35" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y35" s="102" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z35" s="94"/>
+      <c r="AA35" s="94"/>
+      <c r="AB35" s="94"/>
       <c r="AV35" s="72"/>
     </row>
     <row r="36" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B36" s="71"/>
       <c r="C36" s="71"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
       <c r="F36" s="72"/>
       <c r="G36" s="71"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
       <c r="K36" s="72"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="25"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="25"/>
-      <c r="Z36" s="25"/>
-      <c r="AA36" s="25"/>
-      <c r="AB36" s="25"/>
-      <c r="AC36" s="25"/>
-      <c r="AD36" s="25"/>
-      <c r="AE36" s="25"/>
-      <c r="AF36" s="25"/>
-      <c r="AG36" s="25"/>
-      <c r="AH36" s="25"/>
-      <c r="AI36" s="25"/>
-      <c r="AJ36" s="25"/>
-      <c r="AK36" s="25"/>
-      <c r="AL36" s="25"/>
-      <c r="AM36" s="25"/>
-      <c r="AN36" s="25"/>
-      <c r="AO36" s="25"/>
-      <c r="AP36" s="25"/>
-      <c r="AQ36" s="25"/>
-      <c r="AR36" s="25"/>
-      <c r="AS36" s="25"/>
-      <c r="AT36" s="25"/>
-      <c r="AU36" s="25"/>
-      <c r="AV36" s="26"/>
+      <c r="N36" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="O36" s="94"/>
+      <c r="P36" s="94"/>
+      <c r="Q36" s="94"/>
+      <c r="R36" s="94"/>
+      <c r="S36" s="94"/>
+      <c r="T36" s="94"/>
+      <c r="U36" s="94"/>
+      <c r="V36" s="94"/>
+      <c r="X36" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y36" s="94" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z36" s="94"/>
+      <c r="AA36" s="94"/>
+      <c r="AB36" s="94"/>
+      <c r="AV36" s="72"/>
+    </row>
+    <row r="37" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="71"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="101"/>
+      <c r="N37" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="O37" s="94"/>
+      <c r="P37" s="94"/>
+      <c r="Q37" s="94"/>
+      <c r="R37" s="94"/>
+      <c r="S37" s="94"/>
+      <c r="T37" s="94"/>
+      <c r="U37" s="94"/>
+      <c r="V37" s="94"/>
+      <c r="W37" s="94"/>
+      <c r="X37" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y37" s="102" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA37" s="94"/>
+      <c r="AB37" s="94"/>
+      <c r="AC37" s="94"/>
+      <c r="AG37" s="94"/>
+      <c r="AH37" s="94"/>
+      <c r="AI37" s="94"/>
+      <c r="AJ37" s="103"/>
+      <c r="AV37" s="72"/>
+    </row>
+    <row r="38" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="23"/>
+      <c r="N38" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="O38" s="94"/>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="94"/>
+      <c r="R38" s="94"/>
+      <c r="S38" s="94"/>
+      <c r="T38" s="94"/>
+      <c r="U38" s="94"/>
+      <c r="V38" s="94"/>
+      <c r="X38" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y38" s="94" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z38" s="94"/>
+      <c r="AA38" s="94"/>
+      <c r="AB38" s="94"/>
+      <c r="AD38" s="23"/>
+      <c r="AE38" s="23"/>
+      <c r="AF38" s="23"/>
+      <c r="AG38" s="23"/>
+      <c r="AH38" s="23"/>
+      <c r="AI38" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ38" s="23"/>
+      <c r="AK38" s="23"/>
+      <c r="AL38" s="23"/>
+      <c r="AM38" s="23"/>
+      <c r="AN38" s="23"/>
+      <c r="AO38" s="23"/>
+      <c r="AP38" s="23"/>
+      <c r="AQ38" s="23"/>
+      <c r="AR38" s="23"/>
+      <c r="AS38" s="23"/>
+      <c r="AT38" s="23"/>
+      <c r="AU38" s="23"/>
+      <c r="AV38" s="72"/>
+    </row>
+    <row r="39" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="23"/>
+      <c r="N39" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="O39" s="94"/>
+      <c r="P39" s="94"/>
+      <c r="Q39" s="94"/>
+      <c r="R39" s="94"/>
+      <c r="S39" s="94"/>
+      <c r="T39" s="94"/>
+      <c r="U39" s="94"/>
+      <c r="V39" s="94"/>
+      <c r="X39" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y39" s="94" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z39" s="94"/>
+      <c r="AA39" s="94"/>
+      <c r="AB39" s="94"/>
+      <c r="AD39" s="23"/>
+      <c r="AE39" s="23"/>
+      <c r="AF39" s="23"/>
+      <c r="AG39" s="23"/>
+      <c r="AH39" s="23"/>
+      <c r="AI39" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ39" s="23"/>
+      <c r="AK39" s="23"/>
+      <c r="AL39" s="23"/>
+      <c r="AM39" s="23"/>
+      <c r="AN39" s="23"/>
+      <c r="AO39" s="23"/>
+      <c r="AP39" s="23"/>
+      <c r="AQ39" s="23"/>
+      <c r="AR39" s="23"/>
+      <c r="AS39" s="23"/>
+      <c r="AT39" s="23"/>
+      <c r="AU39" s="23"/>
+      <c r="AV39" s="72"/>
+    </row>
+    <row r="40" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="94"/>
+      <c r="AD40" s="23"/>
+      <c r="AE40" s="23"/>
+      <c r="AF40" s="23"/>
+      <c r="AG40" s="23"/>
+      <c r="AH40" s="23"/>
+      <c r="AI40" s="23"/>
+      <c r="AJ40" s="23"/>
+      <c r="AK40" s="23"/>
+      <c r="AL40" s="23"/>
+      <c r="AM40" s="23"/>
+      <c r="AN40" s="23"/>
+      <c r="AO40" s="23"/>
+      <c r="AP40" s="23"/>
+      <c r="AQ40" s="23"/>
+      <c r="AR40" s="23"/>
+      <c r="AS40" s="23"/>
+      <c r="AT40" s="23"/>
+      <c r="AU40" s="23"/>
+      <c r="AV40" s="72"/>
+    </row>
+    <row r="41" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B41" s="71"/>
+      <c r="C41" s="71"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="71"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM41" s="94"/>
+      <c r="AN41" s="94"/>
+      <c r="AO41" s="94"/>
+      <c r="AP41" s="94"/>
+      <c r="AV41" s="72"/>
+    </row>
+    <row r="42" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="N42" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM42" s="94"/>
+      <c r="AN42" s="94"/>
+      <c r="AO42" s="94"/>
+      <c r="AP42" s="94"/>
+      <c r="AV42" s="72"/>
+    </row>
+    <row r="43" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="N43" s="94" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM43" s="94"/>
+      <c r="AN43" s="94"/>
+      <c r="AO43" s="94"/>
+      <c r="AP43" s="94"/>
+      <c r="AV43" s="72"/>
+    </row>
+    <row r="44" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="94"/>
+      <c r="AD44" s="23"/>
+      <c r="AE44" s="23"/>
+      <c r="AF44" s="23"/>
+      <c r="AG44" s="23"/>
+      <c r="AH44" s="23"/>
+      <c r="AI44" s="23"/>
+      <c r="AJ44" s="23"/>
+      <c r="AK44" s="23"/>
+      <c r="AL44" s="23"/>
+      <c r="AM44" s="23"/>
+      <c r="AN44" s="23"/>
+      <c r="AO44" s="23"/>
+      <c r="AP44" s="23"/>
+      <c r="AQ44" s="23"/>
+      <c r="AR44" s="23"/>
+      <c r="AS44" s="23"/>
+      <c r="AT44" s="23"/>
+      <c r="AU44" s="23"/>
+      <c r="AV44" s="72"/>
+    </row>
+    <row r="45" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD45" s="23"/>
+      <c r="AE45" s="23"/>
+      <c r="AF45" s="23"/>
+      <c r="AG45" s="23"/>
+      <c r="AH45" s="23"/>
+      <c r="AI45" s="23"/>
+      <c r="AJ45" s="23"/>
+      <c r="AK45" s="23"/>
+      <c r="AL45" s="23"/>
+      <c r="AM45" s="23"/>
+      <c r="AN45" s="23"/>
+      <c r="AO45" s="23"/>
+      <c r="AP45" s="23"/>
+      <c r="AQ45" s="23"/>
+      <c r="AR45" s="23"/>
+      <c r="AS45" s="23"/>
+      <c r="AT45" s="23"/>
+      <c r="AU45" s="23"/>
+      <c r="AV45" s="72"/>
+    </row>
+    <row r="46" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="23"/>
+      <c r="N46" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD46" s="23"/>
+      <c r="AE46" s="23"/>
+      <c r="AF46" s="23"/>
+      <c r="AG46" s="23"/>
+      <c r="AH46" s="23"/>
+      <c r="AI46" s="23"/>
+      <c r="AJ46" s="23"/>
+      <c r="AK46" s="23"/>
+      <c r="AL46" s="23"/>
+      <c r="AM46" s="23"/>
+      <c r="AN46" s="23"/>
+      <c r="AO46" s="23"/>
+      <c r="AP46" s="23"/>
+      <c r="AQ46" s="23"/>
+      <c r="AR46" s="23"/>
+      <c r="AS46" s="23"/>
+      <c r="AT46" s="23"/>
+      <c r="AU46" s="23"/>
+      <c r="AV46" s="72"/>
+    </row>
+    <row r="47" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="25"/>
+      <c r="AD47" s="25"/>
+      <c r="AE47" s="25"/>
+      <c r="AF47" s="25"/>
+      <c r="AG47" s="25"/>
+      <c r="AH47" s="25"/>
+      <c r="AI47" s="25"/>
+      <c r="AJ47" s="25"/>
+      <c r="AK47" s="25"/>
+      <c r="AL47" s="25"/>
+      <c r="AM47" s="25"/>
+      <c r="AN47" s="25"/>
+      <c r="AO47" s="25"/>
+      <c r="AP47" s="25"/>
+      <c r="AQ47" s="25"/>
+      <c r="AR47" s="25"/>
+      <c r="AS47" s="25"/>
+      <c r="AT47" s="25"/>
+      <c r="AU47" s="25"/>
+      <c r="AV47" s="26"/>
+    </row>
+    <row r="48" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B48" s="20">
+        <v>2</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="21"/>
+      <c r="Y48" s="21"/>
+      <c r="Z48" s="21"/>
+      <c r="AA48" s="21"/>
+      <c r="AB48" s="21"/>
+      <c r="AC48" s="21"/>
+      <c r="AD48" s="21"/>
+      <c r="AE48" s="21"/>
+      <c r="AF48" s="21"/>
+      <c r="AG48" s="21"/>
+      <c r="AH48" s="21"/>
+      <c r="AI48" s="21"/>
+      <c r="AJ48" s="21"/>
+      <c r="AK48" s="21"/>
+      <c r="AL48" s="21"/>
+      <c r="AM48" s="21"/>
+      <c r="AN48" s="21"/>
+      <c r="AO48" s="21"/>
+      <c r="AP48" s="21"/>
+      <c r="AQ48" s="21"/>
+      <c r="AR48" s="21"/>
+      <c r="AS48" s="21"/>
+      <c r="AT48" s="21"/>
+      <c r="AU48" s="21"/>
+      <c r="AV48" s="22"/>
+    </row>
+    <row r="49" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="72"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="23"/>
+      <c r="W49" s="23"/>
+      <c r="X49" s="23"/>
+      <c r="Y49" s="23"/>
+      <c r="Z49" s="23"/>
+      <c r="AA49" s="23"/>
+      <c r="AB49" s="23"/>
+      <c r="AC49" s="23"/>
+      <c r="AD49" s="23"/>
+      <c r="AE49" s="23"/>
+      <c r="AF49" s="23"/>
+      <c r="AG49" s="23"/>
+      <c r="AH49" s="23"/>
+      <c r="AI49" s="23"/>
+      <c r="AJ49" s="23"/>
+      <c r="AK49" s="23"/>
+      <c r="AL49" s="23"/>
+      <c r="AM49" s="23"/>
+      <c r="AN49" s="23"/>
+      <c r="AO49" s="23"/>
+      <c r="AP49" s="23"/>
+      <c r="AQ49" s="23"/>
+      <c r="AR49" s="23"/>
+      <c r="AS49" s="23"/>
+      <c r="AT49" s="23"/>
+      <c r="AU49" s="23"/>
+      <c r="AV49" s="72"/>
+    </row>
+    <row r="50" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B50" s="71"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="25"/>
+      <c r="W50" s="25"/>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="25"/>
+      <c r="Z50" s="25"/>
+      <c r="AA50" s="25"/>
+      <c r="AB50" s="25"/>
+      <c r="AC50" s="25"/>
+      <c r="AD50" s="25"/>
+      <c r="AE50" s="25"/>
+      <c r="AF50" s="25"/>
+      <c r="AG50" s="25"/>
+      <c r="AH50" s="25"/>
+      <c r="AI50" s="25"/>
+      <c r="AJ50" s="25"/>
+      <c r="AK50" s="25"/>
+      <c r="AL50" s="25"/>
+      <c r="AM50" s="25"/>
+      <c r="AN50" s="25"/>
+      <c r="AO50" s="25"/>
+      <c r="AP50" s="25"/>
+      <c r="AQ50" s="25"/>
+      <c r="AR50" s="25"/>
+      <c r="AS50" s="25"/>
+      <c r="AT50" s="25"/>
+      <c r="AU50" s="25"/>
+      <c r="AV50" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10227,14 +10708,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="141">
+      <c r="AI1" s="145">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
-      <c r="AJ1" s="146"/>
-      <c r="AK1" s="146"/>
-      <c r="AL1" s="146"/>
-      <c r="AM1" s="147"/>
+      <c r="AJ1" s="150"/>
+      <c r="AK1" s="150"/>
+      <c r="AL1" s="150"/>
+      <c r="AM1" s="151"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -10243,16 +10724,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="138" t="str">
+      <c r="AT1" s="142" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="144"/>
-      <c r="AV1" s="144"/>
-      <c r="AW1" s="144"/>
-      <c r="AX1" s="144"/>
-      <c r="AY1" s="144"/>
-      <c r="AZ1" s="145"/>
+      <c r="AU1" s="148"/>
+      <c r="AV1" s="148"/>
+      <c r="AW1" s="148"/>
+      <c r="AX1" s="148"/>
+      <c r="AY1" s="148"/>
+      <c r="AZ1" s="149"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -10280,32 +10761,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="149" t="str">
+      <c r="S2" s="153" t="str">
         <f>'１．機能概要'!W2</f>
         <v>工程別集計</v>
       </c>
-      <c r="T2" s="146"/>
-      <c r="U2" s="146"/>
-      <c r="V2" s="146"/>
-      <c r="W2" s="146"/>
-      <c r="X2" s="146"/>
-      <c r="Y2" s="146"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="146"/>
-      <c r="AB2" s="146"/>
-      <c r="AC2" s="146"/>
-      <c r="AD2" s="147"/>
+      <c r="T2" s="150"/>
+      <c r="U2" s="150"/>
+      <c r="V2" s="150"/>
+      <c r="W2" s="150"/>
+      <c r="X2" s="150"/>
+      <c r="Y2" s="150"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="150"/>
+      <c r="AB2" s="150"/>
+      <c r="AC2" s="150"/>
+      <c r="AD2" s="151"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="148"/>
-      <c r="AJ2" s="144"/>
-      <c r="AK2" s="144"/>
-      <c r="AL2" s="144"/>
-      <c r="AM2" s="145"/>
+      <c r="AI2" s="152"/>
+      <c r="AJ2" s="148"/>
+      <c r="AK2" s="148"/>
+      <c r="AL2" s="148"/>
+      <c r="AM2" s="149"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -10314,13 +10795,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="138"/>
-      <c r="AU2" s="144"/>
-      <c r="AV2" s="144"/>
-      <c r="AW2" s="144"/>
-      <c r="AX2" s="144"/>
-      <c r="AY2" s="144"/>
-      <c r="AZ2" s="145"/>
+      <c r="AT2" s="142"/>
+      <c r="AU2" s="148"/>
+      <c r="AV2" s="148"/>
+      <c r="AW2" s="148"/>
+      <c r="AX2" s="148"/>
+      <c r="AY2" s="148"/>
+      <c r="AZ2" s="149"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
@@ -10842,14 +11323,14 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="141">
+      <c r="AI1" s="145">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
-      <c r="AJ1" s="146"/>
-      <c r="AK1" s="146"/>
-      <c r="AL1" s="146"/>
-      <c r="AM1" s="147"/>
+      <c r="AJ1" s="150"/>
+      <c r="AK1" s="150"/>
+      <c r="AL1" s="150"/>
+      <c r="AM1" s="151"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -10858,16 +11339,16 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="138" t="str">
+      <c r="AT1" s="142" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="144"/>
-      <c r="AV1" s="144"/>
-      <c r="AW1" s="144"/>
-      <c r="AX1" s="144"/>
-      <c r="AY1" s="144"/>
-      <c r="AZ1" s="145"/>
+      <c r="AU1" s="148"/>
+      <c r="AV1" s="148"/>
+      <c r="AW1" s="148"/>
+      <c r="AX1" s="148"/>
+      <c r="AY1" s="148"/>
+      <c r="AZ1" s="149"/>
     </row>
     <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
@@ -10895,32 +11376,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="149" t="str">
+      <c r="S2" s="153" t="str">
         <f>'１．機能概要'!W2</f>
         <v>工程別集計</v>
       </c>
-      <c r="T2" s="146"/>
-      <c r="U2" s="146"/>
-      <c r="V2" s="146"/>
-      <c r="W2" s="146"/>
-      <c r="X2" s="146"/>
-      <c r="Y2" s="146"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="146"/>
-      <c r="AB2" s="146"/>
-      <c r="AC2" s="146"/>
-      <c r="AD2" s="147"/>
+      <c r="T2" s="150"/>
+      <c r="U2" s="150"/>
+      <c r="V2" s="150"/>
+      <c r="W2" s="150"/>
+      <c r="X2" s="150"/>
+      <c r="Y2" s="150"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="150"/>
+      <c r="AB2" s="150"/>
+      <c r="AC2" s="150"/>
+      <c r="AD2" s="151"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="148"/>
-      <c r="AJ2" s="144"/>
-      <c r="AK2" s="144"/>
-      <c r="AL2" s="144"/>
-      <c r="AM2" s="145"/>
+      <c r="AI2" s="152"/>
+      <c r="AJ2" s="148"/>
+      <c r="AK2" s="148"/>
+      <c r="AL2" s="148"/>
+      <c r="AM2" s="149"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -10929,13 +11410,13 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="138"/>
-      <c r="AU2" s="144"/>
-      <c r="AV2" s="144"/>
-      <c r="AW2" s="144"/>
-      <c r="AX2" s="144"/>
-      <c r="AY2" s="144"/>
-      <c r="AZ2" s="145"/>
+      <c r="AT2" s="142"/>
+      <c r="AU2" s="148"/>
+      <c r="AV2" s="148"/>
+      <c r="AW2" s="148"/>
+      <c r="AX2" s="148"/>
+      <c r="AY2" s="148"/>
+      <c r="AZ2" s="149"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>

--- a/01_基本設計書/20200220リリース/SC-K21A_工程別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21A_工程別集計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972D95D7-9533-44CE-8095-86835CE2693E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEBFC0A-6F1F-45BC-87AE-80D8CD6CA555}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="175">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1250,6 +1250,10 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>###,##0</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2060,6 +2064,47 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2090,46 +2135,29 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2143,30 +2171,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2185,13 +2189,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4076,1770 +4080,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="111"/>
-      <c r="AA1" s="111"/>
-      <c r="AB1" s="111"/>
-      <c r="AC1" s="111"/>
-      <c r="AD1" s="111"/>
-      <c r="AE1" s="111"/>
-      <c r="AF1" s="111"/>
-      <c r="AG1" s="111"/>
-      <c r="AH1" s="111"/>
-      <c r="AI1" s="111"/>
-      <c r="AJ1" s="111"/>
-      <c r="AK1" s="111"/>
-      <c r="AL1" s="111"/>
-      <c r="AM1" s="111"/>
-      <c r="AN1" s="111"/>
-      <c r="AO1" s="111"/>
-      <c r="AP1" s="111"/>
-      <c r="AQ1" s="111"/>
-      <c r="AR1" s="111"/>
-      <c r="AS1" s="111"/>
-      <c r="AT1" s="111"/>
-      <c r="AU1" s="111"/>
-      <c r="AV1" s="111"/>
-      <c r="AW1" s="111"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="126"/>
+      <c r="AL1" s="126"/>
+      <c r="AM1" s="126"/>
+      <c r="AN1" s="126"/>
+      <c r="AO1" s="126"/>
+      <c r="AP1" s="126"/>
+      <c r="AQ1" s="126"/>
+      <c r="AR1" s="126"/>
+      <c r="AS1" s="126"/>
+      <c r="AT1" s="126"/>
+      <c r="AU1" s="126"/>
+      <c r="AV1" s="126"/>
+      <c r="AW1" s="126"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
-      <c r="AF2" s="112"/>
-      <c r="AG2" s="112"/>
-      <c r="AH2" s="112"/>
-      <c r="AI2" s="112"/>
-      <c r="AJ2" s="112"/>
-      <c r="AK2" s="112"/>
-      <c r="AL2" s="112"/>
-      <c r="AM2" s="112"/>
-      <c r="AN2" s="112"/>
-      <c r="AO2" s="112"/>
-      <c r="AP2" s="112"/>
-      <c r="AQ2" s="112"/>
-      <c r="AR2" s="112"/>
-      <c r="AS2" s="112"/>
-      <c r="AT2" s="112"/>
-      <c r="AU2" s="112"/>
-      <c r="AV2" s="112"/>
-      <c r="AW2" s="112"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="127"/>
+      <c r="AH2" s="127"/>
+      <c r="AI2" s="127"/>
+      <c r="AJ2" s="127"/>
+      <c r="AK2" s="127"/>
+      <c r="AL2" s="127"/>
+      <c r="AM2" s="127"/>
+      <c r="AN2" s="127"/>
+      <c r="AO2" s="127"/>
+      <c r="AP2" s="127"/>
+      <c r="AQ2" s="127"/>
+      <c r="AR2" s="127"/>
+      <c r="AS2" s="127"/>
+      <c r="AT2" s="127"/>
+      <c r="AU2" s="127"/>
+      <c r="AV2" s="127"/>
+      <c r="AW2" s="127"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113" t="s">
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="115" t="s">
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="116"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="115" t="s">
+      <c r="K3" s="131"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="113" t="s">
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="113"/>
-      <c r="U3" s="113"/>
-      <c r="V3" s="113" t="s">
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="113"/>
-      <c r="X3" s="113"/>
-      <c r="Y3" s="113"/>
-      <c r="Z3" s="113"/>
-      <c r="AA3" s="113"/>
-      <c r="AB3" s="113"/>
-      <c r="AC3" s="113"/>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="113"/>
-      <c r="AG3" s="113"/>
-      <c r="AH3" s="113"/>
-      <c r="AI3" s="113"/>
-      <c r="AJ3" s="113"/>
-      <c r="AK3" s="113"/>
-      <c r="AL3" s="113"/>
-      <c r="AM3" s="113"/>
-      <c r="AN3" s="113" t="s">
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
+      <c r="AI3" s="128"/>
+      <c r="AJ3" s="128"/>
+      <c r="AK3" s="128"/>
+      <c r="AL3" s="128"/>
+      <c r="AM3" s="128"/>
+      <c r="AN3" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="113"/>
-      <c r="AP3" s="113"/>
-      <c r="AQ3" s="113"/>
-      <c r="AR3" s="113"/>
-      <c r="AS3" s="113" t="s">
+      <c r="AO3" s="128"/>
+      <c r="AP3" s="128"/>
+      <c r="AQ3" s="128"/>
+      <c r="AR3" s="128"/>
+      <c r="AS3" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="113"/>
-      <c r="AU3" s="113"/>
-      <c r="AV3" s="113"/>
-      <c r="AW3" s="113"/>
+      <c r="AT3" s="128"/>
+      <c r="AU3" s="128"/>
+      <c r="AV3" s="128"/>
+      <c r="AW3" s="128"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="120"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="114"/>
-      <c r="W4" s="114"/>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="114"/>
-      <c r="Z4" s="114"/>
-      <c r="AA4" s="114"/>
-      <c r="AB4" s="114"/>
-      <c r="AC4" s="114"/>
-      <c r="AD4" s="114"/>
-      <c r="AE4" s="114"/>
-      <c r="AF4" s="114"/>
-      <c r="AG4" s="114"/>
-      <c r="AH4" s="114"/>
-      <c r="AI4" s="114"/>
-      <c r="AJ4" s="114"/>
-      <c r="AK4" s="114"/>
-      <c r="AL4" s="114"/>
-      <c r="AM4" s="114"/>
-      <c r="AN4" s="114"/>
-      <c r="AO4" s="114"/>
-      <c r="AP4" s="114"/>
-      <c r="AQ4" s="114"/>
-      <c r="AR4" s="114"/>
-      <c r="AS4" s="114"/>
-      <c r="AT4" s="114"/>
-      <c r="AU4" s="114"/>
-      <c r="AV4" s="114"/>
-      <c r="AW4" s="114"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="135"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="129"/>
+      <c r="V4" s="129"/>
+      <c r="W4" s="129"/>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="129"/>
+      <c r="Z4" s="129"/>
+      <c r="AA4" s="129"/>
+      <c r="AB4" s="129"/>
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="129"/>
+      <c r="AE4" s="129"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="129"/>
+      <c r="AH4" s="129"/>
+      <c r="AI4" s="129"/>
+      <c r="AJ4" s="129"/>
+      <c r="AK4" s="129"/>
+      <c r="AL4" s="129"/>
+      <c r="AM4" s="129"/>
+      <c r="AN4" s="129"/>
+      <c r="AO4" s="129"/>
+      <c r="AP4" s="129"/>
+      <c r="AQ4" s="129"/>
+      <c r="AR4" s="129"/>
+      <c r="AS4" s="129"/>
+      <c r="AT4" s="129"/>
+      <c r="AU4" s="129"/>
+      <c r="AV4" s="129"/>
+      <c r="AW4" s="129"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="122">
+      <c r="B5" s="112">
         <v>1</v>
       </c>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="123">
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113">
         <v>43721</v>
       </c>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="124" t="s">
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124" t="s">
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="124"/>
-      <c r="S5" s="121" t="s">
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="114"/>
+      <c r="S5" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="121"/>
-      <c r="U5" s="121"/>
-      <c r="V5" s="126" t="s">
+      <c r="T5" s="111"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="126"/>
-      <c r="X5" s="126"/>
-      <c r="Y5" s="126"/>
-      <c r="Z5" s="126"/>
-      <c r="AA5" s="126"/>
-      <c r="AB5" s="126"/>
-      <c r="AC5" s="126"/>
-      <c r="AD5" s="126"/>
-      <c r="AE5" s="126"/>
-      <c r="AF5" s="126"/>
-      <c r="AG5" s="126"/>
-      <c r="AH5" s="126"/>
-      <c r="AI5" s="126"/>
-      <c r="AJ5" s="126"/>
-      <c r="AK5" s="126"/>
-      <c r="AL5" s="126"/>
-      <c r="AM5" s="126"/>
-      <c r="AN5" s="121" t="s">
+      <c r="W5" s="123"/>
+      <c r="X5" s="123"/>
+      <c r="Y5" s="123"/>
+      <c r="Z5" s="123"/>
+      <c r="AA5" s="123"/>
+      <c r="AB5" s="123"/>
+      <c r="AC5" s="123"/>
+      <c r="AD5" s="123"/>
+      <c r="AE5" s="123"/>
+      <c r="AF5" s="123"/>
+      <c r="AG5" s="123"/>
+      <c r="AH5" s="123"/>
+      <c r="AI5" s="123"/>
+      <c r="AJ5" s="123"/>
+      <c r="AK5" s="123"/>
+      <c r="AL5" s="123"/>
+      <c r="AM5" s="123"/>
+      <c r="AN5" s="111" t="s">
         <v>102</v>
       </c>
-      <c r="AO5" s="121"/>
-      <c r="AP5" s="121"/>
-      <c r="AQ5" s="121"/>
-      <c r="AR5" s="121"/>
-      <c r="AS5" s="121"/>
-      <c r="AT5" s="121"/>
-      <c r="AU5" s="121"/>
-      <c r="AV5" s="121"/>
-      <c r="AW5" s="121"/>
+      <c r="AO5" s="111"/>
+      <c r="AP5" s="111"/>
+      <c r="AQ5" s="111"/>
+      <c r="AR5" s="111"/>
+      <c r="AS5" s="111"/>
+      <c r="AT5" s="111"/>
+      <c r="AU5" s="111"/>
+      <c r="AV5" s="111"/>
+      <c r="AW5" s="111"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
       <c r="M6" s="125"/>
       <c r="N6" s="125"/>
       <c r="O6" s="125"/>
       <c r="P6" s="125"/>
       <c r="Q6" s="125"/>
       <c r="R6" s="125"/>
-      <c r="S6" s="121"/>
-      <c r="T6" s="121"/>
-      <c r="U6" s="121"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="126"/>
-      <c r="AC6" s="126"/>
-      <c r="AD6" s="126"/>
-      <c r="AE6" s="126"/>
-      <c r="AF6" s="126"/>
-      <c r="AG6" s="126"/>
-      <c r="AH6" s="126"/>
-      <c r="AI6" s="126"/>
-      <c r="AJ6" s="126"/>
-      <c r="AK6" s="126"/>
-      <c r="AL6" s="126"/>
-      <c r="AM6" s="126"/>
-      <c r="AN6" s="121"/>
-      <c r="AO6" s="121"/>
-      <c r="AP6" s="121"/>
-      <c r="AQ6" s="121"/>
-      <c r="AR6" s="121"/>
-      <c r="AS6" s="121"/>
-      <c r="AT6" s="121"/>
-      <c r="AU6" s="121"/>
-      <c r="AV6" s="121"/>
-      <c r="AW6" s="121"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="123"/>
+      <c r="W6" s="123"/>
+      <c r="X6" s="123"/>
+      <c r="Y6" s="123"/>
+      <c r="Z6" s="123"/>
+      <c r="AA6" s="123"/>
+      <c r="AB6" s="123"/>
+      <c r="AC6" s="123"/>
+      <c r="AD6" s="123"/>
+      <c r="AE6" s="123"/>
+      <c r="AF6" s="123"/>
+      <c r="AG6" s="123"/>
+      <c r="AH6" s="123"/>
+      <c r="AI6" s="123"/>
+      <c r="AJ6" s="123"/>
+      <c r="AK6" s="123"/>
+      <c r="AL6" s="123"/>
+      <c r="AM6" s="123"/>
+      <c r="AN6" s="111"/>
+      <c r="AO6" s="111"/>
+      <c r="AP6" s="111"/>
+      <c r="AQ6" s="111"/>
+      <c r="AR6" s="111"/>
+      <c r="AS6" s="111"/>
+      <c r="AT6" s="111"/>
+      <c r="AU6" s="111"/>
+      <c r="AV6" s="111"/>
+      <c r="AW6" s="111"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
       <c r="M7" s="125"/>
       <c r="N7" s="125"/>
       <c r="O7" s="125"/>
       <c r="P7" s="125"/>
       <c r="Q7" s="125"/>
       <c r="R7" s="125"/>
-      <c r="S7" s="121"/>
-      <c r="T7" s="121"/>
-      <c r="U7" s="121"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="126"/>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="126"/>
-      <c r="AA7" s="126"/>
-      <c r="AB7" s="126"/>
-      <c r="AC7" s="126"/>
-      <c r="AD7" s="126"/>
-      <c r="AE7" s="126"/>
-      <c r="AF7" s="126"/>
-      <c r="AG7" s="126"/>
-      <c r="AH7" s="126"/>
-      <c r="AI7" s="126"/>
-      <c r="AJ7" s="126"/>
-      <c r="AK7" s="126"/>
-      <c r="AL7" s="126"/>
-      <c r="AM7" s="126"/>
-      <c r="AN7" s="121"/>
-      <c r="AO7" s="121"/>
-      <c r="AP7" s="121"/>
-      <c r="AQ7" s="121"/>
-      <c r="AR7" s="121"/>
-      <c r="AS7" s="121"/>
-      <c r="AT7" s="121"/>
-      <c r="AU7" s="121"/>
-      <c r="AV7" s="121"/>
-      <c r="AW7" s="121"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="123"/>
+      <c r="W7" s="123"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="123"/>
+      <c r="Z7" s="123"/>
+      <c r="AA7" s="123"/>
+      <c r="AB7" s="123"/>
+      <c r="AC7" s="123"/>
+      <c r="AD7" s="123"/>
+      <c r="AE7" s="123"/>
+      <c r="AF7" s="123"/>
+      <c r="AG7" s="123"/>
+      <c r="AH7" s="123"/>
+      <c r="AI7" s="123"/>
+      <c r="AJ7" s="123"/>
+      <c r="AK7" s="123"/>
+      <c r="AL7" s="123"/>
+      <c r="AM7" s="123"/>
+      <c r="AN7" s="111"/>
+      <c r="AO7" s="111"/>
+      <c r="AP7" s="111"/>
+      <c r="AQ7" s="111"/>
+      <c r="AR7" s="111"/>
+      <c r="AS7" s="111"/>
+      <c r="AT7" s="111"/>
+      <c r="AU7" s="111"/>
+      <c r="AV7" s="111"/>
+      <c r="AW7" s="111"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
       <c r="M8" s="125"/>
       <c r="N8" s="125"/>
       <c r="O8" s="125"/>
       <c r="P8" s="125"/>
       <c r="Q8" s="125"/>
       <c r="R8" s="125"/>
-      <c r="S8" s="121"/>
-      <c r="T8" s="121"/>
-      <c r="U8" s="121"/>
-      <c r="V8" s="126"/>
-      <c r="W8" s="126"/>
-      <c r="X8" s="126"/>
-      <c r="Y8" s="126"/>
-      <c r="Z8" s="126"/>
-      <c r="AA8" s="126"/>
-      <c r="AB8" s="126"/>
-      <c r="AC8" s="126"/>
-      <c r="AD8" s="126"/>
-      <c r="AE8" s="126"/>
-      <c r="AF8" s="126"/>
-      <c r="AG8" s="126"/>
-      <c r="AH8" s="126"/>
-      <c r="AI8" s="126"/>
-      <c r="AJ8" s="126"/>
-      <c r="AK8" s="126"/>
-      <c r="AL8" s="126"/>
-      <c r="AM8" s="126"/>
-      <c r="AN8" s="121"/>
-      <c r="AO8" s="121"/>
-      <c r="AP8" s="121"/>
-      <c r="AQ8" s="121"/>
-      <c r="AR8" s="121"/>
-      <c r="AS8" s="121"/>
-      <c r="AT8" s="121"/>
-      <c r="AU8" s="121"/>
-      <c r="AV8" s="121"/>
-      <c r="AW8" s="121"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="123"/>
+      <c r="W8" s="123"/>
+      <c r="X8" s="123"/>
+      <c r="Y8" s="123"/>
+      <c r="Z8" s="123"/>
+      <c r="AA8" s="123"/>
+      <c r="AB8" s="123"/>
+      <c r="AC8" s="123"/>
+      <c r="AD8" s="123"/>
+      <c r="AE8" s="123"/>
+      <c r="AF8" s="123"/>
+      <c r="AG8" s="123"/>
+      <c r="AH8" s="123"/>
+      <c r="AI8" s="123"/>
+      <c r="AJ8" s="123"/>
+      <c r="AK8" s="123"/>
+      <c r="AL8" s="123"/>
+      <c r="AM8" s="123"/>
+      <c r="AN8" s="111"/>
+      <c r="AO8" s="111"/>
+      <c r="AP8" s="111"/>
+      <c r="AQ8" s="111"/>
+      <c r="AR8" s="111"/>
+      <c r="AS8" s="111"/>
+      <c r="AT8" s="111"/>
+      <c r="AU8" s="111"/>
+      <c r="AV8" s="111"/>
+      <c r="AW8" s="111"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
       <c r="M9" s="125"/>
       <c r="N9" s="125"/>
       <c r="O9" s="125"/>
       <c r="P9" s="125"/>
       <c r="Q9" s="125"/>
       <c r="R9" s="125"/>
-      <c r="S9" s="121"/>
-      <c r="T9" s="121"/>
-      <c r="U9" s="121"/>
-      <c r="V9" s="126"/>
-      <c r="W9" s="126"/>
-      <c r="X9" s="126"/>
-      <c r="Y9" s="126"/>
-      <c r="Z9" s="126"/>
-      <c r="AA9" s="126"/>
-      <c r="AB9" s="126"/>
-      <c r="AC9" s="126"/>
-      <c r="AD9" s="126"/>
-      <c r="AE9" s="126"/>
-      <c r="AF9" s="126"/>
-      <c r="AG9" s="126"/>
-      <c r="AH9" s="126"/>
-      <c r="AI9" s="126"/>
-      <c r="AJ9" s="126"/>
-      <c r="AK9" s="126"/>
-      <c r="AL9" s="126"/>
-      <c r="AM9" s="126"/>
-      <c r="AN9" s="121"/>
-      <c r="AO9" s="121"/>
-      <c r="AP9" s="121"/>
-      <c r="AQ9" s="121"/>
-      <c r="AR9" s="121"/>
-      <c r="AS9" s="121"/>
-      <c r="AT9" s="121"/>
-      <c r="AU9" s="121"/>
-      <c r="AV9" s="121"/>
-      <c r="AW9" s="121"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="111"/>
+      <c r="V9" s="123"/>
+      <c r="W9" s="123"/>
+      <c r="X9" s="123"/>
+      <c r="Y9" s="123"/>
+      <c r="Z9" s="123"/>
+      <c r="AA9" s="123"/>
+      <c r="AB9" s="123"/>
+      <c r="AC9" s="123"/>
+      <c r="AD9" s="123"/>
+      <c r="AE9" s="123"/>
+      <c r="AF9" s="123"/>
+      <c r="AG9" s="123"/>
+      <c r="AH9" s="123"/>
+      <c r="AI9" s="123"/>
+      <c r="AJ9" s="123"/>
+      <c r="AK9" s="123"/>
+      <c r="AL9" s="123"/>
+      <c r="AM9" s="123"/>
+      <c r="AN9" s="111"/>
+      <c r="AO9" s="111"/>
+      <c r="AP9" s="111"/>
+      <c r="AQ9" s="111"/>
+      <c r="AR9" s="111"/>
+      <c r="AS9" s="111"/>
+      <c r="AT9" s="111"/>
+      <c r="AU9" s="111"/>
+      <c r="AV9" s="111"/>
+      <c r="AW9" s="111"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="124"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
       <c r="M10" s="125"/>
       <c r="N10" s="125"/>
       <c r="O10" s="125"/>
       <c r="P10" s="125"/>
       <c r="Q10" s="125"/>
       <c r="R10" s="125"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="121"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="126"/>
-      <c r="W10" s="126"/>
-      <c r="X10" s="126"/>
-      <c r="Y10" s="126"/>
-      <c r="Z10" s="126"/>
-      <c r="AA10" s="126"/>
-      <c r="AB10" s="126"/>
-      <c r="AC10" s="126"/>
-      <c r="AD10" s="126"/>
-      <c r="AE10" s="126"/>
-      <c r="AF10" s="126"/>
-      <c r="AG10" s="126"/>
-      <c r="AH10" s="126"/>
-      <c r="AI10" s="126"/>
-      <c r="AJ10" s="126"/>
-      <c r="AK10" s="126"/>
-      <c r="AL10" s="126"/>
-      <c r="AM10" s="126"/>
-      <c r="AN10" s="121"/>
-      <c r="AO10" s="121"/>
-      <c r="AP10" s="121"/>
-      <c r="AQ10" s="121"/>
-      <c r="AR10" s="121"/>
-      <c r="AS10" s="121"/>
-      <c r="AT10" s="121"/>
-      <c r="AU10" s="121"/>
-      <c r="AV10" s="121"/>
-      <c r="AW10" s="121"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="123"/>
+      <c r="W10" s="123"/>
+      <c r="X10" s="123"/>
+      <c r="Y10" s="123"/>
+      <c r="Z10" s="123"/>
+      <c r="AA10" s="123"/>
+      <c r="AB10" s="123"/>
+      <c r="AC10" s="123"/>
+      <c r="AD10" s="123"/>
+      <c r="AE10" s="123"/>
+      <c r="AF10" s="123"/>
+      <c r="AG10" s="123"/>
+      <c r="AH10" s="123"/>
+      <c r="AI10" s="123"/>
+      <c r="AJ10" s="123"/>
+      <c r="AK10" s="123"/>
+      <c r="AL10" s="123"/>
+      <c r="AM10" s="123"/>
+      <c r="AN10" s="111"/>
+      <c r="AO10" s="111"/>
+      <c r="AP10" s="111"/>
+      <c r="AQ10" s="111"/>
+      <c r="AR10" s="111"/>
+      <c r="AS10" s="111"/>
+      <c r="AT10" s="111"/>
+      <c r="AU10" s="111"/>
+      <c r="AV10" s="111"/>
+      <c r="AW10" s="111"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="127"/>
-      <c r="O11" s="127"/>
-      <c r="P11" s="127"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="127"/>
-      <c r="S11" s="121"/>
-      <c r="T11" s="121"/>
-      <c r="U11" s="121"/>
-      <c r="V11" s="128"/>
-      <c r="W11" s="129"/>
-      <c r="X11" s="129"/>
-      <c r="Y11" s="129"/>
-      <c r="Z11" s="129"/>
-      <c r="AA11" s="129"/>
-      <c r="AB11" s="129"/>
-      <c r="AC11" s="129"/>
-      <c r="AD11" s="129"/>
-      <c r="AE11" s="129"/>
-      <c r="AF11" s="129"/>
-      <c r="AG11" s="129"/>
-      <c r="AH11" s="129"/>
-      <c r="AI11" s="129"/>
-      <c r="AJ11" s="129"/>
-      <c r="AK11" s="129"/>
-      <c r="AL11" s="129"/>
-      <c r="AM11" s="129"/>
-      <c r="AN11" s="121"/>
-      <c r="AO11" s="121"/>
-      <c r="AP11" s="121"/>
-      <c r="AQ11" s="121"/>
-      <c r="AR11" s="121"/>
-      <c r="AS11" s="121"/>
-      <c r="AT11" s="121"/>
-      <c r="AU11" s="121"/>
-      <c r="AV11" s="121"/>
-      <c r="AW11" s="121"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="117"/>
+      <c r="W11" s="124"/>
+      <c r="X11" s="124"/>
+      <c r="Y11" s="124"/>
+      <c r="Z11" s="124"/>
+      <c r="AA11" s="124"/>
+      <c r="AB11" s="124"/>
+      <c r="AC11" s="124"/>
+      <c r="AD11" s="124"/>
+      <c r="AE11" s="124"/>
+      <c r="AF11" s="124"/>
+      <c r="AG11" s="124"/>
+      <c r="AH11" s="124"/>
+      <c r="AI11" s="124"/>
+      <c r="AJ11" s="124"/>
+      <c r="AK11" s="124"/>
+      <c r="AL11" s="124"/>
+      <c r="AM11" s="124"/>
+      <c r="AN11" s="111"/>
+      <c r="AO11" s="111"/>
+      <c r="AP11" s="111"/>
+      <c r="AQ11" s="111"/>
+      <c r="AR11" s="111"/>
+      <c r="AS11" s="111"/>
+      <c r="AT11" s="111"/>
+      <c r="AU11" s="111"/>
+      <c r="AV11" s="111"/>
+      <c r="AW11" s="111"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="127"/>
-      <c r="N12" s="127"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="127"/>
-      <c r="Q12" s="127"/>
-      <c r="R12" s="127"/>
-      <c r="S12" s="121"/>
-      <c r="T12" s="121"/>
-      <c r="U12" s="121"/>
-      <c r="V12" s="128"/>
-      <c r="W12" s="128"/>
-      <c r="X12" s="128"/>
-      <c r="Y12" s="128"/>
-      <c r="Z12" s="128"/>
-      <c r="AA12" s="128"/>
-      <c r="AB12" s="128"/>
-      <c r="AC12" s="128"/>
-      <c r="AD12" s="128"/>
-      <c r="AE12" s="128"/>
-      <c r="AF12" s="128"/>
-      <c r="AG12" s="128"/>
-      <c r="AH12" s="128"/>
-      <c r="AI12" s="128"/>
-      <c r="AJ12" s="128"/>
-      <c r="AK12" s="128"/>
-      <c r="AL12" s="128"/>
-      <c r="AM12" s="128"/>
-      <c r="AN12" s="121"/>
-      <c r="AO12" s="121"/>
-      <c r="AP12" s="121"/>
-      <c r="AQ12" s="121"/>
-      <c r="AR12" s="121"/>
-      <c r="AS12" s="121"/>
-      <c r="AT12" s="121"/>
-      <c r="AU12" s="121"/>
-      <c r="AV12" s="121"/>
-      <c r="AW12" s="121"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="119"/>
+      <c r="P12" s="119"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="117"/>
+      <c r="X12" s="117"/>
+      <c r="Y12" s="117"/>
+      <c r="Z12" s="117"/>
+      <c r="AA12" s="117"/>
+      <c r="AB12" s="117"/>
+      <c r="AC12" s="117"/>
+      <c r="AD12" s="117"/>
+      <c r="AE12" s="117"/>
+      <c r="AF12" s="117"/>
+      <c r="AG12" s="117"/>
+      <c r="AH12" s="117"/>
+      <c r="AI12" s="117"/>
+      <c r="AJ12" s="117"/>
+      <c r="AK12" s="117"/>
+      <c r="AL12" s="117"/>
+      <c r="AM12" s="117"/>
+      <c r="AN12" s="111"/>
+      <c r="AO12" s="111"/>
+      <c r="AP12" s="111"/>
+      <c r="AQ12" s="111"/>
+      <c r="AR12" s="111"/>
+      <c r="AS12" s="111"/>
+      <c r="AT12" s="111"/>
+      <c r="AU12" s="111"/>
+      <c r="AV12" s="111"/>
+      <c r="AW12" s="111"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="121"/>
-      <c r="T13" s="121"/>
-      <c r="U13" s="121"/>
-      <c r="V13" s="128"/>
-      <c r="W13" s="128"/>
-      <c r="X13" s="128"/>
-      <c r="Y13" s="128"/>
-      <c r="Z13" s="128"/>
-      <c r="AA13" s="128"/>
-      <c r="AB13" s="128"/>
-      <c r="AC13" s="128"/>
-      <c r="AD13" s="128"/>
-      <c r="AE13" s="128"/>
-      <c r="AF13" s="128"/>
-      <c r="AG13" s="128"/>
-      <c r="AH13" s="128"/>
-      <c r="AI13" s="128"/>
-      <c r="AJ13" s="128"/>
-      <c r="AK13" s="128"/>
-      <c r="AL13" s="128"/>
-      <c r="AM13" s="128"/>
-      <c r="AN13" s="121"/>
-      <c r="AO13" s="121"/>
-      <c r="AP13" s="121"/>
-      <c r="AQ13" s="121"/>
-      <c r="AR13" s="121"/>
-      <c r="AS13" s="121"/>
-      <c r="AT13" s="121"/>
-      <c r="AU13" s="121"/>
-      <c r="AV13" s="121"/>
-      <c r="AW13" s="121"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="119"/>
+      <c r="P13" s="119"/>
+      <c r="Q13" s="119"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="117"/>
+      <c r="X13" s="117"/>
+      <c r="Y13" s="117"/>
+      <c r="Z13" s="117"/>
+      <c r="AA13" s="117"/>
+      <c r="AB13" s="117"/>
+      <c r="AC13" s="117"/>
+      <c r="AD13" s="117"/>
+      <c r="AE13" s="117"/>
+      <c r="AF13" s="117"/>
+      <c r="AG13" s="117"/>
+      <c r="AH13" s="117"/>
+      <c r="AI13" s="117"/>
+      <c r="AJ13" s="117"/>
+      <c r="AK13" s="117"/>
+      <c r="AL13" s="117"/>
+      <c r="AM13" s="117"/>
+      <c r="AN13" s="111"/>
+      <c r="AO13" s="111"/>
+      <c r="AP13" s="111"/>
+      <c r="AQ13" s="111"/>
+      <c r="AR13" s="111"/>
+      <c r="AS13" s="111"/>
+      <c r="AT13" s="111"/>
+      <c r="AU13" s="111"/>
+      <c r="AV13" s="111"/>
+      <c r="AW13" s="111"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="127"/>
-      <c r="P14" s="127"/>
-      <c r="Q14" s="127"/>
-      <c r="R14" s="127"/>
-      <c r="S14" s="121"/>
-      <c r="T14" s="121"/>
-      <c r="U14" s="121"/>
-      <c r="V14" s="131"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="126"/>
-      <c r="Y14" s="126"/>
-      <c r="Z14" s="126"/>
-      <c r="AA14" s="126"/>
-      <c r="AB14" s="126"/>
-      <c r="AC14" s="126"/>
-      <c r="AD14" s="126"/>
-      <c r="AE14" s="126"/>
-      <c r="AF14" s="126"/>
-      <c r="AG14" s="126"/>
-      <c r="AH14" s="126"/>
-      <c r="AI14" s="126"/>
-      <c r="AJ14" s="126"/>
-      <c r="AK14" s="126"/>
-      <c r="AL14" s="126"/>
-      <c r="AM14" s="126"/>
-      <c r="AN14" s="121"/>
-      <c r="AO14" s="121"/>
-      <c r="AP14" s="121"/>
-      <c r="AQ14" s="121"/>
-      <c r="AR14" s="121"/>
-      <c r="AS14" s="121"/>
-      <c r="AT14" s="121"/>
-      <c r="AU14" s="121"/>
-      <c r="AV14" s="121"/>
-      <c r="AW14" s="121"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="118"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="123"/>
+      <c r="X14" s="123"/>
+      <c r="Y14" s="123"/>
+      <c r="Z14" s="123"/>
+      <c r="AA14" s="123"/>
+      <c r="AB14" s="123"/>
+      <c r="AC14" s="123"/>
+      <c r="AD14" s="123"/>
+      <c r="AE14" s="123"/>
+      <c r="AF14" s="123"/>
+      <c r="AG14" s="123"/>
+      <c r="AH14" s="123"/>
+      <c r="AI14" s="123"/>
+      <c r="AJ14" s="123"/>
+      <c r="AK14" s="123"/>
+      <c r="AL14" s="123"/>
+      <c r="AM14" s="123"/>
+      <c r="AN14" s="111"/>
+      <c r="AO14" s="111"/>
+      <c r="AP14" s="111"/>
+      <c r="AQ14" s="111"/>
+      <c r="AR14" s="111"/>
+      <c r="AS14" s="111"/>
+      <c r="AT14" s="111"/>
+      <c r="AU14" s="111"/>
+      <c r="AV14" s="111"/>
+      <c r="AW14" s="111"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="121"/>
-      <c r="T15" s="121"/>
-      <c r="U15" s="121"/>
-      <c r="V15" s="128"/>
-      <c r="W15" s="128"/>
-      <c r="X15" s="128"/>
-      <c r="Y15" s="128"/>
-      <c r="Z15" s="128"/>
-      <c r="AA15" s="128"/>
-      <c r="AB15" s="128"/>
-      <c r="AC15" s="128"/>
-      <c r="AD15" s="128"/>
-      <c r="AE15" s="128"/>
-      <c r="AF15" s="128"/>
-      <c r="AG15" s="128"/>
-      <c r="AH15" s="128"/>
-      <c r="AI15" s="128"/>
-      <c r="AJ15" s="128"/>
-      <c r="AK15" s="128"/>
-      <c r="AL15" s="128"/>
-      <c r="AM15" s="128"/>
-      <c r="AN15" s="121"/>
-      <c r="AO15" s="121"/>
-      <c r="AP15" s="121"/>
-      <c r="AQ15" s="121"/>
-      <c r="AR15" s="121"/>
-      <c r="AS15" s="121"/>
-      <c r="AT15" s="121"/>
-      <c r="AU15" s="121"/>
-      <c r="AV15" s="121"/>
-      <c r="AW15" s="121"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="119"/>
+      <c r="N15" s="119"/>
+      <c r="O15" s="119"/>
+      <c r="P15" s="119"/>
+      <c r="Q15" s="119"/>
+      <c r="R15" s="119"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="111"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="117"/>
+      <c r="W15" s="117"/>
+      <c r="X15" s="117"/>
+      <c r="Y15" s="117"/>
+      <c r="Z15" s="117"/>
+      <c r="AA15" s="117"/>
+      <c r="AB15" s="117"/>
+      <c r="AC15" s="117"/>
+      <c r="AD15" s="117"/>
+      <c r="AE15" s="117"/>
+      <c r="AF15" s="117"/>
+      <c r="AG15" s="117"/>
+      <c r="AH15" s="117"/>
+      <c r="AI15" s="117"/>
+      <c r="AJ15" s="117"/>
+      <c r="AK15" s="117"/>
+      <c r="AL15" s="117"/>
+      <c r="AM15" s="117"/>
+      <c r="AN15" s="111"/>
+      <c r="AO15" s="111"/>
+      <c r="AP15" s="111"/>
+      <c r="AQ15" s="111"/>
+      <c r="AR15" s="111"/>
+      <c r="AS15" s="111"/>
+      <c r="AT15" s="111"/>
+      <c r="AU15" s="111"/>
+      <c r="AV15" s="111"/>
+      <c r="AW15" s="111"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="121"/>
-      <c r="T16" s="121"/>
-      <c r="U16" s="121"/>
-      <c r="V16" s="128"/>
-      <c r="W16" s="128"/>
-      <c r="X16" s="128"/>
-      <c r="Y16" s="128"/>
-      <c r="Z16" s="128"/>
-      <c r="AA16" s="128"/>
-      <c r="AB16" s="128"/>
-      <c r="AC16" s="128"/>
-      <c r="AD16" s="128"/>
-      <c r="AE16" s="128"/>
-      <c r="AF16" s="128"/>
-      <c r="AG16" s="128"/>
-      <c r="AH16" s="128"/>
-      <c r="AI16" s="128"/>
-      <c r="AJ16" s="128"/>
-      <c r="AK16" s="128"/>
-      <c r="AL16" s="128"/>
-      <c r="AM16" s="128"/>
-      <c r="AN16" s="121"/>
-      <c r="AO16" s="121"/>
-      <c r="AP16" s="121"/>
-      <c r="AQ16" s="121"/>
-      <c r="AR16" s="121"/>
-      <c r="AS16" s="121"/>
-      <c r="AT16" s="121"/>
-      <c r="AU16" s="121"/>
-      <c r="AV16" s="121"/>
-      <c r="AW16" s="121"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="119"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="111"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="117"/>
+      <c r="W16" s="117"/>
+      <c r="X16" s="117"/>
+      <c r="Y16" s="117"/>
+      <c r="Z16" s="117"/>
+      <c r="AA16" s="117"/>
+      <c r="AB16" s="117"/>
+      <c r="AC16" s="117"/>
+      <c r="AD16" s="117"/>
+      <c r="AE16" s="117"/>
+      <c r="AF16" s="117"/>
+      <c r="AG16" s="117"/>
+      <c r="AH16" s="117"/>
+      <c r="AI16" s="117"/>
+      <c r="AJ16" s="117"/>
+      <c r="AK16" s="117"/>
+      <c r="AL16" s="117"/>
+      <c r="AM16" s="117"/>
+      <c r="AN16" s="111"/>
+      <c r="AO16" s="111"/>
+      <c r="AP16" s="111"/>
+      <c r="AQ16" s="111"/>
+      <c r="AR16" s="111"/>
+      <c r="AS16" s="111"/>
+      <c r="AT16" s="111"/>
+      <c r="AU16" s="111"/>
+      <c r="AV16" s="111"/>
+      <c r="AW16" s="111"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="132"/>
-      <c r="S17" s="133"/>
-      <c r="T17" s="133"/>
-      <c r="U17" s="133"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="128"/>
-      <c r="X17" s="128"/>
-      <c r="Y17" s="128"/>
-      <c r="Z17" s="128"/>
-      <c r="AA17" s="128"/>
-      <c r="AB17" s="128"/>
-      <c r="AC17" s="128"/>
-      <c r="AD17" s="128"/>
-      <c r="AE17" s="128"/>
-      <c r="AF17" s="128"/>
-      <c r="AG17" s="128"/>
-      <c r="AH17" s="128"/>
-      <c r="AI17" s="128"/>
-      <c r="AJ17" s="128"/>
-      <c r="AK17" s="128"/>
-      <c r="AL17" s="128"/>
-      <c r="AM17" s="128"/>
-      <c r="AN17" s="121"/>
-      <c r="AO17" s="121"/>
-      <c r="AP17" s="121"/>
-      <c r="AQ17" s="121"/>
-      <c r="AR17" s="121"/>
-      <c r="AS17" s="121"/>
-      <c r="AT17" s="121"/>
-      <c r="AU17" s="121"/>
-      <c r="AV17" s="121"/>
-      <c r="AW17" s="121"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="120"/>
+      <c r="S17" s="121"/>
+      <c r="T17" s="121"/>
+      <c r="U17" s="121"/>
+      <c r="V17" s="117"/>
+      <c r="W17" s="117"/>
+      <c r="X17" s="117"/>
+      <c r="Y17" s="117"/>
+      <c r="Z17" s="117"/>
+      <c r="AA17" s="117"/>
+      <c r="AB17" s="117"/>
+      <c r="AC17" s="117"/>
+      <c r="AD17" s="117"/>
+      <c r="AE17" s="117"/>
+      <c r="AF17" s="117"/>
+      <c r="AG17" s="117"/>
+      <c r="AH17" s="117"/>
+      <c r="AI17" s="117"/>
+      <c r="AJ17" s="117"/>
+      <c r="AK17" s="117"/>
+      <c r="AL17" s="117"/>
+      <c r="AM17" s="117"/>
+      <c r="AN17" s="111"/>
+      <c r="AO17" s="111"/>
+      <c r="AP17" s="111"/>
+      <c r="AQ17" s="111"/>
+      <c r="AR17" s="111"/>
+      <c r="AS17" s="111"/>
+      <c r="AT17" s="111"/>
+      <c r="AU17" s="111"/>
+      <c r="AV17" s="111"/>
+      <c r="AW17" s="111"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="127"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="127"/>
-      <c r="Q18" s="127"/>
-      <c r="R18" s="127"/>
-      <c r="S18" s="121"/>
-      <c r="T18" s="121"/>
-      <c r="U18" s="121"/>
-      <c r="V18" s="128"/>
-      <c r="W18" s="128"/>
-      <c r="X18" s="128"/>
-      <c r="Y18" s="128"/>
-      <c r="Z18" s="128"/>
-      <c r="AA18" s="128"/>
-      <c r="AB18" s="128"/>
-      <c r="AC18" s="128"/>
-      <c r="AD18" s="128"/>
-      <c r="AE18" s="128"/>
-      <c r="AF18" s="128"/>
-      <c r="AG18" s="128"/>
-      <c r="AH18" s="128"/>
-      <c r="AI18" s="128"/>
-      <c r="AJ18" s="128"/>
-      <c r="AK18" s="128"/>
-      <c r="AL18" s="128"/>
-      <c r="AM18" s="128"/>
-      <c r="AN18" s="121"/>
-      <c r="AO18" s="121"/>
-      <c r="AP18" s="121"/>
-      <c r="AQ18" s="121"/>
-      <c r="AR18" s="121"/>
-      <c r="AS18" s="121"/>
-      <c r="AT18" s="121"/>
-      <c r="AU18" s="121"/>
-      <c r="AV18" s="121"/>
-      <c r="AW18" s="121"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="119"/>
+      <c r="P18" s="119"/>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="111"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="117"/>
+      <c r="W18" s="117"/>
+      <c r="X18" s="117"/>
+      <c r="Y18" s="117"/>
+      <c r="Z18" s="117"/>
+      <c r="AA18" s="117"/>
+      <c r="AB18" s="117"/>
+      <c r="AC18" s="117"/>
+      <c r="AD18" s="117"/>
+      <c r="AE18" s="117"/>
+      <c r="AF18" s="117"/>
+      <c r="AG18" s="117"/>
+      <c r="AH18" s="117"/>
+      <c r="AI18" s="117"/>
+      <c r="AJ18" s="117"/>
+      <c r="AK18" s="117"/>
+      <c r="AL18" s="117"/>
+      <c r="AM18" s="117"/>
+      <c r="AN18" s="111"/>
+      <c r="AO18" s="111"/>
+      <c r="AP18" s="111"/>
+      <c r="AQ18" s="111"/>
+      <c r="AR18" s="111"/>
+      <c r="AS18" s="111"/>
+      <c r="AT18" s="111"/>
+      <c r="AU18" s="111"/>
+      <c r="AV18" s="111"/>
+      <c r="AW18" s="111"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="127"/>
-      <c r="N19" s="127"/>
-      <c r="O19" s="127"/>
-      <c r="P19" s="127"/>
-      <c r="Q19" s="127"/>
-      <c r="R19" s="127"/>
-      <c r="S19" s="121"/>
-      <c r="T19" s="121"/>
-      <c r="U19" s="121"/>
-      <c r="V19" s="128"/>
-      <c r="W19" s="128"/>
-      <c r="X19" s="128"/>
-      <c r="Y19" s="128"/>
-      <c r="Z19" s="128"/>
-      <c r="AA19" s="128"/>
-      <c r="AB19" s="128"/>
-      <c r="AC19" s="128"/>
-      <c r="AD19" s="128"/>
-      <c r="AE19" s="128"/>
-      <c r="AF19" s="128"/>
-      <c r="AG19" s="128"/>
-      <c r="AH19" s="128"/>
-      <c r="AI19" s="128"/>
-      <c r="AJ19" s="128"/>
-      <c r="AK19" s="128"/>
-      <c r="AL19" s="128"/>
-      <c r="AM19" s="128"/>
-      <c r="AN19" s="121"/>
-      <c r="AO19" s="121"/>
-      <c r="AP19" s="121"/>
-      <c r="AQ19" s="121"/>
-      <c r="AR19" s="121"/>
-      <c r="AS19" s="121"/>
-      <c r="AT19" s="121"/>
-      <c r="AU19" s="121"/>
-      <c r="AV19" s="121"/>
-      <c r="AW19" s="121"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="119"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="119"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="111"/>
+      <c r="T19" s="111"/>
+      <c r="U19" s="111"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="117"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="117"/>
+      <c r="Z19" s="117"/>
+      <c r="AA19" s="117"/>
+      <c r="AB19" s="117"/>
+      <c r="AC19" s="117"/>
+      <c r="AD19" s="117"/>
+      <c r="AE19" s="117"/>
+      <c r="AF19" s="117"/>
+      <c r="AG19" s="117"/>
+      <c r="AH19" s="117"/>
+      <c r="AI19" s="117"/>
+      <c r="AJ19" s="117"/>
+      <c r="AK19" s="117"/>
+      <c r="AL19" s="117"/>
+      <c r="AM19" s="117"/>
+      <c r="AN19" s="111"/>
+      <c r="AO19" s="111"/>
+      <c r="AP19" s="111"/>
+      <c r="AQ19" s="111"/>
+      <c r="AR19" s="111"/>
+      <c r="AS19" s="111"/>
+      <c r="AT19" s="111"/>
+      <c r="AU19" s="111"/>
+      <c r="AV19" s="111"/>
+      <c r="AW19" s="111"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="127"/>
-      <c r="S20" s="121"/>
-      <c r="T20" s="121"/>
-      <c r="U20" s="121"/>
-      <c r="V20" s="128"/>
-      <c r="W20" s="128"/>
-      <c r="X20" s="128"/>
-      <c r="Y20" s="128"/>
-      <c r="Z20" s="128"/>
-      <c r="AA20" s="128"/>
-      <c r="AB20" s="128"/>
-      <c r="AC20" s="128"/>
-      <c r="AD20" s="128"/>
-      <c r="AE20" s="128"/>
-      <c r="AF20" s="128"/>
-      <c r="AG20" s="128"/>
-      <c r="AH20" s="128"/>
-      <c r="AI20" s="128"/>
-      <c r="AJ20" s="128"/>
-      <c r="AK20" s="128"/>
-      <c r="AL20" s="128"/>
-      <c r="AM20" s="128"/>
-      <c r="AN20" s="121"/>
-      <c r="AO20" s="121"/>
-      <c r="AP20" s="121"/>
-      <c r="AQ20" s="121"/>
-      <c r="AR20" s="121"/>
-      <c r="AS20" s="121"/>
-      <c r="AT20" s="121"/>
-      <c r="AU20" s="121"/>
-      <c r="AV20" s="121"/>
-      <c r="AW20" s="121"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="119"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="111"/>
+      <c r="T20" s="111"/>
+      <c r="U20" s="111"/>
+      <c r="V20" s="117"/>
+      <c r="W20" s="117"/>
+      <c r="X20" s="117"/>
+      <c r="Y20" s="117"/>
+      <c r="Z20" s="117"/>
+      <c r="AA20" s="117"/>
+      <c r="AB20" s="117"/>
+      <c r="AC20" s="117"/>
+      <c r="AD20" s="117"/>
+      <c r="AE20" s="117"/>
+      <c r="AF20" s="117"/>
+      <c r="AG20" s="117"/>
+      <c r="AH20" s="117"/>
+      <c r="AI20" s="117"/>
+      <c r="AJ20" s="117"/>
+      <c r="AK20" s="117"/>
+      <c r="AL20" s="117"/>
+      <c r="AM20" s="117"/>
+      <c r="AN20" s="111"/>
+      <c r="AO20" s="111"/>
+      <c r="AP20" s="111"/>
+      <c r="AQ20" s="111"/>
+      <c r="AR20" s="111"/>
+      <c r="AS20" s="111"/>
+      <c r="AT20" s="111"/>
+      <c r="AU20" s="111"/>
+      <c r="AV20" s="111"/>
+      <c r="AW20" s="111"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="127"/>
-      <c r="N21" s="127"/>
-      <c r="O21" s="127"/>
-      <c r="P21" s="127"/>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="127"/>
-      <c r="S21" s="121"/>
-      <c r="T21" s="121"/>
-      <c r="U21" s="121"/>
-      <c r="V21" s="128"/>
-      <c r="W21" s="128"/>
-      <c r="X21" s="128"/>
-      <c r="Y21" s="128"/>
-      <c r="Z21" s="128"/>
-      <c r="AA21" s="128"/>
-      <c r="AB21" s="128"/>
-      <c r="AC21" s="128"/>
-      <c r="AD21" s="128"/>
-      <c r="AE21" s="128"/>
-      <c r="AF21" s="128"/>
-      <c r="AG21" s="128"/>
-      <c r="AH21" s="128"/>
-      <c r="AI21" s="128"/>
-      <c r="AJ21" s="128"/>
-      <c r="AK21" s="128"/>
-      <c r="AL21" s="128"/>
-      <c r="AM21" s="128"/>
-      <c r="AN21" s="121"/>
-      <c r="AO21" s="121"/>
-      <c r="AP21" s="121"/>
-      <c r="AQ21" s="121"/>
-      <c r="AR21" s="121"/>
-      <c r="AS21" s="121"/>
-      <c r="AT21" s="121"/>
-      <c r="AU21" s="121"/>
-      <c r="AV21" s="121"/>
-      <c r="AW21" s="121"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="111"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="117"/>
+      <c r="W21" s="117"/>
+      <c r="X21" s="117"/>
+      <c r="Y21" s="117"/>
+      <c r="Z21" s="117"/>
+      <c r="AA21" s="117"/>
+      <c r="AB21" s="117"/>
+      <c r="AC21" s="117"/>
+      <c r="AD21" s="117"/>
+      <c r="AE21" s="117"/>
+      <c r="AF21" s="117"/>
+      <c r="AG21" s="117"/>
+      <c r="AH21" s="117"/>
+      <c r="AI21" s="117"/>
+      <c r="AJ21" s="117"/>
+      <c r="AK21" s="117"/>
+      <c r="AL21" s="117"/>
+      <c r="AM21" s="117"/>
+      <c r="AN21" s="111"/>
+      <c r="AO21" s="111"/>
+      <c r="AP21" s="111"/>
+      <c r="AQ21" s="111"/>
+      <c r="AR21" s="111"/>
+      <c r="AS21" s="111"/>
+      <c r="AT21" s="111"/>
+      <c r="AU21" s="111"/>
+      <c r="AV21" s="111"/>
+      <c r="AW21" s="111"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="124"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="127"/>
-      <c r="O22" s="127"/>
-      <c r="P22" s="127"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="127"/>
-      <c r="S22" s="121"/>
-      <c r="T22" s="121"/>
-      <c r="U22" s="121"/>
-      <c r="V22" s="128"/>
-      <c r="W22" s="128"/>
-      <c r="X22" s="128"/>
-      <c r="Y22" s="128"/>
-      <c r="Z22" s="128"/>
-      <c r="AA22" s="128"/>
-      <c r="AB22" s="128"/>
-      <c r="AC22" s="128"/>
-      <c r="AD22" s="128"/>
-      <c r="AE22" s="128"/>
-      <c r="AF22" s="128"/>
-      <c r="AG22" s="128"/>
-      <c r="AH22" s="128"/>
-      <c r="AI22" s="128"/>
-      <c r="AJ22" s="128"/>
-      <c r="AK22" s="128"/>
-      <c r="AL22" s="128"/>
-      <c r="AM22" s="128"/>
-      <c r="AN22" s="121"/>
-      <c r="AO22" s="121"/>
-      <c r="AP22" s="121"/>
-      <c r="AQ22" s="121"/>
-      <c r="AR22" s="121"/>
-      <c r="AS22" s="121"/>
-      <c r="AT22" s="121"/>
-      <c r="AU22" s="121"/>
-      <c r="AV22" s="121"/>
-      <c r="AW22" s="121"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="117"/>
+      <c r="W22" s="117"/>
+      <c r="X22" s="117"/>
+      <c r="Y22" s="117"/>
+      <c r="Z22" s="117"/>
+      <c r="AA22" s="117"/>
+      <c r="AB22" s="117"/>
+      <c r="AC22" s="117"/>
+      <c r="AD22" s="117"/>
+      <c r="AE22" s="117"/>
+      <c r="AF22" s="117"/>
+      <c r="AG22" s="117"/>
+      <c r="AH22" s="117"/>
+      <c r="AI22" s="117"/>
+      <c r="AJ22" s="117"/>
+      <c r="AK22" s="117"/>
+      <c r="AL22" s="117"/>
+      <c r="AM22" s="117"/>
+      <c r="AN22" s="111"/>
+      <c r="AO22" s="111"/>
+      <c r="AP22" s="111"/>
+      <c r="AQ22" s="111"/>
+      <c r="AR22" s="111"/>
+      <c r="AS22" s="111"/>
+      <c r="AT22" s="111"/>
+      <c r="AU22" s="111"/>
+      <c r="AV22" s="111"/>
+      <c r="AW22" s="111"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="124"/>
-      <c r="M23" s="127"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="127"/>
-      <c r="P23" s="127"/>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="127"/>
-      <c r="S23" s="121"/>
-      <c r="T23" s="121"/>
-      <c r="U23" s="121"/>
-      <c r="V23" s="128"/>
-      <c r="W23" s="128"/>
-      <c r="X23" s="128"/>
-      <c r="Y23" s="128"/>
-      <c r="Z23" s="128"/>
-      <c r="AA23" s="128"/>
-      <c r="AB23" s="128"/>
-      <c r="AC23" s="128"/>
-      <c r="AD23" s="128"/>
-      <c r="AE23" s="128"/>
-      <c r="AF23" s="128"/>
-      <c r="AG23" s="128"/>
-      <c r="AH23" s="128"/>
-      <c r="AI23" s="128"/>
-      <c r="AJ23" s="128"/>
-      <c r="AK23" s="128"/>
-      <c r="AL23" s="128"/>
-      <c r="AM23" s="128"/>
-      <c r="AN23" s="121"/>
-      <c r="AO23" s="121"/>
-      <c r="AP23" s="121"/>
-      <c r="AQ23" s="121"/>
-      <c r="AR23" s="121"/>
-      <c r="AS23" s="121"/>
-      <c r="AT23" s="121"/>
-      <c r="AU23" s="121"/>
-      <c r="AV23" s="121"/>
-      <c r="AW23" s="121"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="119"/>
+      <c r="P23" s="119"/>
+      <c r="Q23" s="119"/>
+      <c r="R23" s="119"/>
+      <c r="S23" s="111"/>
+      <c r="T23" s="111"/>
+      <c r="U23" s="111"/>
+      <c r="V23" s="117"/>
+      <c r="W23" s="117"/>
+      <c r="X23" s="117"/>
+      <c r="Y23" s="117"/>
+      <c r="Z23" s="117"/>
+      <c r="AA23" s="117"/>
+      <c r="AB23" s="117"/>
+      <c r="AC23" s="117"/>
+      <c r="AD23" s="117"/>
+      <c r="AE23" s="117"/>
+      <c r="AF23" s="117"/>
+      <c r="AG23" s="117"/>
+      <c r="AH23" s="117"/>
+      <c r="AI23" s="117"/>
+      <c r="AJ23" s="117"/>
+      <c r="AK23" s="117"/>
+      <c r="AL23" s="117"/>
+      <c r="AM23" s="117"/>
+      <c r="AN23" s="111"/>
+      <c r="AO23" s="111"/>
+      <c r="AP23" s="111"/>
+      <c r="AQ23" s="111"/>
+      <c r="AR23" s="111"/>
+      <c r="AS23" s="111"/>
+      <c r="AT23" s="111"/>
+      <c r="AU23" s="111"/>
+      <c r="AV23" s="111"/>
+      <c r="AW23" s="111"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="124"/>
-      <c r="M24" s="127"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="127"/>
-      <c r="P24" s="127"/>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="127"/>
-      <c r="S24" s="121"/>
-      <c r="T24" s="121"/>
-      <c r="U24" s="121"/>
-      <c r="V24" s="128"/>
-      <c r="W24" s="128"/>
-      <c r="X24" s="128"/>
-      <c r="Y24" s="128"/>
-      <c r="Z24" s="128"/>
-      <c r="AA24" s="128"/>
-      <c r="AB24" s="128"/>
-      <c r="AC24" s="128"/>
-      <c r="AD24" s="128"/>
-      <c r="AE24" s="128"/>
-      <c r="AF24" s="128"/>
-      <c r="AG24" s="128"/>
-      <c r="AH24" s="128"/>
-      <c r="AI24" s="128"/>
-      <c r="AJ24" s="128"/>
-      <c r="AK24" s="128"/>
-      <c r="AL24" s="128"/>
-      <c r="AM24" s="128"/>
-      <c r="AN24" s="121"/>
-      <c r="AO24" s="121"/>
-      <c r="AP24" s="121"/>
-      <c r="AQ24" s="121"/>
-      <c r="AR24" s="121"/>
-      <c r="AS24" s="121"/>
-      <c r="AT24" s="121"/>
-      <c r="AU24" s="121"/>
-      <c r="AV24" s="121"/>
-      <c r="AW24" s="121"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="119"/>
+      <c r="R24" s="119"/>
+      <c r="S24" s="111"/>
+      <c r="T24" s="111"/>
+      <c r="U24" s="111"/>
+      <c r="V24" s="117"/>
+      <c r="W24" s="117"/>
+      <c r="X24" s="117"/>
+      <c r="Y24" s="117"/>
+      <c r="Z24" s="117"/>
+      <c r="AA24" s="117"/>
+      <c r="AB24" s="117"/>
+      <c r="AC24" s="117"/>
+      <c r="AD24" s="117"/>
+      <c r="AE24" s="117"/>
+      <c r="AF24" s="117"/>
+      <c r="AG24" s="117"/>
+      <c r="AH24" s="117"/>
+      <c r="AI24" s="117"/>
+      <c r="AJ24" s="117"/>
+      <c r="AK24" s="117"/>
+      <c r="AL24" s="117"/>
+      <c r="AM24" s="117"/>
+      <c r="AN24" s="111"/>
+      <c r="AO24" s="111"/>
+      <c r="AP24" s="111"/>
+      <c r="AQ24" s="111"/>
+      <c r="AR24" s="111"/>
+      <c r="AS24" s="111"/>
+      <c r="AT24" s="111"/>
+      <c r="AU24" s="111"/>
+      <c r="AV24" s="111"/>
+      <c r="AW24" s="111"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="130"/>
-      <c r="N25" s="127"/>
-      <c r="O25" s="127"/>
-      <c r="P25" s="127"/>
-      <c r="Q25" s="127"/>
-      <c r="R25" s="127"/>
-      <c r="S25" s="121"/>
-      <c r="T25" s="121"/>
-      <c r="U25" s="121"/>
-      <c r="V25" s="128"/>
-      <c r="W25" s="128"/>
-      <c r="X25" s="128"/>
-      <c r="Y25" s="128"/>
-      <c r="Z25" s="128"/>
-      <c r="AA25" s="128"/>
-      <c r="AB25" s="128"/>
-      <c r="AC25" s="128"/>
-      <c r="AD25" s="128"/>
-      <c r="AE25" s="128"/>
-      <c r="AF25" s="128"/>
-      <c r="AG25" s="128"/>
-      <c r="AH25" s="128"/>
-      <c r="AI25" s="128"/>
-      <c r="AJ25" s="128"/>
-      <c r="AK25" s="128"/>
-      <c r="AL25" s="128"/>
-      <c r="AM25" s="128"/>
-      <c r="AN25" s="121"/>
-      <c r="AO25" s="121"/>
-      <c r="AP25" s="121"/>
-      <c r="AQ25" s="121"/>
-      <c r="AR25" s="121"/>
-      <c r="AS25" s="121"/>
-      <c r="AT25" s="121"/>
-      <c r="AU25" s="121"/>
-      <c r="AV25" s="121"/>
-      <c r="AW25" s="121"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="114"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="118"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="119"/>
+      <c r="R25" s="119"/>
+      <c r="S25" s="111"/>
+      <c r="T25" s="111"/>
+      <c r="U25" s="111"/>
+      <c r="V25" s="117"/>
+      <c r="W25" s="117"/>
+      <c r="X25" s="117"/>
+      <c r="Y25" s="117"/>
+      <c r="Z25" s="117"/>
+      <c r="AA25" s="117"/>
+      <c r="AB25" s="117"/>
+      <c r="AC25" s="117"/>
+      <c r="AD25" s="117"/>
+      <c r="AE25" s="117"/>
+      <c r="AF25" s="117"/>
+      <c r="AG25" s="117"/>
+      <c r="AH25" s="117"/>
+      <c r="AI25" s="117"/>
+      <c r="AJ25" s="117"/>
+      <c r="AK25" s="117"/>
+      <c r="AL25" s="117"/>
+      <c r="AM25" s="117"/>
+      <c r="AN25" s="111"/>
+      <c r="AO25" s="111"/>
+      <c r="AP25" s="111"/>
+      <c r="AQ25" s="111"/>
+      <c r="AR25" s="111"/>
+      <c r="AS25" s="111"/>
+      <c r="AT25" s="111"/>
+      <c r="AU25" s="111"/>
+      <c r="AV25" s="111"/>
+      <c r="AW25" s="111"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="124"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="127"/>
-      <c r="O26" s="127"/>
-      <c r="P26" s="127"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="127"/>
-      <c r="S26" s="121"/>
-      <c r="T26" s="121"/>
-      <c r="U26" s="121"/>
-      <c r="V26" s="128"/>
-      <c r="W26" s="128"/>
-      <c r="X26" s="128"/>
-      <c r="Y26" s="128"/>
-      <c r="Z26" s="128"/>
-      <c r="AA26" s="128"/>
-      <c r="AB26" s="128"/>
-      <c r="AC26" s="128"/>
-      <c r="AD26" s="128"/>
-      <c r="AE26" s="128"/>
-      <c r="AF26" s="128"/>
-      <c r="AG26" s="128"/>
-      <c r="AH26" s="128"/>
-      <c r="AI26" s="128"/>
-      <c r="AJ26" s="128"/>
-      <c r="AK26" s="128"/>
-      <c r="AL26" s="128"/>
-      <c r="AM26" s="128"/>
-      <c r="AN26" s="121"/>
-      <c r="AO26" s="121"/>
-      <c r="AP26" s="121"/>
-      <c r="AQ26" s="121"/>
-      <c r="AR26" s="121"/>
-      <c r="AS26" s="121"/>
-      <c r="AT26" s="121"/>
-      <c r="AU26" s="121"/>
-      <c r="AV26" s="121"/>
-      <c r="AW26" s="121"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="118"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="119"/>
+      <c r="P26" s="119"/>
+      <c r="Q26" s="119"/>
+      <c r="R26" s="119"/>
+      <c r="S26" s="111"/>
+      <c r="T26" s="111"/>
+      <c r="U26" s="111"/>
+      <c r="V26" s="117"/>
+      <c r="W26" s="117"/>
+      <c r="X26" s="117"/>
+      <c r="Y26" s="117"/>
+      <c r="Z26" s="117"/>
+      <c r="AA26" s="117"/>
+      <c r="AB26" s="117"/>
+      <c r="AC26" s="117"/>
+      <c r="AD26" s="117"/>
+      <c r="AE26" s="117"/>
+      <c r="AF26" s="117"/>
+      <c r="AG26" s="117"/>
+      <c r="AH26" s="117"/>
+      <c r="AI26" s="117"/>
+      <c r="AJ26" s="117"/>
+      <c r="AK26" s="117"/>
+      <c r="AL26" s="117"/>
+      <c r="AM26" s="117"/>
+      <c r="AN26" s="111"/>
+      <c r="AO26" s="111"/>
+      <c r="AP26" s="111"/>
+      <c r="AQ26" s="111"/>
+      <c r="AR26" s="111"/>
+      <c r="AS26" s="111"/>
+      <c r="AT26" s="111"/>
+      <c r="AU26" s="111"/>
+      <c r="AV26" s="111"/>
+      <c r="AW26" s="111"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="122"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="124"/>
-      <c r="M27" s="130"/>
-      <c r="N27" s="127"/>
-      <c r="O27" s="127"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="127"/>
-      <c r="S27" s="121"/>
-      <c r="T27" s="121"/>
-      <c r="U27" s="121"/>
-      <c r="V27" s="128"/>
-      <c r="W27" s="128"/>
-      <c r="X27" s="128"/>
-      <c r="Y27" s="128"/>
-      <c r="Z27" s="128"/>
-      <c r="AA27" s="128"/>
-      <c r="AB27" s="128"/>
-      <c r="AC27" s="128"/>
-      <c r="AD27" s="128"/>
-      <c r="AE27" s="128"/>
-      <c r="AF27" s="128"/>
-      <c r="AG27" s="128"/>
-      <c r="AH27" s="128"/>
-      <c r="AI27" s="128"/>
-      <c r="AJ27" s="128"/>
-      <c r="AK27" s="128"/>
-      <c r="AL27" s="128"/>
-      <c r="AM27" s="128"/>
-      <c r="AN27" s="121"/>
-      <c r="AO27" s="121"/>
-      <c r="AP27" s="121"/>
-      <c r="AQ27" s="121"/>
-      <c r="AR27" s="121"/>
-      <c r="AS27" s="121"/>
-      <c r="AT27" s="121"/>
-      <c r="AU27" s="121"/>
-      <c r="AV27" s="121"/>
-      <c r="AW27" s="121"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="114"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="118"/>
+      <c r="N27" s="119"/>
+      <c r="O27" s="119"/>
+      <c r="P27" s="119"/>
+      <c r="Q27" s="119"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="111"/>
+      <c r="V27" s="117"/>
+      <c r="W27" s="117"/>
+      <c r="X27" s="117"/>
+      <c r="Y27" s="117"/>
+      <c r="Z27" s="117"/>
+      <c r="AA27" s="117"/>
+      <c r="AB27" s="117"/>
+      <c r="AC27" s="117"/>
+      <c r="AD27" s="117"/>
+      <c r="AE27" s="117"/>
+      <c r="AF27" s="117"/>
+      <c r="AG27" s="117"/>
+      <c r="AH27" s="117"/>
+      <c r="AI27" s="117"/>
+      <c r="AJ27" s="117"/>
+      <c r="AK27" s="117"/>
+      <c r="AL27" s="117"/>
+      <c r="AM27" s="117"/>
+      <c r="AN27" s="111"/>
+      <c r="AO27" s="111"/>
+      <c r="AP27" s="111"/>
+      <c r="AQ27" s="111"/>
+      <c r="AR27" s="111"/>
+      <c r="AS27" s="111"/>
+      <c r="AT27" s="111"/>
+      <c r="AU27" s="111"/>
+      <c r="AV27" s="111"/>
+      <c r="AW27" s="111"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="122"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="124"/>
-      <c r="M28" s="127"/>
-      <c r="N28" s="127"/>
-      <c r="O28" s="127"/>
-      <c r="P28" s="127"/>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="127"/>
-      <c r="S28" s="121"/>
-      <c r="T28" s="121"/>
-      <c r="U28" s="121"/>
-      <c r="V28" s="128"/>
-      <c r="W28" s="128"/>
-      <c r="X28" s="128"/>
-      <c r="Y28" s="128"/>
-      <c r="Z28" s="128"/>
-      <c r="AA28" s="128"/>
-      <c r="AB28" s="128"/>
-      <c r="AC28" s="128"/>
-      <c r="AD28" s="128"/>
-      <c r="AE28" s="128"/>
-      <c r="AF28" s="128"/>
-      <c r="AG28" s="128"/>
-      <c r="AH28" s="128"/>
-      <c r="AI28" s="128"/>
-      <c r="AJ28" s="128"/>
-      <c r="AK28" s="128"/>
-      <c r="AL28" s="128"/>
-      <c r="AM28" s="128"/>
-      <c r="AN28" s="121"/>
-      <c r="AO28" s="121"/>
-      <c r="AP28" s="121"/>
-      <c r="AQ28" s="121"/>
-      <c r="AR28" s="121"/>
-      <c r="AS28" s="121"/>
-      <c r="AT28" s="121"/>
-      <c r="AU28" s="121"/>
-      <c r="AV28" s="121"/>
-      <c r="AW28" s="121"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="119"/>
+      <c r="N28" s="119"/>
+      <c r="O28" s="119"/>
+      <c r="P28" s="119"/>
+      <c r="Q28" s="119"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="117"/>
+      <c r="W28" s="117"/>
+      <c r="X28" s="117"/>
+      <c r="Y28" s="117"/>
+      <c r="Z28" s="117"/>
+      <c r="AA28" s="117"/>
+      <c r="AB28" s="117"/>
+      <c r="AC28" s="117"/>
+      <c r="AD28" s="117"/>
+      <c r="AE28" s="117"/>
+      <c r="AF28" s="117"/>
+      <c r="AG28" s="117"/>
+      <c r="AH28" s="117"/>
+      <c r="AI28" s="117"/>
+      <c r="AJ28" s="117"/>
+      <c r="AK28" s="117"/>
+      <c r="AL28" s="117"/>
+      <c r="AM28" s="117"/>
+      <c r="AN28" s="111"/>
+      <c r="AO28" s="111"/>
+      <c r="AP28" s="111"/>
+      <c r="AQ28" s="111"/>
+      <c r="AR28" s="111"/>
+      <c r="AS28" s="111"/>
+      <c r="AT28" s="111"/>
+      <c r="AU28" s="111"/>
+      <c r="AV28" s="111"/>
+      <c r="AW28" s="111"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="122"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="124"/>
-      <c r="L29" s="124"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="127"/>
-      <c r="O29" s="127"/>
-      <c r="P29" s="127"/>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="127"/>
-      <c r="S29" s="121"/>
-      <c r="T29" s="121"/>
-      <c r="U29" s="121"/>
-      <c r="V29" s="128"/>
-      <c r="W29" s="128"/>
-      <c r="X29" s="128"/>
-      <c r="Y29" s="128"/>
-      <c r="Z29" s="128"/>
-      <c r="AA29" s="128"/>
-      <c r="AB29" s="128"/>
-      <c r="AC29" s="128"/>
-      <c r="AD29" s="128"/>
-      <c r="AE29" s="128"/>
-      <c r="AF29" s="128"/>
-      <c r="AG29" s="128"/>
-      <c r="AH29" s="128"/>
-      <c r="AI29" s="128"/>
-      <c r="AJ29" s="128"/>
-      <c r="AK29" s="128"/>
-      <c r="AL29" s="128"/>
-      <c r="AM29" s="128"/>
-      <c r="AN29" s="121"/>
-      <c r="AO29" s="121"/>
-      <c r="AP29" s="121"/>
-      <c r="AQ29" s="121"/>
-      <c r="AR29" s="121"/>
-      <c r="AS29" s="121"/>
-      <c r="AT29" s="121"/>
-      <c r="AU29" s="121"/>
-      <c r="AV29" s="121"/>
-      <c r="AW29" s="121"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="119"/>
+      <c r="N29" s="119"/>
+      <c r="O29" s="119"/>
+      <c r="P29" s="119"/>
+      <c r="Q29" s="119"/>
+      <c r="R29" s="119"/>
+      <c r="S29" s="111"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="111"/>
+      <c r="V29" s="117"/>
+      <c r="W29" s="117"/>
+      <c r="X29" s="117"/>
+      <c r="Y29" s="117"/>
+      <c r="Z29" s="117"/>
+      <c r="AA29" s="117"/>
+      <c r="AB29" s="117"/>
+      <c r="AC29" s="117"/>
+      <c r="AD29" s="117"/>
+      <c r="AE29" s="117"/>
+      <c r="AF29" s="117"/>
+      <c r="AG29" s="117"/>
+      <c r="AH29" s="117"/>
+      <c r="AI29" s="117"/>
+      <c r="AJ29" s="117"/>
+      <c r="AK29" s="117"/>
+      <c r="AL29" s="117"/>
+      <c r="AM29" s="117"/>
+      <c r="AN29" s="111"/>
+      <c r="AO29" s="111"/>
+      <c r="AP29" s="111"/>
+      <c r="AQ29" s="111"/>
+      <c r="AR29" s="111"/>
+      <c r="AS29" s="111"/>
+      <c r="AT29" s="111"/>
+      <c r="AU29" s="111"/>
+      <c r="AV29" s="111"/>
+      <c r="AW29" s="111"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="122"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="124"/>
-      <c r="M30" s="130"/>
-      <c r="N30" s="127"/>
-      <c r="O30" s="127"/>
-      <c r="P30" s="127"/>
-      <c r="Q30" s="127"/>
-      <c r="R30" s="127"/>
-      <c r="S30" s="121"/>
-      <c r="T30" s="121"/>
-      <c r="U30" s="121"/>
-      <c r="V30" s="128"/>
-      <c r="W30" s="128"/>
-      <c r="X30" s="128"/>
-      <c r="Y30" s="128"/>
-      <c r="Z30" s="128"/>
-      <c r="AA30" s="128"/>
-      <c r="AB30" s="128"/>
-      <c r="AC30" s="128"/>
-      <c r="AD30" s="128"/>
-      <c r="AE30" s="128"/>
-      <c r="AF30" s="128"/>
-      <c r="AG30" s="128"/>
-      <c r="AH30" s="128"/>
-      <c r="AI30" s="128"/>
-      <c r="AJ30" s="128"/>
-      <c r="AK30" s="128"/>
-      <c r="AL30" s="128"/>
-      <c r="AM30" s="128"/>
-      <c r="AN30" s="121"/>
-      <c r="AO30" s="121"/>
-      <c r="AP30" s="121"/>
-      <c r="AQ30" s="121"/>
-      <c r="AR30" s="121"/>
-      <c r="AS30" s="121"/>
-      <c r="AT30" s="121"/>
-      <c r="AU30" s="121"/>
-      <c r="AV30" s="121"/>
-      <c r="AW30" s="121"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="118"/>
+      <c r="N30" s="119"/>
+      <c r="O30" s="119"/>
+      <c r="P30" s="119"/>
+      <c r="Q30" s="119"/>
+      <c r="R30" s="119"/>
+      <c r="S30" s="111"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="117"/>
+      <c r="W30" s="117"/>
+      <c r="X30" s="117"/>
+      <c r="Y30" s="117"/>
+      <c r="Z30" s="117"/>
+      <c r="AA30" s="117"/>
+      <c r="AB30" s="117"/>
+      <c r="AC30" s="117"/>
+      <c r="AD30" s="117"/>
+      <c r="AE30" s="117"/>
+      <c r="AF30" s="117"/>
+      <c r="AG30" s="117"/>
+      <c r="AH30" s="117"/>
+      <c r="AI30" s="117"/>
+      <c r="AJ30" s="117"/>
+      <c r="AK30" s="117"/>
+      <c r="AL30" s="117"/>
+      <c r="AM30" s="117"/>
+      <c r="AN30" s="111"/>
+      <c r="AO30" s="111"/>
+      <c r="AP30" s="111"/>
+      <c r="AQ30" s="111"/>
+      <c r="AR30" s="111"/>
+      <c r="AS30" s="111"/>
+      <c r="AT30" s="111"/>
+      <c r="AU30" s="111"/>
+      <c r="AV30" s="111"/>
+      <c r="AW30" s="111"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="124"/>
-      <c r="L31" s="124"/>
-      <c r="M31" s="130"/>
-      <c r="N31" s="127"/>
-      <c r="O31" s="127"/>
-      <c r="P31" s="127"/>
-      <c r="Q31" s="127"/>
-      <c r="R31" s="127"/>
-      <c r="S31" s="121"/>
-      <c r="T31" s="121"/>
-      <c r="U31" s="121"/>
-      <c r="V31" s="128"/>
-      <c r="W31" s="128"/>
-      <c r="X31" s="128"/>
-      <c r="Y31" s="128"/>
-      <c r="Z31" s="128"/>
-      <c r="AA31" s="128"/>
-      <c r="AB31" s="128"/>
-      <c r="AC31" s="128"/>
-      <c r="AD31" s="128"/>
-      <c r="AE31" s="128"/>
-      <c r="AF31" s="128"/>
-      <c r="AG31" s="128"/>
-      <c r="AH31" s="128"/>
-      <c r="AI31" s="128"/>
-      <c r="AJ31" s="128"/>
-      <c r="AK31" s="128"/>
-      <c r="AL31" s="128"/>
-      <c r="AM31" s="128"/>
-      <c r="AN31" s="121"/>
-      <c r="AO31" s="121"/>
-      <c r="AP31" s="121"/>
-      <c r="AQ31" s="121"/>
-      <c r="AR31" s="121"/>
-      <c r="AS31" s="121"/>
-      <c r="AT31" s="121"/>
-      <c r="AU31" s="121"/>
-      <c r="AV31" s="121"/>
-      <c r="AW31" s="121"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="118"/>
+      <c r="N31" s="119"/>
+      <c r="O31" s="119"/>
+      <c r="P31" s="119"/>
+      <c r="Q31" s="119"/>
+      <c r="R31" s="119"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="117"/>
+      <c r="W31" s="117"/>
+      <c r="X31" s="117"/>
+      <c r="Y31" s="117"/>
+      <c r="Z31" s="117"/>
+      <c r="AA31" s="117"/>
+      <c r="AB31" s="117"/>
+      <c r="AC31" s="117"/>
+      <c r="AD31" s="117"/>
+      <c r="AE31" s="117"/>
+      <c r="AF31" s="117"/>
+      <c r="AG31" s="117"/>
+      <c r="AH31" s="117"/>
+      <c r="AI31" s="117"/>
+      <c r="AJ31" s="117"/>
+      <c r="AK31" s="117"/>
+      <c r="AL31" s="117"/>
+      <c r="AM31" s="117"/>
+      <c r="AN31" s="111"/>
+      <c r="AO31" s="111"/>
+      <c r="AP31" s="111"/>
+      <c r="AQ31" s="111"/>
+      <c r="AR31" s="111"/>
+      <c r="AS31" s="111"/>
+      <c r="AT31" s="111"/>
+      <c r="AU31" s="111"/>
+      <c r="AV31" s="111"/>
+      <c r="AW31" s="111"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="122"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="124"/>
-      <c r="L32" s="124"/>
-      <c r="M32" s="130"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="127"/>
-      <c r="R32" s="127"/>
-      <c r="S32" s="121"/>
-      <c r="T32" s="121"/>
-      <c r="U32" s="121"/>
-      <c r="V32" s="128"/>
-      <c r="W32" s="128"/>
-      <c r="X32" s="128"/>
-      <c r="Y32" s="128"/>
-      <c r="Z32" s="128"/>
-      <c r="AA32" s="128"/>
-      <c r="AB32" s="128"/>
-      <c r="AC32" s="128"/>
-      <c r="AD32" s="128"/>
-      <c r="AE32" s="128"/>
-      <c r="AF32" s="128"/>
-      <c r="AG32" s="128"/>
-      <c r="AH32" s="128"/>
-      <c r="AI32" s="128"/>
-      <c r="AJ32" s="128"/>
-      <c r="AK32" s="128"/>
-      <c r="AL32" s="128"/>
-      <c r="AM32" s="128"/>
-      <c r="AN32" s="121"/>
-      <c r="AO32" s="121"/>
-      <c r="AP32" s="121"/>
-      <c r="AQ32" s="121"/>
-      <c r="AR32" s="121"/>
-      <c r="AS32" s="121"/>
-      <c r="AT32" s="121"/>
-      <c r="AU32" s="121"/>
-      <c r="AV32" s="121"/>
-      <c r="AW32" s="121"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="118"/>
+      <c r="N32" s="119"/>
+      <c r="O32" s="119"/>
+      <c r="P32" s="119"/>
+      <c r="Q32" s="119"/>
+      <c r="R32" s="119"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="117"/>
+      <c r="W32" s="117"/>
+      <c r="X32" s="117"/>
+      <c r="Y32" s="117"/>
+      <c r="Z32" s="117"/>
+      <c r="AA32" s="117"/>
+      <c r="AB32" s="117"/>
+      <c r="AC32" s="117"/>
+      <c r="AD32" s="117"/>
+      <c r="AE32" s="117"/>
+      <c r="AF32" s="117"/>
+      <c r="AG32" s="117"/>
+      <c r="AH32" s="117"/>
+      <c r="AI32" s="117"/>
+      <c r="AJ32" s="117"/>
+      <c r="AK32" s="117"/>
+      <c r="AL32" s="117"/>
+      <c r="AM32" s="117"/>
+      <c r="AN32" s="111"/>
+      <c r="AO32" s="111"/>
+      <c r="AP32" s="111"/>
+      <c r="AQ32" s="111"/>
+      <c r="AR32" s="111"/>
+      <c r="AS32" s="111"/>
+      <c r="AT32" s="111"/>
+      <c r="AU32" s="111"/>
+      <c r="AV32" s="111"/>
+      <c r="AW32" s="111"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="122"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="124"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="124"/>
-      <c r="M33" s="130"/>
-      <c r="N33" s="127"/>
-      <c r="O33" s="127"/>
-      <c r="P33" s="127"/>
-      <c r="Q33" s="127"/>
-      <c r="R33" s="127"/>
-      <c r="S33" s="121"/>
-      <c r="T33" s="121"/>
-      <c r="U33" s="121"/>
-      <c r="V33" s="128"/>
-      <c r="W33" s="128"/>
-      <c r="X33" s="128"/>
-      <c r="Y33" s="128"/>
-      <c r="Z33" s="128"/>
-      <c r="AA33" s="128"/>
-      <c r="AB33" s="128"/>
-      <c r="AC33" s="128"/>
-      <c r="AD33" s="128"/>
-      <c r="AE33" s="128"/>
-      <c r="AF33" s="128"/>
-      <c r="AG33" s="128"/>
-      <c r="AH33" s="128"/>
-      <c r="AI33" s="128"/>
-      <c r="AJ33" s="128"/>
-      <c r="AK33" s="128"/>
-      <c r="AL33" s="128"/>
-      <c r="AM33" s="128"/>
-      <c r="AN33" s="121"/>
-      <c r="AO33" s="121"/>
-      <c r="AP33" s="121"/>
-      <c r="AQ33" s="121"/>
-      <c r="AR33" s="121"/>
-      <c r="AS33" s="121"/>
-      <c r="AT33" s="121"/>
-      <c r="AU33" s="121"/>
-      <c r="AV33" s="121"/>
-      <c r="AW33" s="121"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="118"/>
+      <c r="N33" s="119"/>
+      <c r="O33" s="119"/>
+      <c r="P33" s="119"/>
+      <c r="Q33" s="119"/>
+      <c r="R33" s="119"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="111"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="117"/>
+      <c r="W33" s="117"/>
+      <c r="X33" s="117"/>
+      <c r="Y33" s="117"/>
+      <c r="Z33" s="117"/>
+      <c r="AA33" s="117"/>
+      <c r="AB33" s="117"/>
+      <c r="AC33" s="117"/>
+      <c r="AD33" s="117"/>
+      <c r="AE33" s="117"/>
+      <c r="AF33" s="117"/>
+      <c r="AG33" s="117"/>
+      <c r="AH33" s="117"/>
+      <c r="AI33" s="117"/>
+      <c r="AJ33" s="117"/>
+      <c r="AK33" s="117"/>
+      <c r="AL33" s="117"/>
+      <c r="AM33" s="117"/>
+      <c r="AN33" s="111"/>
+      <c r="AO33" s="111"/>
+      <c r="AP33" s="111"/>
+      <c r="AQ33" s="111"/>
+      <c r="AR33" s="111"/>
+      <c r="AS33" s="111"/>
+      <c r="AT33" s="111"/>
+      <c r="AU33" s="111"/>
+      <c r="AV33" s="111"/>
+      <c r="AW33" s="111"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="122"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="124"/>
-      <c r="K34" s="124"/>
-      <c r="L34" s="124"/>
-      <c r="M34" s="134"/>
-      <c r="N34" s="135"/>
-      <c r="O34" s="135"/>
-      <c r="P34" s="135"/>
-      <c r="Q34" s="135"/>
-      <c r="R34" s="135"/>
-      <c r="S34" s="121"/>
-      <c r="T34" s="121"/>
-      <c r="U34" s="121"/>
-      <c r="V34" s="128"/>
-      <c r="W34" s="128"/>
-      <c r="X34" s="128"/>
-      <c r="Y34" s="128"/>
-      <c r="Z34" s="128"/>
-      <c r="AA34" s="128"/>
-      <c r="AB34" s="128"/>
-      <c r="AC34" s="128"/>
-      <c r="AD34" s="128"/>
-      <c r="AE34" s="128"/>
-      <c r="AF34" s="128"/>
-      <c r="AG34" s="128"/>
-      <c r="AH34" s="128"/>
-      <c r="AI34" s="128"/>
-      <c r="AJ34" s="128"/>
-      <c r="AK34" s="128"/>
-      <c r="AL34" s="128"/>
-      <c r="AM34" s="128"/>
-      <c r="AN34" s="121"/>
-      <c r="AO34" s="121"/>
-      <c r="AP34" s="121"/>
-      <c r="AQ34" s="121"/>
-      <c r="AR34" s="121"/>
-      <c r="AS34" s="121"/>
-      <c r="AT34" s="121"/>
-      <c r="AU34" s="121"/>
-      <c r="AV34" s="121"/>
-      <c r="AW34" s="121"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="115"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="116"/>
+      <c r="P34" s="116"/>
+      <c r="Q34" s="116"/>
+      <c r="R34" s="116"/>
+      <c r="S34" s="111"/>
+      <c r="T34" s="111"/>
+      <c r="U34" s="111"/>
+      <c r="V34" s="117"/>
+      <c r="W34" s="117"/>
+      <c r="X34" s="117"/>
+      <c r="Y34" s="117"/>
+      <c r="Z34" s="117"/>
+      <c r="AA34" s="117"/>
+      <c r="AB34" s="117"/>
+      <c r="AC34" s="117"/>
+      <c r="AD34" s="117"/>
+      <c r="AE34" s="117"/>
+      <c r="AF34" s="117"/>
+      <c r="AG34" s="117"/>
+      <c r="AH34" s="117"/>
+      <c r="AI34" s="117"/>
+      <c r="AJ34" s="117"/>
+      <c r="AK34" s="117"/>
+      <c r="AL34" s="117"/>
+      <c r="AM34" s="117"/>
+      <c r="AN34" s="111"/>
+      <c r="AO34" s="111"/>
+      <c r="AP34" s="111"/>
+      <c r="AQ34" s="111"/>
+      <c r="AR34" s="111"/>
+      <c r="AS34" s="111"/>
+      <c r="AT34" s="111"/>
+      <c r="AU34" s="111"/>
+      <c r="AV34" s="111"/>
+      <c r="AW34" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -5856,239 +6093,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6169,14 +6173,14 @@
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
-      <c r="AO1" s="145">
+      <c r="AO1" s="141">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
-      <c r="AP1" s="146"/>
-      <c r="AQ1" s="146"/>
-      <c r="AR1" s="146"/>
-      <c r="AS1" s="147"/>
+      <c r="AP1" s="142"/>
+      <c r="AQ1" s="142"/>
+      <c r="AR1" s="142"/>
+      <c r="AS1" s="143"/>
       <c r="AT1" s="33" t="s">
         <v>24</v>
       </c>
@@ -6185,17 +6189,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="142" t="str">
+      <c r="AZ1" s="136" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="BA1" s="143"/>
-      <c r="BB1" s="143"/>
-      <c r="BC1" s="143"/>
-      <c r="BD1" s="143"/>
-      <c r="BE1" s="143"/>
-      <c r="BF1" s="143"/>
-      <c r="BG1" s="144"/>
+      <c r="BA1" s="137"/>
+      <c r="BB1" s="137"/>
+      <c r="BC1" s="137"/>
+      <c r="BD1" s="137"/>
+      <c r="BE1" s="137"/>
+      <c r="BF1" s="137"/>
+      <c r="BG1" s="138"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -6248,11 +6252,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="145"/>
-      <c r="AP2" s="146"/>
-      <c r="AQ2" s="146"/>
-      <c r="AR2" s="146"/>
-      <c r="AS2" s="147"/>
+      <c r="AO2" s="141"/>
+      <c r="AP2" s="142"/>
+      <c r="AQ2" s="142"/>
+      <c r="AR2" s="142"/>
+      <c r="AS2" s="143"/>
       <c r="AT2" s="33" t="s">
         <v>25</v>
       </c>
@@ -6261,14 +6265,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="142"/>
-      <c r="BA2" s="143"/>
-      <c r="BB2" s="143"/>
-      <c r="BC2" s="143"/>
-      <c r="BD2" s="143"/>
-      <c r="BE2" s="143"/>
-      <c r="BF2" s="143"/>
-      <c r="BG2" s="144"/>
+      <c r="AZ2" s="136"/>
+      <c r="BA2" s="137"/>
+      <c r="BB2" s="137"/>
+      <c r="BC2" s="137"/>
+      <c r="BD2" s="137"/>
+      <c r="BE2" s="137"/>
+      <c r="BF2" s="137"/>
+      <c r="BG2" s="138"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -7487,10 +7491,10 @@
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A41" s="28"/>
-      <c r="B41" s="136" t="s">
+      <c r="B41" s="144" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="137"/>
+      <c r="C41" s="145"/>
       <c r="D41" s="88" t="s">
         <v>79</v>
       </c>
@@ -7573,10 +7577,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
-      <c r="B42" s="138">
+      <c r="B42" s="146">
         <v>1</v>
       </c>
-      <c r="C42" s="139"/>
+      <c r="C42" s="147"/>
       <c r="D42" s="93" t="s">
         <v>94</v>
       </c>
@@ -7608,16 +7612,16 @@
       <c r="AB42" s="86"/>
       <c r="AC42" s="86"/>
       <c r="AD42" s="87"/>
-      <c r="AE42" s="140" t="s">
+      <c r="AE42" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="AF42" s="141"/>
-      <c r="AG42" s="140"/>
-      <c r="AH42" s="141"/>
-      <c r="AI42" s="140"/>
-      <c r="AJ42" s="141"/>
-      <c r="AK42" s="140"/>
-      <c r="AL42" s="141"/>
+      <c r="AF42" s="140"/>
+      <c r="AG42" s="139"/>
+      <c r="AH42" s="140"/>
+      <c r="AI42" s="139"/>
+      <c r="AJ42" s="140"/>
+      <c r="AK42" s="139"/>
+      <c r="AL42" s="140"/>
       <c r="AM42" s="83" t="s">
         <v>108</v>
       </c>
@@ -7651,10 +7655,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="138">
+      <c r="B43" s="146">
         <v>2</v>
       </c>
-      <c r="C43" s="139"/>
+      <c r="C43" s="147"/>
       <c r="D43" s="82" t="s">
         <v>106</v>
       </c>
@@ -7686,16 +7690,16 @@
       <c r="AB43" s="86"/>
       <c r="AC43" s="86"/>
       <c r="AD43" s="87"/>
-      <c r="AE43" s="140" t="s">
+      <c r="AE43" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="AF43" s="141"/>
-      <c r="AG43" s="140"/>
-      <c r="AH43" s="141"/>
-      <c r="AI43" s="140"/>
-      <c r="AJ43" s="141"/>
-      <c r="AK43" s="140"/>
-      <c r="AL43" s="141"/>
+      <c r="AF43" s="140"/>
+      <c r="AG43" s="139"/>
+      <c r="AH43" s="140"/>
+      <c r="AI43" s="139"/>
+      <c r="AJ43" s="140"/>
+      <c r="AK43" s="139"/>
+      <c r="AL43" s="140"/>
       <c r="AM43" s="83" t="s">
         <v>107</v>
       </c>
@@ -7734,6 +7738,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AE43:AF43"/>
     <mergeCell ref="AZ1:BG1"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK43:AL43"/>
@@ -7744,11 +7753,6 @@
     <mergeCell ref="AI43:AJ43"/>
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AE43:AF43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7872,7 +7876,7 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="145">
+      <c r="CD1" s="141">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
@@ -7894,7 +7898,7 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="142" t="str">
+      <c r="CU1" s="136" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -8025,7 +8029,7 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="142"/>
+      <c r="CU2" s="136"/>
       <c r="CV2" s="148"/>
       <c r="CW2" s="148"/>
       <c r="CX2" s="148"/>
@@ -8241,37 +8245,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="113" t="s">
+      <c r="D6" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="113" t="s">
+      <c r="E6" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="113" t="s">
+      <c r="F6" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="113" t="s">
+      <c r="G6" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="154" t="s">
+      <c r="I6" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="154" t="s">
+      <c r="J6" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="113" t="s">
+      <c r="K6" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="113" t="s">
+      <c r="L6" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="113" t="s">
+      <c r="M6" s="128" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -8279,24 +8283,24 @@
       </c>
       <c r="O6" s="68"/>
       <c r="P6" s="68"/>
-      <c r="Q6" s="154" t="s">
+      <c r="Q6" s="156" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -8306,7 +8310,7 @@
       <c r="P7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="154"/>
+      <c r="Q7" s="156"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -8368,37 +8372,37 @@
     <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="113" t="s">
+      <c r="C11" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="113" t="s">
+      <c r="G11" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="113" t="s">
+      <c r="H11" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="155" t="s">
+      <c r="I11" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="154" t="s">
+      <c r="J11" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="113" t="s">
+      <c r="K11" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="113" t="s">
+      <c r="L11" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="113" t="s">
+      <c r="M11" s="128" t="s">
         <v>32</v>
       </c>
       <c r="N11" s="68" t="s">
@@ -8406,24 +8410,24 @@
       </c>
       <c r="O11" s="68"/>
       <c r="P11" s="68"/>
-      <c r="Q11" s="155" t="s">
+      <c r="Q11" s="154" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="128"/>
       <c r="N12" s="42" t="s">
         <v>64</v>
       </c>
@@ -8433,7 +8437,7 @@
       <c r="P12" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="156"/>
+      <c r="Q12" s="155"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
@@ -8552,37 +8556,37 @@
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="60"/>
-      <c r="C18" s="113" t="s">
+      <c r="C18" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="D18" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="113" t="s">
+      <c r="E18" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="113" t="s">
+      <c r="F18" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="113" t="s">
+      <c r="G18" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="113" t="s">
+      <c r="H18" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="154" t="s">
+      <c r="I18" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="154" t="s">
+      <c r="J18" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="113" t="s">
+      <c r="K18" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="113" t="s">
+      <c r="L18" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="113" t="s">
+      <c r="M18" s="128" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="68" t="s">
@@ -8590,24 +8594,24 @@
       </c>
       <c r="O18" s="68"/>
       <c r="P18" s="68"/>
-      <c r="Q18" s="154" t="s">
+      <c r="Q18" s="156" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="60"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="128"/>
       <c r="N19" s="42" t="s">
         <v>64</v>
       </c>
@@ -8617,7 +8621,7 @@
       <c r="P19" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q19" s="154"/>
+      <c r="Q19" s="156"/>
     </row>
     <row r="20" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="55"/>
@@ -8814,8 +8818,8 @@
       <c r="J24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>34</v>
+      <c r="K24" s="107" t="s">
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>34</v>
@@ -8863,6 +8867,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="I18:I19"/>
@@ -8879,26 +8903,6 @@
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="M18:M19"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -8975,7 +8979,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="145">
+      <c r="AI1" s="141">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
@@ -8991,7 +8995,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="142" t="str">
+      <c r="AT1" s="136" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -9062,7 +9066,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="142"/>
+      <c r="AT2" s="136"/>
       <c r="AU2" s="148"/>
       <c r="AV2" s="148"/>
       <c r="AW2" s="148"/>
@@ -10708,7 +10712,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="145">
+      <c r="AI1" s="141">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
@@ -10724,7 +10728,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="142" t="str">
+      <c r="AT1" s="136" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -10795,7 +10799,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="142"/>
+      <c r="AT2" s="136"/>
       <c r="AU2" s="148"/>
       <c r="AV2" s="148"/>
       <c r="AW2" s="148"/>
@@ -11323,7 +11327,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="145">
+      <c r="AI1" s="141">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
@@ -11339,7 +11343,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="142" t="str">
+      <c r="AT1" s="136" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -11410,7 +11414,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="142"/>
+      <c r="AT2" s="136"/>
       <c r="AU2" s="148"/>
       <c r="AV2" s="148"/>
       <c r="AW2" s="148"/>
@@ -11730,6 +11734,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -11887,22 +11906,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11918,21 +11939,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K21A_工程別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21A_工程別集計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEBFC0A-6F1F-45BC-87AE-80D8CD6CA555}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B442DD29-F9A6-452B-807F-5AC9FED021AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -2064,6 +2064,36 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2076,63 +2106,51 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2144,12 +2162,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2159,18 +2171,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2189,13 +2189,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2465,26 +2465,23 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>全工程で試作の在庫払出可能化の伝票出力</a:t>
+            <a:t>その他出庫参照・取消</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>&amp;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>取消</a:t>
-          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2878,12 +2875,23 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>その他払出メニュー</a:t>
+            <a:t>在庫照会と進捗管理メニュー</a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4080,1779 +4088,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
-      <c r="AA1" s="126"/>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="126"/>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="126"/>
-      <c r="AG1" s="126"/>
-      <c r="AH1" s="126"/>
-      <c r="AI1" s="126"/>
-      <c r="AJ1" s="126"/>
-      <c r="AK1" s="126"/>
-      <c r="AL1" s="126"/>
-      <c r="AM1" s="126"/>
-      <c r="AN1" s="126"/>
-      <c r="AO1" s="126"/>
-      <c r="AP1" s="126"/>
-      <c r="AQ1" s="126"/>
-      <c r="AR1" s="126"/>
-      <c r="AS1" s="126"/>
-      <c r="AT1" s="126"/>
-      <c r="AU1" s="126"/>
-      <c r="AV1" s="126"/>
-      <c r="AW1" s="126"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="111"/>
+      <c r="AB1" s="111"/>
+      <c r="AC1" s="111"/>
+      <c r="AD1" s="111"/>
+      <c r="AE1" s="111"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="111"/>
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="111"/>
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="111"/>
+      <c r="AN1" s="111"/>
+      <c r="AO1" s="111"/>
+      <c r="AP1" s="111"/>
+      <c r="AQ1" s="111"/>
+      <c r="AR1" s="111"/>
+      <c r="AS1" s="111"/>
+      <c r="AT1" s="111"/>
+      <c r="AU1" s="111"/>
+      <c r="AV1" s="111"/>
+      <c r="AW1" s="111"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="127"/>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="127"/>
-      <c r="AD2" s="127"/>
-      <c r="AE2" s="127"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="127"/>
-      <c r="AH2" s="127"/>
-      <c r="AI2" s="127"/>
-      <c r="AJ2" s="127"/>
-      <c r="AK2" s="127"/>
-      <c r="AL2" s="127"/>
-      <c r="AM2" s="127"/>
-      <c r="AN2" s="127"/>
-      <c r="AO2" s="127"/>
-      <c r="AP2" s="127"/>
-      <c r="AQ2" s="127"/>
-      <c r="AR2" s="127"/>
-      <c r="AS2" s="127"/>
-      <c r="AT2" s="127"/>
-      <c r="AU2" s="127"/>
-      <c r="AV2" s="127"/>
-      <c r="AW2" s="127"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="112"/>
+      <c r="AG2" s="112"/>
+      <c r="AH2" s="112"/>
+      <c r="AI2" s="112"/>
+      <c r="AJ2" s="112"/>
+      <c r="AK2" s="112"/>
+      <c r="AL2" s="112"/>
+      <c r="AM2" s="112"/>
+      <c r="AN2" s="112"/>
+      <c r="AO2" s="112"/>
+      <c r="AP2" s="112"/>
+      <c r="AQ2" s="112"/>
+      <c r="AR2" s="112"/>
+      <c r="AS2" s="112"/>
+      <c r="AT2" s="112"/>
+      <c r="AU2" s="112"/>
+      <c r="AV2" s="112"/>
+      <c r="AW2" s="112"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128" t="s">
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="130" t="s">
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="131"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="130" t="s">
+      <c r="K3" s="116"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="132"/>
-      <c r="S3" s="128" t="s">
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="128"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128" t="s">
+      <c r="T3" s="113"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="128"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="128"/>
-      <c r="AF3" s="128"/>
-      <c r="AG3" s="128"/>
-      <c r="AH3" s="128"/>
-      <c r="AI3" s="128"/>
-      <c r="AJ3" s="128"/>
-      <c r="AK3" s="128"/>
-      <c r="AL3" s="128"/>
-      <c r="AM3" s="128"/>
-      <c r="AN3" s="128" t="s">
+      <c r="W3" s="113"/>
+      <c r="X3" s="113"/>
+      <c r="Y3" s="113"/>
+      <c r="Z3" s="113"/>
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="113"/>
+      <c r="AC3" s="113"/>
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="113"/>
+      <c r="AH3" s="113"/>
+      <c r="AI3" s="113"/>
+      <c r="AJ3" s="113"/>
+      <c r="AK3" s="113"/>
+      <c r="AL3" s="113"/>
+      <c r="AM3" s="113"/>
+      <c r="AN3" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="128"/>
-      <c r="AP3" s="128"/>
-      <c r="AQ3" s="128"/>
-      <c r="AR3" s="128"/>
-      <c r="AS3" s="128" t="s">
+      <c r="AO3" s="113"/>
+      <c r="AP3" s="113"/>
+      <c r="AQ3" s="113"/>
+      <c r="AR3" s="113"/>
+      <c r="AS3" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="128"/>
-      <c r="AU3" s="128"/>
-      <c r="AV3" s="128"/>
-      <c r="AW3" s="128"/>
+      <c r="AT3" s="113"/>
+      <c r="AU3" s="113"/>
+      <c r="AV3" s="113"/>
+      <c r="AW3" s="113"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="134"/>
-      <c r="R4" s="135"/>
-      <c r="S4" s="129"/>
-      <c r="T4" s="129"/>
-      <c r="U4" s="129"/>
-      <c r="V4" s="129"/>
-      <c r="W4" s="129"/>
-      <c r="X4" s="129"/>
-      <c r="Y4" s="129"/>
-      <c r="Z4" s="129"/>
-      <c r="AA4" s="129"/>
-      <c r="AB4" s="129"/>
-      <c r="AC4" s="129"/>
-      <c r="AD4" s="129"/>
-      <c r="AE4" s="129"/>
-      <c r="AF4" s="129"/>
-      <c r="AG4" s="129"/>
-      <c r="AH4" s="129"/>
-      <c r="AI4" s="129"/>
-      <c r="AJ4" s="129"/>
-      <c r="AK4" s="129"/>
-      <c r="AL4" s="129"/>
-      <c r="AM4" s="129"/>
-      <c r="AN4" s="129"/>
-      <c r="AO4" s="129"/>
-      <c r="AP4" s="129"/>
-      <c r="AQ4" s="129"/>
-      <c r="AR4" s="129"/>
-      <c r="AS4" s="129"/>
-      <c r="AT4" s="129"/>
-      <c r="AU4" s="129"/>
-      <c r="AV4" s="129"/>
-      <c r="AW4" s="129"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="114"/>
+      <c r="W4" s="114"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="114"/>
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="114"/>
+      <c r="AB4" s="114"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="114"/>
+      <c r="AE4" s="114"/>
+      <c r="AF4" s="114"/>
+      <c r="AG4" s="114"/>
+      <c r="AH4" s="114"/>
+      <c r="AI4" s="114"/>
+      <c r="AJ4" s="114"/>
+      <c r="AK4" s="114"/>
+      <c r="AL4" s="114"/>
+      <c r="AM4" s="114"/>
+      <c r="AN4" s="114"/>
+      <c r="AO4" s="114"/>
+      <c r="AP4" s="114"/>
+      <c r="AQ4" s="114"/>
+      <c r="AR4" s="114"/>
+      <c r="AS4" s="114"/>
+      <c r="AT4" s="114"/>
+      <c r="AU4" s="114"/>
+      <c r="AV4" s="114"/>
+      <c r="AW4" s="114"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="112">
+      <c r="B5" s="122">
         <v>1</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113">
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="123">
         <v>43721</v>
       </c>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114" t="s">
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114" t="s">
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="111" t="s">
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="124"/>
+      <c r="S5" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="111"/>
-      <c r="U5" s="111"/>
-      <c r="V5" s="123" t="s">
+      <c r="T5" s="121"/>
+      <c r="U5" s="121"/>
+      <c r="V5" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="123"/>
-      <c r="X5" s="123"/>
-      <c r="Y5" s="123"/>
-      <c r="Z5" s="123"/>
-      <c r="AA5" s="123"/>
-      <c r="AB5" s="123"/>
-      <c r="AC5" s="123"/>
-      <c r="AD5" s="123"/>
-      <c r="AE5" s="123"/>
-      <c r="AF5" s="123"/>
-      <c r="AG5" s="123"/>
-      <c r="AH5" s="123"/>
-      <c r="AI5" s="123"/>
-      <c r="AJ5" s="123"/>
-      <c r="AK5" s="123"/>
-      <c r="AL5" s="123"/>
-      <c r="AM5" s="123"/>
-      <c r="AN5" s="111" t="s">
+      <c r="W5" s="126"/>
+      <c r="X5" s="126"/>
+      <c r="Y5" s="126"/>
+      <c r="Z5" s="126"/>
+      <c r="AA5" s="126"/>
+      <c r="AB5" s="126"/>
+      <c r="AC5" s="126"/>
+      <c r="AD5" s="126"/>
+      <c r="AE5" s="126"/>
+      <c r="AF5" s="126"/>
+      <c r="AG5" s="126"/>
+      <c r="AH5" s="126"/>
+      <c r="AI5" s="126"/>
+      <c r="AJ5" s="126"/>
+      <c r="AK5" s="126"/>
+      <c r="AL5" s="126"/>
+      <c r="AM5" s="126"/>
+      <c r="AN5" s="121" t="s">
         <v>102</v>
       </c>
-      <c r="AO5" s="111"/>
-      <c r="AP5" s="111"/>
-      <c r="AQ5" s="111"/>
-      <c r="AR5" s="111"/>
-      <c r="AS5" s="111"/>
-      <c r="AT5" s="111"/>
-      <c r="AU5" s="111"/>
-      <c r="AV5" s="111"/>
-      <c r="AW5" s="111"/>
+      <c r="AO5" s="121"/>
+      <c r="AP5" s="121"/>
+      <c r="AQ5" s="121"/>
+      <c r="AR5" s="121"/>
+      <c r="AS5" s="121"/>
+      <c r="AT5" s="121"/>
+      <c r="AU5" s="121"/>
+      <c r="AV5" s="121"/>
+      <c r="AW5" s="121"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
       <c r="M6" s="125"/>
       <c r="N6" s="125"/>
       <c r="O6" s="125"/>
       <c r="P6" s="125"/>
       <c r="Q6" s="125"/>
       <c r="R6" s="125"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="123"/>
-      <c r="AA6" s="123"/>
-      <c r="AB6" s="123"/>
-      <c r="AC6" s="123"/>
-      <c r="AD6" s="123"/>
-      <c r="AE6" s="123"/>
-      <c r="AF6" s="123"/>
-      <c r="AG6" s="123"/>
-      <c r="AH6" s="123"/>
-      <c r="AI6" s="123"/>
-      <c r="AJ6" s="123"/>
-      <c r="AK6" s="123"/>
-      <c r="AL6" s="123"/>
-      <c r="AM6" s="123"/>
-      <c r="AN6" s="111"/>
-      <c r="AO6" s="111"/>
-      <c r="AP6" s="111"/>
-      <c r="AQ6" s="111"/>
-      <c r="AR6" s="111"/>
-      <c r="AS6" s="111"/>
-      <c r="AT6" s="111"/>
-      <c r="AU6" s="111"/>
-      <c r="AV6" s="111"/>
-      <c r="AW6" s="111"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
+      <c r="U6" s="121"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="126"/>
+      <c r="AC6" s="126"/>
+      <c r="AD6" s="126"/>
+      <c r="AE6" s="126"/>
+      <c r="AF6" s="126"/>
+      <c r="AG6" s="126"/>
+      <c r="AH6" s="126"/>
+      <c r="AI6" s="126"/>
+      <c r="AJ6" s="126"/>
+      <c r="AK6" s="126"/>
+      <c r="AL6" s="126"/>
+      <c r="AM6" s="126"/>
+      <c r="AN6" s="121"/>
+      <c r="AO6" s="121"/>
+      <c r="AP6" s="121"/>
+      <c r="AQ6" s="121"/>
+      <c r="AR6" s="121"/>
+      <c r="AS6" s="121"/>
+      <c r="AT6" s="121"/>
+      <c r="AU6" s="121"/>
+      <c r="AV6" s="121"/>
+      <c r="AW6" s="121"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
       <c r="M7" s="125"/>
       <c r="N7" s="125"/>
       <c r="O7" s="125"/>
       <c r="P7" s="125"/>
       <c r="Q7" s="125"/>
       <c r="R7" s="125"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="111"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
-      <c r="X7" s="123"/>
-      <c r="Y7" s="123"/>
-      <c r="Z7" s="123"/>
-      <c r="AA7" s="123"/>
-      <c r="AB7" s="123"/>
-      <c r="AC7" s="123"/>
-      <c r="AD7" s="123"/>
-      <c r="AE7" s="123"/>
-      <c r="AF7" s="123"/>
-      <c r="AG7" s="123"/>
-      <c r="AH7" s="123"/>
-      <c r="AI7" s="123"/>
-      <c r="AJ7" s="123"/>
-      <c r="AK7" s="123"/>
-      <c r="AL7" s="123"/>
-      <c r="AM7" s="123"/>
-      <c r="AN7" s="111"/>
-      <c r="AO7" s="111"/>
-      <c r="AP7" s="111"/>
-      <c r="AQ7" s="111"/>
-      <c r="AR7" s="111"/>
-      <c r="AS7" s="111"/>
-      <c r="AT7" s="111"/>
-      <c r="AU7" s="111"/>
-      <c r="AV7" s="111"/>
-      <c r="AW7" s="111"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="126"/>
+      <c r="AD7" s="126"/>
+      <c r="AE7" s="126"/>
+      <c r="AF7" s="126"/>
+      <c r="AG7" s="126"/>
+      <c r="AH7" s="126"/>
+      <c r="AI7" s="126"/>
+      <c r="AJ7" s="126"/>
+      <c r="AK7" s="126"/>
+      <c r="AL7" s="126"/>
+      <c r="AM7" s="126"/>
+      <c r="AN7" s="121"/>
+      <c r="AO7" s="121"/>
+      <c r="AP7" s="121"/>
+      <c r="AQ7" s="121"/>
+      <c r="AR7" s="121"/>
+      <c r="AS7" s="121"/>
+      <c r="AT7" s="121"/>
+      <c r="AU7" s="121"/>
+      <c r="AV7" s="121"/>
+      <c r="AW7" s="121"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
       <c r="M8" s="125"/>
       <c r="N8" s="125"/>
       <c r="O8" s="125"/>
       <c r="P8" s="125"/>
       <c r="Q8" s="125"/>
       <c r="R8" s="125"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="111"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="123"/>
-      <c r="W8" s="123"/>
-      <c r="X8" s="123"/>
-      <c r="Y8" s="123"/>
-      <c r="Z8" s="123"/>
-      <c r="AA8" s="123"/>
-      <c r="AB8" s="123"/>
-      <c r="AC8" s="123"/>
-      <c r="AD8" s="123"/>
-      <c r="AE8" s="123"/>
-      <c r="AF8" s="123"/>
-      <c r="AG8" s="123"/>
-      <c r="AH8" s="123"/>
-      <c r="AI8" s="123"/>
-      <c r="AJ8" s="123"/>
-      <c r="AK8" s="123"/>
-      <c r="AL8" s="123"/>
-      <c r="AM8" s="123"/>
-      <c r="AN8" s="111"/>
-      <c r="AO8" s="111"/>
-      <c r="AP8" s="111"/>
-      <c r="AQ8" s="111"/>
-      <c r="AR8" s="111"/>
-      <c r="AS8" s="111"/>
-      <c r="AT8" s="111"/>
-      <c r="AU8" s="111"/>
-      <c r="AV8" s="111"/>
-      <c r="AW8" s="111"/>
+      <c r="S8" s="121"/>
+      <c r="T8" s="121"/>
+      <c r="U8" s="121"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="126"/>
+      <c r="X8" s="126"/>
+      <c r="Y8" s="126"/>
+      <c r="Z8" s="126"/>
+      <c r="AA8" s="126"/>
+      <c r="AB8" s="126"/>
+      <c r="AC8" s="126"/>
+      <c r="AD8" s="126"/>
+      <c r="AE8" s="126"/>
+      <c r="AF8" s="126"/>
+      <c r="AG8" s="126"/>
+      <c r="AH8" s="126"/>
+      <c r="AI8" s="126"/>
+      <c r="AJ8" s="126"/>
+      <c r="AK8" s="126"/>
+      <c r="AL8" s="126"/>
+      <c r="AM8" s="126"/>
+      <c r="AN8" s="121"/>
+      <c r="AO8" s="121"/>
+      <c r="AP8" s="121"/>
+      <c r="AQ8" s="121"/>
+      <c r="AR8" s="121"/>
+      <c r="AS8" s="121"/>
+      <c r="AT8" s="121"/>
+      <c r="AU8" s="121"/>
+      <c r="AV8" s="121"/>
+      <c r="AW8" s="121"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
       <c r="M9" s="125"/>
       <c r="N9" s="125"/>
       <c r="O9" s="125"/>
       <c r="P9" s="125"/>
       <c r="Q9" s="125"/>
       <c r="R9" s="125"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="111"/>
-      <c r="U9" s="111"/>
-      <c r="V9" s="123"/>
-      <c r="W9" s="123"/>
-      <c r="X9" s="123"/>
-      <c r="Y9" s="123"/>
-      <c r="Z9" s="123"/>
-      <c r="AA9" s="123"/>
-      <c r="AB9" s="123"/>
-      <c r="AC9" s="123"/>
-      <c r="AD9" s="123"/>
-      <c r="AE9" s="123"/>
-      <c r="AF9" s="123"/>
-      <c r="AG9" s="123"/>
-      <c r="AH9" s="123"/>
-      <c r="AI9" s="123"/>
-      <c r="AJ9" s="123"/>
-      <c r="AK9" s="123"/>
-      <c r="AL9" s="123"/>
-      <c r="AM9" s="123"/>
-      <c r="AN9" s="111"/>
-      <c r="AO9" s="111"/>
-      <c r="AP9" s="111"/>
-      <c r="AQ9" s="111"/>
-      <c r="AR9" s="111"/>
-      <c r="AS9" s="111"/>
-      <c r="AT9" s="111"/>
-      <c r="AU9" s="111"/>
-      <c r="AV9" s="111"/>
-      <c r="AW9" s="111"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="121"/>
+      <c r="V9" s="126"/>
+      <c r="W9" s="126"/>
+      <c r="X9" s="126"/>
+      <c r="Y9" s="126"/>
+      <c r="Z9" s="126"/>
+      <c r="AA9" s="126"/>
+      <c r="AB9" s="126"/>
+      <c r="AC9" s="126"/>
+      <c r="AD9" s="126"/>
+      <c r="AE9" s="126"/>
+      <c r="AF9" s="126"/>
+      <c r="AG9" s="126"/>
+      <c r="AH9" s="126"/>
+      <c r="AI9" s="126"/>
+      <c r="AJ9" s="126"/>
+      <c r="AK9" s="126"/>
+      <c r="AL9" s="126"/>
+      <c r="AM9" s="126"/>
+      <c r="AN9" s="121"/>
+      <c r="AO9" s="121"/>
+      <c r="AP9" s="121"/>
+      <c r="AQ9" s="121"/>
+      <c r="AR9" s="121"/>
+      <c r="AS9" s="121"/>
+      <c r="AT9" s="121"/>
+      <c r="AU9" s="121"/>
+      <c r="AV9" s="121"/>
+      <c r="AW9" s="121"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
       <c r="M10" s="125"/>
       <c r="N10" s="125"/>
       <c r="O10" s="125"/>
       <c r="P10" s="125"/>
       <c r="Q10" s="125"/>
       <c r="R10" s="125"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="111"/>
-      <c r="V10" s="123"/>
-      <c r="W10" s="123"/>
-      <c r="X10" s="123"/>
-      <c r="Y10" s="123"/>
-      <c r="Z10" s="123"/>
-      <c r="AA10" s="123"/>
-      <c r="AB10" s="123"/>
-      <c r="AC10" s="123"/>
-      <c r="AD10" s="123"/>
-      <c r="AE10" s="123"/>
-      <c r="AF10" s="123"/>
-      <c r="AG10" s="123"/>
-      <c r="AH10" s="123"/>
-      <c r="AI10" s="123"/>
-      <c r="AJ10" s="123"/>
-      <c r="AK10" s="123"/>
-      <c r="AL10" s="123"/>
-      <c r="AM10" s="123"/>
-      <c r="AN10" s="111"/>
-      <c r="AO10" s="111"/>
-      <c r="AP10" s="111"/>
-      <c r="AQ10" s="111"/>
-      <c r="AR10" s="111"/>
-      <c r="AS10" s="111"/>
-      <c r="AT10" s="111"/>
-      <c r="AU10" s="111"/>
-      <c r="AV10" s="111"/>
-      <c r="AW10" s="111"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="121"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="126"/>
+      <c r="Z10" s="126"/>
+      <c r="AA10" s="126"/>
+      <c r="AB10" s="126"/>
+      <c r="AC10" s="126"/>
+      <c r="AD10" s="126"/>
+      <c r="AE10" s="126"/>
+      <c r="AF10" s="126"/>
+      <c r="AG10" s="126"/>
+      <c r="AH10" s="126"/>
+      <c r="AI10" s="126"/>
+      <c r="AJ10" s="126"/>
+      <c r="AK10" s="126"/>
+      <c r="AL10" s="126"/>
+      <c r="AM10" s="126"/>
+      <c r="AN10" s="121"/>
+      <c r="AO10" s="121"/>
+      <c r="AP10" s="121"/>
+      <c r="AQ10" s="121"/>
+      <c r="AR10" s="121"/>
+      <c r="AS10" s="121"/>
+      <c r="AT10" s="121"/>
+      <c r="AU10" s="121"/>
+      <c r="AV10" s="121"/>
+      <c r="AW10" s="121"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="111"/>
-      <c r="T11" s="111"/>
-      <c r="U11" s="111"/>
-      <c r="V11" s="117"/>
-      <c r="W11" s="124"/>
-      <c r="X11" s="124"/>
-      <c r="Y11" s="124"/>
-      <c r="Z11" s="124"/>
-      <c r="AA11" s="124"/>
-      <c r="AB11" s="124"/>
-      <c r="AC11" s="124"/>
-      <c r="AD11" s="124"/>
-      <c r="AE11" s="124"/>
-      <c r="AF11" s="124"/>
-      <c r="AG11" s="124"/>
-      <c r="AH11" s="124"/>
-      <c r="AI11" s="124"/>
-      <c r="AJ11" s="124"/>
-      <c r="AK11" s="124"/>
-      <c r="AL11" s="124"/>
-      <c r="AM11" s="124"/>
-      <c r="AN11" s="111"/>
-      <c r="AO11" s="111"/>
-      <c r="AP11" s="111"/>
-      <c r="AQ11" s="111"/>
-      <c r="AR11" s="111"/>
-      <c r="AS11" s="111"/>
-      <c r="AT11" s="111"/>
-      <c r="AU11" s="111"/>
-      <c r="AV11" s="111"/>
-      <c r="AW11" s="111"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="127"/>
+      <c r="N11" s="127"/>
+      <c r="O11" s="127"/>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="127"/>
+      <c r="R11" s="127"/>
+      <c r="S11" s="121"/>
+      <c r="T11" s="121"/>
+      <c r="U11" s="121"/>
+      <c r="V11" s="128"/>
+      <c r="W11" s="129"/>
+      <c r="X11" s="129"/>
+      <c r="Y11" s="129"/>
+      <c r="Z11" s="129"/>
+      <c r="AA11" s="129"/>
+      <c r="AB11" s="129"/>
+      <c r="AC11" s="129"/>
+      <c r="AD11" s="129"/>
+      <c r="AE11" s="129"/>
+      <c r="AF11" s="129"/>
+      <c r="AG11" s="129"/>
+      <c r="AH11" s="129"/>
+      <c r="AI11" s="129"/>
+      <c r="AJ11" s="129"/>
+      <c r="AK11" s="129"/>
+      <c r="AL11" s="129"/>
+      <c r="AM11" s="129"/>
+      <c r="AN11" s="121"/>
+      <c r="AO11" s="121"/>
+      <c r="AP11" s="121"/>
+      <c r="AQ11" s="121"/>
+      <c r="AR11" s="121"/>
+      <c r="AS11" s="121"/>
+      <c r="AT11" s="121"/>
+      <c r="AU11" s="121"/>
+      <c r="AV11" s="121"/>
+      <c r="AW11" s="121"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="111"/>
-      <c r="T12" s="111"/>
-      <c r="U12" s="111"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="117"/>
-      <c r="X12" s="117"/>
-      <c r="Y12" s="117"/>
-      <c r="Z12" s="117"/>
-      <c r="AA12" s="117"/>
-      <c r="AB12" s="117"/>
-      <c r="AC12" s="117"/>
-      <c r="AD12" s="117"/>
-      <c r="AE12" s="117"/>
-      <c r="AF12" s="117"/>
-      <c r="AG12" s="117"/>
-      <c r="AH12" s="117"/>
-      <c r="AI12" s="117"/>
-      <c r="AJ12" s="117"/>
-      <c r="AK12" s="117"/>
-      <c r="AL12" s="117"/>
-      <c r="AM12" s="117"/>
-      <c r="AN12" s="111"/>
-      <c r="AO12" s="111"/>
-      <c r="AP12" s="111"/>
-      <c r="AQ12" s="111"/>
-      <c r="AR12" s="111"/>
-      <c r="AS12" s="111"/>
-      <c r="AT12" s="111"/>
-      <c r="AU12" s="111"/>
-      <c r="AV12" s="111"/>
-      <c r="AW12" s="111"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="127"/>
+      <c r="O12" s="127"/>
+      <c r="P12" s="127"/>
+      <c r="Q12" s="127"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="121"/>
+      <c r="T12" s="121"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="128"/>
+      <c r="W12" s="128"/>
+      <c r="X12" s="128"/>
+      <c r="Y12" s="128"/>
+      <c r="Z12" s="128"/>
+      <c r="AA12" s="128"/>
+      <c r="AB12" s="128"/>
+      <c r="AC12" s="128"/>
+      <c r="AD12" s="128"/>
+      <c r="AE12" s="128"/>
+      <c r="AF12" s="128"/>
+      <c r="AG12" s="128"/>
+      <c r="AH12" s="128"/>
+      <c r="AI12" s="128"/>
+      <c r="AJ12" s="128"/>
+      <c r="AK12" s="128"/>
+      <c r="AL12" s="128"/>
+      <c r="AM12" s="128"/>
+      <c r="AN12" s="121"/>
+      <c r="AO12" s="121"/>
+      <c r="AP12" s="121"/>
+      <c r="AQ12" s="121"/>
+      <c r="AR12" s="121"/>
+      <c r="AS12" s="121"/>
+      <c r="AT12" s="121"/>
+      <c r="AU12" s="121"/>
+      <c r="AV12" s="121"/>
+      <c r="AW12" s="121"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="111"/>
-      <c r="U13" s="111"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="117"/>
-      <c r="X13" s="117"/>
-      <c r="Y13" s="117"/>
-      <c r="Z13" s="117"/>
-      <c r="AA13" s="117"/>
-      <c r="AB13" s="117"/>
-      <c r="AC13" s="117"/>
-      <c r="AD13" s="117"/>
-      <c r="AE13" s="117"/>
-      <c r="AF13" s="117"/>
-      <c r="AG13" s="117"/>
-      <c r="AH13" s="117"/>
-      <c r="AI13" s="117"/>
-      <c r="AJ13" s="117"/>
-      <c r="AK13" s="117"/>
-      <c r="AL13" s="117"/>
-      <c r="AM13" s="117"/>
-      <c r="AN13" s="111"/>
-      <c r="AO13" s="111"/>
-      <c r="AP13" s="111"/>
-      <c r="AQ13" s="111"/>
-      <c r="AR13" s="111"/>
-      <c r="AS13" s="111"/>
-      <c r="AT13" s="111"/>
-      <c r="AU13" s="111"/>
-      <c r="AV13" s="111"/>
-      <c r="AW13" s="111"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="130"/>
+      <c r="N13" s="127"/>
+      <c r="O13" s="127"/>
+      <c r="P13" s="127"/>
+      <c r="Q13" s="127"/>
+      <c r="R13" s="127"/>
+      <c r="S13" s="121"/>
+      <c r="T13" s="121"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="128"/>
+      <c r="W13" s="128"/>
+      <c r="X13" s="128"/>
+      <c r="Y13" s="128"/>
+      <c r="Z13" s="128"/>
+      <c r="AA13" s="128"/>
+      <c r="AB13" s="128"/>
+      <c r="AC13" s="128"/>
+      <c r="AD13" s="128"/>
+      <c r="AE13" s="128"/>
+      <c r="AF13" s="128"/>
+      <c r="AG13" s="128"/>
+      <c r="AH13" s="128"/>
+      <c r="AI13" s="128"/>
+      <c r="AJ13" s="128"/>
+      <c r="AK13" s="128"/>
+      <c r="AL13" s="128"/>
+      <c r="AM13" s="128"/>
+      <c r="AN13" s="121"/>
+      <c r="AO13" s="121"/>
+      <c r="AP13" s="121"/>
+      <c r="AQ13" s="121"/>
+      <c r="AR13" s="121"/>
+      <c r="AS13" s="121"/>
+      <c r="AT13" s="121"/>
+      <c r="AU13" s="121"/>
+      <c r="AV13" s="121"/>
+      <c r="AW13" s="121"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="111"/>
-      <c r="T14" s="111"/>
-      <c r="U14" s="111"/>
-      <c r="V14" s="122"/>
-      <c r="W14" s="123"/>
-      <c r="X14" s="123"/>
-      <c r="Y14" s="123"/>
-      <c r="Z14" s="123"/>
-      <c r="AA14" s="123"/>
-      <c r="AB14" s="123"/>
-      <c r="AC14" s="123"/>
-      <c r="AD14" s="123"/>
-      <c r="AE14" s="123"/>
-      <c r="AF14" s="123"/>
-      <c r="AG14" s="123"/>
-      <c r="AH14" s="123"/>
-      <c r="AI14" s="123"/>
-      <c r="AJ14" s="123"/>
-      <c r="AK14" s="123"/>
-      <c r="AL14" s="123"/>
-      <c r="AM14" s="123"/>
-      <c r="AN14" s="111"/>
-      <c r="AO14" s="111"/>
-      <c r="AP14" s="111"/>
-      <c r="AQ14" s="111"/>
-      <c r="AR14" s="111"/>
-      <c r="AS14" s="111"/>
-      <c r="AT14" s="111"/>
-      <c r="AU14" s="111"/>
-      <c r="AV14" s="111"/>
-      <c r="AW14" s="111"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="127"/>
+      <c r="O14" s="127"/>
+      <c r="P14" s="127"/>
+      <c r="Q14" s="127"/>
+      <c r="R14" s="127"/>
+      <c r="S14" s="121"/>
+      <c r="T14" s="121"/>
+      <c r="U14" s="121"/>
+      <c r="V14" s="131"/>
+      <c r="W14" s="126"/>
+      <c r="X14" s="126"/>
+      <c r="Y14" s="126"/>
+      <c r="Z14" s="126"/>
+      <c r="AA14" s="126"/>
+      <c r="AB14" s="126"/>
+      <c r="AC14" s="126"/>
+      <c r="AD14" s="126"/>
+      <c r="AE14" s="126"/>
+      <c r="AF14" s="126"/>
+      <c r="AG14" s="126"/>
+      <c r="AH14" s="126"/>
+      <c r="AI14" s="126"/>
+      <c r="AJ14" s="126"/>
+      <c r="AK14" s="126"/>
+      <c r="AL14" s="126"/>
+      <c r="AM14" s="126"/>
+      <c r="AN14" s="121"/>
+      <c r="AO14" s="121"/>
+      <c r="AP14" s="121"/>
+      <c r="AQ14" s="121"/>
+      <c r="AR14" s="121"/>
+      <c r="AS14" s="121"/>
+      <c r="AT14" s="121"/>
+      <c r="AU14" s="121"/>
+      <c r="AV14" s="121"/>
+      <c r="AW14" s="121"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="111"/>
-      <c r="T15" s="111"/>
-      <c r="U15" s="111"/>
-      <c r="V15" s="117"/>
-      <c r="W15" s="117"/>
-      <c r="X15" s="117"/>
-      <c r="Y15" s="117"/>
-      <c r="Z15" s="117"/>
-      <c r="AA15" s="117"/>
-      <c r="AB15" s="117"/>
-      <c r="AC15" s="117"/>
-      <c r="AD15" s="117"/>
-      <c r="AE15" s="117"/>
-      <c r="AF15" s="117"/>
-      <c r="AG15" s="117"/>
-      <c r="AH15" s="117"/>
-      <c r="AI15" s="117"/>
-      <c r="AJ15" s="117"/>
-      <c r="AK15" s="117"/>
-      <c r="AL15" s="117"/>
-      <c r="AM15" s="117"/>
-      <c r="AN15" s="111"/>
-      <c r="AO15" s="111"/>
-      <c r="AP15" s="111"/>
-      <c r="AQ15" s="111"/>
-      <c r="AR15" s="111"/>
-      <c r="AS15" s="111"/>
-      <c r="AT15" s="111"/>
-      <c r="AU15" s="111"/>
-      <c r="AV15" s="111"/>
-      <c r="AW15" s="111"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="127"/>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="121"/>
+      <c r="T15" s="121"/>
+      <c r="U15" s="121"/>
+      <c r="V15" s="128"/>
+      <c r="W15" s="128"/>
+      <c r="X15" s="128"/>
+      <c r="Y15" s="128"/>
+      <c r="Z15" s="128"/>
+      <c r="AA15" s="128"/>
+      <c r="AB15" s="128"/>
+      <c r="AC15" s="128"/>
+      <c r="AD15" s="128"/>
+      <c r="AE15" s="128"/>
+      <c r="AF15" s="128"/>
+      <c r="AG15" s="128"/>
+      <c r="AH15" s="128"/>
+      <c r="AI15" s="128"/>
+      <c r="AJ15" s="128"/>
+      <c r="AK15" s="128"/>
+      <c r="AL15" s="128"/>
+      <c r="AM15" s="128"/>
+      <c r="AN15" s="121"/>
+      <c r="AO15" s="121"/>
+      <c r="AP15" s="121"/>
+      <c r="AQ15" s="121"/>
+      <c r="AR15" s="121"/>
+      <c r="AS15" s="121"/>
+      <c r="AT15" s="121"/>
+      <c r="AU15" s="121"/>
+      <c r="AV15" s="121"/>
+      <c r="AW15" s="121"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="119"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="111"/>
-      <c r="T16" s="111"/>
-      <c r="U16" s="111"/>
-      <c r="V16" s="117"/>
-      <c r="W16" s="117"/>
-      <c r="X16" s="117"/>
-      <c r="Y16" s="117"/>
-      <c r="Z16" s="117"/>
-      <c r="AA16" s="117"/>
-      <c r="AB16" s="117"/>
-      <c r="AC16" s="117"/>
-      <c r="AD16" s="117"/>
-      <c r="AE16" s="117"/>
-      <c r="AF16" s="117"/>
-      <c r="AG16" s="117"/>
-      <c r="AH16" s="117"/>
-      <c r="AI16" s="117"/>
-      <c r="AJ16" s="117"/>
-      <c r="AK16" s="117"/>
-      <c r="AL16" s="117"/>
-      <c r="AM16" s="117"/>
-      <c r="AN16" s="111"/>
-      <c r="AO16" s="111"/>
-      <c r="AP16" s="111"/>
-      <c r="AQ16" s="111"/>
-      <c r="AR16" s="111"/>
-      <c r="AS16" s="111"/>
-      <c r="AT16" s="111"/>
-      <c r="AU16" s="111"/>
-      <c r="AV16" s="111"/>
-      <c r="AW16" s="111"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="121"/>
+      <c r="T16" s="121"/>
+      <c r="U16" s="121"/>
+      <c r="V16" s="128"/>
+      <c r="W16" s="128"/>
+      <c r="X16" s="128"/>
+      <c r="Y16" s="128"/>
+      <c r="Z16" s="128"/>
+      <c r="AA16" s="128"/>
+      <c r="AB16" s="128"/>
+      <c r="AC16" s="128"/>
+      <c r="AD16" s="128"/>
+      <c r="AE16" s="128"/>
+      <c r="AF16" s="128"/>
+      <c r="AG16" s="128"/>
+      <c r="AH16" s="128"/>
+      <c r="AI16" s="128"/>
+      <c r="AJ16" s="128"/>
+      <c r="AK16" s="128"/>
+      <c r="AL16" s="128"/>
+      <c r="AM16" s="128"/>
+      <c r="AN16" s="121"/>
+      <c r="AO16" s="121"/>
+      <c r="AP16" s="121"/>
+      <c r="AQ16" s="121"/>
+      <c r="AR16" s="121"/>
+      <c r="AS16" s="121"/>
+      <c r="AT16" s="121"/>
+      <c r="AU16" s="121"/>
+      <c r="AV16" s="121"/>
+      <c r="AW16" s="121"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="120"/>
-      <c r="S17" s="121"/>
-      <c r="T17" s="121"/>
-      <c r="U17" s="121"/>
-      <c r="V17" s="117"/>
-      <c r="W17" s="117"/>
-      <c r="X17" s="117"/>
-      <c r="Y17" s="117"/>
-      <c r="Z17" s="117"/>
-      <c r="AA17" s="117"/>
-      <c r="AB17" s="117"/>
-      <c r="AC17" s="117"/>
-      <c r="AD17" s="117"/>
-      <c r="AE17" s="117"/>
-      <c r="AF17" s="117"/>
-      <c r="AG17" s="117"/>
-      <c r="AH17" s="117"/>
-      <c r="AI17" s="117"/>
-      <c r="AJ17" s="117"/>
-      <c r="AK17" s="117"/>
-      <c r="AL17" s="117"/>
-      <c r="AM17" s="117"/>
-      <c r="AN17" s="111"/>
-      <c r="AO17" s="111"/>
-      <c r="AP17" s="111"/>
-      <c r="AQ17" s="111"/>
-      <c r="AR17" s="111"/>
-      <c r="AS17" s="111"/>
-      <c r="AT17" s="111"/>
-      <c r="AU17" s="111"/>
-      <c r="AV17" s="111"/>
-      <c r="AW17" s="111"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="132"/>
+      <c r="S17" s="133"/>
+      <c r="T17" s="133"/>
+      <c r="U17" s="133"/>
+      <c r="V17" s="128"/>
+      <c r="W17" s="128"/>
+      <c r="X17" s="128"/>
+      <c r="Y17" s="128"/>
+      <c r="Z17" s="128"/>
+      <c r="AA17" s="128"/>
+      <c r="AB17" s="128"/>
+      <c r="AC17" s="128"/>
+      <c r="AD17" s="128"/>
+      <c r="AE17" s="128"/>
+      <c r="AF17" s="128"/>
+      <c r="AG17" s="128"/>
+      <c r="AH17" s="128"/>
+      <c r="AI17" s="128"/>
+      <c r="AJ17" s="128"/>
+      <c r="AK17" s="128"/>
+      <c r="AL17" s="128"/>
+      <c r="AM17" s="128"/>
+      <c r="AN17" s="121"/>
+      <c r="AO17" s="121"/>
+      <c r="AP17" s="121"/>
+      <c r="AQ17" s="121"/>
+      <c r="AR17" s="121"/>
+      <c r="AS17" s="121"/>
+      <c r="AT17" s="121"/>
+      <c r="AU17" s="121"/>
+      <c r="AV17" s="121"/>
+      <c r="AW17" s="121"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="119"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="111"/>
-      <c r="T18" s="111"/>
-      <c r="U18" s="111"/>
-      <c r="V18" s="117"/>
-      <c r="W18" s="117"/>
-      <c r="X18" s="117"/>
-      <c r="Y18" s="117"/>
-      <c r="Z18" s="117"/>
-      <c r="AA18" s="117"/>
-      <c r="AB18" s="117"/>
-      <c r="AC18" s="117"/>
-      <c r="AD18" s="117"/>
-      <c r="AE18" s="117"/>
-      <c r="AF18" s="117"/>
-      <c r="AG18" s="117"/>
-      <c r="AH18" s="117"/>
-      <c r="AI18" s="117"/>
-      <c r="AJ18" s="117"/>
-      <c r="AK18" s="117"/>
-      <c r="AL18" s="117"/>
-      <c r="AM18" s="117"/>
-      <c r="AN18" s="111"/>
-      <c r="AO18" s="111"/>
-      <c r="AP18" s="111"/>
-      <c r="AQ18" s="111"/>
-      <c r="AR18" s="111"/>
-      <c r="AS18" s="111"/>
-      <c r="AT18" s="111"/>
-      <c r="AU18" s="111"/>
-      <c r="AV18" s="111"/>
-      <c r="AW18" s="111"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="127"/>
+      <c r="O18" s="127"/>
+      <c r="P18" s="127"/>
+      <c r="Q18" s="127"/>
+      <c r="R18" s="127"/>
+      <c r="S18" s="121"/>
+      <c r="T18" s="121"/>
+      <c r="U18" s="121"/>
+      <c r="V18" s="128"/>
+      <c r="W18" s="128"/>
+      <c r="X18" s="128"/>
+      <c r="Y18" s="128"/>
+      <c r="Z18" s="128"/>
+      <c r="AA18" s="128"/>
+      <c r="AB18" s="128"/>
+      <c r="AC18" s="128"/>
+      <c r="AD18" s="128"/>
+      <c r="AE18" s="128"/>
+      <c r="AF18" s="128"/>
+      <c r="AG18" s="128"/>
+      <c r="AH18" s="128"/>
+      <c r="AI18" s="128"/>
+      <c r="AJ18" s="128"/>
+      <c r="AK18" s="128"/>
+      <c r="AL18" s="128"/>
+      <c r="AM18" s="128"/>
+      <c r="AN18" s="121"/>
+      <c r="AO18" s="121"/>
+      <c r="AP18" s="121"/>
+      <c r="AQ18" s="121"/>
+      <c r="AR18" s="121"/>
+      <c r="AS18" s="121"/>
+      <c r="AT18" s="121"/>
+      <c r="AU18" s="121"/>
+      <c r="AV18" s="121"/>
+      <c r="AW18" s="121"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="111"/>
-      <c r="T19" s="111"/>
-      <c r="U19" s="111"/>
-      <c r="V19" s="117"/>
-      <c r="W19" s="117"/>
-      <c r="X19" s="117"/>
-      <c r="Y19" s="117"/>
-      <c r="Z19" s="117"/>
-      <c r="AA19" s="117"/>
-      <c r="AB19" s="117"/>
-      <c r="AC19" s="117"/>
-      <c r="AD19" s="117"/>
-      <c r="AE19" s="117"/>
-      <c r="AF19" s="117"/>
-      <c r="AG19" s="117"/>
-      <c r="AH19" s="117"/>
-      <c r="AI19" s="117"/>
-      <c r="AJ19" s="117"/>
-      <c r="AK19" s="117"/>
-      <c r="AL19" s="117"/>
-      <c r="AM19" s="117"/>
-      <c r="AN19" s="111"/>
-      <c r="AO19" s="111"/>
-      <c r="AP19" s="111"/>
-      <c r="AQ19" s="111"/>
-      <c r="AR19" s="111"/>
-      <c r="AS19" s="111"/>
-      <c r="AT19" s="111"/>
-      <c r="AU19" s="111"/>
-      <c r="AV19" s="111"/>
-      <c r="AW19" s="111"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="127"/>
+      <c r="O19" s="127"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="127"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="121"/>
+      <c r="T19" s="121"/>
+      <c r="U19" s="121"/>
+      <c r="V19" s="128"/>
+      <c r="W19" s="128"/>
+      <c r="X19" s="128"/>
+      <c r="Y19" s="128"/>
+      <c r="Z19" s="128"/>
+      <c r="AA19" s="128"/>
+      <c r="AB19" s="128"/>
+      <c r="AC19" s="128"/>
+      <c r="AD19" s="128"/>
+      <c r="AE19" s="128"/>
+      <c r="AF19" s="128"/>
+      <c r="AG19" s="128"/>
+      <c r="AH19" s="128"/>
+      <c r="AI19" s="128"/>
+      <c r="AJ19" s="128"/>
+      <c r="AK19" s="128"/>
+      <c r="AL19" s="128"/>
+      <c r="AM19" s="128"/>
+      <c r="AN19" s="121"/>
+      <c r="AO19" s="121"/>
+      <c r="AP19" s="121"/>
+      <c r="AQ19" s="121"/>
+      <c r="AR19" s="121"/>
+      <c r="AS19" s="121"/>
+      <c r="AT19" s="121"/>
+      <c r="AU19" s="121"/>
+      <c r="AV19" s="121"/>
+      <c r="AW19" s="121"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="119"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="111"/>
-      <c r="T20" s="111"/>
-      <c r="U20" s="111"/>
-      <c r="V20" s="117"/>
-      <c r="W20" s="117"/>
-      <c r="X20" s="117"/>
-      <c r="Y20" s="117"/>
-      <c r="Z20" s="117"/>
-      <c r="AA20" s="117"/>
-      <c r="AB20" s="117"/>
-      <c r="AC20" s="117"/>
-      <c r="AD20" s="117"/>
-      <c r="AE20" s="117"/>
-      <c r="AF20" s="117"/>
-      <c r="AG20" s="117"/>
-      <c r="AH20" s="117"/>
-      <c r="AI20" s="117"/>
-      <c r="AJ20" s="117"/>
-      <c r="AK20" s="117"/>
-      <c r="AL20" s="117"/>
-      <c r="AM20" s="117"/>
-      <c r="AN20" s="111"/>
-      <c r="AO20" s="111"/>
-      <c r="AP20" s="111"/>
-      <c r="AQ20" s="111"/>
-      <c r="AR20" s="111"/>
-      <c r="AS20" s="111"/>
-      <c r="AT20" s="111"/>
-      <c r="AU20" s="111"/>
-      <c r="AV20" s="111"/>
-      <c r="AW20" s="111"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="127"/>
+      <c r="N20" s="127"/>
+      <c r="O20" s="127"/>
+      <c r="P20" s="127"/>
+      <c r="Q20" s="127"/>
+      <c r="R20" s="127"/>
+      <c r="S20" s="121"/>
+      <c r="T20" s="121"/>
+      <c r="U20" s="121"/>
+      <c r="V20" s="128"/>
+      <c r="W20" s="128"/>
+      <c r="X20" s="128"/>
+      <c r="Y20" s="128"/>
+      <c r="Z20" s="128"/>
+      <c r="AA20" s="128"/>
+      <c r="AB20" s="128"/>
+      <c r="AC20" s="128"/>
+      <c r="AD20" s="128"/>
+      <c r="AE20" s="128"/>
+      <c r="AF20" s="128"/>
+      <c r="AG20" s="128"/>
+      <c r="AH20" s="128"/>
+      <c r="AI20" s="128"/>
+      <c r="AJ20" s="128"/>
+      <c r="AK20" s="128"/>
+      <c r="AL20" s="128"/>
+      <c r="AM20" s="128"/>
+      <c r="AN20" s="121"/>
+      <c r="AO20" s="121"/>
+      <c r="AP20" s="121"/>
+      <c r="AQ20" s="121"/>
+      <c r="AR20" s="121"/>
+      <c r="AS20" s="121"/>
+      <c r="AT20" s="121"/>
+      <c r="AU20" s="121"/>
+      <c r="AV20" s="121"/>
+      <c r="AW20" s="121"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="111"/>
-      <c r="T21" s="111"/>
-      <c r="U21" s="111"/>
-      <c r="V21" s="117"/>
-      <c r="W21" s="117"/>
-      <c r="X21" s="117"/>
-      <c r="Y21" s="117"/>
-      <c r="Z21" s="117"/>
-      <c r="AA21" s="117"/>
-      <c r="AB21" s="117"/>
-      <c r="AC21" s="117"/>
-      <c r="AD21" s="117"/>
-      <c r="AE21" s="117"/>
-      <c r="AF21" s="117"/>
-      <c r="AG21" s="117"/>
-      <c r="AH21" s="117"/>
-      <c r="AI21" s="117"/>
-      <c r="AJ21" s="117"/>
-      <c r="AK21" s="117"/>
-      <c r="AL21" s="117"/>
-      <c r="AM21" s="117"/>
-      <c r="AN21" s="111"/>
-      <c r="AO21" s="111"/>
-      <c r="AP21" s="111"/>
-      <c r="AQ21" s="111"/>
-      <c r="AR21" s="111"/>
-      <c r="AS21" s="111"/>
-      <c r="AT21" s="111"/>
-      <c r="AU21" s="111"/>
-      <c r="AV21" s="111"/>
-      <c r="AW21" s="111"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="127"/>
+      <c r="N21" s="127"/>
+      <c r="O21" s="127"/>
+      <c r="P21" s="127"/>
+      <c r="Q21" s="127"/>
+      <c r="R21" s="127"/>
+      <c r="S21" s="121"/>
+      <c r="T21" s="121"/>
+      <c r="U21" s="121"/>
+      <c r="V21" s="128"/>
+      <c r="W21" s="128"/>
+      <c r="X21" s="128"/>
+      <c r="Y21" s="128"/>
+      <c r="Z21" s="128"/>
+      <c r="AA21" s="128"/>
+      <c r="AB21" s="128"/>
+      <c r="AC21" s="128"/>
+      <c r="AD21" s="128"/>
+      <c r="AE21" s="128"/>
+      <c r="AF21" s="128"/>
+      <c r="AG21" s="128"/>
+      <c r="AH21" s="128"/>
+      <c r="AI21" s="128"/>
+      <c r="AJ21" s="128"/>
+      <c r="AK21" s="128"/>
+      <c r="AL21" s="128"/>
+      <c r="AM21" s="128"/>
+      <c r="AN21" s="121"/>
+      <c r="AO21" s="121"/>
+      <c r="AP21" s="121"/>
+      <c r="AQ21" s="121"/>
+      <c r="AR21" s="121"/>
+      <c r="AS21" s="121"/>
+      <c r="AT21" s="121"/>
+      <c r="AU21" s="121"/>
+      <c r="AV21" s="121"/>
+      <c r="AW21" s="121"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="119"/>
-      <c r="S22" s="111"/>
-      <c r="T22" s="111"/>
-      <c r="U22" s="111"/>
-      <c r="V22" s="117"/>
-      <c r="W22" s="117"/>
-      <c r="X22" s="117"/>
-      <c r="Y22" s="117"/>
-      <c r="Z22" s="117"/>
-      <c r="AA22" s="117"/>
-      <c r="AB22" s="117"/>
-      <c r="AC22" s="117"/>
-      <c r="AD22" s="117"/>
-      <c r="AE22" s="117"/>
-      <c r="AF22" s="117"/>
-      <c r="AG22" s="117"/>
-      <c r="AH22" s="117"/>
-      <c r="AI22" s="117"/>
-      <c r="AJ22" s="117"/>
-      <c r="AK22" s="117"/>
-      <c r="AL22" s="117"/>
-      <c r="AM22" s="117"/>
-      <c r="AN22" s="111"/>
-      <c r="AO22" s="111"/>
-      <c r="AP22" s="111"/>
-      <c r="AQ22" s="111"/>
-      <c r="AR22" s="111"/>
-      <c r="AS22" s="111"/>
-      <c r="AT22" s="111"/>
-      <c r="AU22" s="111"/>
-      <c r="AV22" s="111"/>
-      <c r="AW22" s="111"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="127"/>
+      <c r="N22" s="127"/>
+      <c r="O22" s="127"/>
+      <c r="P22" s="127"/>
+      <c r="Q22" s="127"/>
+      <c r="R22" s="127"/>
+      <c r="S22" s="121"/>
+      <c r="T22" s="121"/>
+      <c r="U22" s="121"/>
+      <c r="V22" s="128"/>
+      <c r="W22" s="128"/>
+      <c r="X22" s="128"/>
+      <c r="Y22" s="128"/>
+      <c r="Z22" s="128"/>
+      <c r="AA22" s="128"/>
+      <c r="AB22" s="128"/>
+      <c r="AC22" s="128"/>
+      <c r="AD22" s="128"/>
+      <c r="AE22" s="128"/>
+      <c r="AF22" s="128"/>
+      <c r="AG22" s="128"/>
+      <c r="AH22" s="128"/>
+      <c r="AI22" s="128"/>
+      <c r="AJ22" s="128"/>
+      <c r="AK22" s="128"/>
+      <c r="AL22" s="128"/>
+      <c r="AM22" s="128"/>
+      <c r="AN22" s="121"/>
+      <c r="AO22" s="121"/>
+      <c r="AP22" s="121"/>
+      <c r="AQ22" s="121"/>
+      <c r="AR22" s="121"/>
+      <c r="AS22" s="121"/>
+      <c r="AT22" s="121"/>
+      <c r="AU22" s="121"/>
+      <c r="AV22" s="121"/>
+      <c r="AW22" s="121"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="119"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="119"/>
-      <c r="R23" s="119"/>
-      <c r="S23" s="111"/>
-      <c r="T23" s="111"/>
-      <c r="U23" s="111"/>
-      <c r="V23" s="117"/>
-      <c r="W23" s="117"/>
-      <c r="X23" s="117"/>
-      <c r="Y23" s="117"/>
-      <c r="Z23" s="117"/>
-      <c r="AA23" s="117"/>
-      <c r="AB23" s="117"/>
-      <c r="AC23" s="117"/>
-      <c r="AD23" s="117"/>
-      <c r="AE23" s="117"/>
-      <c r="AF23" s="117"/>
-      <c r="AG23" s="117"/>
-      <c r="AH23" s="117"/>
-      <c r="AI23" s="117"/>
-      <c r="AJ23" s="117"/>
-      <c r="AK23" s="117"/>
-      <c r="AL23" s="117"/>
-      <c r="AM23" s="117"/>
-      <c r="AN23" s="111"/>
-      <c r="AO23" s="111"/>
-      <c r="AP23" s="111"/>
-      <c r="AQ23" s="111"/>
-      <c r="AR23" s="111"/>
-      <c r="AS23" s="111"/>
-      <c r="AT23" s="111"/>
-      <c r="AU23" s="111"/>
-      <c r="AV23" s="111"/>
-      <c r="AW23" s="111"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="127"/>
+      <c r="N23" s="127"/>
+      <c r="O23" s="127"/>
+      <c r="P23" s="127"/>
+      <c r="Q23" s="127"/>
+      <c r="R23" s="127"/>
+      <c r="S23" s="121"/>
+      <c r="T23" s="121"/>
+      <c r="U23" s="121"/>
+      <c r="V23" s="128"/>
+      <c r="W23" s="128"/>
+      <c r="X23" s="128"/>
+      <c r="Y23" s="128"/>
+      <c r="Z23" s="128"/>
+      <c r="AA23" s="128"/>
+      <c r="AB23" s="128"/>
+      <c r="AC23" s="128"/>
+      <c r="AD23" s="128"/>
+      <c r="AE23" s="128"/>
+      <c r="AF23" s="128"/>
+      <c r="AG23" s="128"/>
+      <c r="AH23" s="128"/>
+      <c r="AI23" s="128"/>
+      <c r="AJ23" s="128"/>
+      <c r="AK23" s="128"/>
+      <c r="AL23" s="128"/>
+      <c r="AM23" s="128"/>
+      <c r="AN23" s="121"/>
+      <c r="AO23" s="121"/>
+      <c r="AP23" s="121"/>
+      <c r="AQ23" s="121"/>
+      <c r="AR23" s="121"/>
+      <c r="AS23" s="121"/>
+      <c r="AT23" s="121"/>
+      <c r="AU23" s="121"/>
+      <c r="AV23" s="121"/>
+      <c r="AW23" s="121"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="119"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="119"/>
-      <c r="S24" s="111"/>
-      <c r="T24" s="111"/>
-      <c r="U24" s="111"/>
-      <c r="V24" s="117"/>
-      <c r="W24" s="117"/>
-      <c r="X24" s="117"/>
-      <c r="Y24" s="117"/>
-      <c r="Z24" s="117"/>
-      <c r="AA24" s="117"/>
-      <c r="AB24" s="117"/>
-      <c r="AC24" s="117"/>
-      <c r="AD24" s="117"/>
-      <c r="AE24" s="117"/>
-      <c r="AF24" s="117"/>
-      <c r="AG24" s="117"/>
-      <c r="AH24" s="117"/>
-      <c r="AI24" s="117"/>
-      <c r="AJ24" s="117"/>
-      <c r="AK24" s="117"/>
-      <c r="AL24" s="117"/>
-      <c r="AM24" s="117"/>
-      <c r="AN24" s="111"/>
-      <c r="AO24" s="111"/>
-      <c r="AP24" s="111"/>
-      <c r="AQ24" s="111"/>
-      <c r="AR24" s="111"/>
-      <c r="AS24" s="111"/>
-      <c r="AT24" s="111"/>
-      <c r="AU24" s="111"/>
-      <c r="AV24" s="111"/>
-      <c r="AW24" s="111"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="127"/>
+      <c r="N24" s="127"/>
+      <c r="O24" s="127"/>
+      <c r="P24" s="127"/>
+      <c r="Q24" s="127"/>
+      <c r="R24" s="127"/>
+      <c r="S24" s="121"/>
+      <c r="T24" s="121"/>
+      <c r="U24" s="121"/>
+      <c r="V24" s="128"/>
+      <c r="W24" s="128"/>
+      <c r="X24" s="128"/>
+      <c r="Y24" s="128"/>
+      <c r="Z24" s="128"/>
+      <c r="AA24" s="128"/>
+      <c r="AB24" s="128"/>
+      <c r="AC24" s="128"/>
+      <c r="AD24" s="128"/>
+      <c r="AE24" s="128"/>
+      <c r="AF24" s="128"/>
+      <c r="AG24" s="128"/>
+      <c r="AH24" s="128"/>
+      <c r="AI24" s="128"/>
+      <c r="AJ24" s="128"/>
+      <c r="AK24" s="128"/>
+      <c r="AL24" s="128"/>
+      <c r="AM24" s="128"/>
+      <c r="AN24" s="121"/>
+      <c r="AO24" s="121"/>
+      <c r="AP24" s="121"/>
+      <c r="AQ24" s="121"/>
+      <c r="AR24" s="121"/>
+      <c r="AS24" s="121"/>
+      <c r="AT24" s="121"/>
+      <c r="AU24" s="121"/>
+      <c r="AV24" s="121"/>
+      <c r="AW24" s="121"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="114"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="119"/>
-      <c r="R25" s="119"/>
-      <c r="S25" s="111"/>
-      <c r="T25" s="111"/>
-      <c r="U25" s="111"/>
-      <c r="V25" s="117"/>
-      <c r="W25" s="117"/>
-      <c r="X25" s="117"/>
-      <c r="Y25" s="117"/>
-      <c r="Z25" s="117"/>
-      <c r="AA25" s="117"/>
-      <c r="AB25" s="117"/>
-      <c r="AC25" s="117"/>
-      <c r="AD25" s="117"/>
-      <c r="AE25" s="117"/>
-      <c r="AF25" s="117"/>
-      <c r="AG25" s="117"/>
-      <c r="AH25" s="117"/>
-      <c r="AI25" s="117"/>
-      <c r="AJ25" s="117"/>
-      <c r="AK25" s="117"/>
-      <c r="AL25" s="117"/>
-      <c r="AM25" s="117"/>
-      <c r="AN25" s="111"/>
-      <c r="AO25" s="111"/>
-      <c r="AP25" s="111"/>
-      <c r="AQ25" s="111"/>
-      <c r="AR25" s="111"/>
-      <c r="AS25" s="111"/>
-      <c r="AT25" s="111"/>
-      <c r="AU25" s="111"/>
-      <c r="AV25" s="111"/>
-      <c r="AW25" s="111"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="130"/>
+      <c r="N25" s="127"/>
+      <c r="O25" s="127"/>
+      <c r="P25" s="127"/>
+      <c r="Q25" s="127"/>
+      <c r="R25" s="127"/>
+      <c r="S25" s="121"/>
+      <c r="T25" s="121"/>
+      <c r="U25" s="121"/>
+      <c r="V25" s="128"/>
+      <c r="W25" s="128"/>
+      <c r="X25" s="128"/>
+      <c r="Y25" s="128"/>
+      <c r="Z25" s="128"/>
+      <c r="AA25" s="128"/>
+      <c r="AB25" s="128"/>
+      <c r="AC25" s="128"/>
+      <c r="AD25" s="128"/>
+      <c r="AE25" s="128"/>
+      <c r="AF25" s="128"/>
+      <c r="AG25" s="128"/>
+      <c r="AH25" s="128"/>
+      <c r="AI25" s="128"/>
+      <c r="AJ25" s="128"/>
+      <c r="AK25" s="128"/>
+      <c r="AL25" s="128"/>
+      <c r="AM25" s="128"/>
+      <c r="AN25" s="121"/>
+      <c r="AO25" s="121"/>
+      <c r="AP25" s="121"/>
+      <c r="AQ25" s="121"/>
+      <c r="AR25" s="121"/>
+      <c r="AS25" s="121"/>
+      <c r="AT25" s="121"/>
+      <c r="AU25" s="121"/>
+      <c r="AV25" s="121"/>
+      <c r="AW25" s="121"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="118"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="119"/>
-      <c r="R26" s="119"/>
-      <c r="S26" s="111"/>
-      <c r="T26" s="111"/>
-      <c r="U26" s="111"/>
-      <c r="V26" s="117"/>
-      <c r="W26" s="117"/>
-      <c r="X26" s="117"/>
-      <c r="Y26" s="117"/>
-      <c r="Z26" s="117"/>
-      <c r="AA26" s="117"/>
-      <c r="AB26" s="117"/>
-      <c r="AC26" s="117"/>
-      <c r="AD26" s="117"/>
-      <c r="AE26" s="117"/>
-      <c r="AF26" s="117"/>
-      <c r="AG26" s="117"/>
-      <c r="AH26" s="117"/>
-      <c r="AI26" s="117"/>
-      <c r="AJ26" s="117"/>
-      <c r="AK26" s="117"/>
-      <c r="AL26" s="117"/>
-      <c r="AM26" s="117"/>
-      <c r="AN26" s="111"/>
-      <c r="AO26" s="111"/>
-      <c r="AP26" s="111"/>
-      <c r="AQ26" s="111"/>
-      <c r="AR26" s="111"/>
-      <c r="AS26" s="111"/>
-      <c r="AT26" s="111"/>
-      <c r="AU26" s="111"/>
-      <c r="AV26" s="111"/>
-      <c r="AW26" s="111"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="130"/>
+      <c r="N26" s="127"/>
+      <c r="O26" s="127"/>
+      <c r="P26" s="127"/>
+      <c r="Q26" s="127"/>
+      <c r="R26" s="127"/>
+      <c r="S26" s="121"/>
+      <c r="T26" s="121"/>
+      <c r="U26" s="121"/>
+      <c r="V26" s="128"/>
+      <c r="W26" s="128"/>
+      <c r="X26" s="128"/>
+      <c r="Y26" s="128"/>
+      <c r="Z26" s="128"/>
+      <c r="AA26" s="128"/>
+      <c r="AB26" s="128"/>
+      <c r="AC26" s="128"/>
+      <c r="AD26" s="128"/>
+      <c r="AE26" s="128"/>
+      <c r="AF26" s="128"/>
+      <c r="AG26" s="128"/>
+      <c r="AH26" s="128"/>
+      <c r="AI26" s="128"/>
+      <c r="AJ26" s="128"/>
+      <c r="AK26" s="128"/>
+      <c r="AL26" s="128"/>
+      <c r="AM26" s="128"/>
+      <c r="AN26" s="121"/>
+      <c r="AO26" s="121"/>
+      <c r="AP26" s="121"/>
+      <c r="AQ26" s="121"/>
+      <c r="AR26" s="121"/>
+      <c r="AS26" s="121"/>
+      <c r="AT26" s="121"/>
+      <c r="AU26" s="121"/>
+      <c r="AV26" s="121"/>
+      <c r="AW26" s="121"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="118"/>
-      <c r="N27" s="119"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="111"/>
-      <c r="T27" s="111"/>
-      <c r="U27" s="111"/>
-      <c r="V27" s="117"/>
-      <c r="W27" s="117"/>
-      <c r="X27" s="117"/>
-      <c r="Y27" s="117"/>
-      <c r="Z27" s="117"/>
-      <c r="AA27" s="117"/>
-      <c r="AB27" s="117"/>
-      <c r="AC27" s="117"/>
-      <c r="AD27" s="117"/>
-      <c r="AE27" s="117"/>
-      <c r="AF27" s="117"/>
-      <c r="AG27" s="117"/>
-      <c r="AH27" s="117"/>
-      <c r="AI27" s="117"/>
-      <c r="AJ27" s="117"/>
-      <c r="AK27" s="117"/>
-      <c r="AL27" s="117"/>
-      <c r="AM27" s="117"/>
-      <c r="AN27" s="111"/>
-      <c r="AO27" s="111"/>
-      <c r="AP27" s="111"/>
-      <c r="AQ27" s="111"/>
-      <c r="AR27" s="111"/>
-      <c r="AS27" s="111"/>
-      <c r="AT27" s="111"/>
-      <c r="AU27" s="111"/>
-      <c r="AV27" s="111"/>
-      <c r="AW27" s="111"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="124"/>
+      <c r="M27" s="130"/>
+      <c r="N27" s="127"/>
+      <c r="O27" s="127"/>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="127"/>
+      <c r="R27" s="127"/>
+      <c r="S27" s="121"/>
+      <c r="T27" s="121"/>
+      <c r="U27" s="121"/>
+      <c r="V27" s="128"/>
+      <c r="W27" s="128"/>
+      <c r="X27" s="128"/>
+      <c r="Y27" s="128"/>
+      <c r="Z27" s="128"/>
+      <c r="AA27" s="128"/>
+      <c r="AB27" s="128"/>
+      <c r="AC27" s="128"/>
+      <c r="AD27" s="128"/>
+      <c r="AE27" s="128"/>
+      <c r="AF27" s="128"/>
+      <c r="AG27" s="128"/>
+      <c r="AH27" s="128"/>
+      <c r="AI27" s="128"/>
+      <c r="AJ27" s="128"/>
+      <c r="AK27" s="128"/>
+      <c r="AL27" s="128"/>
+      <c r="AM27" s="128"/>
+      <c r="AN27" s="121"/>
+      <c r="AO27" s="121"/>
+      <c r="AP27" s="121"/>
+      <c r="AQ27" s="121"/>
+      <c r="AR27" s="121"/>
+      <c r="AS27" s="121"/>
+      <c r="AT27" s="121"/>
+      <c r="AU27" s="121"/>
+      <c r="AV27" s="121"/>
+      <c r="AW27" s="121"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="119"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="111"/>
-      <c r="U28" s="111"/>
-      <c r="V28" s="117"/>
-      <c r="W28" s="117"/>
-      <c r="X28" s="117"/>
-      <c r="Y28" s="117"/>
-      <c r="Z28" s="117"/>
-      <c r="AA28" s="117"/>
-      <c r="AB28" s="117"/>
-      <c r="AC28" s="117"/>
-      <c r="AD28" s="117"/>
-      <c r="AE28" s="117"/>
-      <c r="AF28" s="117"/>
-      <c r="AG28" s="117"/>
-      <c r="AH28" s="117"/>
-      <c r="AI28" s="117"/>
-      <c r="AJ28" s="117"/>
-      <c r="AK28" s="117"/>
-      <c r="AL28" s="117"/>
-      <c r="AM28" s="117"/>
-      <c r="AN28" s="111"/>
-      <c r="AO28" s="111"/>
-      <c r="AP28" s="111"/>
-      <c r="AQ28" s="111"/>
-      <c r="AR28" s="111"/>
-      <c r="AS28" s="111"/>
-      <c r="AT28" s="111"/>
-      <c r="AU28" s="111"/>
-      <c r="AV28" s="111"/>
-      <c r="AW28" s="111"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="127"/>
+      <c r="N28" s="127"/>
+      <c r="O28" s="127"/>
+      <c r="P28" s="127"/>
+      <c r="Q28" s="127"/>
+      <c r="R28" s="127"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="121"/>
+      <c r="U28" s="121"/>
+      <c r="V28" s="128"/>
+      <c r="W28" s="128"/>
+      <c r="X28" s="128"/>
+      <c r="Y28" s="128"/>
+      <c r="Z28" s="128"/>
+      <c r="AA28" s="128"/>
+      <c r="AB28" s="128"/>
+      <c r="AC28" s="128"/>
+      <c r="AD28" s="128"/>
+      <c r="AE28" s="128"/>
+      <c r="AF28" s="128"/>
+      <c r="AG28" s="128"/>
+      <c r="AH28" s="128"/>
+      <c r="AI28" s="128"/>
+      <c r="AJ28" s="128"/>
+      <c r="AK28" s="128"/>
+      <c r="AL28" s="128"/>
+      <c r="AM28" s="128"/>
+      <c r="AN28" s="121"/>
+      <c r="AO28" s="121"/>
+      <c r="AP28" s="121"/>
+      <c r="AQ28" s="121"/>
+      <c r="AR28" s="121"/>
+      <c r="AS28" s="121"/>
+      <c r="AT28" s="121"/>
+      <c r="AU28" s="121"/>
+      <c r="AV28" s="121"/>
+      <c r="AW28" s="121"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111"/>
-      <c r="U29" s="111"/>
-      <c r="V29" s="117"/>
-      <c r="W29" s="117"/>
-      <c r="X29" s="117"/>
-      <c r="Y29" s="117"/>
-      <c r="Z29" s="117"/>
-      <c r="AA29" s="117"/>
-      <c r="AB29" s="117"/>
-      <c r="AC29" s="117"/>
-      <c r="AD29" s="117"/>
-      <c r="AE29" s="117"/>
-      <c r="AF29" s="117"/>
-      <c r="AG29" s="117"/>
-      <c r="AH29" s="117"/>
-      <c r="AI29" s="117"/>
-      <c r="AJ29" s="117"/>
-      <c r="AK29" s="117"/>
-      <c r="AL29" s="117"/>
-      <c r="AM29" s="117"/>
-      <c r="AN29" s="111"/>
-      <c r="AO29" s="111"/>
-      <c r="AP29" s="111"/>
-      <c r="AQ29" s="111"/>
-      <c r="AR29" s="111"/>
-      <c r="AS29" s="111"/>
-      <c r="AT29" s="111"/>
-      <c r="AU29" s="111"/>
-      <c r="AV29" s="111"/>
-      <c r="AW29" s="111"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="124"/>
+      <c r="M29" s="127"/>
+      <c r="N29" s="127"/>
+      <c r="O29" s="127"/>
+      <c r="P29" s="127"/>
+      <c r="Q29" s="127"/>
+      <c r="R29" s="127"/>
+      <c r="S29" s="121"/>
+      <c r="T29" s="121"/>
+      <c r="U29" s="121"/>
+      <c r="V29" s="128"/>
+      <c r="W29" s="128"/>
+      <c r="X29" s="128"/>
+      <c r="Y29" s="128"/>
+      <c r="Z29" s="128"/>
+      <c r="AA29" s="128"/>
+      <c r="AB29" s="128"/>
+      <c r="AC29" s="128"/>
+      <c r="AD29" s="128"/>
+      <c r="AE29" s="128"/>
+      <c r="AF29" s="128"/>
+      <c r="AG29" s="128"/>
+      <c r="AH29" s="128"/>
+      <c r="AI29" s="128"/>
+      <c r="AJ29" s="128"/>
+      <c r="AK29" s="128"/>
+      <c r="AL29" s="128"/>
+      <c r="AM29" s="128"/>
+      <c r="AN29" s="121"/>
+      <c r="AO29" s="121"/>
+      <c r="AP29" s="121"/>
+      <c r="AQ29" s="121"/>
+      <c r="AR29" s="121"/>
+      <c r="AS29" s="121"/>
+      <c r="AT29" s="121"/>
+      <c r="AU29" s="121"/>
+      <c r="AV29" s="121"/>
+      <c r="AW29" s="121"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="112"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="118"/>
-      <c r="N30" s="119"/>
-      <c r="O30" s="119"/>
-      <c r="P30" s="119"/>
-      <c r="Q30" s="119"/>
-      <c r="R30" s="119"/>
-      <c r="S30" s="111"/>
-      <c r="T30" s="111"/>
-      <c r="U30" s="111"/>
-      <c r="V30" s="117"/>
-      <c r="W30" s="117"/>
-      <c r="X30" s="117"/>
-      <c r="Y30" s="117"/>
-      <c r="Z30" s="117"/>
-      <c r="AA30" s="117"/>
-      <c r="AB30" s="117"/>
-      <c r="AC30" s="117"/>
-      <c r="AD30" s="117"/>
-      <c r="AE30" s="117"/>
-      <c r="AF30" s="117"/>
-      <c r="AG30" s="117"/>
-      <c r="AH30" s="117"/>
-      <c r="AI30" s="117"/>
-      <c r="AJ30" s="117"/>
-      <c r="AK30" s="117"/>
-      <c r="AL30" s="117"/>
-      <c r="AM30" s="117"/>
-      <c r="AN30" s="111"/>
-      <c r="AO30" s="111"/>
-      <c r="AP30" s="111"/>
-      <c r="AQ30" s="111"/>
-      <c r="AR30" s="111"/>
-      <c r="AS30" s="111"/>
-      <c r="AT30" s="111"/>
-      <c r="AU30" s="111"/>
-      <c r="AV30" s="111"/>
-      <c r="AW30" s="111"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="124"/>
+      <c r="M30" s="130"/>
+      <c r="N30" s="127"/>
+      <c r="O30" s="127"/>
+      <c r="P30" s="127"/>
+      <c r="Q30" s="127"/>
+      <c r="R30" s="127"/>
+      <c r="S30" s="121"/>
+      <c r="T30" s="121"/>
+      <c r="U30" s="121"/>
+      <c r="V30" s="128"/>
+      <c r="W30" s="128"/>
+      <c r="X30" s="128"/>
+      <c r="Y30" s="128"/>
+      <c r="Z30" s="128"/>
+      <c r="AA30" s="128"/>
+      <c r="AB30" s="128"/>
+      <c r="AC30" s="128"/>
+      <c r="AD30" s="128"/>
+      <c r="AE30" s="128"/>
+      <c r="AF30" s="128"/>
+      <c r="AG30" s="128"/>
+      <c r="AH30" s="128"/>
+      <c r="AI30" s="128"/>
+      <c r="AJ30" s="128"/>
+      <c r="AK30" s="128"/>
+      <c r="AL30" s="128"/>
+      <c r="AM30" s="128"/>
+      <c r="AN30" s="121"/>
+      <c r="AO30" s="121"/>
+      <c r="AP30" s="121"/>
+      <c r="AQ30" s="121"/>
+      <c r="AR30" s="121"/>
+      <c r="AS30" s="121"/>
+      <c r="AT30" s="121"/>
+      <c r="AU30" s="121"/>
+      <c r="AV30" s="121"/>
+      <c r="AW30" s="121"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="113"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="118"/>
-      <c r="N31" s="119"/>
-      <c r="O31" s="119"/>
-      <c r="P31" s="119"/>
-      <c r="Q31" s="119"/>
-      <c r="R31" s="119"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="111"/>
-      <c r="U31" s="111"/>
-      <c r="V31" s="117"/>
-      <c r="W31" s="117"/>
-      <c r="X31" s="117"/>
-      <c r="Y31" s="117"/>
-      <c r="Z31" s="117"/>
-      <c r="AA31" s="117"/>
-      <c r="AB31" s="117"/>
-      <c r="AC31" s="117"/>
-      <c r="AD31" s="117"/>
-      <c r="AE31" s="117"/>
-      <c r="AF31" s="117"/>
-      <c r="AG31" s="117"/>
-      <c r="AH31" s="117"/>
-      <c r="AI31" s="117"/>
-      <c r="AJ31" s="117"/>
-      <c r="AK31" s="117"/>
-      <c r="AL31" s="117"/>
-      <c r="AM31" s="117"/>
-      <c r="AN31" s="111"/>
-      <c r="AO31" s="111"/>
-      <c r="AP31" s="111"/>
-      <c r="AQ31" s="111"/>
-      <c r="AR31" s="111"/>
-      <c r="AS31" s="111"/>
-      <c r="AT31" s="111"/>
-      <c r="AU31" s="111"/>
-      <c r="AV31" s="111"/>
-      <c r="AW31" s="111"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="124"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="124"/>
+      <c r="M31" s="130"/>
+      <c r="N31" s="127"/>
+      <c r="O31" s="127"/>
+      <c r="P31" s="127"/>
+      <c r="Q31" s="127"/>
+      <c r="R31" s="127"/>
+      <c r="S31" s="121"/>
+      <c r="T31" s="121"/>
+      <c r="U31" s="121"/>
+      <c r="V31" s="128"/>
+      <c r="W31" s="128"/>
+      <c r="X31" s="128"/>
+      <c r="Y31" s="128"/>
+      <c r="Z31" s="128"/>
+      <c r="AA31" s="128"/>
+      <c r="AB31" s="128"/>
+      <c r="AC31" s="128"/>
+      <c r="AD31" s="128"/>
+      <c r="AE31" s="128"/>
+      <c r="AF31" s="128"/>
+      <c r="AG31" s="128"/>
+      <c r="AH31" s="128"/>
+      <c r="AI31" s="128"/>
+      <c r="AJ31" s="128"/>
+      <c r="AK31" s="128"/>
+      <c r="AL31" s="128"/>
+      <c r="AM31" s="128"/>
+      <c r="AN31" s="121"/>
+      <c r="AO31" s="121"/>
+      <c r="AP31" s="121"/>
+      <c r="AQ31" s="121"/>
+      <c r="AR31" s="121"/>
+      <c r="AS31" s="121"/>
+      <c r="AT31" s="121"/>
+      <c r="AU31" s="121"/>
+      <c r="AV31" s="121"/>
+      <c r="AW31" s="121"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="112"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="118"/>
-      <c r="N32" s="119"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="119"/>
-      <c r="R32" s="119"/>
-      <c r="S32" s="111"/>
-      <c r="T32" s="111"/>
-      <c r="U32" s="111"/>
-      <c r="V32" s="117"/>
-      <c r="W32" s="117"/>
-      <c r="X32" s="117"/>
-      <c r="Y32" s="117"/>
-      <c r="Z32" s="117"/>
-      <c r="AA32" s="117"/>
-      <c r="AB32" s="117"/>
-      <c r="AC32" s="117"/>
-      <c r="AD32" s="117"/>
-      <c r="AE32" s="117"/>
-      <c r="AF32" s="117"/>
-      <c r="AG32" s="117"/>
-      <c r="AH32" s="117"/>
-      <c r="AI32" s="117"/>
-      <c r="AJ32" s="117"/>
-      <c r="AK32" s="117"/>
-      <c r="AL32" s="117"/>
-      <c r="AM32" s="117"/>
-      <c r="AN32" s="111"/>
-      <c r="AO32" s="111"/>
-      <c r="AP32" s="111"/>
-      <c r="AQ32" s="111"/>
-      <c r="AR32" s="111"/>
-      <c r="AS32" s="111"/>
-      <c r="AT32" s="111"/>
-      <c r="AU32" s="111"/>
-      <c r="AV32" s="111"/>
-      <c r="AW32" s="111"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="124"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="124"/>
+      <c r="M32" s="130"/>
+      <c r="N32" s="127"/>
+      <c r="O32" s="127"/>
+      <c r="P32" s="127"/>
+      <c r="Q32" s="127"/>
+      <c r="R32" s="127"/>
+      <c r="S32" s="121"/>
+      <c r="T32" s="121"/>
+      <c r="U32" s="121"/>
+      <c r="V32" s="128"/>
+      <c r="W32" s="128"/>
+      <c r="X32" s="128"/>
+      <c r="Y32" s="128"/>
+      <c r="Z32" s="128"/>
+      <c r="AA32" s="128"/>
+      <c r="AB32" s="128"/>
+      <c r="AC32" s="128"/>
+      <c r="AD32" s="128"/>
+      <c r="AE32" s="128"/>
+      <c r="AF32" s="128"/>
+      <c r="AG32" s="128"/>
+      <c r="AH32" s="128"/>
+      <c r="AI32" s="128"/>
+      <c r="AJ32" s="128"/>
+      <c r="AK32" s="128"/>
+      <c r="AL32" s="128"/>
+      <c r="AM32" s="128"/>
+      <c r="AN32" s="121"/>
+      <c r="AO32" s="121"/>
+      <c r="AP32" s="121"/>
+      <c r="AQ32" s="121"/>
+      <c r="AR32" s="121"/>
+      <c r="AS32" s="121"/>
+      <c r="AT32" s="121"/>
+      <c r="AU32" s="121"/>
+      <c r="AV32" s="121"/>
+      <c r="AW32" s="121"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="112"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="114"/>
-      <c r="M33" s="118"/>
-      <c r="N33" s="119"/>
-      <c r="O33" s="119"/>
-      <c r="P33" s="119"/>
-      <c r="Q33" s="119"/>
-      <c r="R33" s="119"/>
-      <c r="S33" s="111"/>
-      <c r="T33" s="111"/>
-      <c r="U33" s="111"/>
-      <c r="V33" s="117"/>
-      <c r="W33" s="117"/>
-      <c r="X33" s="117"/>
-      <c r="Y33" s="117"/>
-      <c r="Z33" s="117"/>
-      <c r="AA33" s="117"/>
-      <c r="AB33" s="117"/>
-      <c r="AC33" s="117"/>
-      <c r="AD33" s="117"/>
-      <c r="AE33" s="117"/>
-      <c r="AF33" s="117"/>
-      <c r="AG33" s="117"/>
-      <c r="AH33" s="117"/>
-      <c r="AI33" s="117"/>
-      <c r="AJ33" s="117"/>
-      <c r="AK33" s="117"/>
-      <c r="AL33" s="117"/>
-      <c r="AM33" s="117"/>
-      <c r="AN33" s="111"/>
-      <c r="AO33" s="111"/>
-      <c r="AP33" s="111"/>
-      <c r="AQ33" s="111"/>
-      <c r="AR33" s="111"/>
-      <c r="AS33" s="111"/>
-      <c r="AT33" s="111"/>
-      <c r="AU33" s="111"/>
-      <c r="AV33" s="111"/>
-      <c r="AW33" s="111"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="124"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="124"/>
+      <c r="M33" s="130"/>
+      <c r="N33" s="127"/>
+      <c r="O33" s="127"/>
+      <c r="P33" s="127"/>
+      <c r="Q33" s="127"/>
+      <c r="R33" s="127"/>
+      <c r="S33" s="121"/>
+      <c r="T33" s="121"/>
+      <c r="U33" s="121"/>
+      <c r="V33" s="128"/>
+      <c r="W33" s="128"/>
+      <c r="X33" s="128"/>
+      <c r="Y33" s="128"/>
+      <c r="Z33" s="128"/>
+      <c r="AA33" s="128"/>
+      <c r="AB33" s="128"/>
+      <c r="AC33" s="128"/>
+      <c r="AD33" s="128"/>
+      <c r="AE33" s="128"/>
+      <c r="AF33" s="128"/>
+      <c r="AG33" s="128"/>
+      <c r="AH33" s="128"/>
+      <c r="AI33" s="128"/>
+      <c r="AJ33" s="128"/>
+      <c r="AK33" s="128"/>
+      <c r="AL33" s="128"/>
+      <c r="AM33" s="128"/>
+      <c r="AN33" s="121"/>
+      <c r="AO33" s="121"/>
+      <c r="AP33" s="121"/>
+      <c r="AQ33" s="121"/>
+      <c r="AR33" s="121"/>
+      <c r="AS33" s="121"/>
+      <c r="AT33" s="121"/>
+      <c r="AU33" s="121"/>
+      <c r="AV33" s="121"/>
+      <c r="AW33" s="121"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="112"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="115"/>
-      <c r="N34" s="116"/>
-      <c r="O34" s="116"/>
-      <c r="P34" s="116"/>
-      <c r="Q34" s="116"/>
-      <c r="R34" s="116"/>
-      <c r="S34" s="111"/>
-      <c r="T34" s="111"/>
-      <c r="U34" s="111"/>
-      <c r="V34" s="117"/>
-      <c r="W34" s="117"/>
-      <c r="X34" s="117"/>
-      <c r="Y34" s="117"/>
-      <c r="Z34" s="117"/>
-      <c r="AA34" s="117"/>
-      <c r="AB34" s="117"/>
-      <c r="AC34" s="117"/>
-      <c r="AD34" s="117"/>
-      <c r="AE34" s="117"/>
-      <c r="AF34" s="117"/>
-      <c r="AG34" s="117"/>
-      <c r="AH34" s="117"/>
-      <c r="AI34" s="117"/>
-      <c r="AJ34" s="117"/>
-      <c r="AK34" s="117"/>
-      <c r="AL34" s="117"/>
-      <c r="AM34" s="117"/>
-      <c r="AN34" s="111"/>
-      <c r="AO34" s="111"/>
-      <c r="AP34" s="111"/>
-      <c r="AQ34" s="111"/>
-      <c r="AR34" s="111"/>
-      <c r="AS34" s="111"/>
-      <c r="AT34" s="111"/>
-      <c r="AU34" s="111"/>
-      <c r="AV34" s="111"/>
-      <c r="AW34" s="111"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="124"/>
+      <c r="K34" s="124"/>
+      <c r="L34" s="124"/>
+      <c r="M34" s="134"/>
+      <c r="N34" s="135"/>
+      <c r="O34" s="135"/>
+      <c r="P34" s="135"/>
+      <c r="Q34" s="135"/>
+      <c r="R34" s="135"/>
+      <c r="S34" s="121"/>
+      <c r="T34" s="121"/>
+      <c r="U34" s="121"/>
+      <c r="V34" s="128"/>
+      <c r="W34" s="128"/>
+      <c r="X34" s="128"/>
+      <c r="Y34" s="128"/>
+      <c r="Z34" s="128"/>
+      <c r="AA34" s="128"/>
+      <c r="AB34" s="128"/>
+      <c r="AC34" s="128"/>
+      <c r="AD34" s="128"/>
+      <c r="AE34" s="128"/>
+      <c r="AF34" s="128"/>
+      <c r="AG34" s="128"/>
+      <c r="AH34" s="128"/>
+      <c r="AI34" s="128"/>
+      <c r="AJ34" s="128"/>
+      <c r="AK34" s="128"/>
+      <c r="AL34" s="128"/>
+      <c r="AM34" s="128"/>
+      <c r="AN34" s="121"/>
+      <c r="AO34" s="121"/>
+      <c r="AP34" s="121"/>
+      <c r="AQ34" s="121"/>
+      <c r="AR34" s="121"/>
+      <c r="AS34" s="121"/>
+      <c r="AT34" s="121"/>
+      <c r="AU34" s="121"/>
+      <c r="AV34" s="121"/>
+      <c r="AW34" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -5869,230 +6092,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6173,14 +6181,14 @@
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
-      <c r="AO1" s="141">
+      <c r="AO1" s="145">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
-      <c r="AP1" s="142"/>
-      <c r="AQ1" s="142"/>
-      <c r="AR1" s="142"/>
-      <c r="AS1" s="143"/>
+      <c r="AP1" s="146"/>
+      <c r="AQ1" s="146"/>
+      <c r="AR1" s="146"/>
+      <c r="AS1" s="147"/>
       <c r="AT1" s="33" t="s">
         <v>24</v>
       </c>
@@ -6189,17 +6197,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="136" t="str">
+      <c r="AZ1" s="142" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="BA1" s="137"/>
-      <c r="BB1" s="137"/>
-      <c r="BC1" s="137"/>
-      <c r="BD1" s="137"/>
-      <c r="BE1" s="137"/>
-      <c r="BF1" s="137"/>
-      <c r="BG1" s="138"/>
+      <c r="BA1" s="143"/>
+      <c r="BB1" s="143"/>
+      <c r="BC1" s="143"/>
+      <c r="BD1" s="143"/>
+      <c r="BE1" s="143"/>
+      <c r="BF1" s="143"/>
+      <c r="BG1" s="144"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -6252,11 +6260,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="141"/>
-      <c r="AP2" s="142"/>
-      <c r="AQ2" s="142"/>
-      <c r="AR2" s="142"/>
-      <c r="AS2" s="143"/>
+      <c r="AO2" s="145"/>
+      <c r="AP2" s="146"/>
+      <c r="AQ2" s="146"/>
+      <c r="AR2" s="146"/>
+      <c r="AS2" s="147"/>
       <c r="AT2" s="33" t="s">
         <v>25</v>
       </c>
@@ -6265,14 +6273,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="136"/>
-      <c r="BA2" s="137"/>
-      <c r="BB2" s="137"/>
-      <c r="BC2" s="137"/>
-      <c r="BD2" s="137"/>
-      <c r="BE2" s="137"/>
-      <c r="BF2" s="137"/>
-      <c r="BG2" s="138"/>
+      <c r="AZ2" s="142"/>
+      <c r="BA2" s="143"/>
+      <c r="BB2" s="143"/>
+      <c r="BC2" s="143"/>
+      <c r="BD2" s="143"/>
+      <c r="BE2" s="143"/>
+      <c r="BF2" s="143"/>
+      <c r="BG2" s="144"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -7491,10 +7499,10 @@
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A41" s="28"/>
-      <c r="B41" s="144" t="s">
+      <c r="B41" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="145"/>
+      <c r="C41" s="137"/>
       <c r="D41" s="88" t="s">
         <v>79</v>
       </c>
@@ -7577,10 +7585,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
-      <c r="B42" s="146">
+      <c r="B42" s="138">
         <v>1</v>
       </c>
-      <c r="C42" s="147"/>
+      <c r="C42" s="139"/>
       <c r="D42" s="93" t="s">
         <v>94</v>
       </c>
@@ -7612,16 +7620,16 @@
       <c r="AB42" s="86"/>
       <c r="AC42" s="86"/>
       <c r="AD42" s="87"/>
-      <c r="AE42" s="139" t="s">
+      <c r="AE42" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="AF42" s="140"/>
-      <c r="AG42" s="139"/>
-      <c r="AH42" s="140"/>
-      <c r="AI42" s="139"/>
-      <c r="AJ42" s="140"/>
-      <c r="AK42" s="139"/>
-      <c r="AL42" s="140"/>
+      <c r="AF42" s="141"/>
+      <c r="AG42" s="140"/>
+      <c r="AH42" s="141"/>
+      <c r="AI42" s="140"/>
+      <c r="AJ42" s="141"/>
+      <c r="AK42" s="140"/>
+      <c r="AL42" s="141"/>
       <c r="AM42" s="83" t="s">
         <v>108</v>
       </c>
@@ -7655,10 +7663,10 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="146">
+      <c r="B43" s="138">
         <v>2</v>
       </c>
-      <c r="C43" s="147"/>
+      <c r="C43" s="139"/>
       <c r="D43" s="82" t="s">
         <v>106</v>
       </c>
@@ -7690,16 +7698,16 @@
       <c r="AB43" s="86"/>
       <c r="AC43" s="86"/>
       <c r="AD43" s="87"/>
-      <c r="AE43" s="139" t="s">
+      <c r="AE43" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="AF43" s="140"/>
-      <c r="AG43" s="139"/>
-      <c r="AH43" s="140"/>
-      <c r="AI43" s="139"/>
-      <c r="AJ43" s="140"/>
-      <c r="AK43" s="139"/>
-      <c r="AL43" s="140"/>
+      <c r="AF43" s="141"/>
+      <c r="AG43" s="140"/>
+      <c r="AH43" s="141"/>
+      <c r="AI43" s="140"/>
+      <c r="AJ43" s="141"/>
+      <c r="AK43" s="140"/>
+      <c r="AL43" s="141"/>
       <c r="AM43" s="83" t="s">
         <v>107</v>
       </c>
@@ -7738,11 +7746,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AE43:AF43"/>
     <mergeCell ref="AZ1:BG1"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK43:AL43"/>
@@ -7753,6 +7756,11 @@
     <mergeCell ref="AI43:AJ43"/>
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AE43:AF43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7876,7 +7884,7 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="141">
+      <c r="CD1" s="145">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
@@ -7898,7 +7906,7 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="136" t="str">
+      <c r="CU1" s="142" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -8029,7 +8037,7 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="136"/>
+      <c r="CU2" s="142"/>
       <c r="CV2" s="148"/>
       <c r="CW2" s="148"/>
       <c r="CX2" s="148"/>
@@ -8245,37 +8253,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="128" t="s">
+      <c r="D6" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="128" t="s">
+      <c r="E6" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="128" t="s">
+      <c r="F6" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="128" t="s">
+      <c r="G6" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="128" t="s">
+      <c r="H6" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="156" t="s">
+      <c r="I6" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="156" t="s">
+      <c r="J6" s="154" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="128" t="s">
+      <c r="K6" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="128" t="s">
+      <c r="L6" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="128" t="s">
+      <c r="M6" s="113" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -8283,24 +8291,24 @@
       </c>
       <c r="O6" s="68"/>
       <c r="P6" s="68"/>
-      <c r="Q6" s="156" t="s">
+      <c r="Q6" s="154" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -8310,7 +8318,7 @@
       <c r="P7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="156"/>
+      <c r="Q7" s="154"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -8372,37 +8380,37 @@
     <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="128" t="s">
+      <c r="D11" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="128" t="s">
+      <c r="E11" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="128" t="s">
+      <c r="F11" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="128" t="s">
+      <c r="G11" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="128" t="s">
+      <c r="H11" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="154" t="s">
+      <c r="I11" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="156" t="s">
+      <c r="J11" s="154" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="128" t="s">
+      <c r="K11" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="128" t="s">
+      <c r="L11" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="128" t="s">
+      <c r="M11" s="113" t="s">
         <v>32</v>
       </c>
       <c r="N11" s="68" t="s">
@@ -8410,24 +8418,24 @@
       </c>
       <c r="O11" s="68"/>
       <c r="P11" s="68"/>
-      <c r="Q11" s="154" t="s">
+      <c r="Q11" s="155" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
       <c r="N12" s="42" t="s">
         <v>64</v>
       </c>
@@ -8437,7 +8445,7 @@
       <c r="P12" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="155"/>
+      <c r="Q12" s="156"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
@@ -8556,37 +8564,37 @@
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="60"/>
-      <c r="C18" s="128" t="s">
+      <c r="C18" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="128" t="s">
+      <c r="D18" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="128" t="s">
+      <c r="E18" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="128" t="s">
+      <c r="F18" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="128" t="s">
+      <c r="G18" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="128" t="s">
+      <c r="H18" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="156" t="s">
+      <c r="I18" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="156" t="s">
+      <c r="J18" s="154" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="128" t="s">
+      <c r="K18" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="128" t="s">
+      <c r="L18" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="128" t="s">
+      <c r="M18" s="113" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="68" t="s">
@@ -8594,24 +8602,24 @@
       </c>
       <c r="O18" s="68"/>
       <c r="P18" s="68"/>
-      <c r="Q18" s="156" t="s">
+      <c r="Q18" s="154" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="60"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="128"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
       <c r="N19" s="42" t="s">
         <v>64</v>
       </c>
@@ -8621,7 +8629,7 @@
       <c r="P19" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q19" s="156"/>
+      <c r="Q19" s="154"/>
     </row>
     <row r="20" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="55"/>
@@ -8867,26 +8875,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="I18:I19"/>
@@ -8903,6 +8891,26 @@
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="M18:M19"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -8979,7 +8987,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="141">
+      <c r="AI1" s="145">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
@@ -8995,7 +9003,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="136" t="str">
+      <c r="AT1" s="142" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -9066,7 +9074,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="136"/>
+      <c r="AT2" s="142"/>
       <c r="AU2" s="148"/>
       <c r="AV2" s="148"/>
       <c r="AW2" s="148"/>
@@ -10712,7 +10720,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="141">
+      <c r="AI1" s="145">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
@@ -10728,7 +10736,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="136" t="str">
+      <c r="AT1" s="142" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -10799,7 +10807,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="136"/>
+      <c r="AT2" s="142"/>
       <c r="AU2" s="148"/>
       <c r="AV2" s="148"/>
       <c r="AW2" s="148"/>
@@ -11327,7 +11335,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="141">
+      <c r="AI1" s="145">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
@@ -11343,7 +11351,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="136" t="str">
+      <c r="AT1" s="142" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -11414,7 +11422,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="136"/>
+      <c r="AT2" s="142"/>
       <c r="AU2" s="148"/>
       <c r="AV2" s="148"/>
       <c r="AW2" s="148"/>
@@ -11734,21 +11742,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -11906,24 +11899,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11939,4 +11930,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K21A_工程別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21A_工程別集計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B442DD29-F9A6-452B-807F-5AC9FED021AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0599C9E4-8771-451E-B44D-4641FFF123EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -1012,9 +1012,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>YYYY/MM/DD</t>
-  </si>
-  <si>
     <t>＜検索項目＞</t>
     <rPh sb="1" eb="3">
       <t>ケンサク</t>
@@ -1254,6 +1251,10 @@
   </si>
   <si>
     <t>###,##0</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>YYYY/MM</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2564,7 +2565,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -2585,7 +2586,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5700713" y="2867024"/>
-          <a:ext cx="4763" cy="342901"/>
+          <a:ext cx="4762" cy="342901"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2825,13 +2826,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
+      <xdr:colOff>152399</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>67526</xdr:rowOff>
     </xdr:to>
@@ -2848,8 +2849,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5172076" y="3209925"/>
-          <a:ext cx="1066800" cy="553301"/>
+          <a:off x="5067300" y="3209925"/>
+          <a:ext cx="1276349" cy="553301"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2900,7 +2901,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>67526</xdr:rowOff>
     </xdr:from>
@@ -2926,8 +2927,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5705476" y="3763226"/>
-          <a:ext cx="3620" cy="342050"/>
+          <a:off x="5705475" y="3763226"/>
+          <a:ext cx="3621" cy="342050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8333,7 +8334,7 @@
         <v>113</v>
       </c>
       <c r="F8" s="107" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>37</v>
@@ -8463,10 +8464,10 @@
         <v>119</v>
       </c>
       <c r="G13" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>34</v>
@@ -8474,8 +8475,8 @@
       <c r="J13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>132</v>
+      <c r="K13" s="107" t="s">
+        <v>174</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>34</v>
@@ -8490,7 +8491,7 @@
         <v>34</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="8" t="s">
         <v>33</v>
@@ -8509,13 +8510,13 @@
         <v>115</v>
       </c>
       <c r="F14" s="107" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G14" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>34</v>
@@ -8539,7 +8540,7 @@
         <v>33</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="8" t="s">
         <v>33</v>
@@ -8744,7 +8745,7 @@
         <v>33</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>34</v>
@@ -8812,7 +8813,7 @@
         <v>118</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G24" s="43" t="s">
         <v>42</v>
@@ -8827,7 +8828,7 @@
         <v>34</v>
       </c>
       <c r="K24" s="107" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>34</v>
@@ -9419,10 +9420,10 @@
       <c r="F11" s="72"/>
       <c r="G11" s="71"/>
       <c r="L11" s="71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M11" s="94" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N11" s="94"/>
       <c r="O11" s="94"/>
@@ -9462,7 +9463,7 @@
       <c r="G12" s="71"/>
       <c r="L12" s="71"/>
       <c r="M12" s="94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N12" s="94"/>
       <c r="O12" s="94"/>
@@ -9502,7 +9503,7 @@
       <c r="L13" s="71"/>
       <c r="M13" s="94"/>
       <c r="N13" s="94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AL13" s="94"/>
       <c r="AM13" s="94"/>
@@ -9518,7 +9519,7 @@
       <c r="L14" s="71"/>
       <c r="M14" s="94"/>
       <c r="N14" s="94" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AL14" s="94"/>
       <c r="AM14" s="94"/>
@@ -9534,7 +9535,7 @@
       <c r="L15" s="71"/>
       <c r="M15" s="94"/>
       <c r="N15" s="94" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AL15" s="94"/>
       <c r="AM15" s="94"/>
@@ -9550,7 +9551,7 @@
       <c r="L16" s="71"/>
       <c r="M16" s="94"/>
       <c r="N16" s="94" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL16" s="94"/>
       <c r="AM16" s="94"/>
@@ -9566,7 +9567,7 @@
       <c r="L17" s="71"/>
       <c r="M17" s="94"/>
       <c r="N17" s="94" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AL17" s="94"/>
       <c r="AM17" s="94"/>
@@ -9582,7 +9583,7 @@
       <c r="L18" s="71"/>
       <c r="M18" s="94"/>
       <c r="N18" s="94" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AL18" s="94"/>
       <c r="AM18" s="94"/>
@@ -9634,7 +9635,7 @@
       <c r="G20" s="71"/>
       <c r="L20" s="71"/>
       <c r="M20" s="94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N20" s="94"/>
       <c r="O20" s="94"/>
@@ -9673,7 +9674,7 @@
       <c r="G21" s="71"/>
       <c r="L21" s="71"/>
       <c r="N21" s="94" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O21" s="94"/>
       <c r="P21" s="94"/>
@@ -9751,7 +9752,7 @@
       <c r="G23" s="71"/>
       <c r="K23" s="72"/>
       <c r="L23" s="106" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M23" s="105"/>
       <c r="N23" s="105"/>
@@ -9793,7 +9794,7 @@
       <c r="G24" s="71"/>
       <c r="K24" s="72"/>
       <c r="M24" s="94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N24" s="94"/>
       <c r="O24" s="94"/>
@@ -9814,7 +9815,7 @@
       <c r="G25" s="71"/>
       <c r="K25" s="72"/>
       <c r="N25" s="94" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O25" s="94"/>
       <c r="P25" s="94"/>
@@ -9854,7 +9855,7 @@
       <c r="G27" s="71"/>
       <c r="K27" s="72"/>
       <c r="N27" s="94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O27" s="94"/>
       <c r="P27" s="94"/>
@@ -9892,7 +9893,7 @@
       <c r="G29" s="71"/>
       <c r="K29" s="72"/>
       <c r="M29" s="94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N29" s="94"/>
       <c r="O29" s="94"/>
@@ -9913,7 +9914,7 @@
       <c r="G30" s="71"/>
       <c r="K30" s="72"/>
       <c r="N30" s="94" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O30" s="94"/>
       <c r="P30" s="94"/>
@@ -9933,7 +9934,7 @@
       <c r="G31" s="71"/>
       <c r="K31" s="72"/>
       <c r="N31" s="94" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O31" s="94"/>
       <c r="P31" s="94"/>
@@ -9954,7 +9955,7 @@
       <c r="K32" s="72"/>
       <c r="N32" s="94"/>
       <c r="O32" s="94" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P32" s="94"/>
       <c r="Q32" s="94"/>
@@ -9968,7 +9969,7 @@
         <v>98</v>
       </c>
       <c r="Y32" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AV32" s="72"/>
     </row>
@@ -10017,7 +10018,7 @@
       <c r="K34" s="72"/>
       <c r="L34" s="23"/>
       <c r="M34" s="94" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N34" s="94"/>
       <c r="O34" s="94"/>
@@ -10062,7 +10063,7 @@
       <c r="G35" s="71"/>
       <c r="K35" s="72"/>
       <c r="N35" s="94" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O35" s="94"/>
       <c r="P35" s="94"/>
@@ -10076,7 +10077,7 @@
         <v>98</v>
       </c>
       <c r="Y35" s="102" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Z35" s="94"/>
       <c r="AA35" s="94"/>
@@ -10090,7 +10091,7 @@
       <c r="G36" s="71"/>
       <c r="K36" s="72"/>
       <c r="N36" s="94" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O36" s="94"/>
       <c r="P36" s="94"/>
@@ -10104,7 +10105,7 @@
         <v>98</v>
       </c>
       <c r="Y36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z36" s="94"/>
       <c r="AA36" s="94"/>
@@ -10119,7 +10120,7 @@
       <c r="K37" s="72"/>
       <c r="L37" s="101"/>
       <c r="N37" s="94" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O37" s="94"/>
       <c r="P37" s="94"/>
@@ -10134,7 +10135,7 @@
         <v>98</v>
       </c>
       <c r="Y37" s="102" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA37" s="94"/>
       <c r="AB37" s="94"/>
@@ -10158,7 +10159,7 @@
       <c r="K38" s="72"/>
       <c r="L38" s="23"/>
       <c r="N38" s="94" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O38" s="94"/>
       <c r="P38" s="94"/>
@@ -10172,7 +10173,7 @@
         <v>98</v>
       </c>
       <c r="Y38" s="94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z38" s="94"/>
       <c r="AA38" s="94"/>
@@ -10183,7 +10184,7 @@
       <c r="AG38" s="23"/>
       <c r="AH38" s="23"/>
       <c r="AI38" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ38" s="23"/>
       <c r="AK38" s="23"/>
@@ -10212,7 +10213,7 @@
       <c r="K39" s="72"/>
       <c r="L39" s="23"/>
       <c r="N39" s="94" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O39" s="94"/>
       <c r="P39" s="94"/>
@@ -10226,7 +10227,7 @@
         <v>98</v>
       </c>
       <c r="Y39" s="94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z39" s="94"/>
       <c r="AA39" s="94"/>
@@ -10237,7 +10238,7 @@
       <c r="AG39" s="23"/>
       <c r="AH39" s="23"/>
       <c r="AI39" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ39" s="23"/>
       <c r="AK39" s="23"/>
@@ -10293,7 +10294,7 @@
       <c r="G41" s="71"/>
       <c r="L41" s="71"/>
       <c r="M41" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AM41" s="94"/>
       <c r="AN41" s="94"/>
@@ -10308,7 +10309,7 @@
       <c r="G42" s="71"/>
       <c r="L42" s="71"/>
       <c r="N42" s="94" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AM42" s="94"/>
       <c r="AN42" s="94"/>
@@ -10412,7 +10413,7 @@
       <c r="K46" s="72"/>
       <c r="L46" s="23"/>
       <c r="N46" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD46" s="23"/>
       <c r="AE46" s="23"/>

--- a/01_基本設計書/20200220リリース/SC-K21A_工程別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21A_工程別集計.xlsx
@@ -2,15 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\test\11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0599C9E4-8771-451E-B44D-4641FFF123EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E07D442-7585-460B-BC1B-09D2FB8E13A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -826,10 +827,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>SC-K21A</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>工程別集計</t>
     <rPh sb="0" eb="2">
       <t>コウテイ</t>
@@ -1255,6 +1252,10 @@
   </si>
   <si>
     <t>YYYY/MM</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>K-21A</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2065,6 +2066,47 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2095,46 +2137,29 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2148,30 +2173,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2190,13 +2191,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4089,1770 +4090,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="111"/>
-      <c r="AA1" s="111"/>
-      <c r="AB1" s="111"/>
-      <c r="AC1" s="111"/>
-      <c r="AD1" s="111"/>
-      <c r="AE1" s="111"/>
-      <c r="AF1" s="111"/>
-      <c r="AG1" s="111"/>
-      <c r="AH1" s="111"/>
-      <c r="AI1" s="111"/>
-      <c r="AJ1" s="111"/>
-      <c r="AK1" s="111"/>
-      <c r="AL1" s="111"/>
-      <c r="AM1" s="111"/>
-      <c r="AN1" s="111"/>
-      <c r="AO1" s="111"/>
-      <c r="AP1" s="111"/>
-      <c r="AQ1" s="111"/>
-      <c r="AR1" s="111"/>
-      <c r="AS1" s="111"/>
-      <c r="AT1" s="111"/>
-      <c r="AU1" s="111"/>
-      <c r="AV1" s="111"/>
-      <c r="AW1" s="111"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="126"/>
+      <c r="AL1" s="126"/>
+      <c r="AM1" s="126"/>
+      <c r="AN1" s="126"/>
+      <c r="AO1" s="126"/>
+      <c r="AP1" s="126"/>
+      <c r="AQ1" s="126"/>
+      <c r="AR1" s="126"/>
+      <c r="AS1" s="126"/>
+      <c r="AT1" s="126"/>
+      <c r="AU1" s="126"/>
+      <c r="AV1" s="126"/>
+      <c r="AW1" s="126"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
-      <c r="AF2" s="112"/>
-      <c r="AG2" s="112"/>
-      <c r="AH2" s="112"/>
-      <c r="AI2" s="112"/>
-      <c r="AJ2" s="112"/>
-      <c r="AK2" s="112"/>
-      <c r="AL2" s="112"/>
-      <c r="AM2" s="112"/>
-      <c r="AN2" s="112"/>
-      <c r="AO2" s="112"/>
-      <c r="AP2" s="112"/>
-      <c r="AQ2" s="112"/>
-      <c r="AR2" s="112"/>
-      <c r="AS2" s="112"/>
-      <c r="AT2" s="112"/>
-      <c r="AU2" s="112"/>
-      <c r="AV2" s="112"/>
-      <c r="AW2" s="112"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="127"/>
+      <c r="AF2" s="127"/>
+      <c r="AG2" s="127"/>
+      <c r="AH2" s="127"/>
+      <c r="AI2" s="127"/>
+      <c r="AJ2" s="127"/>
+      <c r="AK2" s="127"/>
+      <c r="AL2" s="127"/>
+      <c r="AM2" s="127"/>
+      <c r="AN2" s="127"/>
+      <c r="AO2" s="127"/>
+      <c r="AP2" s="127"/>
+      <c r="AQ2" s="127"/>
+      <c r="AR2" s="127"/>
+      <c r="AS2" s="127"/>
+      <c r="AT2" s="127"/>
+      <c r="AU2" s="127"/>
+      <c r="AV2" s="127"/>
+      <c r="AW2" s="127"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113" t="s">
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="115" t="s">
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="116"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="115" t="s">
+      <c r="K3" s="131"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="113" t="s">
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="113"/>
-      <c r="U3" s="113"/>
-      <c r="V3" s="113" t="s">
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="113"/>
-      <c r="X3" s="113"/>
-      <c r="Y3" s="113"/>
-      <c r="Z3" s="113"/>
-      <c r="AA3" s="113"/>
-      <c r="AB3" s="113"/>
-      <c r="AC3" s="113"/>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="113"/>
-      <c r="AG3" s="113"/>
-      <c r="AH3" s="113"/>
-      <c r="AI3" s="113"/>
-      <c r="AJ3" s="113"/>
-      <c r="AK3" s="113"/>
-      <c r="AL3" s="113"/>
-      <c r="AM3" s="113"/>
-      <c r="AN3" s="113" t="s">
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
+      <c r="AI3" s="128"/>
+      <c r="AJ3" s="128"/>
+      <c r="AK3" s="128"/>
+      <c r="AL3" s="128"/>
+      <c r="AM3" s="128"/>
+      <c r="AN3" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="113"/>
-      <c r="AP3" s="113"/>
-      <c r="AQ3" s="113"/>
-      <c r="AR3" s="113"/>
-      <c r="AS3" s="113" t="s">
+      <c r="AO3" s="128"/>
+      <c r="AP3" s="128"/>
+      <c r="AQ3" s="128"/>
+      <c r="AR3" s="128"/>
+      <c r="AS3" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="113"/>
-      <c r="AU3" s="113"/>
-      <c r="AV3" s="113"/>
-      <c r="AW3" s="113"/>
+      <c r="AT3" s="128"/>
+      <c r="AU3" s="128"/>
+      <c r="AV3" s="128"/>
+      <c r="AW3" s="128"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="120"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="114"/>
-      <c r="W4" s="114"/>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="114"/>
-      <c r="Z4" s="114"/>
-      <c r="AA4" s="114"/>
-      <c r="AB4" s="114"/>
-      <c r="AC4" s="114"/>
-      <c r="AD4" s="114"/>
-      <c r="AE4" s="114"/>
-      <c r="AF4" s="114"/>
-      <c r="AG4" s="114"/>
-      <c r="AH4" s="114"/>
-      <c r="AI4" s="114"/>
-      <c r="AJ4" s="114"/>
-      <c r="AK4" s="114"/>
-      <c r="AL4" s="114"/>
-      <c r="AM4" s="114"/>
-      <c r="AN4" s="114"/>
-      <c r="AO4" s="114"/>
-      <c r="AP4" s="114"/>
-      <c r="AQ4" s="114"/>
-      <c r="AR4" s="114"/>
-      <c r="AS4" s="114"/>
-      <c r="AT4" s="114"/>
-      <c r="AU4" s="114"/>
-      <c r="AV4" s="114"/>
-      <c r="AW4" s="114"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="135"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="129"/>
+      <c r="V4" s="129"/>
+      <c r="W4" s="129"/>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="129"/>
+      <c r="Z4" s="129"/>
+      <c r="AA4" s="129"/>
+      <c r="AB4" s="129"/>
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="129"/>
+      <c r="AE4" s="129"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="129"/>
+      <c r="AH4" s="129"/>
+      <c r="AI4" s="129"/>
+      <c r="AJ4" s="129"/>
+      <c r="AK4" s="129"/>
+      <c r="AL4" s="129"/>
+      <c r="AM4" s="129"/>
+      <c r="AN4" s="129"/>
+      <c r="AO4" s="129"/>
+      <c r="AP4" s="129"/>
+      <c r="AQ4" s="129"/>
+      <c r="AR4" s="129"/>
+      <c r="AS4" s="129"/>
+      <c r="AT4" s="129"/>
+      <c r="AU4" s="129"/>
+      <c r="AV4" s="129"/>
+      <c r="AW4" s="129"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
-      <c r="B5" s="122">
+      <c r="B5" s="112">
         <v>1</v>
       </c>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="123">
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113">
         <v>43721</v>
       </c>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="124" t="s">
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124" t="s">
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="124"/>
-      <c r="S5" s="121" t="s">
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="114"/>
+      <c r="S5" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="121"/>
-      <c r="U5" s="121"/>
-      <c r="V5" s="126" t="s">
+      <c r="T5" s="111"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="126"/>
-      <c r="X5" s="126"/>
-      <c r="Y5" s="126"/>
-      <c r="Z5" s="126"/>
-      <c r="AA5" s="126"/>
-      <c r="AB5" s="126"/>
-      <c r="AC5" s="126"/>
-      <c r="AD5" s="126"/>
-      <c r="AE5" s="126"/>
-      <c r="AF5" s="126"/>
-      <c r="AG5" s="126"/>
-      <c r="AH5" s="126"/>
-      <c r="AI5" s="126"/>
-      <c r="AJ5" s="126"/>
-      <c r="AK5" s="126"/>
-      <c r="AL5" s="126"/>
-      <c r="AM5" s="126"/>
-      <c r="AN5" s="121" t="s">
+      <c r="W5" s="123"/>
+      <c r="X5" s="123"/>
+      <c r="Y5" s="123"/>
+      <c r="Z5" s="123"/>
+      <c r="AA5" s="123"/>
+      <c r="AB5" s="123"/>
+      <c r="AC5" s="123"/>
+      <c r="AD5" s="123"/>
+      <c r="AE5" s="123"/>
+      <c r="AF5" s="123"/>
+      <c r="AG5" s="123"/>
+      <c r="AH5" s="123"/>
+      <c r="AI5" s="123"/>
+      <c r="AJ5" s="123"/>
+      <c r="AK5" s="123"/>
+      <c r="AL5" s="123"/>
+      <c r="AM5" s="123"/>
+      <c r="AN5" s="111" t="s">
         <v>102</v>
       </c>
-      <c r="AO5" s="121"/>
-      <c r="AP5" s="121"/>
-      <c r="AQ5" s="121"/>
-      <c r="AR5" s="121"/>
-      <c r="AS5" s="121"/>
-      <c r="AT5" s="121"/>
-      <c r="AU5" s="121"/>
-      <c r="AV5" s="121"/>
-      <c r="AW5" s="121"/>
+      <c r="AO5" s="111"/>
+      <c r="AP5" s="111"/>
+      <c r="AQ5" s="111"/>
+      <c r="AR5" s="111"/>
+      <c r="AS5" s="111"/>
+      <c r="AT5" s="111"/>
+      <c r="AU5" s="111"/>
+      <c r="AV5" s="111"/>
+      <c r="AW5" s="111"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
       <c r="M6" s="125"/>
       <c r="N6" s="125"/>
       <c r="O6" s="125"/>
       <c r="P6" s="125"/>
       <c r="Q6" s="125"/>
       <c r="R6" s="125"/>
-      <c r="S6" s="121"/>
-      <c r="T6" s="121"/>
-      <c r="U6" s="121"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="126"/>
-      <c r="AC6" s="126"/>
-      <c r="AD6" s="126"/>
-      <c r="AE6" s="126"/>
-      <c r="AF6" s="126"/>
-      <c r="AG6" s="126"/>
-      <c r="AH6" s="126"/>
-      <c r="AI6" s="126"/>
-      <c r="AJ6" s="126"/>
-      <c r="AK6" s="126"/>
-      <c r="AL6" s="126"/>
-      <c r="AM6" s="126"/>
-      <c r="AN6" s="121"/>
-      <c r="AO6" s="121"/>
-      <c r="AP6" s="121"/>
-      <c r="AQ6" s="121"/>
-      <c r="AR6" s="121"/>
-      <c r="AS6" s="121"/>
-      <c r="AT6" s="121"/>
-      <c r="AU6" s="121"/>
-      <c r="AV6" s="121"/>
-      <c r="AW6" s="121"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="123"/>
+      <c r="W6" s="123"/>
+      <c r="X6" s="123"/>
+      <c r="Y6" s="123"/>
+      <c r="Z6" s="123"/>
+      <c r="AA6" s="123"/>
+      <c r="AB6" s="123"/>
+      <c r="AC6" s="123"/>
+      <c r="AD6" s="123"/>
+      <c r="AE6" s="123"/>
+      <c r="AF6" s="123"/>
+      <c r="AG6" s="123"/>
+      <c r="AH6" s="123"/>
+      <c r="AI6" s="123"/>
+      <c r="AJ6" s="123"/>
+      <c r="AK6" s="123"/>
+      <c r="AL6" s="123"/>
+      <c r="AM6" s="123"/>
+      <c r="AN6" s="111"/>
+      <c r="AO6" s="111"/>
+      <c r="AP6" s="111"/>
+      <c r="AQ6" s="111"/>
+      <c r="AR6" s="111"/>
+      <c r="AS6" s="111"/>
+      <c r="AT6" s="111"/>
+      <c r="AU6" s="111"/>
+      <c r="AV6" s="111"/>
+      <c r="AW6" s="111"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
       <c r="M7" s="125"/>
       <c r="N7" s="125"/>
       <c r="O7" s="125"/>
       <c r="P7" s="125"/>
       <c r="Q7" s="125"/>
       <c r="R7" s="125"/>
-      <c r="S7" s="121"/>
-      <c r="T7" s="121"/>
-      <c r="U7" s="121"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="126"/>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="126"/>
-      <c r="AA7" s="126"/>
-      <c r="AB7" s="126"/>
-      <c r="AC7" s="126"/>
-      <c r="AD7" s="126"/>
-      <c r="AE7" s="126"/>
-      <c r="AF7" s="126"/>
-      <c r="AG7" s="126"/>
-      <c r="AH7" s="126"/>
-      <c r="AI7" s="126"/>
-      <c r="AJ7" s="126"/>
-      <c r="AK7" s="126"/>
-      <c r="AL7" s="126"/>
-      <c r="AM7" s="126"/>
-      <c r="AN7" s="121"/>
-      <c r="AO7" s="121"/>
-      <c r="AP7" s="121"/>
-      <c r="AQ7" s="121"/>
-      <c r="AR7" s="121"/>
-      <c r="AS7" s="121"/>
-      <c r="AT7" s="121"/>
-      <c r="AU7" s="121"/>
-      <c r="AV7" s="121"/>
-      <c r="AW7" s="121"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="123"/>
+      <c r="W7" s="123"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="123"/>
+      <c r="Z7" s="123"/>
+      <c r="AA7" s="123"/>
+      <c r="AB7" s="123"/>
+      <c r="AC7" s="123"/>
+      <c r="AD7" s="123"/>
+      <c r="AE7" s="123"/>
+      <c r="AF7" s="123"/>
+      <c r="AG7" s="123"/>
+      <c r="AH7" s="123"/>
+      <c r="AI7" s="123"/>
+      <c r="AJ7" s="123"/>
+      <c r="AK7" s="123"/>
+      <c r="AL7" s="123"/>
+      <c r="AM7" s="123"/>
+      <c r="AN7" s="111"/>
+      <c r="AO7" s="111"/>
+      <c r="AP7" s="111"/>
+      <c r="AQ7" s="111"/>
+      <c r="AR7" s="111"/>
+      <c r="AS7" s="111"/>
+      <c r="AT7" s="111"/>
+      <c r="AU7" s="111"/>
+      <c r="AV7" s="111"/>
+      <c r="AW7" s="111"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
       <c r="M8" s="125"/>
       <c r="N8" s="125"/>
       <c r="O8" s="125"/>
       <c r="P8" s="125"/>
       <c r="Q8" s="125"/>
       <c r="R8" s="125"/>
-      <c r="S8" s="121"/>
-      <c r="T8" s="121"/>
-      <c r="U8" s="121"/>
-      <c r="V8" s="126"/>
-      <c r="W8" s="126"/>
-      <c r="X8" s="126"/>
-      <c r="Y8" s="126"/>
-      <c r="Z8" s="126"/>
-      <c r="AA8" s="126"/>
-      <c r="AB8" s="126"/>
-      <c r="AC8" s="126"/>
-      <c r="AD8" s="126"/>
-      <c r="AE8" s="126"/>
-      <c r="AF8" s="126"/>
-      <c r="AG8" s="126"/>
-      <c r="AH8" s="126"/>
-      <c r="AI8" s="126"/>
-      <c r="AJ8" s="126"/>
-      <c r="AK8" s="126"/>
-      <c r="AL8" s="126"/>
-      <c r="AM8" s="126"/>
-      <c r="AN8" s="121"/>
-      <c r="AO8" s="121"/>
-      <c r="AP8" s="121"/>
-      <c r="AQ8" s="121"/>
-      <c r="AR8" s="121"/>
-      <c r="AS8" s="121"/>
-      <c r="AT8" s="121"/>
-      <c r="AU8" s="121"/>
-      <c r="AV8" s="121"/>
-      <c r="AW8" s="121"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="123"/>
+      <c r="W8" s="123"/>
+      <c r="X8" s="123"/>
+      <c r="Y8" s="123"/>
+      <c r="Z8" s="123"/>
+      <c r="AA8" s="123"/>
+      <c r="AB8" s="123"/>
+      <c r="AC8" s="123"/>
+      <c r="AD8" s="123"/>
+      <c r="AE8" s="123"/>
+      <c r="AF8" s="123"/>
+      <c r="AG8" s="123"/>
+      <c r="AH8" s="123"/>
+      <c r="AI8" s="123"/>
+      <c r="AJ8" s="123"/>
+      <c r="AK8" s="123"/>
+      <c r="AL8" s="123"/>
+      <c r="AM8" s="123"/>
+      <c r="AN8" s="111"/>
+      <c r="AO8" s="111"/>
+      <c r="AP8" s="111"/>
+      <c r="AQ8" s="111"/>
+      <c r="AR8" s="111"/>
+      <c r="AS8" s="111"/>
+      <c r="AT8" s="111"/>
+      <c r="AU8" s="111"/>
+      <c r="AV8" s="111"/>
+      <c r="AW8" s="111"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
       <c r="M9" s="125"/>
       <c r="N9" s="125"/>
       <c r="O9" s="125"/>
       <c r="P9" s="125"/>
       <c r="Q9" s="125"/>
       <c r="R9" s="125"/>
-      <c r="S9" s="121"/>
-      <c r="T9" s="121"/>
-      <c r="U9" s="121"/>
-      <c r="V9" s="126"/>
-      <c r="W9" s="126"/>
-      <c r="X9" s="126"/>
-      <c r="Y9" s="126"/>
-      <c r="Z9" s="126"/>
-      <c r="AA9" s="126"/>
-      <c r="AB9" s="126"/>
-      <c r="AC9" s="126"/>
-      <c r="AD9" s="126"/>
-      <c r="AE9" s="126"/>
-      <c r="AF9" s="126"/>
-      <c r="AG9" s="126"/>
-      <c r="AH9" s="126"/>
-      <c r="AI9" s="126"/>
-      <c r="AJ9" s="126"/>
-      <c r="AK9" s="126"/>
-      <c r="AL9" s="126"/>
-      <c r="AM9" s="126"/>
-      <c r="AN9" s="121"/>
-      <c r="AO9" s="121"/>
-      <c r="AP9" s="121"/>
-      <c r="AQ9" s="121"/>
-      <c r="AR9" s="121"/>
-      <c r="AS9" s="121"/>
-      <c r="AT9" s="121"/>
-      <c r="AU9" s="121"/>
-      <c r="AV9" s="121"/>
-      <c r="AW9" s="121"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="111"/>
+      <c r="V9" s="123"/>
+      <c r="W9" s="123"/>
+      <c r="X9" s="123"/>
+      <c r="Y9" s="123"/>
+      <c r="Z9" s="123"/>
+      <c r="AA9" s="123"/>
+      <c r="AB9" s="123"/>
+      <c r="AC9" s="123"/>
+      <c r="AD9" s="123"/>
+      <c r="AE9" s="123"/>
+      <c r="AF9" s="123"/>
+      <c r="AG9" s="123"/>
+      <c r="AH9" s="123"/>
+      <c r="AI9" s="123"/>
+      <c r="AJ9" s="123"/>
+      <c r="AK9" s="123"/>
+      <c r="AL9" s="123"/>
+      <c r="AM9" s="123"/>
+      <c r="AN9" s="111"/>
+      <c r="AO9" s="111"/>
+      <c r="AP9" s="111"/>
+      <c r="AQ9" s="111"/>
+      <c r="AR9" s="111"/>
+      <c r="AS9" s="111"/>
+      <c r="AT9" s="111"/>
+      <c r="AU9" s="111"/>
+      <c r="AV9" s="111"/>
+      <c r="AW9" s="111"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="124"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
       <c r="M10" s="125"/>
       <c r="N10" s="125"/>
       <c r="O10" s="125"/>
       <c r="P10" s="125"/>
       <c r="Q10" s="125"/>
       <c r="R10" s="125"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="121"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="126"/>
-      <c r="W10" s="126"/>
-      <c r="X10" s="126"/>
-      <c r="Y10" s="126"/>
-      <c r="Z10" s="126"/>
-      <c r="AA10" s="126"/>
-      <c r="AB10" s="126"/>
-      <c r="AC10" s="126"/>
-      <c r="AD10" s="126"/>
-      <c r="AE10" s="126"/>
-      <c r="AF10" s="126"/>
-      <c r="AG10" s="126"/>
-      <c r="AH10" s="126"/>
-      <c r="AI10" s="126"/>
-      <c r="AJ10" s="126"/>
-      <c r="AK10" s="126"/>
-      <c r="AL10" s="126"/>
-      <c r="AM10" s="126"/>
-      <c r="AN10" s="121"/>
-      <c r="AO10" s="121"/>
-      <c r="AP10" s="121"/>
-      <c r="AQ10" s="121"/>
-      <c r="AR10" s="121"/>
-      <c r="AS10" s="121"/>
-      <c r="AT10" s="121"/>
-      <c r="AU10" s="121"/>
-      <c r="AV10" s="121"/>
-      <c r="AW10" s="121"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="123"/>
+      <c r="W10" s="123"/>
+      <c r="X10" s="123"/>
+      <c r="Y10" s="123"/>
+      <c r="Z10" s="123"/>
+      <c r="AA10" s="123"/>
+      <c r="AB10" s="123"/>
+      <c r="AC10" s="123"/>
+      <c r="AD10" s="123"/>
+      <c r="AE10" s="123"/>
+      <c r="AF10" s="123"/>
+      <c r="AG10" s="123"/>
+      <c r="AH10" s="123"/>
+      <c r="AI10" s="123"/>
+      <c r="AJ10" s="123"/>
+      <c r="AK10" s="123"/>
+      <c r="AL10" s="123"/>
+      <c r="AM10" s="123"/>
+      <c r="AN10" s="111"/>
+      <c r="AO10" s="111"/>
+      <c r="AP10" s="111"/>
+      <c r="AQ10" s="111"/>
+      <c r="AR10" s="111"/>
+      <c r="AS10" s="111"/>
+      <c r="AT10" s="111"/>
+      <c r="AU10" s="111"/>
+      <c r="AV10" s="111"/>
+      <c r="AW10" s="111"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="127"/>
-      <c r="O11" s="127"/>
-      <c r="P11" s="127"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="127"/>
-      <c r="S11" s="121"/>
-      <c r="T11" s="121"/>
-      <c r="U11" s="121"/>
-      <c r="V11" s="128"/>
-      <c r="W11" s="129"/>
-      <c r="X11" s="129"/>
-      <c r="Y11" s="129"/>
-      <c r="Z11" s="129"/>
-      <c r="AA11" s="129"/>
-      <c r="AB11" s="129"/>
-      <c r="AC11" s="129"/>
-      <c r="AD11" s="129"/>
-      <c r="AE11" s="129"/>
-      <c r="AF11" s="129"/>
-      <c r="AG11" s="129"/>
-      <c r="AH11" s="129"/>
-      <c r="AI11" s="129"/>
-      <c r="AJ11" s="129"/>
-      <c r="AK11" s="129"/>
-      <c r="AL11" s="129"/>
-      <c r="AM11" s="129"/>
-      <c r="AN11" s="121"/>
-      <c r="AO11" s="121"/>
-      <c r="AP11" s="121"/>
-      <c r="AQ11" s="121"/>
-      <c r="AR11" s="121"/>
-      <c r="AS11" s="121"/>
-      <c r="AT11" s="121"/>
-      <c r="AU11" s="121"/>
-      <c r="AV11" s="121"/>
-      <c r="AW11" s="121"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="117"/>
+      <c r="W11" s="124"/>
+      <c r="X11" s="124"/>
+      <c r="Y11" s="124"/>
+      <c r="Z11" s="124"/>
+      <c r="AA11" s="124"/>
+      <c r="AB11" s="124"/>
+      <c r="AC11" s="124"/>
+      <c r="AD11" s="124"/>
+      <c r="AE11" s="124"/>
+      <c r="AF11" s="124"/>
+      <c r="AG11" s="124"/>
+      <c r="AH11" s="124"/>
+      <c r="AI11" s="124"/>
+      <c r="AJ11" s="124"/>
+      <c r="AK11" s="124"/>
+      <c r="AL11" s="124"/>
+      <c r="AM11" s="124"/>
+      <c r="AN11" s="111"/>
+      <c r="AO11" s="111"/>
+      <c r="AP11" s="111"/>
+      <c r="AQ11" s="111"/>
+      <c r="AR11" s="111"/>
+      <c r="AS11" s="111"/>
+      <c r="AT11" s="111"/>
+      <c r="AU11" s="111"/>
+      <c r="AV11" s="111"/>
+      <c r="AW11" s="111"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="127"/>
-      <c r="N12" s="127"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="127"/>
-      <c r="Q12" s="127"/>
-      <c r="R12" s="127"/>
-      <c r="S12" s="121"/>
-      <c r="T12" s="121"/>
-      <c r="U12" s="121"/>
-      <c r="V12" s="128"/>
-      <c r="W12" s="128"/>
-      <c r="X12" s="128"/>
-      <c r="Y12" s="128"/>
-      <c r="Z12" s="128"/>
-      <c r="AA12" s="128"/>
-      <c r="AB12" s="128"/>
-      <c r="AC12" s="128"/>
-      <c r="AD12" s="128"/>
-      <c r="AE12" s="128"/>
-      <c r="AF12" s="128"/>
-      <c r="AG12" s="128"/>
-      <c r="AH12" s="128"/>
-      <c r="AI12" s="128"/>
-      <c r="AJ12" s="128"/>
-      <c r="AK12" s="128"/>
-      <c r="AL12" s="128"/>
-      <c r="AM12" s="128"/>
-      <c r="AN12" s="121"/>
-      <c r="AO12" s="121"/>
-      <c r="AP12" s="121"/>
-      <c r="AQ12" s="121"/>
-      <c r="AR12" s="121"/>
-      <c r="AS12" s="121"/>
-      <c r="AT12" s="121"/>
-      <c r="AU12" s="121"/>
-      <c r="AV12" s="121"/>
-      <c r="AW12" s="121"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="119"/>
+      <c r="P12" s="119"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="117"/>
+      <c r="X12" s="117"/>
+      <c r="Y12" s="117"/>
+      <c r="Z12" s="117"/>
+      <c r="AA12" s="117"/>
+      <c r="AB12" s="117"/>
+      <c r="AC12" s="117"/>
+      <c r="AD12" s="117"/>
+      <c r="AE12" s="117"/>
+      <c r="AF12" s="117"/>
+      <c r="AG12" s="117"/>
+      <c r="AH12" s="117"/>
+      <c r="AI12" s="117"/>
+      <c r="AJ12" s="117"/>
+      <c r="AK12" s="117"/>
+      <c r="AL12" s="117"/>
+      <c r="AM12" s="117"/>
+      <c r="AN12" s="111"/>
+      <c r="AO12" s="111"/>
+      <c r="AP12" s="111"/>
+      <c r="AQ12" s="111"/>
+      <c r="AR12" s="111"/>
+      <c r="AS12" s="111"/>
+      <c r="AT12" s="111"/>
+      <c r="AU12" s="111"/>
+      <c r="AV12" s="111"/>
+      <c r="AW12" s="111"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="121"/>
-      <c r="T13" s="121"/>
-      <c r="U13" s="121"/>
-      <c r="V13" s="128"/>
-      <c r="W13" s="128"/>
-      <c r="X13" s="128"/>
-      <c r="Y13" s="128"/>
-      <c r="Z13" s="128"/>
-      <c r="AA13" s="128"/>
-      <c r="AB13" s="128"/>
-      <c r="AC13" s="128"/>
-      <c r="AD13" s="128"/>
-      <c r="AE13" s="128"/>
-      <c r="AF13" s="128"/>
-      <c r="AG13" s="128"/>
-      <c r="AH13" s="128"/>
-      <c r="AI13" s="128"/>
-      <c r="AJ13" s="128"/>
-      <c r="AK13" s="128"/>
-      <c r="AL13" s="128"/>
-      <c r="AM13" s="128"/>
-      <c r="AN13" s="121"/>
-      <c r="AO13" s="121"/>
-      <c r="AP13" s="121"/>
-      <c r="AQ13" s="121"/>
-      <c r="AR13" s="121"/>
-      <c r="AS13" s="121"/>
-      <c r="AT13" s="121"/>
-      <c r="AU13" s="121"/>
-      <c r="AV13" s="121"/>
-      <c r="AW13" s="121"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="119"/>
+      <c r="P13" s="119"/>
+      <c r="Q13" s="119"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="117"/>
+      <c r="X13" s="117"/>
+      <c r="Y13" s="117"/>
+      <c r="Z13" s="117"/>
+      <c r="AA13" s="117"/>
+      <c r="AB13" s="117"/>
+      <c r="AC13" s="117"/>
+      <c r="AD13" s="117"/>
+      <c r="AE13" s="117"/>
+      <c r="AF13" s="117"/>
+      <c r="AG13" s="117"/>
+      <c r="AH13" s="117"/>
+      <c r="AI13" s="117"/>
+      <c r="AJ13" s="117"/>
+      <c r="AK13" s="117"/>
+      <c r="AL13" s="117"/>
+      <c r="AM13" s="117"/>
+      <c r="AN13" s="111"/>
+      <c r="AO13" s="111"/>
+      <c r="AP13" s="111"/>
+      <c r="AQ13" s="111"/>
+      <c r="AR13" s="111"/>
+      <c r="AS13" s="111"/>
+      <c r="AT13" s="111"/>
+      <c r="AU13" s="111"/>
+      <c r="AV13" s="111"/>
+      <c r="AW13" s="111"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="127"/>
-      <c r="P14" s="127"/>
-      <c r="Q14" s="127"/>
-      <c r="R14" s="127"/>
-      <c r="S14" s="121"/>
-      <c r="T14" s="121"/>
-      <c r="U14" s="121"/>
-      <c r="V14" s="131"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="126"/>
-      <c r="Y14" s="126"/>
-      <c r="Z14" s="126"/>
-      <c r="AA14" s="126"/>
-      <c r="AB14" s="126"/>
-      <c r="AC14" s="126"/>
-      <c r="AD14" s="126"/>
-      <c r="AE14" s="126"/>
-      <c r="AF14" s="126"/>
-      <c r="AG14" s="126"/>
-      <c r="AH14" s="126"/>
-      <c r="AI14" s="126"/>
-      <c r="AJ14" s="126"/>
-      <c r="AK14" s="126"/>
-      <c r="AL14" s="126"/>
-      <c r="AM14" s="126"/>
-      <c r="AN14" s="121"/>
-      <c r="AO14" s="121"/>
-      <c r="AP14" s="121"/>
-      <c r="AQ14" s="121"/>
-      <c r="AR14" s="121"/>
-      <c r="AS14" s="121"/>
-      <c r="AT14" s="121"/>
-      <c r="AU14" s="121"/>
-      <c r="AV14" s="121"/>
-      <c r="AW14" s="121"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="118"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="123"/>
+      <c r="X14" s="123"/>
+      <c r="Y14" s="123"/>
+      <c r="Z14" s="123"/>
+      <c r="AA14" s="123"/>
+      <c r="AB14" s="123"/>
+      <c r="AC14" s="123"/>
+      <c r="AD14" s="123"/>
+      <c r="AE14" s="123"/>
+      <c r="AF14" s="123"/>
+      <c r="AG14" s="123"/>
+      <c r="AH14" s="123"/>
+      <c r="AI14" s="123"/>
+      <c r="AJ14" s="123"/>
+      <c r="AK14" s="123"/>
+      <c r="AL14" s="123"/>
+      <c r="AM14" s="123"/>
+      <c r="AN14" s="111"/>
+      <c r="AO14" s="111"/>
+      <c r="AP14" s="111"/>
+      <c r="AQ14" s="111"/>
+      <c r="AR14" s="111"/>
+      <c r="AS14" s="111"/>
+      <c r="AT14" s="111"/>
+      <c r="AU14" s="111"/>
+      <c r="AV14" s="111"/>
+      <c r="AW14" s="111"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="121"/>
-      <c r="T15" s="121"/>
-      <c r="U15" s="121"/>
-      <c r="V15" s="128"/>
-      <c r="W15" s="128"/>
-      <c r="X15" s="128"/>
-      <c r="Y15" s="128"/>
-      <c r="Z15" s="128"/>
-      <c r="AA15" s="128"/>
-      <c r="AB15" s="128"/>
-      <c r="AC15" s="128"/>
-      <c r="AD15" s="128"/>
-      <c r="AE15" s="128"/>
-      <c r="AF15" s="128"/>
-      <c r="AG15" s="128"/>
-      <c r="AH15" s="128"/>
-      <c r="AI15" s="128"/>
-      <c r="AJ15" s="128"/>
-      <c r="AK15" s="128"/>
-      <c r="AL15" s="128"/>
-      <c r="AM15" s="128"/>
-      <c r="AN15" s="121"/>
-      <c r="AO15" s="121"/>
-      <c r="AP15" s="121"/>
-      <c r="AQ15" s="121"/>
-      <c r="AR15" s="121"/>
-      <c r="AS15" s="121"/>
-      <c r="AT15" s="121"/>
-      <c r="AU15" s="121"/>
-      <c r="AV15" s="121"/>
-      <c r="AW15" s="121"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="119"/>
+      <c r="N15" s="119"/>
+      <c r="O15" s="119"/>
+      <c r="P15" s="119"/>
+      <c r="Q15" s="119"/>
+      <c r="R15" s="119"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="111"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="117"/>
+      <c r="W15" s="117"/>
+      <c r="X15" s="117"/>
+      <c r="Y15" s="117"/>
+      <c r="Z15" s="117"/>
+      <c r="AA15" s="117"/>
+      <c r="AB15" s="117"/>
+      <c r="AC15" s="117"/>
+      <c r="AD15" s="117"/>
+      <c r="AE15" s="117"/>
+      <c r="AF15" s="117"/>
+      <c r="AG15" s="117"/>
+      <c r="AH15" s="117"/>
+      <c r="AI15" s="117"/>
+      <c r="AJ15" s="117"/>
+      <c r="AK15" s="117"/>
+      <c r="AL15" s="117"/>
+      <c r="AM15" s="117"/>
+      <c r="AN15" s="111"/>
+      <c r="AO15" s="111"/>
+      <c r="AP15" s="111"/>
+      <c r="AQ15" s="111"/>
+      <c r="AR15" s="111"/>
+      <c r="AS15" s="111"/>
+      <c r="AT15" s="111"/>
+      <c r="AU15" s="111"/>
+      <c r="AV15" s="111"/>
+      <c r="AW15" s="111"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="121"/>
-      <c r="T16" s="121"/>
-      <c r="U16" s="121"/>
-      <c r="V16" s="128"/>
-      <c r="W16" s="128"/>
-      <c r="X16" s="128"/>
-      <c r="Y16" s="128"/>
-      <c r="Z16" s="128"/>
-      <c r="AA16" s="128"/>
-      <c r="AB16" s="128"/>
-      <c r="AC16" s="128"/>
-      <c r="AD16" s="128"/>
-      <c r="AE16" s="128"/>
-      <c r="AF16" s="128"/>
-      <c r="AG16" s="128"/>
-      <c r="AH16" s="128"/>
-      <c r="AI16" s="128"/>
-      <c r="AJ16" s="128"/>
-      <c r="AK16" s="128"/>
-      <c r="AL16" s="128"/>
-      <c r="AM16" s="128"/>
-      <c r="AN16" s="121"/>
-      <c r="AO16" s="121"/>
-      <c r="AP16" s="121"/>
-      <c r="AQ16" s="121"/>
-      <c r="AR16" s="121"/>
-      <c r="AS16" s="121"/>
-      <c r="AT16" s="121"/>
-      <c r="AU16" s="121"/>
-      <c r="AV16" s="121"/>
-      <c r="AW16" s="121"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="119"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="111"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="117"/>
+      <c r="W16" s="117"/>
+      <c r="X16" s="117"/>
+      <c r="Y16" s="117"/>
+      <c r="Z16" s="117"/>
+      <c r="AA16" s="117"/>
+      <c r="AB16" s="117"/>
+      <c r="AC16" s="117"/>
+      <c r="AD16" s="117"/>
+      <c r="AE16" s="117"/>
+      <c r="AF16" s="117"/>
+      <c r="AG16" s="117"/>
+      <c r="AH16" s="117"/>
+      <c r="AI16" s="117"/>
+      <c r="AJ16" s="117"/>
+      <c r="AK16" s="117"/>
+      <c r="AL16" s="117"/>
+      <c r="AM16" s="117"/>
+      <c r="AN16" s="111"/>
+      <c r="AO16" s="111"/>
+      <c r="AP16" s="111"/>
+      <c r="AQ16" s="111"/>
+      <c r="AR16" s="111"/>
+      <c r="AS16" s="111"/>
+      <c r="AT16" s="111"/>
+      <c r="AU16" s="111"/>
+      <c r="AV16" s="111"/>
+      <c r="AW16" s="111"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="132"/>
-      <c r="S17" s="133"/>
-      <c r="T17" s="133"/>
-      <c r="U17" s="133"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="128"/>
-      <c r="X17" s="128"/>
-      <c r="Y17" s="128"/>
-      <c r="Z17" s="128"/>
-      <c r="AA17" s="128"/>
-      <c r="AB17" s="128"/>
-      <c r="AC17" s="128"/>
-      <c r="AD17" s="128"/>
-      <c r="AE17" s="128"/>
-      <c r="AF17" s="128"/>
-      <c r="AG17" s="128"/>
-      <c r="AH17" s="128"/>
-      <c r="AI17" s="128"/>
-      <c r="AJ17" s="128"/>
-      <c r="AK17" s="128"/>
-      <c r="AL17" s="128"/>
-      <c r="AM17" s="128"/>
-      <c r="AN17" s="121"/>
-      <c r="AO17" s="121"/>
-      <c r="AP17" s="121"/>
-      <c r="AQ17" s="121"/>
-      <c r="AR17" s="121"/>
-      <c r="AS17" s="121"/>
-      <c r="AT17" s="121"/>
-      <c r="AU17" s="121"/>
-      <c r="AV17" s="121"/>
-      <c r="AW17" s="121"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="120"/>
+      <c r="S17" s="121"/>
+      <c r="T17" s="121"/>
+      <c r="U17" s="121"/>
+      <c r="V17" s="117"/>
+      <c r="W17" s="117"/>
+      <c r="X17" s="117"/>
+      <c r="Y17" s="117"/>
+      <c r="Z17" s="117"/>
+      <c r="AA17" s="117"/>
+      <c r="AB17" s="117"/>
+      <c r="AC17" s="117"/>
+      <c r="AD17" s="117"/>
+      <c r="AE17" s="117"/>
+      <c r="AF17" s="117"/>
+      <c r="AG17" s="117"/>
+      <c r="AH17" s="117"/>
+      <c r="AI17" s="117"/>
+      <c r="AJ17" s="117"/>
+      <c r="AK17" s="117"/>
+      <c r="AL17" s="117"/>
+      <c r="AM17" s="117"/>
+      <c r="AN17" s="111"/>
+      <c r="AO17" s="111"/>
+      <c r="AP17" s="111"/>
+      <c r="AQ17" s="111"/>
+      <c r="AR17" s="111"/>
+      <c r="AS17" s="111"/>
+      <c r="AT17" s="111"/>
+      <c r="AU17" s="111"/>
+      <c r="AV17" s="111"/>
+      <c r="AW17" s="111"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="127"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="127"/>
-      <c r="Q18" s="127"/>
-      <c r="R18" s="127"/>
-      <c r="S18" s="121"/>
-      <c r="T18" s="121"/>
-      <c r="U18" s="121"/>
-      <c r="V18" s="128"/>
-      <c r="W18" s="128"/>
-      <c r="X18" s="128"/>
-      <c r="Y18" s="128"/>
-      <c r="Z18" s="128"/>
-      <c r="AA18" s="128"/>
-      <c r="AB18" s="128"/>
-      <c r="AC18" s="128"/>
-      <c r="AD18" s="128"/>
-      <c r="AE18" s="128"/>
-      <c r="AF18" s="128"/>
-      <c r="AG18" s="128"/>
-      <c r="AH18" s="128"/>
-      <c r="AI18" s="128"/>
-      <c r="AJ18" s="128"/>
-      <c r="AK18" s="128"/>
-      <c r="AL18" s="128"/>
-      <c r="AM18" s="128"/>
-      <c r="AN18" s="121"/>
-      <c r="AO18" s="121"/>
-      <c r="AP18" s="121"/>
-      <c r="AQ18" s="121"/>
-      <c r="AR18" s="121"/>
-      <c r="AS18" s="121"/>
-      <c r="AT18" s="121"/>
-      <c r="AU18" s="121"/>
-      <c r="AV18" s="121"/>
-      <c r="AW18" s="121"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="119"/>
+      <c r="P18" s="119"/>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="111"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="117"/>
+      <c r="W18" s="117"/>
+      <c r="X18" s="117"/>
+      <c r="Y18" s="117"/>
+      <c r="Z18" s="117"/>
+      <c r="AA18" s="117"/>
+      <c r="AB18" s="117"/>
+      <c r="AC18" s="117"/>
+      <c r="AD18" s="117"/>
+      <c r="AE18" s="117"/>
+      <c r="AF18" s="117"/>
+      <c r="AG18" s="117"/>
+      <c r="AH18" s="117"/>
+      <c r="AI18" s="117"/>
+      <c r="AJ18" s="117"/>
+      <c r="AK18" s="117"/>
+      <c r="AL18" s="117"/>
+      <c r="AM18" s="117"/>
+      <c r="AN18" s="111"/>
+      <c r="AO18" s="111"/>
+      <c r="AP18" s="111"/>
+      <c r="AQ18" s="111"/>
+      <c r="AR18" s="111"/>
+      <c r="AS18" s="111"/>
+      <c r="AT18" s="111"/>
+      <c r="AU18" s="111"/>
+      <c r="AV18" s="111"/>
+      <c r="AW18" s="111"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="127"/>
-      <c r="N19" s="127"/>
-      <c r="O19" s="127"/>
-      <c r="P19" s="127"/>
-      <c r="Q19" s="127"/>
-      <c r="R19" s="127"/>
-      <c r="S19" s="121"/>
-      <c r="T19" s="121"/>
-      <c r="U19" s="121"/>
-      <c r="V19" s="128"/>
-      <c r="W19" s="128"/>
-      <c r="X19" s="128"/>
-      <c r="Y19" s="128"/>
-      <c r="Z19" s="128"/>
-      <c r="AA19" s="128"/>
-      <c r="AB19" s="128"/>
-      <c r="AC19" s="128"/>
-      <c r="AD19" s="128"/>
-      <c r="AE19" s="128"/>
-      <c r="AF19" s="128"/>
-      <c r="AG19" s="128"/>
-      <c r="AH19" s="128"/>
-      <c r="AI19" s="128"/>
-      <c r="AJ19" s="128"/>
-      <c r="AK19" s="128"/>
-      <c r="AL19" s="128"/>
-      <c r="AM19" s="128"/>
-      <c r="AN19" s="121"/>
-      <c r="AO19" s="121"/>
-      <c r="AP19" s="121"/>
-      <c r="AQ19" s="121"/>
-      <c r="AR19" s="121"/>
-      <c r="AS19" s="121"/>
-      <c r="AT19" s="121"/>
-      <c r="AU19" s="121"/>
-      <c r="AV19" s="121"/>
-      <c r="AW19" s="121"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="119"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="119"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="111"/>
+      <c r="T19" s="111"/>
+      <c r="U19" s="111"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="117"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="117"/>
+      <c r="Z19" s="117"/>
+      <c r="AA19" s="117"/>
+      <c r="AB19" s="117"/>
+      <c r="AC19" s="117"/>
+      <c r="AD19" s="117"/>
+      <c r="AE19" s="117"/>
+      <c r="AF19" s="117"/>
+      <c r="AG19" s="117"/>
+      <c r="AH19" s="117"/>
+      <c r="AI19" s="117"/>
+      <c r="AJ19" s="117"/>
+      <c r="AK19" s="117"/>
+      <c r="AL19" s="117"/>
+      <c r="AM19" s="117"/>
+      <c r="AN19" s="111"/>
+      <c r="AO19" s="111"/>
+      <c r="AP19" s="111"/>
+      <c r="AQ19" s="111"/>
+      <c r="AR19" s="111"/>
+      <c r="AS19" s="111"/>
+      <c r="AT19" s="111"/>
+      <c r="AU19" s="111"/>
+      <c r="AV19" s="111"/>
+      <c r="AW19" s="111"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="127"/>
-      <c r="S20" s="121"/>
-      <c r="T20" s="121"/>
-      <c r="U20" s="121"/>
-      <c r="V20" s="128"/>
-      <c r="W20" s="128"/>
-      <c r="X20" s="128"/>
-      <c r="Y20" s="128"/>
-      <c r="Z20" s="128"/>
-      <c r="AA20" s="128"/>
-      <c r="AB20" s="128"/>
-      <c r="AC20" s="128"/>
-      <c r="AD20" s="128"/>
-      <c r="AE20" s="128"/>
-      <c r="AF20" s="128"/>
-      <c r="AG20" s="128"/>
-      <c r="AH20" s="128"/>
-      <c r="AI20" s="128"/>
-      <c r="AJ20" s="128"/>
-      <c r="AK20" s="128"/>
-      <c r="AL20" s="128"/>
-      <c r="AM20" s="128"/>
-      <c r="AN20" s="121"/>
-      <c r="AO20" s="121"/>
-      <c r="AP20" s="121"/>
-      <c r="AQ20" s="121"/>
-      <c r="AR20" s="121"/>
-      <c r="AS20" s="121"/>
-      <c r="AT20" s="121"/>
-      <c r="AU20" s="121"/>
-      <c r="AV20" s="121"/>
-      <c r="AW20" s="121"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="119"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="111"/>
+      <c r="T20" s="111"/>
+      <c r="U20" s="111"/>
+      <c r="V20" s="117"/>
+      <c r="W20" s="117"/>
+      <c r="X20" s="117"/>
+      <c r="Y20" s="117"/>
+      <c r="Z20" s="117"/>
+      <c r="AA20" s="117"/>
+      <c r="AB20" s="117"/>
+      <c r="AC20" s="117"/>
+      <c r="AD20" s="117"/>
+      <c r="AE20" s="117"/>
+      <c r="AF20" s="117"/>
+      <c r="AG20" s="117"/>
+      <c r="AH20" s="117"/>
+      <c r="AI20" s="117"/>
+      <c r="AJ20" s="117"/>
+      <c r="AK20" s="117"/>
+      <c r="AL20" s="117"/>
+      <c r="AM20" s="117"/>
+      <c r="AN20" s="111"/>
+      <c r="AO20" s="111"/>
+      <c r="AP20" s="111"/>
+      <c r="AQ20" s="111"/>
+      <c r="AR20" s="111"/>
+      <c r="AS20" s="111"/>
+      <c r="AT20" s="111"/>
+      <c r="AU20" s="111"/>
+      <c r="AV20" s="111"/>
+      <c r="AW20" s="111"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="58"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="127"/>
-      <c r="N21" s="127"/>
-      <c r="O21" s="127"/>
-      <c r="P21" s="127"/>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="127"/>
-      <c r="S21" s="121"/>
-      <c r="T21" s="121"/>
-      <c r="U21" s="121"/>
-      <c r="V21" s="128"/>
-      <c r="W21" s="128"/>
-      <c r="X21" s="128"/>
-      <c r="Y21" s="128"/>
-      <c r="Z21" s="128"/>
-      <c r="AA21" s="128"/>
-      <c r="AB21" s="128"/>
-      <c r="AC21" s="128"/>
-      <c r="AD21" s="128"/>
-      <c r="AE21" s="128"/>
-      <c r="AF21" s="128"/>
-      <c r="AG21" s="128"/>
-      <c r="AH21" s="128"/>
-      <c r="AI21" s="128"/>
-      <c r="AJ21" s="128"/>
-      <c r="AK21" s="128"/>
-      <c r="AL21" s="128"/>
-      <c r="AM21" s="128"/>
-      <c r="AN21" s="121"/>
-      <c r="AO21" s="121"/>
-      <c r="AP21" s="121"/>
-      <c r="AQ21" s="121"/>
-      <c r="AR21" s="121"/>
-      <c r="AS21" s="121"/>
-      <c r="AT21" s="121"/>
-      <c r="AU21" s="121"/>
-      <c r="AV21" s="121"/>
-      <c r="AW21" s="121"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="111"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="117"/>
+      <c r="W21" s="117"/>
+      <c r="X21" s="117"/>
+      <c r="Y21" s="117"/>
+      <c r="Z21" s="117"/>
+      <c r="AA21" s="117"/>
+      <c r="AB21" s="117"/>
+      <c r="AC21" s="117"/>
+      <c r="AD21" s="117"/>
+      <c r="AE21" s="117"/>
+      <c r="AF21" s="117"/>
+      <c r="AG21" s="117"/>
+      <c r="AH21" s="117"/>
+      <c r="AI21" s="117"/>
+      <c r="AJ21" s="117"/>
+      <c r="AK21" s="117"/>
+      <c r="AL21" s="117"/>
+      <c r="AM21" s="117"/>
+      <c r="AN21" s="111"/>
+      <c r="AO21" s="111"/>
+      <c r="AP21" s="111"/>
+      <c r="AQ21" s="111"/>
+      <c r="AR21" s="111"/>
+      <c r="AS21" s="111"/>
+      <c r="AT21" s="111"/>
+      <c r="AU21" s="111"/>
+      <c r="AV21" s="111"/>
+      <c r="AW21" s="111"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="124"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="127"/>
-      <c r="O22" s="127"/>
-      <c r="P22" s="127"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="127"/>
-      <c r="S22" s="121"/>
-      <c r="T22" s="121"/>
-      <c r="U22" s="121"/>
-      <c r="V22" s="128"/>
-      <c r="W22" s="128"/>
-      <c r="X22" s="128"/>
-      <c r="Y22" s="128"/>
-      <c r="Z22" s="128"/>
-      <c r="AA22" s="128"/>
-      <c r="AB22" s="128"/>
-      <c r="AC22" s="128"/>
-      <c r="AD22" s="128"/>
-      <c r="AE22" s="128"/>
-      <c r="AF22" s="128"/>
-      <c r="AG22" s="128"/>
-      <c r="AH22" s="128"/>
-      <c r="AI22" s="128"/>
-      <c r="AJ22" s="128"/>
-      <c r="AK22" s="128"/>
-      <c r="AL22" s="128"/>
-      <c r="AM22" s="128"/>
-      <c r="AN22" s="121"/>
-      <c r="AO22" s="121"/>
-      <c r="AP22" s="121"/>
-      <c r="AQ22" s="121"/>
-      <c r="AR22" s="121"/>
-      <c r="AS22" s="121"/>
-      <c r="AT22" s="121"/>
-      <c r="AU22" s="121"/>
-      <c r="AV22" s="121"/>
-      <c r="AW22" s="121"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="117"/>
+      <c r="W22" s="117"/>
+      <c r="X22" s="117"/>
+      <c r="Y22" s="117"/>
+      <c r="Z22" s="117"/>
+      <c r="AA22" s="117"/>
+      <c r="AB22" s="117"/>
+      <c r="AC22" s="117"/>
+      <c r="AD22" s="117"/>
+      <c r="AE22" s="117"/>
+      <c r="AF22" s="117"/>
+      <c r="AG22" s="117"/>
+      <c r="AH22" s="117"/>
+      <c r="AI22" s="117"/>
+      <c r="AJ22" s="117"/>
+      <c r="AK22" s="117"/>
+      <c r="AL22" s="117"/>
+      <c r="AM22" s="117"/>
+      <c r="AN22" s="111"/>
+      <c r="AO22" s="111"/>
+      <c r="AP22" s="111"/>
+      <c r="AQ22" s="111"/>
+      <c r="AR22" s="111"/>
+      <c r="AS22" s="111"/>
+      <c r="AT22" s="111"/>
+      <c r="AU22" s="111"/>
+      <c r="AV22" s="111"/>
+      <c r="AW22" s="111"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="124"/>
-      <c r="M23" s="127"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="127"/>
-      <c r="P23" s="127"/>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="127"/>
-      <c r="S23" s="121"/>
-      <c r="T23" s="121"/>
-      <c r="U23" s="121"/>
-      <c r="V23" s="128"/>
-      <c r="W23" s="128"/>
-      <c r="X23" s="128"/>
-      <c r="Y23" s="128"/>
-      <c r="Z23" s="128"/>
-      <c r="AA23" s="128"/>
-      <c r="AB23" s="128"/>
-      <c r="AC23" s="128"/>
-      <c r="AD23" s="128"/>
-      <c r="AE23" s="128"/>
-      <c r="AF23" s="128"/>
-      <c r="AG23" s="128"/>
-      <c r="AH23" s="128"/>
-      <c r="AI23" s="128"/>
-      <c r="AJ23" s="128"/>
-      <c r="AK23" s="128"/>
-      <c r="AL23" s="128"/>
-      <c r="AM23" s="128"/>
-      <c r="AN23" s="121"/>
-      <c r="AO23" s="121"/>
-      <c r="AP23" s="121"/>
-      <c r="AQ23" s="121"/>
-      <c r="AR23" s="121"/>
-      <c r="AS23" s="121"/>
-      <c r="AT23" s="121"/>
-      <c r="AU23" s="121"/>
-      <c r="AV23" s="121"/>
-      <c r="AW23" s="121"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="119"/>
+      <c r="P23" s="119"/>
+      <c r="Q23" s="119"/>
+      <c r="R23" s="119"/>
+      <c r="S23" s="111"/>
+      <c r="T23" s="111"/>
+      <c r="U23" s="111"/>
+      <c r="V23" s="117"/>
+      <c r="W23" s="117"/>
+      <c r="X23" s="117"/>
+      <c r="Y23" s="117"/>
+      <c r="Z23" s="117"/>
+      <c r="AA23" s="117"/>
+      <c r="AB23" s="117"/>
+      <c r="AC23" s="117"/>
+      <c r="AD23" s="117"/>
+      <c r="AE23" s="117"/>
+      <c r="AF23" s="117"/>
+      <c r="AG23" s="117"/>
+      <c r="AH23" s="117"/>
+      <c r="AI23" s="117"/>
+      <c r="AJ23" s="117"/>
+      <c r="AK23" s="117"/>
+      <c r="AL23" s="117"/>
+      <c r="AM23" s="117"/>
+      <c r="AN23" s="111"/>
+      <c r="AO23" s="111"/>
+      <c r="AP23" s="111"/>
+      <c r="AQ23" s="111"/>
+      <c r="AR23" s="111"/>
+      <c r="AS23" s="111"/>
+      <c r="AT23" s="111"/>
+      <c r="AU23" s="111"/>
+      <c r="AV23" s="111"/>
+      <c r="AW23" s="111"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="124"/>
-      <c r="M24" s="127"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="127"/>
-      <c r="P24" s="127"/>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="127"/>
-      <c r="S24" s="121"/>
-      <c r="T24" s="121"/>
-      <c r="U24" s="121"/>
-      <c r="V24" s="128"/>
-      <c r="W24" s="128"/>
-      <c r="X24" s="128"/>
-      <c r="Y24" s="128"/>
-      <c r="Z24" s="128"/>
-      <c r="AA24" s="128"/>
-      <c r="AB24" s="128"/>
-      <c r="AC24" s="128"/>
-      <c r="AD24" s="128"/>
-      <c r="AE24" s="128"/>
-      <c r="AF24" s="128"/>
-      <c r="AG24" s="128"/>
-      <c r="AH24" s="128"/>
-      <c r="AI24" s="128"/>
-      <c r="AJ24" s="128"/>
-      <c r="AK24" s="128"/>
-      <c r="AL24" s="128"/>
-      <c r="AM24" s="128"/>
-      <c r="AN24" s="121"/>
-      <c r="AO24" s="121"/>
-      <c r="AP24" s="121"/>
-      <c r="AQ24" s="121"/>
-      <c r="AR24" s="121"/>
-      <c r="AS24" s="121"/>
-      <c r="AT24" s="121"/>
-      <c r="AU24" s="121"/>
-      <c r="AV24" s="121"/>
-      <c r="AW24" s="121"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="119"/>
+      <c r="R24" s="119"/>
+      <c r="S24" s="111"/>
+      <c r="T24" s="111"/>
+      <c r="U24" s="111"/>
+      <c r="V24" s="117"/>
+      <c r="W24" s="117"/>
+      <c r="X24" s="117"/>
+      <c r="Y24" s="117"/>
+      <c r="Z24" s="117"/>
+      <c r="AA24" s="117"/>
+      <c r="AB24" s="117"/>
+      <c r="AC24" s="117"/>
+      <c r="AD24" s="117"/>
+      <c r="AE24" s="117"/>
+      <c r="AF24" s="117"/>
+      <c r="AG24" s="117"/>
+      <c r="AH24" s="117"/>
+      <c r="AI24" s="117"/>
+      <c r="AJ24" s="117"/>
+      <c r="AK24" s="117"/>
+      <c r="AL24" s="117"/>
+      <c r="AM24" s="117"/>
+      <c r="AN24" s="111"/>
+      <c r="AO24" s="111"/>
+      <c r="AP24" s="111"/>
+      <c r="AQ24" s="111"/>
+      <c r="AR24" s="111"/>
+      <c r="AS24" s="111"/>
+      <c r="AT24" s="111"/>
+      <c r="AU24" s="111"/>
+      <c r="AV24" s="111"/>
+      <c r="AW24" s="111"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="130"/>
-      <c r="N25" s="127"/>
-      <c r="O25" s="127"/>
-      <c r="P25" s="127"/>
-      <c r="Q25" s="127"/>
-      <c r="R25" s="127"/>
-      <c r="S25" s="121"/>
-      <c r="T25" s="121"/>
-      <c r="U25" s="121"/>
-      <c r="V25" s="128"/>
-      <c r="W25" s="128"/>
-      <c r="X25" s="128"/>
-      <c r="Y25" s="128"/>
-      <c r="Z25" s="128"/>
-      <c r="AA25" s="128"/>
-      <c r="AB25" s="128"/>
-      <c r="AC25" s="128"/>
-      <c r="AD25" s="128"/>
-      <c r="AE25" s="128"/>
-      <c r="AF25" s="128"/>
-      <c r="AG25" s="128"/>
-      <c r="AH25" s="128"/>
-      <c r="AI25" s="128"/>
-      <c r="AJ25" s="128"/>
-      <c r="AK25" s="128"/>
-      <c r="AL25" s="128"/>
-      <c r="AM25" s="128"/>
-      <c r="AN25" s="121"/>
-      <c r="AO25" s="121"/>
-      <c r="AP25" s="121"/>
-      <c r="AQ25" s="121"/>
-      <c r="AR25" s="121"/>
-      <c r="AS25" s="121"/>
-      <c r="AT25" s="121"/>
-      <c r="AU25" s="121"/>
-      <c r="AV25" s="121"/>
-      <c r="AW25" s="121"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="114"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="118"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="119"/>
+      <c r="R25" s="119"/>
+      <c r="S25" s="111"/>
+      <c r="T25" s="111"/>
+      <c r="U25" s="111"/>
+      <c r="V25" s="117"/>
+      <c r="W25" s="117"/>
+      <c r="X25" s="117"/>
+      <c r="Y25" s="117"/>
+      <c r="Z25" s="117"/>
+      <c r="AA25" s="117"/>
+      <c r="AB25" s="117"/>
+      <c r="AC25" s="117"/>
+      <c r="AD25" s="117"/>
+      <c r="AE25" s="117"/>
+      <c r="AF25" s="117"/>
+      <c r="AG25" s="117"/>
+      <c r="AH25" s="117"/>
+      <c r="AI25" s="117"/>
+      <c r="AJ25" s="117"/>
+      <c r="AK25" s="117"/>
+      <c r="AL25" s="117"/>
+      <c r="AM25" s="117"/>
+      <c r="AN25" s="111"/>
+      <c r="AO25" s="111"/>
+      <c r="AP25" s="111"/>
+      <c r="AQ25" s="111"/>
+      <c r="AR25" s="111"/>
+      <c r="AS25" s="111"/>
+      <c r="AT25" s="111"/>
+      <c r="AU25" s="111"/>
+      <c r="AV25" s="111"/>
+      <c r="AW25" s="111"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="124"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="127"/>
-      <c r="O26" s="127"/>
-      <c r="P26" s="127"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="127"/>
-      <c r="S26" s="121"/>
-      <c r="T26" s="121"/>
-      <c r="U26" s="121"/>
-      <c r="V26" s="128"/>
-      <c r="W26" s="128"/>
-      <c r="X26" s="128"/>
-      <c r="Y26" s="128"/>
-      <c r="Z26" s="128"/>
-      <c r="AA26" s="128"/>
-      <c r="AB26" s="128"/>
-      <c r="AC26" s="128"/>
-      <c r="AD26" s="128"/>
-      <c r="AE26" s="128"/>
-      <c r="AF26" s="128"/>
-      <c r="AG26" s="128"/>
-      <c r="AH26" s="128"/>
-      <c r="AI26" s="128"/>
-      <c r="AJ26" s="128"/>
-      <c r="AK26" s="128"/>
-      <c r="AL26" s="128"/>
-      <c r="AM26" s="128"/>
-      <c r="AN26" s="121"/>
-      <c r="AO26" s="121"/>
-      <c r="AP26" s="121"/>
-      <c r="AQ26" s="121"/>
-      <c r="AR26" s="121"/>
-      <c r="AS26" s="121"/>
-      <c r="AT26" s="121"/>
-      <c r="AU26" s="121"/>
-      <c r="AV26" s="121"/>
-      <c r="AW26" s="121"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="118"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="119"/>
+      <c r="P26" s="119"/>
+      <c r="Q26" s="119"/>
+      <c r="R26" s="119"/>
+      <c r="S26" s="111"/>
+      <c r="T26" s="111"/>
+      <c r="U26" s="111"/>
+      <c r="V26" s="117"/>
+      <c r="W26" s="117"/>
+      <c r="X26" s="117"/>
+      <c r="Y26" s="117"/>
+      <c r="Z26" s="117"/>
+      <c r="AA26" s="117"/>
+      <c r="AB26" s="117"/>
+      <c r="AC26" s="117"/>
+      <c r="AD26" s="117"/>
+      <c r="AE26" s="117"/>
+      <c r="AF26" s="117"/>
+      <c r="AG26" s="117"/>
+      <c r="AH26" s="117"/>
+      <c r="AI26" s="117"/>
+      <c r="AJ26" s="117"/>
+      <c r="AK26" s="117"/>
+      <c r="AL26" s="117"/>
+      <c r="AM26" s="117"/>
+      <c r="AN26" s="111"/>
+      <c r="AO26" s="111"/>
+      <c r="AP26" s="111"/>
+      <c r="AQ26" s="111"/>
+      <c r="AR26" s="111"/>
+      <c r="AS26" s="111"/>
+      <c r="AT26" s="111"/>
+      <c r="AU26" s="111"/>
+      <c r="AV26" s="111"/>
+      <c r="AW26" s="111"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="122"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="124"/>
-      <c r="M27" s="130"/>
-      <c r="N27" s="127"/>
-      <c r="O27" s="127"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="127"/>
-      <c r="S27" s="121"/>
-      <c r="T27" s="121"/>
-      <c r="U27" s="121"/>
-      <c r="V27" s="128"/>
-      <c r="W27" s="128"/>
-      <c r="X27" s="128"/>
-      <c r="Y27" s="128"/>
-      <c r="Z27" s="128"/>
-      <c r="AA27" s="128"/>
-      <c r="AB27" s="128"/>
-      <c r="AC27" s="128"/>
-      <c r="AD27" s="128"/>
-      <c r="AE27" s="128"/>
-      <c r="AF27" s="128"/>
-      <c r="AG27" s="128"/>
-      <c r="AH27" s="128"/>
-      <c r="AI27" s="128"/>
-      <c r="AJ27" s="128"/>
-      <c r="AK27" s="128"/>
-      <c r="AL27" s="128"/>
-      <c r="AM27" s="128"/>
-      <c r="AN27" s="121"/>
-      <c r="AO27" s="121"/>
-      <c r="AP27" s="121"/>
-      <c r="AQ27" s="121"/>
-      <c r="AR27" s="121"/>
-      <c r="AS27" s="121"/>
-      <c r="AT27" s="121"/>
-      <c r="AU27" s="121"/>
-      <c r="AV27" s="121"/>
-      <c r="AW27" s="121"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="114"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="118"/>
+      <c r="N27" s="119"/>
+      <c r="O27" s="119"/>
+      <c r="P27" s="119"/>
+      <c r="Q27" s="119"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="111"/>
+      <c r="V27" s="117"/>
+      <c r="W27" s="117"/>
+      <c r="X27" s="117"/>
+      <c r="Y27" s="117"/>
+      <c r="Z27" s="117"/>
+      <c r="AA27" s="117"/>
+      <c r="AB27" s="117"/>
+      <c r="AC27" s="117"/>
+      <c r="AD27" s="117"/>
+      <c r="AE27" s="117"/>
+      <c r="AF27" s="117"/>
+      <c r="AG27" s="117"/>
+      <c r="AH27" s="117"/>
+      <c r="AI27" s="117"/>
+      <c r="AJ27" s="117"/>
+      <c r="AK27" s="117"/>
+      <c r="AL27" s="117"/>
+      <c r="AM27" s="117"/>
+      <c r="AN27" s="111"/>
+      <c r="AO27" s="111"/>
+      <c r="AP27" s="111"/>
+      <c r="AQ27" s="111"/>
+      <c r="AR27" s="111"/>
+      <c r="AS27" s="111"/>
+      <c r="AT27" s="111"/>
+      <c r="AU27" s="111"/>
+      <c r="AV27" s="111"/>
+      <c r="AW27" s="111"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="122"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="124"/>
-      <c r="M28" s="127"/>
-      <c r="N28" s="127"/>
-      <c r="O28" s="127"/>
-      <c r="P28" s="127"/>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="127"/>
-      <c r="S28" s="121"/>
-      <c r="T28" s="121"/>
-      <c r="U28" s="121"/>
-      <c r="V28" s="128"/>
-      <c r="W28" s="128"/>
-      <c r="X28" s="128"/>
-      <c r="Y28" s="128"/>
-      <c r="Z28" s="128"/>
-      <c r="AA28" s="128"/>
-      <c r="AB28" s="128"/>
-      <c r="AC28" s="128"/>
-      <c r="AD28" s="128"/>
-      <c r="AE28" s="128"/>
-      <c r="AF28" s="128"/>
-      <c r="AG28" s="128"/>
-      <c r="AH28" s="128"/>
-      <c r="AI28" s="128"/>
-      <c r="AJ28" s="128"/>
-      <c r="AK28" s="128"/>
-      <c r="AL28" s="128"/>
-      <c r="AM28" s="128"/>
-      <c r="AN28" s="121"/>
-      <c r="AO28" s="121"/>
-      <c r="AP28" s="121"/>
-      <c r="AQ28" s="121"/>
-      <c r="AR28" s="121"/>
-      <c r="AS28" s="121"/>
-      <c r="AT28" s="121"/>
-      <c r="AU28" s="121"/>
-      <c r="AV28" s="121"/>
-      <c r="AW28" s="121"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="119"/>
+      <c r="N28" s="119"/>
+      <c r="O28" s="119"/>
+      <c r="P28" s="119"/>
+      <c r="Q28" s="119"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="117"/>
+      <c r="W28" s="117"/>
+      <c r="X28" s="117"/>
+      <c r="Y28" s="117"/>
+      <c r="Z28" s="117"/>
+      <c r="AA28" s="117"/>
+      <c r="AB28" s="117"/>
+      <c r="AC28" s="117"/>
+      <c r="AD28" s="117"/>
+      <c r="AE28" s="117"/>
+      <c r="AF28" s="117"/>
+      <c r="AG28" s="117"/>
+      <c r="AH28" s="117"/>
+      <c r="AI28" s="117"/>
+      <c r="AJ28" s="117"/>
+      <c r="AK28" s="117"/>
+      <c r="AL28" s="117"/>
+      <c r="AM28" s="117"/>
+      <c r="AN28" s="111"/>
+      <c r="AO28" s="111"/>
+      <c r="AP28" s="111"/>
+      <c r="AQ28" s="111"/>
+      <c r="AR28" s="111"/>
+      <c r="AS28" s="111"/>
+      <c r="AT28" s="111"/>
+      <c r="AU28" s="111"/>
+      <c r="AV28" s="111"/>
+      <c r="AW28" s="111"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="122"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="124"/>
-      <c r="L29" s="124"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="127"/>
-      <c r="O29" s="127"/>
-      <c r="P29" s="127"/>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="127"/>
-      <c r="S29" s="121"/>
-      <c r="T29" s="121"/>
-      <c r="U29" s="121"/>
-      <c r="V29" s="128"/>
-      <c r="W29" s="128"/>
-      <c r="X29" s="128"/>
-      <c r="Y29" s="128"/>
-      <c r="Z29" s="128"/>
-      <c r="AA29" s="128"/>
-      <c r="AB29" s="128"/>
-      <c r="AC29" s="128"/>
-      <c r="AD29" s="128"/>
-      <c r="AE29" s="128"/>
-      <c r="AF29" s="128"/>
-      <c r="AG29" s="128"/>
-      <c r="AH29" s="128"/>
-      <c r="AI29" s="128"/>
-      <c r="AJ29" s="128"/>
-      <c r="AK29" s="128"/>
-      <c r="AL29" s="128"/>
-      <c r="AM29" s="128"/>
-      <c r="AN29" s="121"/>
-      <c r="AO29" s="121"/>
-      <c r="AP29" s="121"/>
-      <c r="AQ29" s="121"/>
-      <c r="AR29" s="121"/>
-      <c r="AS29" s="121"/>
-      <c r="AT29" s="121"/>
-      <c r="AU29" s="121"/>
-      <c r="AV29" s="121"/>
-      <c r="AW29" s="121"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="119"/>
+      <c r="N29" s="119"/>
+      <c r="O29" s="119"/>
+      <c r="P29" s="119"/>
+      <c r="Q29" s="119"/>
+      <c r="R29" s="119"/>
+      <c r="S29" s="111"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="111"/>
+      <c r="V29" s="117"/>
+      <c r="W29" s="117"/>
+      <c r="X29" s="117"/>
+      <c r="Y29" s="117"/>
+      <c r="Z29" s="117"/>
+      <c r="AA29" s="117"/>
+      <c r="AB29" s="117"/>
+      <c r="AC29" s="117"/>
+      <c r="AD29" s="117"/>
+      <c r="AE29" s="117"/>
+      <c r="AF29" s="117"/>
+      <c r="AG29" s="117"/>
+      <c r="AH29" s="117"/>
+      <c r="AI29" s="117"/>
+      <c r="AJ29" s="117"/>
+      <c r="AK29" s="117"/>
+      <c r="AL29" s="117"/>
+      <c r="AM29" s="117"/>
+      <c r="AN29" s="111"/>
+      <c r="AO29" s="111"/>
+      <c r="AP29" s="111"/>
+      <c r="AQ29" s="111"/>
+      <c r="AR29" s="111"/>
+      <c r="AS29" s="111"/>
+      <c r="AT29" s="111"/>
+      <c r="AU29" s="111"/>
+      <c r="AV29" s="111"/>
+      <c r="AW29" s="111"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="122"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="124"/>
-      <c r="M30" s="130"/>
-      <c r="N30" s="127"/>
-      <c r="O30" s="127"/>
-      <c r="P30" s="127"/>
-      <c r="Q30" s="127"/>
-      <c r="R30" s="127"/>
-      <c r="S30" s="121"/>
-      <c r="T30" s="121"/>
-      <c r="U30" s="121"/>
-      <c r="V30" s="128"/>
-      <c r="W30" s="128"/>
-      <c r="X30" s="128"/>
-      <c r="Y30" s="128"/>
-      <c r="Z30" s="128"/>
-      <c r="AA30" s="128"/>
-      <c r="AB30" s="128"/>
-      <c r="AC30" s="128"/>
-      <c r="AD30" s="128"/>
-      <c r="AE30" s="128"/>
-      <c r="AF30" s="128"/>
-      <c r="AG30" s="128"/>
-      <c r="AH30" s="128"/>
-      <c r="AI30" s="128"/>
-      <c r="AJ30" s="128"/>
-      <c r="AK30" s="128"/>
-      <c r="AL30" s="128"/>
-      <c r="AM30" s="128"/>
-      <c r="AN30" s="121"/>
-      <c r="AO30" s="121"/>
-      <c r="AP30" s="121"/>
-      <c r="AQ30" s="121"/>
-      <c r="AR30" s="121"/>
-      <c r="AS30" s="121"/>
-      <c r="AT30" s="121"/>
-      <c r="AU30" s="121"/>
-      <c r="AV30" s="121"/>
-      <c r="AW30" s="121"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="118"/>
+      <c r="N30" s="119"/>
+      <c r="O30" s="119"/>
+      <c r="P30" s="119"/>
+      <c r="Q30" s="119"/>
+      <c r="R30" s="119"/>
+      <c r="S30" s="111"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="117"/>
+      <c r="W30" s="117"/>
+      <c r="X30" s="117"/>
+      <c r="Y30" s="117"/>
+      <c r="Z30" s="117"/>
+      <c r="AA30" s="117"/>
+      <c r="AB30" s="117"/>
+      <c r="AC30" s="117"/>
+      <c r="AD30" s="117"/>
+      <c r="AE30" s="117"/>
+      <c r="AF30" s="117"/>
+      <c r="AG30" s="117"/>
+      <c r="AH30" s="117"/>
+      <c r="AI30" s="117"/>
+      <c r="AJ30" s="117"/>
+      <c r="AK30" s="117"/>
+      <c r="AL30" s="117"/>
+      <c r="AM30" s="117"/>
+      <c r="AN30" s="111"/>
+      <c r="AO30" s="111"/>
+      <c r="AP30" s="111"/>
+      <c r="AQ30" s="111"/>
+      <c r="AR30" s="111"/>
+      <c r="AS30" s="111"/>
+      <c r="AT30" s="111"/>
+      <c r="AU30" s="111"/>
+      <c r="AV30" s="111"/>
+      <c r="AW30" s="111"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="124"/>
-      <c r="L31" s="124"/>
-      <c r="M31" s="130"/>
-      <c r="N31" s="127"/>
-      <c r="O31" s="127"/>
-      <c r="P31" s="127"/>
-      <c r="Q31" s="127"/>
-      <c r="R31" s="127"/>
-      <c r="S31" s="121"/>
-      <c r="T31" s="121"/>
-      <c r="U31" s="121"/>
-      <c r="V31" s="128"/>
-      <c r="W31" s="128"/>
-      <c r="X31" s="128"/>
-      <c r="Y31" s="128"/>
-      <c r="Z31" s="128"/>
-      <c r="AA31" s="128"/>
-      <c r="AB31" s="128"/>
-      <c r="AC31" s="128"/>
-      <c r="AD31" s="128"/>
-      <c r="AE31" s="128"/>
-      <c r="AF31" s="128"/>
-      <c r="AG31" s="128"/>
-      <c r="AH31" s="128"/>
-      <c r="AI31" s="128"/>
-      <c r="AJ31" s="128"/>
-      <c r="AK31" s="128"/>
-      <c r="AL31" s="128"/>
-      <c r="AM31" s="128"/>
-      <c r="AN31" s="121"/>
-      <c r="AO31" s="121"/>
-      <c r="AP31" s="121"/>
-      <c r="AQ31" s="121"/>
-      <c r="AR31" s="121"/>
-      <c r="AS31" s="121"/>
-      <c r="AT31" s="121"/>
-      <c r="AU31" s="121"/>
-      <c r="AV31" s="121"/>
-      <c r="AW31" s="121"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="118"/>
+      <c r="N31" s="119"/>
+      <c r="O31" s="119"/>
+      <c r="P31" s="119"/>
+      <c r="Q31" s="119"/>
+      <c r="R31" s="119"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="117"/>
+      <c r="W31" s="117"/>
+      <c r="X31" s="117"/>
+      <c r="Y31" s="117"/>
+      <c r="Z31" s="117"/>
+      <c r="AA31" s="117"/>
+      <c r="AB31" s="117"/>
+      <c r="AC31" s="117"/>
+      <c r="AD31" s="117"/>
+      <c r="AE31" s="117"/>
+      <c r="AF31" s="117"/>
+      <c r="AG31" s="117"/>
+      <c r="AH31" s="117"/>
+      <c r="AI31" s="117"/>
+      <c r="AJ31" s="117"/>
+      <c r="AK31" s="117"/>
+      <c r="AL31" s="117"/>
+      <c r="AM31" s="117"/>
+      <c r="AN31" s="111"/>
+      <c r="AO31" s="111"/>
+      <c r="AP31" s="111"/>
+      <c r="AQ31" s="111"/>
+      <c r="AR31" s="111"/>
+      <c r="AS31" s="111"/>
+      <c r="AT31" s="111"/>
+      <c r="AU31" s="111"/>
+      <c r="AV31" s="111"/>
+      <c r="AW31" s="111"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="122"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="124"/>
-      <c r="L32" s="124"/>
-      <c r="M32" s="130"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="127"/>
-      <c r="R32" s="127"/>
-      <c r="S32" s="121"/>
-      <c r="T32" s="121"/>
-      <c r="U32" s="121"/>
-      <c r="V32" s="128"/>
-      <c r="W32" s="128"/>
-      <c r="X32" s="128"/>
-      <c r="Y32" s="128"/>
-      <c r="Z32" s="128"/>
-      <c r="AA32" s="128"/>
-      <c r="AB32" s="128"/>
-      <c r="AC32" s="128"/>
-      <c r="AD32" s="128"/>
-      <c r="AE32" s="128"/>
-      <c r="AF32" s="128"/>
-      <c r="AG32" s="128"/>
-      <c r="AH32" s="128"/>
-      <c r="AI32" s="128"/>
-      <c r="AJ32" s="128"/>
-      <c r="AK32" s="128"/>
-      <c r="AL32" s="128"/>
-      <c r="AM32" s="128"/>
-      <c r="AN32" s="121"/>
-      <c r="AO32" s="121"/>
-      <c r="AP32" s="121"/>
-      <c r="AQ32" s="121"/>
-      <c r="AR32" s="121"/>
-      <c r="AS32" s="121"/>
-      <c r="AT32" s="121"/>
-      <c r="AU32" s="121"/>
-      <c r="AV32" s="121"/>
-      <c r="AW32" s="121"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="118"/>
+      <c r="N32" s="119"/>
+      <c r="O32" s="119"/>
+      <c r="P32" s="119"/>
+      <c r="Q32" s="119"/>
+      <c r="R32" s="119"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="117"/>
+      <c r="W32" s="117"/>
+      <c r="X32" s="117"/>
+      <c r="Y32" s="117"/>
+      <c r="Z32" s="117"/>
+      <c r="AA32" s="117"/>
+      <c r="AB32" s="117"/>
+      <c r="AC32" s="117"/>
+      <c r="AD32" s="117"/>
+      <c r="AE32" s="117"/>
+      <c r="AF32" s="117"/>
+      <c r="AG32" s="117"/>
+      <c r="AH32" s="117"/>
+      <c r="AI32" s="117"/>
+      <c r="AJ32" s="117"/>
+      <c r="AK32" s="117"/>
+      <c r="AL32" s="117"/>
+      <c r="AM32" s="117"/>
+      <c r="AN32" s="111"/>
+      <c r="AO32" s="111"/>
+      <c r="AP32" s="111"/>
+      <c r="AQ32" s="111"/>
+      <c r="AR32" s="111"/>
+      <c r="AS32" s="111"/>
+      <c r="AT32" s="111"/>
+      <c r="AU32" s="111"/>
+      <c r="AV32" s="111"/>
+      <c r="AW32" s="111"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="122"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="124"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="124"/>
-      <c r="M33" s="130"/>
-      <c r="N33" s="127"/>
-      <c r="O33" s="127"/>
-      <c r="P33" s="127"/>
-      <c r="Q33" s="127"/>
-      <c r="R33" s="127"/>
-      <c r="S33" s="121"/>
-      <c r="T33" s="121"/>
-      <c r="U33" s="121"/>
-      <c r="V33" s="128"/>
-      <c r="W33" s="128"/>
-      <c r="X33" s="128"/>
-      <c r="Y33" s="128"/>
-      <c r="Z33" s="128"/>
-      <c r="AA33" s="128"/>
-      <c r="AB33" s="128"/>
-      <c r="AC33" s="128"/>
-      <c r="AD33" s="128"/>
-      <c r="AE33" s="128"/>
-      <c r="AF33" s="128"/>
-      <c r="AG33" s="128"/>
-      <c r="AH33" s="128"/>
-      <c r="AI33" s="128"/>
-      <c r="AJ33" s="128"/>
-      <c r="AK33" s="128"/>
-      <c r="AL33" s="128"/>
-      <c r="AM33" s="128"/>
-      <c r="AN33" s="121"/>
-      <c r="AO33" s="121"/>
-      <c r="AP33" s="121"/>
-      <c r="AQ33" s="121"/>
-      <c r="AR33" s="121"/>
-      <c r="AS33" s="121"/>
-      <c r="AT33" s="121"/>
-      <c r="AU33" s="121"/>
-      <c r="AV33" s="121"/>
-      <c r="AW33" s="121"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="118"/>
+      <c r="N33" s="119"/>
+      <c r="O33" s="119"/>
+      <c r="P33" s="119"/>
+      <c r="Q33" s="119"/>
+      <c r="R33" s="119"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="111"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="117"/>
+      <c r="W33" s="117"/>
+      <c r="X33" s="117"/>
+      <c r="Y33" s="117"/>
+      <c r="Z33" s="117"/>
+      <c r="AA33" s="117"/>
+      <c r="AB33" s="117"/>
+      <c r="AC33" s="117"/>
+      <c r="AD33" s="117"/>
+      <c r="AE33" s="117"/>
+      <c r="AF33" s="117"/>
+      <c r="AG33" s="117"/>
+      <c r="AH33" s="117"/>
+      <c r="AI33" s="117"/>
+      <c r="AJ33" s="117"/>
+      <c r="AK33" s="117"/>
+      <c r="AL33" s="117"/>
+      <c r="AM33" s="117"/>
+      <c r="AN33" s="111"/>
+      <c r="AO33" s="111"/>
+      <c r="AP33" s="111"/>
+      <c r="AQ33" s="111"/>
+      <c r="AR33" s="111"/>
+      <c r="AS33" s="111"/>
+      <c r="AT33" s="111"/>
+      <c r="AU33" s="111"/>
+      <c r="AV33" s="111"/>
+      <c r="AW33" s="111"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="122"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="124"/>
-      <c r="K34" s="124"/>
-      <c r="L34" s="124"/>
-      <c r="M34" s="134"/>
-      <c r="N34" s="135"/>
-      <c r="O34" s="135"/>
-      <c r="P34" s="135"/>
-      <c r="Q34" s="135"/>
-      <c r="R34" s="135"/>
-      <c r="S34" s="121"/>
-      <c r="T34" s="121"/>
-      <c r="U34" s="121"/>
-      <c r="V34" s="128"/>
-      <c r="W34" s="128"/>
-      <c r="X34" s="128"/>
-      <c r="Y34" s="128"/>
-      <c r="Z34" s="128"/>
-      <c r="AA34" s="128"/>
-      <c r="AB34" s="128"/>
-      <c r="AC34" s="128"/>
-      <c r="AD34" s="128"/>
-      <c r="AE34" s="128"/>
-      <c r="AF34" s="128"/>
-      <c r="AG34" s="128"/>
-      <c r="AH34" s="128"/>
-      <c r="AI34" s="128"/>
-      <c r="AJ34" s="128"/>
-      <c r="AK34" s="128"/>
-      <c r="AL34" s="128"/>
-      <c r="AM34" s="128"/>
-      <c r="AN34" s="121"/>
-      <c r="AO34" s="121"/>
-      <c r="AP34" s="121"/>
-      <c r="AQ34" s="121"/>
-      <c r="AR34" s="121"/>
-      <c r="AS34" s="121"/>
-      <c r="AT34" s="121"/>
-      <c r="AU34" s="121"/>
-      <c r="AV34" s="121"/>
-      <c r="AW34" s="121"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="115"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="116"/>
+      <c r="P34" s="116"/>
+      <c r="Q34" s="116"/>
+      <c r="R34" s="116"/>
+      <c r="S34" s="111"/>
+      <c r="T34" s="111"/>
+      <c r="U34" s="111"/>
+      <c r="V34" s="117"/>
+      <c r="W34" s="117"/>
+      <c r="X34" s="117"/>
+      <c r="Y34" s="117"/>
+      <c r="Z34" s="117"/>
+      <c r="AA34" s="117"/>
+      <c r="AB34" s="117"/>
+      <c r="AC34" s="117"/>
+      <c r="AD34" s="117"/>
+      <c r="AE34" s="117"/>
+      <c r="AF34" s="117"/>
+      <c r="AG34" s="117"/>
+      <c r="AH34" s="117"/>
+      <c r="AI34" s="117"/>
+      <c r="AJ34" s="117"/>
+      <c r="AK34" s="117"/>
+      <c r="AL34" s="117"/>
+      <c r="AM34" s="117"/>
+      <c r="AN34" s="111"/>
+      <c r="AO34" s="111"/>
+      <c r="AP34" s="111"/>
+      <c r="AQ34" s="111"/>
+      <c r="AR34" s="111"/>
+      <c r="AS34" s="111"/>
+      <c r="AT34" s="111"/>
+      <c r="AU34" s="111"/>
+      <c r="AV34" s="111"/>
+      <c r="AW34" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -5869,239 +6103,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6111,7 +6112,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BN44"/>
@@ -6182,14 +6183,14 @@
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
-      <c r="AO1" s="145">
+      <c r="AO1" s="141">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
-      <c r="AP1" s="146"/>
-      <c r="AQ1" s="146"/>
-      <c r="AR1" s="146"/>
-      <c r="AS1" s="147"/>
+      <c r="AP1" s="142"/>
+      <c r="AQ1" s="142"/>
+      <c r="AR1" s="142"/>
+      <c r="AS1" s="143"/>
       <c r="AT1" s="33" t="s">
         <v>24</v>
       </c>
@@ -6198,17 +6199,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="142" t="str">
+      <c r="AZ1" s="136" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="BA1" s="143"/>
-      <c r="BB1" s="143"/>
-      <c r="BC1" s="143"/>
-      <c r="BD1" s="143"/>
-      <c r="BE1" s="143"/>
-      <c r="BF1" s="143"/>
-      <c r="BG1" s="144"/>
+      <c r="BA1" s="137"/>
+      <c r="BB1" s="137"/>
+      <c r="BC1" s="137"/>
+      <c r="BD1" s="137"/>
+      <c r="BE1" s="137"/>
+      <c r="BF1" s="137"/>
+      <c r="BG1" s="138"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -6233,14 +6234,14 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="36" t="s">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="S2" s="37"/>
       <c r="T2" s="37"/>
       <c r="U2" s="37"/>
       <c r="V2" s="38"/>
       <c r="W2" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X2" s="39"/>
       <c r="Y2" s="39"/>
@@ -6261,11 +6262,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="145"/>
-      <c r="AP2" s="146"/>
-      <c r="AQ2" s="146"/>
-      <c r="AR2" s="146"/>
-      <c r="AS2" s="147"/>
+      <c r="AO2" s="141"/>
+      <c r="AP2" s="142"/>
+      <c r="AQ2" s="142"/>
+      <c r="AR2" s="142"/>
+      <c r="AS2" s="143"/>
       <c r="AT2" s="33" t="s">
         <v>25</v>
       </c>
@@ -6274,14 +6275,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="142"/>
-      <c r="BA2" s="143"/>
-      <c r="BB2" s="143"/>
-      <c r="BC2" s="143"/>
-      <c r="BD2" s="143"/>
-      <c r="BE2" s="143"/>
-      <c r="BF2" s="143"/>
-      <c r="BG2" s="144"/>
+      <c r="AZ2" s="136"/>
+      <c r="BA2" s="137"/>
+      <c r="BB2" s="137"/>
+      <c r="BC2" s="137"/>
+      <c r="BD2" s="137"/>
+      <c r="BE2" s="137"/>
+      <c r="BF2" s="137"/>
+      <c r="BG2" s="138"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -6362,7 +6363,7 @@
     </row>
     <row r="8" spans="1:59" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="80"/>
       <c r="D8" s="80"/>
@@ -7133,7 +7134,7 @@
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
       <c r="Y30" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
@@ -7214,11 +7215,11 @@
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
       <c r="R32" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S32" s="9"/>
       <c r="AD32" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ32" s="11"/>
       <c r="AR32" s="11"/>
@@ -7298,7 +7299,7 @@
     </row>
     <row r="36" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="L36" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
@@ -7307,7 +7308,7 @@
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="AF36" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AQ36" s="11"/>
       <c r="AR36" s="11"/>
@@ -7500,10 +7501,10 @@
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A41" s="28"/>
-      <c r="B41" s="136" t="s">
+      <c r="B41" s="144" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="137"/>
+      <c r="C41" s="145"/>
       <c r="D41" s="88" t="s">
         <v>79</v>
       </c>
@@ -7586,10 +7587,10 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
-      <c r="B42" s="138">
+      <c r="B42" s="146">
         <v>1</v>
       </c>
-      <c r="C42" s="139"/>
+      <c r="C42" s="147"/>
       <c r="D42" s="93" t="s">
         <v>94</v>
       </c>
@@ -7600,7 +7601,7 @@
       <c r="I42" s="86"/>
       <c r="J42" s="87"/>
       <c r="K42" s="82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L42" s="86"/>
       <c r="M42" s="86"/>
@@ -7621,18 +7622,18 @@
       <c r="AB42" s="86"/>
       <c r="AC42" s="86"/>
       <c r="AD42" s="87"/>
-      <c r="AE42" s="140" t="s">
+      <c r="AE42" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="AF42" s="141"/>
-      <c r="AG42" s="140"/>
-      <c r="AH42" s="141"/>
-      <c r="AI42" s="140"/>
-      <c r="AJ42" s="141"/>
-      <c r="AK42" s="140"/>
-      <c r="AL42" s="141"/>
+      <c r="AF42" s="140"/>
+      <c r="AG42" s="139"/>
+      <c r="AH42" s="140"/>
+      <c r="AI42" s="139"/>
+      <c r="AJ42" s="140"/>
+      <c r="AK42" s="139"/>
+      <c r="AL42" s="140"/>
       <c r="AM42" s="83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AN42" s="84"/>
       <c r="AO42" s="84"/>
@@ -7664,12 +7665,12 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="138">
+      <c r="B43" s="146">
         <v>2</v>
       </c>
-      <c r="C43" s="139"/>
+      <c r="C43" s="147"/>
       <c r="D43" s="82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E43" s="86"/>
       <c r="F43" s="86"/>
@@ -7678,7 +7679,7 @@
       <c r="I43" s="86"/>
       <c r="J43" s="87"/>
       <c r="K43" s="82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L43" s="86"/>
       <c r="M43" s="86"/>
@@ -7699,18 +7700,18 @@
       <c r="AB43" s="86"/>
       <c r="AC43" s="86"/>
       <c r="AD43" s="87"/>
-      <c r="AE43" s="140" t="s">
+      <c r="AE43" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="AF43" s="141"/>
-      <c r="AG43" s="140"/>
-      <c r="AH43" s="141"/>
-      <c r="AI43" s="140"/>
-      <c r="AJ43" s="141"/>
-      <c r="AK43" s="140"/>
-      <c r="AL43" s="141"/>
+      <c r="AF43" s="140"/>
+      <c r="AG43" s="139"/>
+      <c r="AH43" s="140"/>
+      <c r="AI43" s="139"/>
+      <c r="AJ43" s="140"/>
+      <c r="AK43" s="139"/>
+      <c r="AL43" s="140"/>
       <c r="AM43" s="83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AN43" s="84"/>
       <c r="AO43" s="84"/>
@@ -7747,6 +7748,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AE43:AF43"/>
     <mergeCell ref="AZ1:BG1"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK43:AL43"/>
@@ -7757,11 +7763,6 @@
     <mergeCell ref="AI43:AJ43"/>
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AE43:AF43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7885,7 +7886,7 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="145">
+      <c r="CD1" s="141">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
@@ -7907,7 +7908,7 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="142" t="str">
+      <c r="CU1" s="136" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -7965,7 +7966,7 @@
       <c r="AG2" s="38"/>
       <c r="AH2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K21A</v>
+        <v>K-21A</v>
       </c>
       <c r="AI2" s="37"/>
       <c r="AJ2" s="37"/>
@@ -8038,7 +8039,7 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="142"/>
+      <c r="CU2" s="136"/>
       <c r="CV2" s="148"/>
       <c r="CW2" s="148"/>
       <c r="CX2" s="148"/>
@@ -8212,7 +8213,7 @@
       </c>
       <c r="F2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K21A</v>
+        <v>K-21A</v>
       </c>
       <c r="G2" s="36" t="str">
         <f>'１．機能概要'!W2</f>
@@ -8254,37 +8255,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="113" t="s">
+      <c r="D6" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="113" t="s">
+      <c r="E6" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="113" t="s">
+      <c r="F6" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="113" t="s">
+      <c r="G6" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="154" t="s">
+      <c r="I6" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="154" t="s">
+      <c r="J6" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="113" t="s">
+      <c r="K6" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="113" t="s">
+      <c r="L6" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="113" t="s">
+      <c r="M6" s="128" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="68" t="s">
@@ -8292,24 +8293,24 @@
       </c>
       <c r="O6" s="68"/>
       <c r="P6" s="68"/>
-      <c r="Q6" s="154" t="s">
+      <c r="Q6" s="156" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -8319,7 +8320,7 @@
       <c r="P7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="154"/>
+      <c r="Q7" s="156"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -8331,10 +8332,10 @@
         <v>47</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" s="107" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>37</v>
@@ -8381,37 +8382,37 @@
     <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="113" t="s">
+      <c r="C11" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="113" t="s">
+      <c r="G11" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="113" t="s">
+      <c r="H11" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="155" t="s">
+      <c r="I11" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="154" t="s">
+      <c r="J11" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="113" t="s">
+      <c r="K11" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="113" t="s">
+      <c r="L11" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="113" t="s">
+      <c r="M11" s="128" t="s">
         <v>32</v>
       </c>
       <c r="N11" s="68" t="s">
@@ -8419,24 +8420,24 @@
       </c>
       <c r="O11" s="68"/>
       <c r="P11" s="68"/>
-      <c r="Q11" s="155" t="s">
+      <c r="Q11" s="154" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="128"/>
       <c r="N12" s="42" t="s">
         <v>64</v>
       </c>
@@ -8446,7 +8447,7 @@
       <c r="P12" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="156"/>
+      <c r="Q12" s="155"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
@@ -8458,16 +8459,16 @@
         <v>96</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G13" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>34</v>
@@ -8476,7 +8477,7 @@
         <v>34</v>
       </c>
       <c r="K13" s="107" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>34</v>
@@ -8491,7 +8492,7 @@
         <v>34</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="8" t="s">
         <v>33</v>
@@ -8507,16 +8508,16 @@
         <v>97</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F14" s="107" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G14" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>34</v>
@@ -8540,7 +8541,7 @@
         <v>33</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q14" s="8" t="s">
         <v>33</v>
@@ -8565,37 +8566,37 @@
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="60"/>
-      <c r="C18" s="113" t="s">
+      <c r="C18" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="D18" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="113" t="s">
+      <c r="E18" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="113" t="s">
+      <c r="F18" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="113" t="s">
+      <c r="G18" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="113" t="s">
+      <c r="H18" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="154" t="s">
+      <c r="I18" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="154" t="s">
+      <c r="J18" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="113" t="s">
+      <c r="K18" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="113" t="s">
+      <c r="L18" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="113" t="s">
+      <c r="M18" s="128" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="68" t="s">
@@ -8603,24 +8604,24 @@
       </c>
       <c r="O18" s="68"/>
       <c r="P18" s="68"/>
-      <c r="Q18" s="154" t="s">
+      <c r="Q18" s="156" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="60"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="128"/>
       <c r="N19" s="42" t="s">
         <v>64</v>
       </c>
@@ -8630,7 +8631,7 @@
       <c r="P19" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q19" s="154"/>
+      <c r="Q19" s="156"/>
     </row>
     <row r="20" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="55"/>
@@ -8712,10 +8713,10 @@
         <v>49</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G22" s="43" t="s">
         <v>42</v>
@@ -8745,7 +8746,7 @@
         <v>33</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>34</v>
@@ -8761,10 +8762,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G23" s="43" t="s">
         <v>42</v>
@@ -8794,7 +8795,7 @@
         <v>33</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>34</v>
@@ -8810,10 +8811,10 @@
         <v>51</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G24" s="43" t="s">
         <v>42</v>
@@ -8828,7 +8829,7 @@
         <v>34</v>
       </c>
       <c r="K24" s="107" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>34</v>
@@ -8846,7 +8847,7 @@
         <v>34</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -8876,6 +8877,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="I18:I19"/>
@@ -8892,26 +8913,6 @@
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="M18:M19"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -8927,7 +8928,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AZ50"/>
@@ -8988,7 +8989,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="145">
+      <c r="AI1" s="141">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
@@ -9004,7 +9005,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="142" t="str">
+      <c r="AT1" s="136" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -9035,7 +9036,7 @@
       <c r="M2" s="38"/>
       <c r="N2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K21A</v>
+        <v>K-21A</v>
       </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
@@ -9075,7 +9076,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="142"/>
+      <c r="AT2" s="136"/>
       <c r="AU2" s="148"/>
       <c r="AV2" s="148"/>
       <c r="AW2" s="148"/>
@@ -9275,7 +9276,7 @@
       <c r="J8" s="21"/>
       <c r="K8" s="22"/>
       <c r="L8" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
@@ -9326,7 +9327,7 @@
       <c r="J9" s="23"/>
       <c r="K9" s="72"/>
       <c r="L9" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
@@ -9420,10 +9421,10 @@
       <c r="F11" s="72"/>
       <c r="G11" s="71"/>
       <c r="L11" s="71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M11" s="94" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N11" s="94"/>
       <c r="O11" s="94"/>
@@ -9463,7 +9464,7 @@
       <c r="G12" s="71"/>
       <c r="L12" s="71"/>
       <c r="M12" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N12" s="94"/>
       <c r="O12" s="94"/>
@@ -9503,7 +9504,7 @@
       <c r="L13" s="71"/>
       <c r="M13" s="94"/>
       <c r="N13" s="94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AL13" s="94"/>
       <c r="AM13" s="94"/>
@@ -9519,7 +9520,7 @@
       <c r="L14" s="71"/>
       <c r="M14" s="94"/>
       <c r="N14" s="94" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL14" s="94"/>
       <c r="AM14" s="94"/>
@@ -9535,7 +9536,7 @@
       <c r="L15" s="71"/>
       <c r="M15" s="94"/>
       <c r="N15" s="94" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AL15" s="94"/>
       <c r="AM15" s="94"/>
@@ -9551,7 +9552,7 @@
       <c r="L16" s="71"/>
       <c r="M16" s="94"/>
       <c r="N16" s="94" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AL16" s="94"/>
       <c r="AM16" s="94"/>
@@ -9567,7 +9568,7 @@
       <c r="L17" s="71"/>
       <c r="M17" s="94"/>
       <c r="N17" s="94" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL17" s="94"/>
       <c r="AM17" s="94"/>
@@ -9583,7 +9584,7 @@
       <c r="L18" s="71"/>
       <c r="M18" s="94"/>
       <c r="N18" s="94" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AL18" s="94"/>
       <c r="AM18" s="94"/>
@@ -9635,7 +9636,7 @@
       <c r="G20" s="71"/>
       <c r="L20" s="71"/>
       <c r="M20" s="94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N20" s="94"/>
       <c r="O20" s="94"/>
@@ -9674,7 +9675,7 @@
       <c r="G21" s="71"/>
       <c r="L21" s="71"/>
       <c r="N21" s="94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O21" s="94"/>
       <c r="P21" s="94"/>
@@ -9752,7 +9753,7 @@
       <c r="G23" s="71"/>
       <c r="K23" s="72"/>
       <c r="L23" s="106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M23" s="105"/>
       <c r="N23" s="105"/>
@@ -9794,7 +9795,7 @@
       <c r="G24" s="71"/>
       <c r="K24" s="72"/>
       <c r="M24" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N24" s="94"/>
       <c r="O24" s="94"/>
@@ -9815,7 +9816,7 @@
       <c r="G25" s="71"/>
       <c r="K25" s="72"/>
       <c r="N25" s="94" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O25" s="94"/>
       <c r="P25" s="94"/>
@@ -9835,7 +9836,7 @@
       <c r="G26" s="71"/>
       <c r="K26" s="72"/>
       <c r="N26" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O26" s="94"/>
       <c r="P26" s="94"/>
@@ -9855,7 +9856,7 @@
       <c r="G27" s="71"/>
       <c r="K27" s="72"/>
       <c r="N27" s="94" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O27" s="94"/>
       <c r="P27" s="94"/>
@@ -9893,7 +9894,7 @@
       <c r="G29" s="71"/>
       <c r="K29" s="72"/>
       <c r="M29" s="94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N29" s="94"/>
       <c r="O29" s="94"/>
@@ -9914,7 +9915,7 @@
       <c r="G30" s="71"/>
       <c r="K30" s="72"/>
       <c r="N30" s="94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O30" s="94"/>
       <c r="P30" s="94"/>
@@ -9934,7 +9935,7 @@
       <c r="G31" s="71"/>
       <c r="K31" s="72"/>
       <c r="N31" s="94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O31" s="94"/>
       <c r="P31" s="94"/>
@@ -9955,7 +9956,7 @@
       <c r="K32" s="72"/>
       <c r="N32" s="94"/>
       <c r="O32" s="94" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P32" s="94"/>
       <c r="Q32" s="94"/>
@@ -9969,7 +9970,7 @@
         <v>98</v>
       </c>
       <c r="Y32" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AV32" s="72"/>
     </row>
@@ -10018,7 +10019,7 @@
       <c r="K34" s="72"/>
       <c r="L34" s="23"/>
       <c r="M34" s="94" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N34" s="94"/>
       <c r="O34" s="94"/>
@@ -10063,7 +10064,7 @@
       <c r="G35" s="71"/>
       <c r="K35" s="72"/>
       <c r="N35" s="94" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O35" s="94"/>
       <c r="P35" s="94"/>
@@ -10077,7 +10078,7 @@
         <v>98</v>
       </c>
       <c r="Y35" s="102" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Z35" s="94"/>
       <c r="AA35" s="94"/>
@@ -10091,7 +10092,7 @@
       <c r="G36" s="71"/>
       <c r="K36" s="72"/>
       <c r="N36" s="94" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O36" s="94"/>
       <c r="P36" s="94"/>
@@ -10105,7 +10106,7 @@
         <v>98</v>
       </c>
       <c r="Y36" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z36" s="94"/>
       <c r="AA36" s="94"/>
@@ -10120,7 +10121,7 @@
       <c r="K37" s="72"/>
       <c r="L37" s="101"/>
       <c r="N37" s="94" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O37" s="94"/>
       <c r="P37" s="94"/>
@@ -10135,7 +10136,7 @@
         <v>98</v>
       </c>
       <c r="Y37" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AA37" s="94"/>
       <c r="AB37" s="94"/>
@@ -10159,7 +10160,7 @@
       <c r="K38" s="72"/>
       <c r="L38" s="23"/>
       <c r="N38" s="94" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O38" s="94"/>
       <c r="P38" s="94"/>
@@ -10173,7 +10174,7 @@
         <v>98</v>
       </c>
       <c r="Y38" s="94" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Z38" s="94"/>
       <c r="AA38" s="94"/>
@@ -10184,7 +10185,7 @@
       <c r="AG38" s="23"/>
       <c r="AH38" s="23"/>
       <c r="AI38" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ38" s="23"/>
       <c r="AK38" s="23"/>
@@ -10213,7 +10214,7 @@
       <c r="K39" s="72"/>
       <c r="L39" s="23"/>
       <c r="N39" s="94" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O39" s="94"/>
       <c r="P39" s="94"/>
@@ -10227,7 +10228,7 @@
         <v>98</v>
       </c>
       <c r="Y39" s="94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z39" s="94"/>
       <c r="AA39" s="94"/>
@@ -10238,7 +10239,7 @@
       <c r="AG39" s="23"/>
       <c r="AH39" s="23"/>
       <c r="AI39" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ39" s="23"/>
       <c r="AK39" s="23"/>
@@ -10294,7 +10295,7 @@
       <c r="G41" s="71"/>
       <c r="L41" s="71"/>
       <c r="M41" s="94" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM41" s="94"/>
       <c r="AN41" s="94"/>
@@ -10309,7 +10310,7 @@
       <c r="G42" s="71"/>
       <c r="L42" s="71"/>
       <c r="N42" s="94" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM42" s="94"/>
       <c r="AN42" s="94"/>
@@ -10324,7 +10325,7 @@
       <c r="G43" s="71"/>
       <c r="L43" s="71"/>
       <c r="N43" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AM43" s="94"/>
       <c r="AN43" s="94"/>
@@ -10413,7 +10414,7 @@
       <c r="K46" s="72"/>
       <c r="L46" s="23"/>
       <c r="N46" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AD46" s="23"/>
       <c r="AE46" s="23"/>
@@ -10489,20 +10490,20 @@
         <v>2</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
       <c r="F48" s="22"/>
       <c r="G48" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
       <c r="K48" s="22"/>
       <c r="L48" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M48" s="21"/>
       <c r="N48" s="21"/>
@@ -10660,7 +10661,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AZ10"/>
@@ -10721,7 +10722,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="145">
+      <c r="AI1" s="141">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
@@ -10737,7 +10738,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="142" t="str">
+      <c r="AT1" s="136" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -10768,7 +10769,7 @@
       <c r="M2" s="38"/>
       <c r="N2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K21A</v>
+        <v>K-21A</v>
       </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
@@ -10808,7 +10809,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="142"/>
+      <c r="AT2" s="136"/>
       <c r="AU2" s="148"/>
       <c r="AV2" s="148"/>
       <c r="AW2" s="148"/>
@@ -11157,7 +11158,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="74"/>
       <c r="E9" s="74"/>
@@ -11275,7 +11276,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AZ8"/>
@@ -11336,7 +11337,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="145">
+      <c r="AI1" s="141">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
@@ -11352,7 +11353,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="142" t="str">
+      <c r="AT1" s="136" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
@@ -11383,7 +11384,7 @@
       <c r="M2" s="38"/>
       <c r="N2" s="36" t="str">
         <f>'１．機能概要'!R2</f>
-        <v>SC-K21A</v>
+        <v>K-21A</v>
       </c>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
@@ -11423,7 +11424,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="142"/>
+      <c r="AT2" s="136"/>
       <c r="AU2" s="148"/>
       <c r="AV2" s="148"/>
       <c r="AW2" s="148"/>
@@ -11598,7 +11599,7 @@
     <row r="6" spans="1:52" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A6" s="67"/>
       <c r="B6" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="53"/>
@@ -11743,6 +11744,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -11900,22 +11916,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11931,21 +11949,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K21A_工程別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21A_工程別集計.xlsx
@@ -6,12 +6,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\test\11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E07D442-7585-460B-BC1B-09D2FB8E13A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFEA7BB-B0F3-44CD-BD5F-C081C71A8F9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -1752,7 +1752,7 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
@@ -1895,12 +1895,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -1919,9 +1913,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1976,9 +1967,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2066,6 +2054,36 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2078,63 +2096,51 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2146,12 +2152,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2161,18 +2161,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2191,13 +2179,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3868,108 +3856,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="108" t="s">
+      <c r="A32" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="108"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="108"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="108"/>
-      <c r="R32" s="108"/>
-      <c r="S32" s="108"/>
-      <c r="T32" s="108"/>
-      <c r="U32" s="108"/>
-      <c r="V32" s="108"/>
-      <c r="W32" s="108"/>
-      <c r="X32" s="108"/>
-      <c r="Y32" s="108"/>
-      <c r="Z32" s="108"/>
-      <c r="AA32" s="108"/>
-      <c r="AB32" s="108"/>
-      <c r="AC32" s="108"/>
-      <c r="AD32" s="108"/>
-      <c r="AE32" s="108"/>
-      <c r="AF32" s="108"/>
-      <c r="AG32" s="108"/>
-      <c r="AH32" s="108"/>
-      <c r="AI32" s="108"/>
-      <c r="AJ32" s="108"/>
-      <c r="AK32" s="108"/>
-      <c r="AL32" s="108"/>
-      <c r="AM32" s="108"/>
-      <c r="AN32" s="108"/>
-      <c r="AO32" s="108"/>
-      <c r="AP32" s="108"/>
-      <c r="AQ32" s="108"/>
-      <c r="AR32" s="108"/>
-      <c r="AS32" s="108"/>
-      <c r="AT32" s="108"/>
-      <c r="AU32" s="108"/>
-      <c r="AV32" s="108"/>
-      <c r="AW32" s="108"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="104"/>
+      <c r="M32" s="104"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="104"/>
+      <c r="P32" s="104"/>
+      <c r="Q32" s="104"/>
+      <c r="R32" s="104"/>
+      <c r="S32" s="104"/>
+      <c r="T32" s="104"/>
+      <c r="U32" s="104"/>
+      <c r="V32" s="104"/>
+      <c r="W32" s="104"/>
+      <c r="X32" s="104"/>
+      <c r="Y32" s="104"/>
+      <c r="Z32" s="104"/>
+      <c r="AA32" s="104"/>
+      <c r="AB32" s="104"/>
+      <c r="AC32" s="104"/>
+      <c r="AD32" s="104"/>
+      <c r="AE32" s="104"/>
+      <c r="AF32" s="104"/>
+      <c r="AG32" s="104"/>
+      <c r="AH32" s="104"/>
+      <c r="AI32" s="104"/>
+      <c r="AJ32" s="104"/>
+      <c r="AK32" s="104"/>
+      <c r="AL32" s="104"/>
+      <c r="AM32" s="104"/>
+      <c r="AN32" s="104"/>
+      <c r="AO32" s="104"/>
+      <c r="AP32" s="104"/>
+      <c r="AQ32" s="104"/>
+      <c r="AR32" s="104"/>
+      <c r="AS32" s="104"/>
+      <c r="AT32" s="104"/>
+      <c r="AU32" s="104"/>
+      <c r="AV32" s="104"/>
+      <c r="AW32" s="104"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="109"/>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="109"/>
-      <c r="N33" s="109"/>
-      <c r="O33" s="109"/>
-      <c r="P33" s="109"/>
-      <c r="Q33" s="109"/>
-      <c r="R33" s="109"/>
-      <c r="S33" s="109"/>
-      <c r="T33" s="109"/>
-      <c r="U33" s="109"/>
-      <c r="V33" s="109"/>
-      <c r="W33" s="109"/>
-      <c r="X33" s="109"/>
-      <c r="Y33" s="109"/>
-      <c r="Z33" s="109"/>
-      <c r="AA33" s="109"/>
-      <c r="AB33" s="109"/>
-      <c r="AC33" s="109"/>
-      <c r="AD33" s="109"/>
-      <c r="AE33" s="109"/>
-      <c r="AF33" s="109"/>
-      <c r="AG33" s="109"/>
-      <c r="AH33" s="109"/>
-      <c r="AI33" s="109"/>
-      <c r="AJ33" s="109"/>
-      <c r="AK33" s="109"/>
-      <c r="AL33" s="109"/>
-      <c r="AM33" s="109"/>
-      <c r="AN33" s="109"/>
-      <c r="AO33" s="109"/>
-      <c r="AP33" s="109"/>
-      <c r="AQ33" s="109"/>
-      <c r="AR33" s="109"/>
-      <c r="AS33" s="109"/>
-      <c r="AT33" s="109"/>
-      <c r="AU33" s="109"/>
-      <c r="AV33" s="109"/>
-      <c r="AW33" s="109"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="105"/>
+      <c r="O33" s="105"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="105"/>
+      <c r="S33" s="105"/>
+      <c r="T33" s="105"/>
+      <c r="U33" s="105"/>
+      <c r="V33" s="105"/>
+      <c r="W33" s="105"/>
+      <c r="X33" s="105"/>
+      <c r="Y33" s="105"/>
+      <c r="Z33" s="105"/>
+      <c r="AA33" s="105"/>
+      <c r="AB33" s="105"/>
+      <c r="AC33" s="105"/>
+      <c r="AD33" s="105"/>
+      <c r="AE33" s="105"/>
+      <c r="AF33" s="105"/>
+      <c r="AG33" s="105"/>
+      <c r="AH33" s="105"/>
+      <c r="AI33" s="105"/>
+      <c r="AJ33" s="105"/>
+      <c r="AK33" s="105"/>
+      <c r="AL33" s="105"/>
+      <c r="AM33" s="105"/>
+      <c r="AN33" s="105"/>
+      <c r="AO33" s="105"/>
+      <c r="AP33" s="105"/>
+      <c r="AQ33" s="105"/>
+      <c r="AR33" s="105"/>
+      <c r="AS33" s="105"/>
+      <c r="AT33" s="105"/>
+      <c r="AU33" s="105"/>
+      <c r="AV33" s="105"/>
+      <c r="AW33" s="105"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -4007,55 +3995,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="110"/>
-      <c r="B35" s="110"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="110"/>
-      <c r="N35" s="110"/>
-      <c r="O35" s="110"/>
-      <c r="P35" s="110"/>
-      <c r="Q35" s="110"/>
-      <c r="R35" s="110"/>
-      <c r="S35" s="110"/>
-      <c r="T35" s="110"/>
-      <c r="U35" s="110"/>
-      <c r="V35" s="110"/>
-      <c r="W35" s="110"/>
-      <c r="X35" s="110"/>
-      <c r="Y35" s="110"/>
-      <c r="Z35" s="110"/>
-      <c r="AA35" s="110"/>
-      <c r="AB35" s="110"/>
-      <c r="AC35" s="110"/>
-      <c r="AD35" s="110"/>
-      <c r="AE35" s="110"/>
-      <c r="AF35" s="110"/>
-      <c r="AG35" s="110"/>
-      <c r="AH35" s="110"/>
-      <c r="AI35" s="110"/>
-      <c r="AJ35" s="110"/>
-      <c r="AK35" s="110"/>
-      <c r="AL35" s="110"/>
-      <c r="AM35" s="110"/>
-      <c r="AN35" s="110"/>
-      <c r="AO35" s="110"/>
-      <c r="AP35" s="110"/>
-      <c r="AQ35" s="110"/>
-      <c r="AR35" s="110"/>
-      <c r="AS35" s="110"/>
-      <c r="AT35" s="110"/>
-      <c r="AU35" s="110"/>
-      <c r="AV35" s="110"/>
-      <c r="AW35" s="110"/>
+      <c r="A35" s="106"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
+      <c r="L35" s="106"/>
+      <c r="M35" s="106"/>
+      <c r="N35" s="106"/>
+      <c r="O35" s="106"/>
+      <c r="P35" s="106"/>
+      <c r="Q35" s="106"/>
+      <c r="R35" s="106"/>
+      <c r="S35" s="106"/>
+      <c r="T35" s="106"/>
+      <c r="U35" s="106"/>
+      <c r="V35" s="106"/>
+      <c r="W35" s="106"/>
+      <c r="X35" s="106"/>
+      <c r="Y35" s="106"/>
+      <c r="Z35" s="106"/>
+      <c r="AA35" s="106"/>
+      <c r="AB35" s="106"/>
+      <c r="AC35" s="106"/>
+      <c r="AD35" s="106"/>
+      <c r="AE35" s="106"/>
+      <c r="AF35" s="106"/>
+      <c r="AG35" s="106"/>
+      <c r="AH35" s="106"/>
+      <c r="AI35" s="106"/>
+      <c r="AJ35" s="106"/>
+      <c r="AK35" s="106"/>
+      <c r="AL35" s="106"/>
+      <c r="AM35" s="106"/>
+      <c r="AN35" s="106"/>
+      <c r="AO35" s="106"/>
+      <c r="AP35" s="106"/>
+      <c r="AQ35" s="106"/>
+      <c r="AR35" s="106"/>
+      <c r="AS35" s="106"/>
+      <c r="AT35" s="106"/>
+      <c r="AU35" s="106"/>
+      <c r="AV35" s="106"/>
+      <c r="AW35" s="106"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -4085,1784 +4073,1999 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="57"/>
+    <col min="1" max="16384" width="2.625" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="56"/>
-      <c r="B1" s="126" t="s">
+      <c r="A1" s="54"/>
+      <c r="B1" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
-      <c r="AA1" s="126"/>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="126"/>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="126"/>
-      <c r="AG1" s="126"/>
-      <c r="AH1" s="126"/>
-      <c r="AI1" s="126"/>
-      <c r="AJ1" s="126"/>
-      <c r="AK1" s="126"/>
-      <c r="AL1" s="126"/>
-      <c r="AM1" s="126"/>
-      <c r="AN1" s="126"/>
-      <c r="AO1" s="126"/>
-      <c r="AP1" s="126"/>
-      <c r="AQ1" s="126"/>
-      <c r="AR1" s="126"/>
-      <c r="AS1" s="126"/>
-      <c r="AT1" s="126"/>
-      <c r="AU1" s="126"/>
-      <c r="AV1" s="126"/>
-      <c r="AW1" s="126"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="107"/>
+      <c r="AH1" s="107"/>
+      <c r="AI1" s="107"/>
+      <c r="AJ1" s="107"/>
+      <c r="AK1" s="107"/>
+      <c r="AL1" s="107"/>
+      <c r="AM1" s="107"/>
+      <c r="AN1" s="107"/>
+      <c r="AO1" s="107"/>
+      <c r="AP1" s="107"/>
+      <c r="AQ1" s="107"/>
+      <c r="AR1" s="107"/>
+      <c r="AS1" s="107"/>
+      <c r="AT1" s="107"/>
+      <c r="AU1" s="107"/>
+      <c r="AV1" s="107"/>
+      <c r="AW1" s="107"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="127"/>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="127"/>
-      <c r="AD2" s="127"/>
-      <c r="AE2" s="127"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="127"/>
-      <c r="AH2" s="127"/>
-      <c r="AI2" s="127"/>
-      <c r="AJ2" s="127"/>
-      <c r="AK2" s="127"/>
-      <c r="AL2" s="127"/>
-      <c r="AM2" s="127"/>
-      <c r="AN2" s="127"/>
-      <c r="AO2" s="127"/>
-      <c r="AP2" s="127"/>
-      <c r="AQ2" s="127"/>
-      <c r="AR2" s="127"/>
-      <c r="AS2" s="127"/>
-      <c r="AT2" s="127"/>
-      <c r="AU2" s="127"/>
-      <c r="AV2" s="127"/>
-      <c r="AW2" s="127"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="108"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="108"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="108"/>
+      <c r="AJ2" s="108"/>
+      <c r="AK2" s="108"/>
+      <c r="AL2" s="108"/>
+      <c r="AM2" s="108"/>
+      <c r="AN2" s="108"/>
+      <c r="AO2" s="108"/>
+      <c r="AP2" s="108"/>
+      <c r="AQ2" s="108"/>
+      <c r="AR2" s="108"/>
+      <c r="AS2" s="108"/>
+      <c r="AT2" s="108"/>
+      <c r="AU2" s="108"/>
+      <c r="AV2" s="108"/>
+      <c r="AW2" s="108"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="128" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128" t="s">
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="130" t="s">
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="131"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="130" t="s">
+      <c r="K3" s="112"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="132"/>
-      <c r="S3" s="128" t="s">
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="128"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128" t="s">
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="128"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="128"/>
-      <c r="AF3" s="128"/>
-      <c r="AG3" s="128"/>
-      <c r="AH3" s="128"/>
-      <c r="AI3" s="128"/>
-      <c r="AJ3" s="128"/>
-      <c r="AK3" s="128"/>
-      <c r="AL3" s="128"/>
-      <c r="AM3" s="128"/>
-      <c r="AN3" s="128" t="s">
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="109"/>
+      <c r="AL3" s="109"/>
+      <c r="AM3" s="109"/>
+      <c r="AN3" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="128"/>
-      <c r="AP3" s="128"/>
-      <c r="AQ3" s="128"/>
-      <c r="AR3" s="128"/>
-      <c r="AS3" s="128" t="s">
+      <c r="AO3" s="109"/>
+      <c r="AP3" s="109"/>
+      <c r="AQ3" s="109"/>
+      <c r="AR3" s="109"/>
+      <c r="AS3" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="128"/>
-      <c r="AU3" s="128"/>
-      <c r="AV3" s="128"/>
-      <c r="AW3" s="128"/>
+      <c r="AT3" s="109"/>
+      <c r="AU3" s="109"/>
+      <c r="AV3" s="109"/>
+      <c r="AW3" s="109"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="134"/>
-      <c r="R4" s="135"/>
-      <c r="S4" s="129"/>
-      <c r="T4" s="129"/>
-      <c r="U4" s="129"/>
-      <c r="V4" s="129"/>
-      <c r="W4" s="129"/>
-      <c r="X4" s="129"/>
-      <c r="Y4" s="129"/>
-      <c r="Z4" s="129"/>
-      <c r="AA4" s="129"/>
-      <c r="AB4" s="129"/>
-      <c r="AC4" s="129"/>
-      <c r="AD4" s="129"/>
-      <c r="AE4" s="129"/>
-      <c r="AF4" s="129"/>
-      <c r="AG4" s="129"/>
-      <c r="AH4" s="129"/>
-      <c r="AI4" s="129"/>
-      <c r="AJ4" s="129"/>
-      <c r="AK4" s="129"/>
-      <c r="AL4" s="129"/>
-      <c r="AM4" s="129"/>
-      <c r="AN4" s="129"/>
-      <c r="AO4" s="129"/>
-      <c r="AP4" s="129"/>
-      <c r="AQ4" s="129"/>
-      <c r="AR4" s="129"/>
-      <c r="AS4" s="129"/>
-      <c r="AT4" s="129"/>
-      <c r="AU4" s="129"/>
-      <c r="AV4" s="129"/>
-      <c r="AW4" s="129"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="110"/>
+      <c r="Z4" s="110"/>
+      <c r="AA4" s="110"/>
+      <c r="AB4" s="110"/>
+      <c r="AC4" s="110"/>
+      <c r="AD4" s="110"/>
+      <c r="AE4" s="110"/>
+      <c r="AF4" s="110"/>
+      <c r="AG4" s="110"/>
+      <c r="AH4" s="110"/>
+      <c r="AI4" s="110"/>
+      <c r="AJ4" s="110"/>
+      <c r="AK4" s="110"/>
+      <c r="AL4" s="110"/>
+      <c r="AM4" s="110"/>
+      <c r="AN4" s="110"/>
+      <c r="AO4" s="110"/>
+      <c r="AP4" s="110"/>
+      <c r="AQ4" s="110"/>
+      <c r="AR4" s="110"/>
+      <c r="AS4" s="110"/>
+      <c r="AT4" s="110"/>
+      <c r="AU4" s="110"/>
+      <c r="AV4" s="110"/>
+      <c r="AW4" s="110"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="112">
+      <c r="A5" s="56"/>
+      <c r="B5" s="118">
         <v>1</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113">
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="119">
         <v>43721</v>
       </c>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114" t="s">
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114" t="s">
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="111" t="s">
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="111"/>
-      <c r="U5" s="111"/>
-      <c r="V5" s="123" t="s">
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="123"/>
-      <c r="X5" s="123"/>
-      <c r="Y5" s="123"/>
-      <c r="Z5" s="123"/>
-      <c r="AA5" s="123"/>
-      <c r="AB5" s="123"/>
-      <c r="AC5" s="123"/>
-      <c r="AD5" s="123"/>
-      <c r="AE5" s="123"/>
-      <c r="AF5" s="123"/>
-      <c r="AG5" s="123"/>
-      <c r="AH5" s="123"/>
-      <c r="AI5" s="123"/>
-      <c r="AJ5" s="123"/>
-      <c r="AK5" s="123"/>
-      <c r="AL5" s="123"/>
-      <c r="AM5" s="123"/>
-      <c r="AN5" s="111" t="s">
+      <c r="W5" s="122"/>
+      <c r="X5" s="122"/>
+      <c r="Y5" s="122"/>
+      <c r="Z5" s="122"/>
+      <c r="AA5" s="122"/>
+      <c r="AB5" s="122"/>
+      <c r="AC5" s="122"/>
+      <c r="AD5" s="122"/>
+      <c r="AE5" s="122"/>
+      <c r="AF5" s="122"/>
+      <c r="AG5" s="122"/>
+      <c r="AH5" s="122"/>
+      <c r="AI5" s="122"/>
+      <c r="AJ5" s="122"/>
+      <c r="AK5" s="122"/>
+      <c r="AL5" s="122"/>
+      <c r="AM5" s="122"/>
+      <c r="AN5" s="117" t="s">
         <v>102</v>
       </c>
-      <c r="AO5" s="111"/>
-      <c r="AP5" s="111"/>
-      <c r="AQ5" s="111"/>
-      <c r="AR5" s="111"/>
-      <c r="AS5" s="111"/>
-      <c r="AT5" s="111"/>
-      <c r="AU5" s="111"/>
-      <c r="AV5" s="111"/>
-      <c r="AW5" s="111"/>
+      <c r="AO5" s="117"/>
+      <c r="AP5" s="117"/>
+      <c r="AQ5" s="117"/>
+      <c r="AR5" s="117"/>
+      <c r="AS5" s="117"/>
+      <c r="AT5" s="117"/>
+      <c r="AU5" s="117"/>
+      <c r="AV5" s="117"/>
+      <c r="AW5" s="117"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="123"/>
-      <c r="AA6" s="123"/>
-      <c r="AB6" s="123"/>
-      <c r="AC6" s="123"/>
-      <c r="AD6" s="123"/>
-      <c r="AE6" s="123"/>
-      <c r="AF6" s="123"/>
-      <c r="AG6" s="123"/>
-      <c r="AH6" s="123"/>
-      <c r="AI6" s="123"/>
-      <c r="AJ6" s="123"/>
-      <c r="AK6" s="123"/>
-      <c r="AL6" s="123"/>
-      <c r="AM6" s="123"/>
-      <c r="AN6" s="111"/>
-      <c r="AO6" s="111"/>
-      <c r="AP6" s="111"/>
-      <c r="AQ6" s="111"/>
-      <c r="AR6" s="111"/>
-      <c r="AS6" s="111"/>
-      <c r="AT6" s="111"/>
-      <c r="AU6" s="111"/>
-      <c r="AV6" s="111"/>
-      <c r="AW6" s="111"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="117"/>
+      <c r="T6" s="117"/>
+      <c r="U6" s="117"/>
+      <c r="V6" s="122"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="122"/>
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="122"/>
+      <c r="AA6" s="122"/>
+      <c r="AB6" s="122"/>
+      <c r="AC6" s="122"/>
+      <c r="AD6" s="122"/>
+      <c r="AE6" s="122"/>
+      <c r="AF6" s="122"/>
+      <c r="AG6" s="122"/>
+      <c r="AH6" s="122"/>
+      <c r="AI6" s="122"/>
+      <c r="AJ6" s="122"/>
+      <c r="AK6" s="122"/>
+      <c r="AL6" s="122"/>
+      <c r="AM6" s="122"/>
+      <c r="AN6" s="117"/>
+      <c r="AO6" s="117"/>
+      <c r="AP6" s="117"/>
+      <c r="AQ6" s="117"/>
+      <c r="AR6" s="117"/>
+      <c r="AS6" s="117"/>
+      <c r="AT6" s="117"/>
+      <c r="AU6" s="117"/>
+      <c r="AV6" s="117"/>
+      <c r="AW6" s="117"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="125"/>
-      <c r="R7" s="125"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="111"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
-      <c r="X7" s="123"/>
-      <c r="Y7" s="123"/>
-      <c r="Z7" s="123"/>
-      <c r="AA7" s="123"/>
-      <c r="AB7" s="123"/>
-      <c r="AC7" s="123"/>
-      <c r="AD7" s="123"/>
-      <c r="AE7" s="123"/>
-      <c r="AF7" s="123"/>
-      <c r="AG7" s="123"/>
-      <c r="AH7" s="123"/>
-      <c r="AI7" s="123"/>
-      <c r="AJ7" s="123"/>
-      <c r="AK7" s="123"/>
-      <c r="AL7" s="123"/>
-      <c r="AM7" s="123"/>
-      <c r="AN7" s="111"/>
-      <c r="AO7" s="111"/>
-      <c r="AP7" s="111"/>
-      <c r="AQ7" s="111"/>
-      <c r="AR7" s="111"/>
-      <c r="AS7" s="111"/>
-      <c r="AT7" s="111"/>
-      <c r="AU7" s="111"/>
-      <c r="AV7" s="111"/>
-      <c r="AW7" s="111"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="122"/>
+      <c r="W7" s="122"/>
+      <c r="X7" s="122"/>
+      <c r="Y7" s="122"/>
+      <c r="Z7" s="122"/>
+      <c r="AA7" s="122"/>
+      <c r="AB7" s="122"/>
+      <c r="AC7" s="122"/>
+      <c r="AD7" s="122"/>
+      <c r="AE7" s="122"/>
+      <c r="AF7" s="122"/>
+      <c r="AG7" s="122"/>
+      <c r="AH7" s="122"/>
+      <c r="AI7" s="122"/>
+      <c r="AJ7" s="122"/>
+      <c r="AK7" s="122"/>
+      <c r="AL7" s="122"/>
+      <c r="AM7" s="122"/>
+      <c r="AN7" s="117"/>
+      <c r="AO7" s="117"/>
+      <c r="AP7" s="117"/>
+      <c r="AQ7" s="117"/>
+      <c r="AR7" s="117"/>
+      <c r="AS7" s="117"/>
+      <c r="AT7" s="117"/>
+      <c r="AU7" s="117"/>
+      <c r="AV7" s="117"/>
+      <c r="AW7" s="117"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="125"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="111"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="123"/>
-      <c r="W8" s="123"/>
-      <c r="X8" s="123"/>
-      <c r="Y8" s="123"/>
-      <c r="Z8" s="123"/>
-      <c r="AA8" s="123"/>
-      <c r="AB8" s="123"/>
-      <c r="AC8" s="123"/>
-      <c r="AD8" s="123"/>
-      <c r="AE8" s="123"/>
-      <c r="AF8" s="123"/>
-      <c r="AG8" s="123"/>
-      <c r="AH8" s="123"/>
-      <c r="AI8" s="123"/>
-      <c r="AJ8" s="123"/>
-      <c r="AK8" s="123"/>
-      <c r="AL8" s="123"/>
-      <c r="AM8" s="123"/>
-      <c r="AN8" s="111"/>
-      <c r="AO8" s="111"/>
-      <c r="AP8" s="111"/>
-      <c r="AQ8" s="111"/>
-      <c r="AR8" s="111"/>
-      <c r="AS8" s="111"/>
-      <c r="AT8" s="111"/>
-      <c r="AU8" s="111"/>
-      <c r="AV8" s="111"/>
-      <c r="AW8" s="111"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="121"/>
+      <c r="R8" s="121"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="122"/>
+      <c r="W8" s="122"/>
+      <c r="X8" s="122"/>
+      <c r="Y8" s="122"/>
+      <c r="Z8" s="122"/>
+      <c r="AA8" s="122"/>
+      <c r="AB8" s="122"/>
+      <c r="AC8" s="122"/>
+      <c r="AD8" s="122"/>
+      <c r="AE8" s="122"/>
+      <c r="AF8" s="122"/>
+      <c r="AG8" s="122"/>
+      <c r="AH8" s="122"/>
+      <c r="AI8" s="122"/>
+      <c r="AJ8" s="122"/>
+      <c r="AK8" s="122"/>
+      <c r="AL8" s="122"/>
+      <c r="AM8" s="122"/>
+      <c r="AN8" s="117"/>
+      <c r="AO8" s="117"/>
+      <c r="AP8" s="117"/>
+      <c r="AQ8" s="117"/>
+      <c r="AR8" s="117"/>
+      <c r="AS8" s="117"/>
+      <c r="AT8" s="117"/>
+      <c r="AU8" s="117"/>
+      <c r="AV8" s="117"/>
+      <c r="AW8" s="117"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="125"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="111"/>
-      <c r="U9" s="111"/>
-      <c r="V9" s="123"/>
-      <c r="W9" s="123"/>
-      <c r="X9" s="123"/>
-      <c r="Y9" s="123"/>
-      <c r="Z9" s="123"/>
-      <c r="AA9" s="123"/>
-      <c r="AB9" s="123"/>
-      <c r="AC9" s="123"/>
-      <c r="AD9" s="123"/>
-      <c r="AE9" s="123"/>
-      <c r="AF9" s="123"/>
-      <c r="AG9" s="123"/>
-      <c r="AH9" s="123"/>
-      <c r="AI9" s="123"/>
-      <c r="AJ9" s="123"/>
-      <c r="AK9" s="123"/>
-      <c r="AL9" s="123"/>
-      <c r="AM9" s="123"/>
-      <c r="AN9" s="111"/>
-      <c r="AO9" s="111"/>
-      <c r="AP9" s="111"/>
-      <c r="AQ9" s="111"/>
-      <c r="AR9" s="111"/>
-      <c r="AS9" s="111"/>
-      <c r="AT9" s="111"/>
-      <c r="AU9" s="111"/>
-      <c r="AV9" s="111"/>
-      <c r="AW9" s="111"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="117"/>
+      <c r="V9" s="122"/>
+      <c r="W9" s="122"/>
+      <c r="X9" s="122"/>
+      <c r="Y9" s="122"/>
+      <c r="Z9" s="122"/>
+      <c r="AA9" s="122"/>
+      <c r="AB9" s="122"/>
+      <c r="AC9" s="122"/>
+      <c r="AD9" s="122"/>
+      <c r="AE9" s="122"/>
+      <c r="AF9" s="122"/>
+      <c r="AG9" s="122"/>
+      <c r="AH9" s="122"/>
+      <c r="AI9" s="122"/>
+      <c r="AJ9" s="122"/>
+      <c r="AK9" s="122"/>
+      <c r="AL9" s="122"/>
+      <c r="AM9" s="122"/>
+      <c r="AN9" s="117"/>
+      <c r="AO9" s="117"/>
+      <c r="AP9" s="117"/>
+      <c r="AQ9" s="117"/>
+      <c r="AR9" s="117"/>
+      <c r="AS9" s="117"/>
+      <c r="AT9" s="117"/>
+      <c r="AU9" s="117"/>
+      <c r="AV9" s="117"/>
+      <c r="AW9" s="117"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="111"/>
-      <c r="V10" s="123"/>
-      <c r="W10" s="123"/>
-      <c r="X10" s="123"/>
-      <c r="Y10" s="123"/>
-      <c r="Z10" s="123"/>
-      <c r="AA10" s="123"/>
-      <c r="AB10" s="123"/>
-      <c r="AC10" s="123"/>
-      <c r="AD10" s="123"/>
-      <c r="AE10" s="123"/>
-      <c r="AF10" s="123"/>
-      <c r="AG10" s="123"/>
-      <c r="AH10" s="123"/>
-      <c r="AI10" s="123"/>
-      <c r="AJ10" s="123"/>
-      <c r="AK10" s="123"/>
-      <c r="AL10" s="123"/>
-      <c r="AM10" s="123"/>
-      <c r="AN10" s="111"/>
-      <c r="AO10" s="111"/>
-      <c r="AP10" s="111"/>
-      <c r="AQ10" s="111"/>
-      <c r="AR10" s="111"/>
-      <c r="AS10" s="111"/>
-      <c r="AT10" s="111"/>
-      <c r="AU10" s="111"/>
-      <c r="AV10" s="111"/>
-      <c r="AW10" s="111"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="117"/>
+      <c r="V10" s="122"/>
+      <c r="W10" s="122"/>
+      <c r="X10" s="122"/>
+      <c r="Y10" s="122"/>
+      <c r="Z10" s="122"/>
+      <c r="AA10" s="122"/>
+      <c r="AB10" s="122"/>
+      <c r="AC10" s="122"/>
+      <c r="AD10" s="122"/>
+      <c r="AE10" s="122"/>
+      <c r="AF10" s="122"/>
+      <c r="AG10" s="122"/>
+      <c r="AH10" s="122"/>
+      <c r="AI10" s="122"/>
+      <c r="AJ10" s="122"/>
+      <c r="AK10" s="122"/>
+      <c r="AL10" s="122"/>
+      <c r="AM10" s="122"/>
+      <c r="AN10" s="117"/>
+      <c r="AO10" s="117"/>
+      <c r="AP10" s="117"/>
+      <c r="AQ10" s="117"/>
+      <c r="AR10" s="117"/>
+      <c r="AS10" s="117"/>
+      <c r="AT10" s="117"/>
+      <c r="AU10" s="117"/>
+      <c r="AV10" s="117"/>
+      <c r="AW10" s="117"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="111"/>
-      <c r="T11" s="111"/>
-      <c r="U11" s="111"/>
-      <c r="V11" s="117"/>
-      <c r="W11" s="124"/>
-      <c r="X11" s="124"/>
-      <c r="Y11" s="124"/>
-      <c r="Z11" s="124"/>
-      <c r="AA11" s="124"/>
-      <c r="AB11" s="124"/>
-      <c r="AC11" s="124"/>
-      <c r="AD11" s="124"/>
-      <c r="AE11" s="124"/>
-      <c r="AF11" s="124"/>
-      <c r="AG11" s="124"/>
-      <c r="AH11" s="124"/>
-      <c r="AI11" s="124"/>
-      <c r="AJ11" s="124"/>
-      <c r="AK11" s="124"/>
-      <c r="AL11" s="124"/>
-      <c r="AM11" s="124"/>
-      <c r="AN11" s="111"/>
-      <c r="AO11" s="111"/>
-      <c r="AP11" s="111"/>
-      <c r="AQ11" s="111"/>
-      <c r="AR11" s="111"/>
-      <c r="AS11" s="111"/>
-      <c r="AT11" s="111"/>
-      <c r="AU11" s="111"/>
-      <c r="AV11" s="111"/>
-      <c r="AW11" s="111"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="123"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="117"/>
+      <c r="T11" s="117"/>
+      <c r="U11" s="117"/>
+      <c r="V11" s="124"/>
+      <c r="W11" s="125"/>
+      <c r="X11" s="125"/>
+      <c r="Y11" s="125"/>
+      <c r="Z11" s="125"/>
+      <c r="AA11" s="125"/>
+      <c r="AB11" s="125"/>
+      <c r="AC11" s="125"/>
+      <c r="AD11" s="125"/>
+      <c r="AE11" s="125"/>
+      <c r="AF11" s="125"/>
+      <c r="AG11" s="125"/>
+      <c r="AH11" s="125"/>
+      <c r="AI11" s="125"/>
+      <c r="AJ11" s="125"/>
+      <c r="AK11" s="125"/>
+      <c r="AL11" s="125"/>
+      <c r="AM11" s="125"/>
+      <c r="AN11" s="117"/>
+      <c r="AO11" s="117"/>
+      <c r="AP11" s="117"/>
+      <c r="AQ11" s="117"/>
+      <c r="AR11" s="117"/>
+      <c r="AS11" s="117"/>
+      <c r="AT11" s="117"/>
+      <c r="AU11" s="117"/>
+      <c r="AV11" s="117"/>
+      <c r="AW11" s="117"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="119"/>
-      <c r="S12" s="111"/>
-      <c r="T12" s="111"/>
-      <c r="U12" s="111"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="117"/>
-      <c r="X12" s="117"/>
-      <c r="Y12" s="117"/>
-      <c r="Z12" s="117"/>
-      <c r="AA12" s="117"/>
-      <c r="AB12" s="117"/>
-      <c r="AC12" s="117"/>
-      <c r="AD12" s="117"/>
-      <c r="AE12" s="117"/>
-      <c r="AF12" s="117"/>
-      <c r="AG12" s="117"/>
-      <c r="AH12" s="117"/>
-      <c r="AI12" s="117"/>
-      <c r="AJ12" s="117"/>
-      <c r="AK12" s="117"/>
-      <c r="AL12" s="117"/>
-      <c r="AM12" s="117"/>
-      <c r="AN12" s="111"/>
-      <c r="AO12" s="111"/>
-      <c r="AP12" s="111"/>
-      <c r="AQ12" s="111"/>
-      <c r="AR12" s="111"/>
-      <c r="AS12" s="111"/>
-      <c r="AT12" s="111"/>
-      <c r="AU12" s="111"/>
-      <c r="AV12" s="111"/>
-      <c r="AW12" s="111"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="123"/>
+      <c r="S12" s="117"/>
+      <c r="T12" s="117"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="124"/>
+      <c r="W12" s="124"/>
+      <c r="X12" s="124"/>
+      <c r="Y12" s="124"/>
+      <c r="Z12" s="124"/>
+      <c r="AA12" s="124"/>
+      <c r="AB12" s="124"/>
+      <c r="AC12" s="124"/>
+      <c r="AD12" s="124"/>
+      <c r="AE12" s="124"/>
+      <c r="AF12" s="124"/>
+      <c r="AG12" s="124"/>
+      <c r="AH12" s="124"/>
+      <c r="AI12" s="124"/>
+      <c r="AJ12" s="124"/>
+      <c r="AK12" s="124"/>
+      <c r="AL12" s="124"/>
+      <c r="AM12" s="124"/>
+      <c r="AN12" s="117"/>
+      <c r="AO12" s="117"/>
+      <c r="AP12" s="117"/>
+      <c r="AQ12" s="117"/>
+      <c r="AR12" s="117"/>
+      <c r="AS12" s="117"/>
+      <c r="AT12" s="117"/>
+      <c r="AU12" s="117"/>
+      <c r="AV12" s="117"/>
+      <c r="AW12" s="117"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="119"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="111"/>
-      <c r="U13" s="111"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="117"/>
-      <c r="X13" s="117"/>
-      <c r="Y13" s="117"/>
-      <c r="Z13" s="117"/>
-      <c r="AA13" s="117"/>
-      <c r="AB13" s="117"/>
-      <c r="AC13" s="117"/>
-      <c r="AD13" s="117"/>
-      <c r="AE13" s="117"/>
-      <c r="AF13" s="117"/>
-      <c r="AG13" s="117"/>
-      <c r="AH13" s="117"/>
-      <c r="AI13" s="117"/>
-      <c r="AJ13" s="117"/>
-      <c r="AK13" s="117"/>
-      <c r="AL13" s="117"/>
-      <c r="AM13" s="117"/>
-      <c r="AN13" s="111"/>
-      <c r="AO13" s="111"/>
-      <c r="AP13" s="111"/>
-      <c r="AQ13" s="111"/>
-      <c r="AR13" s="111"/>
-      <c r="AS13" s="111"/>
-      <c r="AT13" s="111"/>
-      <c r="AU13" s="111"/>
-      <c r="AV13" s="111"/>
-      <c r="AW13" s="111"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="117"/>
+      <c r="T13" s="117"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="124"/>
+      <c r="W13" s="124"/>
+      <c r="X13" s="124"/>
+      <c r="Y13" s="124"/>
+      <c r="Z13" s="124"/>
+      <c r="AA13" s="124"/>
+      <c r="AB13" s="124"/>
+      <c r="AC13" s="124"/>
+      <c r="AD13" s="124"/>
+      <c r="AE13" s="124"/>
+      <c r="AF13" s="124"/>
+      <c r="AG13" s="124"/>
+      <c r="AH13" s="124"/>
+      <c r="AI13" s="124"/>
+      <c r="AJ13" s="124"/>
+      <c r="AK13" s="124"/>
+      <c r="AL13" s="124"/>
+      <c r="AM13" s="124"/>
+      <c r="AN13" s="117"/>
+      <c r="AO13" s="117"/>
+      <c r="AP13" s="117"/>
+      <c r="AQ13" s="117"/>
+      <c r="AR13" s="117"/>
+      <c r="AS13" s="117"/>
+      <c r="AT13" s="117"/>
+      <c r="AU13" s="117"/>
+      <c r="AV13" s="117"/>
+      <c r="AW13" s="117"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="111"/>
-      <c r="T14" s="111"/>
-      <c r="U14" s="111"/>
-      <c r="V14" s="122"/>
-      <c r="W14" s="123"/>
-      <c r="X14" s="123"/>
-      <c r="Y14" s="123"/>
-      <c r="Z14" s="123"/>
-      <c r="AA14" s="123"/>
-      <c r="AB14" s="123"/>
-      <c r="AC14" s="123"/>
-      <c r="AD14" s="123"/>
-      <c r="AE14" s="123"/>
-      <c r="AF14" s="123"/>
-      <c r="AG14" s="123"/>
-      <c r="AH14" s="123"/>
-      <c r="AI14" s="123"/>
-      <c r="AJ14" s="123"/>
-      <c r="AK14" s="123"/>
-      <c r="AL14" s="123"/>
-      <c r="AM14" s="123"/>
-      <c r="AN14" s="111"/>
-      <c r="AO14" s="111"/>
-      <c r="AP14" s="111"/>
-      <c r="AQ14" s="111"/>
-      <c r="AR14" s="111"/>
-      <c r="AS14" s="111"/>
-      <c r="AT14" s="111"/>
-      <c r="AU14" s="111"/>
-      <c r="AV14" s="111"/>
-      <c r="AW14" s="111"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="126"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="123"/>
+      <c r="Q14" s="123"/>
+      <c r="R14" s="123"/>
+      <c r="S14" s="117"/>
+      <c r="T14" s="117"/>
+      <c r="U14" s="117"/>
+      <c r="V14" s="127"/>
+      <c r="W14" s="122"/>
+      <c r="X14" s="122"/>
+      <c r="Y14" s="122"/>
+      <c r="Z14" s="122"/>
+      <c r="AA14" s="122"/>
+      <c r="AB14" s="122"/>
+      <c r="AC14" s="122"/>
+      <c r="AD14" s="122"/>
+      <c r="AE14" s="122"/>
+      <c r="AF14" s="122"/>
+      <c r="AG14" s="122"/>
+      <c r="AH14" s="122"/>
+      <c r="AI14" s="122"/>
+      <c r="AJ14" s="122"/>
+      <c r="AK14" s="122"/>
+      <c r="AL14" s="122"/>
+      <c r="AM14" s="122"/>
+      <c r="AN14" s="117"/>
+      <c r="AO14" s="117"/>
+      <c r="AP14" s="117"/>
+      <c r="AQ14" s="117"/>
+      <c r="AR14" s="117"/>
+      <c r="AS14" s="117"/>
+      <c r="AT14" s="117"/>
+      <c r="AU14" s="117"/>
+      <c r="AV14" s="117"/>
+      <c r="AW14" s="117"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="119"/>
-      <c r="S15" s="111"/>
-      <c r="T15" s="111"/>
-      <c r="U15" s="111"/>
-      <c r="V15" s="117"/>
-      <c r="W15" s="117"/>
-      <c r="X15" s="117"/>
-      <c r="Y15" s="117"/>
-      <c r="Z15" s="117"/>
-      <c r="AA15" s="117"/>
-      <c r="AB15" s="117"/>
-      <c r="AC15" s="117"/>
-      <c r="AD15" s="117"/>
-      <c r="AE15" s="117"/>
-      <c r="AF15" s="117"/>
-      <c r="AG15" s="117"/>
-      <c r="AH15" s="117"/>
-      <c r="AI15" s="117"/>
-      <c r="AJ15" s="117"/>
-      <c r="AK15" s="117"/>
-      <c r="AL15" s="117"/>
-      <c r="AM15" s="117"/>
-      <c r="AN15" s="111"/>
-      <c r="AO15" s="111"/>
-      <c r="AP15" s="111"/>
-      <c r="AQ15" s="111"/>
-      <c r="AR15" s="111"/>
-      <c r="AS15" s="111"/>
-      <c r="AT15" s="111"/>
-      <c r="AU15" s="111"/>
-      <c r="AV15" s="111"/>
-      <c r="AW15" s="111"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="123"/>
+      <c r="S15" s="117"/>
+      <c r="T15" s="117"/>
+      <c r="U15" s="117"/>
+      <c r="V15" s="124"/>
+      <c r="W15" s="124"/>
+      <c r="X15" s="124"/>
+      <c r="Y15" s="124"/>
+      <c r="Z15" s="124"/>
+      <c r="AA15" s="124"/>
+      <c r="AB15" s="124"/>
+      <c r="AC15" s="124"/>
+      <c r="AD15" s="124"/>
+      <c r="AE15" s="124"/>
+      <c r="AF15" s="124"/>
+      <c r="AG15" s="124"/>
+      <c r="AH15" s="124"/>
+      <c r="AI15" s="124"/>
+      <c r="AJ15" s="124"/>
+      <c r="AK15" s="124"/>
+      <c r="AL15" s="124"/>
+      <c r="AM15" s="124"/>
+      <c r="AN15" s="117"/>
+      <c r="AO15" s="117"/>
+      <c r="AP15" s="117"/>
+      <c r="AQ15" s="117"/>
+      <c r="AR15" s="117"/>
+      <c r="AS15" s="117"/>
+      <c r="AT15" s="117"/>
+      <c r="AU15" s="117"/>
+      <c r="AV15" s="117"/>
+      <c r="AW15" s="117"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="119"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="111"/>
-      <c r="T16" s="111"/>
-      <c r="U16" s="111"/>
-      <c r="V16" s="117"/>
-      <c r="W16" s="117"/>
-      <c r="X16" s="117"/>
-      <c r="Y16" s="117"/>
-      <c r="Z16" s="117"/>
-      <c r="AA16" s="117"/>
-      <c r="AB16" s="117"/>
-      <c r="AC16" s="117"/>
-      <c r="AD16" s="117"/>
-      <c r="AE16" s="117"/>
-      <c r="AF16" s="117"/>
-      <c r="AG16" s="117"/>
-      <c r="AH16" s="117"/>
-      <c r="AI16" s="117"/>
-      <c r="AJ16" s="117"/>
-      <c r="AK16" s="117"/>
-      <c r="AL16" s="117"/>
-      <c r="AM16" s="117"/>
-      <c r="AN16" s="111"/>
-      <c r="AO16" s="111"/>
-      <c r="AP16" s="111"/>
-      <c r="AQ16" s="111"/>
-      <c r="AR16" s="111"/>
-      <c r="AS16" s="111"/>
-      <c r="AT16" s="111"/>
-      <c r="AU16" s="111"/>
-      <c r="AV16" s="111"/>
-      <c r="AW16" s="111"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="123"/>
+      <c r="S16" s="117"/>
+      <c r="T16" s="117"/>
+      <c r="U16" s="117"/>
+      <c r="V16" s="124"/>
+      <c r="W16" s="124"/>
+      <c r="X16" s="124"/>
+      <c r="Y16" s="124"/>
+      <c r="Z16" s="124"/>
+      <c r="AA16" s="124"/>
+      <c r="AB16" s="124"/>
+      <c r="AC16" s="124"/>
+      <c r="AD16" s="124"/>
+      <c r="AE16" s="124"/>
+      <c r="AF16" s="124"/>
+      <c r="AG16" s="124"/>
+      <c r="AH16" s="124"/>
+      <c r="AI16" s="124"/>
+      <c r="AJ16" s="124"/>
+      <c r="AK16" s="124"/>
+      <c r="AL16" s="124"/>
+      <c r="AM16" s="124"/>
+      <c r="AN16" s="117"/>
+      <c r="AO16" s="117"/>
+      <c r="AP16" s="117"/>
+      <c r="AQ16" s="117"/>
+      <c r="AR16" s="117"/>
+      <c r="AS16" s="117"/>
+      <c r="AT16" s="117"/>
+      <c r="AU16" s="117"/>
+      <c r="AV16" s="117"/>
+      <c r="AW16" s="117"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="120"/>
-      <c r="S17" s="121"/>
-      <c r="T17" s="121"/>
-      <c r="U17" s="121"/>
-      <c r="V17" s="117"/>
-      <c r="W17" s="117"/>
-      <c r="X17" s="117"/>
-      <c r="Y17" s="117"/>
-      <c r="Z17" s="117"/>
-      <c r="AA17" s="117"/>
-      <c r="AB17" s="117"/>
-      <c r="AC17" s="117"/>
-      <c r="AD17" s="117"/>
-      <c r="AE17" s="117"/>
-      <c r="AF17" s="117"/>
-      <c r="AG17" s="117"/>
-      <c r="AH17" s="117"/>
-      <c r="AI17" s="117"/>
-      <c r="AJ17" s="117"/>
-      <c r="AK17" s="117"/>
-      <c r="AL17" s="117"/>
-      <c r="AM17" s="117"/>
-      <c r="AN17" s="111"/>
-      <c r="AO17" s="111"/>
-      <c r="AP17" s="111"/>
-      <c r="AQ17" s="111"/>
-      <c r="AR17" s="111"/>
-      <c r="AS17" s="111"/>
-      <c r="AT17" s="111"/>
-      <c r="AU17" s="111"/>
-      <c r="AV17" s="111"/>
-      <c r="AW17" s="111"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="128"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="129"/>
+      <c r="U17" s="129"/>
+      <c r="V17" s="124"/>
+      <c r="W17" s="124"/>
+      <c r="X17" s="124"/>
+      <c r="Y17" s="124"/>
+      <c r="Z17" s="124"/>
+      <c r="AA17" s="124"/>
+      <c r="AB17" s="124"/>
+      <c r="AC17" s="124"/>
+      <c r="AD17" s="124"/>
+      <c r="AE17" s="124"/>
+      <c r="AF17" s="124"/>
+      <c r="AG17" s="124"/>
+      <c r="AH17" s="124"/>
+      <c r="AI17" s="124"/>
+      <c r="AJ17" s="124"/>
+      <c r="AK17" s="124"/>
+      <c r="AL17" s="124"/>
+      <c r="AM17" s="124"/>
+      <c r="AN17" s="117"/>
+      <c r="AO17" s="117"/>
+      <c r="AP17" s="117"/>
+      <c r="AQ17" s="117"/>
+      <c r="AR17" s="117"/>
+      <c r="AS17" s="117"/>
+      <c r="AT17" s="117"/>
+      <c r="AU17" s="117"/>
+      <c r="AV17" s="117"/>
+      <c r="AW17" s="117"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="119"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="111"/>
-      <c r="T18" s="111"/>
-      <c r="U18" s="111"/>
-      <c r="V18" s="117"/>
-      <c r="W18" s="117"/>
-      <c r="X18" s="117"/>
-      <c r="Y18" s="117"/>
-      <c r="Z18" s="117"/>
-      <c r="AA18" s="117"/>
-      <c r="AB18" s="117"/>
-      <c r="AC18" s="117"/>
-      <c r="AD18" s="117"/>
-      <c r="AE18" s="117"/>
-      <c r="AF18" s="117"/>
-      <c r="AG18" s="117"/>
-      <c r="AH18" s="117"/>
-      <c r="AI18" s="117"/>
-      <c r="AJ18" s="117"/>
-      <c r="AK18" s="117"/>
-      <c r="AL18" s="117"/>
-      <c r="AM18" s="117"/>
-      <c r="AN18" s="111"/>
-      <c r="AO18" s="111"/>
-      <c r="AP18" s="111"/>
-      <c r="AQ18" s="111"/>
-      <c r="AR18" s="111"/>
-      <c r="AS18" s="111"/>
-      <c r="AT18" s="111"/>
-      <c r="AU18" s="111"/>
-      <c r="AV18" s="111"/>
-      <c r="AW18" s="111"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="126"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+      <c r="S18" s="117"/>
+      <c r="T18" s="117"/>
+      <c r="U18" s="117"/>
+      <c r="V18" s="124"/>
+      <c r="W18" s="124"/>
+      <c r="X18" s="124"/>
+      <c r="Y18" s="124"/>
+      <c r="Z18" s="124"/>
+      <c r="AA18" s="124"/>
+      <c r="AB18" s="124"/>
+      <c r="AC18" s="124"/>
+      <c r="AD18" s="124"/>
+      <c r="AE18" s="124"/>
+      <c r="AF18" s="124"/>
+      <c r="AG18" s="124"/>
+      <c r="AH18" s="124"/>
+      <c r="AI18" s="124"/>
+      <c r="AJ18" s="124"/>
+      <c r="AK18" s="124"/>
+      <c r="AL18" s="124"/>
+      <c r="AM18" s="124"/>
+      <c r="AN18" s="117"/>
+      <c r="AO18" s="117"/>
+      <c r="AP18" s="117"/>
+      <c r="AQ18" s="117"/>
+      <c r="AR18" s="117"/>
+      <c r="AS18" s="117"/>
+      <c r="AT18" s="117"/>
+      <c r="AU18" s="117"/>
+      <c r="AV18" s="117"/>
+      <c r="AW18" s="117"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="111"/>
-      <c r="T19" s="111"/>
-      <c r="U19" s="111"/>
-      <c r="V19" s="117"/>
-      <c r="W19" s="117"/>
-      <c r="X19" s="117"/>
-      <c r="Y19" s="117"/>
-      <c r="Z19" s="117"/>
-      <c r="AA19" s="117"/>
-      <c r="AB19" s="117"/>
-      <c r="AC19" s="117"/>
-      <c r="AD19" s="117"/>
-      <c r="AE19" s="117"/>
-      <c r="AF19" s="117"/>
-      <c r="AG19" s="117"/>
-      <c r="AH19" s="117"/>
-      <c r="AI19" s="117"/>
-      <c r="AJ19" s="117"/>
-      <c r="AK19" s="117"/>
-      <c r="AL19" s="117"/>
-      <c r="AM19" s="117"/>
-      <c r="AN19" s="111"/>
-      <c r="AO19" s="111"/>
-      <c r="AP19" s="111"/>
-      <c r="AQ19" s="111"/>
-      <c r="AR19" s="111"/>
-      <c r="AS19" s="111"/>
-      <c r="AT19" s="111"/>
-      <c r="AU19" s="111"/>
-      <c r="AV19" s="111"/>
-      <c r="AW19" s="111"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="117"/>
+      <c r="T19" s="117"/>
+      <c r="U19" s="117"/>
+      <c r="V19" s="124"/>
+      <c r="W19" s="124"/>
+      <c r="X19" s="124"/>
+      <c r="Y19" s="124"/>
+      <c r="Z19" s="124"/>
+      <c r="AA19" s="124"/>
+      <c r="AB19" s="124"/>
+      <c r="AC19" s="124"/>
+      <c r="AD19" s="124"/>
+      <c r="AE19" s="124"/>
+      <c r="AF19" s="124"/>
+      <c r="AG19" s="124"/>
+      <c r="AH19" s="124"/>
+      <c r="AI19" s="124"/>
+      <c r="AJ19" s="124"/>
+      <c r="AK19" s="124"/>
+      <c r="AL19" s="124"/>
+      <c r="AM19" s="124"/>
+      <c r="AN19" s="117"/>
+      <c r="AO19" s="117"/>
+      <c r="AP19" s="117"/>
+      <c r="AQ19" s="117"/>
+      <c r="AR19" s="117"/>
+      <c r="AS19" s="117"/>
+      <c r="AT19" s="117"/>
+      <c r="AU19" s="117"/>
+      <c r="AV19" s="117"/>
+      <c r="AW19" s="117"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="119"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="111"/>
-      <c r="T20" s="111"/>
-      <c r="U20" s="111"/>
-      <c r="V20" s="117"/>
-      <c r="W20" s="117"/>
-      <c r="X20" s="117"/>
-      <c r="Y20" s="117"/>
-      <c r="Z20" s="117"/>
-      <c r="AA20" s="117"/>
-      <c r="AB20" s="117"/>
-      <c r="AC20" s="117"/>
-      <c r="AD20" s="117"/>
-      <c r="AE20" s="117"/>
-      <c r="AF20" s="117"/>
-      <c r="AG20" s="117"/>
-      <c r="AH20" s="117"/>
-      <c r="AI20" s="117"/>
-      <c r="AJ20" s="117"/>
-      <c r="AK20" s="117"/>
-      <c r="AL20" s="117"/>
-      <c r="AM20" s="117"/>
-      <c r="AN20" s="111"/>
-      <c r="AO20" s="111"/>
-      <c r="AP20" s="111"/>
-      <c r="AQ20" s="111"/>
-      <c r="AR20" s="111"/>
-      <c r="AS20" s="111"/>
-      <c r="AT20" s="111"/>
-      <c r="AU20" s="111"/>
-      <c r="AV20" s="111"/>
-      <c r="AW20" s="111"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="123"/>
+      <c r="S20" s="117"/>
+      <c r="T20" s="117"/>
+      <c r="U20" s="117"/>
+      <c r="V20" s="124"/>
+      <c r="W20" s="124"/>
+      <c r="X20" s="124"/>
+      <c r="Y20" s="124"/>
+      <c r="Z20" s="124"/>
+      <c r="AA20" s="124"/>
+      <c r="AB20" s="124"/>
+      <c r="AC20" s="124"/>
+      <c r="AD20" s="124"/>
+      <c r="AE20" s="124"/>
+      <c r="AF20" s="124"/>
+      <c r="AG20" s="124"/>
+      <c r="AH20" s="124"/>
+      <c r="AI20" s="124"/>
+      <c r="AJ20" s="124"/>
+      <c r="AK20" s="124"/>
+      <c r="AL20" s="124"/>
+      <c r="AM20" s="124"/>
+      <c r="AN20" s="117"/>
+      <c r="AO20" s="117"/>
+      <c r="AP20" s="117"/>
+      <c r="AQ20" s="117"/>
+      <c r="AR20" s="117"/>
+      <c r="AS20" s="117"/>
+      <c r="AT20" s="117"/>
+      <c r="AU20" s="117"/>
+      <c r="AV20" s="117"/>
+      <c r="AW20" s="117"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="111"/>
-      <c r="T21" s="111"/>
-      <c r="U21" s="111"/>
-      <c r="V21" s="117"/>
-      <c r="W21" s="117"/>
-      <c r="X21" s="117"/>
-      <c r="Y21" s="117"/>
-      <c r="Z21" s="117"/>
-      <c r="AA21" s="117"/>
-      <c r="AB21" s="117"/>
-      <c r="AC21" s="117"/>
-      <c r="AD21" s="117"/>
-      <c r="AE21" s="117"/>
-      <c r="AF21" s="117"/>
-      <c r="AG21" s="117"/>
-      <c r="AH21" s="117"/>
-      <c r="AI21" s="117"/>
-      <c r="AJ21" s="117"/>
-      <c r="AK21" s="117"/>
-      <c r="AL21" s="117"/>
-      <c r="AM21" s="117"/>
-      <c r="AN21" s="111"/>
-      <c r="AO21" s="111"/>
-      <c r="AP21" s="111"/>
-      <c r="AQ21" s="111"/>
-      <c r="AR21" s="111"/>
-      <c r="AS21" s="111"/>
-      <c r="AT21" s="111"/>
-      <c r="AU21" s="111"/>
-      <c r="AV21" s="111"/>
-      <c r="AW21" s="111"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="123"/>
+      <c r="S21" s="117"/>
+      <c r="T21" s="117"/>
+      <c r="U21" s="117"/>
+      <c r="V21" s="124"/>
+      <c r="W21" s="124"/>
+      <c r="X21" s="124"/>
+      <c r="Y21" s="124"/>
+      <c r="Z21" s="124"/>
+      <c r="AA21" s="124"/>
+      <c r="AB21" s="124"/>
+      <c r="AC21" s="124"/>
+      <c r="AD21" s="124"/>
+      <c r="AE21" s="124"/>
+      <c r="AF21" s="124"/>
+      <c r="AG21" s="124"/>
+      <c r="AH21" s="124"/>
+      <c r="AI21" s="124"/>
+      <c r="AJ21" s="124"/>
+      <c r="AK21" s="124"/>
+      <c r="AL21" s="124"/>
+      <c r="AM21" s="124"/>
+      <c r="AN21" s="117"/>
+      <c r="AO21" s="117"/>
+      <c r="AP21" s="117"/>
+      <c r="AQ21" s="117"/>
+      <c r="AR21" s="117"/>
+      <c r="AS21" s="117"/>
+      <c r="AT21" s="117"/>
+      <c r="AU21" s="117"/>
+      <c r="AV21" s="117"/>
+      <c r="AW21" s="117"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="119"/>
-      <c r="S22" s="111"/>
-      <c r="T22" s="111"/>
-      <c r="U22" s="111"/>
-      <c r="V22" s="117"/>
-      <c r="W22" s="117"/>
-      <c r="X22" s="117"/>
-      <c r="Y22" s="117"/>
-      <c r="Z22" s="117"/>
-      <c r="AA22" s="117"/>
-      <c r="AB22" s="117"/>
-      <c r="AC22" s="117"/>
-      <c r="AD22" s="117"/>
-      <c r="AE22" s="117"/>
-      <c r="AF22" s="117"/>
-      <c r="AG22" s="117"/>
-      <c r="AH22" s="117"/>
-      <c r="AI22" s="117"/>
-      <c r="AJ22" s="117"/>
-      <c r="AK22" s="117"/>
-      <c r="AL22" s="117"/>
-      <c r="AM22" s="117"/>
-      <c r="AN22" s="111"/>
-      <c r="AO22" s="111"/>
-      <c r="AP22" s="111"/>
-      <c r="AQ22" s="111"/>
-      <c r="AR22" s="111"/>
-      <c r="AS22" s="111"/>
-      <c r="AT22" s="111"/>
-      <c r="AU22" s="111"/>
-      <c r="AV22" s="111"/>
-      <c r="AW22" s="111"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="123"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="123"/>
+      <c r="S22" s="117"/>
+      <c r="T22" s="117"/>
+      <c r="U22" s="117"/>
+      <c r="V22" s="124"/>
+      <c r="W22" s="124"/>
+      <c r="X22" s="124"/>
+      <c r="Y22" s="124"/>
+      <c r="Z22" s="124"/>
+      <c r="AA22" s="124"/>
+      <c r="AB22" s="124"/>
+      <c r="AC22" s="124"/>
+      <c r="AD22" s="124"/>
+      <c r="AE22" s="124"/>
+      <c r="AF22" s="124"/>
+      <c r="AG22" s="124"/>
+      <c r="AH22" s="124"/>
+      <c r="AI22" s="124"/>
+      <c r="AJ22" s="124"/>
+      <c r="AK22" s="124"/>
+      <c r="AL22" s="124"/>
+      <c r="AM22" s="124"/>
+      <c r="AN22" s="117"/>
+      <c r="AO22" s="117"/>
+      <c r="AP22" s="117"/>
+      <c r="AQ22" s="117"/>
+      <c r="AR22" s="117"/>
+      <c r="AS22" s="117"/>
+      <c r="AT22" s="117"/>
+      <c r="AU22" s="117"/>
+      <c r="AV22" s="117"/>
+      <c r="AW22" s="117"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="119"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="119"/>
-      <c r="R23" s="119"/>
-      <c r="S23" s="111"/>
-      <c r="T23" s="111"/>
-      <c r="U23" s="111"/>
-      <c r="V23" s="117"/>
-      <c r="W23" s="117"/>
-      <c r="X23" s="117"/>
-      <c r="Y23" s="117"/>
-      <c r="Z23" s="117"/>
-      <c r="AA23" s="117"/>
-      <c r="AB23" s="117"/>
-      <c r="AC23" s="117"/>
-      <c r="AD23" s="117"/>
-      <c r="AE23" s="117"/>
-      <c r="AF23" s="117"/>
-      <c r="AG23" s="117"/>
-      <c r="AH23" s="117"/>
-      <c r="AI23" s="117"/>
-      <c r="AJ23" s="117"/>
-      <c r="AK23" s="117"/>
-      <c r="AL23" s="117"/>
-      <c r="AM23" s="117"/>
-      <c r="AN23" s="111"/>
-      <c r="AO23" s="111"/>
-      <c r="AP23" s="111"/>
-      <c r="AQ23" s="111"/>
-      <c r="AR23" s="111"/>
-      <c r="AS23" s="111"/>
-      <c r="AT23" s="111"/>
-      <c r="AU23" s="111"/>
-      <c r="AV23" s="111"/>
-      <c r="AW23" s="111"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="123"/>
+      <c r="S23" s="117"/>
+      <c r="T23" s="117"/>
+      <c r="U23" s="117"/>
+      <c r="V23" s="124"/>
+      <c r="W23" s="124"/>
+      <c r="X23" s="124"/>
+      <c r="Y23" s="124"/>
+      <c r="Z23" s="124"/>
+      <c r="AA23" s="124"/>
+      <c r="AB23" s="124"/>
+      <c r="AC23" s="124"/>
+      <c r="AD23" s="124"/>
+      <c r="AE23" s="124"/>
+      <c r="AF23" s="124"/>
+      <c r="AG23" s="124"/>
+      <c r="AH23" s="124"/>
+      <c r="AI23" s="124"/>
+      <c r="AJ23" s="124"/>
+      <c r="AK23" s="124"/>
+      <c r="AL23" s="124"/>
+      <c r="AM23" s="124"/>
+      <c r="AN23" s="117"/>
+      <c r="AO23" s="117"/>
+      <c r="AP23" s="117"/>
+      <c r="AQ23" s="117"/>
+      <c r="AR23" s="117"/>
+      <c r="AS23" s="117"/>
+      <c r="AT23" s="117"/>
+      <c r="AU23" s="117"/>
+      <c r="AV23" s="117"/>
+      <c r="AW23" s="117"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="119"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="119"/>
-      <c r="S24" s="111"/>
-      <c r="T24" s="111"/>
-      <c r="U24" s="111"/>
-      <c r="V24" s="117"/>
-      <c r="W24" s="117"/>
-      <c r="X24" s="117"/>
-      <c r="Y24" s="117"/>
-      <c r="Z24" s="117"/>
-      <c r="AA24" s="117"/>
-      <c r="AB24" s="117"/>
-      <c r="AC24" s="117"/>
-      <c r="AD24" s="117"/>
-      <c r="AE24" s="117"/>
-      <c r="AF24" s="117"/>
-      <c r="AG24" s="117"/>
-      <c r="AH24" s="117"/>
-      <c r="AI24" s="117"/>
-      <c r="AJ24" s="117"/>
-      <c r="AK24" s="117"/>
-      <c r="AL24" s="117"/>
-      <c r="AM24" s="117"/>
-      <c r="AN24" s="111"/>
-      <c r="AO24" s="111"/>
-      <c r="AP24" s="111"/>
-      <c r="AQ24" s="111"/>
-      <c r="AR24" s="111"/>
-      <c r="AS24" s="111"/>
-      <c r="AT24" s="111"/>
-      <c r="AU24" s="111"/>
-      <c r="AV24" s="111"/>
-      <c r="AW24" s="111"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="123"/>
+      <c r="S24" s="117"/>
+      <c r="T24" s="117"/>
+      <c r="U24" s="117"/>
+      <c r="V24" s="124"/>
+      <c r="W24" s="124"/>
+      <c r="X24" s="124"/>
+      <c r="Y24" s="124"/>
+      <c r="Z24" s="124"/>
+      <c r="AA24" s="124"/>
+      <c r="AB24" s="124"/>
+      <c r="AC24" s="124"/>
+      <c r="AD24" s="124"/>
+      <c r="AE24" s="124"/>
+      <c r="AF24" s="124"/>
+      <c r="AG24" s="124"/>
+      <c r="AH24" s="124"/>
+      <c r="AI24" s="124"/>
+      <c r="AJ24" s="124"/>
+      <c r="AK24" s="124"/>
+      <c r="AL24" s="124"/>
+      <c r="AM24" s="124"/>
+      <c r="AN24" s="117"/>
+      <c r="AO24" s="117"/>
+      <c r="AP24" s="117"/>
+      <c r="AQ24" s="117"/>
+      <c r="AR24" s="117"/>
+      <c r="AS24" s="117"/>
+      <c r="AT24" s="117"/>
+      <c r="AU24" s="117"/>
+      <c r="AV24" s="117"/>
+      <c r="AW24" s="117"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="114"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="119"/>
-      <c r="R25" s="119"/>
-      <c r="S25" s="111"/>
-      <c r="T25" s="111"/>
-      <c r="U25" s="111"/>
-      <c r="V25" s="117"/>
-      <c r="W25" s="117"/>
-      <c r="X25" s="117"/>
-      <c r="Y25" s="117"/>
-      <c r="Z25" s="117"/>
-      <c r="AA25" s="117"/>
-      <c r="AB25" s="117"/>
-      <c r="AC25" s="117"/>
-      <c r="AD25" s="117"/>
-      <c r="AE25" s="117"/>
-      <c r="AF25" s="117"/>
-      <c r="AG25" s="117"/>
-      <c r="AH25" s="117"/>
-      <c r="AI25" s="117"/>
-      <c r="AJ25" s="117"/>
-      <c r="AK25" s="117"/>
-      <c r="AL25" s="117"/>
-      <c r="AM25" s="117"/>
-      <c r="AN25" s="111"/>
-      <c r="AO25" s="111"/>
-      <c r="AP25" s="111"/>
-      <c r="AQ25" s="111"/>
-      <c r="AR25" s="111"/>
-      <c r="AS25" s="111"/>
-      <c r="AT25" s="111"/>
-      <c r="AU25" s="111"/>
-      <c r="AV25" s="111"/>
-      <c r="AW25" s="111"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="120"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="126"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="123"/>
+      <c r="S25" s="117"/>
+      <c r="T25" s="117"/>
+      <c r="U25" s="117"/>
+      <c r="V25" s="124"/>
+      <c r="W25" s="124"/>
+      <c r="X25" s="124"/>
+      <c r="Y25" s="124"/>
+      <c r="Z25" s="124"/>
+      <c r="AA25" s="124"/>
+      <c r="AB25" s="124"/>
+      <c r="AC25" s="124"/>
+      <c r="AD25" s="124"/>
+      <c r="AE25" s="124"/>
+      <c r="AF25" s="124"/>
+      <c r="AG25" s="124"/>
+      <c r="AH25" s="124"/>
+      <c r="AI25" s="124"/>
+      <c r="AJ25" s="124"/>
+      <c r="AK25" s="124"/>
+      <c r="AL25" s="124"/>
+      <c r="AM25" s="124"/>
+      <c r="AN25" s="117"/>
+      <c r="AO25" s="117"/>
+      <c r="AP25" s="117"/>
+      <c r="AQ25" s="117"/>
+      <c r="AR25" s="117"/>
+      <c r="AS25" s="117"/>
+      <c r="AT25" s="117"/>
+      <c r="AU25" s="117"/>
+      <c r="AV25" s="117"/>
+      <c r="AW25" s="117"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="118"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="119"/>
-      <c r="R26" s="119"/>
-      <c r="S26" s="111"/>
-      <c r="T26" s="111"/>
-      <c r="U26" s="111"/>
-      <c r="V26" s="117"/>
-      <c r="W26" s="117"/>
-      <c r="X26" s="117"/>
-      <c r="Y26" s="117"/>
-      <c r="Z26" s="117"/>
-      <c r="AA26" s="117"/>
-      <c r="AB26" s="117"/>
-      <c r="AC26" s="117"/>
-      <c r="AD26" s="117"/>
-      <c r="AE26" s="117"/>
-      <c r="AF26" s="117"/>
-      <c r="AG26" s="117"/>
-      <c r="AH26" s="117"/>
-      <c r="AI26" s="117"/>
-      <c r="AJ26" s="117"/>
-      <c r="AK26" s="117"/>
-      <c r="AL26" s="117"/>
-      <c r="AM26" s="117"/>
-      <c r="AN26" s="111"/>
-      <c r="AO26" s="111"/>
-      <c r="AP26" s="111"/>
-      <c r="AQ26" s="111"/>
-      <c r="AR26" s="111"/>
-      <c r="AS26" s="111"/>
-      <c r="AT26" s="111"/>
-      <c r="AU26" s="111"/>
-      <c r="AV26" s="111"/>
-      <c r="AW26" s="111"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="119"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="126"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="123"/>
+      <c r="Q26" s="123"/>
+      <c r="R26" s="123"/>
+      <c r="S26" s="117"/>
+      <c r="T26" s="117"/>
+      <c r="U26" s="117"/>
+      <c r="V26" s="124"/>
+      <c r="W26" s="124"/>
+      <c r="X26" s="124"/>
+      <c r="Y26" s="124"/>
+      <c r="Z26" s="124"/>
+      <c r="AA26" s="124"/>
+      <c r="AB26" s="124"/>
+      <c r="AC26" s="124"/>
+      <c r="AD26" s="124"/>
+      <c r="AE26" s="124"/>
+      <c r="AF26" s="124"/>
+      <c r="AG26" s="124"/>
+      <c r="AH26" s="124"/>
+      <c r="AI26" s="124"/>
+      <c r="AJ26" s="124"/>
+      <c r="AK26" s="124"/>
+      <c r="AL26" s="124"/>
+      <c r="AM26" s="124"/>
+      <c r="AN26" s="117"/>
+      <c r="AO26" s="117"/>
+      <c r="AP26" s="117"/>
+      <c r="AQ26" s="117"/>
+      <c r="AR26" s="117"/>
+      <c r="AS26" s="117"/>
+      <c r="AT26" s="117"/>
+      <c r="AU26" s="117"/>
+      <c r="AV26" s="117"/>
+      <c r="AW26" s="117"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="118"/>
-      <c r="N27" s="119"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="111"/>
-      <c r="T27" s="111"/>
-      <c r="U27" s="111"/>
-      <c r="V27" s="117"/>
-      <c r="W27" s="117"/>
-      <c r="X27" s="117"/>
-      <c r="Y27" s="117"/>
-      <c r="Z27" s="117"/>
-      <c r="AA27" s="117"/>
-      <c r="AB27" s="117"/>
-      <c r="AC27" s="117"/>
-      <c r="AD27" s="117"/>
-      <c r="AE27" s="117"/>
-      <c r="AF27" s="117"/>
-      <c r="AG27" s="117"/>
-      <c r="AH27" s="117"/>
-      <c r="AI27" s="117"/>
-      <c r="AJ27" s="117"/>
-      <c r="AK27" s="117"/>
-      <c r="AL27" s="117"/>
-      <c r="AM27" s="117"/>
-      <c r="AN27" s="111"/>
-      <c r="AO27" s="111"/>
-      <c r="AP27" s="111"/>
-      <c r="AQ27" s="111"/>
-      <c r="AR27" s="111"/>
-      <c r="AS27" s="111"/>
-      <c r="AT27" s="111"/>
-      <c r="AU27" s="111"/>
-      <c r="AV27" s="111"/>
-      <c r="AW27" s="111"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="119"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="123"/>
+      <c r="Q27" s="123"/>
+      <c r="R27" s="123"/>
+      <c r="S27" s="117"/>
+      <c r="T27" s="117"/>
+      <c r="U27" s="117"/>
+      <c r="V27" s="124"/>
+      <c r="W27" s="124"/>
+      <c r="X27" s="124"/>
+      <c r="Y27" s="124"/>
+      <c r="Z27" s="124"/>
+      <c r="AA27" s="124"/>
+      <c r="AB27" s="124"/>
+      <c r="AC27" s="124"/>
+      <c r="AD27" s="124"/>
+      <c r="AE27" s="124"/>
+      <c r="AF27" s="124"/>
+      <c r="AG27" s="124"/>
+      <c r="AH27" s="124"/>
+      <c r="AI27" s="124"/>
+      <c r="AJ27" s="124"/>
+      <c r="AK27" s="124"/>
+      <c r="AL27" s="124"/>
+      <c r="AM27" s="124"/>
+      <c r="AN27" s="117"/>
+      <c r="AO27" s="117"/>
+      <c r="AP27" s="117"/>
+      <c r="AQ27" s="117"/>
+      <c r="AR27" s="117"/>
+      <c r="AS27" s="117"/>
+      <c r="AT27" s="117"/>
+      <c r="AU27" s="117"/>
+      <c r="AV27" s="117"/>
+      <c r="AW27" s="117"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="119"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="111"/>
-      <c r="U28" s="111"/>
-      <c r="V28" s="117"/>
-      <c r="W28" s="117"/>
-      <c r="X28" s="117"/>
-      <c r="Y28" s="117"/>
-      <c r="Z28" s="117"/>
-      <c r="AA28" s="117"/>
-      <c r="AB28" s="117"/>
-      <c r="AC28" s="117"/>
-      <c r="AD28" s="117"/>
-      <c r="AE28" s="117"/>
-      <c r="AF28" s="117"/>
-      <c r="AG28" s="117"/>
-      <c r="AH28" s="117"/>
-      <c r="AI28" s="117"/>
-      <c r="AJ28" s="117"/>
-      <c r="AK28" s="117"/>
-      <c r="AL28" s="117"/>
-      <c r="AM28" s="117"/>
-      <c r="AN28" s="111"/>
-      <c r="AO28" s="111"/>
-      <c r="AP28" s="111"/>
-      <c r="AQ28" s="111"/>
-      <c r="AR28" s="111"/>
-      <c r="AS28" s="111"/>
-      <c r="AT28" s="111"/>
-      <c r="AU28" s="111"/>
-      <c r="AV28" s="111"/>
-      <c r="AW28" s="111"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="123"/>
+      <c r="Q28" s="123"/>
+      <c r="R28" s="123"/>
+      <c r="S28" s="117"/>
+      <c r="T28" s="117"/>
+      <c r="U28" s="117"/>
+      <c r="V28" s="124"/>
+      <c r="W28" s="124"/>
+      <c r="X28" s="124"/>
+      <c r="Y28" s="124"/>
+      <c r="Z28" s="124"/>
+      <c r="AA28" s="124"/>
+      <c r="AB28" s="124"/>
+      <c r="AC28" s="124"/>
+      <c r="AD28" s="124"/>
+      <c r="AE28" s="124"/>
+      <c r="AF28" s="124"/>
+      <c r="AG28" s="124"/>
+      <c r="AH28" s="124"/>
+      <c r="AI28" s="124"/>
+      <c r="AJ28" s="124"/>
+      <c r="AK28" s="124"/>
+      <c r="AL28" s="124"/>
+      <c r="AM28" s="124"/>
+      <c r="AN28" s="117"/>
+      <c r="AO28" s="117"/>
+      <c r="AP28" s="117"/>
+      <c r="AQ28" s="117"/>
+      <c r="AR28" s="117"/>
+      <c r="AS28" s="117"/>
+      <c r="AT28" s="117"/>
+      <c r="AU28" s="117"/>
+      <c r="AV28" s="117"/>
+      <c r="AW28" s="117"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111"/>
-      <c r="U29" s="111"/>
-      <c r="V29" s="117"/>
-      <c r="W29" s="117"/>
-      <c r="X29" s="117"/>
-      <c r="Y29" s="117"/>
-      <c r="Z29" s="117"/>
-      <c r="AA29" s="117"/>
-      <c r="AB29" s="117"/>
-      <c r="AC29" s="117"/>
-      <c r="AD29" s="117"/>
-      <c r="AE29" s="117"/>
-      <c r="AF29" s="117"/>
-      <c r="AG29" s="117"/>
-      <c r="AH29" s="117"/>
-      <c r="AI29" s="117"/>
-      <c r="AJ29" s="117"/>
-      <c r="AK29" s="117"/>
-      <c r="AL29" s="117"/>
-      <c r="AM29" s="117"/>
-      <c r="AN29" s="111"/>
-      <c r="AO29" s="111"/>
-      <c r="AP29" s="111"/>
-      <c r="AQ29" s="111"/>
-      <c r="AR29" s="111"/>
-      <c r="AS29" s="111"/>
-      <c r="AT29" s="111"/>
-      <c r="AU29" s="111"/>
-      <c r="AV29" s="111"/>
-      <c r="AW29" s="111"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="120"/>
+      <c r="M29" s="123"/>
+      <c r="N29" s="123"/>
+      <c r="O29" s="123"/>
+      <c r="P29" s="123"/>
+      <c r="Q29" s="123"/>
+      <c r="R29" s="123"/>
+      <c r="S29" s="117"/>
+      <c r="T29" s="117"/>
+      <c r="U29" s="117"/>
+      <c r="V29" s="124"/>
+      <c r="W29" s="124"/>
+      <c r="X29" s="124"/>
+      <c r="Y29" s="124"/>
+      <c r="Z29" s="124"/>
+      <c r="AA29" s="124"/>
+      <c r="AB29" s="124"/>
+      <c r="AC29" s="124"/>
+      <c r="AD29" s="124"/>
+      <c r="AE29" s="124"/>
+      <c r="AF29" s="124"/>
+      <c r="AG29" s="124"/>
+      <c r="AH29" s="124"/>
+      <c r="AI29" s="124"/>
+      <c r="AJ29" s="124"/>
+      <c r="AK29" s="124"/>
+      <c r="AL29" s="124"/>
+      <c r="AM29" s="124"/>
+      <c r="AN29" s="117"/>
+      <c r="AO29" s="117"/>
+      <c r="AP29" s="117"/>
+      <c r="AQ29" s="117"/>
+      <c r="AR29" s="117"/>
+      <c r="AS29" s="117"/>
+      <c r="AT29" s="117"/>
+      <c r="AU29" s="117"/>
+      <c r="AV29" s="117"/>
+      <c r="AW29" s="117"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
-      <c r="B30" s="112"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="118"/>
-      <c r="N30" s="119"/>
-      <c r="O30" s="119"/>
-      <c r="P30" s="119"/>
-      <c r="Q30" s="119"/>
-      <c r="R30" s="119"/>
-      <c r="S30" s="111"/>
-      <c r="T30" s="111"/>
-      <c r="U30" s="111"/>
-      <c r="V30" s="117"/>
-      <c r="W30" s="117"/>
-      <c r="X30" s="117"/>
-      <c r="Y30" s="117"/>
-      <c r="Z30" s="117"/>
-      <c r="AA30" s="117"/>
-      <c r="AB30" s="117"/>
-      <c r="AC30" s="117"/>
-      <c r="AD30" s="117"/>
-      <c r="AE30" s="117"/>
-      <c r="AF30" s="117"/>
-      <c r="AG30" s="117"/>
-      <c r="AH30" s="117"/>
-      <c r="AI30" s="117"/>
-      <c r="AJ30" s="117"/>
-      <c r="AK30" s="117"/>
-      <c r="AL30" s="117"/>
-      <c r="AM30" s="117"/>
-      <c r="AN30" s="111"/>
-      <c r="AO30" s="111"/>
-      <c r="AP30" s="111"/>
-      <c r="AQ30" s="111"/>
-      <c r="AR30" s="111"/>
-      <c r="AS30" s="111"/>
-      <c r="AT30" s="111"/>
-      <c r="AU30" s="111"/>
-      <c r="AV30" s="111"/>
-      <c r="AW30" s="111"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="120"/>
+      <c r="M30" s="126"/>
+      <c r="N30" s="123"/>
+      <c r="O30" s="123"/>
+      <c r="P30" s="123"/>
+      <c r="Q30" s="123"/>
+      <c r="R30" s="123"/>
+      <c r="S30" s="117"/>
+      <c r="T30" s="117"/>
+      <c r="U30" s="117"/>
+      <c r="V30" s="124"/>
+      <c r="W30" s="124"/>
+      <c r="X30" s="124"/>
+      <c r="Y30" s="124"/>
+      <c r="Z30" s="124"/>
+      <c r="AA30" s="124"/>
+      <c r="AB30" s="124"/>
+      <c r="AC30" s="124"/>
+      <c r="AD30" s="124"/>
+      <c r="AE30" s="124"/>
+      <c r="AF30" s="124"/>
+      <c r="AG30" s="124"/>
+      <c r="AH30" s="124"/>
+      <c r="AI30" s="124"/>
+      <c r="AJ30" s="124"/>
+      <c r="AK30" s="124"/>
+      <c r="AL30" s="124"/>
+      <c r="AM30" s="124"/>
+      <c r="AN30" s="117"/>
+      <c r="AO30" s="117"/>
+      <c r="AP30" s="117"/>
+      <c r="AQ30" s="117"/>
+      <c r="AR30" s="117"/>
+      <c r="AS30" s="117"/>
+      <c r="AT30" s="117"/>
+      <c r="AU30" s="117"/>
+      <c r="AV30" s="117"/>
+      <c r="AW30" s="117"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="113"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="118"/>
-      <c r="N31" s="119"/>
-      <c r="O31" s="119"/>
-      <c r="P31" s="119"/>
-      <c r="Q31" s="119"/>
-      <c r="R31" s="119"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="111"/>
-      <c r="U31" s="111"/>
-      <c r="V31" s="117"/>
-      <c r="W31" s="117"/>
-      <c r="X31" s="117"/>
-      <c r="Y31" s="117"/>
-      <c r="Z31" s="117"/>
-      <c r="AA31" s="117"/>
-      <c r="AB31" s="117"/>
-      <c r="AC31" s="117"/>
-      <c r="AD31" s="117"/>
-      <c r="AE31" s="117"/>
-      <c r="AF31" s="117"/>
-      <c r="AG31" s="117"/>
-      <c r="AH31" s="117"/>
-      <c r="AI31" s="117"/>
-      <c r="AJ31" s="117"/>
-      <c r="AK31" s="117"/>
-      <c r="AL31" s="117"/>
-      <c r="AM31" s="117"/>
-      <c r="AN31" s="111"/>
-      <c r="AO31" s="111"/>
-      <c r="AP31" s="111"/>
-      <c r="AQ31" s="111"/>
-      <c r="AR31" s="111"/>
-      <c r="AS31" s="111"/>
-      <c r="AT31" s="111"/>
-      <c r="AU31" s="111"/>
-      <c r="AV31" s="111"/>
-      <c r="AW31" s="111"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="120"/>
+      <c r="K31" s="120"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="126"/>
+      <c r="N31" s="123"/>
+      <c r="O31" s="123"/>
+      <c r="P31" s="123"/>
+      <c r="Q31" s="123"/>
+      <c r="R31" s="123"/>
+      <c r="S31" s="117"/>
+      <c r="T31" s="117"/>
+      <c r="U31" s="117"/>
+      <c r="V31" s="124"/>
+      <c r="W31" s="124"/>
+      <c r="X31" s="124"/>
+      <c r="Y31" s="124"/>
+      <c r="Z31" s="124"/>
+      <c r="AA31" s="124"/>
+      <c r="AB31" s="124"/>
+      <c r="AC31" s="124"/>
+      <c r="AD31" s="124"/>
+      <c r="AE31" s="124"/>
+      <c r="AF31" s="124"/>
+      <c r="AG31" s="124"/>
+      <c r="AH31" s="124"/>
+      <c r="AI31" s="124"/>
+      <c r="AJ31" s="124"/>
+      <c r="AK31" s="124"/>
+      <c r="AL31" s="124"/>
+      <c r="AM31" s="124"/>
+      <c r="AN31" s="117"/>
+      <c r="AO31" s="117"/>
+      <c r="AP31" s="117"/>
+      <c r="AQ31" s="117"/>
+      <c r="AR31" s="117"/>
+      <c r="AS31" s="117"/>
+      <c r="AT31" s="117"/>
+      <c r="AU31" s="117"/>
+      <c r="AV31" s="117"/>
+      <c r="AW31" s="117"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="112"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="118"/>
-      <c r="N32" s="119"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="119"/>
-      <c r="R32" s="119"/>
-      <c r="S32" s="111"/>
-      <c r="T32" s="111"/>
-      <c r="U32" s="111"/>
-      <c r="V32" s="117"/>
-      <c r="W32" s="117"/>
-      <c r="X32" s="117"/>
-      <c r="Y32" s="117"/>
-      <c r="Z32" s="117"/>
-      <c r="AA32" s="117"/>
-      <c r="AB32" s="117"/>
-      <c r="AC32" s="117"/>
-      <c r="AD32" s="117"/>
-      <c r="AE32" s="117"/>
-      <c r="AF32" s="117"/>
-      <c r="AG32" s="117"/>
-      <c r="AH32" s="117"/>
-      <c r="AI32" s="117"/>
-      <c r="AJ32" s="117"/>
-      <c r="AK32" s="117"/>
-      <c r="AL32" s="117"/>
-      <c r="AM32" s="117"/>
-      <c r="AN32" s="111"/>
-      <c r="AO32" s="111"/>
-      <c r="AP32" s="111"/>
-      <c r="AQ32" s="111"/>
-      <c r="AR32" s="111"/>
-      <c r="AS32" s="111"/>
-      <c r="AT32" s="111"/>
-      <c r="AU32" s="111"/>
-      <c r="AV32" s="111"/>
-      <c r="AW32" s="111"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="120"/>
+      <c r="K32" s="120"/>
+      <c r="L32" s="120"/>
+      <c r="M32" s="126"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="123"/>
+      <c r="Q32" s="123"/>
+      <c r="R32" s="123"/>
+      <c r="S32" s="117"/>
+      <c r="T32" s="117"/>
+      <c r="U32" s="117"/>
+      <c r="V32" s="124"/>
+      <c r="W32" s="124"/>
+      <c r="X32" s="124"/>
+      <c r="Y32" s="124"/>
+      <c r="Z32" s="124"/>
+      <c r="AA32" s="124"/>
+      <c r="AB32" s="124"/>
+      <c r="AC32" s="124"/>
+      <c r="AD32" s="124"/>
+      <c r="AE32" s="124"/>
+      <c r="AF32" s="124"/>
+      <c r="AG32" s="124"/>
+      <c r="AH32" s="124"/>
+      <c r="AI32" s="124"/>
+      <c r="AJ32" s="124"/>
+      <c r="AK32" s="124"/>
+      <c r="AL32" s="124"/>
+      <c r="AM32" s="124"/>
+      <c r="AN32" s="117"/>
+      <c r="AO32" s="117"/>
+      <c r="AP32" s="117"/>
+      <c r="AQ32" s="117"/>
+      <c r="AR32" s="117"/>
+      <c r="AS32" s="117"/>
+      <c r="AT32" s="117"/>
+      <c r="AU32" s="117"/>
+      <c r="AV32" s="117"/>
+      <c r="AW32" s="117"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="112"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="114"/>
-      <c r="M33" s="118"/>
-      <c r="N33" s="119"/>
-      <c r="O33" s="119"/>
-      <c r="P33" s="119"/>
-      <c r="Q33" s="119"/>
-      <c r="R33" s="119"/>
-      <c r="S33" s="111"/>
-      <c r="T33" s="111"/>
-      <c r="U33" s="111"/>
-      <c r="V33" s="117"/>
-      <c r="W33" s="117"/>
-      <c r="X33" s="117"/>
-      <c r="Y33" s="117"/>
-      <c r="Z33" s="117"/>
-      <c r="AA33" s="117"/>
-      <c r="AB33" s="117"/>
-      <c r="AC33" s="117"/>
-      <c r="AD33" s="117"/>
-      <c r="AE33" s="117"/>
-      <c r="AF33" s="117"/>
-      <c r="AG33" s="117"/>
-      <c r="AH33" s="117"/>
-      <c r="AI33" s="117"/>
-      <c r="AJ33" s="117"/>
-      <c r="AK33" s="117"/>
-      <c r="AL33" s="117"/>
-      <c r="AM33" s="117"/>
-      <c r="AN33" s="111"/>
-      <c r="AO33" s="111"/>
-      <c r="AP33" s="111"/>
-      <c r="AQ33" s="111"/>
-      <c r="AR33" s="111"/>
-      <c r="AS33" s="111"/>
-      <c r="AT33" s="111"/>
-      <c r="AU33" s="111"/>
-      <c r="AV33" s="111"/>
-      <c r="AW33" s="111"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="119"/>
+      <c r="J33" s="120"/>
+      <c r="K33" s="120"/>
+      <c r="L33" s="120"/>
+      <c r="M33" s="126"/>
+      <c r="N33" s="123"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="123"/>
+      <c r="Q33" s="123"/>
+      <c r="R33" s="123"/>
+      <c r="S33" s="117"/>
+      <c r="T33" s="117"/>
+      <c r="U33" s="117"/>
+      <c r="V33" s="124"/>
+      <c r="W33" s="124"/>
+      <c r="X33" s="124"/>
+      <c r="Y33" s="124"/>
+      <c r="Z33" s="124"/>
+      <c r="AA33" s="124"/>
+      <c r="AB33" s="124"/>
+      <c r="AC33" s="124"/>
+      <c r="AD33" s="124"/>
+      <c r="AE33" s="124"/>
+      <c r="AF33" s="124"/>
+      <c r="AG33" s="124"/>
+      <c r="AH33" s="124"/>
+      <c r="AI33" s="124"/>
+      <c r="AJ33" s="124"/>
+      <c r="AK33" s="124"/>
+      <c r="AL33" s="124"/>
+      <c r="AM33" s="124"/>
+      <c r="AN33" s="117"/>
+      <c r="AO33" s="117"/>
+      <c r="AP33" s="117"/>
+      <c r="AQ33" s="117"/>
+      <c r="AR33" s="117"/>
+      <c r="AS33" s="117"/>
+      <c r="AT33" s="117"/>
+      <c r="AU33" s="117"/>
+      <c r="AV33" s="117"/>
+      <c r="AW33" s="117"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="112"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="115"/>
-      <c r="N34" s="116"/>
-      <c r="O34" s="116"/>
-      <c r="P34" s="116"/>
-      <c r="Q34" s="116"/>
-      <c r="R34" s="116"/>
-      <c r="S34" s="111"/>
-      <c r="T34" s="111"/>
-      <c r="U34" s="111"/>
-      <c r="V34" s="117"/>
-      <c r="W34" s="117"/>
-      <c r="X34" s="117"/>
-      <c r="Y34" s="117"/>
-      <c r="Z34" s="117"/>
-      <c r="AA34" s="117"/>
-      <c r="AB34" s="117"/>
-      <c r="AC34" s="117"/>
-      <c r="AD34" s="117"/>
-      <c r="AE34" s="117"/>
-      <c r="AF34" s="117"/>
-      <c r="AG34" s="117"/>
-      <c r="AH34" s="117"/>
-      <c r="AI34" s="117"/>
-      <c r="AJ34" s="117"/>
-      <c r="AK34" s="117"/>
-      <c r="AL34" s="117"/>
-      <c r="AM34" s="117"/>
-      <c r="AN34" s="111"/>
-      <c r="AO34" s="111"/>
-      <c r="AP34" s="111"/>
-      <c r="AQ34" s="111"/>
-      <c r="AR34" s="111"/>
-      <c r="AS34" s="111"/>
-      <c r="AT34" s="111"/>
-      <c r="AU34" s="111"/>
-      <c r="AV34" s="111"/>
-      <c r="AW34" s="111"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="120"/>
+      <c r="K34" s="120"/>
+      <c r="L34" s="120"/>
+      <c r="M34" s="130"/>
+      <c r="N34" s="131"/>
+      <c r="O34" s="131"/>
+      <c r="P34" s="131"/>
+      <c r="Q34" s="131"/>
+      <c r="R34" s="131"/>
+      <c r="S34" s="117"/>
+      <c r="T34" s="117"/>
+      <c r="U34" s="117"/>
+      <c r="V34" s="124"/>
+      <c r="W34" s="124"/>
+      <c r="X34" s="124"/>
+      <c r="Y34" s="124"/>
+      <c r="Z34" s="124"/>
+      <c r="AA34" s="124"/>
+      <c r="AB34" s="124"/>
+      <c r="AC34" s="124"/>
+      <c r="AD34" s="124"/>
+      <c r="AE34" s="124"/>
+      <c r="AF34" s="124"/>
+      <c r="AG34" s="124"/>
+      <c r="AH34" s="124"/>
+      <c r="AI34" s="124"/>
+      <c r="AJ34" s="124"/>
+      <c r="AK34" s="124"/>
+      <c r="AL34" s="124"/>
+      <c r="AM34" s="124"/>
+      <c r="AN34" s="117"/>
+      <c r="AO34" s="117"/>
+      <c r="AP34" s="117"/>
+      <c r="AQ34" s="117"/>
+      <c r="AR34" s="117"/>
+      <c r="AS34" s="117"/>
+      <c r="AT34" s="117"/>
+      <c r="AU34" s="117"/>
+      <c r="AV34" s="117"/>
+      <c r="AW34" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -5879,230 +6082,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6199,17 +6187,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="136" t="str">
+      <c r="AZ1" s="138" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="BA1" s="137"/>
-      <c r="BB1" s="137"/>
-      <c r="BC1" s="137"/>
-      <c r="BD1" s="137"/>
-      <c r="BE1" s="137"/>
-      <c r="BF1" s="137"/>
-      <c r="BG1" s="138"/>
+      <c r="BA1" s="139"/>
+      <c r="BB1" s="139"/>
+      <c r="BC1" s="139"/>
+      <c r="BD1" s="139"/>
+      <c r="BE1" s="139"/>
+      <c r="BF1" s="139"/>
+      <c r="BG1" s="140"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -6275,14 +6263,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="136"/>
-      <c r="BA2" s="137"/>
-      <c r="BB2" s="137"/>
-      <c r="BC2" s="137"/>
-      <c r="BD2" s="137"/>
-      <c r="BE2" s="137"/>
-      <c r="BF2" s="137"/>
-      <c r="BG2" s="138"/>
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="139"/>
+      <c r="BB2" s="139"/>
+      <c r="BC2" s="139"/>
+      <c r="BD2" s="139"/>
+      <c r="BE2" s="139"/>
+      <c r="BF2" s="139"/>
+      <c r="BG2" s="140"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -6362,98 +6350,98 @@
       <c r="B7" s="41"/>
     </row>
     <row r="8" spans="1:59" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
-      <c r="S8" s="80"/>
-      <c r="T8" s="80"/>
-      <c r="U8" s="80"/>
-      <c r="V8" s="80"/>
-      <c r="W8" s="80"/>
-      <c r="X8" s="80"/>
-      <c r="Y8" s="80"/>
-      <c r="Z8" s="80"/>
-      <c r="AA8" s="80"/>
-      <c r="AB8" s="80"/>
-      <c r="AC8" s="80"/>
-      <c r="AD8" s="80"/>
-      <c r="AE8" s="80"/>
-      <c r="AF8" s="80"/>
-      <c r="AG8" s="80"/>
-      <c r="AH8" s="80"/>
-      <c r="AI8" s="80"/>
-      <c r="AJ8" s="80"/>
-      <c r="AK8" s="80"/>
-      <c r="AL8" s="80"/>
-      <c r="AM8" s="80"/>
-      <c r="AN8" s="80"/>
-      <c r="AO8" s="80"/>
-      <c r="AP8" s="80"/>
-      <c r="AQ8" s="80"/>
-      <c r="AR8" s="80"/>
-      <c r="AS8" s="80"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="77"/>
+      <c r="AF8" s="77"/>
+      <c r="AG8" s="77"/>
+      <c r="AH8" s="77"/>
+      <c r="AI8" s="77"/>
+      <c r="AJ8" s="77"/>
+      <c r="AK8" s="77"/>
+      <c r="AL8" s="77"/>
+      <c r="AM8" s="77"/>
+      <c r="AN8" s="77"/>
+      <c r="AO8" s="77"/>
+      <c r="AP8" s="77"/>
+      <c r="AQ8" s="77"/>
+      <c r="AR8" s="77"/>
+      <c r="AS8" s="77"/>
     </row>
     <row r="9" spans="1:59" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="80"/>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="80"/>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="80"/>
-      <c r="AD9" s="80"/>
-      <c r="AE9" s="80"/>
-      <c r="AF9" s="80"/>
-      <c r="AG9" s="80"/>
-      <c r="AH9" s="80"/>
-      <c r="AI9" s="80"/>
-      <c r="AJ9" s="80"/>
-      <c r="AK9" s="80"/>
-      <c r="AL9" s="80"/>
-      <c r="AM9" s="80"/>
-      <c r="AN9" s="80"/>
-      <c r="AO9" s="80"/>
-      <c r="AP9" s="80"/>
-      <c r="AQ9" s="80"/>
-      <c r="AR9" s="80"/>
-      <c r="AS9" s="80"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="77"/>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="77"/>
+      <c r="AD9" s="77"/>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="77"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="77"/>
+      <c r="AJ9" s="77"/>
+      <c r="AK9" s="77"/>
+      <c r="AL9" s="77"/>
+      <c r="AM9" s="77"/>
+      <c r="AN9" s="77"/>
+      <c r="AO9" s="77"/>
+      <c r="AP9" s="77"/>
+      <c r="AQ9" s="77"/>
+      <c r="AR9" s="77"/>
+      <c r="AS9" s="77"/>
     </row>
     <row r="10" spans="1:59" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:59" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -6801,7 +6789,7 @@
       <c r="BB20" s="9"/>
     </row>
     <row r="21" spans="7:54" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="J21" s="91"/>
+      <c r="J21" s="87"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="9"/>
@@ -7501,81 +7489,81 @@
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A41" s="28"/>
-      <c r="B41" s="144" t="s">
+      <c r="B41" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="145"/>
-      <c r="D41" s="88" t="s">
+      <c r="C41" s="133"/>
+      <c r="D41" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="88" t="s">
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="L41" s="89"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="89"/>
-      <c r="O41" s="89"/>
-      <c r="P41" s="89"/>
-      <c r="Q41" s="89"/>
-      <c r="R41" s="89"/>
-      <c r="S41" s="89"/>
-      <c r="T41" s="90"/>
-      <c r="U41" s="88" t="s">
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="85"/>
+      <c r="O41" s="85"/>
+      <c r="P41" s="85"/>
+      <c r="Q41" s="85"/>
+      <c r="R41" s="85"/>
+      <c r="S41" s="85"/>
+      <c r="T41" s="86"/>
+      <c r="U41" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="V41" s="89"/>
-      <c r="W41" s="89"/>
-      <c r="X41" s="89"/>
-      <c r="Y41" s="89"/>
-      <c r="Z41" s="89"/>
-      <c r="AA41" s="89"/>
-      <c r="AB41" s="89"/>
-      <c r="AC41" s="89"/>
-      <c r="AD41" s="90"/>
-      <c r="AE41" s="88" t="s">
+      <c r="V41" s="85"/>
+      <c r="W41" s="85"/>
+      <c r="X41" s="85"/>
+      <c r="Y41" s="85"/>
+      <c r="Z41" s="85"/>
+      <c r="AA41" s="85"/>
+      <c r="AB41" s="85"/>
+      <c r="AC41" s="85"/>
+      <c r="AD41" s="86"/>
+      <c r="AE41" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="AF41" s="90"/>
-      <c r="AG41" s="88" t="s">
+      <c r="AF41" s="86"/>
+      <c r="AG41" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="AH41" s="90"/>
-      <c r="AI41" s="88" t="s">
+      <c r="AH41" s="86"/>
+      <c r="AI41" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="AJ41" s="90"/>
-      <c r="AK41" s="88" t="s">
+      <c r="AJ41" s="86"/>
+      <c r="AK41" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="AL41" s="90"/>
-      <c r="AM41" s="88" t="s">
+      <c r="AL41" s="86"/>
+      <c r="AM41" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="AN41" s="89"/>
-      <c r="AO41" s="89"/>
-      <c r="AP41" s="89"/>
-      <c r="AQ41" s="89"/>
-      <c r="AR41" s="89"/>
-      <c r="AS41" s="89"/>
-      <c r="AT41" s="89"/>
-      <c r="AU41" s="89"/>
-      <c r="AV41" s="89"/>
-      <c r="AW41" s="89"/>
-      <c r="AX41" s="89"/>
-      <c r="AY41" s="89"/>
-      <c r="AZ41" s="89"/>
-      <c r="BA41" s="89"/>
-      <c r="BB41" s="89"/>
-      <c r="BC41" s="89"/>
-      <c r="BD41" s="89"/>
-      <c r="BE41" s="89"/>
-      <c r="BF41" s="90"/>
+      <c r="AN41" s="85"/>
+      <c r="AO41" s="85"/>
+      <c r="AP41" s="85"/>
+      <c r="AQ41" s="85"/>
+      <c r="AR41" s="85"/>
+      <c r="AS41" s="85"/>
+      <c r="AT41" s="85"/>
+      <c r="AU41" s="85"/>
+      <c r="AV41" s="85"/>
+      <c r="AW41" s="85"/>
+      <c r="AX41" s="85"/>
+      <c r="AY41" s="85"/>
+      <c r="AZ41" s="85"/>
+      <c r="BA41" s="85"/>
+      <c r="BB41" s="85"/>
+      <c r="BC41" s="85"/>
+      <c r="BD41" s="85"/>
+      <c r="BE41" s="85"/>
+      <c r="BF41" s="86"/>
       <c r="BG41" s="32"/>
       <c r="BH41" s="32"/>
       <c r="BI41" s="32"/>
@@ -7587,73 +7575,73 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
-      <c r="B42" s="146">
+      <c r="B42" s="134">
         <v>1</v>
       </c>
-      <c r="C42" s="147"/>
-      <c r="D42" s="93" t="s">
+      <c r="C42" s="135"/>
+      <c r="D42" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="82" t="s">
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="82"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="L42" s="86"/>
-      <c r="M42" s="86"/>
-      <c r="N42" s="86"/>
-      <c r="O42" s="86"/>
-      <c r="P42" s="86"/>
-      <c r="Q42" s="86"/>
-      <c r="R42" s="86"/>
-      <c r="S42" s="86"/>
-      <c r="T42" s="87"/>
-      <c r="U42" s="82"/>
-      <c r="V42" s="86"/>
-      <c r="W42" s="86"/>
-      <c r="X42" s="86"/>
-      <c r="Y42" s="86"/>
-      <c r="Z42" s="86"/>
-      <c r="AA42" s="86"/>
-      <c r="AB42" s="86"/>
-      <c r="AC42" s="86"/>
-      <c r="AD42" s="87"/>
-      <c r="AE42" s="139" t="s">
+      <c r="L42" s="82"/>
+      <c r="M42" s="82"/>
+      <c r="N42" s="82"/>
+      <c r="O42" s="82"/>
+      <c r="P42" s="82"/>
+      <c r="Q42" s="82"/>
+      <c r="R42" s="82"/>
+      <c r="S42" s="82"/>
+      <c r="T42" s="83"/>
+      <c r="U42" s="78"/>
+      <c r="V42" s="82"/>
+      <c r="W42" s="82"/>
+      <c r="X42" s="82"/>
+      <c r="Y42" s="82"/>
+      <c r="Z42" s="82"/>
+      <c r="AA42" s="82"/>
+      <c r="AB42" s="82"/>
+      <c r="AC42" s="82"/>
+      <c r="AD42" s="83"/>
+      <c r="AE42" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="AF42" s="140"/>
-      <c r="AG42" s="139"/>
-      <c r="AH42" s="140"/>
-      <c r="AI42" s="139"/>
-      <c r="AJ42" s="140"/>
-      <c r="AK42" s="139"/>
-      <c r="AL42" s="140"/>
-      <c r="AM42" s="83" t="s">
+      <c r="AF42" s="137"/>
+      <c r="AG42" s="136"/>
+      <c r="AH42" s="137"/>
+      <c r="AI42" s="136"/>
+      <c r="AJ42" s="137"/>
+      <c r="AK42" s="136"/>
+      <c r="AL42" s="137"/>
+      <c r="AM42" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="AN42" s="84"/>
-      <c r="AO42" s="84"/>
-      <c r="AP42" s="84"/>
-      <c r="AQ42" s="84"/>
-      <c r="AR42" s="84"/>
-      <c r="AS42" s="84"/>
-      <c r="AT42" s="84"/>
-      <c r="AU42" s="84"/>
-      <c r="AV42" s="84"/>
-      <c r="AW42" s="84"/>
-      <c r="AX42" s="84"/>
-      <c r="AY42" s="84"/>
-      <c r="AZ42" s="84"/>
-      <c r="BA42" s="84"/>
-      <c r="BB42" s="84"/>
-      <c r="BC42" s="84"/>
-      <c r="BD42" s="84"/>
-      <c r="BE42" s="84"/>
-      <c r="BF42" s="85"/>
+      <c r="AN42" s="80"/>
+      <c r="AO42" s="80"/>
+      <c r="AP42" s="80"/>
+      <c r="AQ42" s="80"/>
+      <c r="AR42" s="80"/>
+      <c r="AS42" s="80"/>
+      <c r="AT42" s="80"/>
+      <c r="AU42" s="80"/>
+      <c r="AV42" s="80"/>
+      <c r="AW42" s="80"/>
+      <c r="AX42" s="80"/>
+      <c r="AY42" s="80"/>
+      <c r="AZ42" s="80"/>
+      <c r="BA42" s="80"/>
+      <c r="BB42" s="80"/>
+      <c r="BC42" s="80"/>
+      <c r="BD42" s="80"/>
+      <c r="BE42" s="80"/>
+      <c r="BF42" s="81"/>
       <c r="BG42" s="32"/>
       <c r="BH42" s="32"/>
       <c r="BI42" s="32"/>
@@ -7665,73 +7653,73 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="146">
+      <c r="B43" s="134">
         <v>2</v>
       </c>
-      <c r="C43" s="147"/>
-      <c r="D43" s="82" t="s">
+      <c r="C43" s="135"/>
+      <c r="D43" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="82" t="s">
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="L43" s="86"/>
-      <c r="M43" s="86"/>
-      <c r="N43" s="86"/>
-      <c r="O43" s="86"/>
-      <c r="P43" s="86"/>
-      <c r="Q43" s="86"/>
-      <c r="R43" s="86"/>
-      <c r="S43" s="86"/>
-      <c r="T43" s="87"/>
-      <c r="U43" s="82"/>
-      <c r="V43" s="86"/>
-      <c r="W43" s="86"/>
-      <c r="X43" s="86"/>
-      <c r="Y43" s="86"/>
-      <c r="Z43" s="86"/>
-      <c r="AA43" s="86"/>
-      <c r="AB43" s="86"/>
-      <c r="AC43" s="86"/>
-      <c r="AD43" s="87"/>
-      <c r="AE43" s="139" t="s">
+      <c r="L43" s="82"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="82"/>
+      <c r="O43" s="82"/>
+      <c r="P43" s="82"/>
+      <c r="Q43" s="82"/>
+      <c r="R43" s="82"/>
+      <c r="S43" s="82"/>
+      <c r="T43" s="83"/>
+      <c r="U43" s="78"/>
+      <c r="V43" s="82"/>
+      <c r="W43" s="82"/>
+      <c r="X43" s="82"/>
+      <c r="Y43" s="82"/>
+      <c r="Z43" s="82"/>
+      <c r="AA43" s="82"/>
+      <c r="AB43" s="82"/>
+      <c r="AC43" s="82"/>
+      <c r="AD43" s="83"/>
+      <c r="AE43" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="AF43" s="140"/>
-      <c r="AG43" s="139"/>
-      <c r="AH43" s="140"/>
-      <c r="AI43" s="139"/>
-      <c r="AJ43" s="140"/>
-      <c r="AK43" s="139"/>
-      <c r="AL43" s="140"/>
-      <c r="AM43" s="83" t="s">
+      <c r="AF43" s="137"/>
+      <c r="AG43" s="136"/>
+      <c r="AH43" s="137"/>
+      <c r="AI43" s="136"/>
+      <c r="AJ43" s="137"/>
+      <c r="AK43" s="136"/>
+      <c r="AL43" s="137"/>
+      <c r="AM43" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="AN43" s="84"/>
-      <c r="AO43" s="84"/>
-      <c r="AP43" s="84"/>
-      <c r="AQ43" s="84"/>
-      <c r="AR43" s="84"/>
-      <c r="AS43" s="84"/>
-      <c r="AT43" s="84"/>
-      <c r="AU43" s="84"/>
-      <c r="AV43" s="84"/>
-      <c r="AW43" s="84"/>
-      <c r="AX43" s="84"/>
-      <c r="AY43" s="84"/>
-      <c r="AZ43" s="84"/>
-      <c r="BA43" s="84"/>
-      <c r="BB43" s="84"/>
-      <c r="BC43" s="84"/>
-      <c r="BD43" s="84"/>
-      <c r="BE43" s="84"/>
-      <c r="BF43" s="85"/>
+      <c r="AN43" s="80"/>
+      <c r="AO43" s="80"/>
+      <c r="AP43" s="80"/>
+      <c r="AQ43" s="80"/>
+      <c r="AR43" s="80"/>
+      <c r="AS43" s="80"/>
+      <c r="AT43" s="80"/>
+      <c r="AU43" s="80"/>
+      <c r="AV43" s="80"/>
+      <c r="AW43" s="80"/>
+      <c r="AX43" s="80"/>
+      <c r="AY43" s="80"/>
+      <c r="AZ43" s="80"/>
+      <c r="BA43" s="80"/>
+      <c r="BB43" s="80"/>
+      <c r="BC43" s="80"/>
+      <c r="BD43" s="80"/>
+      <c r="BE43" s="80"/>
+      <c r="BF43" s="81"/>
       <c r="BG43" s="32"/>
       <c r="BH43" s="32"/>
       <c r="BI43" s="32"/>
@@ -7748,11 +7736,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AE43:AF43"/>
     <mergeCell ref="AZ1:BG1"/>
     <mergeCell ref="AZ2:BG2"/>
     <mergeCell ref="AK43:AL43"/>
@@ -7763,6 +7746,11 @@
     <mergeCell ref="AI43:AJ43"/>
     <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AE43:AF43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7791,10 +7779,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="1.625" style="53"/>
+    <col min="1" max="16384" width="1.625" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:113" s="50" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -7890,16 +7878,16 @@
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
-      <c r="CE1" s="150"/>
-      <c r="CF1" s="150"/>
-      <c r="CG1" s="150"/>
-      <c r="CH1" s="150"/>
-      <c r="CI1" s="150"/>
-      <c r="CJ1" s="150"/>
-      <c r="CK1" s="150"/>
-      <c r="CL1" s="150"/>
-      <c r="CM1" s="150"/>
-      <c r="CN1" s="151"/>
+      <c r="CE1" s="146"/>
+      <c r="CF1" s="146"/>
+      <c r="CG1" s="146"/>
+      <c r="CH1" s="146"/>
+      <c r="CI1" s="146"/>
+      <c r="CJ1" s="146"/>
+      <c r="CK1" s="146"/>
+      <c r="CL1" s="146"/>
+      <c r="CM1" s="146"/>
+      <c r="CN1" s="147"/>
       <c r="CO1" s="33" t="s">
         <v>24</v>
       </c>
@@ -7908,25 +7896,25 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="136" t="str">
+      <c r="CU1" s="138" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="CV1" s="148"/>
-      <c r="CW1" s="148"/>
-      <c r="CX1" s="148"/>
-      <c r="CY1" s="148"/>
-      <c r="CZ1" s="148"/>
-      <c r="DA1" s="148"/>
-      <c r="DB1" s="148"/>
-      <c r="DC1" s="148"/>
-      <c r="DD1" s="148"/>
-      <c r="DE1" s="148"/>
-      <c r="DF1" s="148"/>
-      <c r="DG1" s="148"/>
-      <c r="DH1" s="149"/>
-    </row>
-    <row r="2" spans="1:113" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CV1" s="144"/>
+      <c r="CW1" s="144"/>
+      <c r="CX1" s="144"/>
+      <c r="CY1" s="144"/>
+      <c r="CZ1" s="144"/>
+      <c r="DA1" s="144"/>
+      <c r="DB1" s="144"/>
+      <c r="DC1" s="144"/>
+      <c r="DD1" s="144"/>
+      <c r="DE1" s="144"/>
+      <c r="DF1" s="144"/>
+      <c r="DG1" s="144"/>
+      <c r="DH1" s="145"/>
+    </row>
+    <row r="2" spans="1:113" s="50" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -7979,39 +7967,39 @@
       <c r="AQ2" s="37"/>
       <c r="AR2" s="37"/>
       <c r="AS2" s="38"/>
-      <c r="AT2" s="153" t="str">
+      <c r="AT2" s="149" t="str">
         <f>'１．機能概要'!W2</f>
         <v>工程別集計</v>
       </c>
-      <c r="AU2" s="150"/>
-      <c r="AV2" s="150"/>
-      <c r="AW2" s="150"/>
-      <c r="AX2" s="150"/>
-      <c r="AY2" s="150"/>
-      <c r="AZ2" s="150"/>
-      <c r="BA2" s="150"/>
-      <c r="BB2" s="150"/>
-      <c r="BC2" s="150"/>
-      <c r="BD2" s="150"/>
-      <c r="BE2" s="150"/>
-      <c r="BF2" s="150"/>
-      <c r="BG2" s="150"/>
-      <c r="BH2" s="150"/>
-      <c r="BI2" s="150"/>
-      <c r="BJ2" s="150"/>
-      <c r="BK2" s="150"/>
-      <c r="BL2" s="150"/>
-      <c r="BM2" s="150"/>
-      <c r="BN2" s="150"/>
-      <c r="BO2" s="150"/>
-      <c r="BP2" s="150"/>
-      <c r="BQ2" s="150"/>
-      <c r="BR2" s="150"/>
-      <c r="BS2" s="150"/>
-      <c r="BT2" s="150"/>
-      <c r="BU2" s="150"/>
-      <c r="BV2" s="150"/>
-      <c r="BW2" s="151"/>
+      <c r="AU2" s="146"/>
+      <c r="AV2" s="146"/>
+      <c r="AW2" s="146"/>
+      <c r="AX2" s="146"/>
+      <c r="AY2" s="146"/>
+      <c r="AZ2" s="146"/>
+      <c r="BA2" s="146"/>
+      <c r="BB2" s="146"/>
+      <c r="BC2" s="146"/>
+      <c r="BD2" s="146"/>
+      <c r="BE2" s="146"/>
+      <c r="BF2" s="146"/>
+      <c r="BG2" s="146"/>
+      <c r="BH2" s="146"/>
+      <c r="BI2" s="146"/>
+      <c r="BJ2" s="146"/>
+      <c r="BK2" s="146"/>
+      <c r="BL2" s="146"/>
+      <c r="BM2" s="146"/>
+      <c r="BN2" s="146"/>
+      <c r="BO2" s="146"/>
+      <c r="BP2" s="146"/>
+      <c r="BQ2" s="146"/>
+      <c r="BR2" s="146"/>
+      <c r="BS2" s="146"/>
+      <c r="BT2" s="146"/>
+      <c r="BU2" s="146"/>
+      <c r="BV2" s="146"/>
+      <c r="BW2" s="147"/>
       <c r="BX2" s="33" t="s">
         <v>23</v>
       </c>
@@ -8020,17 +8008,17 @@
       <c r="CA2" s="34"/>
       <c r="CB2" s="34"/>
       <c r="CC2" s="35"/>
-      <c r="CD2" s="152"/>
-      <c r="CE2" s="148"/>
-      <c r="CF2" s="148"/>
-      <c r="CG2" s="148"/>
-      <c r="CH2" s="148"/>
-      <c r="CI2" s="148"/>
-      <c r="CJ2" s="148"/>
-      <c r="CK2" s="148"/>
-      <c r="CL2" s="148"/>
-      <c r="CM2" s="148"/>
-      <c r="CN2" s="149"/>
+      <c r="CD2" s="148"/>
+      <c r="CE2" s="144"/>
+      <c r="CF2" s="144"/>
+      <c r="CG2" s="144"/>
+      <c r="CH2" s="144"/>
+      <c r="CI2" s="144"/>
+      <c r="CJ2" s="144"/>
+      <c r="CK2" s="144"/>
+      <c r="CL2" s="144"/>
+      <c r="CM2" s="144"/>
+      <c r="CN2" s="145"/>
       <c r="CO2" s="33" t="s">
         <v>25</v>
       </c>
@@ -8039,66 +8027,66 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="136"/>
-      <c r="CV2" s="148"/>
-      <c r="CW2" s="148"/>
-      <c r="CX2" s="148"/>
-      <c r="CY2" s="148"/>
-      <c r="CZ2" s="148"/>
-      <c r="DA2" s="148"/>
-      <c r="DB2" s="148"/>
-      <c r="DC2" s="148"/>
-      <c r="DD2" s="148"/>
-      <c r="DE2" s="148"/>
-      <c r="DF2" s="148"/>
-      <c r="DG2" s="148"/>
-      <c r="DH2" s="149"/>
+      <c r="CU2" s="138"/>
+      <c r="CV2" s="144"/>
+      <c r="CW2" s="144"/>
+      <c r="CX2" s="144"/>
+      <c r="CY2" s="144"/>
+      <c r="CZ2" s="144"/>
+      <c r="DA2" s="144"/>
+      <c r="DB2" s="144"/>
+      <c r="DC2" s="144"/>
+      <c r="DD2" s="144"/>
+      <c r="DE2" s="144"/>
+      <c r="DF2" s="144"/>
+      <c r="DG2" s="144"/>
+      <c r="DH2" s="145"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="54"/>
-      <c r="AY3" s="54"/>
-      <c r="AZ3" s="54"/>
-      <c r="BA3" s="54"/>
-      <c r="BB3" s="54"/>
-      <c r="BC3" s="54"/>
-      <c r="BD3" s="54"/>
-      <c r="BE3" s="54"/>
-      <c r="BF3" s="54"/>
-      <c r="BG3" s="54"/>
-      <c r="BH3" s="54"/>
-      <c r="BI3" s="54"/>
-      <c r="BJ3" s="54"/>
-      <c r="BK3" s="54"/>
-      <c r="BL3" s="54"/>
-      <c r="BM3" s="54"/>
-      <c r="BN3" s="54"/>
-      <c r="BO3" s="54"/>
-      <c r="BP3" s="54"/>
-      <c r="BQ3" s="54"/>
-      <c r="BR3" s="54"/>
-      <c r="BS3" s="54"/>
-      <c r="BT3" s="54"/>
-      <c r="BU3" s="54"/>
-      <c r="BV3" s="54"/>
-      <c r="BW3" s="54"/>
-      <c r="BX3" s="54"/>
-      <c r="CV3" s="54"/>
-      <c r="CW3" s="54"/>
-      <c r="CX3" s="54"/>
-      <c r="CY3" s="54"/>
-      <c r="CZ3" s="54"/>
-      <c r="DA3" s="54"/>
-      <c r="DB3" s="54"/>
-      <c r="DC3" s="54"/>
-      <c r="DD3" s="54"/>
-      <c r="DE3" s="54"/>
-      <c r="DF3" s="54"/>
-      <c r="DG3" s="54"/>
-      <c r="DH3" s="54"/>
-      <c r="DI3" s="54"/>
+      <c r="AU3" s="52"/>
+      <c r="AV3" s="52"/>
+      <c r="AW3" s="52"/>
+      <c r="AX3" s="52"/>
+      <c r="AY3" s="52"/>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52"/>
+      <c r="BC3" s="52"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52"/>
+      <c r="BF3" s="52"/>
+      <c r="BG3" s="52"/>
+      <c r="BH3" s="52"/>
+      <c r="BI3" s="52"/>
+      <c r="BJ3" s="52"/>
+      <c r="BK3" s="52"/>
+      <c r="BL3" s="52"/>
+      <c r="BM3" s="52"/>
+      <c r="BN3" s="52"/>
+      <c r="BO3" s="52"/>
+      <c r="BP3" s="52"/>
+      <c r="BQ3" s="52"/>
+      <c r="BR3" s="52"/>
+      <c r="BS3" s="52"/>
+      <c r="BT3" s="52"/>
+      <c r="BU3" s="52"/>
+      <c r="BV3" s="52"/>
+      <c r="BW3" s="52"/>
+      <c r="BX3" s="52"/>
+      <c r="CV3" s="52"/>
+      <c r="CW3" s="52"/>
+      <c r="CX3" s="52"/>
+      <c r="CY3" s="52"/>
+      <c r="CZ3" s="52"/>
+      <c r="DA3" s="52"/>
+      <c r="DB3" s="52"/>
+      <c r="DC3" s="52"/>
+      <c r="DD3" s="52"/>
+      <c r="DE3" s="52"/>
+      <c r="DF3" s="52"/>
+      <c r="DG3" s="52"/>
+      <c r="DH3" s="52"/>
+      <c r="DI3" s="52"/>
     </row>
     <row r="4" spans="1:113" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A4" s="29" t="s">
@@ -8132,7 +8120,7 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
@@ -8186,18 +8174,18 @@
       <c r="L1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="64">
+      <c r="M1" s="61">
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="66" t="str">
+      <c r="O1" s="63" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="P1" s="69"/>
+      <c r="P1" s="66"/>
       <c r="Q1" s="23"/>
       <c r="R1" s="23"/>
     </row>
@@ -8226,12 +8214,12 @@
       <c r="L2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="64"/>
-      <c r="N2" s="65" t="s">
+      <c r="M2" s="61"/>
+      <c r="N2" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="69"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="66"/>
       <c r="Q2" s="23"/>
       <c r="R2" s="23"/>
     </row>
@@ -8255,62 +8243,62 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="128" t="s">
+      <c r="D6" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="128" t="s">
+      <c r="E6" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="128" t="s">
+      <c r="F6" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="128" t="s">
+      <c r="G6" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="128" t="s">
+      <c r="H6" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="156" t="s">
+      <c r="I6" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="156" t="s">
+      <c r="J6" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="128" t="s">
+      <c r="K6" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="128" t="s">
+      <c r="L6" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="128" t="s">
+      <c r="M6" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="68" t="s">
+      <c r="N6" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="156" t="s">
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="150" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
       <c r="N7" s="42" t="s">
         <v>64</v>
       </c>
@@ -8320,7 +8308,7 @@
       <c r="P7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="156"/>
+      <c r="Q7" s="150"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -8334,7 +8322,7 @@
       <c r="E8" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="107" t="s">
+      <c r="F8" s="103" t="s">
         <v>136</v>
       </c>
       <c r="G8" s="15" t="s">
@@ -8382,62 +8370,62 @@
     <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="128" t="s">
+      <c r="D11" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="128" t="s">
+      <c r="E11" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="128" t="s">
+      <c r="F11" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="128" t="s">
+      <c r="G11" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="128" t="s">
+      <c r="H11" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="154" t="s">
+      <c r="I11" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="156" t="s">
+      <c r="J11" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="128" t="s">
+      <c r="K11" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="128" t="s">
+      <c r="L11" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="128" t="s">
+      <c r="M11" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="68" t="s">
+      <c r="N11" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="154" t="s">
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="151" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
       <c r="N12" s="42" t="s">
         <v>64</v>
       </c>
@@ -8447,7 +8435,7 @@
       <c r="P12" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="155"/>
+      <c r="Q12" s="152"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
@@ -8476,7 +8464,7 @@
       <c r="J13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="107" t="s">
+      <c r="K13" s="103" t="s">
         <v>173</v>
       </c>
       <c r="L13" s="7" t="s">
@@ -8510,7 +8498,7 @@
       <c r="E14" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="107" t="s">
+      <c r="F14" s="103" t="s">
         <v>137</v>
       </c>
       <c r="G14" s="15" t="s">
@@ -8565,63 +8553,63 @@
     </row>
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="128" t="s">
+      <c r="B18" s="58"/>
+      <c r="C18" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="128" t="s">
+      <c r="D18" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="128" t="s">
+      <c r="E18" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="128" t="s">
+      <c r="F18" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="128" t="s">
+      <c r="G18" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="128" t="s">
+      <c r="H18" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="156" t="s">
+      <c r="I18" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="156" t="s">
+      <c r="J18" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="128" t="s">
+      <c r="K18" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="128" t="s">
+      <c r="L18" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="128" t="s">
+      <c r="M18" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="N18" s="68" t="s">
+      <c r="N18" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="156" t="s">
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="150" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="128"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="109"/>
+      <c r="M19" s="109"/>
       <c r="N19" s="42" t="s">
         <v>64</v>
       </c>
@@ -8631,11 +8619,11 @@
       <c r="P19" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q19" s="156"/>
+      <c r="Q19" s="150"/>
     </row>
     <row r="20" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="55"/>
-      <c r="B20" s="61"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="44" t="s">
         <v>45</v>
       </c>
@@ -8650,13 +8638,13 @@
       <c r="L20" s="47"/>
       <c r="M20" s="46"/>
       <c r="N20" s="46"/>
-      <c r="O20" s="70"/>
+      <c r="O20" s="67"/>
       <c r="P20" s="46"/>
       <c r="Q20" s="48"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
-      <c r="B21" s="60"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="7">
         <v>1</v>
       </c>
@@ -8705,7 +8693,7 @@
     </row>
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
-      <c r="B22" s="60"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="7">
         <v>2</v>
       </c>
@@ -8754,7 +8742,7 @@
     </row>
     <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
-      <c r="B23" s="60"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="7">
         <v>3</v>
       </c>
@@ -8803,7 +8791,7 @@
     </row>
     <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
-      <c r="B24" s="60"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="7">
         <v>4</v>
       </c>
@@ -8828,7 +8816,7 @@
       <c r="J24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K24" s="107" t="s">
+      <c r="K24" s="103" t="s">
         <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
@@ -8850,53 +8838,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="60"/>
-    </row>
-    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-    </row>
-    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="60"/>
-    </row>
-    <row r="28" spans="1:17" s="50" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B28" s="62"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="M28" s="51"/>
-      <c r="Q28" s="51"/>
-    </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="I18:I19"/>
@@ -8913,6 +8856,26 @@
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="M18:M19"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -8944,7 +8907,7 @@
     <col min="1" max="16384" width="4.125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" s="50" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -8993,10 +8956,10 @@
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
-      <c r="AJ1" s="150"/>
-      <c r="AK1" s="150"/>
-      <c r="AL1" s="150"/>
-      <c r="AM1" s="151"/>
+      <c r="AJ1" s="146"/>
+      <c r="AK1" s="146"/>
+      <c r="AL1" s="146"/>
+      <c r="AM1" s="147"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -9005,18 +8968,18 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="136" t="str">
+      <c r="AT1" s="138" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="148"/>
-      <c r="AV1" s="148"/>
-      <c r="AW1" s="148"/>
-      <c r="AX1" s="148"/>
-      <c r="AY1" s="148"/>
-      <c r="AZ1" s="149"/>
-    </row>
-    <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU1" s="144"/>
+      <c r="AV1" s="144"/>
+      <c r="AW1" s="144"/>
+      <c r="AX1" s="144"/>
+      <c r="AY1" s="144"/>
+      <c r="AZ1" s="145"/>
+    </row>
+    <row r="2" spans="1:52" s="50" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -9042,32 +9005,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="153" t="str">
+      <c r="S2" s="149" t="str">
         <f>'１．機能概要'!W2</f>
         <v>工程別集計</v>
       </c>
-      <c r="T2" s="150"/>
-      <c r="U2" s="150"/>
-      <c r="V2" s="150"/>
-      <c r="W2" s="150"/>
-      <c r="X2" s="150"/>
-      <c r="Y2" s="150"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="150"/>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="151"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="146"/>
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="146"/>
+      <c r="AD2" s="147"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="152"/>
-      <c r="AJ2" s="148"/>
-      <c r="AK2" s="148"/>
-      <c r="AL2" s="148"/>
-      <c r="AM2" s="149"/>
+      <c r="AI2" s="148"/>
+      <c r="AJ2" s="144"/>
+      <c r="AK2" s="144"/>
+      <c r="AL2" s="144"/>
+      <c r="AM2" s="145"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -9076,121 +9039,121 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="136"/>
-      <c r="AU2" s="148"/>
-      <c r="AV2" s="148"/>
-      <c r="AW2" s="148"/>
-      <c r="AX2" s="148"/>
-      <c r="AY2" s="148"/>
-      <c r="AZ2" s="149"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="144"/>
+      <c r="AV2" s="144"/>
+      <c r="AW2" s="144"/>
+      <c r="AX2" s="144"/>
+      <c r="AY2" s="144"/>
+      <c r="AZ2" s="145"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="59"/>
-      <c r="AT3" s="59"/>
-      <c r="AU3" s="59"/>
-      <c r="AV3" s="59"/>
-      <c r="AW3" s="59"/>
-      <c r="AX3" s="59"/>
-      <c r="AY3" s="59"/>
-      <c r="AZ3" s="59"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="57"/>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="55"/>
-      <c r="AH4" s="55"/>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="55"/>
-      <c r="AK4" s="55"/>
-      <c r="AL4" s="55"/>
-      <c r="AM4" s="55"/>
-      <c r="AN4" s="55"/>
-      <c r="AO4" s="55"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="55"/>
-      <c r="AR4" s="55"/>
-      <c r="AS4" s="55"/>
-      <c r="AT4" s="55"/>
-      <c r="AU4" s="55"/>
-      <c r="AV4" s="55"/>
-      <c r="AW4" s="55"/>
-      <c r="AX4" s="55"/>
-      <c r="AY4" s="55"/>
-      <c r="AZ4" s="55"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53"/>
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="53"/>
+      <c r="AS4" s="53"/>
+      <c r="AT4" s="53"/>
+      <c r="AU4" s="53"/>
+      <c r="AV4" s="53"/>
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="53"/>
+      <c r="AY4" s="53"/>
+      <c r="AZ4" s="53"/>
     </row>
     <row r="5" spans="1:52" s="16" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
@@ -9198,7 +9161,7 @@
       </c>
     </row>
     <row r="6" spans="1:52" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="63"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="31"/>
     </row>
     <row r="7" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
@@ -9316,16 +9279,16 @@
       <c r="AV8" s="22"/>
     </row>
     <row r="9" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="71"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="68"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
-      <c r="K9" s="72"/>
+      <c r="K9" s="69"/>
       <c r="L9" s="23" t="s">
         <v>122</v>
       </c>
@@ -9364,19 +9327,19 @@
       <c r="AS9" s="23"/>
       <c r="AT9" s="23"/>
       <c r="AU9" s="23"/>
-      <c r="AV9" s="72"/>
+      <c r="AV9" s="69"/>
     </row>
     <row r="10" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="71"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="68"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
-      <c r="K10" s="72"/>
+      <c r="K10" s="69"/>
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
@@ -9413,578 +9376,578 @@
       <c r="AS10" s="23"/>
       <c r="AT10" s="23"/>
       <c r="AU10" s="23"/>
-      <c r="AV10" s="72"/>
+      <c r="AV10" s="69"/>
     </row>
     <row r="11" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="71"/>
-      <c r="L11" s="71" t="s">
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="68"/>
+      <c r="L11" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="M11" s="94" t="s">
+      <c r="M11" s="90" t="s">
         <v>160</v>
       </c>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="94"/>
-      <c r="V11" s="94"/>
-      <c r="W11" s="94"/>
-      <c r="X11" s="94"/>
-      <c r="Y11" s="94"/>
-      <c r="Z11" s="94"/>
-      <c r="AA11" s="94"/>
-      <c r="AB11" s="94"/>
-      <c r="AC11" s="94"/>
-      <c r="AD11" s="94"/>
-      <c r="AE11" s="94"/>
-      <c r="AF11" s="94"/>
-      <c r="AG11" s="94"/>
-      <c r="AH11" s="94"/>
-      <c r="AI11" s="94"/>
-      <c r="AJ11" s="94"/>
-      <c r="AK11" s="94"/>
-      <c r="AL11" s="94"/>
-      <c r="AM11" s="94"/>
-      <c r="AN11" s="94"/>
-      <c r="AO11" s="94"/>
-      <c r="AP11" s="94"/>
-      <c r="AV11" s="72"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="90"/>
+      <c r="AE11" s="90"/>
+      <c r="AF11" s="90"/>
+      <c r="AG11" s="90"/>
+      <c r="AH11" s="90"/>
+      <c r="AI11" s="90"/>
+      <c r="AJ11" s="90"/>
+      <c r="AK11" s="90"/>
+      <c r="AL11" s="90"/>
+      <c r="AM11" s="90"/>
+      <c r="AN11" s="90"/>
+      <c r="AO11" s="90"/>
+      <c r="AP11" s="90"/>
+      <c r="AV11" s="69"/>
     </row>
     <row r="12" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="94" t="s">
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="94"/>
-      <c r="Z12" s="94"/>
-      <c r="AA12" s="94"/>
-      <c r="AB12" s="94"/>
-      <c r="AC12" s="94"/>
-      <c r="AD12" s="94"/>
-      <c r="AE12" s="94"/>
-      <c r="AF12" s="94"/>
-      <c r="AG12" s="94"/>
-      <c r="AH12" s="94"/>
-      <c r="AI12" s="94"/>
-      <c r="AJ12" s="94"/>
-      <c r="AK12" s="94"/>
-      <c r="AL12" s="94"/>
-      <c r="AM12" s="94"/>
-      <c r="AO12" s="94"/>
-      <c r="AP12" s="94"/>
-      <c r="AV12" s="72"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="90"/>
+      <c r="AA12" s="90"/>
+      <c r="AB12" s="90"/>
+      <c r="AC12" s="90"/>
+      <c r="AD12" s="90"/>
+      <c r="AE12" s="90"/>
+      <c r="AF12" s="90"/>
+      <c r="AG12" s="90"/>
+      <c r="AH12" s="90"/>
+      <c r="AI12" s="90"/>
+      <c r="AJ12" s="90"/>
+      <c r="AK12" s="90"/>
+      <c r="AL12" s="90"/>
+      <c r="AM12" s="90"/>
+      <c r="AO12" s="90"/>
+      <c r="AP12" s="90"/>
+      <c r="AV12" s="69"/>
     </row>
     <row r="13" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94" t="s">
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="AL13" s="94"/>
-      <c r="AM13" s="94"/>
-      <c r="AO13" s="94"/>
-      <c r="AP13" s="94"/>
-      <c r="AV13" s="72"/>
+      <c r="AL13" s="90"/>
+      <c r="AM13" s="90"/>
+      <c r="AO13" s="90"/>
+      <c r="AP13" s="90"/>
+      <c r="AV13" s="69"/>
     </row>
     <row r="14" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94" t="s">
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="AL14" s="94"/>
-      <c r="AM14" s="94"/>
-      <c r="AO14" s="94"/>
-      <c r="AP14" s="94"/>
-      <c r="AV14" s="72"/>
+      <c r="AL14" s="90"/>
+      <c r="AM14" s="90"/>
+      <c r="AO14" s="90"/>
+      <c r="AP14" s="90"/>
+      <c r="AV14" s="69"/>
     </row>
     <row r="15" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94" t="s">
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="AL15" s="94"/>
-      <c r="AM15" s="94"/>
-      <c r="AO15" s="94"/>
-      <c r="AP15" s="94"/>
-      <c r="AV15" s="72"/>
+      <c r="AL15" s="90"/>
+      <c r="AM15" s="90"/>
+      <c r="AO15" s="90"/>
+      <c r="AP15" s="90"/>
+      <c r="AV15" s="69"/>
     </row>
     <row r="16" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94" t="s">
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="AL16" s="94"/>
-      <c r="AM16" s="94"/>
-      <c r="AO16" s="94"/>
-      <c r="AP16" s="94"/>
-      <c r="AV16" s="72"/>
+      <c r="AL16" s="90"/>
+      <c r="AM16" s="90"/>
+      <c r="AO16" s="90"/>
+      <c r="AP16" s="90"/>
+      <c r="AV16" s="69"/>
     </row>
     <row r="17" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94" t="s">
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90" t="s">
         <v>158</v>
       </c>
-      <c r="AL17" s="94"/>
-      <c r="AM17" s="94"/>
-      <c r="AO17" s="94"/>
-      <c r="AP17" s="94"/>
-      <c r="AV17" s="72"/>
+      <c r="AL17" s="90"/>
+      <c r="AM17" s="90"/>
+      <c r="AO17" s="90"/>
+      <c r="AP17" s="90"/>
+      <c r="AV17" s="69"/>
     </row>
     <row r="18" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94" t="s">
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="AL18" s="94"/>
-      <c r="AM18" s="94"/>
-      <c r="AO18" s="94"/>
-      <c r="AP18" s="94"/>
-      <c r="AV18" s="72"/>
+      <c r="AL18" s="90"/>
+      <c r="AM18" s="90"/>
+      <c r="AO18" s="90"/>
+      <c r="AP18" s="90"/>
+      <c r="AV18" s="69"/>
     </row>
     <row r="19" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="94"/>
-      <c r="W19" s="94"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="94"/>
-      <c r="AA19" s="94"/>
-      <c r="AB19" s="94"/>
-      <c r="AC19" s="94"/>
-      <c r="AD19" s="94"/>
-      <c r="AE19" s="94"/>
-      <c r="AF19" s="94"/>
-      <c r="AG19" s="94"/>
-      <c r="AH19" s="94"/>
-      <c r="AI19" s="94"/>
-      <c r="AJ19" s="94"/>
-      <c r="AK19" s="94"/>
-      <c r="AL19" s="94"/>
-      <c r="AM19" s="94"/>
-      <c r="AO19" s="94"/>
-      <c r="AP19" s="94"/>
-      <c r="AV19" s="72"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="90"/>
+      <c r="AA19" s="90"/>
+      <c r="AB19" s="90"/>
+      <c r="AC19" s="90"/>
+      <c r="AD19" s="90"/>
+      <c r="AE19" s="90"/>
+      <c r="AF19" s="90"/>
+      <c r="AG19" s="90"/>
+      <c r="AH19" s="90"/>
+      <c r="AI19" s="90"/>
+      <c r="AJ19" s="90"/>
+      <c r="AK19" s="90"/>
+      <c r="AL19" s="90"/>
+      <c r="AM19" s="90"/>
+      <c r="AO19" s="90"/>
+      <c r="AP19" s="90"/>
+      <c r="AV19" s="69"/>
     </row>
     <row r="20" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="94" t="s">
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="94"/>
-      <c r="T20" s="94"/>
-      <c r="U20" s="94"/>
-      <c r="V20" s="94"/>
-      <c r="W20" s="94"/>
-      <c r="X20" s="94"/>
-      <c r="Y20" s="94"/>
-      <c r="Z20" s="94"/>
-      <c r="AA20" s="94"/>
-      <c r="AB20" s="94"/>
-      <c r="AC20" s="94"/>
-      <c r="AD20" s="94"/>
-      <c r="AE20" s="94"/>
-      <c r="AF20" s="94"/>
-      <c r="AG20" s="94"/>
-      <c r="AH20" s="94"/>
-      <c r="AI20" s="94"/>
-      <c r="AJ20" s="94"/>
-      <c r="AK20" s="94"/>
-      <c r="AL20" s="94"/>
-      <c r="AM20" s="94"/>
-      <c r="AO20" s="94"/>
-      <c r="AP20" s="94"/>
-      <c r="AV20" s="72"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="90"/>
+      <c r="AA20" s="90"/>
+      <c r="AB20" s="90"/>
+      <c r="AC20" s="90"/>
+      <c r="AD20" s="90"/>
+      <c r="AE20" s="90"/>
+      <c r="AF20" s="90"/>
+      <c r="AG20" s="90"/>
+      <c r="AH20" s="90"/>
+      <c r="AI20" s="90"/>
+      <c r="AJ20" s="90"/>
+      <c r="AK20" s="90"/>
+      <c r="AL20" s="90"/>
+      <c r="AM20" s="90"/>
+      <c r="AO20" s="90"/>
+      <c r="AP20" s="90"/>
+      <c r="AV20" s="69"/>
     </row>
     <row r="21" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="N21" s="94" t="s">
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="N21" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="94"/>
-      <c r="T21" s="94"/>
-      <c r="U21" s="94"/>
-      <c r="V21" s="94"/>
-      <c r="W21" s="94"/>
-      <c r="X21" s="94"/>
-      <c r="Y21" s="94"/>
-      <c r="Z21" s="94"/>
-      <c r="AA21" s="94"/>
-      <c r="AB21" s="94"/>
-      <c r="AC21" s="94"/>
-      <c r="AD21" s="94"/>
-      <c r="AE21" s="94"/>
-      <c r="AF21" s="94"/>
-      <c r="AG21" s="94"/>
-      <c r="AH21" s="94"/>
-      <c r="AI21" s="94"/>
-      <c r="AJ21" s="94"/>
-      <c r="AK21" s="94"/>
-      <c r="AL21" s="94"/>
-      <c r="AM21" s="94"/>
-      <c r="AO21" s="94"/>
-      <c r="AP21" s="94"/>
-      <c r="AV21" s="72"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="90"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="90"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="90"/>
+      <c r="AB21" s="90"/>
+      <c r="AC21" s="90"/>
+      <c r="AD21" s="90"/>
+      <c r="AE21" s="90"/>
+      <c r="AF21" s="90"/>
+      <c r="AG21" s="90"/>
+      <c r="AH21" s="90"/>
+      <c r="AI21" s="90"/>
+      <c r="AJ21" s="90"/>
+      <c r="AK21" s="90"/>
+      <c r="AL21" s="90"/>
+      <c r="AM21" s="90"/>
+      <c r="AO21" s="90"/>
+      <c r="AP21" s="90"/>
+      <c r="AV21" s="69"/>
     </row>
     <row r="22" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="71"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="105"/>
-      <c r="O22" s="105"/>
-      <c r="P22" s="105"/>
-      <c r="Q22" s="105"/>
-      <c r="R22" s="105"/>
-      <c r="S22" s="105"/>
-      <c r="T22" s="105"/>
-      <c r="U22" s="105"/>
-      <c r="V22" s="105"/>
-      <c r="W22" s="105"/>
-      <c r="X22" s="105"/>
-      <c r="Y22" s="105"/>
-      <c r="Z22" s="105"/>
-      <c r="AA22" s="105"/>
-      <c r="AB22" s="105"/>
-      <c r="AC22" s="105"/>
-      <c r="AD22" s="105"/>
-      <c r="AE22" s="105"/>
-      <c r="AF22" s="105"/>
-      <c r="AG22" s="105"/>
-      <c r="AH22" s="105"/>
-      <c r="AI22" s="105"/>
-      <c r="AJ22" s="105"/>
-      <c r="AK22" s="105"/>
-      <c r="AL22" s="105"/>
-      <c r="AM22" s="105"/>
-      <c r="AN22" s="105"/>
-      <c r="AO22" s="105"/>
-      <c r="AP22" s="105"/>
-      <c r="AQ22" s="105"/>
-      <c r="AV22" s="72"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="68"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="101"/>
+      <c r="O22" s="101"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="101"/>
+      <c r="R22" s="101"/>
+      <c r="S22" s="101"/>
+      <c r="T22" s="101"/>
+      <c r="U22" s="101"/>
+      <c r="V22" s="101"/>
+      <c r="W22" s="101"/>
+      <c r="X22" s="101"/>
+      <c r="Y22" s="101"/>
+      <c r="Z22" s="101"/>
+      <c r="AA22" s="101"/>
+      <c r="AB22" s="101"/>
+      <c r="AC22" s="101"/>
+      <c r="AD22" s="101"/>
+      <c r="AE22" s="101"/>
+      <c r="AF22" s="101"/>
+      <c r="AG22" s="101"/>
+      <c r="AH22" s="101"/>
+      <c r="AI22" s="101"/>
+      <c r="AJ22" s="101"/>
+      <c r="AK22" s="101"/>
+      <c r="AL22" s="101"/>
+      <c r="AM22" s="101"/>
+      <c r="AN22" s="101"/>
+      <c r="AO22" s="101"/>
+      <c r="AP22" s="101"/>
+      <c r="AQ22" s="101"/>
+      <c r="AV22" s="69"/>
     </row>
     <row r="23" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="71"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="106" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="68"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="102" t="s">
         <v>154</v>
       </c>
-      <c r="M23" s="105"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="105"/>
-      <c r="P23" s="105"/>
-      <c r="Q23" s="105"/>
-      <c r="R23" s="105"/>
-      <c r="S23" s="105"/>
-      <c r="T23" s="105"/>
-      <c r="U23" s="105"/>
-      <c r="V23" s="105"/>
-      <c r="W23" s="105"/>
-      <c r="X23" s="105"/>
-      <c r="Y23" s="105"/>
-      <c r="Z23" s="105"/>
-      <c r="AA23" s="105"/>
-      <c r="AB23" s="105"/>
-      <c r="AC23" s="105"/>
-      <c r="AD23" s="105"/>
-      <c r="AE23" s="105"/>
-      <c r="AF23" s="105"/>
-      <c r="AG23" s="105"/>
-      <c r="AH23" s="105"/>
-      <c r="AI23" s="105"/>
-      <c r="AJ23" s="105"/>
-      <c r="AK23" s="105"/>
-      <c r="AL23" s="105"/>
-      <c r="AM23" s="105"/>
-      <c r="AN23" s="105"/>
-      <c r="AO23" s="105"/>
-      <c r="AP23" s="105"/>
-      <c r="AQ23" s="105"/>
-      <c r="AV23" s="72"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="101"/>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="101"/>
+      <c r="R23" s="101"/>
+      <c r="S23" s="101"/>
+      <c r="T23" s="101"/>
+      <c r="U23" s="101"/>
+      <c r="V23" s="101"/>
+      <c r="W23" s="101"/>
+      <c r="X23" s="101"/>
+      <c r="Y23" s="101"/>
+      <c r="Z23" s="101"/>
+      <c r="AA23" s="101"/>
+      <c r="AB23" s="101"/>
+      <c r="AC23" s="101"/>
+      <c r="AD23" s="101"/>
+      <c r="AE23" s="101"/>
+      <c r="AF23" s="101"/>
+      <c r="AG23" s="101"/>
+      <c r="AH23" s="101"/>
+      <c r="AI23" s="101"/>
+      <c r="AJ23" s="101"/>
+      <c r="AK23" s="101"/>
+      <c r="AL23" s="101"/>
+      <c r="AM23" s="101"/>
+      <c r="AN23" s="101"/>
+      <c r="AO23" s="101"/>
+      <c r="AP23" s="101"/>
+      <c r="AQ23" s="101"/>
+      <c r="AV23" s="69"/>
     </row>
     <row r="24" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="71"/>
-      <c r="K24" s="72"/>
-      <c r="M24" s="94" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="68"/>
+      <c r="K24" s="69"/>
+      <c r="M24" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="94"/>
-      <c r="T24" s="94"/>
-      <c r="U24" s="94"/>
-      <c r="V24" s="94"/>
-      <c r="W24" s="94"/>
-      <c r="AV24" s="72"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="90"/>
+      <c r="W24" s="90"/>
+      <c r="AV24" s="69"/>
     </row>
     <row r="25" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="71"/>
-      <c r="K25" s="72"/>
-      <c r="N25" s="94" t="s">
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="68"/>
+      <c r="K25" s="69"/>
+      <c r="N25" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="O25" s="94"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="94"/>
-      <c r="T25" s="94"/>
-      <c r="U25" s="94"/>
-      <c r="V25" s="94"/>
-      <c r="W25" s="94"/>
-      <c r="AV25" s="72"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="90"/>
+      <c r="V25" s="90"/>
+      <c r="W25" s="90"/>
+      <c r="AV25" s="69"/>
     </row>
     <row r="26" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="71"/>
-      <c r="K26" s="72"/>
-      <c r="N26" s="94" t="s">
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="68"/>
+      <c r="K26" s="69"/>
+      <c r="N26" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="O26" s="94"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="94"/>
-      <c r="T26" s="94"/>
-      <c r="U26" s="94"/>
-      <c r="V26" s="94"/>
-      <c r="W26" s="94"/>
-      <c r="AV26" s="72"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="90"/>
+      <c r="Q26" s="90"/>
+      <c r="R26" s="90"/>
+      <c r="S26" s="90"/>
+      <c r="T26" s="90"/>
+      <c r="U26" s="90"/>
+      <c r="V26" s="90"/>
+      <c r="W26" s="90"/>
+      <c r="AV26" s="69"/>
     </row>
     <row r="27" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="71"/>
-      <c r="K27" s="72"/>
-      <c r="N27" s="94" t="s">
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="68"/>
+      <c r="K27" s="69"/>
+      <c r="N27" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="O27" s="94"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="94"/>
-      <c r="S27" s="94"/>
-      <c r="T27" s="94"/>
-      <c r="U27" s="94"/>
-      <c r="V27" s="94"/>
-      <c r="W27" s="94"/>
-      <c r="AV27" s="72"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="90"/>
+      <c r="Q27" s="90"/>
+      <c r="R27" s="90"/>
+      <c r="S27" s="90"/>
+      <c r="T27" s="90"/>
+      <c r="U27" s="90"/>
+      <c r="V27" s="90"/>
+      <c r="W27" s="90"/>
+      <c r="AV27" s="69"/>
     </row>
     <row r="28" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="71"/>
-      <c r="K28" s="72"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="94"/>
-      <c r="U28" s="94"/>
-      <c r="V28" s="94"/>
-      <c r="W28" s="94"/>
-      <c r="AV28" s="72"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="68"/>
+      <c r="K28" s="69"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="90"/>
+      <c r="Q28" s="90"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="90"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="90"/>
+      <c r="W28" s="90"/>
+      <c r="AV28" s="69"/>
     </row>
     <row r="29" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="71"/>
-      <c r="K29" s="72"/>
-      <c r="M29" s="94" t="s">
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="68"/>
+      <c r="K29" s="69"/>
+      <c r="M29" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="94"/>
-      <c r="AV29" s="72"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="90"/>
+      <c r="Q29" s="90"/>
+      <c r="R29" s="90"/>
+      <c r="S29" s="90"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="90"/>
+      <c r="V29" s="90"/>
+      <c r="W29" s="90"/>
+      <c r="AV29" s="69"/>
     </row>
     <row r="30" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="71"/>
-      <c r="K30" s="72"/>
-      <c r="N30" s="94" t="s">
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="68"/>
+      <c r="K30" s="69"/>
+      <c r="N30" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="O30" s="94"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="94"/>
-      <c r="S30" s="94"/>
-      <c r="T30" s="94"/>
-      <c r="U30" s="94"/>
-      <c r="V30" s="94"/>
-      <c r="W30" s="94"/>
-      <c r="AV30" s="72"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="90"/>
+      <c r="R30" s="90"/>
+      <c r="S30" s="90"/>
+      <c r="T30" s="90"/>
+      <c r="U30" s="90"/>
+      <c r="V30" s="90"/>
+      <c r="W30" s="90"/>
+      <c r="AV30" s="69"/>
     </row>
     <row r="31" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="71"/>
-      <c r="K31" s="72"/>
-      <c r="N31" s="94" t="s">
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="68"/>
+      <c r="K31" s="69"/>
+      <c r="N31" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="O31" s="94"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="94"/>
-      <c r="S31" s="94"/>
-      <c r="T31" s="94"/>
-      <c r="U31" s="94"/>
-      <c r="V31" s="94"/>
-      <c r="W31" s="94"/>
-      <c r="AV31" s="72"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="90"/>
+      <c r="Q31" s="90"/>
+      <c r="R31" s="90"/>
+      <c r="S31" s="90"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="90"/>
+      <c r="V31" s="90"/>
+      <c r="W31" s="90"/>
+      <c r="AV31" s="69"/>
     </row>
     <row r="32" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="71"/>
-      <c r="K32" s="72"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="94" t="s">
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="68"/>
+      <c r="K32" s="69"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="94"/>
-      <c r="S32" s="94"/>
-      <c r="T32" s="94"/>
-      <c r="U32" s="94"/>
-      <c r="V32" s="94"/>
-      <c r="W32" s="94"/>
-      <c r="X32" s="94" t="s">
+      <c r="P32" s="90"/>
+      <c r="Q32" s="90"/>
+      <c r="R32" s="90"/>
+      <c r="S32" s="90"/>
+      <c r="T32" s="90"/>
+      <c r="U32" s="90"/>
+      <c r="V32" s="90"/>
+      <c r="W32" s="90"/>
+      <c r="X32" s="90" t="s">
         <v>98</v>
       </c>
       <c r="Y32" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="AV32" s="72"/>
+      <c r="AV32" s="69"/>
     </row>
     <row r="33" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="71"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="68"/>
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
       <c r="J33" s="23"/>
-      <c r="K33" s="72"/>
+      <c r="K33" s="69"/>
       <c r="L33" s="23"/>
       <c r="AD33" s="23"/>
       <c r="AE33" s="23"/>
@@ -10004,39 +9967,39 @@
       <c r="AS33" s="23"/>
       <c r="AT33" s="23"/>
       <c r="AU33" s="23"/>
-      <c r="AV33" s="72"/>
+      <c r="AV33" s="69"/>
     </row>
     <row r="34" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="71"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="68"/>
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
       <c r="J34" s="23"/>
-      <c r="K34" s="72"/>
+      <c r="K34" s="69"/>
       <c r="L34" s="23"/>
-      <c r="M34" s="94" t="s">
+      <c r="M34" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="N34" s="94"/>
-      <c r="O34" s="94"/>
-      <c r="P34" s="94"/>
-      <c r="Q34" s="94"/>
-      <c r="R34" s="94"/>
-      <c r="S34" s="94"/>
-      <c r="T34" s="94"/>
-      <c r="U34" s="94"/>
-      <c r="V34" s="94"/>
-      <c r="W34" s="94"/>
-      <c r="X34" s="94"/>
-      <c r="Y34" s="94"/>
-      <c r="Z34" s="94"/>
-      <c r="AA34" s="94"/>
-      <c r="AB34" s="94"/>
-      <c r="AC34" s="94"/>
+      <c r="N34" s="90"/>
+      <c r="O34" s="90"/>
+      <c r="P34" s="90"/>
+      <c r="Q34" s="90"/>
+      <c r="R34" s="90"/>
+      <c r="S34" s="90"/>
+      <c r="T34" s="90"/>
+      <c r="U34" s="90"/>
+      <c r="V34" s="90"/>
+      <c r="W34" s="90"/>
+      <c r="X34" s="90"/>
+      <c r="Y34" s="90"/>
+      <c r="Z34" s="90"/>
+      <c r="AA34" s="90"/>
+      <c r="AB34" s="90"/>
+      <c r="AC34" s="90"/>
       <c r="AD34" s="23"/>
       <c r="AE34" s="23"/>
       <c r="AF34" s="23"/>
@@ -10055,130 +10018,130 @@
       <c r="AS34" s="23"/>
       <c r="AT34" s="23"/>
       <c r="AU34" s="23"/>
-      <c r="AV34" s="72"/>
+      <c r="AV34" s="69"/>
     </row>
     <row r="35" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="71"/>
-      <c r="K35" s="72"/>
-      <c r="N35" s="94" t="s">
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="68"/>
+      <c r="K35" s="69"/>
+      <c r="N35" s="90" t="s">
         <v>170</v>
       </c>
-      <c r="O35" s="94"/>
-      <c r="P35" s="94"/>
-      <c r="Q35" s="94"/>
-      <c r="R35" s="94"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="94"/>
-      <c r="V35" s="94"/>
-      <c r="X35" s="94" t="s">
+      <c r="O35" s="90"/>
+      <c r="P35" s="90"/>
+      <c r="Q35" s="90"/>
+      <c r="R35" s="90"/>
+      <c r="S35" s="90"/>
+      <c r="T35" s="90"/>
+      <c r="U35" s="90"/>
+      <c r="V35" s="90"/>
+      <c r="X35" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="Y35" s="102" t="s">
+      <c r="Y35" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="Z35" s="94"/>
-      <c r="AA35" s="94"/>
-      <c r="AB35" s="94"/>
-      <c r="AV35" s="72"/>
+      <c r="Z35" s="90"/>
+      <c r="AA35" s="90"/>
+      <c r="AB35" s="90"/>
+      <c r="AV35" s="69"/>
     </row>
     <row r="36" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="71"/>
-      <c r="K36" s="72"/>
-      <c r="N36" s="94" t="s">
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="68"/>
+      <c r="K36" s="69"/>
+      <c r="N36" s="90" t="s">
         <v>165</v>
       </c>
-      <c r="O36" s="94"/>
-      <c r="P36" s="94"/>
-      <c r="Q36" s="94"/>
-      <c r="R36" s="94"/>
-      <c r="S36" s="94"/>
-      <c r="T36" s="94"/>
-      <c r="U36" s="94"/>
-      <c r="V36" s="94"/>
-      <c r="X36" s="94" t="s">
+      <c r="O36" s="90"/>
+      <c r="P36" s="90"/>
+      <c r="Q36" s="90"/>
+      <c r="R36" s="90"/>
+      <c r="S36" s="90"/>
+      <c r="T36" s="90"/>
+      <c r="U36" s="90"/>
+      <c r="V36" s="90"/>
+      <c r="X36" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="Y36" s="94" t="s">
+      <c r="Y36" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="Z36" s="94"/>
-      <c r="AA36" s="94"/>
-      <c r="AB36" s="94"/>
-      <c r="AV36" s="72"/>
+      <c r="Z36" s="90"/>
+      <c r="AA36" s="90"/>
+      <c r="AB36" s="90"/>
+      <c r="AV36" s="69"/>
     </row>
     <row r="37" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="71"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="101"/>
-      <c r="N37" s="94" t="s">
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="68"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="97"/>
+      <c r="N37" s="90" t="s">
         <v>166</v>
       </c>
-      <c r="O37" s="94"/>
-      <c r="P37" s="94"/>
-      <c r="Q37" s="94"/>
-      <c r="R37" s="94"/>
-      <c r="S37" s="94"/>
-      <c r="T37" s="94"/>
-      <c r="U37" s="94"/>
-      <c r="V37" s="94"/>
-      <c r="W37" s="94"/>
-      <c r="X37" s="94" t="s">
+      <c r="O37" s="90"/>
+      <c r="P37" s="90"/>
+      <c r="Q37" s="90"/>
+      <c r="R37" s="90"/>
+      <c r="S37" s="90"/>
+      <c r="T37" s="90"/>
+      <c r="U37" s="90"/>
+      <c r="V37" s="90"/>
+      <c r="W37" s="90"/>
+      <c r="X37" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="Y37" s="102" t="s">
+      <c r="Y37" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="AA37" s="94"/>
-      <c r="AB37" s="94"/>
-      <c r="AC37" s="94"/>
-      <c r="AG37" s="94"/>
-      <c r="AH37" s="94"/>
-      <c r="AI37" s="94"/>
-      <c r="AJ37" s="103"/>
-      <c r="AV37" s="72"/>
+      <c r="AA37" s="90"/>
+      <c r="AB37" s="90"/>
+      <c r="AC37" s="90"/>
+      <c r="AG37" s="90"/>
+      <c r="AH37" s="90"/>
+      <c r="AI37" s="90"/>
+      <c r="AJ37" s="99"/>
+      <c r="AV37" s="69"/>
     </row>
     <row r="38" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="71"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="68"/>
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
       <c r="J38" s="23"/>
-      <c r="K38" s="72"/>
+      <c r="K38" s="69"/>
       <c r="L38" s="23"/>
-      <c r="N38" s="94" t="s">
+      <c r="N38" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="O38" s="94"/>
-      <c r="P38" s="94"/>
-      <c r="Q38" s="94"/>
-      <c r="R38" s="94"/>
-      <c r="S38" s="94"/>
-      <c r="T38" s="94"/>
-      <c r="U38" s="94"/>
-      <c r="V38" s="94"/>
-      <c r="X38" s="94" t="s">
+      <c r="O38" s="90"/>
+      <c r="P38" s="90"/>
+      <c r="Q38" s="90"/>
+      <c r="R38" s="90"/>
+      <c r="S38" s="90"/>
+      <c r="T38" s="90"/>
+      <c r="U38" s="90"/>
+      <c r="V38" s="90"/>
+      <c r="X38" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="Y38" s="94" t="s">
+      <c r="Y38" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="Z38" s="94"/>
-      <c r="AA38" s="94"/>
-      <c r="AB38" s="94"/>
+      <c r="Z38" s="90"/>
+      <c r="AA38" s="90"/>
+      <c r="AB38" s="90"/>
       <c r="AD38" s="23"/>
       <c r="AE38" s="23"/>
       <c r="AF38" s="23"/>
@@ -10199,40 +10162,40 @@
       <c r="AS38" s="23"/>
       <c r="AT38" s="23"/>
       <c r="AU38" s="23"/>
-      <c r="AV38" s="72"/>
+      <c r="AV38" s="69"/>
     </row>
     <row r="39" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="71"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="68"/>
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
       <c r="J39" s="23"/>
-      <c r="K39" s="72"/>
+      <c r="K39" s="69"/>
       <c r="L39" s="23"/>
-      <c r="N39" s="94" t="s">
+      <c r="N39" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="O39" s="94"/>
-      <c r="P39" s="94"/>
-      <c r="Q39" s="94"/>
-      <c r="R39" s="94"/>
-      <c r="S39" s="94"/>
-      <c r="T39" s="94"/>
-      <c r="U39" s="94"/>
-      <c r="V39" s="94"/>
-      <c r="X39" s="94" t="s">
+      <c r="O39" s="90"/>
+      <c r="P39" s="90"/>
+      <c r="Q39" s="90"/>
+      <c r="R39" s="90"/>
+      <c r="S39" s="90"/>
+      <c r="T39" s="90"/>
+      <c r="U39" s="90"/>
+      <c r="V39" s="90"/>
+      <c r="X39" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="Y39" s="94" t="s">
+      <c r="Y39" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="Z39" s="94"/>
-      <c r="AA39" s="94"/>
-      <c r="AB39" s="94"/>
+      <c r="Z39" s="90"/>
+      <c r="AA39" s="90"/>
+      <c r="AB39" s="90"/>
       <c r="AD39" s="23"/>
       <c r="AE39" s="23"/>
       <c r="AF39" s="23"/>
@@ -10253,21 +10216,21 @@
       <c r="AS39" s="23"/>
       <c r="AT39" s="23"/>
       <c r="AU39" s="23"/>
-      <c r="AV39" s="72"/>
+      <c r="AV39" s="69"/>
     </row>
     <row r="40" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="71"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="68"/>
       <c r="H40" s="23"/>
       <c r="I40" s="23"/>
       <c r="J40" s="23"/>
-      <c r="K40" s="72"/>
+      <c r="K40" s="69"/>
       <c r="L40" s="23"/>
-      <c r="M40" s="94"/>
+      <c r="M40" s="90"/>
       <c r="AD40" s="23"/>
       <c r="AE40" s="23"/>
       <c r="AF40" s="23"/>
@@ -10286,66 +10249,66 @@
       <c r="AS40" s="23"/>
       <c r="AT40" s="23"/>
       <c r="AU40" s="23"/>
-      <c r="AV40" s="72"/>
+      <c r="AV40" s="69"/>
     </row>
     <row r="41" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B41" s="71"/>
-      <c r="C41" s="71"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="94" t="s">
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="AM41" s="94"/>
-      <c r="AN41" s="94"/>
-      <c r="AO41" s="94"/>
-      <c r="AP41" s="94"/>
-      <c r="AV41" s="72"/>
+      <c r="AM41" s="90"/>
+      <c r="AN41" s="90"/>
+      <c r="AO41" s="90"/>
+      <c r="AP41" s="90"/>
+      <c r="AV41" s="69"/>
     </row>
     <row r="42" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="71"/>
-      <c r="L42" s="71"/>
-      <c r="N42" s="94" t="s">
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="N42" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="AM42" s="94"/>
-      <c r="AN42" s="94"/>
-      <c r="AO42" s="94"/>
-      <c r="AP42" s="94"/>
-      <c r="AV42" s="72"/>
+      <c r="AM42" s="90"/>
+      <c r="AN42" s="90"/>
+      <c r="AO42" s="90"/>
+      <c r="AP42" s="90"/>
+      <c r="AV42" s="69"/>
     </row>
     <row r="43" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="N43" s="94" t="s">
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="68"/>
+      <c r="L43" s="68"/>
+      <c r="N43" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="AM43" s="94"/>
-      <c r="AN43" s="94"/>
-      <c r="AO43" s="94"/>
-      <c r="AP43" s="94"/>
-      <c r="AV43" s="72"/>
+      <c r="AM43" s="90"/>
+      <c r="AN43" s="90"/>
+      <c r="AO43" s="90"/>
+      <c r="AP43" s="90"/>
+      <c r="AV43" s="69"/>
     </row>
     <row r="44" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="71"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="68"/>
       <c r="H44" s="23"/>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
-      <c r="K44" s="72"/>
+      <c r="K44" s="69"/>
       <c r="L44" s="23"/>
-      <c r="M44" s="94"/>
+      <c r="M44" s="90"/>
       <c r="AD44" s="23"/>
       <c r="AE44" s="23"/>
       <c r="AF44" s="23"/>
@@ -10364,21 +10327,21 @@
       <c r="AS44" s="23"/>
       <c r="AT44" s="23"/>
       <c r="AU44" s="23"/>
-      <c r="AV44" s="72"/>
+      <c r="AV44" s="69"/>
     </row>
     <row r="45" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="71"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="68"/>
       <c r="H45" s="23"/>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
-      <c r="K45" s="72"/>
+      <c r="K45" s="69"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="94" t="s">
+      <c r="M45" s="90" t="s">
         <v>99</v>
       </c>
       <c r="AD45" s="23"/>
@@ -10399,19 +10362,19 @@
       <c r="AS45" s="23"/>
       <c r="AT45" s="23"/>
       <c r="AU45" s="23"/>
-      <c r="AV45" s="72"/>
+      <c r="AV45" s="69"/>
     </row>
     <row r="46" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B46" s="71"/>
-      <c r="C46" s="71"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="71"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="68"/>
       <c r="H46" s="23"/>
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
-      <c r="K46" s="72"/>
+      <c r="K46" s="69"/>
       <c r="L46" s="23"/>
       <c r="N46" s="16" t="s">
         <v>169</v>
@@ -10434,7 +10397,7 @@
       <c r="AS46" s="23"/>
       <c r="AT46" s="23"/>
       <c r="AU46" s="23"/>
-      <c r="AV46" s="72"/>
+      <c r="AV46" s="69"/>
     </row>
     <row r="47" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B47" s="24"/>
@@ -10543,19 +10506,19 @@
       <c r="AV48" s="22"/>
     </row>
     <row r="49" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B49" s="71"/>
-      <c r="C49" s="71"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
       <c r="D49" s="23"/>
       <c r="E49" s="23"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="71" t="s">
+      <c r="F49" s="69"/>
+      <c r="G49" s="68" t="s">
         <v>77</v>
       </c>
       <c r="H49" s="23"/>
       <c r="I49" s="23"/>
       <c r="J49" s="23"/>
-      <c r="K49" s="72"/>
-      <c r="L49" s="71"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="68"/>
       <c r="M49" s="23"/>
       <c r="N49" s="23"/>
       <c r="O49" s="23"/>
@@ -10591,19 +10554,19 @@
       <c r="AS49" s="23"/>
       <c r="AT49" s="23"/>
       <c r="AU49" s="23"/>
-      <c r="AV49" s="72"/>
+      <c r="AV49" s="69"/>
     </row>
     <row r="50" spans="2:48" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B50" s="71"/>
-      <c r="C50" s="71"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="71"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="68"/>
       <c r="H50" s="23"/>
       <c r="I50" s="23"/>
       <c r="J50" s="23"/>
-      <c r="K50" s="72"/>
+      <c r="K50" s="69"/>
       <c r="L50" s="24"/>
       <c r="M50" s="25"/>
       <c r="N50" s="25"/>
@@ -10677,7 +10640,7 @@
     <col min="1" max="16384" width="4.125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" s="50" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -10726,10 +10689,10 @@
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
-      <c r="AJ1" s="150"/>
-      <c r="AK1" s="150"/>
-      <c r="AL1" s="150"/>
-      <c r="AM1" s="151"/>
+      <c r="AJ1" s="146"/>
+      <c r="AK1" s="146"/>
+      <c r="AL1" s="146"/>
+      <c r="AM1" s="147"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -10738,18 +10701,18 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="136" t="str">
+      <c r="AT1" s="138" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="148"/>
-      <c r="AV1" s="148"/>
-      <c r="AW1" s="148"/>
-      <c r="AX1" s="148"/>
-      <c r="AY1" s="148"/>
-      <c r="AZ1" s="149"/>
-    </row>
-    <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU1" s="144"/>
+      <c r="AV1" s="144"/>
+      <c r="AW1" s="144"/>
+      <c r="AX1" s="144"/>
+      <c r="AY1" s="144"/>
+      <c r="AZ1" s="145"/>
+    </row>
+    <row r="2" spans="1:52" s="50" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -10775,32 +10738,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="153" t="str">
+      <c r="S2" s="149" t="str">
         <f>'１．機能概要'!W2</f>
         <v>工程別集計</v>
       </c>
-      <c r="T2" s="150"/>
-      <c r="U2" s="150"/>
-      <c r="V2" s="150"/>
-      <c r="W2" s="150"/>
-      <c r="X2" s="150"/>
-      <c r="Y2" s="150"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="150"/>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="151"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="146"/>
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="146"/>
+      <c r="AD2" s="147"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="152"/>
-      <c r="AJ2" s="148"/>
-      <c r="AK2" s="148"/>
-      <c r="AL2" s="148"/>
-      <c r="AM2" s="149"/>
+      <c r="AI2" s="148"/>
+      <c r="AJ2" s="144"/>
+      <c r="AK2" s="144"/>
+      <c r="AL2" s="144"/>
+      <c r="AM2" s="145"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -10809,121 +10772,121 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="136"/>
-      <c r="AU2" s="148"/>
-      <c r="AV2" s="148"/>
-      <c r="AW2" s="148"/>
-      <c r="AX2" s="148"/>
-      <c r="AY2" s="148"/>
-      <c r="AZ2" s="149"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="144"/>
+      <c r="AV2" s="144"/>
+      <c r="AW2" s="144"/>
+      <c r="AX2" s="144"/>
+      <c r="AY2" s="144"/>
+      <c r="AZ2" s="145"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="59"/>
-      <c r="AT3" s="59"/>
-      <c r="AU3" s="59"/>
-      <c r="AV3" s="59"/>
-      <c r="AW3" s="59"/>
-      <c r="AX3" s="59"/>
-      <c r="AY3" s="59"/>
-      <c r="AZ3" s="59"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="57"/>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="55"/>
-      <c r="AH4" s="55"/>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="55"/>
-      <c r="AK4" s="55"/>
-      <c r="AL4" s="55"/>
-      <c r="AM4" s="55"/>
-      <c r="AN4" s="55"/>
-      <c r="AO4" s="55"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="55"/>
-      <c r="AR4" s="55"/>
-      <c r="AS4" s="55"/>
-      <c r="AT4" s="55"/>
-      <c r="AU4" s="55"/>
-      <c r="AV4" s="55"/>
-      <c r="AW4" s="55"/>
-      <c r="AX4" s="55"/>
-      <c r="AY4" s="55"/>
-      <c r="AZ4" s="55"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53"/>
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="53"/>
+      <c r="AS4" s="53"/>
+      <c r="AT4" s="53"/>
+      <c r="AU4" s="53"/>
+      <c r="AV4" s="53"/>
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="53"/>
+      <c r="AY4" s="53"/>
+      <c r="AZ4" s="53"/>
     </row>
     <row r="5" spans="1:52" ht="21" x14ac:dyDescent="0.15">
       <c r="A5" s="27" t="s">
@@ -10932,54 +10895,54 @@
       <c r="B5" s="27"/>
       <c r="C5" s="32"/>
       <c r="D5" s="32"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="55"/>
-      <c r="AH5" s="55"/>
-      <c r="AI5" s="55"/>
-      <c r="AJ5" s="55"/>
-      <c r="AK5" s="55"/>
-      <c r="AL5" s="55"/>
-      <c r="AM5" s="55"/>
-      <c r="AN5" s="55"/>
-      <c r="AO5" s="55"/>
-      <c r="AP5" s="55"/>
-      <c r="AQ5" s="55"/>
-      <c r="AR5" s="55"/>
-      <c r="AS5" s="55"/>
-      <c r="AT5" s="55"/>
-      <c r="AU5" s="55"/>
-      <c r="AV5" s="55"/>
-      <c r="AW5" s="55"/>
-      <c r="AX5" s="55"/>
-      <c r="AY5" s="55"/>
-      <c r="AZ5" s="55"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="53"/>
+      <c r="AP5" s="53"/>
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="53"/>
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
     </row>
     <row r="6" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B6" s="17" t="s">
@@ -11157,15 +11120,15 @@
       <c r="B9" s="20">
         <v>2</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="72"/>
       <c r="J9" s="20"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
@@ -11173,49 +11136,49 @@
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
       <c r="P9" s="22"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="75"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="72"/>
       <c r="T9" s="21"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="74"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="74"/>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="74"/>
-      <c r="AH9" s="74"/>
-      <c r="AI9" s="74"/>
-      <c r="AJ9" s="74"/>
-      <c r="AK9" s="74"/>
-      <c r="AL9" s="74"/>
-      <c r="AM9" s="74"/>
-      <c r="AN9" s="74"/>
-      <c r="AO9" s="74"/>
-      <c r="AP9" s="74"/>
-      <c r="AQ9" s="74"/>
-      <c r="AR9" s="74"/>
-      <c r="AS9" s="74"/>
-      <c r="AT9" s="74"/>
-      <c r="AU9" s="74"/>
-      <c r="AV9" s="74"/>
-      <c r="AW9" s="75"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="71"/>
+      <c r="AF9" s="71"/>
+      <c r="AG9" s="71"/>
+      <c r="AH9" s="71"/>
+      <c r="AI9" s="71"/>
+      <c r="AJ9" s="71"/>
+      <c r="AK9" s="71"/>
+      <c r="AL9" s="71"/>
+      <c r="AM9" s="71"/>
+      <c r="AN9" s="71"/>
+      <c r="AO9" s="71"/>
+      <c r="AP9" s="71"/>
+      <c r="AQ9" s="71"/>
+      <c r="AR9" s="71"/>
+      <c r="AS9" s="71"/>
+      <c r="AT9" s="71"/>
+      <c r="AU9" s="71"/>
+      <c r="AV9" s="71"/>
+      <c r="AW9" s="72"/>
     </row>
     <row r="10" spans="1:52" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B10" s="24"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="78"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="75"/>
       <c r="J10" s="24"/>
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
@@ -11223,39 +11186,39 @@
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
       <c r="P10" s="26"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="77"/>
-      <c r="AD10" s="76"/>
-      <c r="AE10" s="77"/>
-      <c r="AF10" s="77"/>
-      <c r="AG10" s="77"/>
-      <c r="AH10" s="77"/>
-      <c r="AI10" s="77"/>
-      <c r="AJ10" s="77"/>
-      <c r="AK10" s="77"/>
-      <c r="AL10" s="77"/>
-      <c r="AM10" s="77"/>
-      <c r="AN10" s="77"/>
-      <c r="AO10" s="77"/>
-      <c r="AP10" s="77"/>
-      <c r="AQ10" s="77"/>
-      <c r="AR10" s="77"/>
-      <c r="AS10" s="77"/>
-      <c r="AT10" s="77"/>
-      <c r="AU10" s="77"/>
-      <c r="AV10" s="77"/>
-      <c r="AW10" s="78"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="73"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="74"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="74"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11292,7 +11255,7 @@
     <col min="1" max="16384" width="4.125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" s="50" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -11341,10 +11304,10 @@
         <f>変更履歴!E5</f>
         <v>43721</v>
       </c>
-      <c r="AJ1" s="150"/>
-      <c r="AK1" s="150"/>
-      <c r="AL1" s="150"/>
-      <c r="AM1" s="151"/>
+      <c r="AJ1" s="146"/>
+      <c r="AK1" s="146"/>
+      <c r="AL1" s="146"/>
+      <c r="AM1" s="147"/>
       <c r="AN1" s="33" t="s">
         <v>24</v>
       </c>
@@ -11353,18 +11316,18 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="136" t="str">
+      <c r="AT1" s="138" t="str">
         <f>変更履歴!AN5</f>
         <v>李</v>
       </c>
-      <c r="AU1" s="148"/>
-      <c r="AV1" s="148"/>
-      <c r="AW1" s="148"/>
-      <c r="AX1" s="148"/>
-      <c r="AY1" s="148"/>
-      <c r="AZ1" s="149"/>
-    </row>
-    <row r="2" spans="1:52" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU1" s="144"/>
+      <c r="AV1" s="144"/>
+      <c r="AW1" s="144"/>
+      <c r="AX1" s="144"/>
+      <c r="AY1" s="144"/>
+      <c r="AZ1" s="145"/>
+    </row>
+    <row r="2" spans="1:52" s="50" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -11390,32 +11353,32 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="38"/>
-      <c r="S2" s="153" t="str">
+      <c r="S2" s="149" t="str">
         <f>'１．機能概要'!W2</f>
         <v>工程別集計</v>
       </c>
-      <c r="T2" s="150"/>
-      <c r="U2" s="150"/>
-      <c r="V2" s="150"/>
-      <c r="W2" s="150"/>
-      <c r="X2" s="150"/>
-      <c r="Y2" s="150"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="150"/>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="151"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="146"/>
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="146"/>
+      <c r="AD2" s="147"/>
       <c r="AE2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="152"/>
-      <c r="AJ2" s="148"/>
-      <c r="AK2" s="148"/>
-      <c r="AL2" s="148"/>
-      <c r="AM2" s="149"/>
+      <c r="AI2" s="148"/>
+      <c r="AJ2" s="144"/>
+      <c r="AK2" s="144"/>
+      <c r="AL2" s="144"/>
+      <c r="AM2" s="145"/>
       <c r="AN2" s="33" t="s">
         <v>25</v>
       </c>
@@ -11424,121 +11387,121 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="136"/>
-      <c r="AU2" s="148"/>
-      <c r="AV2" s="148"/>
-      <c r="AW2" s="148"/>
-      <c r="AX2" s="148"/>
-      <c r="AY2" s="148"/>
-      <c r="AZ2" s="149"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="144"/>
+      <c r="AV2" s="144"/>
+      <c r="AW2" s="144"/>
+      <c r="AX2" s="144"/>
+      <c r="AY2" s="144"/>
+      <c r="AZ2" s="145"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="59"/>
-      <c r="AT3" s="59"/>
-      <c r="AU3" s="59"/>
-      <c r="AV3" s="59"/>
-      <c r="AW3" s="59"/>
-      <c r="AX3" s="59"/>
-      <c r="AY3" s="59"/>
-      <c r="AZ3" s="59"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="57"/>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="55"/>
-      <c r="AH4" s="55"/>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="55"/>
-      <c r="AK4" s="55"/>
-      <c r="AL4" s="55"/>
-      <c r="AM4" s="55"/>
-      <c r="AN4" s="55"/>
-      <c r="AO4" s="55"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="55"/>
-      <c r="AR4" s="55"/>
-      <c r="AS4" s="55"/>
-      <c r="AT4" s="55"/>
-      <c r="AU4" s="55"/>
-      <c r="AV4" s="55"/>
-      <c r="AW4" s="55"/>
-      <c r="AX4" s="55"/>
-      <c r="AY4" s="55"/>
-      <c r="AZ4" s="55"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53"/>
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="53"/>
+      <c r="AS4" s="53"/>
+      <c r="AT4" s="53"/>
+      <c r="AU4" s="53"/>
+      <c r="AV4" s="53"/>
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="53"/>
+      <c r="AY4" s="53"/>
+      <c r="AZ4" s="53"/>
     </row>
     <row r="5" spans="1:52" ht="21" x14ac:dyDescent="0.15">
       <c r="A5" s="27" t="s">
@@ -11547,184 +11510,184 @@
       <c r="B5" s="27"/>
       <c r="C5" s="32"/>
       <c r="D5" s="32"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="55"/>
-      <c r="AH5" s="55"/>
-      <c r="AI5" s="55"/>
-      <c r="AJ5" s="55"/>
-      <c r="AK5" s="55"/>
-      <c r="AL5" s="55"/>
-      <c r="AM5" s="55"/>
-      <c r="AN5" s="55"/>
-      <c r="AO5" s="55"/>
-      <c r="AP5" s="55"/>
-      <c r="AQ5" s="55"/>
-      <c r="AR5" s="55"/>
-      <c r="AS5" s="55"/>
-      <c r="AT5" s="55"/>
-      <c r="AU5" s="55"/>
-      <c r="AV5" s="55"/>
-      <c r="AW5" s="55"/>
-      <c r="AX5" s="55"/>
-      <c r="AY5" s="55"/>
-      <c r="AZ5" s="55"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="53"/>
+      <c r="AP5" s="53"/>
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="53"/>
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
     </row>
     <row r="6" spans="1:52" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="32" t="s">
         <v>126</v>
       </c>
       <c r="C6" s="29"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="55"/>
-      <c r="AA6" s="55"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55"/>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="55"/>
-      <c r="AH6" s="55"/>
-      <c r="AI6" s="55"/>
-      <c r="AJ6" s="55"/>
-      <c r="AK6" s="55"/>
-      <c r="AL6" s="55"/>
-      <c r="AM6" s="55"/>
-      <c r="AN6" s="55"/>
-      <c r="AO6" s="55"/>
-      <c r="AP6" s="55"/>
-      <c r="AQ6" s="55"/>
-      <c r="AR6" s="55"/>
-      <c r="AS6" s="55"/>
-      <c r="AT6" s="55"/>
-      <c r="AU6" s="55"/>
-      <c r="AV6" s="55"/>
-      <c r="AW6" s="55"/>
-      <c r="AX6" s="55"/>
-      <c r="AY6" s="55"/>
-      <c r="AZ6" s="55"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="53"/>
+      <c r="AM6" s="53"/>
+      <c r="AN6" s="53"/>
+      <c r="AO6" s="53"/>
+      <c r="AP6" s="53"/>
+      <c r="AQ6" s="53"/>
+      <c r="AR6" s="53"/>
+      <c r="AS6" s="53"/>
+      <c r="AT6" s="53"/>
+      <c r="AU6" s="53"/>
+      <c r="AV6" s="53"/>
+      <c r="AW6" s="53"/>
+      <c r="AX6" s="53"/>
+      <c r="AY6" s="53"/>
+      <c r="AZ6" s="53"/>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A7" s="55"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="55"/>
-      <c r="AG7" s="55"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="55"/>
-      <c r="AJ7" s="55"/>
-      <c r="AK7" s="55"/>
-      <c r="AL7" s="55"/>
-      <c r="AM7" s="55"/>
-      <c r="AN7" s="55"/>
-      <c r="AO7" s="55"/>
-      <c r="AP7" s="55"/>
-      <c r="AQ7" s="55"/>
-      <c r="AR7" s="55"/>
-      <c r="AS7" s="55"/>
-      <c r="AT7" s="55"/>
-      <c r="AU7" s="55"/>
-      <c r="AV7" s="55"/>
-      <c r="AW7" s="55"/>
-      <c r="AX7" s="55"/>
-      <c r="AY7" s="55"/>
-      <c r="AZ7" s="55"/>
-    </row>
-    <row r="8" spans="1:52" s="95" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="100"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="96"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="53"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="53"/>
+      <c r="AK7" s="53"/>
+      <c r="AL7" s="53"/>
+      <c r="AM7" s="53"/>
+      <c r="AN7" s="53"/>
+      <c r="AO7" s="53"/>
+      <c r="AP7" s="53"/>
+      <c r="AQ7" s="53"/>
+      <c r="AR7" s="53"/>
+      <c r="AS7" s="53"/>
+      <c r="AT7" s="53"/>
+      <c r="AU7" s="53"/>
+      <c r="AV7" s="53"/>
+      <c r="AW7" s="53"/>
+      <c r="AX7" s="53"/>
+      <c r="AY7" s="53"/>
+      <c r="AZ7" s="53"/>
+    </row>
+    <row r="8" spans="1:52" s="91" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="96"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11750,15 +11713,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -11916,6 +11870,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
@@ -11926,14 +11889,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11949,4 +11904,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K21A_工程別集計.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K21A_工程別集計.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\成果物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201912\Backdoor\設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFEA7BB-B0F3-44CD-BD5F-C081C71A8F9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF220694-6C6B-4FA7-BA44-878CEC699410}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,10 @@
     <sheet name="４．イベント仕様" sheetId="17" r:id="rId6"/>
     <sheet name="５．メッセージ仕様" sheetId="18" r:id="rId7"/>
     <sheet name="６．補足事項" sheetId="16" r:id="rId8"/>
+    <sheet name="参照用レイアウト" sheetId="19" state="hidden" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="___PQ420" localSheetId="4" hidden="1">{"'フローチャート'!$A$1:$AO$191"}</definedName>
@@ -121,22 +122,12 @@
     <definedName name="振分けポリシー">#REF!</definedName>
     <definedName name="非営業日">[1]休日!$B$16:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="2"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179021" concurrentManualCount="2"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="217">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1258,6 +1249,193 @@
     <t>K-21A</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>□</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Login user(ログイン者)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ＸＸＸ　ＸＸＸ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Connection environment(接続環境)</t>
+    <rPh sb="23" eb="27">
+      <t>セツゾクカンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 本番環境</t>
+    <rPh sb="1" eb="3">
+      <t>ホンバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>▼</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2019/05/28</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>15:10</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>2019/09</t>
+    <phoneticPr fontId="45"/>
+  </si>
+  <si>
+    <t>Search results</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(検索結果)</t>
+    <rPh sb="1" eb="3">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Search time</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>：</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>yyyy/MM/dd hh:mm</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(検索時間)</t>
+    <rPh sb="1" eb="3">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Process code</t>
+    <phoneticPr fontId="45"/>
+  </si>
+  <si>
+    <t>Process abbreviation</t>
+    <phoneticPr fontId="45"/>
+  </si>
+  <si>
+    <t>(工程コード)</t>
+    <rPh sb="1" eb="3">
+      <t>コウテイ</t>
+    </rPh>
+    <phoneticPr fontId="45"/>
+  </si>
+  <si>
+    <t>(工程略称)</t>
+    <phoneticPr fontId="45"/>
+  </si>
+  <si>
+    <t>▲</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>[K-21A]Total by process(工程別集計) Ver.1.0.0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Total by process(工程別集計)</t>
+    <rPh sb="17" eb="19">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Target date(対象年月)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Issues division(払出区分)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>3：開発</t>
+    <phoneticPr fontId="45"/>
+  </si>
+  <si>
+    <t>Issues quantity total
+(払出数量合計)</t>
+    <phoneticPr fontId="45"/>
+  </si>
 </sst>
 </file>
 
@@ -1267,7 +1445,7 @@
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1505,8 +1683,120 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1549,8 +1839,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3366CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1716,8 +2024,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -1751,8 +2099,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
@@ -2054,6 +2405,47 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2084,46 +2476,29 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2137,30 +2512,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2179,17 +2530,339 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="4" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="4" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="8" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="8" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="9" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="9" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="9" borderId="5" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="9" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="9" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="9" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="9" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="7" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="7" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="7" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="9" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="9" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="9" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="9" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="9" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="9" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="9" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="7" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="7" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="7" borderId="17" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="7" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="7" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="7" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="7" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="7" borderId="17" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="7" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="7" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="7" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="4" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="4" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="4" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="4" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="4" borderId="10" xfId="7" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="4" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="9" xfId="7" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="7" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="7" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="7" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="7" borderId="8" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="7" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="7" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="7" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="7" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="7" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="9" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="10" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="7" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="7" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="10" xfId="7" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="8" xfId="7" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="16">
     <cellStyle name="40% - アクセント 1" xfId="6" builtinId="31"/>
     <cellStyle name="60% - アクセント 1" xfId="1" builtinId="32"/>
     <cellStyle name="通貨 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -2198,6 +2871,7 @@
     <cellStyle name="標準 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="標準 2 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="標準 2 2 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準 2 2 4" xfId="15" xr:uid="{A77F53F5-A7D0-4559-A45F-9D5AAD87999C}"/>
     <cellStyle name="標準 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="標準 2 4" xfId="14" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="標準 3" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
@@ -3125,48 +3799,171 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>82</xdr:col>
+          <xdr:colOff>85725</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="図 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AEBA60B-78B1-4E6C-A755-E8268842AE8D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="参照用レイアウト!$B$2:$CB$34" spid="_x0000_s3075"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="371475" y="1095375"/>
+              <a:ext cx="9867900" cy="5981700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>20108</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>94108</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>170779</xdr:rowOff>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="角丸四角形 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79816FB6-8F1E-4DD8-A947-0A5D8D58F700}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70BF8259-DF55-45F1-88DF-E1025E82B709}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371475" y="1095375"/>
-          <a:ext cx="9133333" cy="5371429"/>
+          <a:off x="8764058" y="15256933"/>
+          <a:ext cx="1104900" cy="542925"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Return</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4078,1770 +4875,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="107"/>
-      <c r="AH1" s="107"/>
-      <c r="AI1" s="107"/>
-      <c r="AJ1" s="107"/>
-      <c r="AK1" s="107"/>
-      <c r="AL1" s="107"/>
-      <c r="AM1" s="107"/>
-      <c r="AN1" s="107"/>
-      <c r="AO1" s="107"/>
-      <c r="AP1" s="107"/>
-      <c r="AQ1" s="107"/>
-      <c r="AR1" s="107"/>
-      <c r="AS1" s="107"/>
-      <c r="AT1" s="107"/>
-      <c r="AU1" s="107"/>
-      <c r="AV1" s="107"/>
-      <c r="AW1" s="107"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
+      <c r="X1" s="122"/>
+      <c r="Y1" s="122"/>
+      <c r="Z1" s="122"/>
+      <c r="AA1" s="122"/>
+      <c r="AB1" s="122"/>
+      <c r="AC1" s="122"/>
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="122"/>
+      <c r="AH1" s="122"/>
+      <c r="AI1" s="122"/>
+      <c r="AJ1" s="122"/>
+      <c r="AK1" s="122"/>
+      <c r="AL1" s="122"/>
+      <c r="AM1" s="122"/>
+      <c r="AN1" s="122"/>
+      <c r="AO1" s="122"/>
+      <c r="AP1" s="122"/>
+      <c r="AQ1" s="122"/>
+      <c r="AR1" s="122"/>
+      <c r="AS1" s="122"/>
+      <c r="AT1" s="122"/>
+      <c r="AU1" s="122"/>
+      <c r="AV1" s="122"/>
+      <c r="AW1" s="122"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="108"/>
-      <c r="AF2" s="108"/>
-      <c r="AG2" s="108"/>
-      <c r="AH2" s="108"/>
-      <c r="AI2" s="108"/>
-      <c r="AJ2" s="108"/>
-      <c r="AK2" s="108"/>
-      <c r="AL2" s="108"/>
-      <c r="AM2" s="108"/>
-      <c r="AN2" s="108"/>
-      <c r="AO2" s="108"/>
-      <c r="AP2" s="108"/>
-      <c r="AQ2" s="108"/>
-      <c r="AR2" s="108"/>
-      <c r="AS2" s="108"/>
-      <c r="AT2" s="108"/>
-      <c r="AU2" s="108"/>
-      <c r="AV2" s="108"/>
-      <c r="AW2" s="108"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="123"/>
+      <c r="W2" s="123"/>
+      <c r="X2" s="123"/>
+      <c r="Y2" s="123"/>
+      <c r="Z2" s="123"/>
+      <c r="AA2" s="123"/>
+      <c r="AB2" s="123"/>
+      <c r="AC2" s="123"/>
+      <c r="AD2" s="123"/>
+      <c r="AE2" s="123"/>
+      <c r="AF2" s="123"/>
+      <c r="AG2" s="123"/>
+      <c r="AH2" s="123"/>
+      <c r="AI2" s="123"/>
+      <c r="AJ2" s="123"/>
+      <c r="AK2" s="123"/>
+      <c r="AL2" s="123"/>
+      <c r="AM2" s="123"/>
+      <c r="AN2" s="123"/>
+      <c r="AO2" s="123"/>
+      <c r="AP2" s="123"/>
+      <c r="AQ2" s="123"/>
+      <c r="AR2" s="123"/>
+      <c r="AS2" s="123"/>
+      <c r="AT2" s="123"/>
+      <c r="AU2" s="123"/>
+      <c r="AV2" s="123"/>
+      <c r="AW2" s="123"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109" t="s">
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="111" t="s">
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="112"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="111" t="s">
+      <c r="K3" s="127"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="109" t="s">
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109" t="s">
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="109"/>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="109"/>
-      <c r="AG3" s="109"/>
-      <c r="AH3" s="109"/>
-      <c r="AI3" s="109"/>
-      <c r="AJ3" s="109"/>
-      <c r="AK3" s="109"/>
-      <c r="AL3" s="109"/>
-      <c r="AM3" s="109"/>
-      <c r="AN3" s="109" t="s">
+      <c r="W3" s="124"/>
+      <c r="X3" s="124"/>
+      <c r="Y3" s="124"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="124"/>
+      <c r="AF3" s="124"/>
+      <c r="AG3" s="124"/>
+      <c r="AH3" s="124"/>
+      <c r="AI3" s="124"/>
+      <c r="AJ3" s="124"/>
+      <c r="AK3" s="124"/>
+      <c r="AL3" s="124"/>
+      <c r="AM3" s="124"/>
+      <c r="AN3" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="109"/>
-      <c r="AP3" s="109"/>
-      <c r="AQ3" s="109"/>
-      <c r="AR3" s="109"/>
-      <c r="AS3" s="109" t="s">
+      <c r="AO3" s="124"/>
+      <c r="AP3" s="124"/>
+      <c r="AQ3" s="124"/>
+      <c r="AR3" s="124"/>
+      <c r="AS3" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="109"/>
-      <c r="AU3" s="109"/>
-      <c r="AV3" s="109"/>
-      <c r="AW3" s="109"/>
+      <c r="AT3" s="124"/>
+      <c r="AU3" s="124"/>
+      <c r="AV3" s="124"/>
+      <c r="AW3" s="124"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="110"/>
-      <c r="Z4" s="110"/>
-      <c r="AA4" s="110"/>
-      <c r="AB4" s="110"/>
-      <c r="AC4" s="110"/>
-      <c r="AD4" s="110"/>
-      <c r="AE4" s="110"/>
-      <c r="AF4" s="110"/>
-      <c r="AG4" s="110"/>
-      <c r="AH4" s="110"/>
-      <c r="AI4" s="110"/>
-      <c r="AJ4" s="110"/>
-      <c r="AK4" s="110"/>
-      <c r="AL4" s="110"/>
-      <c r="AM4" s="110"/>
-      <c r="AN4" s="110"/>
-      <c r="AO4" s="110"/>
-      <c r="AP4" s="110"/>
-      <c r="AQ4" s="110"/>
-      <c r="AR4" s="110"/>
-      <c r="AS4" s="110"/>
-      <c r="AT4" s="110"/>
-      <c r="AU4" s="110"/>
-      <c r="AV4" s="110"/>
-      <c r="AW4" s="110"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="130"/>
+      <c r="Q4" s="130"/>
+      <c r="R4" s="131"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="125"/>
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="125"/>
+      <c r="AB4" s="125"/>
+      <c r="AC4" s="125"/>
+      <c r="AD4" s="125"/>
+      <c r="AE4" s="125"/>
+      <c r="AF4" s="125"/>
+      <c r="AG4" s="125"/>
+      <c r="AH4" s="125"/>
+      <c r="AI4" s="125"/>
+      <c r="AJ4" s="125"/>
+      <c r="AK4" s="125"/>
+      <c r="AL4" s="125"/>
+      <c r="AM4" s="125"/>
+      <c r="AN4" s="125"/>
+      <c r="AO4" s="125"/>
+      <c r="AP4" s="125"/>
+      <c r="AQ4" s="125"/>
+      <c r="AR4" s="125"/>
+      <c r="AS4" s="125"/>
+      <c r="AT4" s="125"/>
+      <c r="AU4" s="125"/>
+      <c r="AV4" s="125"/>
+      <c r="AW4" s="125"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
-      <c r="B5" s="118">
+      <c r="B5" s="108">
         <v>1</v>
       </c>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="119">
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="109">
         <v>43721</v>
       </c>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="120" t="s">
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120" t="s">
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="117" t="s">
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="122" t="s">
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="122"/>
-      <c r="AA5" s="122"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="122"/>
-      <c r="AD5" s="122"/>
-      <c r="AE5" s="122"/>
-      <c r="AF5" s="122"/>
-      <c r="AG5" s="122"/>
-      <c r="AH5" s="122"/>
-      <c r="AI5" s="122"/>
-      <c r="AJ5" s="122"/>
-      <c r="AK5" s="122"/>
-      <c r="AL5" s="122"/>
-      <c r="AM5" s="122"/>
-      <c r="AN5" s="117" t="s">
+      <c r="W5" s="119"/>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="119"/>
+      <c r="Z5" s="119"/>
+      <c r="AA5" s="119"/>
+      <c r="AB5" s="119"/>
+      <c r="AC5" s="119"/>
+      <c r="AD5" s="119"/>
+      <c r="AE5" s="119"/>
+      <c r="AF5" s="119"/>
+      <c r="AG5" s="119"/>
+      <c r="AH5" s="119"/>
+      <c r="AI5" s="119"/>
+      <c r="AJ5" s="119"/>
+      <c r="AK5" s="119"/>
+      <c r="AL5" s="119"/>
+      <c r="AM5" s="119"/>
+      <c r="AN5" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="AO5" s="117"/>
-      <c r="AP5" s="117"/>
-      <c r="AQ5" s="117"/>
-      <c r="AR5" s="117"/>
-      <c r="AS5" s="117"/>
-      <c r="AT5" s="117"/>
-      <c r="AU5" s="117"/>
-      <c r="AV5" s="117"/>
-      <c r="AW5" s="117"/>
+      <c r="AO5" s="107"/>
+      <c r="AP5" s="107"/>
+      <c r="AQ5" s="107"/>
+      <c r="AR5" s="107"/>
+      <c r="AS5" s="107"/>
+      <c r="AT5" s="107"/>
+      <c r="AU5" s="107"/>
+      <c r="AV5" s="107"/>
+      <c r="AW5" s="107"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
       <c r="M6" s="121"/>
       <c r="N6" s="121"/>
       <c r="O6" s="121"/>
       <c r="P6" s="121"/>
       <c r="Q6" s="121"/>
       <c r="R6" s="121"/>
-      <c r="S6" s="117"/>
-      <c r="T6" s="117"/>
-      <c r="U6" s="117"/>
-      <c r="V6" s="122"/>
-      <c r="W6" s="122"/>
-      <c r="X6" s="122"/>
-      <c r="Y6" s="122"/>
-      <c r="Z6" s="122"/>
-      <c r="AA6" s="122"/>
-      <c r="AB6" s="122"/>
-      <c r="AC6" s="122"/>
-      <c r="AD6" s="122"/>
-      <c r="AE6" s="122"/>
-      <c r="AF6" s="122"/>
-      <c r="AG6" s="122"/>
-      <c r="AH6" s="122"/>
-      <c r="AI6" s="122"/>
-      <c r="AJ6" s="122"/>
-      <c r="AK6" s="122"/>
-      <c r="AL6" s="122"/>
-      <c r="AM6" s="122"/>
-      <c r="AN6" s="117"/>
-      <c r="AO6" s="117"/>
-      <c r="AP6" s="117"/>
-      <c r="AQ6" s="117"/>
-      <c r="AR6" s="117"/>
-      <c r="AS6" s="117"/>
-      <c r="AT6" s="117"/>
-      <c r="AU6" s="117"/>
-      <c r="AV6" s="117"/>
-      <c r="AW6" s="117"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="119"/>
+      <c r="AH6" s="119"/>
+      <c r="AI6" s="119"/>
+      <c r="AJ6" s="119"/>
+      <c r="AK6" s="119"/>
+      <c r="AL6" s="119"/>
+      <c r="AM6" s="119"/>
+      <c r="AN6" s="107"/>
+      <c r="AO6" s="107"/>
+      <c r="AP6" s="107"/>
+      <c r="AQ6" s="107"/>
+      <c r="AR6" s="107"/>
+      <c r="AS6" s="107"/>
+      <c r="AT6" s="107"/>
+      <c r="AU6" s="107"/>
+      <c r="AV6" s="107"/>
+      <c r="AW6" s="107"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
       <c r="M7" s="121"/>
       <c r="N7" s="121"/>
       <c r="O7" s="121"/>
       <c r="P7" s="121"/>
       <c r="Q7" s="121"/>
       <c r="R7" s="121"/>
-      <c r="S7" s="117"/>
-      <c r="T7" s="117"/>
-      <c r="U7" s="117"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="122"/>
-      <c r="AB7" s="122"/>
-      <c r="AC7" s="122"/>
-      <c r="AD7" s="122"/>
-      <c r="AE7" s="122"/>
-      <c r="AF7" s="122"/>
-      <c r="AG7" s="122"/>
-      <c r="AH7" s="122"/>
-      <c r="AI7" s="122"/>
-      <c r="AJ7" s="122"/>
-      <c r="AK7" s="122"/>
-      <c r="AL7" s="122"/>
-      <c r="AM7" s="122"/>
-      <c r="AN7" s="117"/>
-      <c r="AO7" s="117"/>
-      <c r="AP7" s="117"/>
-      <c r="AQ7" s="117"/>
-      <c r="AR7" s="117"/>
-      <c r="AS7" s="117"/>
-      <c r="AT7" s="117"/>
-      <c r="AU7" s="117"/>
-      <c r="AV7" s="117"/>
-      <c r="AW7" s="117"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="119"/>
+      <c r="AB7" s="119"/>
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="119"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="119"/>
+      <c r="AG7" s="119"/>
+      <c r="AH7" s="119"/>
+      <c r="AI7" s="119"/>
+      <c r="AJ7" s="119"/>
+      <c r="AK7" s="119"/>
+      <c r="AL7" s="119"/>
+      <c r="AM7" s="119"/>
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="107"/>
+      <c r="AP7" s="107"/>
+      <c r="AQ7" s="107"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="107"/>
+      <c r="AT7" s="107"/>
+      <c r="AU7" s="107"/>
+      <c r="AV7" s="107"/>
+      <c r="AW7" s="107"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
       <c r="M8" s="121"/>
       <c r="N8" s="121"/>
       <c r="O8" s="121"/>
       <c r="P8" s="121"/>
       <c r="Q8" s="121"/>
       <c r="R8" s="121"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="117"/>
-      <c r="U8" s="117"/>
-      <c r="V8" s="122"/>
-      <c r="W8" s="122"/>
-      <c r="X8" s="122"/>
-      <c r="Y8" s="122"/>
-      <c r="Z8" s="122"/>
-      <c r="AA8" s="122"/>
-      <c r="AB8" s="122"/>
-      <c r="AC8" s="122"/>
-      <c r="AD8" s="122"/>
-      <c r="AE8" s="122"/>
-      <c r="AF8" s="122"/>
-      <c r="AG8" s="122"/>
-      <c r="AH8" s="122"/>
-      <c r="AI8" s="122"/>
-      <c r="AJ8" s="122"/>
-      <c r="AK8" s="122"/>
-      <c r="AL8" s="122"/>
-      <c r="AM8" s="122"/>
-      <c r="AN8" s="117"/>
-      <c r="AO8" s="117"/>
-      <c r="AP8" s="117"/>
-      <c r="AQ8" s="117"/>
-      <c r="AR8" s="117"/>
-      <c r="AS8" s="117"/>
-      <c r="AT8" s="117"/>
-      <c r="AU8" s="117"/>
-      <c r="AV8" s="117"/>
-      <c r="AW8" s="117"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="119"/>
+      <c r="X8" s="119"/>
+      <c r="Y8" s="119"/>
+      <c r="Z8" s="119"/>
+      <c r="AA8" s="119"/>
+      <c r="AB8" s="119"/>
+      <c r="AC8" s="119"/>
+      <c r="AD8" s="119"/>
+      <c r="AE8" s="119"/>
+      <c r="AF8" s="119"/>
+      <c r="AG8" s="119"/>
+      <c r="AH8" s="119"/>
+      <c r="AI8" s="119"/>
+      <c r="AJ8" s="119"/>
+      <c r="AK8" s="119"/>
+      <c r="AL8" s="119"/>
+      <c r="AM8" s="119"/>
+      <c r="AN8" s="107"/>
+      <c r="AO8" s="107"/>
+      <c r="AP8" s="107"/>
+      <c r="AQ8" s="107"/>
+      <c r="AR8" s="107"/>
+      <c r="AS8" s="107"/>
+      <c r="AT8" s="107"/>
+      <c r="AU8" s="107"/>
+      <c r="AV8" s="107"/>
+      <c r="AW8" s="107"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
       <c r="M9" s="121"/>
       <c r="N9" s="121"/>
       <c r="O9" s="121"/>
       <c r="P9" s="121"/>
       <c r="Q9" s="121"/>
       <c r="R9" s="121"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="117"/>
-      <c r="V9" s="122"/>
-      <c r="W9" s="122"/>
-      <c r="X9" s="122"/>
-      <c r="Y9" s="122"/>
-      <c r="Z9" s="122"/>
-      <c r="AA9" s="122"/>
-      <c r="AB9" s="122"/>
-      <c r="AC9" s="122"/>
-      <c r="AD9" s="122"/>
-      <c r="AE9" s="122"/>
-      <c r="AF9" s="122"/>
-      <c r="AG9" s="122"/>
-      <c r="AH9" s="122"/>
-      <c r="AI9" s="122"/>
-      <c r="AJ9" s="122"/>
-      <c r="AK9" s="122"/>
-      <c r="AL9" s="122"/>
-      <c r="AM9" s="122"/>
-      <c r="AN9" s="117"/>
-      <c r="AO9" s="117"/>
-      <c r="AP9" s="117"/>
-      <c r="AQ9" s="117"/>
-      <c r="AR9" s="117"/>
-      <c r="AS9" s="117"/>
-      <c r="AT9" s="117"/>
-      <c r="AU9" s="117"/>
-      <c r="AV9" s="117"/>
-      <c r="AW9" s="117"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="107"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="119"/>
+      <c r="W9" s="119"/>
+      <c r="X9" s="119"/>
+      <c r="Y9" s="119"/>
+      <c r="Z9" s="119"/>
+      <c r="AA9" s="119"/>
+      <c r="AB9" s="119"/>
+      <c r="AC9" s="119"/>
+      <c r="AD9" s="119"/>
+      <c r="AE9" s="119"/>
+      <c r="AF9" s="119"/>
+      <c r="AG9" s="119"/>
+      <c r="AH9" s="119"/>
+      <c r="AI9" s="119"/>
+      <c r="AJ9" s="119"/>
+      <c r="AK9" s="119"/>
+      <c r="AL9" s="119"/>
+      <c r="AM9" s="119"/>
+      <c r="AN9" s="107"/>
+      <c r="AO9" s="107"/>
+      <c r="AP9" s="107"/>
+      <c r="AQ9" s="107"/>
+      <c r="AR9" s="107"/>
+      <c r="AS9" s="107"/>
+      <c r="AT9" s="107"/>
+      <c r="AU9" s="107"/>
+      <c r="AV9" s="107"/>
+      <c r="AW9" s="107"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
       <c r="M10" s="121"/>
       <c r="N10" s="121"/>
       <c r="O10" s="121"/>
       <c r="P10" s="121"/>
       <c r="Q10" s="121"/>
       <c r="R10" s="121"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="122"/>
-      <c r="W10" s="122"/>
-      <c r="X10" s="122"/>
-      <c r="Y10" s="122"/>
-      <c r="Z10" s="122"/>
-      <c r="AA10" s="122"/>
-      <c r="AB10" s="122"/>
-      <c r="AC10" s="122"/>
-      <c r="AD10" s="122"/>
-      <c r="AE10" s="122"/>
-      <c r="AF10" s="122"/>
-      <c r="AG10" s="122"/>
-      <c r="AH10" s="122"/>
-      <c r="AI10" s="122"/>
-      <c r="AJ10" s="122"/>
-      <c r="AK10" s="122"/>
-      <c r="AL10" s="122"/>
-      <c r="AM10" s="122"/>
-      <c r="AN10" s="117"/>
-      <c r="AO10" s="117"/>
-      <c r="AP10" s="117"/>
-      <c r="AQ10" s="117"/>
-      <c r="AR10" s="117"/>
-      <c r="AS10" s="117"/>
-      <c r="AT10" s="117"/>
-      <c r="AU10" s="117"/>
-      <c r="AV10" s="117"/>
-      <c r="AW10" s="117"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="119"/>
+      <c r="W10" s="119"/>
+      <c r="X10" s="119"/>
+      <c r="Y10" s="119"/>
+      <c r="Z10" s="119"/>
+      <c r="AA10" s="119"/>
+      <c r="AB10" s="119"/>
+      <c r="AC10" s="119"/>
+      <c r="AD10" s="119"/>
+      <c r="AE10" s="119"/>
+      <c r="AF10" s="119"/>
+      <c r="AG10" s="119"/>
+      <c r="AH10" s="119"/>
+      <c r="AI10" s="119"/>
+      <c r="AJ10" s="119"/>
+      <c r="AK10" s="119"/>
+      <c r="AL10" s="119"/>
+      <c r="AM10" s="119"/>
+      <c r="AN10" s="107"/>
+      <c r="AO10" s="107"/>
+      <c r="AP10" s="107"/>
+      <c r="AQ10" s="107"/>
+      <c r="AR10" s="107"/>
+      <c r="AS10" s="107"/>
+      <c r="AT10" s="107"/>
+      <c r="AU10" s="107"/>
+      <c r="AV10" s="107"/>
+      <c r="AW10" s="107"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="123"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="123"/>
-      <c r="P11" s="123"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="117"/>
-      <c r="T11" s="117"/>
-      <c r="U11" s="117"/>
-      <c r="V11" s="124"/>
-      <c r="W11" s="125"/>
-      <c r="X11" s="125"/>
-      <c r="Y11" s="125"/>
-      <c r="Z11" s="125"/>
-      <c r="AA11" s="125"/>
-      <c r="AB11" s="125"/>
-      <c r="AC11" s="125"/>
-      <c r="AD11" s="125"/>
-      <c r="AE11" s="125"/>
-      <c r="AF11" s="125"/>
-      <c r="AG11" s="125"/>
-      <c r="AH11" s="125"/>
-      <c r="AI11" s="125"/>
-      <c r="AJ11" s="125"/>
-      <c r="AK11" s="125"/>
-      <c r="AL11" s="125"/>
-      <c r="AM11" s="125"/>
-      <c r="AN11" s="117"/>
-      <c r="AO11" s="117"/>
-      <c r="AP11" s="117"/>
-      <c r="AQ11" s="117"/>
-      <c r="AR11" s="117"/>
-      <c r="AS11" s="117"/>
-      <c r="AT11" s="117"/>
-      <c r="AU11" s="117"/>
-      <c r="AV11" s="117"/>
-      <c r="AW11" s="117"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="115"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="115"/>
+      <c r="P11" s="115"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="115"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="113"/>
+      <c r="W11" s="120"/>
+      <c r="X11" s="120"/>
+      <c r="Y11" s="120"/>
+      <c r="Z11" s="120"/>
+      <c r="AA11" s="120"/>
+      <c r="AB11" s="120"/>
+      <c r="AC11" s="120"/>
+      <c r="AD11" s="120"/>
+      <c r="AE11" s="120"/>
+      <c r="AF11" s="120"/>
+      <c r="AG11" s="120"/>
+      <c r="AH11" s="120"/>
+      <c r="AI11" s="120"/>
+      <c r="AJ11" s="120"/>
+      <c r="AK11" s="120"/>
+      <c r="AL11" s="120"/>
+      <c r="AM11" s="120"/>
+      <c r="AN11" s="107"/>
+      <c r="AO11" s="107"/>
+      <c r="AP11" s="107"/>
+      <c r="AQ11" s="107"/>
+      <c r="AR11" s="107"/>
+      <c r="AS11" s="107"/>
+      <c r="AT11" s="107"/>
+      <c r="AU11" s="107"/>
+      <c r="AV11" s="107"/>
+      <c r="AW11" s="107"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="123"/>
-      <c r="S12" s="117"/>
-      <c r="T12" s="117"/>
-      <c r="U12" s="117"/>
-      <c r="V12" s="124"/>
-      <c r="W12" s="124"/>
-      <c r="X12" s="124"/>
-      <c r="Y12" s="124"/>
-      <c r="Z12" s="124"/>
-      <c r="AA12" s="124"/>
-      <c r="AB12" s="124"/>
-      <c r="AC12" s="124"/>
-      <c r="AD12" s="124"/>
-      <c r="AE12" s="124"/>
-      <c r="AF12" s="124"/>
-      <c r="AG12" s="124"/>
-      <c r="AH12" s="124"/>
-      <c r="AI12" s="124"/>
-      <c r="AJ12" s="124"/>
-      <c r="AK12" s="124"/>
-      <c r="AL12" s="124"/>
-      <c r="AM12" s="124"/>
-      <c r="AN12" s="117"/>
-      <c r="AO12" s="117"/>
-      <c r="AP12" s="117"/>
-      <c r="AQ12" s="117"/>
-      <c r="AR12" s="117"/>
-      <c r="AS12" s="117"/>
-      <c r="AT12" s="117"/>
-      <c r="AU12" s="117"/>
-      <c r="AV12" s="117"/>
-      <c r="AW12" s="117"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="115"/>
+      <c r="R12" s="115"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="113"/>
+      <c r="W12" s="113"/>
+      <c r="X12" s="113"/>
+      <c r="Y12" s="113"/>
+      <c r="Z12" s="113"/>
+      <c r="AA12" s="113"/>
+      <c r="AB12" s="113"/>
+      <c r="AC12" s="113"/>
+      <c r="AD12" s="113"/>
+      <c r="AE12" s="113"/>
+      <c r="AF12" s="113"/>
+      <c r="AG12" s="113"/>
+      <c r="AH12" s="113"/>
+      <c r="AI12" s="113"/>
+      <c r="AJ12" s="113"/>
+      <c r="AK12" s="113"/>
+      <c r="AL12" s="113"/>
+      <c r="AM12" s="113"/>
+      <c r="AN12" s="107"/>
+      <c r="AO12" s="107"/>
+      <c r="AP12" s="107"/>
+      <c r="AQ12" s="107"/>
+      <c r="AR12" s="107"/>
+      <c r="AS12" s="107"/>
+      <c r="AT12" s="107"/>
+      <c r="AU12" s="107"/>
+      <c r="AV12" s="107"/>
+      <c r="AW12" s="107"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="117"/>
-      <c r="T13" s="117"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="124"/>
-      <c r="W13" s="124"/>
-      <c r="X13" s="124"/>
-      <c r="Y13" s="124"/>
-      <c r="Z13" s="124"/>
-      <c r="AA13" s="124"/>
-      <c r="AB13" s="124"/>
-      <c r="AC13" s="124"/>
-      <c r="AD13" s="124"/>
-      <c r="AE13" s="124"/>
-      <c r="AF13" s="124"/>
-      <c r="AG13" s="124"/>
-      <c r="AH13" s="124"/>
-      <c r="AI13" s="124"/>
-      <c r="AJ13" s="124"/>
-      <c r="AK13" s="124"/>
-      <c r="AL13" s="124"/>
-      <c r="AM13" s="124"/>
-      <c r="AN13" s="117"/>
-      <c r="AO13" s="117"/>
-      <c r="AP13" s="117"/>
-      <c r="AQ13" s="117"/>
-      <c r="AR13" s="117"/>
-      <c r="AS13" s="117"/>
-      <c r="AT13" s="117"/>
-      <c r="AU13" s="117"/>
-      <c r="AV13" s="117"/>
-      <c r="AW13" s="117"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
+      <c r="P13" s="115"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="115"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="113"/>
+      <c r="W13" s="113"/>
+      <c r="X13" s="113"/>
+      <c r="Y13" s="113"/>
+      <c r="Z13" s="113"/>
+      <c r="AA13" s="113"/>
+      <c r="AB13" s="113"/>
+      <c r="AC13" s="113"/>
+      <c r="AD13" s="113"/>
+      <c r="AE13" s="113"/>
+      <c r="AF13" s="113"/>
+      <c r="AG13" s="113"/>
+      <c r="AH13" s="113"/>
+      <c r="AI13" s="113"/>
+      <c r="AJ13" s="113"/>
+      <c r="AK13" s="113"/>
+      <c r="AL13" s="113"/>
+      <c r="AM13" s="113"/>
+      <c r="AN13" s="107"/>
+      <c r="AO13" s="107"/>
+      <c r="AP13" s="107"/>
+      <c r="AQ13" s="107"/>
+      <c r="AR13" s="107"/>
+      <c r="AS13" s="107"/>
+      <c r="AT13" s="107"/>
+      <c r="AU13" s="107"/>
+      <c r="AV13" s="107"/>
+      <c r="AW13" s="107"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="123"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="123"/>
-      <c r="S14" s="117"/>
-      <c r="T14" s="117"/>
-      <c r="U14" s="117"/>
-      <c r="V14" s="127"/>
-      <c r="W14" s="122"/>
-      <c r="X14" s="122"/>
-      <c r="Y14" s="122"/>
-      <c r="Z14" s="122"/>
-      <c r="AA14" s="122"/>
-      <c r="AB14" s="122"/>
-      <c r="AC14" s="122"/>
-      <c r="AD14" s="122"/>
-      <c r="AE14" s="122"/>
-      <c r="AF14" s="122"/>
-      <c r="AG14" s="122"/>
-      <c r="AH14" s="122"/>
-      <c r="AI14" s="122"/>
-      <c r="AJ14" s="122"/>
-      <c r="AK14" s="122"/>
-      <c r="AL14" s="122"/>
-      <c r="AM14" s="122"/>
-      <c r="AN14" s="117"/>
-      <c r="AO14" s="117"/>
-      <c r="AP14" s="117"/>
-      <c r="AQ14" s="117"/>
-      <c r="AR14" s="117"/>
-      <c r="AS14" s="117"/>
-      <c r="AT14" s="117"/>
-      <c r="AU14" s="117"/>
-      <c r="AV14" s="117"/>
-      <c r="AW14" s="117"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="119"/>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="119"/>
+      <c r="Z14" s="119"/>
+      <c r="AA14" s="119"/>
+      <c r="AB14" s="119"/>
+      <c r="AC14" s="119"/>
+      <c r="AD14" s="119"/>
+      <c r="AE14" s="119"/>
+      <c r="AF14" s="119"/>
+      <c r="AG14" s="119"/>
+      <c r="AH14" s="119"/>
+      <c r="AI14" s="119"/>
+      <c r="AJ14" s="119"/>
+      <c r="AK14" s="119"/>
+      <c r="AL14" s="119"/>
+      <c r="AM14" s="119"/>
+      <c r="AN14" s="107"/>
+      <c r="AO14" s="107"/>
+      <c r="AP14" s="107"/>
+      <c r="AQ14" s="107"/>
+      <c r="AR14" s="107"/>
+      <c r="AS14" s="107"/>
+      <c r="AT14" s="107"/>
+      <c r="AU14" s="107"/>
+      <c r="AV14" s="107"/>
+      <c r="AW14" s="107"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
-      <c r="B15" s="118"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="123"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="123"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="117"/>
-      <c r="T15" s="117"/>
-      <c r="U15" s="117"/>
-      <c r="V15" s="124"/>
-      <c r="W15" s="124"/>
-      <c r="X15" s="124"/>
-      <c r="Y15" s="124"/>
-      <c r="Z15" s="124"/>
-      <c r="AA15" s="124"/>
-      <c r="AB15" s="124"/>
-      <c r="AC15" s="124"/>
-      <c r="AD15" s="124"/>
-      <c r="AE15" s="124"/>
-      <c r="AF15" s="124"/>
-      <c r="AG15" s="124"/>
-      <c r="AH15" s="124"/>
-      <c r="AI15" s="124"/>
-      <c r="AJ15" s="124"/>
-      <c r="AK15" s="124"/>
-      <c r="AL15" s="124"/>
-      <c r="AM15" s="124"/>
-      <c r="AN15" s="117"/>
-      <c r="AO15" s="117"/>
-      <c r="AP15" s="117"/>
-      <c r="AQ15" s="117"/>
-      <c r="AR15" s="117"/>
-      <c r="AS15" s="117"/>
-      <c r="AT15" s="117"/>
-      <c r="AU15" s="117"/>
-      <c r="AV15" s="117"/>
-      <c r="AW15" s="117"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="115"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="107"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="113"/>
+      <c r="W15" s="113"/>
+      <c r="X15" s="113"/>
+      <c r="Y15" s="113"/>
+      <c r="Z15" s="113"/>
+      <c r="AA15" s="113"/>
+      <c r="AB15" s="113"/>
+      <c r="AC15" s="113"/>
+      <c r="AD15" s="113"/>
+      <c r="AE15" s="113"/>
+      <c r="AF15" s="113"/>
+      <c r="AG15" s="113"/>
+      <c r="AH15" s="113"/>
+      <c r="AI15" s="113"/>
+      <c r="AJ15" s="113"/>
+      <c r="AK15" s="113"/>
+      <c r="AL15" s="113"/>
+      <c r="AM15" s="113"/>
+      <c r="AN15" s="107"/>
+      <c r="AO15" s="107"/>
+      <c r="AP15" s="107"/>
+      <c r="AQ15" s="107"/>
+      <c r="AR15" s="107"/>
+      <c r="AS15" s="107"/>
+      <c r="AT15" s="107"/>
+      <c r="AU15" s="107"/>
+      <c r="AV15" s="107"/>
+      <c r="AW15" s="107"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="117"/>
-      <c r="T16" s="117"/>
-      <c r="U16" s="117"/>
-      <c r="V16" s="124"/>
-      <c r="W16" s="124"/>
-      <c r="X16" s="124"/>
-      <c r="Y16" s="124"/>
-      <c r="Z16" s="124"/>
-      <c r="AA16" s="124"/>
-      <c r="AB16" s="124"/>
-      <c r="AC16" s="124"/>
-      <c r="AD16" s="124"/>
-      <c r="AE16" s="124"/>
-      <c r="AF16" s="124"/>
-      <c r="AG16" s="124"/>
-      <c r="AH16" s="124"/>
-      <c r="AI16" s="124"/>
-      <c r="AJ16" s="124"/>
-      <c r="AK16" s="124"/>
-      <c r="AL16" s="124"/>
-      <c r="AM16" s="124"/>
-      <c r="AN16" s="117"/>
-      <c r="AO16" s="117"/>
-      <c r="AP16" s="117"/>
-      <c r="AQ16" s="117"/>
-      <c r="AR16" s="117"/>
-      <c r="AS16" s="117"/>
-      <c r="AT16" s="117"/>
-      <c r="AU16" s="117"/>
-      <c r="AV16" s="117"/>
-      <c r="AW16" s="117"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="115"/>
+      <c r="O16" s="115"/>
+      <c r="P16" s="115"/>
+      <c r="Q16" s="115"/>
+      <c r="R16" s="115"/>
+      <c r="S16" s="107"/>
+      <c r="T16" s="107"/>
+      <c r="U16" s="107"/>
+      <c r="V16" s="113"/>
+      <c r="W16" s="113"/>
+      <c r="X16" s="113"/>
+      <c r="Y16" s="113"/>
+      <c r="Z16" s="113"/>
+      <c r="AA16" s="113"/>
+      <c r="AB16" s="113"/>
+      <c r="AC16" s="113"/>
+      <c r="AD16" s="113"/>
+      <c r="AE16" s="113"/>
+      <c r="AF16" s="113"/>
+      <c r="AG16" s="113"/>
+      <c r="AH16" s="113"/>
+      <c r="AI16" s="113"/>
+      <c r="AJ16" s="113"/>
+      <c r="AK16" s="113"/>
+      <c r="AL16" s="113"/>
+      <c r="AM16" s="113"/>
+      <c r="AN16" s="107"/>
+      <c r="AO16" s="107"/>
+      <c r="AP16" s="107"/>
+      <c r="AQ16" s="107"/>
+      <c r="AR16" s="107"/>
+      <c r="AS16" s="107"/>
+      <c r="AT16" s="107"/>
+      <c r="AU16" s="107"/>
+      <c r="AV16" s="107"/>
+      <c r="AW16" s="107"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="118"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="128"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="129"/>
-      <c r="U17" s="129"/>
-      <c r="V17" s="124"/>
-      <c r="W17" s="124"/>
-      <c r="X17" s="124"/>
-      <c r="Y17" s="124"/>
-      <c r="Z17" s="124"/>
-      <c r="AA17" s="124"/>
-      <c r="AB17" s="124"/>
-      <c r="AC17" s="124"/>
-      <c r="AD17" s="124"/>
-      <c r="AE17" s="124"/>
-      <c r="AF17" s="124"/>
-      <c r="AG17" s="124"/>
-      <c r="AH17" s="124"/>
-      <c r="AI17" s="124"/>
-      <c r="AJ17" s="124"/>
-      <c r="AK17" s="124"/>
-      <c r="AL17" s="124"/>
-      <c r="AM17" s="124"/>
-      <c r="AN17" s="117"/>
-      <c r="AO17" s="117"/>
-      <c r="AP17" s="117"/>
-      <c r="AQ17" s="117"/>
-      <c r="AR17" s="117"/>
-      <c r="AS17" s="117"/>
-      <c r="AT17" s="117"/>
-      <c r="AU17" s="117"/>
-      <c r="AV17" s="117"/>
-      <c r="AW17" s="117"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="115"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="117"/>
+      <c r="T17" s="117"/>
+      <c r="U17" s="117"/>
+      <c r="V17" s="113"/>
+      <c r="W17" s="113"/>
+      <c r="X17" s="113"/>
+      <c r="Y17" s="113"/>
+      <c r="Z17" s="113"/>
+      <c r="AA17" s="113"/>
+      <c r="AB17" s="113"/>
+      <c r="AC17" s="113"/>
+      <c r="AD17" s="113"/>
+      <c r="AE17" s="113"/>
+      <c r="AF17" s="113"/>
+      <c r="AG17" s="113"/>
+      <c r="AH17" s="113"/>
+      <c r="AI17" s="113"/>
+      <c r="AJ17" s="113"/>
+      <c r="AK17" s="113"/>
+      <c r="AL17" s="113"/>
+      <c r="AM17" s="113"/>
+      <c r="AN17" s="107"/>
+      <c r="AO17" s="107"/>
+      <c r="AP17" s="107"/>
+      <c r="AQ17" s="107"/>
+      <c r="AR17" s="107"/>
+      <c r="AS17" s="107"/>
+      <c r="AT17" s="107"/>
+      <c r="AU17" s="107"/>
+      <c r="AV17" s="107"/>
+      <c r="AW17" s="107"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="126"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="123"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="123"/>
-      <c r="S18" s="117"/>
-      <c r="T18" s="117"/>
-      <c r="U18" s="117"/>
-      <c r="V18" s="124"/>
-      <c r="W18" s="124"/>
-      <c r="X18" s="124"/>
-      <c r="Y18" s="124"/>
-      <c r="Z18" s="124"/>
-      <c r="AA18" s="124"/>
-      <c r="AB18" s="124"/>
-      <c r="AC18" s="124"/>
-      <c r="AD18" s="124"/>
-      <c r="AE18" s="124"/>
-      <c r="AF18" s="124"/>
-      <c r="AG18" s="124"/>
-      <c r="AH18" s="124"/>
-      <c r="AI18" s="124"/>
-      <c r="AJ18" s="124"/>
-      <c r="AK18" s="124"/>
-      <c r="AL18" s="124"/>
-      <c r="AM18" s="124"/>
-      <c r="AN18" s="117"/>
-      <c r="AO18" s="117"/>
-      <c r="AP18" s="117"/>
-      <c r="AQ18" s="117"/>
-      <c r="AR18" s="117"/>
-      <c r="AS18" s="117"/>
-      <c r="AT18" s="117"/>
-      <c r="AU18" s="117"/>
-      <c r="AV18" s="117"/>
-      <c r="AW18" s="117"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="115"/>
+      <c r="R18" s="115"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="113"/>
+      <c r="W18" s="113"/>
+      <c r="X18" s="113"/>
+      <c r="Y18" s="113"/>
+      <c r="Z18" s="113"/>
+      <c r="AA18" s="113"/>
+      <c r="AB18" s="113"/>
+      <c r="AC18" s="113"/>
+      <c r="AD18" s="113"/>
+      <c r="AE18" s="113"/>
+      <c r="AF18" s="113"/>
+      <c r="AG18" s="113"/>
+      <c r="AH18" s="113"/>
+      <c r="AI18" s="113"/>
+      <c r="AJ18" s="113"/>
+      <c r="AK18" s="113"/>
+      <c r="AL18" s="113"/>
+      <c r="AM18" s="113"/>
+      <c r="AN18" s="107"/>
+      <c r="AO18" s="107"/>
+      <c r="AP18" s="107"/>
+      <c r="AQ18" s="107"/>
+      <c r="AR18" s="107"/>
+      <c r="AS18" s="107"/>
+      <c r="AT18" s="107"/>
+      <c r="AU18" s="107"/>
+      <c r="AV18" s="107"/>
+      <c r="AW18" s="107"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="123"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="123"/>
-      <c r="R19" s="123"/>
-      <c r="S19" s="117"/>
-      <c r="T19" s="117"/>
-      <c r="U19" s="117"/>
-      <c r="V19" s="124"/>
-      <c r="W19" s="124"/>
-      <c r="X19" s="124"/>
-      <c r="Y19" s="124"/>
-      <c r="Z19" s="124"/>
-      <c r="AA19" s="124"/>
-      <c r="AB19" s="124"/>
-      <c r="AC19" s="124"/>
-      <c r="AD19" s="124"/>
-      <c r="AE19" s="124"/>
-      <c r="AF19" s="124"/>
-      <c r="AG19" s="124"/>
-      <c r="AH19" s="124"/>
-      <c r="AI19" s="124"/>
-      <c r="AJ19" s="124"/>
-      <c r="AK19" s="124"/>
-      <c r="AL19" s="124"/>
-      <c r="AM19" s="124"/>
-      <c r="AN19" s="117"/>
-      <c r="AO19" s="117"/>
-      <c r="AP19" s="117"/>
-      <c r="AQ19" s="117"/>
-      <c r="AR19" s="117"/>
-      <c r="AS19" s="117"/>
-      <c r="AT19" s="117"/>
-      <c r="AU19" s="117"/>
-      <c r="AV19" s="117"/>
-      <c r="AW19" s="117"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="115"/>
+      <c r="O19" s="115"/>
+      <c r="P19" s="115"/>
+      <c r="Q19" s="115"/>
+      <c r="R19" s="115"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="107"/>
+      <c r="U19" s="107"/>
+      <c r="V19" s="113"/>
+      <c r="W19" s="113"/>
+      <c r="X19" s="113"/>
+      <c r="Y19" s="113"/>
+      <c r="Z19" s="113"/>
+      <c r="AA19" s="113"/>
+      <c r="AB19" s="113"/>
+      <c r="AC19" s="113"/>
+      <c r="AD19" s="113"/>
+      <c r="AE19" s="113"/>
+      <c r="AF19" s="113"/>
+      <c r="AG19" s="113"/>
+      <c r="AH19" s="113"/>
+      <c r="AI19" s="113"/>
+      <c r="AJ19" s="113"/>
+      <c r="AK19" s="113"/>
+      <c r="AL19" s="113"/>
+      <c r="AM19" s="113"/>
+      <c r="AN19" s="107"/>
+      <c r="AO19" s="107"/>
+      <c r="AP19" s="107"/>
+      <c r="AQ19" s="107"/>
+      <c r="AR19" s="107"/>
+      <c r="AS19" s="107"/>
+      <c r="AT19" s="107"/>
+      <c r="AU19" s="107"/>
+      <c r="AV19" s="107"/>
+      <c r="AW19" s="107"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="117"/>
-      <c r="T20" s="117"/>
-      <c r="U20" s="117"/>
-      <c r="V20" s="124"/>
-      <c r="W20" s="124"/>
-      <c r="X20" s="124"/>
-      <c r="Y20" s="124"/>
-      <c r="Z20" s="124"/>
-      <c r="AA20" s="124"/>
-      <c r="AB20" s="124"/>
-      <c r="AC20" s="124"/>
-      <c r="AD20" s="124"/>
-      <c r="AE20" s="124"/>
-      <c r="AF20" s="124"/>
-      <c r="AG20" s="124"/>
-      <c r="AH20" s="124"/>
-      <c r="AI20" s="124"/>
-      <c r="AJ20" s="124"/>
-      <c r="AK20" s="124"/>
-      <c r="AL20" s="124"/>
-      <c r="AM20" s="124"/>
-      <c r="AN20" s="117"/>
-      <c r="AO20" s="117"/>
-      <c r="AP20" s="117"/>
-      <c r="AQ20" s="117"/>
-      <c r="AR20" s="117"/>
-      <c r="AS20" s="117"/>
-      <c r="AT20" s="117"/>
-      <c r="AU20" s="117"/>
-      <c r="AV20" s="117"/>
-      <c r="AW20" s="117"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="115"/>
+      <c r="Q20" s="115"/>
+      <c r="R20" s="115"/>
+      <c r="S20" s="107"/>
+      <c r="T20" s="107"/>
+      <c r="U20" s="107"/>
+      <c r="V20" s="113"/>
+      <c r="W20" s="113"/>
+      <c r="X20" s="113"/>
+      <c r="Y20" s="113"/>
+      <c r="Z20" s="113"/>
+      <c r="AA20" s="113"/>
+      <c r="AB20" s="113"/>
+      <c r="AC20" s="113"/>
+      <c r="AD20" s="113"/>
+      <c r="AE20" s="113"/>
+      <c r="AF20" s="113"/>
+      <c r="AG20" s="113"/>
+      <c r="AH20" s="113"/>
+      <c r="AI20" s="113"/>
+      <c r="AJ20" s="113"/>
+      <c r="AK20" s="113"/>
+      <c r="AL20" s="113"/>
+      <c r="AM20" s="113"/>
+      <c r="AN20" s="107"/>
+      <c r="AO20" s="107"/>
+      <c r="AP20" s="107"/>
+      <c r="AQ20" s="107"/>
+      <c r="AR20" s="107"/>
+      <c r="AS20" s="107"/>
+      <c r="AT20" s="107"/>
+      <c r="AU20" s="107"/>
+      <c r="AV20" s="107"/>
+      <c r="AW20" s="107"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="123"/>
-      <c r="S21" s="117"/>
-      <c r="T21" s="117"/>
-      <c r="U21" s="117"/>
-      <c r="V21" s="124"/>
-      <c r="W21" s="124"/>
-      <c r="X21" s="124"/>
-      <c r="Y21" s="124"/>
-      <c r="Z21" s="124"/>
-      <c r="AA21" s="124"/>
-      <c r="AB21" s="124"/>
-      <c r="AC21" s="124"/>
-      <c r="AD21" s="124"/>
-      <c r="AE21" s="124"/>
-      <c r="AF21" s="124"/>
-      <c r="AG21" s="124"/>
-      <c r="AH21" s="124"/>
-      <c r="AI21" s="124"/>
-      <c r="AJ21" s="124"/>
-      <c r="AK21" s="124"/>
-      <c r="AL21" s="124"/>
-      <c r="AM21" s="124"/>
-      <c r="AN21" s="117"/>
-      <c r="AO21" s="117"/>
-      <c r="AP21" s="117"/>
-      <c r="AQ21" s="117"/>
-      <c r="AR21" s="117"/>
-      <c r="AS21" s="117"/>
-      <c r="AT21" s="117"/>
-      <c r="AU21" s="117"/>
-      <c r="AV21" s="117"/>
-      <c r="AW21" s="117"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="115"/>
+      <c r="O21" s="115"/>
+      <c r="P21" s="115"/>
+      <c r="Q21" s="115"/>
+      <c r="R21" s="115"/>
+      <c r="S21" s="107"/>
+      <c r="T21" s="107"/>
+      <c r="U21" s="107"/>
+      <c r="V21" s="113"/>
+      <c r="W21" s="113"/>
+      <c r="X21" s="113"/>
+      <c r="Y21" s="113"/>
+      <c r="Z21" s="113"/>
+      <c r="AA21" s="113"/>
+      <c r="AB21" s="113"/>
+      <c r="AC21" s="113"/>
+      <c r="AD21" s="113"/>
+      <c r="AE21" s="113"/>
+      <c r="AF21" s="113"/>
+      <c r="AG21" s="113"/>
+      <c r="AH21" s="113"/>
+      <c r="AI21" s="113"/>
+      <c r="AJ21" s="113"/>
+      <c r="AK21" s="113"/>
+      <c r="AL21" s="113"/>
+      <c r="AM21" s="113"/>
+      <c r="AN21" s="107"/>
+      <c r="AO21" s="107"/>
+      <c r="AP21" s="107"/>
+      <c r="AQ21" s="107"/>
+      <c r="AR21" s="107"/>
+      <c r="AS21" s="107"/>
+      <c r="AT21" s="107"/>
+      <c r="AU21" s="107"/>
+      <c r="AV21" s="107"/>
+      <c r="AW21" s="107"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="123"/>
-      <c r="N22" s="123"/>
-      <c r="O22" s="123"/>
-      <c r="P22" s="123"/>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="123"/>
-      <c r="S22" s="117"/>
-      <c r="T22" s="117"/>
-      <c r="U22" s="117"/>
-      <c r="V22" s="124"/>
-      <c r="W22" s="124"/>
-      <c r="X22" s="124"/>
-      <c r="Y22" s="124"/>
-      <c r="Z22" s="124"/>
-      <c r="AA22" s="124"/>
-      <c r="AB22" s="124"/>
-      <c r="AC22" s="124"/>
-      <c r="AD22" s="124"/>
-      <c r="AE22" s="124"/>
-      <c r="AF22" s="124"/>
-      <c r="AG22" s="124"/>
-      <c r="AH22" s="124"/>
-      <c r="AI22" s="124"/>
-      <c r="AJ22" s="124"/>
-      <c r="AK22" s="124"/>
-      <c r="AL22" s="124"/>
-      <c r="AM22" s="124"/>
-      <c r="AN22" s="117"/>
-      <c r="AO22" s="117"/>
-      <c r="AP22" s="117"/>
-      <c r="AQ22" s="117"/>
-      <c r="AR22" s="117"/>
-      <c r="AS22" s="117"/>
-      <c r="AT22" s="117"/>
-      <c r="AU22" s="117"/>
-      <c r="AV22" s="117"/>
-      <c r="AW22" s="117"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="115"/>
+      <c r="O22" s="115"/>
+      <c r="P22" s="115"/>
+      <c r="Q22" s="115"/>
+      <c r="R22" s="115"/>
+      <c r="S22" s="107"/>
+      <c r="T22" s="107"/>
+      <c r="U22" s="107"/>
+      <c r="V22" s="113"/>
+      <c r="W22" s="113"/>
+      <c r="X22" s="113"/>
+      <c r="Y22" s="113"/>
+      <c r="Z22" s="113"/>
+      <c r="AA22" s="113"/>
+      <c r="AB22" s="113"/>
+      <c r="AC22" s="113"/>
+      <c r="AD22" s="113"/>
+      <c r="AE22" s="113"/>
+      <c r="AF22" s="113"/>
+      <c r="AG22" s="113"/>
+      <c r="AH22" s="113"/>
+      <c r="AI22" s="113"/>
+      <c r="AJ22" s="113"/>
+      <c r="AK22" s="113"/>
+      <c r="AL22" s="113"/>
+      <c r="AM22" s="113"/>
+      <c r="AN22" s="107"/>
+      <c r="AO22" s="107"/>
+      <c r="AP22" s="107"/>
+      <c r="AQ22" s="107"/>
+      <c r="AR22" s="107"/>
+      <c r="AS22" s="107"/>
+      <c r="AT22" s="107"/>
+      <c r="AU22" s="107"/>
+      <c r="AV22" s="107"/>
+      <c r="AW22" s="107"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="54"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="120"/>
-      <c r="L23" s="120"/>
-      <c r="M23" s="123"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="123"/>
-      <c r="S23" s="117"/>
-      <c r="T23" s="117"/>
-      <c r="U23" s="117"/>
-      <c r="V23" s="124"/>
-      <c r="W23" s="124"/>
-      <c r="X23" s="124"/>
-      <c r="Y23" s="124"/>
-      <c r="Z23" s="124"/>
-      <c r="AA23" s="124"/>
-      <c r="AB23" s="124"/>
-      <c r="AC23" s="124"/>
-      <c r="AD23" s="124"/>
-      <c r="AE23" s="124"/>
-      <c r="AF23" s="124"/>
-      <c r="AG23" s="124"/>
-      <c r="AH23" s="124"/>
-      <c r="AI23" s="124"/>
-      <c r="AJ23" s="124"/>
-      <c r="AK23" s="124"/>
-      <c r="AL23" s="124"/>
-      <c r="AM23" s="124"/>
-      <c r="AN23" s="117"/>
-      <c r="AO23" s="117"/>
-      <c r="AP23" s="117"/>
-      <c r="AQ23" s="117"/>
-      <c r="AR23" s="117"/>
-      <c r="AS23" s="117"/>
-      <c r="AT23" s="117"/>
-      <c r="AU23" s="117"/>
-      <c r="AV23" s="117"/>
-      <c r="AW23" s="117"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="115"/>
+      <c r="Q23" s="115"/>
+      <c r="R23" s="115"/>
+      <c r="S23" s="107"/>
+      <c r="T23" s="107"/>
+      <c r="U23" s="107"/>
+      <c r="V23" s="113"/>
+      <c r="W23" s="113"/>
+      <c r="X23" s="113"/>
+      <c r="Y23" s="113"/>
+      <c r="Z23" s="113"/>
+      <c r="AA23" s="113"/>
+      <c r="AB23" s="113"/>
+      <c r="AC23" s="113"/>
+      <c r="AD23" s="113"/>
+      <c r="AE23" s="113"/>
+      <c r="AF23" s="113"/>
+      <c r="AG23" s="113"/>
+      <c r="AH23" s="113"/>
+      <c r="AI23" s="113"/>
+      <c r="AJ23" s="113"/>
+      <c r="AK23" s="113"/>
+      <c r="AL23" s="113"/>
+      <c r="AM23" s="113"/>
+      <c r="AN23" s="107"/>
+      <c r="AO23" s="107"/>
+      <c r="AP23" s="107"/>
+      <c r="AQ23" s="107"/>
+      <c r="AR23" s="107"/>
+      <c r="AS23" s="107"/>
+      <c r="AT23" s="107"/>
+      <c r="AU23" s="107"/>
+      <c r="AV23" s="107"/>
+      <c r="AW23" s="107"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="120"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="123"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="123"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="123"/>
-      <c r="S24" s="117"/>
-      <c r="T24" s="117"/>
-      <c r="U24" s="117"/>
-      <c r="V24" s="124"/>
-      <c r="W24" s="124"/>
-      <c r="X24" s="124"/>
-      <c r="Y24" s="124"/>
-      <c r="Z24" s="124"/>
-      <c r="AA24" s="124"/>
-      <c r="AB24" s="124"/>
-      <c r="AC24" s="124"/>
-      <c r="AD24" s="124"/>
-      <c r="AE24" s="124"/>
-      <c r="AF24" s="124"/>
-      <c r="AG24" s="124"/>
-      <c r="AH24" s="124"/>
-      <c r="AI24" s="124"/>
-      <c r="AJ24" s="124"/>
-      <c r="AK24" s="124"/>
-      <c r="AL24" s="124"/>
-      <c r="AM24" s="124"/>
-      <c r="AN24" s="117"/>
-      <c r="AO24" s="117"/>
-      <c r="AP24" s="117"/>
-      <c r="AQ24" s="117"/>
-      <c r="AR24" s="117"/>
-      <c r="AS24" s="117"/>
-      <c r="AT24" s="117"/>
-      <c r="AU24" s="117"/>
-      <c r="AV24" s="117"/>
-      <c r="AW24" s="117"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="115"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="115"/>
+      <c r="Q24" s="115"/>
+      <c r="R24" s="115"/>
+      <c r="S24" s="107"/>
+      <c r="T24" s="107"/>
+      <c r="U24" s="107"/>
+      <c r="V24" s="113"/>
+      <c r="W24" s="113"/>
+      <c r="X24" s="113"/>
+      <c r="Y24" s="113"/>
+      <c r="Z24" s="113"/>
+      <c r="AA24" s="113"/>
+      <c r="AB24" s="113"/>
+      <c r="AC24" s="113"/>
+      <c r="AD24" s="113"/>
+      <c r="AE24" s="113"/>
+      <c r="AF24" s="113"/>
+      <c r="AG24" s="113"/>
+      <c r="AH24" s="113"/>
+      <c r="AI24" s="113"/>
+      <c r="AJ24" s="113"/>
+      <c r="AK24" s="113"/>
+      <c r="AL24" s="113"/>
+      <c r="AM24" s="113"/>
+      <c r="AN24" s="107"/>
+      <c r="AO24" s="107"/>
+      <c r="AP24" s="107"/>
+      <c r="AQ24" s="107"/>
+      <c r="AR24" s="107"/>
+      <c r="AS24" s="107"/>
+      <c r="AT24" s="107"/>
+      <c r="AU24" s="107"/>
+      <c r="AV24" s="107"/>
+      <c r="AW24" s="107"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="120"/>
-      <c r="K25" s="120"/>
-      <c r="L25" s="120"/>
-      <c r="M25" s="126"/>
-      <c r="N25" s="123"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="123"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="123"/>
-      <c r="S25" s="117"/>
-      <c r="T25" s="117"/>
-      <c r="U25" s="117"/>
-      <c r="V25" s="124"/>
-      <c r="W25" s="124"/>
-      <c r="X25" s="124"/>
-      <c r="Y25" s="124"/>
-      <c r="Z25" s="124"/>
-      <c r="AA25" s="124"/>
-      <c r="AB25" s="124"/>
-      <c r="AC25" s="124"/>
-      <c r="AD25" s="124"/>
-      <c r="AE25" s="124"/>
-      <c r="AF25" s="124"/>
-      <c r="AG25" s="124"/>
-      <c r="AH25" s="124"/>
-      <c r="AI25" s="124"/>
-      <c r="AJ25" s="124"/>
-      <c r="AK25" s="124"/>
-      <c r="AL25" s="124"/>
-      <c r="AM25" s="124"/>
-      <c r="AN25" s="117"/>
-      <c r="AO25" s="117"/>
-      <c r="AP25" s="117"/>
-      <c r="AQ25" s="117"/>
-      <c r="AR25" s="117"/>
-      <c r="AS25" s="117"/>
-      <c r="AT25" s="117"/>
-      <c r="AU25" s="117"/>
-      <c r="AV25" s="117"/>
-      <c r="AW25" s="117"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="114"/>
+      <c r="N25" s="115"/>
+      <c r="O25" s="115"/>
+      <c r="P25" s="115"/>
+      <c r="Q25" s="115"/>
+      <c r="R25" s="115"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="107"/>
+      <c r="U25" s="107"/>
+      <c r="V25" s="113"/>
+      <c r="W25" s="113"/>
+      <c r="X25" s="113"/>
+      <c r="Y25" s="113"/>
+      <c r="Z25" s="113"/>
+      <c r="AA25" s="113"/>
+      <c r="AB25" s="113"/>
+      <c r="AC25" s="113"/>
+      <c r="AD25" s="113"/>
+      <c r="AE25" s="113"/>
+      <c r="AF25" s="113"/>
+      <c r="AG25" s="113"/>
+      <c r="AH25" s="113"/>
+      <c r="AI25" s="113"/>
+      <c r="AJ25" s="113"/>
+      <c r="AK25" s="113"/>
+      <c r="AL25" s="113"/>
+      <c r="AM25" s="113"/>
+      <c r="AN25" s="107"/>
+      <c r="AO25" s="107"/>
+      <c r="AP25" s="107"/>
+      <c r="AQ25" s="107"/>
+      <c r="AR25" s="107"/>
+      <c r="AS25" s="107"/>
+      <c r="AT25" s="107"/>
+      <c r="AU25" s="107"/>
+      <c r="AV25" s="107"/>
+      <c r="AW25" s="107"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="120"/>
-      <c r="L26" s="120"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="123"/>
-      <c r="O26" s="123"/>
-      <c r="P26" s="123"/>
-      <c r="Q26" s="123"/>
-      <c r="R26" s="123"/>
-      <c r="S26" s="117"/>
-      <c r="T26" s="117"/>
-      <c r="U26" s="117"/>
-      <c r="V26" s="124"/>
-      <c r="W26" s="124"/>
-      <c r="X26" s="124"/>
-      <c r="Y26" s="124"/>
-      <c r="Z26" s="124"/>
-      <c r="AA26" s="124"/>
-      <c r="AB26" s="124"/>
-      <c r="AC26" s="124"/>
-      <c r="AD26" s="124"/>
-      <c r="AE26" s="124"/>
-      <c r="AF26" s="124"/>
-      <c r="AG26" s="124"/>
-      <c r="AH26" s="124"/>
-      <c r="AI26" s="124"/>
-      <c r="AJ26" s="124"/>
-      <c r="AK26" s="124"/>
-      <c r="AL26" s="124"/>
-      <c r="AM26" s="124"/>
-      <c r="AN26" s="117"/>
-      <c r="AO26" s="117"/>
-      <c r="AP26" s="117"/>
-      <c r="AQ26" s="117"/>
-      <c r="AR26" s="117"/>
-      <c r="AS26" s="117"/>
-      <c r="AT26" s="117"/>
-      <c r="AU26" s="117"/>
-      <c r="AV26" s="117"/>
-      <c r="AW26" s="117"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="114"/>
+      <c r="N26" s="115"/>
+      <c r="O26" s="115"/>
+      <c r="P26" s="115"/>
+      <c r="Q26" s="115"/>
+      <c r="R26" s="115"/>
+      <c r="S26" s="107"/>
+      <c r="T26" s="107"/>
+      <c r="U26" s="107"/>
+      <c r="V26" s="113"/>
+      <c r="W26" s="113"/>
+      <c r="X26" s="113"/>
+      <c r="Y26" s="113"/>
+      <c r="Z26" s="113"/>
+      <c r="AA26" s="113"/>
+      <c r="AB26" s="113"/>
+      <c r="AC26" s="113"/>
+      <c r="AD26" s="113"/>
+      <c r="AE26" s="113"/>
+      <c r="AF26" s="113"/>
+      <c r="AG26" s="113"/>
+      <c r="AH26" s="113"/>
+      <c r="AI26" s="113"/>
+      <c r="AJ26" s="113"/>
+      <c r="AK26" s="113"/>
+      <c r="AL26" s="113"/>
+      <c r="AM26" s="113"/>
+      <c r="AN26" s="107"/>
+      <c r="AO26" s="107"/>
+      <c r="AP26" s="107"/>
+      <c r="AQ26" s="107"/>
+      <c r="AR26" s="107"/>
+      <c r="AS26" s="107"/>
+      <c r="AT26" s="107"/>
+      <c r="AU26" s="107"/>
+      <c r="AV26" s="107"/>
+      <c r="AW26" s="107"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac: